--- a/players_ratings.xlsx
+++ b/players_ratings.xlsx
@@ -1420,14 +1420,14 @@
         <v>6.5</v>
       </c>
       <c r="D41" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
-        <v>5.53</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="42">
@@ -1609,25 +1609,25 @@
         <v>6.5</v>
       </c>
       <c r="C49" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="D49" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="E49" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="F49" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="G49" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="H49" t="n">
         <v>7.2</v>
       </c>
       <c r="I49" t="n">
-        <v>6.83</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="50">
@@ -1661,7 +1661,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="C52" t="n">
         <v>6.4</v>
@@ -1673,16 +1673,16 @@
         <v>6.7</v>
       </c>
       <c r="F52" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="G52" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="H52" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="I52" t="n">
-        <v>6.67</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="53">
@@ -1706,25 +1706,25 @@
         <v>6.3</v>
       </c>
       <c r="C54" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="D54" t="n">
         <v>7.1</v>
       </c>
       <c r="E54" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="F54" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="G54" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="H54" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="I54" t="n">
-        <v>6.61</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="55">
@@ -1850,12 +1850,14 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C61" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="D61" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="D61" t="n">
+        <v>6.7</v>
+      </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
@@ -2143,13 +2145,13 @@
         <v>7</v>
       </c>
       <c r="E73" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="n">
-        <v>6.95</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="74">
@@ -2527,20 +2529,20 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="C92" t="n">
         <v>7</v>
       </c>
       <c r="D92" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="n">
-        <v>6.8</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="93">
@@ -2554,22 +2556,22 @@
         <v>6.5</v>
       </c>
       <c r="D93" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="E93" t="n">
         <v>7</v>
       </c>
       <c r="F93" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="G93" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="H93" t="n">
         <v>6.4</v>
       </c>
       <c r="I93" t="n">
-        <v>6.84</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="94">
@@ -4538,10 +4540,10 @@
         <v>6.8</v>
       </c>
       <c r="H175" t="n">
-        <v>7.5</v>
+        <v>6.3</v>
       </c>
       <c r="I175" t="n">
-        <v>6.83</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="176">
@@ -6049,18 +6051,20 @@
         <v>237</v>
       </c>
       <c r="B238" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="C238" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="D238" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="D238" t="n">
+        <v>6.7</v>
+      </c>
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="inlineStr"/>
       <c r="G238" t="inlineStr"/>
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="n">
-        <v>6.85</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="239">
@@ -6973,25 +6977,25 @@
         <v>6.7</v>
       </c>
       <c r="C275" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="D275" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="E275" t="n">
         <v>6.6</v>
       </c>
       <c r="F275" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="G275" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="H275" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="I275" t="n">
-        <v>6.69</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="276">
@@ -7753,28 +7757,28 @@
         <v>301</v>
       </c>
       <c r="B302" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="C302" t="n">
         <v>6.8</v>
       </c>
       <c r="D302" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E302" t="n">
         <v>7.7</v>
       </c>
-      <c r="E302" t="n">
+      <c r="F302" t="n">
         <v>7.8</v>
       </c>
-      <c r="F302" t="n">
+      <c r="G302" t="n">
         <v>7.4</v>
       </c>
-      <c r="G302" t="n">
+      <c r="H302" t="n">
         <v>7.6</v>
       </c>
-      <c r="H302" t="n">
-        <v>8.1</v>
-      </c>
       <c r="I302" t="n">
-        <v>7.46</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="303">
@@ -8217,10 +8221,10 @@
         <v>317</v>
       </c>
       <c r="B318" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="C318" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D318" t="n">
         <v>6.6</v>
@@ -8229,16 +8233,16 @@
         <v>6.6</v>
       </c>
       <c r="F318" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="G318" t="n">
         <v>7.1</v>
       </c>
       <c r="H318" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="I318" t="n">
-        <v>7.21</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="319">

--- a/players_ratings.xlsx
+++ b/players_ratings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I340"/>
+  <dimension ref="A1:I366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4639,13 +4639,13 @@
         <v>6.9</v>
       </c>
       <c r="G179" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="H179" t="n">
         <v>6.6</v>
       </c>
       <c r="I179" t="n">
-        <v>6.8</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="180">
@@ -4823,7 +4823,7 @@
         <v>6.6</v>
       </c>
       <c r="D186" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="E186" t="n">
         <v>6.5</v>
@@ -4832,13 +4832,13 @@
         <v>6.5</v>
       </c>
       <c r="G186" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="H186" t="n">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="I186" t="n">
-        <v>6.49</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="187">
@@ -7119,28 +7119,28 @@
         <v>279</v>
       </c>
       <c r="B280" t="n">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="C280" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="D280" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="E280" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="F280" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="G280" t="n">
+        <v>7</v>
+      </c>
+      <c r="H280" t="n">
         <v>6</v>
       </c>
-      <c r="H280" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I280" t="n">
-        <v>6.76</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="281">
@@ -7479,16 +7479,16 @@
         <v>6.8</v>
       </c>
       <c r="F292" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G292" t="n">
         <v>7.1</v>
       </c>
-      <c r="G292" t="n">
+      <c r="H292" t="n">
         <v>7.9</v>
       </c>
-      <c r="H292" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I292" t="n">
-        <v>7.34</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="293">
@@ -8867,6 +8867,712 @@
         <v>6.93</v>
       </c>
     </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B341" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C341" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D341" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E341" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="F341" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G341" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="H341" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="I341" t="n">
+        <v>7.33</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B342" t="inlineStr"/>
+      <c r="C342" t="inlineStr"/>
+      <c r="D342" t="inlineStr"/>
+      <c r="E342" t="inlineStr"/>
+      <c r="F342" t="inlineStr"/>
+      <c r="G342" t="inlineStr"/>
+      <c r="H342" t="inlineStr"/>
+      <c r="I342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B343" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C343" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D343" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="E343" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F343" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G343" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H343" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="I343" t="n">
+        <v>7.27</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B344" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C344" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D344" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E344" t="inlineStr"/>
+      <c r="F344" t="inlineStr"/>
+      <c r="G344" t="inlineStr"/>
+      <c r="H344" t="inlineStr"/>
+      <c r="I344" t="n">
+        <v>6.57</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B345" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C345" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="D345" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="E345" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="F345" t="n">
+        <v>7</v>
+      </c>
+      <c r="G345" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H345" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="I345" t="n">
+        <v>7.63</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B346" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C346" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D346" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E346" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F346" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G346" t="n">
+        <v>6</v>
+      </c>
+      <c r="H346" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="I346" t="n">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B347" t="n">
+        <v>7</v>
+      </c>
+      <c r="C347" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D347" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E347" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="F347" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G347" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H347" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="I347" t="n">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B348" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C348" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="D348" t="n">
+        <v>8</v>
+      </c>
+      <c r="E348" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F348" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="G348" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H348" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="I348" t="n">
+        <v>7.69</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B349" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C349" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D349" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="E349" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="F349" t="n">
+        <v>7</v>
+      </c>
+      <c r="G349" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H349" t="n">
+        <v>8</v>
+      </c>
+      <c r="I349" t="n">
+        <v>6.93</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B350" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C350" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D350" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="E350" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F350" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="G350" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H350" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I350" t="n">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B351" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C351" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D351" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E351" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F351" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G351" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H351" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I351" t="n">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B352" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C352" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D352" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="E352" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F352" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G352" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H352" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="I352" t="n">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B353" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C353" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D353" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E353" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F353" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G353" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H353" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I353" t="n">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B354" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C354" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D354" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E354" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F354" t="inlineStr"/>
+      <c r="G354" t="inlineStr"/>
+      <c r="H354" t="inlineStr"/>
+      <c r="I354" t="n">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B355" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C355" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D355" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E355" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="F355" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="G355" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H355" t="n">
+        <v>7</v>
+      </c>
+      <c r="I355" t="n">
+        <v>6.84</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B356" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C356" t="inlineStr"/>
+      <c r="D356" t="inlineStr"/>
+      <c r="E356" t="inlineStr"/>
+      <c r="F356" t="inlineStr"/>
+      <c r="G356" t="inlineStr"/>
+      <c r="H356" t="inlineStr"/>
+      <c r="I356" t="n">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B357" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C357" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D357" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E357" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F357" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G357" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H357" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="I357" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B358" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C358" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="D358" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E358" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F358" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G358" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H358" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B359" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C359" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D359" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E359" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F359" t="inlineStr"/>
+      <c r="G359" t="inlineStr"/>
+      <c r="H359" t="inlineStr"/>
+      <c r="I359" t="n">
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B360" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C360" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D360" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="E360" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="F360" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G360" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H360" t="n">
+        <v>7</v>
+      </c>
+      <c r="I360" t="n">
+        <v>6.89</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B361" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C361" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D361" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="E361" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F361" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G361" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="H361" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="I361" t="n">
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B362" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C362" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D362" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="E362" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F362" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="G362" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H362" t="n">
+        <v>8</v>
+      </c>
+      <c r="I362" t="n">
+        <v>7.69</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B363" t="n">
+        <v>7</v>
+      </c>
+      <c r="C363" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="D363" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E363" t="n">
+        <v>7</v>
+      </c>
+      <c r="F363" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G363" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="H363" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="I363" t="n">
+        <v>7.69</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B364" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C364" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D364" t="n">
+        <v>7</v>
+      </c>
+      <c r="E364" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="F364" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="G364" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H364" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I364" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B365" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C365" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D365" t="n">
+        <v>6</v>
+      </c>
+      <c r="E365" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F365" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G365" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H365" t="n">
+        <v>7</v>
+      </c>
+      <c r="I365" t="n">
+        <v>6.89</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B366" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C366" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="D366" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="E366" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="F366" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G366" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H366" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>7.19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/players_ratings.xlsx
+++ b/players_ratings.xlsx
@@ -1791,28 +1791,28 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C58" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="C58" t="n">
+      <c r="D58" t="n">
         <v>7.7</v>
       </c>
-      <c r="D58" t="n">
+      <c r="E58" t="n">
         <v>7.6</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>7.7</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>7.2</v>
       </c>
-      <c r="G58" t="n">
+      <c r="H58" t="n">
         <v>7.3</v>
       </c>
-      <c r="H58" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I58" t="n">
-        <v>7.54</v>
+        <v>7.66</v>
       </c>
     </row>
     <row r="59">
@@ -1900,28 +1900,28 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C63" t="n">
         <v>5.5</v>
       </c>
-      <c r="C63" t="n">
-        <v>7</v>
-      </c>
       <c r="D63" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="E63" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F63" t="n">
         <v>6.2</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="G63" t="n">
+      <c r="H63" t="n">
         <v>8.1</v>
       </c>
-      <c r="H63" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I63" t="n">
-        <v>6.97</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="64">
@@ -1929,28 +1929,28 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="C64" t="n">
         <v>6.2</v>
       </c>
       <c r="D64" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="E64" t="n">
         <v>6.1</v>
       </c>
-      <c r="E64" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F64" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G64" t="n">
         <v>6</v>
       </c>
-      <c r="G64" t="n">
-        <v>6.4</v>
-      </c>
       <c r="H64" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="I64" t="n">
-        <v>6.17</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="65">
@@ -1987,28 +1987,28 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C66" t="n">
         <v>7.5</v>
       </c>
-      <c r="C66" t="n">
+      <c r="D66" t="n">
         <v>6.3</v>
       </c>
-      <c r="D66" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E66" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="F66" t="n">
         <v>6.8</v>
       </c>
       <c r="G66" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="H66" t="n">
         <v>7.4</v>
       </c>
       <c r="I66" t="n">
-        <v>6.99</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="67">
@@ -2016,22 +2016,24 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="C67" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="D67" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E67" t="n">
         <v>7.1</v>
       </c>
-      <c r="E67" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="F67" t="inlineStr"/>
+      <c r="F67" t="n">
+        <v>6.6</v>
+      </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="n">
-        <v>6.78</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="68">
@@ -2349,28 +2351,28 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="C82" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D82" t="n">
         <v>7.3</v>
       </c>
-      <c r="D82" t="n">
+      <c r="E82" t="n">
         <v>7.5</v>
       </c>
-      <c r="E82" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F82" t="n">
         <v>6.9</v>
       </c>
       <c r="G82" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="H82" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="I82" t="n">
-        <v>6.9</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="83">
@@ -2654,28 +2656,28 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="C97" t="n">
         <v>6.8</v>
       </c>
       <c r="D97" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="E97" t="n">
         <v>6.5</v>
       </c>
       <c r="F97" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G97" t="n">
         <v>6.3</v>
       </c>
-      <c r="G97" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H97" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I97" t="n">
-        <v>6.56</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="98">
@@ -2916,22 +2918,24 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="C109" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="D109" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="E109" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="F109" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="F109" t="n">
+        <v>6.6</v>
+      </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="n">
-        <v>6.55</v>
+        <v>6.62</v>
       </c>
     </row>
     <row r="110">
@@ -2968,13 +2972,13 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="C111" t="n">
         <v>6.5</v>
       </c>
       <c r="D111" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="E111" t="n">
         <v>6.6</v>
@@ -2986,10 +2990,10 @@
         <v>6.6</v>
       </c>
       <c r="H111" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="I111" t="n">
-        <v>6.56</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="112">
@@ -2997,28 +3001,28 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C112" t="n">
         <v>7.3</v>
       </c>
-      <c r="C112" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D112" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E112" t="n">
         <v>7.9</v>
       </c>
-      <c r="E112" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F112" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="G112" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H112" t="n">
         <v>7.4</v>
       </c>
-      <c r="H112" t="n">
-        <v>8.300000000000001</v>
-      </c>
       <c r="I112" t="n">
-        <v>7.31</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="113">
@@ -3039,28 +3043,28 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C114" t="n">
         <v>7.2</v>
       </c>
-      <c r="C114" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D114" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="E114" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="F114" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="G114" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H114" t="n">
         <v>7.5</v>
       </c>
-      <c r="H114" t="n">
-        <v>7.2</v>
-      </c>
       <c r="I114" t="n">
-        <v>6.96</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="115">
@@ -4639,13 +4643,13 @@
         <v>6.9</v>
       </c>
       <c r="G179" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="H179" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="I179" t="n">
-        <v>6.79</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="180">
@@ -5092,28 +5096,28 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="C197" t="n">
-        <v>6.8</v>
+        <v>7.9</v>
       </c>
       <c r="D197" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="E197" t="n">
         <v>6.8</v>
       </c>
       <c r="F197" t="n">
-        <v>7.7</v>
+        <v>6.7</v>
       </c>
       <c r="G197" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="H197" t="n">
         <v>7.7</v>
       </c>
       <c r="I197" t="n">
-        <v>7.06</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="198">
@@ -5611,28 +5615,28 @@
         <v>217</v>
       </c>
       <c r="B218" t="n">
+        <v>7</v>
+      </c>
+      <c r="C218" t="n">
         <v>7.3</v>
       </c>
-      <c r="C218" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D218" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E218" t="n">
         <v>7.3</v>
       </c>
-      <c r="E218" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F218" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G218" t="n">
         <v>6</v>
       </c>
-      <c r="G218" t="n">
+      <c r="H218" t="n">
         <v>7.7</v>
       </c>
-      <c r="H218" t="n">
-        <v>7.1</v>
-      </c>
       <c r="I218" t="n">
-        <v>6.97</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="219">
@@ -5640,25 +5644,25 @@
         <v>218</v>
       </c>
       <c r="B219" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="C219" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="D219" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="E219" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F219" t="n">
         <v>7.3</v>
       </c>
-      <c r="F219" t="n">
-        <v>7</v>
-      </c>
       <c r="G219" t="n">
+        <v>7</v>
+      </c>
+      <c r="H219" t="n">
         <v>6.1</v>
-      </c>
-      <c r="H219" t="n">
-        <v>6.5</v>
       </c>
       <c r="I219" t="n">
         <v>6.7</v>
@@ -5669,28 +5673,28 @@
         <v>219</v>
       </c>
       <c r="B220" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C220" t="n">
         <v>7.7</v>
       </c>
-      <c r="C220" t="n">
+      <c r="D220" t="n">
         <v>7.3</v>
       </c>
-      <c r="D220" t="n">
+      <c r="E220" t="n">
         <v>5.9</v>
       </c>
-      <c r="E220" t="n">
-        <v>6.4</v>
-      </c>
       <c r="F220" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="G220" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H220" t="n">
         <v>7.2</v>
       </c>
-      <c r="H220" t="n">
-        <v>7.3</v>
-      </c>
       <c r="I220" t="n">
-        <v>6.94</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="221">
@@ -5724,28 +5728,28 @@
         <v>222</v>
       </c>
       <c r="B223" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C223" t="n">
         <v>7.1</v>
       </c>
-      <c r="C223" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D223" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E223" t="n">
         <v>7.6</v>
       </c>
-      <c r="E223" t="n">
+      <c r="F223" t="n">
         <v>7.1</v>
       </c>
-      <c r="F223" t="n">
+      <c r="G223" t="n">
         <v>7.4</v>
       </c>
-      <c r="G223" t="n">
+      <c r="H223" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="H223" t="n">
-        <v>6</v>
-      </c>
       <c r="I223" t="n">
-        <v>7.17</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="224">
@@ -5766,28 +5770,28 @@
         <v>224</v>
       </c>
       <c r="B225" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="C225" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="D225" t="n">
+        <v>7</v>
+      </c>
+      <c r="E225" t="n">
         <v>7.1</v>
       </c>
-      <c r="E225" t="n">
+      <c r="F225" t="n">
         <v>7.2</v>
       </c>
-      <c r="F225" t="n">
+      <c r="G225" t="n">
         <v>7.5</v>
       </c>
-      <c r="G225" t="n">
+      <c r="H225" t="n">
         <v>6.3</v>
       </c>
-      <c r="H225" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I225" t="n">
-        <v>6.93</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="226">
@@ -5866,28 +5870,28 @@
         <v>228</v>
       </c>
       <c r="B229" t="n">
+        <v>8</v>
+      </c>
+      <c r="C229" t="n">
         <v>7.1</v>
       </c>
-      <c r="C229" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D229" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="E229" t="n">
         <v>6.9</v>
       </c>
       <c r="F229" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="G229" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H229" t="n">
         <v>7.8</v>
       </c>
-      <c r="H229" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I229" t="n">
-        <v>6.94</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="230">
@@ -5937,15 +5941,17 @@
         <v>6.5</v>
       </c>
       <c r="C233" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="D233" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="E233" t="n">
         <v>6.5</v>
       </c>
-      <c r="F233" t="inlineStr"/>
+      <c r="F233" t="n">
+        <v>6.5</v>
+      </c>
       <c r="G233" t="inlineStr"/>
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="n">
@@ -6022,28 +6028,28 @@
         <v>236</v>
       </c>
       <c r="B237" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C237" t="n">
         <v>7.5</v>
       </c>
-      <c r="C237" t="n">
+      <c r="D237" t="n">
         <v>7.2</v>
       </c>
-      <c r="D237" t="n">
+      <c r="E237" t="n">
         <v>7.3</v>
       </c>
-      <c r="E237" t="n">
-        <v>7</v>
-      </c>
       <c r="F237" t="n">
+        <v>7</v>
+      </c>
+      <c r="G237" t="n">
         <v>7.3</v>
       </c>
-      <c r="G237" t="n">
+      <c r="H237" t="n">
         <v>7.5</v>
       </c>
-      <c r="H237" t="n">
-        <v>7.9</v>
-      </c>
       <c r="I237" t="n">
-        <v>7.39</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="238">
@@ -6106,28 +6112,28 @@
         <v>240</v>
       </c>
       <c r="B241" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="C241" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="D241" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="E241" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="F241" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="G241" t="n">
         <v>6.5</v>
       </c>
       <c r="H241" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="I241" t="n">
-        <v>6.53</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="242">
@@ -6497,28 +6503,28 @@
         <v>257</v>
       </c>
       <c r="B258" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="C258" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D258" t="n">
         <v>6.2</v>
       </c>
-      <c r="D258" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E258" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="F258" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G258" t="n">
         <v>7.3</v>
       </c>
-      <c r="G258" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H258" t="n">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="I258" t="n">
-        <v>6.63</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="259">
@@ -7090,25 +7096,25 @@
         <v>278</v>
       </c>
       <c r="B279" t="n">
+        <v>7</v>
+      </c>
+      <c r="C279" t="n">
         <v>7.7</v>
       </c>
-      <c r="C279" t="n">
+      <c r="D279" t="n">
         <v>7.2</v>
       </c>
-      <c r="D279" t="n">
+      <c r="E279" t="n">
         <v>7.5</v>
       </c>
-      <c r="E279" t="n">
+      <c r="F279" t="n">
         <v>7.1</v>
       </c>
-      <c r="F279" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G279" t="n">
         <v>6.7</v>
       </c>
       <c r="H279" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="I279" t="n">
         <v>7.13</v>
@@ -7119,28 +7125,28 @@
         <v>279</v>
       </c>
       <c r="B280" t="n">
+        <v>7</v>
+      </c>
+      <c r="C280" t="n">
         <v>7.3</v>
       </c>
-      <c r="C280" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D280" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="E280" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="F280" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="G280" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="H280" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I280" t="n">
-        <v>6.81</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="281">
@@ -7148,28 +7154,28 @@
         <v>280</v>
       </c>
       <c r="B281" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="C281" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D281" t="n">
         <v>7.2</v>
       </c>
-      <c r="D281" t="n">
+      <c r="E281" t="n">
         <v>7.3</v>
       </c>
-      <c r="E281" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F281" t="n">
         <v>6.5</v>
       </c>
       <c r="G281" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H281" t="n">
         <v>7.8</v>
       </c>
-      <c r="H281" t="n">
-        <v>7.3</v>
-      </c>
       <c r="I281" t="n">
-        <v>7.07</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="282">
@@ -7525,28 +7531,28 @@
         <v>293</v>
       </c>
       <c r="B294" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="C294" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D294" t="n">
         <v>7.2</v>
       </c>
-      <c r="D294" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E294" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="F294" t="n">
+        <v>7</v>
+      </c>
+      <c r="G294" t="n">
         <v>7.6</v>
       </c>
-      <c r="G294" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H294" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="I294" t="n">
-        <v>6.89</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="295">
@@ -7554,28 +7560,28 @@
         <v>294</v>
       </c>
       <c r="B295" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="C295" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D295" t="n">
         <v>6.2</v>
       </c>
-      <c r="D295" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E295" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="F295" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="G295" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H295" t="n">
         <v>6.1</v>
       </c>
-      <c r="H295" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="I295" t="n">
-        <v>6.7</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="296">
@@ -7699,28 +7705,28 @@
         <v>299</v>
       </c>
       <c r="B300" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="C300" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D300" t="n">
         <v>6.3</v>
       </c>
-      <c r="D300" t="n">
+      <c r="E300" t="n">
         <v>7.2</v>
       </c>
-      <c r="E300" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F300" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G300" t="n">
         <v>7.4</v>
       </c>
-      <c r="G300" t="n">
+      <c r="H300" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="H300" t="n">
-        <v>7.8</v>
-      </c>
       <c r="I300" t="n">
-        <v>7.23</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="301">
@@ -7728,28 +7734,28 @@
         <v>300</v>
       </c>
       <c r="B301" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="C301" t="n">
         <v>7.2</v>
       </c>
       <c r="D301" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="E301" t="n">
         <v>6.7</v>
       </c>
       <c r="F301" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="G301" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="H301" t="n">
-        <v>3.4</v>
+        <v>6.6</v>
       </c>
       <c r="I301" t="n">
-        <v>6.4</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="302">
@@ -7757,28 +7763,28 @@
         <v>301</v>
       </c>
       <c r="B302" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C302" t="n">
         <v>7.3</v>
       </c>
-      <c r="C302" t="n">
-        <v>6.8</v>
-      </c>
       <c r="D302" t="n">
         <v>6.8</v>
       </c>
       <c r="E302" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F302" t="n">
         <v>7.7</v>
       </c>
-      <c r="F302" t="n">
+      <c r="G302" t="n">
         <v>7.8</v>
       </c>
-      <c r="G302" t="n">
+      <c r="H302" t="n">
         <v>7.4</v>
       </c>
-      <c r="H302" t="n">
-        <v>7.6</v>
-      </c>
       <c r="I302" t="n">
-        <v>7.34</v>
+        <v>7.21</v>
       </c>
     </row>
     <row r="303">
@@ -7847,25 +7853,25 @@
         <v>7.5</v>
       </c>
       <c r="C305" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="D305" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="E305" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="F305" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G305" t="n">
         <v>7.5</v>
       </c>
-      <c r="G305" t="n">
-        <v>7</v>
-      </c>
       <c r="H305" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="I305" t="n">
-        <v>7.01</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="306">
@@ -8343,22 +8349,22 @@
         <v>6.9</v>
       </c>
       <c r="D322" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="E322" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F322" t="n">
         <v>7.4</v>
       </c>
-      <c r="F322" t="n">
+      <c r="G322" t="n">
         <v>7.6</v>
       </c>
-      <c r="G322" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H322" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="I322" t="n">
-        <v>6.97</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="323">
@@ -8648,25 +8654,25 @@
         <v>332</v>
       </c>
       <c r="B333" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C333" t="n">
         <v>8</v>
       </c>
-      <c r="C333" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D333" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E333" t="n">
         <v>7.8</v>
       </c>
-      <c r="E333" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F333" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="G333" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H333" t="n">
         <v>7.3</v>
-      </c>
-      <c r="H333" t="n">
-        <v>6.6</v>
       </c>
       <c r="I333" t="n">
         <v>7.13</v>
@@ -8993,28 +8999,28 @@
         <v>345</v>
       </c>
       <c r="B346" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C346" t="n">
         <v>7.3</v>
       </c>
-      <c r="C346" t="n">
+      <c r="D346" t="n">
         <v>7.5</v>
       </c>
-      <c r="D346" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E346" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F346" t="n">
         <v>7.5</v>
       </c>
-      <c r="F346" t="n">
+      <c r="G346" t="n">
         <v>7.1</v>
       </c>
-      <c r="G346" t="n">
+      <c r="H346" t="n">
         <v>6</v>
       </c>
-      <c r="H346" t="n">
-        <v>8.300000000000001</v>
-      </c>
       <c r="I346" t="n">
-        <v>7.21</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="347">
@@ -9051,28 +9057,28 @@
         <v>347</v>
       </c>
       <c r="B348" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C348" t="n">
         <v>6.3</v>
       </c>
-      <c r="C348" t="n">
+      <c r="D348" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="D348" t="n">
+      <c r="E348" t="n">
         <v>8</v>
       </c>
-      <c r="E348" t="n">
+      <c r="F348" t="n">
         <v>7.4</v>
       </c>
-      <c r="F348" t="n">
+      <c r="G348" t="n">
         <v>8.1</v>
       </c>
-      <c r="G348" t="n">
+      <c r="H348" t="n">
         <v>7.4</v>
       </c>
-      <c r="H348" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I348" t="n">
-        <v>7.69</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="349">
@@ -9080,28 +9086,28 @@
         <v>348</v>
       </c>
       <c r="B349" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="C349" t="n">
         <v>6.5</v>
       </c>
       <c r="D349" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E349" t="n">
         <v>7.2</v>
       </c>
-      <c r="E349" t="n">
+      <c r="F349" t="n">
         <v>7.1</v>
       </c>
-      <c r="F349" t="n">
-        <v>7</v>
-      </c>
       <c r="G349" t="n">
+        <v>7</v>
+      </c>
+      <c r="H349" t="n">
         <v>6.2</v>
       </c>
-      <c r="H349" t="n">
-        <v>8</v>
-      </c>
       <c r="I349" t="n">
-        <v>6.93</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="350">
@@ -9109,28 +9115,28 @@
         <v>349</v>
       </c>
       <c r="B350" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="C350" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="D350" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E350" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F350" t="n">
         <v>7.2</v>
       </c>
-      <c r="E350" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="F350" t="n">
+      <c r="G350" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H350" t="n">
         <v>6.3</v>
       </c>
-      <c r="G350" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="H350" t="n">
-        <v>7.2</v>
-      </c>
       <c r="I350" t="n">
-        <v>6.59</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="351">
@@ -9462,28 +9468,28 @@
         <v>362</v>
       </c>
       <c r="B363" t="n">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="C363" t="n">
+        <v>7</v>
+      </c>
+      <c r="D363" t="n">
         <v>7.7</v>
       </c>
-      <c r="D363" t="n">
+      <c r="E363" t="n">
         <v>7.8</v>
       </c>
-      <c r="E363" t="n">
-        <v>7</v>
-      </c>
       <c r="F363" t="n">
+        <v>7</v>
+      </c>
+      <c r="G363" t="n">
         <v>7.5</v>
       </c>
-      <c r="G363" t="n">
+      <c r="H363" t="n">
         <v>8.1</v>
       </c>
-      <c r="H363" t="n">
-        <v>8.699999999999999</v>
-      </c>
       <c r="I363" t="n">
-        <v>7.69</v>
+        <v>7.54</v>
       </c>
     </row>
     <row r="364">

--- a/players_ratings.xlsx
+++ b/players_ratings.xlsx
@@ -1900,28 +1900,28 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="C63" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D63" t="n">
         <v>5.5</v>
       </c>
-      <c r="D63" t="n">
-        <v>7</v>
-      </c>
       <c r="E63" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="F63" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G63" t="n">
         <v>6.2</v>
       </c>
-      <c r="G63" t="n">
+      <c r="H63" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="H63" t="n">
-        <v>8.1</v>
-      </c>
       <c r="I63" t="n">
-        <v>6.94</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="64">
@@ -2351,25 +2351,25 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C82" t="n">
         <v>8.1</v>
       </c>
-      <c r="C82" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D82" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E82" t="n">
         <v>7.3</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>7.5</v>
       </c>
-      <c r="F82" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G82" t="n">
         <v>6.9</v>
       </c>
       <c r="H82" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="I82" t="n">
         <v>7.16</v>
@@ -2656,25 +2656,25 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="C97" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="D97" t="n">
         <v>6.8</v>
       </c>
       <c r="E97" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="F97" t="n">
         <v>6.5</v>
       </c>
       <c r="G97" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H97" t="n">
         <v>6.3</v>
-      </c>
-      <c r="H97" t="n">
-        <v>6.6</v>
       </c>
       <c r="I97" t="n">
         <v>6.6</v>
@@ -2698,25 +2698,25 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C99" t="n">
         <v>6.3</v>
       </c>
-      <c r="C99" t="n">
+      <c r="D99" t="n">
         <v>6.2</v>
       </c>
-      <c r="D99" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E99" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="F99" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G99" t="n">
         <v>7.1</v>
       </c>
-      <c r="G99" t="n">
-        <v>7</v>
-      </c>
       <c r="H99" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I99" t="n">
         <v>6.59</v>
@@ -2972,16 +2972,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C111" t="n">
         <v>6.3</v>
       </c>
-      <c r="C111" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D111" t="n">
         <v>6.5</v>
       </c>
       <c r="E111" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="F111" t="n">
         <v>6.6</v>
@@ -2993,7 +2993,7 @@
         <v>6.6</v>
       </c>
       <c r="I111" t="n">
-        <v>6.53</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="112">
@@ -3001,28 +3001,28 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="C112" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D112" t="n">
         <v>7.3</v>
       </c>
-      <c r="D112" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E112" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F112" t="n">
         <v>7.9</v>
       </c>
-      <c r="F112" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G112" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="H112" t="n">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="I112" t="n">
-        <v>7.04</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="113">
@@ -3043,28 +3043,28 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="C114" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D114" t="n">
         <v>7.2</v>
       </c>
-      <c r="D114" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E114" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="F114" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="G114" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="H114" t="n">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="I114" t="n">
-        <v>6.87</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="115">
@@ -4949,25 +4949,25 @@
         <v>7.5</v>
       </c>
       <c r="C191" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="D191" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E191" t="n">
         <v>7.3</v>
       </c>
-      <c r="E191" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F191" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G191" t="n">
         <v>5.9</v>
       </c>
-      <c r="G191" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H191" t="n">
         <v>6.5</v>
       </c>
       <c r="I191" t="n">
-        <v>6.7</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="192">
@@ -5096,28 +5096,28 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C197" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D197" t="n">
         <v>7.7</v>
       </c>
-      <c r="C197" t="n">
+      <c r="E197" t="n">
         <v>7.9</v>
       </c>
-      <c r="D197" t="n">
-        <v>7</v>
-      </c>
-      <c r="E197" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F197" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="G197" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="H197" t="n">
-        <v>7.7</v>
+        <v>6.8</v>
       </c>
       <c r="I197" t="n">
-        <v>7.23</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="198">
@@ -5206,22 +5206,22 @@
         <v>7.6</v>
       </c>
       <c r="D201" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="E201" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="F201" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="G201" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H201" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="I201" t="n">
-        <v>6.87</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="202">
@@ -5512,28 +5512,28 @@
         <v>212</v>
       </c>
       <c r="B213" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C213" t="n">
         <v>7.3</v>
       </c>
-      <c r="C213" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D213" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E213" t="n">
         <v>6.1</v>
       </c>
-      <c r="E213" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F213" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="G213" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H213" t="n">
         <v>6.3</v>
       </c>
-      <c r="H213" t="n">
-        <v>6.2</v>
-      </c>
       <c r="I213" t="n">
-        <v>6.5</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="214">
@@ -5673,28 +5673,28 @@
         <v>219</v>
       </c>
       <c r="B220" t="n">
+        <v>6</v>
+      </c>
+      <c r="C220" t="n">
         <v>7.4</v>
       </c>
-      <c r="C220" t="n">
+      <c r="D220" t="n">
         <v>7.7</v>
       </c>
-      <c r="D220" t="n">
+      <c r="E220" t="n">
         <v>7.3</v>
       </c>
-      <c r="E220" t="n">
+      <c r="F220" t="n">
         <v>5.9</v>
       </c>
-      <c r="F220" t="n">
-        <v>6.4</v>
-      </c>
       <c r="G220" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="H220" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="I220" t="n">
-        <v>6.96</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="221">
@@ -5728,28 +5728,28 @@
         <v>222</v>
       </c>
       <c r="B223" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="C223" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D223" t="n">
         <v>7.1</v>
       </c>
-      <c r="D223" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E223" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F223" t="n">
         <v>7.6</v>
       </c>
-      <c r="F223" t="n">
+      <c r="G223" t="n">
         <v>7.1</v>
       </c>
-      <c r="G223" t="n">
+      <c r="H223" t="n">
         <v>7.4</v>
       </c>
-      <c r="H223" t="n">
-        <v>8.300000000000001</v>
-      </c>
       <c r="I223" t="n">
-        <v>7.3</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="224">
@@ -5770,28 +5770,28 @@
         <v>224</v>
       </c>
       <c r="B225" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="C225" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="D225" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="E225" t="n">
+        <v>7</v>
+      </c>
+      <c r="F225" t="n">
         <v>7.1</v>
       </c>
-      <c r="F225" t="n">
+      <c r="G225" t="n">
         <v>7.2</v>
       </c>
-      <c r="G225" t="n">
+      <c r="H225" t="n">
         <v>7.5</v>
       </c>
-      <c r="H225" t="n">
-        <v>6.3</v>
-      </c>
       <c r="I225" t="n">
-        <v>6.96</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="226">
@@ -5841,28 +5841,28 @@
         <v>227</v>
       </c>
       <c r="B228" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="C228" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="D228" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E228" t="n">
         <v>6.3</v>
       </c>
-      <c r="E228" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F228" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="G228" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="H228" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="I228" t="n">
-        <v>6.57</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="229">
@@ -5870,28 +5870,28 @@
         <v>228</v>
       </c>
       <c r="B229" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C229" t="n">
         <v>8</v>
       </c>
-      <c r="C229" t="n">
+      <c r="D229" t="n">
         <v>7.1</v>
       </c>
-      <c r="D229" t="n">
-        <v>6.4</v>
-      </c>
       <c r="E229" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="F229" t="n">
         <v>6.9</v>
       </c>
       <c r="G229" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="H229" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="I229" t="n">
-        <v>7.13</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="230">
@@ -5938,24 +5938,26 @@
         <v>232</v>
       </c>
       <c r="B233" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="C233" t="n">
         <v>6.5</v>
       </c>
       <c r="D233" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="E233" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="F233" t="n">
         <v>6.5</v>
       </c>
-      <c r="G233" t="inlineStr"/>
+      <c r="G233" t="n">
+        <v>6.5</v>
+      </c>
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="n">
-        <v>6.48</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="234">
@@ -6112,28 +6114,28 @@
         <v>240</v>
       </c>
       <c r="B241" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C241" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="D241" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="E241" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="F241" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="G241" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="H241" t="n">
         <v>6.5</v>
       </c>
       <c r="I241" t="n">
-        <v>6.56</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="242">
@@ -7096,28 +7098,28 @@
         <v>278</v>
       </c>
       <c r="B279" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="C279" t="n">
+        <v>7</v>
+      </c>
+      <c r="D279" t="n">
         <v>7.7</v>
       </c>
-      <c r="D279" t="n">
+      <c r="E279" t="n">
         <v>7.2</v>
       </c>
-      <c r="E279" t="n">
+      <c r="F279" t="n">
         <v>7.5</v>
       </c>
-      <c r="F279" t="n">
+      <c r="G279" t="n">
         <v>7.1</v>
       </c>
-      <c r="G279" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H279" t="n">
         <v>6.7</v>
       </c>
       <c r="I279" t="n">
-        <v>7.13</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="280">
@@ -7125,28 +7127,28 @@
         <v>279</v>
       </c>
       <c r="B280" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="C280" t="n">
+        <v>7</v>
+      </c>
+      <c r="D280" t="n">
         <v>7.3</v>
       </c>
-      <c r="D280" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E280" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="F280" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="G280" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="H280" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="I280" t="n">
-        <v>6.96</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="281">
@@ -7375,10 +7377,10 @@
         <v>7.5</v>
       </c>
       <c r="H288" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="I288" t="n">
-        <v>7.44</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="289">
@@ -7705,28 +7707,28 @@
         <v>299</v>
       </c>
       <c r="B300" t="n">
-        <v>6.5</v>
+        <v>7.6</v>
       </c>
       <c r="C300" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="D300" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E300" t="n">
         <v>6.3</v>
       </c>
-      <c r="E300" t="n">
+      <c r="F300" t="n">
         <v>7.2</v>
       </c>
-      <c r="F300" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G300" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H300" t="n">
         <v>7.4</v>
       </c>
-      <c r="H300" t="n">
-        <v>8.300000000000001</v>
-      </c>
       <c r="I300" t="n">
-        <v>7.04</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="301">
@@ -7734,28 +7736,28 @@
         <v>300</v>
       </c>
       <c r="B301" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="C301" t="n">
         <v>7.8</v>
-      </c>
-      <c r="C301" t="n">
-        <v>7.2</v>
       </c>
       <c r="D301" t="n">
         <v>7.2</v>
       </c>
       <c r="E301" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="F301" t="n">
         <v>6.7</v>
       </c>
       <c r="G301" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="H301" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="I301" t="n">
-        <v>7.03</v>
+        <v>7.29</v>
       </c>
     </row>
     <row r="302">
@@ -7763,28 +7765,28 @@
         <v>301</v>
       </c>
       <c r="B302" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="C302" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D302" t="n">
         <v>7.3</v>
       </c>
-      <c r="D302" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E302" t="n">
         <v>6.8</v>
       </c>
       <c r="F302" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G302" t="n">
         <v>7.7</v>
       </c>
-      <c r="G302" t="n">
+      <c r="H302" t="n">
         <v>7.8</v>
       </c>
-      <c r="H302" t="n">
-        <v>7.4</v>
-      </c>
       <c r="I302" t="n">
-        <v>7.21</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="303">
@@ -7850,28 +7852,28 @@
         <v>304</v>
       </c>
       <c r="B305" t="n">
-        <v>7.5</v>
+        <v>6.3</v>
       </c>
       <c r="C305" t="n">
         <v>7.5</v>
       </c>
       <c r="D305" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="E305" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="F305" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="G305" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H305" t="n">
         <v>7.5</v>
       </c>
-      <c r="H305" t="n">
-        <v>7</v>
-      </c>
       <c r="I305" t="n">
-        <v>7.13</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="306">
@@ -8343,7 +8345,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="C322" t="n">
         <v>6.9</v>
@@ -8352,19 +8354,19 @@
         <v>6.9</v>
       </c>
       <c r="E322" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="F322" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G322" t="n">
         <v>7.4</v>
       </c>
-      <c r="G322" t="n">
+      <c r="H322" t="n">
         <v>7.6</v>
       </c>
-      <c r="H322" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I322" t="n">
-        <v>7.01</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="323">
@@ -8654,28 +8656,28 @@
         <v>332</v>
       </c>
       <c r="B333" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="C333" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D333" t="n">
         <v>8</v>
       </c>
-      <c r="D333" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E333" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F333" t="n">
         <v>7.8</v>
       </c>
-      <c r="F333" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G333" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="H333" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="I333" t="n">
-        <v>7.13</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="334">
@@ -8970,28 +8972,28 @@
         <v>344</v>
       </c>
       <c r="B345" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C345" t="n">
         <v>7.8</v>
       </c>
-      <c r="C345" t="n">
+      <c r="D345" t="n">
         <v>6.1</v>
       </c>
-      <c r="D345" t="n">
+      <c r="E345" t="n">
         <v>8.1</v>
       </c>
-      <c r="E345" t="n">
+      <c r="F345" t="n">
         <v>8.4</v>
       </c>
-      <c r="F345" t="n">
-        <v>7</v>
-      </c>
       <c r="G345" t="n">
+        <v>7</v>
+      </c>
+      <c r="H345" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="H345" t="n">
-        <v>7.3</v>
-      </c>
       <c r="I345" t="n">
-        <v>7.63</v>
+        <v>7.67</v>
       </c>
     </row>
     <row r="346">
@@ -9057,28 +9059,28 @@
         <v>347</v>
       </c>
       <c r="B348" t="n">
+        <v>7</v>
+      </c>
+      <c r="C348" t="n">
         <v>7.8</v>
       </c>
-      <c r="C348" t="n">
+      <c r="D348" t="n">
         <v>6.3</v>
       </c>
-      <c r="D348" t="n">
+      <c r="E348" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="E348" t="n">
+      <c r="F348" t="n">
         <v>8</v>
       </c>
-      <c r="F348" t="n">
+      <c r="G348" t="n">
         <v>7.4</v>
       </c>
-      <c r="G348" t="n">
+      <c r="H348" t="n">
         <v>8.1</v>
       </c>
-      <c r="H348" t="n">
-        <v>7.4</v>
-      </c>
       <c r="I348" t="n">
-        <v>7.81</v>
+        <v>7.76</v>
       </c>
     </row>
     <row r="349">
@@ -9086,28 +9088,28 @@
         <v>348</v>
       </c>
       <c r="B349" t="n">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="C349" t="n">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="D349" t="n">
         <v>6.5</v>
       </c>
       <c r="E349" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F349" t="n">
         <v>7.2</v>
       </c>
-      <c r="F349" t="n">
+      <c r="G349" t="n">
         <v>7.1</v>
       </c>
-      <c r="G349" t="n">
-        <v>7</v>
-      </c>
       <c r="H349" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="I349" t="n">
-        <v>6.86</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="350">
@@ -9115,28 +9117,28 @@
         <v>349</v>
       </c>
       <c r="B350" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C350" t="n">
         <v>6.1</v>
       </c>
-      <c r="C350" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D350" t="n">
         <v>6.5</v>
       </c>
       <c r="E350" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="F350" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G350" t="n">
         <v>7.2</v>
       </c>
-      <c r="G350" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H350" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="I350" t="n">
-        <v>6.51</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="351">
@@ -9347,10 +9349,10 @@
         <v>6.9</v>
       </c>
       <c r="H358" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="I358" t="n">
-        <v>6.99</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="359">
@@ -9468,28 +9470,28 @@
         <v>362</v>
       </c>
       <c r="B363" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C363" t="n">
         <v>7.7</v>
       </c>
-      <c r="C363" t="n">
-        <v>7</v>
-      </c>
       <c r="D363" t="n">
+        <v>7</v>
+      </c>
+      <c r="E363" t="n">
         <v>7.7</v>
       </c>
-      <c r="E363" t="n">
+      <c r="F363" t="n">
         <v>7.8</v>
       </c>
-      <c r="F363" t="n">
-        <v>7</v>
-      </c>
       <c r="G363" t="n">
+        <v>7</v>
+      </c>
+      <c r="H363" t="n">
         <v>7.5</v>
       </c>
-      <c r="H363" t="n">
-        <v>8.1</v>
-      </c>
       <c r="I363" t="n">
-        <v>7.54</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="364">

--- a/players_ratings.xlsx
+++ b/players_ratings.xlsx
@@ -1339,28 +1339,28 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="C38" t="n">
         <v>6.8</v>
       </c>
       <c r="D38" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="E38" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="F38" t="n">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="G38" t="n">
         <v>7.5</v>
       </c>
       <c r="H38" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="I38" t="n">
-        <v>7.04</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="39">
@@ -1900,28 +1900,28 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C63" t="n">
         <v>7.9</v>
       </c>
-      <c r="C63" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D63" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E63" t="n">
         <v>5.5</v>
       </c>
-      <c r="E63" t="n">
-        <v>7</v>
-      </c>
       <c r="F63" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="G63" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H63" t="n">
         <v>6.2</v>
       </c>
-      <c r="H63" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="I63" t="n">
-        <v>6.91</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="64">
@@ -1929,28 +1929,28 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="C64" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="D64" t="n">
         <v>6.2</v>
       </c>
       <c r="E64" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="F64" t="n">
         <v>6.1</v>
       </c>
-      <c r="F64" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G64" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H64" t="n">
         <v>6</v>
       </c>
-      <c r="H64" t="n">
-        <v>6.4</v>
-      </c>
       <c r="I64" t="n">
-        <v>6.34</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="65">
@@ -2351,28 +2351,28 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="C82" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D82" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E82" t="n">
         <v>8.1</v>
       </c>
-      <c r="D82" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G82" t="n">
         <v>7.3</v>
       </c>
-      <c r="F82" t="n">
+      <c r="H82" t="n">
         <v>7.5</v>
       </c>
-      <c r="G82" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="H82" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I82" t="n">
-        <v>7.16</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="83">
@@ -2630,25 +2630,25 @@
         <v>7.3</v>
       </c>
       <c r="C96" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="D96" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="E96" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="F96" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G96" t="n">
         <v>6.2</v>
       </c>
-      <c r="G96" t="n">
-        <v>6.8</v>
-      </c>
       <c r="H96" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="I96" t="n">
-        <v>6.81</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="97">
@@ -2656,28 +2656,28 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="C97" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="D97" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="E97" t="n">
         <v>6.8</v>
       </c>
       <c r="F97" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="G97" t="n">
         <v>6.5</v>
       </c>
       <c r="H97" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="I97" t="n">
-        <v>6.6</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="98">
@@ -2918,21 +2918,23 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="C109" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="D109" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="E109" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="F109" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="G109" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="G109" t="n">
+        <v>6.6</v>
+      </c>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="n">
         <v>6.62</v>
@@ -2975,16 +2977,16 @@
         <v>6.5</v>
       </c>
       <c r="C111" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D111" t="n">
         <v>6.3</v>
       </c>
-      <c r="D111" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E111" t="n">
         <v>6.5</v>
       </c>
       <c r="F111" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="G111" t="n">
         <v>6.6</v>
@@ -2993,7 +2995,7 @@
         <v>6.6</v>
       </c>
       <c r="I111" t="n">
-        <v>6.51</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="112">
@@ -3001,28 +3003,28 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="C112" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="D112" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E112" t="n">
         <v>7.3</v>
       </c>
-      <c r="E112" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F112" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G112" t="n">
         <v>7.9</v>
       </c>
-      <c r="G112" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H112" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="I112" t="n">
-        <v>6.99</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="113">
@@ -3043,28 +3045,28 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C114" t="n">
         <v>7.6</v>
       </c>
-      <c r="C114" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D114" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E114" t="n">
         <v>7.2</v>
       </c>
-      <c r="E114" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F114" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="G114" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="H114" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="I114" t="n">
-        <v>6.89</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="115">
@@ -5366,28 +5368,28 @@
         <v>206</v>
       </c>
       <c r="B207" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="C207" t="n">
         <v>6.7</v>
       </c>
       <c r="D207" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E207" t="n">
         <v>7.6</v>
       </c>
-      <c r="E207" t="n">
-        <v>7</v>
-      </c>
       <c r="F207" t="n">
         <v>7</v>
       </c>
       <c r="G207" t="n">
+        <v>7</v>
+      </c>
+      <c r="H207" t="n">
         <v>7.3</v>
       </c>
-      <c r="H207" t="n">
-        <v>7.1</v>
-      </c>
       <c r="I207" t="n">
-        <v>7.06</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="208">
@@ -5512,28 +5514,28 @@
         <v>212</v>
       </c>
       <c r="B213" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C213" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="C213" t="n">
+      <c r="D213" t="n">
         <v>7.3</v>
       </c>
-      <c r="D213" t="n">
-        <v>6.4</v>
-      </c>
       <c r="E213" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F213" t="n">
         <v>6.1</v>
       </c>
-      <c r="F213" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G213" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="H213" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="I213" t="n">
-        <v>6.87</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="214">
@@ -5597,17 +5599,19 @@
         <v>6.6</v>
       </c>
       <c r="C217" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="D217" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E217" t="n">
         <v>6.2</v>
       </c>
-      <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="n">
-        <v>6.57</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="218">
@@ -5615,28 +5619,28 @@
         <v>217</v>
       </c>
       <c r="B218" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="C218" t="n">
+        <v>7</v>
+      </c>
+      <c r="D218" t="n">
         <v>7.3</v>
       </c>
-      <c r="D218" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E218" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F218" t="n">
         <v>7.3</v>
       </c>
-      <c r="F218" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G218" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H218" t="n">
         <v>6</v>
       </c>
-      <c r="H218" t="n">
-        <v>7.7</v>
-      </c>
       <c r="I218" t="n">
-        <v>6.96</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="219">
@@ -5673,28 +5677,28 @@
         <v>219</v>
       </c>
       <c r="B220" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C220" t="n">
         <v>6</v>
       </c>
-      <c r="C220" t="n">
+      <c r="D220" t="n">
         <v>7.4</v>
       </c>
-      <c r="D220" t="n">
+      <c r="E220" t="n">
         <v>7.7</v>
       </c>
-      <c r="E220" t="n">
+      <c r="F220" t="n">
         <v>7.3</v>
       </c>
-      <c r="F220" t="n">
+      <c r="G220" t="n">
         <v>5.9</v>
       </c>
-      <c r="G220" t="n">
-        <v>6.4</v>
-      </c>
       <c r="H220" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="I220" t="n">
-        <v>6.79</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="221">
@@ -5770,28 +5774,28 @@
         <v>224</v>
       </c>
       <c r="B225" t="n">
-        <v>6.4</v>
+        <v>7.3</v>
       </c>
       <c r="C225" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="D225" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="E225" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="F225" t="n">
+        <v>7</v>
+      </c>
+      <c r="G225" t="n">
         <v>7.1</v>
       </c>
-      <c r="G225" t="n">
+      <c r="H225" t="n">
         <v>7.2</v>
       </c>
-      <c r="H225" t="n">
-        <v>7.5</v>
-      </c>
       <c r="I225" t="n">
-        <v>6.97</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="226">
@@ -5870,28 +5874,28 @@
         <v>228</v>
       </c>
       <c r="B229" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="C229" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D229" t="n">
         <v>8</v>
       </c>
-      <c r="D229" t="n">
+      <c r="E229" t="n">
         <v>7.1</v>
       </c>
-      <c r="E229" t="n">
-        <v>6.4</v>
-      </c>
       <c r="F229" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="G229" t="n">
         <v>6.9</v>
       </c>
       <c r="H229" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="I229" t="n">
-        <v>6.96</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="230">
@@ -5938,24 +5942,26 @@
         <v>232</v>
       </c>
       <c r="B233" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="C233" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D233" t="n">
         <v>6.5</v>
       </c>
       <c r="E233" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="F233" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="G233" t="n">
         <v>6.5</v>
       </c>
-      <c r="H233" t="inlineStr"/>
+      <c r="H233" t="n">
+        <v>6.5</v>
+      </c>
       <c r="I233" t="n">
         <v>6.57</v>
       </c>
@@ -6030,28 +6036,28 @@
         <v>236</v>
       </c>
       <c r="B237" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C237" t="n">
         <v>7.6</v>
       </c>
-      <c r="C237" t="n">
+      <c r="D237" t="n">
         <v>7.5</v>
       </c>
-      <c r="D237" t="n">
+      <c r="E237" t="n">
         <v>7.2</v>
       </c>
-      <c r="E237" t="n">
+      <c r="F237" t="n">
         <v>7.3</v>
       </c>
-      <c r="F237" t="n">
-        <v>7</v>
-      </c>
       <c r="G237" t="n">
+        <v>7</v>
+      </c>
+      <c r="H237" t="n">
         <v>7.3</v>
       </c>
-      <c r="H237" t="n">
-        <v>7.5</v>
-      </c>
       <c r="I237" t="n">
-        <v>7.34</v>
+        <v>7.29</v>
       </c>
     </row>
     <row r="238">
@@ -6505,28 +6511,28 @@
         <v>257</v>
       </c>
       <c r="B258" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="C258" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="D258" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E258" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F258" t="n">
         <v>6.2</v>
       </c>
-      <c r="E258" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="F258" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G258" t="n">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
       <c r="H258" t="n">
         <v>6.7</v>
       </c>
       <c r="I258" t="n">
-        <v>6.71</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="259">
@@ -7098,28 +7104,28 @@
         <v>278</v>
       </c>
       <c r="B279" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C279" t="n">
         <v>7.5</v>
       </c>
-      <c r="C279" t="n">
-        <v>7</v>
-      </c>
       <c r="D279" t="n">
+        <v>7</v>
+      </c>
+      <c r="E279" t="n">
         <v>7.7</v>
       </c>
-      <c r="E279" t="n">
+      <c r="F279" t="n">
         <v>7.2</v>
       </c>
-      <c r="F279" t="n">
+      <c r="G279" t="n">
         <v>7.5</v>
       </c>
-      <c r="G279" t="n">
+      <c r="H279" t="n">
         <v>7.1</v>
       </c>
-      <c r="H279" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I279" t="n">
-        <v>7.24</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="280">
@@ -7127,28 +7133,28 @@
         <v>279</v>
       </c>
       <c r="B280" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="C280" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="D280" t="n">
+        <v>7</v>
+      </c>
+      <c r="E280" t="n">
         <v>7.3</v>
       </c>
-      <c r="E280" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F280" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="G280" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="H280" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="I280" t="n">
-        <v>6.87</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="281">
@@ -7156,28 +7162,28 @@
         <v>280</v>
       </c>
       <c r="B281" t="n">
-        <v>6.7</v>
+        <v>4.9</v>
       </c>
       <c r="C281" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="D281" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E281" t="n">
         <v>7.2</v>
       </c>
-      <c r="E281" t="n">
+      <c r="F281" t="n">
         <v>7.3</v>
       </c>
-      <c r="F281" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G281" t="n">
         <v>6.5</v>
       </c>
       <c r="H281" t="n">
-        <v>7.8</v>
+        <v>6.5</v>
       </c>
       <c r="I281" t="n">
-        <v>6.99</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="282">
@@ -7504,28 +7510,28 @@
         <v>292</v>
       </c>
       <c r="B293" t="n">
-        <v>6.8</v>
+        <v>8.1</v>
       </c>
       <c r="C293" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D293" t="n">
         <v>7.4</v>
       </c>
-      <c r="D293" t="n">
-        <v>7</v>
-      </c>
       <c r="E293" t="n">
+        <v>7</v>
+      </c>
+      <c r="F293" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="F293" t="n">
+      <c r="G293" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="G293" t="n">
+      <c r="H293" t="n">
         <v>7.4</v>
       </c>
-      <c r="H293" t="n">
-        <v>7</v>
-      </c>
       <c r="I293" t="n">
-        <v>7.59</v>
+        <v>7.74</v>
       </c>
     </row>
     <row r="294">
@@ -7533,28 +7539,28 @@
         <v>293</v>
       </c>
       <c r="B294" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C294" t="n">
         <v>7.5</v>
       </c>
-      <c r="C294" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D294" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E294" t="n">
         <v>7.2</v>
       </c>
-      <c r="E294" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F294" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="G294" t="n">
+        <v>7</v>
+      </c>
+      <c r="H294" t="n">
         <v>7.6</v>
       </c>
-      <c r="H294" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I294" t="n">
-        <v>7.03</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="295">
@@ -7562,28 +7568,28 @@
         <v>294</v>
       </c>
       <c r="B295" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="C295" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="D295" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E295" t="n">
         <v>6.2</v>
       </c>
-      <c r="E295" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F295" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="G295" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="H295" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="I295" t="n">
-        <v>6.46</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="296">
@@ -7707,28 +7713,28 @@
         <v>299</v>
       </c>
       <c r="B300" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C300" t="n">
         <v>7.6</v>
       </c>
-      <c r="C300" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D300" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="E300" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F300" t="n">
         <v>6.3</v>
       </c>
-      <c r="F300" t="n">
+      <c r="G300" t="n">
         <v>7.2</v>
       </c>
-      <c r="G300" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H300" t="n">
-        <v>7.4</v>
+        <v>6.7</v>
       </c>
       <c r="I300" t="n">
-        <v>6.94</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="301">
@@ -7736,28 +7742,28 @@
         <v>300</v>
       </c>
       <c r="B301" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C301" t="n">
         <v>8.4</v>
       </c>
-      <c r="C301" t="n">
+      <c r="D301" t="n">
         <v>7.8</v>
-      </c>
-      <c r="D301" t="n">
-        <v>7.2</v>
       </c>
       <c r="E301" t="n">
         <v>7.2</v>
       </c>
       <c r="F301" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="G301" t="n">
         <v>6.7</v>
       </c>
       <c r="H301" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="I301" t="n">
-        <v>7.29</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="302">
@@ -7765,28 +7771,28 @@
         <v>301</v>
       </c>
       <c r="B302" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C302" t="n">
         <v>7.1</v>
       </c>
-      <c r="C302" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D302" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E302" t="n">
         <v>7.3</v>
       </c>
-      <c r="E302" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F302" t="n">
         <v>6.8</v>
       </c>
       <c r="G302" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H302" t="n">
         <v>7.7</v>
       </c>
-      <c r="H302" t="n">
-        <v>7.8</v>
-      </c>
       <c r="I302" t="n">
-        <v>7.17</v>
+        <v>7.19</v>
       </c>
     </row>
     <row r="303">
@@ -8659,25 +8665,25 @@
         <v>7</v>
       </c>
       <c r="C333" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="D333" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E333" t="n">
         <v>8</v>
       </c>
-      <c r="E333" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F333" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G333" t="n">
         <v>7.8</v>
       </c>
-      <c r="G333" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H333" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="I333" t="n">
-        <v>7.09</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="334">
@@ -9001,28 +9007,28 @@
         <v>345</v>
       </c>
       <c r="B346" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C346" t="n">
         <v>7.6</v>
       </c>
-      <c r="C346" t="n">
+      <c r="D346" t="n">
         <v>7.3</v>
       </c>
-      <c r="D346" t="n">
+      <c r="E346" t="n">
         <v>7.5</v>
       </c>
-      <c r="E346" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F346" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G346" t="n">
         <v>7.5</v>
       </c>
-      <c r="G346" t="n">
+      <c r="H346" t="n">
         <v>7.1</v>
       </c>
-      <c r="H346" t="n">
-        <v>6</v>
-      </c>
       <c r="I346" t="n">
-        <v>7.11</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="347">
@@ -9030,28 +9036,28 @@
         <v>346</v>
       </c>
       <c r="B347" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="C347" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="D347" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="E347" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F347" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="F347" t="n">
+      <c r="G347" t="n">
         <v>7.1</v>
       </c>
-      <c r="G347" t="n">
+      <c r="H347" t="n">
         <v>7.2</v>
       </c>
-      <c r="H347" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I347" t="n">
-        <v>7.16</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="348">
@@ -9059,28 +9065,28 @@
         <v>347</v>
       </c>
       <c r="B348" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C348" t="n">
+        <v>7</v>
+      </c>
+      <c r="D348" t="n">
         <v>7.8</v>
       </c>
-      <c r="D348" t="n">
+      <c r="E348" t="n">
         <v>6.3</v>
       </c>
-      <c r="E348" t="n">
+      <c r="F348" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="F348" t="n">
+      <c r="G348" t="n">
         <v>8</v>
       </c>
-      <c r="G348" t="n">
+      <c r="H348" t="n">
         <v>7.4</v>
       </c>
-      <c r="H348" t="n">
-        <v>8.1</v>
-      </c>
       <c r="I348" t="n">
-        <v>7.76</v>
+        <v>7.77</v>
       </c>
     </row>
     <row r="349">
@@ -9088,28 +9094,28 @@
         <v>348</v>
       </c>
       <c r="B349" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="C349" t="n">
+        <v>7</v>
+      </c>
+      <c r="D349" t="n">
         <v>7.3</v>
       </c>
-      <c r="D349" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E349" t="n">
         <v>6.5</v>
       </c>
       <c r="F349" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G349" t="n">
         <v>7.2</v>
       </c>
-      <c r="G349" t="n">
+      <c r="H349" t="n">
         <v>7.1</v>
       </c>
-      <c r="H349" t="n">
-        <v>7</v>
-      </c>
       <c r="I349" t="n">
-        <v>6.93</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="350">
@@ -9117,28 +9123,28 @@
         <v>349</v>
       </c>
       <c r="B350" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="C350" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D350" t="n">
         <v>6.1</v>
       </c>
-      <c r="D350" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E350" t="n">
         <v>6.5</v>
       </c>
       <c r="F350" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="G350" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H350" t="n">
         <v>7.2</v>
       </c>
-      <c r="H350" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I350" t="n">
-        <v>6.57</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="351">
@@ -9470,28 +9476,28 @@
         <v>362</v>
       </c>
       <c r="B363" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C363" t="n">
         <v>7.4</v>
       </c>
-      <c r="C363" t="n">
+      <c r="D363" t="n">
         <v>7.7</v>
       </c>
-      <c r="D363" t="n">
-        <v>7</v>
-      </c>
       <c r="E363" t="n">
+        <v>7</v>
+      </c>
+      <c r="F363" t="n">
         <v>7.7</v>
       </c>
-      <c r="F363" t="n">
+      <c r="G363" t="n">
         <v>7.8</v>
       </c>
-      <c r="G363" t="n">
-        <v>7</v>
-      </c>
       <c r="H363" t="n">
+        <v>7</v>
+      </c>
+      <c r="I363" t="n">
         <v>7.5</v>
-      </c>
-      <c r="I363" t="n">
-        <v>7.44</v>
       </c>
     </row>
     <row r="364">

--- a/players_ratings.xlsx
+++ b/players_ratings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I366"/>
+  <dimension ref="A1:I386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2598,28 +2598,28 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>6.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C95" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D95" t="n">
         <v>7.1</v>
       </c>
-      <c r="D95" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E95" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F95" t="n">
         <v>7.8</v>
       </c>
-      <c r="F95" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G95" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="H95" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="I95" t="n">
-        <v>6.79</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="96">
@@ -5101,25 +5101,25 @@
         <v>6.3</v>
       </c>
       <c r="C197" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="D197" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E197" t="n">
         <v>7.7</v>
       </c>
-      <c r="E197" t="n">
+      <c r="F197" t="n">
         <v>7.9</v>
       </c>
-      <c r="F197" t="n">
-        <v>7</v>
-      </c>
       <c r="G197" t="n">
+        <v>7</v>
+      </c>
+      <c r="H197" t="n">
         <v>6.3</v>
       </c>
-      <c r="H197" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I197" t="n">
-        <v>6.99</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="198">
@@ -6007,25 +6007,25 @@
         <v>235</v>
       </c>
       <c r="B236" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="C236" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D236" t="n">
         <v>7.2</v>
       </c>
-      <c r="D236" t="n">
-        <v>7</v>
-      </c>
       <c r="E236" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="F236" t="n">
         <v>6.5</v>
       </c>
       <c r="G236" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="H236" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="I236" t="n">
         <v>6.73</v>
@@ -6120,28 +6120,28 @@
         <v>240</v>
       </c>
       <c r="B241" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="C241" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="D241" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="E241" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="F241" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="G241" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="H241" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="I241" t="n">
-        <v>6.59</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="242">
@@ -7858,28 +7858,28 @@
         <v>304</v>
       </c>
       <c r="B305" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C305" t="n">
         <v>6.3</v>
-      </c>
-      <c r="C305" t="n">
-        <v>7.5</v>
       </c>
       <c r="D305" t="n">
         <v>7.5</v>
       </c>
       <c r="E305" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="F305" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="G305" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="H305" t="n">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="I305" t="n">
-        <v>7.03</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="306">
@@ -8351,10 +8351,10 @@
         <v>321</v>
       </c>
       <c r="B322" t="n">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="C322" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="D322" t="n">
         <v>6.9</v>
@@ -8363,16 +8363,16 @@
         <v>6.9</v>
       </c>
       <c r="F322" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="G322" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H322" t="n">
         <v>7.4</v>
       </c>
-      <c r="H322" t="n">
-        <v>7.6</v>
-      </c>
       <c r="I322" t="n">
-        <v>6.97</v>
+        <v>7</v>
       </c>
     </row>
     <row r="323">
@@ -9036,7 +9036,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="C347" t="n">
         <v>7</v>
@@ -9057,7 +9057,7 @@
         <v>7.2</v>
       </c>
       <c r="I347" t="n">
-        <v>7.23</v>
+        <v>7.21</v>
       </c>
     </row>
     <row r="348">
@@ -9587,6 +9587,526 @@
         <v>7.19</v>
       </c>
     </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B367" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C367" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="D367" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E367" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="F367" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G367" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H367" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>7.11</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B368" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C368" t="n">
+        <v>7</v>
+      </c>
+      <c r="D368" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E368" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F368" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="G368" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H368" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I368" t="n">
+        <v>6.94</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B369" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C369" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D369" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E369" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="F369" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G369" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H369" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I369" t="n">
+        <v>6.56</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B370" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C370" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D370" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E370" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F370" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G370" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H370" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I370" t="n">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B371" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C371" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D371" t="n">
+        <v>7</v>
+      </c>
+      <c r="E371" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F371" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G371" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H371" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I371" t="n">
+        <v>6.76</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B372" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C372" t="inlineStr"/>
+      <c r="D372" t="inlineStr"/>
+      <c r="E372" t="inlineStr"/>
+      <c r="F372" t="inlineStr"/>
+      <c r="G372" t="inlineStr"/>
+      <c r="H372" t="inlineStr"/>
+      <c r="I372" t="n">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B373" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C373" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D373" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E373" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="F373" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G373" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H373" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="I373" t="n">
+        <v>6.53</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B374" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C374" t="inlineStr"/>
+      <c r="D374" t="inlineStr"/>
+      <c r="E374" t="inlineStr"/>
+      <c r="F374" t="inlineStr"/>
+      <c r="G374" t="inlineStr"/>
+      <c r="H374" t="inlineStr"/>
+      <c r="I374" t="n">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B375" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C375" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D375" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E375" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F375" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G375" t="n">
+        <v>7</v>
+      </c>
+      <c r="H375" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I375" t="n">
+        <v>6.89</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B376" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C376" t="inlineStr"/>
+      <c r="D376" t="inlineStr"/>
+      <c r="E376" t="inlineStr"/>
+      <c r="F376" t="inlineStr"/>
+      <c r="G376" t="inlineStr"/>
+      <c r="H376" t="inlineStr"/>
+      <c r="I376" t="n">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B377" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C377" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D377" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E377" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F377" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G377" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H377" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="I377" t="n">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B378" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C378" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D378" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E378" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="F378" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="G378" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H378" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="I378" t="n">
+        <v>7.61</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B379" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C379" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D379" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E379" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="F379" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="G379" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H379" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="I379" t="n">
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B380" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C380" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D380" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="E380" t="inlineStr"/>
+      <c r="F380" t="inlineStr"/>
+      <c r="G380" t="inlineStr"/>
+      <c r="H380" t="inlineStr"/>
+      <c r="I380" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B381" t="inlineStr"/>
+      <c r="C381" t="inlineStr"/>
+      <c r="D381" t="inlineStr"/>
+      <c r="E381" t="inlineStr"/>
+      <c r="F381" t="inlineStr"/>
+      <c r="G381" t="inlineStr"/>
+      <c r="H381" t="inlineStr"/>
+      <c r="I381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B382" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C382" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D382" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E382" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F382" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G382" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H382" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="I382" t="n">
+        <v>6.57</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B383" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C383" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D383" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="E383" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F383" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G383" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H383" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I383" t="n">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B384" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C384" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D384" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E384" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="F384" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="G384" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H384" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I384" t="n">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B385" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C385" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D385" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="E385" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F385" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="G385" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H385" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I385" t="n">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B386" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C386" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D386" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E386" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F386" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G386" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H386" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I386" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/players_ratings.xlsx
+++ b/players_ratings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I386"/>
+  <dimension ref="A1:I392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1339,28 +1339,28 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="C38" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="D38" t="n">
         <v>6.8</v>
       </c>
       <c r="E38" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="F38" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="G38" t="n">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="H38" t="n">
         <v>7.5</v>
       </c>
       <c r="I38" t="n">
-        <v>6.94</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="39">
@@ -1794,22 +1794,22 @@
         <v>7.3</v>
       </c>
       <c r="C58" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D58" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="D58" t="n">
+      <c r="E58" t="n">
         <v>7.7</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>7.6</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>7.7</v>
       </c>
-      <c r="G58" t="n">
+      <c r="H58" t="n">
         <v>7.2</v>
-      </c>
-      <c r="H58" t="n">
-        <v>7.3</v>
       </c>
       <c r="I58" t="n">
         <v>7.66</v>
@@ -1871,28 +1871,28 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C62" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="D62" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="E62" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="F62" t="n">
         <v>6.2</v>
       </c>
       <c r="G62" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="H62" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="I62" t="n">
-        <v>6.5</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="63">
@@ -1900,28 +1900,28 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="C63" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D63" t="n">
         <v>7.9</v>
       </c>
-      <c r="D63" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E63" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F63" t="n">
         <v>5.5</v>
       </c>
-      <c r="F63" t="n">
-        <v>7</v>
-      </c>
       <c r="G63" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="H63" t="n">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
       <c r="I63" t="n">
-        <v>6.7</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="64">
@@ -1929,28 +1929,28 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="C64" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="D64" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="E64" t="n">
         <v>6.2</v>
       </c>
       <c r="F64" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="G64" t="n">
         <v>6.1</v>
       </c>
-      <c r="G64" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H64" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I64" t="n">
-        <v>6.36</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="65">
@@ -2351,25 +2351,25 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="C82" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="D82" t="n">
         <v>7.2</v>
       </c>
-      <c r="D82" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E82" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F82" t="n">
         <v>8.1</v>
       </c>
-      <c r="F82" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G82" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H82" t="n">
         <v>7.3</v>
-      </c>
-      <c r="H82" t="n">
-        <v>7.5</v>
       </c>
       <c r="I82" t="n">
         <v>7.23</v>
@@ -2598,28 +2598,28 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C95" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="C95" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D95" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="E95" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="F95" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G95" t="n">
         <v>7.8</v>
       </c>
-      <c r="G95" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H95" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="I95" t="n">
-        <v>7.04</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="96">
@@ -2627,28 +2627,28 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="C96" t="n">
         <v>7.3</v>
       </c>
       <c r="D96" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="E96" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="F96" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="G96" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H96" t="n">
         <v>6.2</v>
       </c>
-      <c r="H96" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I96" t="n">
-        <v>6.84</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="97">
@@ -2763,28 +2763,28 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="C102" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="D102" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="E102" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F102" t="n">
         <v>7.2</v>
       </c>
-      <c r="F102" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G102" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="H102" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="I102" t="n">
-        <v>6.79</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="103">
@@ -2876,28 +2876,28 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="C107" t="n">
+        <v>7</v>
+      </c>
+      <c r="D107" t="n">
         <v>6.3</v>
       </c>
-      <c r="D107" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E107" t="n">
         <v>6.8</v>
       </c>
       <c r="F107" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G107" t="n">
         <v>7.9</v>
       </c>
-      <c r="G107" t="n">
-        <v>7.1</v>
-      </c>
       <c r="H107" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="I107" t="n">
-        <v>6.97</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="108">
@@ -2980,22 +2980,22 @@
         <v>6.5</v>
       </c>
       <c r="D111" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E111" t="n">
         <v>6.3</v>
       </c>
-      <c r="E111" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F111" t="n">
         <v>6.5</v>
       </c>
       <c r="G111" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="H111" t="n">
         <v>6.6</v>
       </c>
       <c r="I111" t="n">
-        <v>6.5</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="112">
@@ -3003,28 +3003,28 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="C112" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="D112" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="E112" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F112" t="n">
         <v>7.3</v>
       </c>
-      <c r="F112" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G112" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H112" t="n">
         <v>7.9</v>
       </c>
-      <c r="H112" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I112" t="n">
-        <v>6.94</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="113">
@@ -3045,28 +3045,28 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="C114" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D114" t="n">
         <v>7.6</v>
       </c>
-      <c r="D114" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E114" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F114" t="n">
         <v>7.2</v>
       </c>
-      <c r="F114" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G114" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="H114" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="I114" t="n">
-        <v>6.94</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="115">
@@ -3109,22 +3109,22 @@
         <v>6.6</v>
       </c>
       <c r="D116" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E116" t="n">
         <v>6.2</v>
       </c>
-      <c r="E116" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F116" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="G116" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="H116" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I116" t="n">
-        <v>6.51</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="117">
@@ -3145,22 +3145,24 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="C118" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="D118" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="E118" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="F118" t="inlineStr"/>
+        <v>6.8</v>
+      </c>
+      <c r="F118" t="n">
+        <v>6.9</v>
+      </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="n">
-        <v>6.75</v>
+        <v>6.78</v>
       </c>
     </row>
     <row r="119">
@@ -5098,28 +5100,28 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>6.3</v>
+        <v>7.7</v>
       </c>
       <c r="C197" t="n">
         <v>6.3</v>
       </c>
       <c r="D197" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="E197" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F197" t="n">
         <v>7.7</v>
       </c>
-      <c r="F197" t="n">
+      <c r="G197" t="n">
         <v>7.9</v>
       </c>
-      <c r="G197" t="n">
-        <v>7</v>
-      </c>
       <c r="H197" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="I197" t="n">
-        <v>6.91</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="198">
@@ -5371,25 +5373,25 @@
         <v>7</v>
       </c>
       <c r="C207" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="D207" t="n">
         <v>6.7</v>
       </c>
       <c r="E207" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F207" t="n">
         <v>7.6</v>
       </c>
-      <c r="F207" t="n">
-        <v>7</v>
-      </c>
       <c r="G207" t="n">
         <v>7</v>
       </c>
       <c r="H207" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="I207" t="n">
-        <v>7.04</v>
+        <v>7</v>
       </c>
     </row>
     <row r="208">
@@ -5596,22 +5598,24 @@
         <v>216</v>
       </c>
       <c r="B217" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="C217" t="n">
         <v>6.6</v>
       </c>
       <c r="D217" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="E217" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F217" t="n">
         <v>6.2</v>
       </c>
-      <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="n">
-        <v>6.58</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="218">
@@ -5619,28 +5623,28 @@
         <v>217</v>
       </c>
       <c r="B218" t="n">
+        <v>7</v>
+      </c>
+      <c r="C218" t="n">
         <v>7.3</v>
       </c>
-      <c r="C218" t="n">
-        <v>7</v>
-      </c>
       <c r="D218" t="n">
+        <v>7</v>
+      </c>
+      <c r="E218" t="n">
         <v>7.3</v>
       </c>
-      <c r="E218" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F218" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G218" t="n">
         <v>7.3</v>
       </c>
-      <c r="G218" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H218" t="n">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="I218" t="n">
-        <v>6.9</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="219">
@@ -5732,28 +5736,28 @@
         <v>222</v>
       </c>
       <c r="B223" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="C223" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="D223" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="E223" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="F223" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G223" t="n">
         <v>7.6</v>
       </c>
-      <c r="G223" t="n">
-        <v>7.1</v>
-      </c>
       <c r="H223" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="I223" t="n">
-        <v>7.11</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="224">
@@ -5774,25 +5778,25 @@
         <v>224</v>
       </c>
       <c r="B225" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C225" t="n">
         <v>7.3</v>
       </c>
-      <c r="C225" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D225" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="E225" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="F225" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="G225" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="H225" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="I225" t="n">
         <v>6.94</v>
@@ -6036,28 +6040,28 @@
         <v>236</v>
       </c>
       <c r="B237" t="n">
-        <v>7.1</v>
+        <v>7.9</v>
       </c>
       <c r="C237" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="D237" t="n">
         <v>7.6</v>
       </c>
-      <c r="D237" t="n">
+      <c r="E237" t="n">
         <v>7.5</v>
       </c>
-      <c r="E237" t="n">
+      <c r="F237" t="n">
         <v>7.2</v>
       </c>
-      <c r="F237" t="n">
+      <c r="G237" t="n">
         <v>7.3</v>
       </c>
-      <c r="G237" t="n">
-        <v>7</v>
-      </c>
       <c r="H237" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="I237" t="n">
-        <v>7.29</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="238">
@@ -6120,25 +6124,25 @@
         <v>240</v>
       </c>
       <c r="B241" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C241" t="n">
         <v>6.2</v>
       </c>
-      <c r="C241" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D241" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="E241" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="F241" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="G241" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="H241" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="I241" t="n">
         <v>6.54</v>
@@ -6511,28 +6515,28 @@
         <v>257</v>
       </c>
       <c r="B258" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C258" t="n">
         <v>6.2</v>
       </c>
-      <c r="C258" t="n">
-        <v>7.1</v>
-      </c>
       <c r="D258" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="E258" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="F258" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G258" t="n">
         <v>6.2</v>
       </c>
-      <c r="G258" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H258" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="I258" t="n">
-        <v>6.61</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="259">
@@ -7104,28 +7108,28 @@
         <v>278</v>
       </c>
       <c r="B279" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C279" t="n">
         <v>7.4</v>
       </c>
-      <c r="C279" t="n">
+      <c r="D279" t="n">
         <v>7.5</v>
       </c>
-      <c r="D279" t="n">
-        <v>7</v>
-      </c>
       <c r="E279" t="n">
+        <v>7</v>
+      </c>
+      <c r="F279" t="n">
         <v>7.7</v>
       </c>
-      <c r="F279" t="n">
+      <c r="G279" t="n">
         <v>7.2</v>
       </c>
-      <c r="G279" t="n">
+      <c r="H279" t="n">
         <v>7.5</v>
       </c>
-      <c r="H279" t="n">
-        <v>7.1</v>
-      </c>
       <c r="I279" t="n">
-        <v>7.34</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="280">
@@ -7133,28 +7137,28 @@
         <v>279</v>
       </c>
       <c r="B280" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C280" t="n">
         <v>6</v>
       </c>
-      <c r="C280" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D280" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="E280" t="n">
+        <v>7</v>
+      </c>
+      <c r="F280" t="n">
         <v>7.3</v>
       </c>
-      <c r="F280" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G280" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="H280" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="I280" t="n">
-        <v>6.74</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="281">
@@ -7510,28 +7514,28 @@
         <v>292</v>
       </c>
       <c r="B293" t="n">
+        <v>7</v>
+      </c>
+      <c r="C293" t="n">
         <v>8.1</v>
       </c>
-      <c r="C293" t="n">
-        <v>6.8</v>
-      </c>
       <c r="D293" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E293" t="n">
         <v>7.4</v>
       </c>
-      <c r="E293" t="n">
-        <v>7</v>
-      </c>
       <c r="F293" t="n">
+        <v>7</v>
+      </c>
+      <c r="G293" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="G293" t="n">
+      <c r="H293" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="H293" t="n">
-        <v>7.4</v>
-      </c>
       <c r="I293" t="n">
-        <v>7.74</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="294">
@@ -7539,28 +7543,28 @@
         <v>293</v>
       </c>
       <c r="B294" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C294" t="n">
         <v>7.4</v>
       </c>
-      <c r="C294" t="n">
+      <c r="D294" t="n">
         <v>7.5</v>
       </c>
-      <c r="D294" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E294" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F294" t="n">
         <v>7.2</v>
       </c>
-      <c r="F294" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G294" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="H294" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="I294" t="n">
-        <v>7.14</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="295">
@@ -7713,28 +7717,28 @@
         <v>299</v>
       </c>
       <c r="B300" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C300" t="n">
         <v>5.8</v>
       </c>
-      <c r="C300" t="n">
+      <c r="D300" t="n">
         <v>7.6</v>
       </c>
-      <c r="D300" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E300" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="F300" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G300" t="n">
         <v>6.3</v>
       </c>
-      <c r="G300" t="n">
+      <c r="H300" t="n">
         <v>7.2</v>
       </c>
-      <c r="H300" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I300" t="n">
-        <v>6.71</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="301">
@@ -7742,28 +7746,28 @@
         <v>300</v>
       </c>
       <c r="B301" t="n">
-        <v>6.7</v>
+        <v>7.6</v>
       </c>
       <c r="C301" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D301" t="n">
         <v>8.4</v>
       </c>
-      <c r="D301" t="n">
+      <c r="E301" t="n">
         <v>7.8</v>
-      </c>
-      <c r="E301" t="n">
-        <v>7.2</v>
       </c>
       <c r="F301" t="n">
         <v>7.2</v>
       </c>
       <c r="G301" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="H301" t="n">
         <v>6.7</v>
       </c>
       <c r="I301" t="n">
-        <v>7.24</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="302">
@@ -7771,28 +7775,28 @@
         <v>301</v>
       </c>
       <c r="B302" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="C302" t="n">
         <v>7.9</v>
       </c>
-      <c r="C302" t="n">
-        <v>7.1</v>
-      </c>
       <c r="D302" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="E302" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F302" t="n">
         <v>7.3</v>
       </c>
-      <c r="F302" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G302" t="n">
         <v>6.8</v>
       </c>
       <c r="H302" t="n">
-        <v>7.7</v>
+        <v>6.8</v>
       </c>
       <c r="I302" t="n">
-        <v>7.19</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="303">
@@ -8351,13 +8355,13 @@
         <v>321</v>
       </c>
       <c r="B322" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C322" t="n">
         <v>7.8</v>
       </c>
-      <c r="C322" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D322" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="E322" t="n">
         <v>6.9</v>
@@ -8366,13 +8370,13 @@
         <v>6.9</v>
       </c>
       <c r="G322" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="H322" t="n">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="I322" t="n">
-        <v>7</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="323">
@@ -8662,28 +8666,28 @@
         <v>332</v>
       </c>
       <c r="B333" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="C333" t="n">
         <v>7</v>
       </c>
       <c r="D333" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="E333" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F333" t="n">
         <v>8</v>
       </c>
-      <c r="F333" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G333" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H333" t="n">
         <v>7.8</v>
       </c>
-      <c r="H333" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I333" t="n">
-        <v>7.11</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="334">
@@ -9036,28 +9040,28 @@
         <v>346</v>
       </c>
       <c r="B347" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C347" t="n">
         <v>7.3</v>
       </c>
-      <c r="C347" t="n">
-        <v>7</v>
-      </c>
       <c r="D347" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="E347" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="F347" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G347" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="G347" t="n">
-        <v>7.1</v>
-      </c>
       <c r="H347" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="I347" t="n">
-        <v>7.21</v>
+        <v>7.26</v>
       </c>
     </row>
     <row r="348">
@@ -9094,28 +9098,28 @@
         <v>348</v>
       </c>
       <c r="B349" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="C349" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="D349" t="n">
+        <v>7</v>
+      </c>
+      <c r="E349" t="n">
         <v>7.3</v>
       </c>
-      <c r="E349" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F349" t="n">
         <v>6.5</v>
       </c>
       <c r="G349" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H349" t="n">
         <v>7.2</v>
       </c>
-      <c r="H349" t="n">
-        <v>7.1</v>
-      </c>
       <c r="I349" t="n">
-        <v>6.91</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="350">
@@ -9123,28 +9127,28 @@
         <v>349</v>
       </c>
       <c r="B350" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C350" t="n">
         <v>7.9</v>
       </c>
-      <c r="C350" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D350" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E350" t="n">
         <v>6.1</v>
       </c>
-      <c r="E350" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F350" t="n">
         <v>6.5</v>
       </c>
       <c r="G350" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="H350" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="I350" t="n">
-        <v>6.76</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="351">
@@ -9476,28 +9480,28 @@
         <v>362</v>
       </c>
       <c r="B363" t="n">
+        <v>6</v>
+      </c>
+      <c r="C363" t="n">
         <v>7.9</v>
       </c>
-      <c r="C363" t="n">
+      <c r="D363" t="n">
         <v>7.4</v>
       </c>
-      <c r="D363" t="n">
+      <c r="E363" t="n">
         <v>7.7</v>
       </c>
-      <c r="E363" t="n">
-        <v>7</v>
-      </c>
       <c r="F363" t="n">
+        <v>7</v>
+      </c>
+      <c r="G363" t="n">
         <v>7.7</v>
       </c>
-      <c r="G363" t="n">
+      <c r="H363" t="n">
         <v>7.8</v>
       </c>
-      <c r="H363" t="n">
-        <v>7</v>
-      </c>
       <c r="I363" t="n">
-        <v>7.5</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="364">
@@ -9534,28 +9538,28 @@
         <v>364</v>
       </c>
       <c r="B365" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="C365" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D365" t="n">
         <v>7.2</v>
       </c>
-      <c r="D365" t="n">
+      <c r="E365" t="n">
         <v>6</v>
       </c>
-      <c r="E365" t="n">
+      <c r="F365" t="n">
         <v>7.5</v>
       </c>
-      <c r="F365" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G365" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H365" t="n">
         <v>7.2</v>
       </c>
-      <c r="H365" t="n">
-        <v>7</v>
-      </c>
       <c r="I365" t="n">
-        <v>6.89</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="366">
@@ -9592,28 +9596,28 @@
         <v>366</v>
       </c>
       <c r="B367" t="n">
+        <v>7</v>
+      </c>
+      <c r="C367" t="n">
         <v>7.9</v>
       </c>
-      <c r="C367" t="n">
-        <v>7.1</v>
-      </c>
       <c r="D367" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="E367" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F367" t="n">
         <v>7.6</v>
       </c>
-      <c r="F367" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G367" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="H367" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="I367" t="n">
-        <v>7.11</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="368">
@@ -9621,28 +9625,28 @@
         <v>367</v>
       </c>
       <c r="B368" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="C368" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="D368" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="E368" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F368" t="n">
         <v>7.4</v>
       </c>
-      <c r="F368" t="n">
+      <c r="G368" t="n">
         <v>7.3</v>
       </c>
-      <c r="G368" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H368" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="I368" t="n">
-        <v>6.94</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="369">
@@ -9650,28 +9654,28 @@
         <v>368</v>
       </c>
       <c r="B369" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="C369" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="D369" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="E369" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F369" t="n">
         <v>5.9</v>
       </c>
-      <c r="F369" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G369" t="n">
         <v>6.7</v>
       </c>
       <c r="H369" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="I369" t="n">
-        <v>6.56</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="370">
@@ -9737,16 +9741,18 @@
         <v>371</v>
       </c>
       <c r="B372" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="C372" t="inlineStr"/>
+        <v>7.1</v>
+      </c>
+      <c r="C372" t="n">
+        <v>6.6</v>
+      </c>
       <c r="D372" t="inlineStr"/>
       <c r="E372" t="inlineStr"/>
       <c r="F372" t="inlineStr"/>
       <c r="G372" t="inlineStr"/>
       <c r="H372" t="inlineStr"/>
       <c r="I372" t="n">
-        <v>6.6</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="373">
@@ -9800,28 +9806,28 @@
         <v>374</v>
       </c>
       <c r="B375" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C375" t="n">
         <v>6.3</v>
       </c>
-      <c r="C375" t="n">
+      <c r="D375" t="n">
         <v>7.5</v>
       </c>
-      <c r="D375" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E375" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="F375" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G375" t="n">
         <v>7.5</v>
       </c>
-      <c r="G375" t="n">
-        <v>7</v>
-      </c>
       <c r="H375" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I375" t="n">
-        <v>6.89</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="376">
@@ -9829,16 +9835,18 @@
         <v>375</v>
       </c>
       <c r="B376" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="C376" t="inlineStr"/>
+        <v>7.6</v>
+      </c>
+      <c r="C376" t="n">
+        <v>7.1</v>
+      </c>
       <c r="D376" t="inlineStr"/>
       <c r="E376" t="inlineStr"/>
       <c r="F376" t="inlineStr"/>
       <c r="G376" t="inlineStr"/>
       <c r="H376" t="inlineStr"/>
       <c r="I376" t="n">
-        <v>7.1</v>
+        <v>7.35</v>
       </c>
     </row>
     <row r="377">
@@ -9999,25 +10007,25 @@
         <v>6.6</v>
       </c>
       <c r="C383" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="D383" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E383" t="n">
         <v>6.1</v>
       </c>
-      <c r="E383" t="n">
+      <c r="F383" t="n">
         <v>7.3</v>
       </c>
-      <c r="F383" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G383" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="H383" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="I383" t="n">
-        <v>6.81</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="384">
@@ -10025,28 +10033,28 @@
         <v>383</v>
       </c>
       <c r="B384" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C384" t="n">
         <v>7.6</v>
-      </c>
-      <c r="C384" t="n">
-        <v>7.8</v>
       </c>
       <c r="D384" t="n">
         <v>7.8</v>
       </c>
       <c r="E384" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F384" t="n">
         <v>8.6</v>
       </c>
-      <c r="F384" t="n">
+      <c r="G384" t="n">
         <v>9.1</v>
       </c>
-      <c r="G384" t="n">
+      <c r="H384" t="n">
         <v>7.8</v>
       </c>
-      <c r="H384" t="n">
-        <v>8.5</v>
-      </c>
       <c r="I384" t="n">
-        <v>8.17</v>
+        <v>8.029999999999999</v>
       </c>
     </row>
     <row r="385">
@@ -10083,28 +10091,142 @@
         <v>385</v>
       </c>
       <c r="B386" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C386" t="n">
         <v>7.3</v>
       </c>
-      <c r="C386" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D386" t="n">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="E386" t="n">
         <v>7.5</v>
       </c>
       <c r="F386" t="n">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="G386" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="H386" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="I386" t="n">
-        <v>6.99</v>
+        <v>7.01</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B387" t="inlineStr"/>
+      <c r="C387" t="inlineStr"/>
+      <c r="D387" t="inlineStr"/>
+      <c r="E387" t="inlineStr"/>
+      <c r="F387" t="inlineStr"/>
+      <c r="G387" t="inlineStr"/>
+      <c r="H387" t="inlineStr"/>
+      <c r="I387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B388" t="inlineStr"/>
+      <c r="C388" t="inlineStr"/>
+      <c r="D388" t="inlineStr"/>
+      <c r="E388" t="inlineStr"/>
+      <c r="F388" t="inlineStr"/>
+      <c r="G388" t="inlineStr"/>
+      <c r="H388" t="inlineStr"/>
+      <c r="I388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B389" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C389" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="D389" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="E389" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F389" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G389" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="H389" t="n">
+        <v>7</v>
+      </c>
+      <c r="I389" t="n">
+        <v>6.93</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B390" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C390" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="D390" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E390" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="F390" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G390" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H390" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I390" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B391" t="inlineStr"/>
+      <c r="C391" t="inlineStr"/>
+      <c r="D391" t="inlineStr"/>
+      <c r="E391" t="inlineStr"/>
+      <c r="F391" t="inlineStr"/>
+      <c r="G391" t="inlineStr"/>
+      <c r="H391" t="inlineStr"/>
+      <c r="I391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B392" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C392" t="inlineStr"/>
+      <c r="D392" t="inlineStr"/>
+      <c r="E392" t="inlineStr"/>
+      <c r="F392" t="inlineStr"/>
+      <c r="G392" t="inlineStr"/>
+      <c r="H392" t="inlineStr"/>
+      <c r="I392" t="n">
+        <v>6.2</v>
       </c>
     </row>
   </sheetData>

--- a/players_ratings.xlsx
+++ b/players_ratings.xlsx
@@ -1339,28 +1339,28 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="C38" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="D38" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="E38" t="n">
         <v>6.8</v>
       </c>
       <c r="F38" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="G38" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="H38" t="n">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="I38" t="n">
-        <v>6.89</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="39">
@@ -1900,28 +1900,28 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="C63" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="D63" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E63" t="n">
         <v>7.9</v>
       </c>
-      <c r="E63" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F63" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G63" t="n">
         <v>5.5</v>
       </c>
-      <c r="G63" t="n">
-        <v>7</v>
-      </c>
       <c r="H63" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="I63" t="n">
-        <v>6.83</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="64">
@@ -1929,28 +1929,28 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="C64" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="D64" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="E64" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="F64" t="n">
         <v>6.2</v>
       </c>
       <c r="G64" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H64" t="n">
         <v>6.1</v>
       </c>
-      <c r="H64" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I64" t="n">
-        <v>6.47</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="65">
@@ -1987,28 +1987,28 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="C66" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D66" t="n">
         <v>7.5</v>
       </c>
-      <c r="D66" t="n">
+      <c r="E66" t="n">
         <v>6.3</v>
       </c>
-      <c r="E66" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F66" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="G66" t="n">
         <v>6.8</v>
       </c>
       <c r="H66" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="I66" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="67">
@@ -2016,21 +2016,23 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="C67" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="D67" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="E67" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="F67" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="G67" t="inlineStr"/>
+        <v>7.1</v>
+      </c>
+      <c r="G67" t="n">
+        <v>6.6</v>
+      </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="n">
         <v>6.72</v>
@@ -2351,28 +2353,28 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C82" t="n">
         <v>7.5</v>
       </c>
-      <c r="C82" t="n">
-        <v>7.1</v>
-      </c>
       <c r="D82" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="E82" t="n">
         <v>7.2</v>
       </c>
-      <c r="E82" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F82" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G82" t="n">
         <v>8.1</v>
       </c>
-      <c r="G82" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H82" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="I82" t="n">
-        <v>7.23</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="83">
@@ -2598,28 +2600,28 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="C95" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D95" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="E95" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="D95" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="E95" t="n">
-        <v>7.1</v>
-      </c>
       <c r="F95" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="G95" t="n">
-        <v>7.8</v>
+        <v>7.1</v>
       </c>
       <c r="H95" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="I95" t="n">
-        <v>7.11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96">
@@ -2627,28 +2629,28 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="C96" t="n">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
       <c r="D96" t="n">
         <v>7.3</v>
       </c>
       <c r="E96" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="F96" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="G96" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="H96" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="I96" t="n">
-        <v>6.8</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="97">
@@ -2656,28 +2658,28 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C97" t="n">
         <v>6.2</v>
       </c>
-      <c r="C97" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D97" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="E97" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="F97" t="n">
         <v>6.8</v>
       </c>
       <c r="G97" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="H97" t="n">
         <v>6.5</v>
       </c>
       <c r="I97" t="n">
-        <v>6.59</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="98">
@@ -2763,28 +2765,28 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="C102" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="D102" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="E102" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="F102" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G102" t="n">
         <v>7.2</v>
       </c>
-      <c r="G102" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H102" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="I102" t="n">
-        <v>6.71</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="103">
@@ -2876,28 +2878,28 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
+        <v>7</v>
+      </c>
+      <c r="C107" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="D107" t="n">
         <v>7.4</v>
       </c>
-      <c r="C107" t="n">
-        <v>7</v>
-      </c>
-      <c r="D107" t="n">
+      <c r="E107" t="n">
+        <v>7</v>
+      </c>
+      <c r="F107" t="n">
         <v>6.3</v>
       </c>
-      <c r="E107" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="F107" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G107" t="n">
-        <v>7.9</v>
+        <v>6.8</v>
       </c>
       <c r="H107" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="I107" t="n">
-        <v>7.04</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="108">
@@ -3003,28 +3005,28 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C112" t="n">
         <v>7.6</v>
       </c>
-      <c r="C112" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D112" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="E112" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="F112" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G112" t="n">
         <v>7.3</v>
       </c>
-      <c r="G112" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H112" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="I112" t="n">
-        <v>7.07</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="113">
@@ -3045,28 +3047,28 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C114" t="n">
         <v>6.3</v>
       </c>
-      <c r="C114" t="n">
-        <v>6.8</v>
-      </c>
       <c r="D114" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E114" t="n">
         <v>7.6</v>
       </c>
-      <c r="E114" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F114" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G114" t="n">
         <v>7.2</v>
       </c>
-      <c r="G114" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H114" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="I114" t="n">
-        <v>6.86</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="115">
@@ -3103,28 +3105,28 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="C116" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="D116" t="n">
         <v>6.6</v>
       </c>
       <c r="E116" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F116" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G116" t="n">
         <v>6.2</v>
       </c>
-      <c r="F116" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="G116" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H116" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I116" t="n">
-        <v>6.6</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="117">
@@ -3145,24 +3147,26 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="C118" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="D118" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="E118" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="F118" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="G118" t="inlineStr"/>
+        <v>6.8</v>
+      </c>
+      <c r="G118" t="n">
+        <v>6.9</v>
+      </c>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="n">
-        <v>6.78</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="119">
@@ -5100,28 +5104,28 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C197" t="n">
         <v>7.7</v>
-      </c>
-      <c r="C197" t="n">
-        <v>6.3</v>
       </c>
       <c r="D197" t="n">
         <v>6.3</v>
       </c>
       <c r="E197" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="F197" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G197" t="n">
         <v>7.7</v>
       </c>
-      <c r="G197" t="n">
+      <c r="H197" t="n">
         <v>7.9</v>
       </c>
-      <c r="H197" t="n">
-        <v>7</v>
-      </c>
       <c r="I197" t="n">
-        <v>7.11</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="198">
@@ -5370,28 +5374,28 @@
         <v>206</v>
       </c>
       <c r="B207" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="C207" t="n">
         <v>7</v>
       </c>
       <c r="D207" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="E207" t="n">
         <v>6.7</v>
       </c>
       <c r="F207" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G207" t="n">
         <v>7.6</v>
       </c>
-      <c r="G207" t="n">
-        <v>7</v>
-      </c>
       <c r="H207" t="n">
         <v>7</v>
       </c>
       <c r="I207" t="n">
-        <v>7</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="208">
@@ -5487,25 +5491,25 @@
         <v>211</v>
       </c>
       <c r="B212" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="C212" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="D212" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E212" t="n">
         <v>6.3</v>
       </c>
-      <c r="E212" t="n">
-        <v>6.4</v>
-      </c>
       <c r="F212" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="G212" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="H212" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="I212" t="n">
         <v>6.51</v>
@@ -5516,28 +5520,28 @@
         <v>212</v>
       </c>
       <c r="B213" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="C213" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D213" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="D213" t="n">
+      <c r="E213" t="n">
         <v>7.3</v>
       </c>
-      <c r="E213" t="n">
-        <v>6.4</v>
-      </c>
       <c r="F213" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G213" t="n">
         <v>6.1</v>
       </c>
-      <c r="G213" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H213" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="I213" t="n">
-        <v>6.94</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214">
@@ -5601,21 +5605,23 @@
         <v>6.4</v>
       </c>
       <c r="C217" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="D217" t="n">
         <v>6.6</v>
       </c>
       <c r="E217" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="F217" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G217" t="n">
         <v>6.2</v>
       </c>
-      <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="n">
-        <v>6.54</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="218">
@@ -5623,28 +5629,28 @@
         <v>217</v>
       </c>
       <c r="B218" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="C218" t="n">
+        <v>7</v>
+      </c>
+      <c r="D218" t="n">
         <v>7.3</v>
       </c>
-      <c r="D218" t="n">
-        <v>7</v>
-      </c>
       <c r="E218" t="n">
+        <v>7</v>
+      </c>
+      <c r="F218" t="n">
         <v>7.3</v>
       </c>
-      <c r="F218" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G218" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H218" t="n">
         <v>7.3</v>
       </c>
-      <c r="H218" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I218" t="n">
-        <v>7.04</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="219">
@@ -5681,28 +5687,28 @@
         <v>219</v>
       </c>
       <c r="B220" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C220" t="n">
         <v>7.3</v>
       </c>
-      <c r="C220" t="n">
+      <c r="D220" t="n">
         <v>6</v>
       </c>
-      <c r="D220" t="n">
+      <c r="E220" t="n">
         <v>7.4</v>
       </c>
-      <c r="E220" t="n">
+      <c r="F220" t="n">
         <v>7.7</v>
       </c>
-      <c r="F220" t="n">
+      <c r="G220" t="n">
         <v>7.3</v>
       </c>
-      <c r="G220" t="n">
+      <c r="H220" t="n">
         <v>5.9</v>
       </c>
-      <c r="H220" t="n">
-        <v>6.4</v>
-      </c>
       <c r="I220" t="n">
-        <v>6.86</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="221">
@@ -5778,28 +5784,28 @@
         <v>224</v>
       </c>
       <c r="B225" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C225" t="n">
         <v>7.2</v>
       </c>
-      <c r="C225" t="n">
+      <c r="D225" t="n">
         <v>7.3</v>
       </c>
-      <c r="D225" t="n">
-        <v>6.4</v>
-      </c>
       <c r="E225" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="F225" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="G225" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="H225" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="I225" t="n">
-        <v>6.94</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="226">
@@ -5878,28 +5884,28 @@
         <v>228</v>
       </c>
       <c r="B229" t="n">
-        <v>6.9</v>
+        <v>8.4</v>
       </c>
       <c r="C229" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="D229" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E229" t="n">
         <v>8</v>
       </c>
-      <c r="E229" t="n">
-        <v>7.1</v>
-      </c>
       <c r="F229" t="n">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="G229" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="H229" t="n">
         <v>6.9</v>
       </c>
       <c r="I229" t="n">
-        <v>6.97</v>
+        <v>7.19</v>
       </c>
     </row>
     <row r="230">
@@ -5946,28 +5952,28 @@
         <v>232</v>
       </c>
       <c r="B233" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C233" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="D233" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="E233" t="n">
         <v>6.5</v>
       </c>
       <c r="F233" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="G233" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="H233" t="n">
         <v>6.5</v>
       </c>
       <c r="I233" t="n">
-        <v>6.57</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="234">
@@ -6011,28 +6017,28 @@
         <v>235</v>
       </c>
       <c r="B236" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="C236" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="D236" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E236" t="n">
         <v>7.2</v>
       </c>
-      <c r="E236" t="n">
-        <v>7</v>
-      </c>
       <c r="F236" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="G236" t="n">
         <v>6.5</v>
       </c>
       <c r="H236" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="I236" t="n">
-        <v>6.73</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="237">
@@ -6124,25 +6130,25 @@
         <v>240</v>
       </c>
       <c r="B241" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="C241" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D241" t="n">
         <v>6.2</v>
       </c>
-      <c r="D241" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E241" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="F241" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="G241" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="H241" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="I241" t="n">
         <v>6.54</v>
@@ -7111,25 +7117,25 @@
         <v>7.2</v>
       </c>
       <c r="C279" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D279" t="n">
         <v>7.4</v>
       </c>
-      <c r="D279" t="n">
+      <c r="E279" t="n">
         <v>7.5</v>
       </c>
-      <c r="E279" t="n">
-        <v>7</v>
-      </c>
       <c r="F279" t="n">
+        <v>7</v>
+      </c>
+      <c r="G279" t="n">
         <v>7.7</v>
       </c>
-      <c r="G279" t="n">
+      <c r="H279" t="n">
         <v>7.2</v>
       </c>
-      <c r="H279" t="n">
-        <v>7.5</v>
-      </c>
       <c r="I279" t="n">
-        <v>7.36</v>
+        <v>7.31</v>
       </c>
     </row>
     <row r="280">
@@ -7137,28 +7143,28 @@
         <v>279</v>
       </c>
       <c r="B280" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="C280" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D280" t="n">
         <v>6</v>
       </c>
-      <c r="D280" t="n">
-        <v>6.4</v>
-      </c>
       <c r="E280" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="F280" t="n">
+        <v>7</v>
+      </c>
+      <c r="G280" t="n">
         <v>7.3</v>
       </c>
-      <c r="G280" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H280" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="I280" t="n">
-        <v>6.66</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="281">
@@ -7543,28 +7549,28 @@
         <v>293</v>
       </c>
       <c r="B294" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C294" t="n">
         <v>7.2</v>
       </c>
-      <c r="C294" t="n">
+      <c r="D294" t="n">
         <v>7.4</v>
       </c>
-      <c r="D294" t="n">
+      <c r="E294" t="n">
         <v>7.5</v>
       </c>
-      <c r="E294" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F294" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G294" t="n">
         <v>7.2</v>
       </c>
-      <c r="G294" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H294" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="I294" t="n">
-        <v>7.09</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="295">
@@ -7717,28 +7723,28 @@
         <v>299</v>
       </c>
       <c r="B300" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C300" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D300" t="n">
         <v>6.3</v>
       </c>
-      <c r="C300" t="n">
+      <c r="E300" t="n">
         <v>5.8</v>
       </c>
-      <c r="D300" t="n">
+      <c r="F300" t="n">
         <v>7.6</v>
       </c>
-      <c r="E300" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F300" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G300" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="H300" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="I300" t="n">
-        <v>6.66</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="301">
@@ -7775,28 +7781,28 @@
         <v>301</v>
       </c>
       <c r="B302" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C302" t="n">
         <v>9.6</v>
       </c>
-      <c r="C302" t="n">
+      <c r="D302" t="n">
         <v>7.9</v>
       </c>
-      <c r="D302" t="n">
-        <v>7.1</v>
-      </c>
       <c r="E302" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="F302" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G302" t="n">
         <v>7.3</v>
       </c>
-      <c r="G302" t="n">
-        <v>6.8</v>
-      </c>
       <c r="H302" t="n">
         <v>6.8</v>
       </c>
       <c r="I302" t="n">
-        <v>7.46</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="303">
@@ -8355,16 +8361,16 @@
         <v>321</v>
       </c>
       <c r="B322" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="C322" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D322" t="n">
         <v>7.8</v>
       </c>
-      <c r="D322" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E322" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="F322" t="n">
         <v>6.9</v>
@@ -8373,10 +8379,10 @@
         <v>6.9</v>
       </c>
       <c r="H322" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="I322" t="n">
-        <v>6.86</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="323">
@@ -8413,28 +8419,28 @@
         <v>323</v>
       </c>
       <c r="B324" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C324" t="n">
         <v>8</v>
       </c>
-      <c r="C324" t="n">
+      <c r="D324" t="n">
         <v>7.2</v>
       </c>
-      <c r="D324" t="n">
-        <v>7</v>
-      </c>
       <c r="E324" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="F324" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="G324" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="H324" t="n">
-        <v>7.6</v>
+        <v>6.7</v>
       </c>
       <c r="I324" t="n">
-        <v>7.2</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="325">
@@ -8666,28 +8672,28 @@
         <v>332</v>
       </c>
       <c r="B333" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="C333" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="D333" t="n">
         <v>7</v>
       </c>
       <c r="E333" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="F333" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G333" t="n">
         <v>8</v>
       </c>
-      <c r="G333" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H333" t="n">
-        <v>7.8</v>
+        <v>6.5</v>
       </c>
       <c r="I333" t="n">
-        <v>7.14</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="334">
@@ -9011,28 +9017,28 @@
         <v>345</v>
       </c>
       <c r="B346" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C346" t="n">
         <v>6.3</v>
       </c>
-      <c r="C346" t="n">
+      <c r="D346" t="n">
         <v>7.6</v>
       </c>
-      <c r="D346" t="n">
+      <c r="E346" t="n">
         <v>7.3</v>
       </c>
-      <c r="E346" t="n">
+      <c r="F346" t="n">
         <v>7.5</v>
       </c>
-      <c r="F346" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G346" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H346" t="n">
         <v>7.5</v>
       </c>
-      <c r="H346" t="n">
-        <v>7.1</v>
-      </c>
       <c r="I346" t="n">
-        <v>7.16</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="347">
@@ -9040,25 +9046,25 @@
         <v>346</v>
       </c>
       <c r="B347" t="n">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="C347" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="D347" t="n">
         <v>7.3</v>
       </c>
-      <c r="D347" t="n">
-        <v>7</v>
-      </c>
       <c r="E347" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="F347" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="G347" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H347" t="n">
         <v>8.699999999999999</v>
-      </c>
-      <c r="H347" t="n">
-        <v>7.1</v>
       </c>
       <c r="I347" t="n">
         <v>7.26</v>
@@ -9069,28 +9075,28 @@
         <v>347</v>
       </c>
       <c r="B348" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C348" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="C348" t="n">
-        <v>7</v>
-      </c>
       <c r="D348" t="n">
+        <v>7</v>
+      </c>
+      <c r="E348" t="n">
         <v>7.8</v>
       </c>
-      <c r="E348" t="n">
+      <c r="F348" t="n">
         <v>6.3</v>
       </c>
-      <c r="F348" t="n">
+      <c r="G348" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="G348" t="n">
+      <c r="H348" t="n">
         <v>8</v>
       </c>
-      <c r="H348" t="n">
-        <v>7.4</v>
-      </c>
       <c r="I348" t="n">
-        <v>7.77</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="349">
@@ -9098,28 +9104,28 @@
         <v>348</v>
       </c>
       <c r="B349" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="C349" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="D349" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="E349" t="n">
+        <v>7</v>
+      </c>
+      <c r="F349" t="n">
         <v>7.3</v>
       </c>
-      <c r="F349" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G349" t="n">
         <v>6.5</v>
       </c>
       <c r="H349" t="n">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="I349" t="n">
-        <v>6.89</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="350">
@@ -9127,25 +9133,25 @@
         <v>349</v>
       </c>
       <c r="B350" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="C350" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D350" t="n">
         <v>7.9</v>
       </c>
-      <c r="D350" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E350" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F350" t="n">
         <v>6.1</v>
       </c>
-      <c r="F350" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G350" t="n">
         <v>6.5</v>
       </c>
       <c r="H350" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="I350" t="n">
         <v>6.71</v>
@@ -9480,28 +9486,28 @@
         <v>362</v>
       </c>
       <c r="B363" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C363" t="n">
         <v>6</v>
       </c>
-      <c r="C363" t="n">
+      <c r="D363" t="n">
         <v>7.9</v>
       </c>
-      <c r="D363" t="n">
+      <c r="E363" t="n">
         <v>7.4</v>
       </c>
-      <c r="E363" t="n">
+      <c r="F363" t="n">
         <v>7.7</v>
       </c>
-      <c r="F363" t="n">
-        <v>7</v>
-      </c>
       <c r="G363" t="n">
+        <v>7</v>
+      </c>
+      <c r="H363" t="n">
         <v>7.7</v>
       </c>
-      <c r="H363" t="n">
-        <v>7.8</v>
-      </c>
       <c r="I363" t="n">
-        <v>7.36</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="364">
@@ -9538,28 +9544,28 @@
         <v>364</v>
       </c>
       <c r="B365" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C365" t="n">
         <v>7.3</v>
       </c>
-      <c r="C365" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D365" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E365" t="n">
         <v>7.2</v>
       </c>
-      <c r="E365" t="n">
+      <c r="F365" t="n">
         <v>6</v>
       </c>
-      <c r="F365" t="n">
+      <c r="G365" t="n">
         <v>7.5</v>
       </c>
-      <c r="G365" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H365" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="I365" t="n">
-        <v>6.93</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="366">
@@ -9596,28 +9602,28 @@
         <v>366</v>
       </c>
       <c r="B367" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="C367" t="n">
+        <v>7</v>
+      </c>
+      <c r="D367" t="n">
         <v>7.9</v>
       </c>
-      <c r="D367" t="n">
-        <v>7.1</v>
-      </c>
       <c r="E367" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="F367" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G367" t="n">
         <v>7.6</v>
       </c>
-      <c r="G367" t="n">
-        <v>6.8</v>
-      </c>
       <c r="H367" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I367" t="n">
-        <v>7.1</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="368">
@@ -9625,28 +9631,28 @@
         <v>367</v>
       </c>
       <c r="B368" t="n">
-        <v>6.5</v>
+        <v>7.6</v>
       </c>
       <c r="C368" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="D368" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="E368" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="F368" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G368" t="n">
         <v>7.4</v>
       </c>
-      <c r="G368" t="n">
+      <c r="H368" t="n">
         <v>7.3</v>
       </c>
-      <c r="H368" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I368" t="n">
-        <v>6.84</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="369">
@@ -9654,28 +9660,28 @@
         <v>368</v>
       </c>
       <c r="B369" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="C369" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="D369" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="E369" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="F369" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G369" t="n">
         <v>5.9</v>
       </c>
-      <c r="G369" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H369" t="n">
         <v>6.7</v>
       </c>
       <c r="I369" t="n">
-        <v>6.57</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="370">
@@ -9741,18 +9747,20 @@
         <v>371</v>
       </c>
       <c r="B372" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="C372" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="D372" t="inlineStr"/>
+        <v>7.1</v>
+      </c>
+      <c r="D372" t="n">
+        <v>6.6</v>
+      </c>
       <c r="E372" t="inlineStr"/>
       <c r="F372" t="inlineStr"/>
       <c r="G372" t="inlineStr"/>
       <c r="H372" t="inlineStr"/>
       <c r="I372" t="n">
-        <v>6.85</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="373">
@@ -9835,18 +9843,20 @@
         <v>375</v>
       </c>
       <c r="B376" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C376" t="n">
         <v>7.6</v>
       </c>
-      <c r="C376" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="D376" t="inlineStr"/>
+      <c r="D376" t="n">
+        <v>7.1</v>
+      </c>
       <c r="E376" t="inlineStr"/>
       <c r="F376" t="inlineStr"/>
       <c r="G376" t="inlineStr"/>
       <c r="H376" t="inlineStr"/>
       <c r="I376" t="n">
-        <v>7.35</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="377">
@@ -9883,28 +9893,28 @@
         <v>377</v>
       </c>
       <c r="B378" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="C378" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="D378" t="n">
         <v>8.1</v>
       </c>
-      <c r="D378" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E378" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F378" t="n">
         <v>7.9</v>
       </c>
-      <c r="F378" t="n">
+      <c r="G378" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="G378" t="n">
+      <c r="H378" t="n">
         <v>7.6</v>
       </c>
-      <c r="H378" t="n">
-        <v>7.4</v>
-      </c>
       <c r="I378" t="n">
-        <v>7.61</v>
+        <v>7.63</v>
       </c>
     </row>
     <row r="379">
@@ -10004,28 +10014,28 @@
         <v>382</v>
       </c>
       <c r="B383" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="C383" t="n">
         <v>6.6</v>
       </c>
       <c r="D383" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="E383" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F383" t="n">
         <v>6.1</v>
       </c>
-      <c r="F383" t="n">
+      <c r="G383" t="n">
         <v>7.3</v>
       </c>
-      <c r="G383" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H383" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="I383" t="n">
-        <v>6.73</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="384">
@@ -10039,22 +10049,22 @@
         <v>7.6</v>
       </c>
       <c r="D384" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="E384" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="F384" t="n">
         <v>7.8</v>
       </c>
-      <c r="E384" t="n">
+      <c r="G384" t="n">
         <v>7.8</v>
       </c>
-      <c r="F384" t="n">
+      <c r="H384" t="n">
         <v>8.6</v>
       </c>
-      <c r="G384" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="H384" t="n">
-        <v>7.8</v>
-      </c>
       <c r="I384" t="n">
-        <v>8.029999999999999</v>
+        <v>7.79</v>
       </c>
     </row>
     <row r="385">
@@ -10091,28 +10101,28 @@
         <v>385</v>
       </c>
       <c r="B386" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C386" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="D386" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E386" t="n">
         <v>7.3</v>
       </c>
-      <c r="D386" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="E386" t="n">
+      <c r="F386" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G386" t="n">
         <v>7.5</v>
       </c>
-      <c r="F386" t="n">
+      <c r="H386" t="n">
         <v>7.5</v>
       </c>
-      <c r="G386" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="H386" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I386" t="n">
-        <v>7.01</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="387">
@@ -10146,28 +10156,28 @@
         <v>388</v>
       </c>
       <c r="B389" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="C389" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="D389" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="E389" t="n">
         <v>6.1</v>
       </c>
-      <c r="E389" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F389" t="n">
         <v>6.9</v>
       </c>
       <c r="G389" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H389" t="n">
         <v>7.7</v>
       </c>
-      <c r="H389" t="n">
-        <v>7</v>
-      </c>
       <c r="I389" t="n">
-        <v>6.93</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="390">

--- a/players_ratings.xlsx
+++ b/players_ratings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I392"/>
+  <dimension ref="A1:I398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2600,28 +2600,28 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="C95" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="D95" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="E95" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="F95" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="F95" t="n">
-        <v>6.4</v>
-      </c>
       <c r="G95" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="H95" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="I95" t="n">
-        <v>7</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="96">
@@ -2765,28 +2765,28 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="C102" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="D102" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="E102" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="F102" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="G102" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H102" t="n">
         <v>7.2</v>
       </c>
-      <c r="H102" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I102" t="n">
-        <v>6.73</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="103">
@@ -2878,28 +2878,28 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="C107" t="n">
+        <v>7</v>
+      </c>
+      <c r="D107" t="n">
         <v>5.9</v>
       </c>
-      <c r="D107" t="n">
+      <c r="E107" t="n">
         <v>7.4</v>
       </c>
-      <c r="E107" t="n">
-        <v>7</v>
-      </c>
       <c r="F107" t="n">
+        <v>7</v>
+      </c>
+      <c r="G107" t="n">
         <v>6.3</v>
       </c>
-      <c r="G107" t="n">
-        <v>6.8</v>
-      </c>
       <c r="H107" t="n">
         <v>6.8</v>
       </c>
       <c r="I107" t="n">
-        <v>6.74</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="108">
@@ -3105,13 +3105,13 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="C116" t="n">
         <v>6.8</v>
       </c>
       <c r="D116" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="E116" t="n">
         <v>6.6</v>
@@ -3120,10 +3120,10 @@
         <v>6.6</v>
       </c>
       <c r="G116" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H116" t="n">
         <v>6.2</v>
-      </c>
-      <c r="H116" t="n">
-        <v>6.5</v>
       </c>
       <c r="I116" t="n">
         <v>6.59</v>
@@ -5374,7 +5374,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="C207" t="n">
         <v>7</v>
@@ -5395,7 +5395,7 @@
         <v>7</v>
       </c>
       <c r="I207" t="n">
-        <v>6.91</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="208">
@@ -8988,28 +8988,28 @@
         <v>344</v>
       </c>
       <c r="B345" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C345" t="n">
         <v>7.6</v>
       </c>
-      <c r="C345" t="n">
+      <c r="D345" t="n">
         <v>7.8</v>
       </c>
-      <c r="D345" t="n">
+      <c r="E345" t="n">
         <v>6.1</v>
       </c>
-      <c r="E345" t="n">
+      <c r="F345" t="n">
         <v>8.1</v>
       </c>
-      <c r="F345" t="n">
+      <c r="G345" t="n">
         <v>8.4</v>
       </c>
-      <c r="G345" t="n">
-        <v>7</v>
-      </c>
       <c r="H345" t="n">
-        <v>8.699999999999999</v>
+        <v>7</v>
       </c>
       <c r="I345" t="n">
-        <v>7.67</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="346">
@@ -9075,7 +9075,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="C348" t="n">
         <v>8.199999999999999</v>
@@ -9096,7 +9096,7 @@
         <v>8</v>
       </c>
       <c r="I348" t="n">
-        <v>7.64</v>
+        <v>7.63</v>
       </c>
     </row>
     <row r="349">
@@ -9631,7 +9631,7 @@
         <v>367</v>
       </c>
       <c r="B368" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="C368" t="n">
         <v>6.5</v>
@@ -9652,7 +9652,7 @@
         <v>7.3</v>
       </c>
       <c r="I368" t="n">
-        <v>6.99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="369">
@@ -10043,10 +10043,10 @@
         <v>383</v>
       </c>
       <c r="B384" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C384" t="n">
         <v>7.5</v>
-      </c>
-      <c r="C384" t="n">
-        <v>7.6</v>
       </c>
       <c r="D384" t="n">
         <v>7.6</v>
@@ -10055,16 +10055,16 @@
         <v>7.6</v>
       </c>
       <c r="F384" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="G384" t="n">
         <v>7.8</v>
       </c>
       <c r="H384" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="I384" t="n">
-        <v>7.79</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="385">
@@ -10101,28 +10101,28 @@
         <v>385</v>
       </c>
       <c r="B386" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="C386" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="D386" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="E386" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F386" t="n">
         <v>7.3</v>
       </c>
-      <c r="F386" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G386" t="n">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="H386" t="n">
         <v>7.5</v>
       </c>
       <c r="I386" t="n">
-        <v>7.06</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="387">
@@ -10239,6 +10239,116 @@
         <v>6.2</v>
       </c>
     </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B393" t="inlineStr"/>
+      <c r="C393" t="inlineStr"/>
+      <c r="D393" t="inlineStr"/>
+      <c r="E393" t="inlineStr"/>
+      <c r="F393" t="inlineStr"/>
+      <c r="G393" t="inlineStr"/>
+      <c r="H393" t="inlineStr"/>
+      <c r="I393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B394" t="inlineStr"/>
+      <c r="C394" t="inlineStr"/>
+      <c r="D394" t="inlineStr"/>
+      <c r="E394" t="inlineStr"/>
+      <c r="F394" t="inlineStr"/>
+      <c r="G394" t="inlineStr"/>
+      <c r="H394" t="inlineStr"/>
+      <c r="I394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B395" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C395" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="D395" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E395" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F395" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G395" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H395" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I395" t="n">
+        <v>6.89</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B396" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C396" t="n">
+        <v>7</v>
+      </c>
+      <c r="D396" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="E396" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F396" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G396" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H396" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I396" t="n">
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B397" t="inlineStr"/>
+      <c r="C397" t="inlineStr"/>
+      <c r="D397" t="inlineStr"/>
+      <c r="E397" t="inlineStr"/>
+      <c r="F397" t="inlineStr"/>
+      <c r="G397" t="inlineStr"/>
+      <c r="H397" t="inlineStr"/>
+      <c r="I397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B398" t="inlineStr"/>
+      <c r="C398" t="inlineStr"/>
+      <c r="D398" t="inlineStr"/>
+      <c r="E398" t="inlineStr"/>
+      <c r="F398" t="inlineStr"/>
+      <c r="G398" t="inlineStr"/>
+      <c r="H398" t="inlineStr"/>
+      <c r="I398" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/players_ratings.xlsx
+++ b/players_ratings.xlsx
@@ -1871,28 +1871,28 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="C62" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="D62" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="E62" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="F62" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="G62" t="n">
         <v>6.2</v>
       </c>
       <c r="H62" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="I62" t="n">
-        <v>6.47</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="63">
@@ -1900,28 +1900,28 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C63" t="n">
         <v>7.7</v>
       </c>
-      <c r="C63" t="n">
-        <v>7.1</v>
-      </c>
       <c r="D63" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="E63" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F63" t="n">
         <v>7.9</v>
       </c>
-      <c r="F63" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G63" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H63" t="n">
         <v>5.5</v>
       </c>
-      <c r="H63" t="n">
-        <v>7</v>
-      </c>
       <c r="I63" t="n">
-        <v>6.94</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="64">
@@ -1929,28 +1929,28 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>7.1</v>
+        <v>5.8</v>
       </c>
       <c r="C64" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="D64" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="E64" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="F64" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G64" t="n">
+        <v>7</v>
+      </c>
+      <c r="H64" t="n">
         <v>6.2</v>
       </c>
-      <c r="G64" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H64" t="n">
-        <v>6.1</v>
-      </c>
       <c r="I64" t="n">
-        <v>6.56</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="65">
@@ -2016,26 +2016,28 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="C67" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="D67" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="E67" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="F67" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="G67" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H67" t="inlineStr"/>
+        <v>7.1</v>
+      </c>
+      <c r="H67" t="n">
+        <v>6.6</v>
+      </c>
       <c r="I67" t="n">
-        <v>6.72</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="68">
@@ -2600,28 +2602,28 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="C95" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="D95" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="E95" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="F95" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G95" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="G95" t="n">
-        <v>6.4</v>
-      </c>
       <c r="H95" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="I95" t="n">
-        <v>6.97</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="96">
@@ -2629,28 +2631,28 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="C96" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="D96" t="n">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
       <c r="E96" t="n">
         <v>7.3</v>
       </c>
       <c r="F96" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="G96" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H96" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="I96" t="n">
-        <v>6.91</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="97">
@@ -2658,28 +2660,28 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="C97" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D97" t="n">
         <v>6.2</v>
       </c>
-      <c r="D97" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E97" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="F97" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="G97" t="n">
         <v>6.8</v>
       </c>
       <c r="H97" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="I97" t="n">
-        <v>6.57</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="98">
@@ -2765,28 +2767,28 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="C102" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="D102" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="E102" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="F102" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="G102" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="H102" t="n">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="I102" t="n">
-        <v>6.71</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="103">
@@ -2878,28 +2880,28 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C107" t="n">
         <v>7.2</v>
       </c>
-      <c r="C107" t="n">
-        <v>7</v>
-      </c>
       <c r="D107" t="n">
+        <v>7</v>
+      </c>
+      <c r="E107" t="n">
         <v>5.9</v>
       </c>
-      <c r="E107" t="n">
+      <c r="F107" t="n">
         <v>7.4</v>
       </c>
-      <c r="F107" t="n">
-        <v>7</v>
-      </c>
       <c r="G107" t="n">
+        <v>7</v>
+      </c>
+      <c r="H107" t="n">
         <v>6.3</v>
       </c>
-      <c r="H107" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I107" t="n">
-        <v>6.8</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="108">
@@ -3005,28 +3007,28 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>6.7</v>
+        <v>6.1</v>
       </c>
       <c r="C112" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D112" t="n">
         <v>7.6</v>
       </c>
-      <c r="D112" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E112" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="F112" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="G112" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H112" t="n">
         <v>7.3</v>
       </c>
-      <c r="H112" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I112" t="n">
-        <v>6.9</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="113">
@@ -3047,28 +3049,28 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="C114" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D114" t="n">
         <v>6.3</v>
       </c>
-      <c r="D114" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E114" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F114" t="n">
         <v>7.6</v>
       </c>
-      <c r="F114" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G114" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H114" t="n">
         <v>7.2</v>
       </c>
-      <c r="H114" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I114" t="n">
-        <v>6.87</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="115">
@@ -3105,16 +3107,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C116" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="D116" t="n">
         <v>6.8</v>
       </c>
       <c r="E116" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="F116" t="n">
         <v>6.6</v>
@@ -3123,10 +3125,10 @@
         <v>6.6</v>
       </c>
       <c r="H116" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="I116" t="n">
-        <v>6.59</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="117">
@@ -3147,26 +3149,28 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="C118" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="D118" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="E118" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="F118" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="G118" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="H118" t="inlineStr"/>
+        <v>6.8</v>
+      </c>
+      <c r="H118" t="n">
+        <v>6.9</v>
+      </c>
       <c r="I118" t="n">
-        <v>6.73</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="119">
@@ -5374,28 +5378,28 @@
         <v>206</v>
       </c>
       <c r="B207" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C207" t="n">
         <v>6.2</v>
       </c>
-      <c r="C207" t="n">
-        <v>7</v>
-      </c>
       <c r="D207" t="n">
         <v>7</v>
       </c>
       <c r="E207" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="F207" t="n">
         <v>6.7</v>
       </c>
       <c r="G207" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H207" t="n">
         <v>7.6</v>
       </c>
-      <c r="H207" t="n">
-        <v>7</v>
-      </c>
       <c r="I207" t="n">
-        <v>6.89</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="208">
@@ -5491,25 +5495,25 @@
         <v>211</v>
       </c>
       <c r="B212" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="C212" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="D212" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="E212" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F212" t="n">
         <v>6.3</v>
       </c>
-      <c r="F212" t="n">
-        <v>6.4</v>
-      </c>
       <c r="G212" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="H212" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="I212" t="n">
         <v>6.51</v>
@@ -5520,28 +5524,28 @@
         <v>212</v>
       </c>
       <c r="B213" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="C213" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="D213" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E213" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="E213" t="n">
+      <c r="F213" t="n">
         <v>7.3</v>
       </c>
-      <c r="F213" t="n">
-        <v>6.4</v>
-      </c>
       <c r="G213" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H213" t="n">
         <v>6.1</v>
       </c>
-      <c r="H213" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I213" t="n">
-        <v>7</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="214">
@@ -5608,20 +5612,22 @@
         <v>6.4</v>
       </c>
       <c r="D217" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="E217" t="n">
         <v>6.6</v>
       </c>
       <c r="F217" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="G217" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H217" t="n">
         <v>6.2</v>
       </c>
-      <c r="H217" t="inlineStr"/>
       <c r="I217" t="n">
-        <v>6.52</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="218">
@@ -5629,28 +5635,28 @@
         <v>217</v>
       </c>
       <c r="B218" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="C218" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="D218" t="n">
+        <v>7</v>
+      </c>
+      <c r="E218" t="n">
         <v>7.3</v>
       </c>
-      <c r="E218" t="n">
-        <v>7</v>
-      </c>
       <c r="F218" t="n">
+        <v>7</v>
+      </c>
+      <c r="G218" t="n">
         <v>7.3</v>
       </c>
-      <c r="G218" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H218" t="n">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="I218" t="n">
-        <v>7.1</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="219">
@@ -5687,28 +5693,28 @@
         <v>219</v>
       </c>
       <c r="B220" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="C220" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D220" t="n">
         <v>7.3</v>
       </c>
-      <c r="D220" t="n">
+      <c r="E220" t="n">
         <v>6</v>
       </c>
-      <c r="E220" t="n">
+      <c r="F220" t="n">
         <v>7.4</v>
       </c>
-      <c r="F220" t="n">
+      <c r="G220" t="n">
         <v>7.7</v>
       </c>
-      <c r="G220" t="n">
+      <c r="H220" t="n">
         <v>7.3</v>
       </c>
-      <c r="H220" t="n">
-        <v>5.9</v>
-      </c>
       <c r="I220" t="n">
-        <v>6.9</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="221">
@@ -5784,28 +5790,28 @@
         <v>224</v>
       </c>
       <c r="B225" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="C225" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D225" t="n">
         <v>7.2</v>
       </c>
-      <c r="D225" t="n">
+      <c r="E225" t="n">
         <v>7.3</v>
       </c>
-      <c r="E225" t="n">
-        <v>6.4</v>
-      </c>
       <c r="F225" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="G225" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="H225" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="I225" t="n">
-        <v>6.89</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="226">
@@ -6017,28 +6023,28 @@
         <v>235</v>
       </c>
       <c r="B236" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="C236" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="D236" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="E236" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F236" t="n">
         <v>7.2</v>
       </c>
-      <c r="F236" t="n">
-        <v>7</v>
-      </c>
       <c r="G236" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H236" t="n">
         <v>6.5</v>
       </c>
       <c r="I236" t="n">
-        <v>6.7</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="237">
@@ -6046,28 +6052,28 @@
         <v>236</v>
       </c>
       <c r="B237" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C237" t="n">
         <v>7.9</v>
       </c>
-      <c r="C237" t="n">
-        <v>7.1</v>
-      </c>
       <c r="D237" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="E237" t="n">
         <v>7.6</v>
       </c>
-      <c r="E237" t="n">
+      <c r="F237" t="n">
         <v>7.5</v>
       </c>
-      <c r="F237" t="n">
+      <c r="G237" t="n">
         <v>7.2</v>
       </c>
-      <c r="G237" t="n">
+      <c r="H237" t="n">
         <v>7.3</v>
       </c>
-      <c r="H237" t="n">
-        <v>7</v>
-      </c>
       <c r="I237" t="n">
-        <v>7.37</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="238">
@@ -6521,25 +6527,25 @@
         <v>257</v>
       </c>
       <c r="B258" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C258" t="n">
         <v>7.2</v>
       </c>
-      <c r="C258" t="n">
+      <c r="D258" t="n">
         <v>6.2</v>
       </c>
-      <c r="D258" t="n">
-        <v>7.1</v>
-      </c>
       <c r="E258" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="F258" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="G258" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H258" t="n">
         <v>6.2</v>
-      </c>
-      <c r="H258" t="n">
-        <v>6.6</v>
       </c>
       <c r="I258" t="n">
         <v>6.69</v>
@@ -7114,28 +7120,28 @@
         <v>278</v>
       </c>
       <c r="B279" t="n">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="C279" t="n">
         <v>7.2</v>
       </c>
       <c r="D279" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="E279" t="n">
         <v>7.4</v>
       </c>
-      <c r="E279" t="n">
+      <c r="F279" t="n">
         <v>7.5</v>
       </c>
-      <c r="F279" t="n">
-        <v>7</v>
-      </c>
       <c r="G279" t="n">
+        <v>7</v>
+      </c>
+      <c r="H279" t="n">
         <v>7.7</v>
       </c>
-      <c r="H279" t="n">
-        <v>7.2</v>
-      </c>
       <c r="I279" t="n">
-        <v>7.31</v>
+        <v>7.21</v>
       </c>
     </row>
     <row r="280">
@@ -7549,28 +7555,28 @@
         <v>293</v>
       </c>
       <c r="B294" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C294" t="n">
         <v>7.3</v>
       </c>
-      <c r="C294" t="n">
+      <c r="D294" t="n">
         <v>7.2</v>
       </c>
-      <c r="D294" t="n">
+      <c r="E294" t="n">
         <v>7.4</v>
       </c>
-      <c r="E294" t="n">
+      <c r="F294" t="n">
         <v>7.5</v>
       </c>
-      <c r="F294" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G294" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H294" t="n">
         <v>7.2</v>
       </c>
-      <c r="H294" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I294" t="n">
-        <v>7.13</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="295">
@@ -7752,28 +7758,28 @@
         <v>300</v>
       </c>
       <c r="B301" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C301" t="n">
         <v>7.6</v>
       </c>
-      <c r="C301" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D301" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E301" t="n">
         <v>8.4</v>
       </c>
-      <c r="E301" t="n">
+      <c r="F301" t="n">
         <v>7.8</v>
-      </c>
-      <c r="F301" t="n">
-        <v>7.2</v>
       </c>
       <c r="G301" t="n">
         <v>7.2</v>
       </c>
       <c r="H301" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="I301" t="n">
-        <v>7.37</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="302">
@@ -7781,28 +7787,28 @@
         <v>301</v>
       </c>
       <c r="B302" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="C302" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D302" t="n">
         <v>9.6</v>
       </c>
-      <c r="D302" t="n">
+      <c r="E302" t="n">
         <v>7.9</v>
       </c>
-      <c r="E302" t="n">
-        <v>7.1</v>
-      </c>
       <c r="F302" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="G302" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H302" t="n">
         <v>7.3</v>
       </c>
-      <c r="H302" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I302" t="n">
-        <v>7.47</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="303">
@@ -8361,19 +8367,19 @@
         <v>321</v>
       </c>
       <c r="B322" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="C322" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="D322" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E322" t="n">
         <v>7.8</v>
       </c>
-      <c r="E322" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F322" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="G322" t="n">
         <v>6.9</v>
@@ -8382,7 +8388,7 @@
         <v>6.9</v>
       </c>
       <c r="I322" t="n">
-        <v>6.89</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="323">
@@ -8419,28 +8425,28 @@
         <v>323</v>
       </c>
       <c r="B324" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C324" t="n">
         <v>7.8</v>
       </c>
-      <c r="C324" t="n">
+      <c r="D324" t="n">
         <v>8</v>
       </c>
-      <c r="D324" t="n">
+      <c r="E324" t="n">
         <v>7.2</v>
       </c>
-      <c r="E324" t="n">
-        <v>7</v>
-      </c>
       <c r="F324" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="G324" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="H324" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="I324" t="n">
-        <v>7.23</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="325">
@@ -8672,28 +8678,28 @@
         <v>332</v>
       </c>
       <c r="B333" t="n">
-        <v>6.9</v>
+        <v>7.7</v>
       </c>
       <c r="C333" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="D333" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="E333" t="n">
         <v>7</v>
       </c>
       <c r="F333" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="G333" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H333" t="n">
         <v>8</v>
       </c>
-      <c r="H333" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I333" t="n">
-        <v>7.01</v>
+        <v>7.19</v>
       </c>
     </row>
     <row r="334">
@@ -8988,28 +8994,28 @@
         <v>344</v>
       </c>
       <c r="B345" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="C345" t="n">
         <v>7.3</v>
       </c>
-      <c r="C345" t="n">
+      <c r="D345" t="n">
         <v>7.6</v>
       </c>
-      <c r="D345" t="n">
+      <c r="E345" t="n">
         <v>7.8</v>
       </c>
-      <c r="E345" t="n">
+      <c r="F345" t="n">
         <v>6.1</v>
       </c>
-      <c r="F345" t="n">
+      <c r="G345" t="n">
         <v>8.1</v>
       </c>
-      <c r="G345" t="n">
+      <c r="H345" t="n">
         <v>8.4</v>
       </c>
-      <c r="H345" t="n">
-        <v>7</v>
-      </c>
       <c r="I345" t="n">
-        <v>7.47</v>
+        <v>7.66</v>
       </c>
     </row>
     <row r="346">
@@ -9017,28 +9023,28 @@
         <v>345</v>
       </c>
       <c r="B346" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C346" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D346" t="n">
         <v>6.3</v>
       </c>
-      <c r="D346" t="n">
+      <c r="E346" t="n">
         <v>7.6</v>
       </c>
-      <c r="E346" t="n">
+      <c r="F346" t="n">
         <v>7.3</v>
       </c>
-      <c r="F346" t="n">
+      <c r="G346" t="n">
         <v>7.5</v>
       </c>
-      <c r="G346" t="n">
-        <v>6.8</v>
-      </c>
       <c r="H346" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="I346" t="n">
-        <v>7.07</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="347">
@@ -9046,28 +9052,28 @@
         <v>346</v>
       </c>
       <c r="B347" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="C347" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D347" t="n">
         <v>7.7</v>
       </c>
-      <c r="D347" t="n">
+      <c r="E347" t="n">
         <v>7.3</v>
       </c>
-      <c r="E347" t="n">
-        <v>7</v>
-      </c>
       <c r="F347" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="G347" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="H347" t="n">
-        <v>8.699999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="I347" t="n">
-        <v>7.26</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="348">
@@ -9486,28 +9492,28 @@
         <v>362</v>
       </c>
       <c r="B363" t="n">
-        <v>6.7</v>
+        <v>7.8</v>
       </c>
       <c r="C363" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D363" t="n">
         <v>6</v>
       </c>
-      <c r="D363" t="n">
+      <c r="E363" t="n">
         <v>7.9</v>
       </c>
-      <c r="E363" t="n">
+      <c r="F363" t="n">
         <v>7.4</v>
       </c>
-      <c r="F363" t="n">
+      <c r="G363" t="n">
         <v>7.7</v>
       </c>
-      <c r="G363" t="n">
-        <v>7</v>
-      </c>
       <c r="H363" t="n">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="I363" t="n">
-        <v>7.2</v>
+        <v>7.21</v>
       </c>
     </row>
     <row r="364">
@@ -9544,28 +9550,28 @@
         <v>364</v>
       </c>
       <c r="B365" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C365" t="n">
         <v>7.4</v>
       </c>
-      <c r="C365" t="n">
+      <c r="D365" t="n">
         <v>7.3</v>
       </c>
-      <c r="D365" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E365" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F365" t="n">
         <v>7.2</v>
       </c>
-      <c r="F365" t="n">
+      <c r="G365" t="n">
         <v>6</v>
       </c>
-      <c r="G365" t="n">
+      <c r="H365" t="n">
         <v>7.5</v>
       </c>
-      <c r="H365" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I365" t="n">
-        <v>6.96</v>
+        <v>7</v>
       </c>
     </row>
     <row r="366">
@@ -9602,28 +9608,28 @@
         <v>366</v>
       </c>
       <c r="B367" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C367" t="n">
         <v>7.8</v>
       </c>
-      <c r="C367" t="n">
-        <v>7</v>
-      </c>
       <c r="D367" t="n">
+        <v>7</v>
+      </c>
+      <c r="E367" t="n">
         <v>7.9</v>
       </c>
-      <c r="E367" t="n">
-        <v>7.1</v>
-      </c>
       <c r="F367" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="G367" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H367" t="n">
         <v>7.6</v>
       </c>
-      <c r="H367" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I367" t="n">
-        <v>7.27</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="368">
@@ -9631,28 +9637,28 @@
         <v>367</v>
       </c>
       <c r="B368" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="C368" t="n">
         <v>7.7</v>
       </c>
-      <c r="C368" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D368" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="E368" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="F368" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="G368" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H368" t="n">
         <v>7.4</v>
       </c>
-      <c r="H368" t="n">
+      <c r="I368" t="n">
         <v>7.3</v>
-      </c>
-      <c r="I368" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="369">
@@ -9660,28 +9666,28 @@
         <v>368</v>
       </c>
       <c r="B369" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="C369" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="D369" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="E369" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="F369" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="G369" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H369" t="n">
         <v>5.9</v>
       </c>
-      <c r="H369" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I369" t="n">
-        <v>6.54</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="370">
@@ -9750,17 +9756,19 @@
         <v>6.9</v>
       </c>
       <c r="C372" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="D372" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="E372" t="inlineStr"/>
+        <v>7.1</v>
+      </c>
+      <c r="E372" t="n">
+        <v>6.6</v>
+      </c>
       <c r="F372" t="inlineStr"/>
       <c r="G372" t="inlineStr"/>
       <c r="H372" t="inlineStr"/>
       <c r="I372" t="n">
-        <v>6.87</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="373">
@@ -9843,20 +9851,22 @@
         <v>375</v>
       </c>
       <c r="B376" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="C376" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="D376" t="n">
         <v>7.6</v>
       </c>
-      <c r="D376" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="E376" t="inlineStr"/>
+      <c r="E376" t="n">
+        <v>7.1</v>
+      </c>
       <c r="F376" t="inlineStr"/>
       <c r="G376" t="inlineStr"/>
       <c r="H376" t="inlineStr"/>
       <c r="I376" t="n">
-        <v>7.27</v>
+        <v>7.05</v>
       </c>
     </row>
     <row r="377">
@@ -9893,28 +9903,28 @@
         <v>377</v>
       </c>
       <c r="B378" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C378" t="n">
         <v>7.5</v>
       </c>
-      <c r="C378" t="n">
-        <v>7.1</v>
-      </c>
       <c r="D378" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="E378" t="n">
         <v>8.1</v>
       </c>
-      <c r="E378" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F378" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G378" t="n">
         <v>7.9</v>
       </c>
-      <c r="G378" t="n">
+      <c r="H378" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="H378" t="n">
-        <v>7.6</v>
-      </c>
       <c r="I378" t="n">
-        <v>7.63</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="379">
@@ -10017,25 +10027,25 @@
         <v>6.5</v>
       </c>
       <c r="C383" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="D383" t="n">
         <v>6.6</v>
       </c>
       <c r="E383" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="F383" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G383" t="n">
         <v>6.1</v>
       </c>
-      <c r="G383" t="n">
+      <c r="H383" t="n">
         <v>7.3</v>
       </c>
-      <c r="H383" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I383" t="n">
-        <v>6.69</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="384">
@@ -10043,13 +10053,13 @@
         <v>383</v>
       </c>
       <c r="B384" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C384" t="n">
         <v>7.3</v>
       </c>
-      <c r="C384" t="n">
+      <c r="D384" t="n">
         <v>7.5</v>
-      </c>
-      <c r="D384" t="n">
-        <v>7.6</v>
       </c>
       <c r="E384" t="n">
         <v>7.6</v>
@@ -10058,13 +10068,13 @@
         <v>7.6</v>
       </c>
       <c r="G384" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="H384" t="n">
         <v>7.8</v>
       </c>
       <c r="I384" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="385">
@@ -10101,28 +10111,28 @@
         <v>385</v>
       </c>
       <c r="B386" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="C386" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="D386" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="E386" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="F386" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G386" t="n">
         <v>7.3</v>
       </c>
-      <c r="G386" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H386" t="n">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="I386" t="n">
-        <v>6.96</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="387">
@@ -10270,28 +10280,28 @@
         <v>394</v>
       </c>
       <c r="B395" t="n">
+        <v>7</v>
+      </c>
+      <c r="C395" t="n">
         <v>7.7</v>
       </c>
-      <c r="C395" t="n">
+      <c r="D395" t="n">
         <v>6.1</v>
       </c>
-      <c r="D395" t="n">
+      <c r="E395" t="n">
         <v>7.5</v>
       </c>
-      <c r="E395" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F395" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G395" t="n">
         <v>7.5</v>
       </c>
-      <c r="G395" t="n">
+      <c r="H395" t="n">
         <v>6.1</v>
       </c>
-      <c r="H395" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I395" t="n">
-        <v>6.89</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="396">

--- a/players_ratings.xlsx
+++ b/players_ratings.xlsx
@@ -1871,28 +1871,28 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="C62" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="D62" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="E62" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="F62" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="G62" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="H62" t="n">
         <v>6.2</v>
       </c>
       <c r="I62" t="n">
-        <v>6.54</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="63">
@@ -1900,28 +1900,28 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C63" t="n">
         <v>7.8</v>
       </c>
-      <c r="C63" t="n">
+      <c r="D63" t="n">
         <v>7.7</v>
       </c>
-      <c r="D63" t="n">
-        <v>7.1</v>
-      </c>
       <c r="E63" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="F63" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G63" t="n">
         <v>7.9</v>
       </c>
-      <c r="G63" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H63" t="n">
-        <v>5.5</v>
+        <v>6.7</v>
       </c>
       <c r="I63" t="n">
-        <v>7.06</v>
+        <v>7.26</v>
       </c>
     </row>
     <row r="64">
@@ -1929,28 +1929,28 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C64" t="n">
         <v>5.8</v>
       </c>
-      <c r="C64" t="n">
+      <c r="D64" t="n">
         <v>5.9</v>
       </c>
-      <c r="D64" t="n">
-        <v>7.1</v>
-      </c>
       <c r="E64" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="F64" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="G64" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H64" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="I64" t="n">
-        <v>6.47</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="65">
@@ -2602,28 +2602,28 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C95" t="n">
         <v>5.9</v>
       </c>
-      <c r="C95" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D95" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="E95" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="F95" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="G95" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="H95" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="H95" t="n">
-        <v>6.4</v>
-      </c>
       <c r="I95" t="n">
-        <v>6.8</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="96">
@@ -2631,25 +2631,25 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="C96" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="D96" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="E96" t="n">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
       <c r="F96" t="n">
         <v>7.3</v>
       </c>
       <c r="G96" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="H96" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I96" t="n">
         <v>6.86</v>
@@ -2767,28 +2767,28 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="C102" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="D102" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="E102" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="F102" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="G102" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="H102" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="I102" t="n">
-        <v>6.67</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="103">
@@ -2880,28 +2880,28 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="C107" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D107" t="n">
         <v>7.2</v>
       </c>
-      <c r="D107" t="n">
-        <v>7</v>
-      </c>
       <c r="E107" t="n">
+        <v>7</v>
+      </c>
+      <c r="F107" t="n">
         <v>5.9</v>
       </c>
-      <c r="F107" t="n">
+      <c r="G107" t="n">
         <v>7.4</v>
       </c>
-      <c r="G107" t="n">
-        <v>7</v>
-      </c>
       <c r="H107" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="I107" t="n">
-        <v>6.81</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="108">
@@ -2922,26 +2922,28 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C109" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="D109" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="E109" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="F109" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="G109" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H109" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="H109" t="n">
+        <v>6.6</v>
+      </c>
       <c r="I109" t="n">
-        <v>6.62</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="110">
@@ -3049,28 +3051,28 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C114" t="n">
         <v>7.3</v>
       </c>
-      <c r="C114" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D114" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E114" t="n">
         <v>6.3</v>
       </c>
-      <c r="E114" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F114" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G114" t="n">
         <v>7.6</v>
       </c>
-      <c r="G114" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H114" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="I114" t="n">
-        <v>6.93</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="115">
@@ -3149,28 +3151,28 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="C118" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="D118" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="E118" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="F118" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="G118" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="H118" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="I118" t="n">
-        <v>6.69</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="119">
@@ -5108,28 +5110,28 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="C197" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D197" t="n">
         <v>7.7</v>
-      </c>
-      <c r="D197" t="n">
-        <v>6.3</v>
       </c>
       <c r="E197" t="n">
         <v>6.3</v>
       </c>
       <c r="F197" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="G197" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H197" t="n">
         <v>7.7</v>
       </c>
-      <c r="H197" t="n">
-        <v>7.9</v>
-      </c>
       <c r="I197" t="n">
-        <v>7.07</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="198">
@@ -5378,28 +5380,28 @@
         <v>206</v>
       </c>
       <c r="B207" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="C207" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D207" t="n">
         <v>6.2</v>
       </c>
-      <c r="D207" t="n">
-        <v>7</v>
-      </c>
       <c r="E207" t="n">
         <v>7</v>
       </c>
       <c r="F207" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="G207" t="n">
         <v>6.7</v>
       </c>
       <c r="H207" t="n">
-        <v>7.6</v>
+        <v>6.7</v>
       </c>
       <c r="I207" t="n">
-        <v>6.84</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="208">
@@ -5498,25 +5500,25 @@
         <v>6.6</v>
       </c>
       <c r="C212" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="D212" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="E212" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="F212" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G212" t="n">
         <v>6.3</v>
       </c>
-      <c r="G212" t="n">
-        <v>6.4</v>
-      </c>
       <c r="H212" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="I212" t="n">
-        <v>6.51</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="213">
@@ -5527,25 +5529,25 @@
         <v>6.4</v>
       </c>
       <c r="C213" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="D213" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="E213" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F213" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="F213" t="n">
+      <c r="G213" t="n">
         <v>7.3</v>
       </c>
-      <c r="G213" t="n">
-        <v>6.4</v>
-      </c>
       <c r="H213" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="I213" t="n">
-        <v>6.99</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="214">
@@ -5606,7 +5608,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="C217" t="n">
         <v>6.4</v>
@@ -5615,19 +5617,19 @@
         <v>6.4</v>
       </c>
       <c r="E217" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="F217" t="n">
         <v>6.6</v>
       </c>
       <c r="G217" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="H217" t="n">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
       <c r="I217" t="n">
-        <v>6.5</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="218">
@@ -5635,28 +5637,28 @@
         <v>217</v>
       </c>
       <c r="B218" t="n">
+        <v>7</v>
+      </c>
+      <c r="C218" t="n">
         <v>7.5</v>
       </c>
-      <c r="C218" t="n">
-        <v>7.1</v>
-      </c>
       <c r="D218" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="E218" t="n">
+        <v>7</v>
+      </c>
+      <c r="F218" t="n">
         <v>7.3</v>
       </c>
-      <c r="F218" t="n">
-        <v>7</v>
-      </c>
       <c r="G218" t="n">
+        <v>7</v>
+      </c>
+      <c r="H218" t="n">
         <v>7.3</v>
       </c>
-      <c r="H218" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I218" t="n">
-        <v>7.13</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="219">
@@ -5693,28 +5695,28 @@
         <v>219</v>
       </c>
       <c r="B220" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="C220" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="D220" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E220" t="n">
         <v>7.3</v>
       </c>
-      <c r="E220" t="n">
+      <c r="F220" t="n">
         <v>6</v>
       </c>
-      <c r="F220" t="n">
+      <c r="G220" t="n">
         <v>7.4</v>
       </c>
-      <c r="G220" t="n">
+      <c r="H220" t="n">
         <v>7.7</v>
       </c>
-      <c r="H220" t="n">
-        <v>7.3</v>
-      </c>
       <c r="I220" t="n">
-        <v>7.06</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="221">
@@ -5748,28 +5750,28 @@
         <v>222</v>
       </c>
       <c r="B223" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="C223" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="D223" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="E223" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="F223" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="G223" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H223" t="n">
         <v>7.6</v>
       </c>
-      <c r="H223" t="n">
-        <v>7.1</v>
-      </c>
       <c r="I223" t="n">
-        <v>7.04</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="224">
@@ -5790,28 +5792,28 @@
         <v>224</v>
       </c>
       <c r="B225" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="C225" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="D225" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E225" t="n">
         <v>7.2</v>
       </c>
-      <c r="E225" t="n">
+      <c r="F225" t="n">
         <v>7.3</v>
       </c>
-      <c r="F225" t="n">
-        <v>6.4</v>
-      </c>
       <c r="G225" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="H225" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="I225" t="n">
-        <v>6.81</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="226">
@@ -5861,28 +5863,28 @@
         <v>227</v>
       </c>
       <c r="B228" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C228" t="n">
         <v>6.2</v>
       </c>
-      <c r="C228" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D228" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="E228" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F228" t="n">
         <v>6.3</v>
       </c>
-      <c r="F228" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G228" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="H228" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="I228" t="n">
-        <v>6.51</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="229">
@@ -5890,28 +5892,28 @@
         <v>228</v>
       </c>
       <c r="B229" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C229" t="n">
         <v>8.4</v>
       </c>
-      <c r="C229" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D229" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="E229" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F229" t="n">
         <v>8</v>
       </c>
-      <c r="F229" t="n">
-        <v>7.1</v>
-      </c>
       <c r="G229" t="n">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="H229" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="I229" t="n">
-        <v>7.19</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="230">
@@ -5958,25 +5960,25 @@
         <v>232</v>
       </c>
       <c r="B233" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="C233" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="D233" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="E233" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="F233" t="n">
         <v>6.5</v>
       </c>
       <c r="G233" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="H233" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="I233" t="n">
         <v>6.6</v>
@@ -6023,28 +6025,28 @@
         <v>235</v>
       </c>
       <c r="B236" t="n">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="C236" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="D236" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="E236" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="F236" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G236" t="n">
         <v>7.2</v>
       </c>
-      <c r="G236" t="n">
-        <v>7</v>
-      </c>
       <c r="H236" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I236" t="n">
-        <v>6.73</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="237">
@@ -6052,28 +6054,28 @@
         <v>236</v>
       </c>
       <c r="B237" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="C237" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D237" t="n">
         <v>7.9</v>
       </c>
-      <c r="D237" t="n">
-        <v>7.1</v>
-      </c>
       <c r="E237" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="F237" t="n">
         <v>7.6</v>
       </c>
-      <c r="F237" t="n">
+      <c r="G237" t="n">
         <v>7.5</v>
       </c>
-      <c r="G237" t="n">
+      <c r="H237" t="n">
         <v>7.2</v>
       </c>
-      <c r="H237" t="n">
-        <v>7.3</v>
-      </c>
       <c r="I237" t="n">
-        <v>7.36</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="238">
@@ -7120,28 +7122,28 @@
         <v>278</v>
       </c>
       <c r="B279" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="C279" t="n">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="D279" t="n">
         <v>7.2</v>
       </c>
       <c r="E279" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="F279" t="n">
         <v>7.4</v>
       </c>
-      <c r="F279" t="n">
+      <c r="G279" t="n">
         <v>7.5</v>
       </c>
-      <c r="G279" t="n">
-        <v>7</v>
-      </c>
       <c r="H279" t="n">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="I279" t="n">
-        <v>7.21</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="280">
@@ -7149,28 +7151,28 @@
         <v>279</v>
       </c>
       <c r="B280" t="n">
-        <v>6.7</v>
+        <v>6.1</v>
       </c>
       <c r="C280" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="D280" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E280" t="n">
         <v>6</v>
       </c>
-      <c r="E280" t="n">
-        <v>6.4</v>
-      </c>
       <c r="F280" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="G280" t="n">
+        <v>7</v>
+      </c>
+      <c r="H280" t="n">
         <v>7.3</v>
       </c>
-      <c r="H280" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I280" t="n">
-        <v>6.63</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="281">
@@ -7555,28 +7557,28 @@
         <v>293</v>
       </c>
       <c r="B294" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="C294" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D294" t="n">
         <v>7.3</v>
       </c>
-      <c r="D294" t="n">
+      <c r="E294" t="n">
         <v>7.2</v>
       </c>
-      <c r="E294" t="n">
+      <c r="F294" t="n">
         <v>7.4</v>
       </c>
-      <c r="F294" t="n">
+      <c r="G294" t="n">
         <v>7.5</v>
       </c>
-      <c r="G294" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H294" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="I294" t="n">
-        <v>7.16</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="295">
@@ -7729,28 +7731,28 @@
         <v>299</v>
       </c>
       <c r="B300" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C300" t="n">
         <v>7.7</v>
       </c>
-      <c r="C300" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D300" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E300" t="n">
         <v>6.3</v>
       </c>
-      <c r="E300" t="n">
+      <c r="F300" t="n">
         <v>5.8</v>
       </c>
-      <c r="F300" t="n">
+      <c r="G300" t="n">
         <v>7.6</v>
       </c>
-      <c r="G300" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H300" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="I300" t="n">
-        <v>6.74</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="301">
@@ -7758,28 +7760,28 @@
         <v>300</v>
       </c>
       <c r="B301" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="C301" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="D301" t="n">
         <v>7.6</v>
       </c>
-      <c r="D301" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E301" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F301" t="n">
         <v>8.4</v>
       </c>
-      <c r="F301" t="n">
+      <c r="G301" t="n">
         <v>7.8</v>
-      </c>
-      <c r="G301" t="n">
-        <v>7.2</v>
       </c>
       <c r="H301" t="n">
         <v>7.2</v>
       </c>
       <c r="I301" t="n">
-        <v>7.43</v>
+        <v>7.39</v>
       </c>
     </row>
     <row r="302">
@@ -7787,28 +7789,28 @@
         <v>301</v>
       </c>
       <c r="B302" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C302" t="n">
         <v>7.4</v>
       </c>
-      <c r="C302" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D302" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E302" t="n">
         <v>9.6</v>
       </c>
-      <c r="E302" t="n">
+      <c r="F302" t="n">
         <v>7.9</v>
       </c>
-      <c r="F302" t="n">
-        <v>7.1</v>
-      </c>
       <c r="G302" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="H302" t="n">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="I302" t="n">
-        <v>7.56</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="303">
@@ -8367,28 +8369,28 @@
         <v>321</v>
       </c>
       <c r="B322" t="n">
-        <v>6.8</v>
+        <v>7.7</v>
       </c>
       <c r="C322" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="D322" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="E322" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F322" t="n">
         <v>7.8</v>
       </c>
-      <c r="F322" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G322" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="H322" t="n">
         <v>6.9</v>
       </c>
       <c r="I322" t="n">
-        <v>6.87</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="323">
@@ -8425,28 +8427,28 @@
         <v>323</v>
       </c>
       <c r="B324" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="C324" t="n">
         <v>7.9</v>
       </c>
-      <c r="C324" t="n">
+      <c r="D324" t="n">
         <v>7.8</v>
       </c>
-      <c r="D324" t="n">
+      <c r="E324" t="n">
         <v>8</v>
       </c>
-      <c r="E324" t="n">
+      <c r="F324" t="n">
         <v>7.2</v>
       </c>
-      <c r="F324" t="n">
-        <v>7</v>
-      </c>
       <c r="G324" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="H324" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="I324" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="325">
@@ -9023,28 +9025,28 @@
         <v>345</v>
       </c>
       <c r="B346" t="n">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="C346" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="D346" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E346" t="n">
         <v>6.3</v>
       </c>
-      <c r="E346" t="n">
+      <c r="F346" t="n">
         <v>7.6</v>
       </c>
-      <c r="F346" t="n">
+      <c r="G346" t="n">
         <v>7.3</v>
       </c>
-      <c r="G346" t="n">
+      <c r="H346" t="n">
         <v>7.5</v>
       </c>
-      <c r="H346" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I346" t="n">
-        <v>6.94</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="347">
@@ -9052,28 +9054,28 @@
         <v>346</v>
       </c>
       <c r="B347" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="C347" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="D347" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E347" t="n">
         <v>7.7</v>
       </c>
-      <c r="E347" t="n">
+      <c r="F347" t="n">
         <v>7.3</v>
       </c>
-      <c r="F347" t="n">
-        <v>7</v>
-      </c>
       <c r="G347" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="H347" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="I347" t="n">
-        <v>7.03</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="348">
@@ -9110,28 +9112,28 @@
         <v>348</v>
       </c>
       <c r="B349" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="C349" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="D349" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="E349" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="F349" t="n">
+        <v>7</v>
+      </c>
+      <c r="G349" t="n">
         <v>7.3</v>
       </c>
-      <c r="G349" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H349" t="n">
         <v>6.5</v>
       </c>
       <c r="I349" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="350">
@@ -9139,28 +9141,28 @@
         <v>349</v>
       </c>
       <c r="B350" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="C350" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="D350" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E350" t="n">
         <v>7.9</v>
       </c>
-      <c r="E350" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F350" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G350" t="n">
         <v>6.1</v>
       </c>
-      <c r="G350" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H350" t="n">
         <v>6.5</v>
       </c>
       <c r="I350" t="n">
-        <v>6.71</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="351">
@@ -9492,28 +9494,28 @@
         <v>362</v>
       </c>
       <c r="B363" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C363" t="n">
         <v>7.8</v>
       </c>
-      <c r="C363" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D363" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E363" t="n">
         <v>6</v>
       </c>
-      <c r="E363" t="n">
+      <c r="F363" t="n">
         <v>7.9</v>
       </c>
-      <c r="F363" t="n">
+      <c r="G363" t="n">
         <v>7.4</v>
       </c>
-      <c r="G363" t="n">
+      <c r="H363" t="n">
         <v>7.7</v>
       </c>
-      <c r="H363" t="n">
-        <v>7</v>
-      </c>
       <c r="I363" t="n">
-        <v>7.21</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="364">
@@ -9550,28 +9552,28 @@
         <v>364</v>
       </c>
       <c r="B365" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="C365" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D365" t="n">
         <v>7.4</v>
       </c>
-      <c r="D365" t="n">
+      <c r="E365" t="n">
         <v>7.3</v>
       </c>
-      <c r="E365" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F365" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G365" t="n">
         <v>7.2</v>
       </c>
-      <c r="G365" t="n">
+      <c r="H365" t="n">
         <v>6</v>
       </c>
-      <c r="H365" t="n">
-        <v>7.5</v>
-      </c>
       <c r="I365" t="n">
-        <v>7</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="366">
@@ -9608,28 +9610,28 @@
         <v>366</v>
       </c>
       <c r="B367" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="C367" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D367" t="n">
         <v>7.8</v>
       </c>
-      <c r="D367" t="n">
-        <v>7</v>
-      </c>
       <c r="E367" t="n">
+        <v>7</v>
+      </c>
+      <c r="F367" t="n">
         <v>7.9</v>
       </c>
-      <c r="F367" t="n">
-        <v>7.1</v>
-      </c>
       <c r="G367" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="H367" t="n">
-        <v>7.6</v>
+        <v>6.7</v>
       </c>
       <c r="I367" t="n">
-        <v>7.24</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="368">
@@ -9637,28 +9639,28 @@
         <v>367</v>
       </c>
       <c r="B368" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C368" t="n">
         <v>9.4</v>
       </c>
-      <c r="C368" t="n">
+      <c r="D368" t="n">
         <v>7.7</v>
       </c>
-      <c r="D368" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E368" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="F368" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="G368" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H368" t="n">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="I368" t="n">
-        <v>7.3</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="369">
@@ -9666,25 +9668,25 @@
         <v>368</v>
       </c>
       <c r="B369" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C369" t="n">
         <v>7.2</v>
       </c>
-      <c r="C369" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D369" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="E369" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="F369" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="G369" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="H369" t="n">
-        <v>5.9</v>
+        <v>6.7</v>
       </c>
       <c r="I369" t="n">
         <v>6.61</v>
@@ -9753,22 +9755,24 @@
         <v>371</v>
       </c>
       <c r="B372" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="C372" t="n">
         <v>6.9</v>
       </c>
       <c r="D372" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="E372" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="F372" t="inlineStr"/>
+        <v>7.1</v>
+      </c>
+      <c r="F372" t="n">
+        <v>6.6</v>
+      </c>
       <c r="G372" t="inlineStr"/>
       <c r="H372" t="inlineStr"/>
       <c r="I372" t="n">
-        <v>6.88</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="373">
@@ -9851,22 +9855,24 @@
         <v>375</v>
       </c>
       <c r="B376" t="n">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="C376" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="D376" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="E376" t="n">
         <v>7.6</v>
       </c>
-      <c r="E376" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="F376" t="inlineStr"/>
+      <c r="F376" t="n">
+        <v>7.1</v>
+      </c>
       <c r="G376" t="inlineStr"/>
       <c r="H376" t="inlineStr"/>
       <c r="I376" t="n">
-        <v>7.05</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="377">
@@ -9903,28 +9909,28 @@
         <v>377</v>
       </c>
       <c r="B378" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="C378" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D378" t="n">
         <v>7.5</v>
       </c>
-      <c r="D378" t="n">
-        <v>7.1</v>
-      </c>
       <c r="E378" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="F378" t="n">
         <v>8.1</v>
       </c>
-      <c r="F378" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G378" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H378" t="n">
         <v>7.9</v>
       </c>
-      <c r="H378" t="n">
-        <v>8.300000000000001</v>
-      </c>
       <c r="I378" t="n">
-        <v>7.51</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="379">
@@ -10024,25 +10030,25 @@
         <v>382</v>
       </c>
       <c r="B383" t="n">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="C383" t="n">
         <v>6.5</v>
       </c>
       <c r="D383" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="E383" t="n">
         <v>6.6</v>
       </c>
       <c r="F383" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="G383" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H383" t="n">
         <v>6.1</v>
-      </c>
-      <c r="H383" t="n">
-        <v>7.3</v>
       </c>
       <c r="I383" t="n">
         <v>6.63</v>
@@ -10111,28 +10117,28 @@
         <v>385</v>
       </c>
       <c r="B386" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="C386" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="D386" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="E386" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="F386" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="G386" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H386" t="n">
         <v>7.3</v>
       </c>
-      <c r="H386" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I386" t="n">
-        <v>6.84</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="387">
@@ -10166,28 +10172,28 @@
         <v>388</v>
       </c>
       <c r="B389" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="C389" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="D389" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="E389" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="F389" t="n">
         <v>6.1</v>
       </c>
-      <c r="F389" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G389" t="n">
         <v>6.9</v>
       </c>
       <c r="H389" t="n">
-        <v>7.7</v>
+        <v>6.9</v>
       </c>
       <c r="I389" t="n">
-        <v>6.86</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="390">
@@ -10283,25 +10289,25 @@
         <v>7</v>
       </c>
       <c r="C395" t="n">
+        <v>7</v>
+      </c>
+      <c r="D395" t="n">
         <v>7.7</v>
       </c>
-      <c r="D395" t="n">
+      <c r="E395" t="n">
         <v>6.1</v>
       </c>
-      <c r="E395" t="n">
+      <c r="F395" t="n">
         <v>7.5</v>
       </c>
-      <c r="F395" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G395" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H395" t="n">
         <v>7.5</v>
       </c>
-      <c r="H395" t="n">
-        <v>6.1</v>
-      </c>
       <c r="I395" t="n">
-        <v>6.91</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="396">

--- a/players_ratings.xlsx
+++ b/players_ratings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I398"/>
+  <dimension ref="A1:I401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9855,24 +9855,26 @@
         <v>375</v>
       </c>
       <c r="B376" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C376" t="n">
         <v>7.6</v>
       </c>
-      <c r="C376" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D376" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="E376" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="F376" t="n">
         <v>7.6</v>
       </c>
-      <c r="F376" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="G376" t="inlineStr"/>
+      <c r="G376" t="n">
+        <v>7.1</v>
+      </c>
       <c r="H376" t="inlineStr"/>
       <c r="I376" t="n">
-        <v>7.16</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="377">
@@ -10365,6 +10367,73 @@
       <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr"/>
     </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B399" t="n">
+        <v>7</v>
+      </c>
+      <c r="C399" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="D399" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E399" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F399" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G399" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H399" t="inlineStr"/>
+      <c r="I399" t="n">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B400" t="n">
+        <v>7</v>
+      </c>
+      <c r="C400" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D400" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="E400" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F400" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="G400" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H400" t="inlineStr"/>
+      <c r="I400" t="n">
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B401" t="inlineStr"/>
+      <c r="C401" t="inlineStr"/>
+      <c r="D401" t="inlineStr"/>
+      <c r="E401" t="inlineStr"/>
+      <c r="F401" t="inlineStr"/>
+      <c r="G401" t="inlineStr"/>
+      <c r="H401" t="inlineStr"/>
+      <c r="I401" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/players_ratings.xlsx
+++ b/players_ratings.xlsx
@@ -622,21 +622,23 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
         <v>6.1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>5.8</v>
       </c>
-      <c r="E9" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F9" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
+        <v>6.8</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6.4</v>
+      </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
         <v>6.42</v>
@@ -747,24 +749,26 @@
         <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="E14" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
+        <v>6.7</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6.4</v>
+      </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>6.74</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="15">
@@ -772,24 +776,26 @@
         <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="C15" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="D15" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="E15" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F15" t="n">
         <v>6.3</v>
       </c>
-      <c r="F15" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>6.6</v>
+      </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>6.62</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="16">
@@ -1063,24 +1069,26 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="C28" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="D28" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="E28" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F28" t="n">
         <v>7.1</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>7.5</v>
       </c>
-      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>6.96</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="29">
@@ -1091,25 +1099,25 @@
         <v>7.2</v>
       </c>
       <c r="C29" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="D29" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E29" t="n">
         <v>7.1</v>
       </c>
-      <c r="E29" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F29" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="G29" t="n">
         <v>6.8</v>
       </c>
       <c r="H29" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I29" t="n">
-        <v>6.86</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="30">
@@ -1190,22 +1198,24 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C33" t="n">
         <v>7.1</v>
       </c>
-      <c r="C33" t="n">
-        <v>7</v>
-      </c>
       <c r="D33" t="n">
+        <v>7</v>
+      </c>
+      <c r="E33" t="n">
         <v>6.3</v>
       </c>
-      <c r="E33" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>6.6</v>
+      </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>6.75</v>
+        <v>6.62</v>
       </c>
     </row>
     <row r="34">
@@ -1288,16 +1298,18 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
-        <v>7</v>
-      </c>
-      <c r="C37" t="inlineStr"/>
+        <v>8.199999999999999</v>
+      </c>
+      <c r="C37" t="n">
+        <v>7</v>
+      </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="38">
@@ -1344,22 +1356,24 @@
         <v>51</v>
       </c>
       <c r="B41" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="C41" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="D41" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E41" t="n">
         <v>7.3</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
-        <v>7.38</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="42">
@@ -1548,28 +1562,28 @@
         <v>62</v>
       </c>
       <c r="B51" t="n">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="C51" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="D51" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E51" t="n">
         <v>7.8</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>7.7</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>7.1</v>
       </c>
-      <c r="G51" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H51" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="I51" t="n">
-        <v>7.21</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="52">
@@ -1577,28 +1591,28 @@
         <v>63</v>
       </c>
       <c r="B52" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C52" t="n">
         <v>7.6</v>
       </c>
-      <c r="C52" t="n">
+      <c r="D52" t="n">
         <v>5.8</v>
       </c>
-      <c r="D52" t="n">
+      <c r="E52" t="n">
         <v>5.9</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>7.1</v>
       </c>
-      <c r="F52" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G52" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="H52" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I52" t="n">
-        <v>6.67</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="53">
@@ -1685,28 +1699,28 @@
         <v>69</v>
       </c>
       <c r="B56" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="C56" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D56" t="n">
         <v>7.7</v>
       </c>
-      <c r="D56" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E56" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F56" t="n">
         <v>7.4</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>7.1</v>
       </c>
-      <c r="G56" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H56" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="I56" t="n">
-        <v>6.9</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="57">
@@ -1747,15 +1761,17 @@
         <v>7.4</v>
       </c>
       <c r="C59" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D59" t="n">
         <v>7.6</v>
       </c>
-      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="n">
-        <v>7.5</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="60">
@@ -1763,25 +1779,25 @@
         <v>81</v>
       </c>
       <c r="B60" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="C60" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D60" t="n">
         <v>7.5</v>
       </c>
-      <c r="D60" t="n">
+      <c r="E60" t="n">
         <v>7.1</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>7.2</v>
       </c>
-      <c r="F60" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G60" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H60" t="n">
         <v>8.1</v>
-      </c>
-      <c r="H60" t="n">
-        <v>6.9</v>
       </c>
       <c r="I60" t="n">
         <v>7.16</v>
@@ -1950,28 +1966,28 @@
         <v>94</v>
       </c>
       <c r="B69" t="n">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="C69" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D69" t="n">
         <v>7.7</v>
       </c>
-      <c r="D69" t="n">
+      <c r="E69" t="n">
         <v>5.9</v>
       </c>
-      <c r="E69" t="n">
-        <v>6.4</v>
-      </c>
       <c r="F69" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="G69" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="H69" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="I69" t="n">
-        <v>6.74</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="70">
@@ -1979,28 +1995,28 @@
         <v>95</v>
       </c>
       <c r="B70" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="C70" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="D70" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="E70" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="F70" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="G70" t="n">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
       <c r="H70" t="n">
         <v>7.3</v>
       </c>
       <c r="I70" t="n">
-        <v>6.84</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="71">
@@ -2011,25 +2027,25 @@
         <v>6.5</v>
       </c>
       <c r="C71" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="D71" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="E71" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F71" t="n">
         <v>6.2</v>
       </c>
-      <c r="F71" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G71" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="H71" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="I71" t="n">
-        <v>6.59</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="72">
@@ -2102,28 +2118,28 @@
         <v>101</v>
       </c>
       <c r="B75" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="C75" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D75" t="n">
         <v>6.3</v>
       </c>
-      <c r="D75" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E75" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="F75" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="G75" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="H75" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="I75" t="n">
-        <v>6.59</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="76">
@@ -2144,28 +2160,28 @@
         <v>103</v>
       </c>
       <c r="B77" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C77" t="n">
         <v>6.1</v>
-      </c>
-      <c r="C77" t="n">
-        <v>7.2</v>
       </c>
       <c r="D77" t="n">
         <v>7.2</v>
       </c>
       <c r="E77" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="F77" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="G77" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H77" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="I77" t="n">
-        <v>6.77</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="78">
@@ -2311,28 +2327,28 @@
         <v>111</v>
       </c>
       <c r="B84" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C84" t="n">
         <v>7.1</v>
       </c>
-      <c r="C84" t="n">
+      <c r="D84" t="n">
         <v>6.1</v>
       </c>
-      <c r="D84" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E84" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F84" t="n">
         <v>7.6</v>
       </c>
-      <c r="F84" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G84" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="H84" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="I84" t="n">
-        <v>6.79</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="85">
@@ -2485,24 +2501,26 @@
         <v>119</v>
       </c>
       <c r="B92" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="C92" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D92" t="n">
         <v>7.2</v>
       </c>
-      <c r="D92" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E92" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="F92" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="G92" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="G92" t="n">
+        <v>6.7</v>
+      </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="n">
-        <v>6.78</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="93">
@@ -2557,28 +2575,28 @@
         <v>124</v>
       </c>
       <c r="B96" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C96" t="n">
         <v>7.5</v>
       </c>
-      <c r="C96" t="n">
+      <c r="D96" t="n">
         <v>6.3</v>
       </c>
-      <c r="D96" t="n">
+      <c r="E96" t="n">
         <v>6</v>
       </c>
-      <c r="E96" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F96" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G96" t="n">
         <v>7.3</v>
       </c>
-      <c r="G96" t="n">
-        <v>6.4</v>
-      </c>
       <c r="H96" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="I96" t="n">
-        <v>6.66</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="97">
@@ -2645,24 +2663,26 @@
         <v>129</v>
       </c>
       <c r="B100" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C100" t="n">
         <v>7.6</v>
       </c>
-      <c r="C100" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D100" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="E100" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F100" t="n">
         <v>7.6</v>
       </c>
-      <c r="F100" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="G100" t="inlineStr"/>
+      <c r="G100" t="n">
+        <v>6.9</v>
+      </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="n">
-        <v>7.06</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="101">
@@ -2706,28 +2726,28 @@
         <v>132</v>
       </c>
       <c r="B103" t="n">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="C103" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D103" t="n">
         <v>6.2</v>
       </c>
-      <c r="D103" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E103" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="F103" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G103" t="n">
         <v>7.8</v>
       </c>
-      <c r="G103" t="n">
+      <c r="H103" t="n">
         <v>7.6</v>
       </c>
-      <c r="H103" t="n">
-        <v>7</v>
-      </c>
       <c r="I103" t="n">
-        <v>6.93</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="104">
@@ -2921,28 +2941,28 @@
         <v>143</v>
       </c>
       <c r="B112" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="C112" t="n">
         <v>6.2</v>
       </c>
       <c r="D112" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="E112" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="F112" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="G112" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="H112" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="I112" t="n">
-        <v>6.59</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="113">
@@ -3000,22 +3020,22 @@
         <v>146</v>
       </c>
       <c r="B115" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C115" t="n">
         <v>7.1</v>
       </c>
-      <c r="C115" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D115" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="E115" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F115" t="n">
         <v>7.9</v>
       </c>
-      <c r="F115" t="n">
-        <v>7</v>
-      </c>
       <c r="G115" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="H115" t="n">
         <v>6.6</v>
@@ -3029,26 +3049,28 @@
         <v>147</v>
       </c>
       <c r="B116" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="C116" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="D116" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="E116" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F116" t="n">
         <v>7.4</v>
       </c>
-      <c r="F116" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G116" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H116" t="inlineStr"/>
+        <v>6.7</v>
+      </c>
+      <c r="H116" t="n">
+        <v>6.5</v>
+      </c>
       <c r="I116" t="n">
-        <v>6.78</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="117">
@@ -3167,7 +3189,9 @@
       <c r="B122" t="n">
         <v>6.6</v>
       </c>
-      <c r="C122" t="inlineStr"/>
+      <c r="C122" t="n">
+        <v>6.6</v>
+      </c>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
@@ -3182,26 +3206,28 @@
         <v>161</v>
       </c>
       <c r="B123" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="C123" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D123" t="n">
         <v>6.2</v>
       </c>
-      <c r="D123" t="n">
+      <c r="E123" t="n">
         <v>5.8</v>
       </c>
-      <c r="E123" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F123" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G123" t="n">
         <v>7.5</v>
       </c>
-      <c r="G123" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H123" t="inlineStr"/>
+      <c r="H123" t="n">
+        <v>6.6</v>
+      </c>
       <c r="I123" t="n">
-        <v>6.65</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="124">
@@ -3268,24 +3294,26 @@
         <v>166</v>
       </c>
       <c r="B127" t="n">
+        <v>6</v>
+      </c>
+      <c r="C127" t="n">
         <v>7.4</v>
       </c>
-      <c r="C127" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D127" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="E127" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="F127" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="G127" t="inlineStr"/>
+        <v>6.7</v>
+      </c>
+      <c r="G127" t="n">
+        <v>6.6</v>
+      </c>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="n">
-        <v>6.76</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="128">
@@ -3391,22 +3419,24 @@
         <v>171</v>
       </c>
       <c r="B132" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="C132" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="D132" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E132" t="n">
         <v>7.7</v>
       </c>
-      <c r="E132" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="F132" t="inlineStr"/>
+      <c r="F132" t="n">
+        <v>6.9</v>
+      </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="n">
-        <v>6.93</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="133">
@@ -3501,16 +3531,18 @@
         <v>175</v>
       </c>
       <c r="B136" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="C136" t="inlineStr"/>
+        <v>7.2</v>
+      </c>
+      <c r="C136" t="n">
+        <v>6.9</v>
+      </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="n">
-        <v>6.9</v>
+        <v>7.05</v>
       </c>
     </row>
     <row r="137">
@@ -3682,26 +3714,28 @@
         <v>184</v>
       </c>
       <c r="B145" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="C145" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="D145" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E145" t="n">
         <v>7.3</v>
       </c>
-      <c r="E145" t="n">
-        <v>7</v>
-      </c>
       <c r="F145" t="n">
+        <v>7</v>
+      </c>
+      <c r="G145" t="n">
         <v>7.3</v>
       </c>
-      <c r="G145" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H145" t="inlineStr"/>
+      <c r="H145" t="n">
+        <v>6.5</v>
+      </c>
       <c r="I145" t="n">
-        <v>6.87</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="146">
@@ -3730,21 +3764,23 @@
         <v>186</v>
       </c>
       <c r="B147" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C147" t="n">
         <v>8</v>
       </c>
-      <c r="C147" t="n">
+      <c r="D147" t="n">
         <v>5.1</v>
       </c>
-      <c r="D147" t="n">
+      <c r="E147" t="n">
         <v>7.4</v>
       </c>
-      <c r="E147" t="n">
+      <c r="F147" t="n">
         <v>10</v>
       </c>
-      <c r="F147" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="G147" t="inlineStr"/>
+      <c r="G147" t="n">
+        <v>6.4</v>
+      </c>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="n">
         <v>7.38</v>
@@ -3873,14 +3909,18 @@
       <c r="A153" s="1" t="n">
         <v>193</v>
       </c>
-      <c r="B153" t="inlineStr"/>
+      <c r="B153" t="n">
+        <v>6.6</v>
+      </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
-      <c r="I153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -4014,22 +4054,24 @@
         <v>199</v>
       </c>
       <c r="B159" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="C159" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D159" t="n">
         <v>7.5</v>
       </c>
-      <c r="D159" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E159" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="F159" t="inlineStr"/>
+        <v>6.6</v>
+      </c>
+      <c r="F159" t="n">
+        <v>6.8</v>
+      </c>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="n">
-        <v>6.85</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="160">
@@ -4054,20 +4096,22 @@
         <v>201</v>
       </c>
       <c r="B161" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C161" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D161" t="n">
         <v>6.3</v>
       </c>
-      <c r="D161" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="E161" t="inlineStr"/>
+      <c r="E161" t="n">
+        <v>6.6</v>
+      </c>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="n">
-        <v>6.47</v>
+        <v>6.22</v>
       </c>
     </row>
     <row r="162">
@@ -4075,24 +4119,26 @@
         <v>202</v>
       </c>
       <c r="B162" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="C162" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="D162" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="E162" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F162" t="n">
         <v>7.3</v>
       </c>
-      <c r="F162" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="G162" t="inlineStr"/>
+      <c r="G162" t="n">
+        <v>6.9</v>
+      </c>
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="n">
-        <v>6.78</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="163">
@@ -4273,28 +4319,28 @@
         <v>212</v>
       </c>
       <c r="B170" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C170" t="n">
         <v>7.2</v>
       </c>
-      <c r="C170" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D170" t="n">
         <v>6.4</v>
       </c>
       <c r="E170" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F170" t="n">
         <v>7.1</v>
       </c>
-      <c r="F170" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G170" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H170" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="H170" t="n">
-        <v>7.3</v>
-      </c>
       <c r="I170" t="n">
-        <v>7.14</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="171">
@@ -4319,28 +4365,28 @@
         <v>214</v>
       </c>
       <c r="B172" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="C172" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="D172" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="E172" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F172" t="n">
         <v>6.3</v>
       </c>
-      <c r="F172" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G172" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H172" t="n">
         <v>6.2</v>
       </c>
-      <c r="H172" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I172" t="n">
-        <v>6.57</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="173">
@@ -4390,28 +4436,28 @@
         <v>217</v>
       </c>
       <c r="B175" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="C175" t="n">
+        <v>7</v>
+      </c>
+      <c r="D175" t="n">
         <v>7.5</v>
       </c>
-      <c r="D175" t="n">
+      <c r="E175" t="n">
         <v>7.1</v>
       </c>
-      <c r="E175" t="n">
-        <v>7</v>
-      </c>
       <c r="F175" t="n">
+        <v>7</v>
+      </c>
+      <c r="G175" t="n">
         <v>7.3</v>
       </c>
-      <c r="G175" t="n">
-        <v>7</v>
-      </c>
       <c r="H175" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="I175" t="n">
-        <v>7.17</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="176">
@@ -4516,25 +4562,25 @@
         <v>6.4</v>
       </c>
       <c r="C180" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="D180" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="E180" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="F180" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G180" t="n">
         <v>7.1</v>
       </c>
-      <c r="G180" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H180" t="n">
-        <v>7.6</v>
+        <v>6.7</v>
       </c>
       <c r="I180" t="n">
-        <v>6.94</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="181">
@@ -4571,28 +4617,28 @@
         <v>224</v>
       </c>
       <c r="B182" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="C182" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="D182" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="E182" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="F182" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G182" t="n">
         <v>7.2</v>
       </c>
-      <c r="G182" t="n">
+      <c r="H182" t="n">
         <v>7.3</v>
       </c>
-      <c r="H182" t="n">
-        <v>6.4</v>
-      </c>
       <c r="I182" t="n">
-        <v>6.84</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="183">
@@ -4600,28 +4646,28 @@
         <v>225</v>
       </c>
       <c r="B183" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C183" t="n">
         <v>6.1</v>
       </c>
-      <c r="C183" t="n">
+      <c r="D183" t="n">
         <v>7.4</v>
       </c>
-      <c r="D183" t="n">
+      <c r="E183" t="n">
         <v>7.3</v>
       </c>
-      <c r="E183" t="n">
+      <c r="F183" t="n">
         <v>7.5</v>
       </c>
-      <c r="F183" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G183" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H183" t="n">
         <v>7.7</v>
       </c>
-      <c r="H183" t="n">
-        <v>7.1</v>
-      </c>
       <c r="I183" t="n">
-        <v>7.13</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="184">
@@ -4687,28 +4733,28 @@
         <v>228</v>
       </c>
       <c r="B186" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C186" t="n">
         <v>7.2</v>
       </c>
-      <c r="C186" t="n">
+      <c r="D186" t="n">
         <v>8.4</v>
       </c>
-      <c r="D186" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E186" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="F186" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G186" t="n">
         <v>8</v>
       </c>
-      <c r="G186" t="n">
+      <c r="H186" t="n">
         <v>7.1</v>
       </c>
-      <c r="H186" t="n">
-        <v>6.4</v>
-      </c>
       <c r="I186" t="n">
-        <v>7.23</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="187">
@@ -4817,28 +4863,28 @@
         <v>237</v>
       </c>
       <c r="B192" t="n">
-        <v>6.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C192" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D192" t="n">
         <v>7.2</v>
       </c>
-      <c r="D192" t="n">
+      <c r="E192" t="n">
         <v>7.3</v>
       </c>
-      <c r="E192" t="n">
+      <c r="F192" t="n">
         <v>7.7</v>
       </c>
-      <c r="F192" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G192" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="H192" t="n">
         <v>6.9</v>
       </c>
       <c r="I192" t="n">
-        <v>7.04</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="193">
@@ -5228,16 +5274,18 @@
         <v>263</v>
       </c>
       <c r="B213" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="C213" t="inlineStr"/>
+        <v>7.3</v>
+      </c>
+      <c r="C213" t="n">
+        <v>6.8</v>
+      </c>
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="inlineStr"/>
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="n">
-        <v>6.8</v>
+        <v>7.05</v>
       </c>
     </row>
     <row r="214">
@@ -5298,20 +5346,22 @@
         <v>273</v>
       </c>
       <c r="B217" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="C217" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="D217" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="E217" t="inlineStr"/>
+        <v>6.6</v>
+      </c>
+      <c r="E217" t="n">
+        <v>6.4</v>
+      </c>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="n">
-        <v>6.47</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="218">
@@ -5373,28 +5423,28 @@
         <v>276</v>
       </c>
       <c r="B220" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C220" t="n">
         <v>7.9</v>
       </c>
-      <c r="C220" t="n">
+      <c r="D220" t="n">
         <v>6.2</v>
-      </c>
-      <c r="D220" t="n">
-        <v>7.1</v>
       </c>
       <c r="E220" t="n">
         <v>7.1</v>
       </c>
       <c r="F220" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G220" t="n">
         <v>6.3</v>
       </c>
-      <c r="G220" t="n">
+      <c r="H220" t="n">
         <v>7.5</v>
       </c>
-      <c r="H220" t="n">
-        <v>7.4</v>
-      </c>
       <c r="I220" t="n">
-        <v>7.07</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="221">
@@ -5419,28 +5469,28 @@
         <v>278</v>
       </c>
       <c r="B222" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C222" t="n">
         <v>7.2</v>
       </c>
-      <c r="C222" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D222" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="E222" t="n">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="F222" t="n">
         <v>7.2</v>
       </c>
       <c r="G222" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H222" t="n">
         <v>7.4</v>
       </c>
-      <c r="H222" t="n">
-        <v>7.5</v>
-      </c>
       <c r="I222" t="n">
-        <v>7.13</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="223">
@@ -5531,20 +5581,22 @@
         <v>282</v>
       </c>
       <c r="B226" t="n">
-        <v>6.5</v>
+        <v>7.6</v>
       </c>
       <c r="C226" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="D226" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E226" t="n">
         <v>5.1</v>
       </c>
-      <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr"/>
       <c r="G226" t="inlineStr"/>
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="n">
-        <v>6.13</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="227">
@@ -5580,25 +5632,25 @@
         <v>7.4</v>
       </c>
       <c r="C228" t="n">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="D228" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="E228" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F228" t="n">
         <v>8</v>
       </c>
-      <c r="F228" t="n">
+      <c r="G228" t="n">
         <v>7.5</v>
       </c>
-      <c r="G228" t="n">
+      <c r="H228" t="n">
         <v>7.3</v>
       </c>
-      <c r="H228" t="n">
-        <v>7.2</v>
-      </c>
       <c r="I228" t="n">
-        <v>7.21</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="229">
@@ -5606,26 +5658,28 @@
         <v>286</v>
       </c>
       <c r="B229" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="C229" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D229" t="n">
         <v>6.2</v>
       </c>
-      <c r="D229" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E229" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F229" t="n">
         <v>7.8</v>
       </c>
-      <c r="F229" t="n">
+      <c r="G229" t="n">
         <v>8.4</v>
       </c>
-      <c r="G229" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H229" t="inlineStr"/>
+      <c r="H229" t="n">
+        <v>6.5</v>
+      </c>
       <c r="I229" t="n">
-        <v>7.08</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="230">
@@ -5758,18 +5812,20 @@
         <v>292</v>
       </c>
       <c r="B235" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="C235" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="D235" t="inlineStr"/>
+        <v>6.6</v>
+      </c>
+      <c r="D235" t="n">
+        <v>6.7</v>
+      </c>
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr"/>
       <c r="G235" t="inlineStr"/>
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="n">
-        <v>6.65</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="236">
@@ -5777,28 +5833,28 @@
         <v>293</v>
       </c>
       <c r="B236" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C236" t="n">
         <v>7.1</v>
       </c>
-      <c r="C236" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D236" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E236" t="n">
         <v>7.3</v>
       </c>
-      <c r="E236" t="n">
+      <c r="F236" t="n">
         <v>7.2</v>
       </c>
-      <c r="F236" t="n">
+      <c r="G236" t="n">
         <v>7.4</v>
       </c>
-      <c r="G236" t="n">
+      <c r="H236" t="n">
         <v>7.5</v>
       </c>
-      <c r="H236" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I236" t="n">
-        <v>7.14</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="237">
@@ -5806,18 +5862,20 @@
         <v>294</v>
       </c>
       <c r="B237" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="C237" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D237" t="n">
         <v>6.3</v>
       </c>
-      <c r="D237" t="inlineStr"/>
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr"/>
       <c r="G237" t="inlineStr"/>
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="n">
-        <v>6.55</v>
+        <v>6.33</v>
       </c>
     </row>
     <row r="238">
@@ -5869,22 +5927,24 @@
         <v>298</v>
       </c>
       <c r="B240" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="C240" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="D240" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="E240" t="n">
         <v>7.1</v>
       </c>
-      <c r="F240" t="inlineStr"/>
+      <c r="F240" t="n">
+        <v>7.1</v>
+      </c>
       <c r="G240" t="inlineStr"/>
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="n">
-        <v>6.8</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="241">
@@ -5892,28 +5952,28 @@
         <v>299</v>
       </c>
       <c r="B241" t="n">
-        <v>7</v>
+        <v>7.9</v>
       </c>
       <c r="C241" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="D241" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E241" t="n">
         <v>7.7</v>
       </c>
-      <c r="E241" t="n">
-        <v>6.4</v>
-      </c>
       <c r="F241" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G241" t="n">
         <v>6.3</v>
       </c>
-      <c r="G241" t="n">
+      <c r="H241" t="n">
         <v>5.8</v>
       </c>
-      <c r="H241" t="n">
-        <v>7.6</v>
-      </c>
       <c r="I241" t="n">
-        <v>6.8</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="242">
@@ -5921,28 +5981,28 @@
         <v>300</v>
       </c>
       <c r="B242" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C242" t="n">
         <v>7.2</v>
       </c>
-      <c r="C242" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D242" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E242" t="n">
         <v>7.1</v>
       </c>
-      <c r="E242" t="n">
+      <c r="F242" t="n">
         <v>7.6</v>
       </c>
-      <c r="F242" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G242" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H242" t="n">
         <v>8.4</v>
       </c>
-      <c r="H242" t="n">
-        <v>7.8</v>
-      </c>
       <c r="I242" t="n">
-        <v>7.39</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="243">
@@ -5979,26 +6039,28 @@
         <v>302</v>
       </c>
       <c r="B244" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C244" t="n">
         <v>7.9</v>
       </c>
-      <c r="C244" t="n">
+      <c r="D244" t="n">
         <v>7.5</v>
       </c>
-      <c r="D244" t="n">
+      <c r="E244" t="n">
         <v>4.8</v>
       </c>
-      <c r="E244" t="n">
+      <c r="F244" t="n">
         <v>7.3</v>
       </c>
-      <c r="F244" t="n">
+      <c r="G244" t="n">
         <v>7.2</v>
       </c>
-      <c r="G244" t="n">
+      <c r="H244" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="H244" t="inlineStr"/>
       <c r="I244" t="n">
-        <v>7.15</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="245">
@@ -6052,28 +6114,28 @@
         <v>306</v>
       </c>
       <c r="B247" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="C247" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D247" t="n">
         <v>7.9</v>
       </c>
-      <c r="D247" t="n">
+      <c r="E247" t="n">
         <v>8</v>
       </c>
-      <c r="E247" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F247" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G247" t="n">
         <v>6.3</v>
-      </c>
-      <c r="G247" t="n">
-        <v>7.6</v>
       </c>
       <c r="H247" t="n">
         <v>7.6</v>
       </c>
       <c r="I247" t="n">
-        <v>7.23</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="248">
@@ -6081,25 +6143,25 @@
         <v>307</v>
       </c>
       <c r="B248" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="C248" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="D248" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="E248" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="F248" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G248" t="n">
         <v>6.3</v>
       </c>
-      <c r="G248" t="n">
+      <c r="H248" t="n">
         <v>8.1</v>
-      </c>
-      <c r="H248" t="n">
-        <v>7.2</v>
       </c>
       <c r="I248" t="n">
         <v>6.9</v>
@@ -6156,26 +6218,28 @@
         <v>310</v>
       </c>
       <c r="B251" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="C251" t="n">
         <v>7.4</v>
       </c>
-      <c r="C251" t="n">
-        <v>6.8</v>
-      </c>
       <c r="D251" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E251" t="n">
         <v>5.4</v>
       </c>
-      <c r="E251" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F251" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G251" t="n">
         <v>7.7</v>
       </c>
-      <c r="G251" t="n">
+      <c r="H251" t="n">
         <v>7.8</v>
       </c>
-      <c r="H251" t="inlineStr"/>
       <c r="I251" t="n">
-        <v>6.95</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="252">
@@ -6264,20 +6328,22 @@
         <v>314</v>
       </c>
       <c r="B255" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C255" t="n">
         <v>7.4</v>
       </c>
-      <c r="C255" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D255" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="E255" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="E255" t="n">
+        <v>6.7</v>
+      </c>
       <c r="F255" t="inlineStr"/>
       <c r="G255" t="inlineStr"/>
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="n">
-        <v>6.87</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="256">
@@ -6304,26 +6370,28 @@
         <v>316</v>
       </c>
       <c r="B257" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="C257" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="D257" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E257" t="n">
         <v>6</v>
       </c>
-      <c r="E257" t="n">
+      <c r="F257" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="F257" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G257" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H257" t="inlineStr"/>
+        <v>6.9</v>
+      </c>
+      <c r="H257" t="n">
+        <v>6.6</v>
+      </c>
       <c r="I257" t="n">
-        <v>6.93</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="258">
@@ -6356,26 +6424,28 @@
         <v>318</v>
       </c>
       <c r="B259" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="C259" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="D259" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="E259" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="F259" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G259" t="n">
         <v>6.1</v>
       </c>
-      <c r="G259" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="H259" t="inlineStr"/>
+      <c r="H259" t="n">
+        <v>6.7</v>
+      </c>
       <c r="I259" t="n">
-        <v>6.48</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="260">
@@ -6429,28 +6499,28 @@
         <v>321</v>
       </c>
       <c r="B262" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C262" t="n">
         <v>7.6</v>
       </c>
-      <c r="C262" t="n">
+      <c r="D262" t="n">
         <v>7.7</v>
       </c>
-      <c r="D262" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E262" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="F262" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="G262" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H262" t="n">
         <v>7.8</v>
       </c>
-      <c r="H262" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I262" t="n">
-        <v>7.09</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="263">
@@ -6479,28 +6549,28 @@
         <v>323</v>
       </c>
       <c r="B264" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C264" t="n">
+        <v>7</v>
+      </c>
+      <c r="D264" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="C264" t="n">
+      <c r="E264" t="n">
         <v>7.9</v>
       </c>
-      <c r="D264" t="n">
+      <c r="F264" t="n">
         <v>7.8</v>
       </c>
-      <c r="E264" t="n">
+      <c r="G264" t="n">
         <v>8</v>
       </c>
-      <c r="F264" t="n">
+      <c r="H264" t="n">
         <v>7.2</v>
       </c>
-      <c r="G264" t="n">
-        <v>7</v>
-      </c>
-      <c r="H264" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I264" t="n">
-        <v>7.8</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="265">
@@ -6566,22 +6636,24 @@
         <v>326</v>
       </c>
       <c r="B267" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="C267" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D267" t="n">
         <v>7.8</v>
       </c>
-      <c r="D267" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E267" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F267" t="n">
         <v>7.3</v>
       </c>
-      <c r="F267" t="inlineStr"/>
       <c r="G267" t="inlineStr"/>
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="n">
-        <v>7.1</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="268">
@@ -6631,26 +6703,28 @@
         <v>330</v>
       </c>
       <c r="B270" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="C270" t="n">
         <v>6.5</v>
       </c>
       <c r="D270" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E270" t="n">
         <v>7.3</v>
       </c>
-      <c r="E270" t="n">
+      <c r="F270" t="n">
         <v>6.1</v>
       </c>
-      <c r="F270" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G270" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="H270" t="inlineStr"/>
+        <v>6.6</v>
+      </c>
+      <c r="H270" t="n">
+        <v>6.9</v>
+      </c>
       <c r="I270" t="n">
-        <v>6.65</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="271">
@@ -6658,28 +6732,28 @@
         <v>332</v>
       </c>
       <c r="B271" t="n">
+        <v>7</v>
+      </c>
+      <c r="C271" t="n">
         <v>6.3</v>
       </c>
-      <c r="C271" t="n">
+      <c r="D271" t="n">
         <v>7.7</v>
       </c>
-      <c r="D271" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E271" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F271" t="n">
         <v>7.1</v>
       </c>
-      <c r="F271" t="n">
-        <v>7</v>
-      </c>
       <c r="G271" t="n">
         <v>7</v>
       </c>
       <c r="H271" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="I271" t="n">
-        <v>6.94</v>
+        <v>7</v>
       </c>
     </row>
     <row r="272">
@@ -6840,16 +6914,18 @@
         <v>341</v>
       </c>
       <c r="B279" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="C279" t="inlineStr"/>
+        <v>6.9</v>
+      </c>
+      <c r="C279" t="n">
+        <v>6.5</v>
+      </c>
       <c r="D279" t="inlineStr"/>
       <c r="E279" t="inlineStr"/>
       <c r="F279" t="inlineStr"/>
       <c r="G279" t="inlineStr"/>
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="280">
@@ -6891,7 +6967,9 @@
       <c r="C281" t="n">
         <v>6.5</v>
       </c>
-      <c r="D281" t="inlineStr"/>
+      <c r="D281" t="n">
+        <v>6.5</v>
+      </c>
       <c r="E281" t="inlineStr"/>
       <c r="F281" t="inlineStr"/>
       <c r="G281" t="inlineStr"/>
@@ -6905,28 +6983,28 @@
         <v>344</v>
       </c>
       <c r="B282" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C282" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D282" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="C282" t="n">
+      <c r="E282" t="n">
         <v>7.3</v>
       </c>
-      <c r="D282" t="n">
+      <c r="F282" t="n">
         <v>7.6</v>
       </c>
-      <c r="E282" t="n">
+      <c r="G282" t="n">
         <v>7.8</v>
       </c>
-      <c r="F282" t="n">
+      <c r="H282" t="n">
         <v>6.1</v>
       </c>
-      <c r="G282" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="H282" t="n">
-        <v>8.4</v>
-      </c>
       <c r="I282" t="n">
-        <v>7.66</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="283">
@@ -6934,28 +7012,28 @@
         <v>345</v>
       </c>
       <c r="B283" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C283" t="n">
         <v>7.4</v>
       </c>
-      <c r="C283" t="n">
+      <c r="D283" t="n">
         <v>7.3</v>
       </c>
-      <c r="D283" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E283" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="F283" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G283" t="n">
         <v>6.3</v>
       </c>
-      <c r="G283" t="n">
+      <c r="H283" t="n">
         <v>7.6</v>
       </c>
-      <c r="H283" t="n">
-        <v>7.3</v>
-      </c>
       <c r="I283" t="n">
-        <v>7</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="284">
@@ -6963,28 +7041,28 @@
         <v>346</v>
       </c>
       <c r="B284" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="C284" t="n">
         <v>7.5</v>
       </c>
       <c r="D284" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E284" t="n">
         <v>7.1</v>
       </c>
-      <c r="E284" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F284" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G284" t="n">
         <v>7.7</v>
       </c>
-      <c r="G284" t="n">
+      <c r="H284" t="n">
         <v>7.3</v>
       </c>
-      <c r="H284" t="n">
-        <v>7</v>
-      </c>
       <c r="I284" t="n">
-        <v>7.29</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="285">
@@ -6992,28 +7070,28 @@
         <v>347</v>
       </c>
       <c r="B285" t="n">
-        <v>6.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C285" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D285" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="D285" t="n">
-        <v>7</v>
-      </c>
       <c r="E285" t="n">
+        <v>7</v>
+      </c>
+      <c r="F285" t="n">
         <v>7.8</v>
       </c>
-      <c r="F285" t="n">
+      <c r="G285" t="n">
         <v>6.3</v>
       </c>
-      <c r="G285" t="n">
+      <c r="H285" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="H285" t="n">
-        <v>8</v>
-      </c>
       <c r="I285" t="n">
-        <v>7.63</v>
+        <v>7.67</v>
       </c>
     </row>
     <row r="286">
@@ -7021,28 +7099,28 @@
         <v>348</v>
       </c>
       <c r="B286" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C286" t="n">
         <v>7.9</v>
       </c>
-      <c r="C286" t="n">
+      <c r="D286" t="n">
         <v>7.2</v>
       </c>
-      <c r="D286" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E286" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="F286" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="G286" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="H286" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="I286" t="n">
-        <v>7.1</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="287">
@@ -7129,24 +7207,26 @@
         <v>352</v>
       </c>
       <c r="B290" t="n">
-        <v>6.5</v>
+        <v>7.9</v>
       </c>
       <c r="C290" t="n">
         <v>6.5</v>
       </c>
       <c r="D290" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E290" t="n">
         <v>6.1</v>
       </c>
-      <c r="E290" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F290" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="G290" t="inlineStr"/>
+        <v>6.8</v>
+      </c>
+      <c r="G290" t="n">
+        <v>6.7</v>
+      </c>
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="n">
-        <v>6.52</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="291">
@@ -7265,24 +7345,26 @@
         <v>358</v>
       </c>
       <c r="B296" t="n">
-        <v>6.9</v>
+        <v>6.1</v>
       </c>
       <c r="C296" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="D296" t="n">
+        <v>7</v>
+      </c>
+      <c r="E296" t="n">
         <v>7.9</v>
       </c>
-      <c r="E296" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F296" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G296" t="n">
         <v>6.3</v>
       </c>
-      <c r="G296" t="inlineStr"/>
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="n">
-        <v>6.96</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="297">
@@ -7311,26 +7393,28 @@
         <v>360</v>
       </c>
       <c r="B298" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C298" t="n">
         <v>7.6</v>
       </c>
-      <c r="C298" t="n">
+      <c r="D298" t="n">
         <v>5.9</v>
       </c>
-      <c r="D298" t="n">
+      <c r="E298" t="n">
         <v>7.2</v>
       </c>
-      <c r="E298" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F298" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="G298" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H298" t="n">
         <v>6.3</v>
       </c>
-      <c r="H298" t="inlineStr"/>
       <c r="I298" t="n">
-        <v>6.72</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="299">
@@ -7367,28 +7451,28 @@
         <v>362</v>
       </c>
       <c r="B300" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C300" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="C300" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D300" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E300" t="n">
         <v>7.8</v>
       </c>
-      <c r="E300" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F300" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G300" t="n">
         <v>6</v>
       </c>
-      <c r="G300" t="n">
+      <c r="H300" t="n">
         <v>7.9</v>
       </c>
-      <c r="H300" t="n">
-        <v>7.4</v>
-      </c>
       <c r="I300" t="n">
-        <v>7.3</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="301">
@@ -7504,28 +7588,28 @@
         <v>368</v>
       </c>
       <c r="B305" t="n">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="C305" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D305" t="n">
         <v>5.9</v>
       </c>
-      <c r="D305" t="n">
+      <c r="E305" t="n">
         <v>7.2</v>
       </c>
-      <c r="E305" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F305" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="G305" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="H305" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="I305" t="n">
-        <v>6.61</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="306">
@@ -7585,26 +7669,28 @@
         <v>371</v>
       </c>
       <c r="B308" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C308" t="n">
         <v>5.4</v>
       </c>
-      <c r="C308" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D308" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="E308" t="n">
         <v>6.9</v>
       </c>
       <c r="F308" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G308" t="n">
         <v>7.1</v>
       </c>
-      <c r="G308" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H308" t="inlineStr"/>
+      <c r="H308" t="n">
+        <v>6.6</v>
+      </c>
       <c r="I308" t="n">
-        <v>6.57</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="309">
@@ -7663,25 +7749,25 @@
         <v>6.8</v>
       </c>
       <c r="C311" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="D311" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E311" t="n">
         <v>6.3</v>
       </c>
-      <c r="E311" t="n">
+      <c r="F311" t="n">
         <v>7.5</v>
       </c>
-      <c r="F311" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G311" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="H311" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="I311" t="n">
-        <v>6.91</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="312">
@@ -7718,18 +7804,20 @@
         <v>376</v>
       </c>
       <c r="B313" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="C313" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="D313" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E313" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="E313" t="n">
+      <c r="F313" t="n">
         <v>6</v>
       </c>
-      <c r="F313" t="inlineStr"/>
       <c r="G313" t="inlineStr"/>
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="n">
@@ -7741,28 +7829,28 @@
         <v>377</v>
       </c>
       <c r="B314" t="n">
-        <v>6.4</v>
+        <v>7.9</v>
       </c>
       <c r="C314" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D314" t="n">
         <v>7.6</v>
       </c>
-      <c r="D314" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E314" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F314" t="n">
         <v>7.5</v>
       </c>
-      <c r="F314" t="n">
+      <c r="G314" t="n">
         <v>7.1</v>
       </c>
-      <c r="G314" t="n">
+      <c r="H314" t="n">
         <v>8.1</v>
       </c>
-      <c r="H314" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I314" t="n">
-        <v>7.2</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="315">
@@ -7770,25 +7858,25 @@
         <v>378</v>
       </c>
       <c r="B315" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C315" t="n">
         <v>7.4</v>
       </c>
-      <c r="C315" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D315" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="E315" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="F315" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G315" t="n">
         <v>7.2</v>
       </c>
-      <c r="G315" t="n">
+      <c r="H315" t="n">
         <v>8.1</v>
-      </c>
-      <c r="H315" t="n">
-        <v>6.8</v>
       </c>
       <c r="I315" t="n">
         <v>7.04</v>
@@ -7864,28 +7952,28 @@
         <v>382</v>
       </c>
       <c r="B319" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C319" t="n">
         <v>7.2</v>
       </c>
-      <c r="C319" t="n">
+      <c r="D319" t="n">
         <v>7.3</v>
       </c>
-      <c r="D319" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E319" t="n">
         <v>6.5</v>
       </c>
       <c r="F319" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="G319" t="n">
         <v>6.6</v>
       </c>
       <c r="H319" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="I319" t="n">
-        <v>6.79</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="320">
@@ -7951,28 +8039,28 @@
         <v>385</v>
       </c>
       <c r="B322" t="n">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="C322" t="n">
         <v>7.3</v>
       </c>
       <c r="D322" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="E322" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="F322" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="G322" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H322" t="n">
         <v>7.1</v>
       </c>
-      <c r="H322" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I322" t="n">
-        <v>6.93</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="323">
@@ -7980,16 +8068,18 @@
         <v>386</v>
       </c>
       <c r="B323" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="C323" t="inlineStr"/>
+        <v>6.8</v>
+      </c>
+      <c r="C323" t="n">
+        <v>6.4</v>
+      </c>
       <c r="D323" t="inlineStr"/>
       <c r="E323" t="inlineStr"/>
       <c r="F323" t="inlineStr"/>
       <c r="G323" t="inlineStr"/>
       <c r="H323" t="inlineStr"/>
       <c r="I323" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="324">
@@ -8058,25 +8148,25 @@
         <v>6.4</v>
       </c>
       <c r="C326" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D326" t="n">
         <v>7.1</v>
       </c>
-      <c r="D326" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E326" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F326" t="n">
         <v>7.2</v>
       </c>
-      <c r="F326" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G326" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="H326" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="I326" t="n">
-        <v>6.8</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="327">
@@ -8129,28 +8219,28 @@
         <v>393</v>
       </c>
       <c r="B330" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C330" t="n">
         <v>7.1</v>
       </c>
-      <c r="C330" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D330" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E330" t="n">
         <v>7.1</v>
       </c>
-      <c r="E330" t="n">
+      <c r="F330" t="n">
         <v>8.6</v>
       </c>
-      <c r="F330" t="n">
+      <c r="G330" t="n">
         <v>7.5</v>
       </c>
-      <c r="G330" t="n">
+      <c r="H330" t="n">
         <v>7.7</v>
       </c>
-      <c r="H330" t="n">
-        <v>7.5</v>
-      </c>
       <c r="I330" t="n">
-        <v>7.43</v>
+        <v>7.29</v>
       </c>
     </row>
     <row r="331">
@@ -8258,26 +8348,28 @@
         <v>398</v>
       </c>
       <c r="B335" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="C335" t="n">
+        <v>7</v>
+      </c>
+      <c r="D335" t="n">
         <v>7.1</v>
       </c>
-      <c r="D335" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E335" t="n">
         <v>6.6</v>
       </c>
       <c r="F335" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="G335" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H335" t="inlineStr"/>
+        <v>6.8</v>
+      </c>
+      <c r="H335" t="n">
+        <v>6.4</v>
+      </c>
       <c r="I335" t="n">
-        <v>6.75</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="336">
@@ -8350,28 +8442,28 @@
         <v>402</v>
       </c>
       <c r="B339" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="C339" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D339" t="n">
         <v>7.2</v>
-      </c>
-      <c r="D339" t="n">
-        <v>7.3</v>
       </c>
       <c r="E339" t="n">
         <v>7.3</v>
       </c>
       <c r="F339" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="G339" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="H339" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="I339" t="n">
-        <v>6.96</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="340">
@@ -8396,28 +8488,28 @@
         <v>404</v>
       </c>
       <c r="B341" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="C341" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D341" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="E341" t="n">
+        <v>7</v>
+      </c>
+      <c r="F341" t="n">
         <v>6.3</v>
       </c>
-      <c r="F341" t="n">
+      <c r="G341" t="n">
         <v>7.4</v>
       </c>
-      <c r="G341" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H341" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="I341" t="n">
-        <v>6.79</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="342">
@@ -8425,16 +8517,18 @@
         <v>405</v>
       </c>
       <c r="B342" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C342" t="n">
         <v>7.5</v>
       </c>
-      <c r="C342" t="inlineStr"/>
       <c r="D342" t="inlineStr"/>
       <c r="E342" t="inlineStr"/>
       <c r="F342" t="inlineStr"/>
       <c r="G342" t="inlineStr"/>
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="n">
-        <v>7.5</v>
+        <v>7.05</v>
       </c>
     </row>
     <row r="343">
@@ -8442,25 +8536,25 @@
         <v>406</v>
       </c>
       <c r="B343" t="n">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="C343" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D343" t="n">
         <v>7.5</v>
       </c>
-      <c r="D343" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E343" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="F343" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G343" t="n">
         <v>7.2</v>
       </c>
-      <c r="G343" t="n">
+      <c r="H343" t="n">
         <v>8.699999999999999</v>
-      </c>
-      <c r="H343" t="n">
-        <v>7.3</v>
       </c>
       <c r="I343" t="n">
         <v>7.23</v>
@@ -8471,28 +8565,28 @@
         <v>407</v>
       </c>
       <c r="B344" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C344" t="n">
+        <v>7</v>
+      </c>
+      <c r="D344" t="n">
         <v>7.4</v>
       </c>
-      <c r="C344" t="n">
+      <c r="E344" t="n">
         <v>7.7</v>
       </c>
-      <c r="D344" t="n">
+      <c r="F344" t="n">
         <v>5.7</v>
       </c>
-      <c r="E344" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F344" t="n">
+      <c r="G344" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H344" t="n">
         <v>7.6</v>
       </c>
-      <c r="G344" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H344" t="n">
-        <v>8.1</v>
-      </c>
       <c r="I344" t="n">
-        <v>7.07</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="345">
@@ -8500,28 +8594,28 @@
         <v>408</v>
       </c>
       <c r="B345" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C345" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="C345" t="n">
+      <c r="D345" t="n">
         <v>7.7</v>
       </c>
-      <c r="D345" t="n">
+      <c r="E345" t="n">
         <v>7.1</v>
       </c>
-      <c r="E345" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F345" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="G345" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="H345" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I345" t="n">
-        <v>7.39</v>
+        <v>7.29</v>
       </c>
     </row>
     <row r="346">

--- a/players_ratings.xlsx
+++ b/players_ratings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I348"/>
+  <dimension ref="A1:I361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1096,7 +1096,7 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="C29" t="n">
         <v>7.2</v>
@@ -1117,7 +1117,7 @@
         <v>6.8</v>
       </c>
       <c r="I29" t="n">
-        <v>6.94</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="30">
@@ -1562,28 +1562,28 @@
         <v>62</v>
       </c>
       <c r="B51" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="C51" t="n">
         <v>7.6</v>
       </c>
-      <c r="C51" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D51" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="E51" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F51" t="n">
         <v>7.8</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>7.7</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>7.1</v>
       </c>
-      <c r="H51" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I51" t="n">
-        <v>7.17</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="52">
@@ -1741,16 +1741,18 @@
         <v>75</v>
       </c>
       <c r="B58" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="C58" t="inlineStr"/>
+        <v>6.8</v>
+      </c>
+      <c r="C58" t="n">
+        <v>6.6</v>
+      </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="59">
@@ -1899,20 +1901,22 @@
         <v>91</v>
       </c>
       <c r="B66" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="C66" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="D66" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E66" t="n">
         <v>6.3</v>
       </c>
-      <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="n">
-        <v>6.67</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="67">
@@ -2970,22 +2974,24 @@
         <v>144</v>
       </c>
       <c r="B113" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C113" t="n">
         <v>7.3</v>
       </c>
-      <c r="C113" t="n">
+      <c r="D113" t="n">
         <v>7.6</v>
       </c>
-      <c r="D113" t="n">
+      <c r="E113" t="n">
         <v>7.2</v>
       </c>
-      <c r="E113" t="n">
-        <v>7</v>
-      </c>
-      <c r="F113" t="inlineStr"/>
+      <c r="F113" t="n">
+        <v>7</v>
+      </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="n">
-        <v>7.28</v>
+        <v>7.18</v>
       </c>
     </row>
     <row r="114">
@@ -3252,20 +3258,24 @@
         <v>164</v>
       </c>
       <c r="B125" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="C125" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="D125" t="n">
         <v>7.1</v>
       </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
+      <c r="E125" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F125" t="n">
+        <v>7.1</v>
+      </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="n">
-        <v>7.23</v>
+        <v>7.18</v>
       </c>
     </row>
     <row r="126">
@@ -3640,18 +3650,20 @@
         <v>180</v>
       </c>
       <c r="B141" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="C141" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="D141" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="D141" t="n">
+        <v>6.9</v>
+      </c>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="n">
-        <v>6.95</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="142">
@@ -3676,13 +3688,17 @@
         <v>182</v>
       </c>
       <c r="B143" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C143" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D143" t="n">
         <v>7.7</v>
       </c>
-      <c r="C143" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr"/>
+      <c r="E143" t="n">
+        <v>6.9</v>
+      </c>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
@@ -3743,20 +3759,22 @@
         <v>185</v>
       </c>
       <c r="B146" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="C146" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D146" t="n">
         <v>8.1</v>
       </c>
-      <c r="D146" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="E146" t="inlineStr"/>
+      <c r="E146" t="n">
+        <v>6.5</v>
+      </c>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="n">
-        <v>7.1</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="147">
@@ -4175,7 +4193,7 @@
         <v>206</v>
       </c>
       <c r="B164" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="C164" t="n">
         <v>6.5</v>
@@ -4196,7 +4214,7 @@
         <v>7</v>
       </c>
       <c r="I164" t="n">
-        <v>6.77</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="165">
@@ -4588,28 +4606,28 @@
         <v>223</v>
       </c>
       <c r="B181" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="C181" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="D181" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="E181" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="F181" t="n">
         <v>6.3</v>
       </c>
       <c r="G181" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="H181" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="I181" t="n">
-        <v>6.6</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="182">
@@ -5177,18 +5195,20 @@
         <v>256</v>
       </c>
       <c r="B208" t="n">
-        <v>6.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C208" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="D208" t="inlineStr"/>
+        <v>6.4</v>
+      </c>
+      <c r="D208" t="n">
+        <v>6.9</v>
+      </c>
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr"/>
       <c r="G208" t="inlineStr"/>
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="n">
-        <v>6.65</v>
+        <v>7.67</v>
       </c>
     </row>
     <row r="209">
@@ -5303,1567 +5323,1573 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B215" t="inlineStr"/>
-      <c r="C215" t="inlineStr"/>
-      <c r="D215" t="inlineStr"/>
-      <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr"/>
+        <v>267</v>
+      </c>
+      <c r="B215" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C215" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D215" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E215" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="F215" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G215" t="n">
+        <v>6.9</v>
+      </c>
       <c r="H215" t="inlineStr"/>
-      <c r="I215" t="inlineStr"/>
+      <c r="I215" t="n">
+        <v>6.95</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B216" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="C216" t="n">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="D216" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="E216" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="F216" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="G216" t="n">
-        <v>6.9</v>
-      </c>
+        <v>6.4</v>
+      </c>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="n">
-        <v>6.95</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B217" t="n">
-        <v>6.6</v>
+        <v>5.7</v>
       </c>
       <c r="C217" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="D217" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="E217" t="n">
         <v>6.4</v>
       </c>
-      <c r="F217" t="inlineStr"/>
+      <c r="F217" t="n">
+        <v>6.7</v>
+      </c>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="n">
-        <v>6.5</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B218" t="n">
-        <v>5.7</v>
+        <v>6.7</v>
       </c>
       <c r="C218" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="D218" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="E218" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="F218" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="G218" t="inlineStr"/>
-      <c r="H218" t="inlineStr"/>
+        <v>6.9</v>
+      </c>
+      <c r="G218" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H218" t="n">
+        <v>6.5</v>
+      </c>
       <c r="I218" t="n">
-        <v>6.44</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B219" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="C219" t="n">
-        <v>6.6</v>
+        <v>7.9</v>
       </c>
       <c r="D219" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="E219" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="F219" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="G219" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="H219" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="I219" t="n">
-        <v>6.69</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B220" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="C220" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="D220" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="E220" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="F220" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="G220" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="H220" t="n">
-        <v>7.5</v>
-      </c>
+        <v>6.4</v>
+      </c>
+      <c r="C220" t="inlineStr"/>
+      <c r="D220" t="inlineStr"/>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="inlineStr"/>
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="n">
-        <v>6.96</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B221" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="C221" t="inlineStr"/>
-      <c r="D221" t="inlineStr"/>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr"/>
-      <c r="H221" t="inlineStr"/>
+        <v>7.3</v>
+      </c>
+      <c r="C221" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D221" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E221" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F221" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G221" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H221" t="n">
+        <v>7.4</v>
+      </c>
       <c r="I221" t="n">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B222" t="n">
-        <v>7.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C222" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="D222" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="E222" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="F222" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="G222" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="H222" t="n">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="I222" t="n">
-        <v>7.1</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B223" t="n">
-        <v>6.9</v>
+        <v>4.9</v>
       </c>
       <c r="C223" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="D223" t="n">
-        <v>6.1</v>
+        <v>6.9</v>
       </c>
       <c r="E223" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="F223" t="n">
-        <v>6.4</v>
+        <v>7.3</v>
       </c>
       <c r="G223" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="H223" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="I223" t="n">
-        <v>6.51</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B224" t="n">
-        <v>4.9</v>
+        <v>6.4</v>
       </c>
       <c r="C224" t="n">
-        <v>6.7</v>
+        <v>6.1</v>
       </c>
       <c r="D224" t="n">
-        <v>6.9</v>
+        <v>7.7</v>
       </c>
       <c r="E224" t="n">
-        <v>7.2</v>
+        <v>6.1</v>
       </c>
       <c r="F224" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="G224" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H224" t="n">
-        <v>6.5</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G224" t="inlineStr"/>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="n">
-        <v>6.57</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B225" t="n">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="C225" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="D225" t="n">
-        <v>7.7</v>
+        <v>6.8</v>
       </c>
       <c r="E225" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="F225" t="n">
-        <v>8</v>
-      </c>
+        <v>5.1</v>
+      </c>
+      <c r="F225" t="inlineStr"/>
       <c r="G225" t="inlineStr"/>
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="n">
-        <v>6.86</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B226" t="n">
-        <v>7.6</v>
+        <v>6.3</v>
       </c>
       <c r="C226" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D226" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="E226" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="F226" t="inlineStr"/>
+        <v>6.7</v>
+      </c>
+      <c r="F226" t="n">
+        <v>6.5</v>
+      </c>
       <c r="G226" t="inlineStr"/>
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="n">
-        <v>6.5</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B227" t="n">
-        <v>6.3</v>
+        <v>7.4</v>
       </c>
       <c r="C227" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="D227" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="E227" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="F227" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="G227" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H227" t="n">
+        <v>7.3</v>
+      </c>
       <c r="I227" t="n">
-        <v>6.64</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B228" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="C228" t="n">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="D228" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="E228" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="F228" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="G228" t="n">
-        <v>7.5</v>
+        <v>8.4</v>
       </c>
       <c r="H228" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="I228" t="n">
-        <v>7.24</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B229" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="C229" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D229" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E229" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F229" t="n">
+        <v>7</v>
+      </c>
+      <c r="G229" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H229" t="n">
         <v>7.2</v>
       </c>
-      <c r="C229" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="D229" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="E229" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="F229" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="G229" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="H229" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I229" t="n">
-        <v>7.1</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B230" t="n">
-        <v>8.1</v>
+        <v>6.7</v>
       </c>
       <c r="C230" t="n">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="D230" t="n">
-        <v>7.4</v>
+        <v>6.1</v>
       </c>
       <c r="E230" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="F230" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="G230" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="H230" t="n">
-        <v>7.2</v>
-      </c>
+        <v>6.5</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="n">
-        <v>7.43</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B231" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="C231" t="n">
-        <v>6.7</v>
+        <v>7.6</v>
       </c>
       <c r="D231" t="n">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="E231" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="F231" t="n">
-        <v>6.3</v>
+        <v>7.6</v>
       </c>
       <c r="G231" t="n">
         <v>6.5</v>
       </c>
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="n">
-        <v>6.52</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B232" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="C232" t="n">
-        <v>7.6</v>
+        <v>6.2</v>
       </c>
       <c r="D232" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="E232" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="F232" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="G232" t="n">
-        <v>6.5</v>
-      </c>
+        <v>6.9</v>
+      </c>
+      <c r="E232" t="inlineStr"/>
+      <c r="F232" t="inlineStr"/>
+      <c r="G232" t="inlineStr"/>
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="n">
-        <v>6.98</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B233" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="C233" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="D233" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="E233" t="inlineStr"/>
+        <v>7.6</v>
+      </c>
+      <c r="E233" t="n">
+        <v>7.3</v>
+      </c>
       <c r="F233" t="inlineStr"/>
       <c r="G233" t="inlineStr"/>
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="n">
-        <v>6.87</v>
+        <v>7.15</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B234" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="C234" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="D234" t="n">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="E234" t="inlineStr"/>
       <c r="F234" t="inlineStr"/>
       <c r="G234" t="inlineStr"/>
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="n">
-        <v>7.37</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B235" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="C235" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="D235" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="E235" t="inlineStr"/>
-      <c r="F235" t="inlineStr"/>
-      <c r="G235" t="inlineStr"/>
-      <c r="H235" t="inlineStr"/>
+        <v>6.9</v>
+      </c>
+      <c r="E235" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F235" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G235" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H235" t="n">
+        <v>7.5</v>
+      </c>
       <c r="I235" t="n">
-        <v>6.57</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B236" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="C236" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="D236" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="E236" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="F236" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="G236" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="H236" t="n">
-        <v>7.5</v>
-      </c>
+        <v>6.3</v>
+      </c>
+      <c r="E236" t="inlineStr"/>
+      <c r="F236" t="inlineStr"/>
+      <c r="G236" t="inlineStr"/>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="n">
-        <v>7.17</v>
+        <v>6.33</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B237" t="n">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="C237" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="D237" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="E237" t="inlineStr"/>
-      <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr"/>
+        <v>7.4</v>
+      </c>
+      <c r="E237" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F237" t="n">
+        <v>7</v>
+      </c>
+      <c r="G237" t="n">
+        <v>7.4</v>
+      </c>
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="n">
-        <v>6.33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B238" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="C238" t="n">
-        <v>7</v>
-      </c>
-      <c r="D238" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="E238" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="F238" t="n">
-        <v>7</v>
-      </c>
-      <c r="G238" t="n">
-        <v>7.4</v>
-      </c>
+        <v>6.4</v>
+      </c>
+      <c r="C238" t="inlineStr"/>
+      <c r="D238" t="inlineStr"/>
+      <c r="E238" t="inlineStr"/>
+      <c r="F238" t="inlineStr"/>
+      <c r="G238" t="inlineStr"/>
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B239" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="C239" t="inlineStr"/>
-      <c r="D239" t="inlineStr"/>
-      <c r="E239" t="inlineStr"/>
-      <c r="F239" t="inlineStr"/>
+        <v>6.6</v>
+      </c>
+      <c r="C239" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D239" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E239" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="F239" t="n">
+        <v>7.1</v>
+      </c>
       <c r="G239" t="inlineStr"/>
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="n">
-        <v>6.4</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B240" t="n">
-        <v>6.6</v>
+        <v>7.9</v>
       </c>
       <c r="C240" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="D240" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="E240" t="n">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="F240" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="G240" t="inlineStr"/>
-      <c r="H240" t="inlineStr"/>
+        <v>6.4</v>
+      </c>
+      <c r="G240" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H240" t="n">
+        <v>5.8</v>
+      </c>
       <c r="I240" t="n">
-        <v>6.76</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B241" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="C241" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="D241" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="E241" t="n">
-        <v>7.7</v>
+        <v>7.1</v>
       </c>
       <c r="F241" t="n">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="G241" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="H241" t="n">
-        <v>5.8</v>
+        <v>8.4</v>
       </c>
       <c r="I241" t="n">
-        <v>6.84</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B242" t="n">
-        <v>6.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C242" t="n">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="D242" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="E242" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F242" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="G242" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="H242" t="n">
         <v>7.1</v>
       </c>
-      <c r="F242" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="G242" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="H242" t="n">
-        <v>8.4</v>
-      </c>
       <c r="I242" t="n">
-        <v>7.23</v>
+        <v>7.67</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B243" t="n">
-        <v>8.300000000000001</v>
+        <v>5.8</v>
       </c>
       <c r="C243" t="n">
-        <v>6.5</v>
+        <v>7.9</v>
       </c>
       <c r="D243" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="E243" t="n">
-        <v>6.9</v>
+        <v>4.8</v>
       </c>
       <c r="F243" t="n">
-        <v>9.6</v>
+        <v>7.3</v>
       </c>
       <c r="G243" t="n">
-        <v>7.9</v>
+        <v>7.2</v>
       </c>
       <c r="H243" t="n">
-        <v>7.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I243" t="n">
-        <v>7.67</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B244" t="n">
-        <v>5.8</v>
+        <v>6.7</v>
       </c>
       <c r="C244" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="D244" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="E244" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="F244" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="G244" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="H244" t="n">
-        <v>8.199999999999999</v>
-      </c>
+        <v>6.5</v>
+      </c>
+      <c r="D244" t="inlineStr"/>
+      <c r="E244" t="inlineStr"/>
+      <c r="F244" t="inlineStr"/>
+      <c r="G244" t="inlineStr"/>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="n">
-        <v>6.96</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B245" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="C245" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="D245" t="inlineStr"/>
-      <c r="E245" t="inlineStr"/>
-      <c r="F245" t="inlineStr"/>
-      <c r="G245" t="inlineStr"/>
+        <v>6.3</v>
+      </c>
+      <c r="D245" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E245" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F245" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G245" t="n">
+        <v>6.3</v>
+      </c>
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B246" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="C246" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="D246" t="n">
-        <v>6.8</v>
+        <v>7.9</v>
       </c>
       <c r="E246" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="F246" t="n">
-        <v>7.4</v>
+        <v>6.7</v>
       </c>
       <c r="G246" t="n">
         <v>6.3</v>
       </c>
-      <c r="H246" t="inlineStr"/>
+      <c r="H246" t="n">
+        <v>7.6</v>
+      </c>
       <c r="I246" t="n">
-        <v>6.7</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B247" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="C247" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="D247" t="n">
-        <v>7.9</v>
+        <v>6.5</v>
       </c>
       <c r="E247" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="F247" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="G247" t="n">
         <v>6.3</v>
       </c>
       <c r="H247" t="n">
-        <v>7.6</v>
+        <v>8.1</v>
       </c>
       <c r="I247" t="n">
-        <v>7.06</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B248" t="n">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="C248" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="D248" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="E248" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="F248" t="n">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="G248" t="n">
-        <v>6.3</v>
+        <v>7.9</v>
       </c>
       <c r="H248" t="n">
-        <v>8.1</v>
+        <v>6.7</v>
       </c>
       <c r="I248" t="n">
-        <v>6.9</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B249" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="C249" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="D249" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="E249" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F249" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="G249" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="H249" t="n">
-        <v>6.7</v>
-      </c>
+        <v>6.8</v>
+      </c>
+      <c r="C249" t="inlineStr"/>
+      <c r="D249" t="inlineStr"/>
+      <c r="E249" t="inlineStr"/>
+      <c r="F249" t="inlineStr"/>
+      <c r="G249" t="inlineStr"/>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="n">
-        <v>6.93</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B250" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="C250" t="inlineStr"/>
-      <c r="D250" t="inlineStr"/>
-      <c r="E250" t="inlineStr"/>
-      <c r="F250" t="inlineStr"/>
-      <c r="G250" t="inlineStr"/>
-      <c r="H250" t="inlineStr"/>
+        <v>8.199999999999999</v>
+      </c>
+      <c r="C250" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D250" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E250" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="F250" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G250" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="H250" t="n">
+        <v>7.8</v>
+      </c>
       <c r="I250" t="n">
-        <v>6.8</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B251" t="n">
-        <v>8.199999999999999</v>
+        <v>7.3</v>
       </c>
       <c r="C251" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="D251" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="E251" t="n">
-        <v>5.4</v>
+        <v>6.8</v>
       </c>
       <c r="F251" t="n">
-        <v>6.6</v>
+        <v>8.6</v>
       </c>
       <c r="G251" t="n">
-        <v>7.7</v>
+        <v>6.2</v>
       </c>
       <c r="H251" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="I251" t="n">
-        <v>7.13</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B252" t="n">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
       <c r="C252" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="D252" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="E252" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="F252" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="G252" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H252" t="n">
-        <v>7</v>
-      </c>
+        <v>6.4</v>
+      </c>
+      <c r="F252" t="inlineStr"/>
+      <c r="G252" t="inlineStr"/>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="n">
-        <v>7.11</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B253" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="C253" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="D253" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="E253" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="F253" t="inlineStr"/>
-      <c r="G253" t="inlineStr"/>
-      <c r="H253" t="inlineStr"/>
+        <v>6.2</v>
+      </c>
+      <c r="F253" t="n">
+        <v>7</v>
+      </c>
+      <c r="G253" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H253" t="n">
+        <v>6.7</v>
+      </c>
       <c r="I253" t="n">
-        <v>6.65</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B254" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="C254" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="D254" t="n">
         <v>6.5</v>
       </c>
       <c r="E254" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="F254" t="n">
-        <v>7</v>
-      </c>
-      <c r="G254" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H254" t="n">
-        <v>6.7</v>
-      </c>
+        <v>6.7</v>
+      </c>
+      <c r="F254" t="inlineStr"/>
+      <c r="G254" t="inlineStr"/>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="n">
-        <v>6.7</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B255" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="C255" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="D255" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="E255" t="n">
-        <v>6.7</v>
-      </c>
+        <v>6.5</v>
+      </c>
+      <c r="D255" t="inlineStr"/>
+      <c r="E255" t="inlineStr"/>
       <c r="F255" t="inlineStr"/>
       <c r="G255" t="inlineStr"/>
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="n">
-        <v>6.88</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B256" t="n">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="C256" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="D256" t="inlineStr"/>
-      <c r="E256" t="inlineStr"/>
-      <c r="F256" t="inlineStr"/>
-      <c r="G256" t="inlineStr"/>
-      <c r="H256" t="inlineStr"/>
+        <v>6.9</v>
+      </c>
+      <c r="D256" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E256" t="n">
+        <v>6</v>
+      </c>
+      <c r="F256" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="G256" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H256" t="n">
+        <v>6.6</v>
+      </c>
       <c r="I256" t="n">
         <v>6.9</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B257" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="C257" t="n">
-        <v>6.9</v>
+        <v>6.2</v>
       </c>
       <c r="D257" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="E257" t="n">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="F257" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="G257" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="H257" t="n">
-        <v>6.6</v>
-      </c>
+        <v>6.1</v>
+      </c>
+      <c r="G257" t="inlineStr"/>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="n">
-        <v>6.9</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B258" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="C258" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="D258" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="E258" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="F258" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G258" t="n">
         <v>6.1</v>
       </c>
-      <c r="G258" t="inlineStr"/>
-      <c r="H258" t="inlineStr"/>
+      <c r="H258" t="n">
+        <v>6.7</v>
+      </c>
       <c r="I258" t="n">
-        <v>6.44</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B259" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="C259" t="n">
         <v>6.4</v>
       </c>
-      <c r="D259" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="E259" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="F259" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="G259" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="H259" t="n">
-        <v>6.7</v>
-      </c>
+      <c r="D259" t="inlineStr"/>
+      <c r="E259" t="inlineStr"/>
+      <c r="F259" t="inlineStr"/>
+      <c r="G259" t="inlineStr"/>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="n">
-        <v>6.54</v>
+        <v>6.55</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B260" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="C260" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="D260" t="inlineStr"/>
-      <c r="E260" t="inlineStr"/>
-      <c r="F260" t="inlineStr"/>
-      <c r="G260" t="inlineStr"/>
+        <v>7.3</v>
+      </c>
+      <c r="D260" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E260" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F260" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="G260" t="n">
+        <v>7.6</v>
+      </c>
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="n">
-        <v>6.55</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B261" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="C261" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="D261" t="n">
-        <v>5.9</v>
+        <v>7.7</v>
       </c>
       <c r="E261" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="F261" t="n">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="G261" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="H261" t="inlineStr"/>
+        <v>6.4</v>
+      </c>
+      <c r="H261" t="n">
+        <v>7.8</v>
+      </c>
       <c r="I261" t="n">
-        <v>6.63</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B262" t="n">
-        <v>6.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C262" t="n">
-        <v>7.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D262" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="E262" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="F262" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="G262" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H262" t="n">
-        <v>7.8</v>
-      </c>
+        <v>7.5</v>
+      </c>
+      <c r="E262" t="inlineStr"/>
+      <c r="F262" t="inlineStr"/>
+      <c r="G262" t="inlineStr"/>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="n">
-        <v>7.11</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B263" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="C263" t="n">
-        <v>9.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="D263" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="E263" t="inlineStr"/>
-      <c r="F263" t="inlineStr"/>
-      <c r="G263" t="inlineStr"/>
-      <c r="H263" t="inlineStr"/>
+        <v>9.800000000000001</v>
+      </c>
+      <c r="E263" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="F263" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="G263" t="n">
+        <v>8</v>
+      </c>
+      <c r="H263" t="n">
+        <v>7.2</v>
+      </c>
       <c r="I263" t="n">
-        <v>8.300000000000001</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B264" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="C264" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D264" t="n">
-        <v>9.800000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="E264" t="n">
+        <v>7</v>
+      </c>
+      <c r="F264" t="n">
         <v>7.9</v>
       </c>
-      <c r="F264" t="n">
-        <v>7.8</v>
-      </c>
       <c r="G264" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="H264" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I264" t="n">
-        <v>7.84</v>
+        <v>7.93</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B265" t="n">
-        <v>7.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C265" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D265" t="n">
-        <v>6.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E265" t="n">
         <v>7</v>
       </c>
       <c r="F265" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="G265" t="n">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="H265" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="I265" t="n">
-        <v>7.93</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B266" t="n">
-        <v>8.199999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="C266" t="n">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="D266" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="E266" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="F266" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="G266" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H266" t="n">
-        <v>6.7</v>
-      </c>
+        <v>7.3</v>
+      </c>
+      <c r="G266" t="inlineStr"/>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="n">
-        <v>7.47</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B267" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="C267" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="D267" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="E267" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="F267" t="n">
-        <v>7.3</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="B267" t="inlineStr"/>
+      <c r="C267" t="inlineStr"/>
+      <c r="D267" t="inlineStr"/>
+      <c r="E267" t="inlineStr"/>
+      <c r="F267" t="inlineStr"/>
       <c r="G267" t="inlineStr"/>
       <c r="H267" t="inlineStr"/>
-      <c r="I267" t="n">
-        <v>6.96</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B268" t="inlineStr"/>
-      <c r="C268" t="inlineStr"/>
-      <c r="D268" t="inlineStr"/>
-      <c r="E268" t="inlineStr"/>
-      <c r="F268" t="inlineStr"/>
-      <c r="G268" t="inlineStr"/>
-      <c r="H268" t="inlineStr"/>
-      <c r="I268" t="inlineStr"/>
+        <v>328</v>
+      </c>
+      <c r="B268" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C268" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="D268" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E268" t="n">
+        <v>7</v>
+      </c>
+      <c r="F268" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G268" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H268" t="n">
+        <v>8</v>
+      </c>
+      <c r="I268" t="n">
+        <v>6.8</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B269" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="C269" t="n">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="D269" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="E269" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="F269" t="n">
-        <v>6.7</v>
+        <v>6.1</v>
       </c>
       <c r="G269" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="H269" t="n">
-        <v>8</v>
+        <v>6.9</v>
       </c>
       <c r="I269" t="n">
-        <v>6.8</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B270" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="C270" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="D270" t="n">
-        <v>6.5</v>
+        <v>7.7</v>
       </c>
       <c r="E270" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="F270" t="n">
-        <v>6.1</v>
+        <v>7.1</v>
       </c>
       <c r="G270" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="H270" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="I270" t="n">
-        <v>6.73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B271" t="n">
-        <v>7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C271" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="D271" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="E271" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="F271" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="G271" t="n">
-        <v>7</v>
-      </c>
-      <c r="H271" t="n">
-        <v>7</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G271" t="inlineStr"/>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="n">
-        <v>7</v>
+        <v>7.22</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B272" t="n">
-        <v>8.699999999999999</v>
+        <v>7</v>
       </c>
       <c r="C272" t="n">
-        <v>6.1</v>
+        <v>8.1</v>
       </c>
       <c r="D272" t="n">
-        <v>7.8</v>
+        <v>6.5</v>
       </c>
       <c r="E272" t="n">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="F272" t="n">
-        <v>7</v>
-      </c>
-      <c r="G272" t="inlineStr"/>
+        <v>7.1</v>
+      </c>
+      <c r="G272" t="n">
+        <v>6.7</v>
+      </c>
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="n">
-        <v>7.22</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B273" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="C273" t="n">
-        <v>8.1</v>
+        <v>6</v>
       </c>
       <c r="D273" t="n">
-        <v>6.5</v>
+        <v>7.6</v>
       </c>
       <c r="E273" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F273" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="G273" t="n">
-        <v>6.7</v>
-      </c>
+        <v>6.4</v>
+      </c>
+      <c r="F273" t="inlineStr"/>
+      <c r="G273" t="inlineStr"/>
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="n">
-        <v>7.13</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B274" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="C274" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="D274" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="E274" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="F274" t="inlineStr"/>
-      <c r="G274" t="inlineStr"/>
+        <v>6.7</v>
+      </c>
+      <c r="F274" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G274" t="n">
+        <v>6.4</v>
+      </c>
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="n">
-        <v>6.82</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B275" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="C275" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="D275" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="E275" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="F275" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="G275" t="n">
-        <v>6.4</v>
-      </c>
+        <v>6.9</v>
+      </c>
+      <c r="C275" t="inlineStr"/>
+      <c r="D275" t="inlineStr"/>
+      <c r="E275" t="inlineStr"/>
+      <c r="F275" t="inlineStr"/>
+      <c r="G275" t="inlineStr"/>
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="n">
-        <v>6.98</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B276" t="n">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="C276" t="inlineStr"/>
       <c r="D276" t="inlineStr"/>
@@ -6872,1372 +6898,1388 @@
       <c r="G276" t="inlineStr"/>
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="n">
-        <v>6.9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B277" t="n">
-        <v>6</v>
-      </c>
-      <c r="C277" t="inlineStr"/>
+        <v>6.7</v>
+      </c>
+      <c r="C277" t="n">
+        <v>7.3</v>
+      </c>
       <c r="D277" t="inlineStr"/>
       <c r="E277" t="inlineStr"/>
       <c r="F277" t="inlineStr"/>
       <c r="G277" t="inlineStr"/>
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B278" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="C278" t="inlineStr"/>
+        <v>6.9</v>
+      </c>
+      <c r="C278" t="n">
+        <v>6.5</v>
+      </c>
       <c r="D278" t="inlineStr"/>
       <c r="E278" t="inlineStr"/>
       <c r="F278" t="inlineStr"/>
       <c r="G278" t="inlineStr"/>
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="n">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B279" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="C279" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="D279" t="inlineStr"/>
-      <c r="E279" t="inlineStr"/>
-      <c r="F279" t="inlineStr"/>
-      <c r="G279" t="inlineStr"/>
-      <c r="H279" t="inlineStr"/>
+        <v>7.1</v>
+      </c>
+      <c r="D279" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E279" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F279" t="n">
+        <v>7</v>
+      </c>
+      <c r="G279" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H279" t="n">
+        <v>6.4</v>
+      </c>
       <c r="I279" t="n">
         <v>6.7</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B280" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="C280" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="D280" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="E280" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="F280" t="n">
-        <v>7</v>
-      </c>
-      <c r="G280" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="H280" t="n">
-        <v>6.4</v>
-      </c>
+        <v>6.5</v>
+      </c>
+      <c r="E280" t="inlineStr"/>
+      <c r="F280" t="inlineStr"/>
+      <c r="G280" t="inlineStr"/>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B281" t="n">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="C281" t="n">
-        <v>6.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D281" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="E281" t="inlineStr"/>
-      <c r="F281" t="inlineStr"/>
-      <c r="G281" t="inlineStr"/>
-      <c r="H281" t="inlineStr"/>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="E281" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F281" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="G281" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H281" t="n">
+        <v>6.1</v>
+      </c>
       <c r="I281" t="n">
-        <v>6.5</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B282" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C282" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D282" t="n">
         <v>7.3</v>
       </c>
-      <c r="C282" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="D282" t="n">
-        <v>8.300000000000001</v>
-      </c>
       <c r="E282" t="n">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
       <c r="F282" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G282" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H282" t="n">
         <v>7.6</v>
       </c>
-      <c r="G282" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="H282" t="n">
-        <v>6.1</v>
-      </c>
       <c r="I282" t="n">
-        <v>7.51</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B283" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="C283" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="D283" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E283" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="F283" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G283" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="H283" t="n">
         <v>7.3</v>
       </c>
-      <c r="E283" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="F283" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="G283" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="H283" t="n">
-        <v>7.6</v>
-      </c>
       <c r="I283" t="n">
-        <v>6.93</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B284" t="n">
-        <v>7.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C284" t="n">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="D284" t="n">
-        <v>7.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E284" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="F284" t="n">
-        <v>6.9</v>
+        <v>7.8</v>
       </c>
       <c r="G284" t="n">
-        <v>7.7</v>
+        <v>6.3</v>
       </c>
       <c r="H284" t="n">
-        <v>7.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I284" t="n">
-        <v>7.34</v>
+        <v>7.67</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B285" t="n">
-        <v>8.300000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="C285" t="n">
         <v>6.4</v>
       </c>
       <c r="D285" t="n">
-        <v>8.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="E285" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="F285" t="n">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="G285" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="H285" t="n">
-        <v>9.699999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="I285" t="n">
-        <v>7.67</v>
+        <v>7</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B286" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="C286" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D286" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E286" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F286" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G286" t="n">
         <v>7.9</v>
       </c>
-      <c r="D286" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="E286" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="F286" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="G286" t="n">
-        <v>6.8</v>
-      </c>
       <c r="H286" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="I286" t="n">
-        <v>6.97</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B287" t="n">
         <v>6.8</v>
       </c>
       <c r="C287" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="D287" t="n">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="E287" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="F287" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="G287" t="n">
-        <v>7.9</v>
+        <v>6.2</v>
       </c>
       <c r="H287" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="I287" t="n">
-        <v>6.76</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B288" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="C288" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="D288" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="E288" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="F288" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="G288" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H288" t="n">
-        <v>6.8</v>
-      </c>
+        <v>5.7</v>
+      </c>
+      <c r="E288" t="inlineStr"/>
+      <c r="F288" t="inlineStr"/>
+      <c r="G288" t="inlineStr"/>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="n">
-        <v>6.67</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B289" t="n">
-        <v>6.4</v>
+        <v>7.9</v>
       </c>
       <c r="C289" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="D289" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="E289" t="inlineStr"/>
-      <c r="F289" t="inlineStr"/>
-      <c r="G289" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="E289" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="F289" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G289" t="n">
+        <v>6.7</v>
+      </c>
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="n">
-        <v>6.1</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B290" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="C290" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="D290" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="E290" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="F290" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="G290" t="n">
-        <v>6.7</v>
-      </c>
+        <v>6.5</v>
+      </c>
+      <c r="C290" t="inlineStr"/>
+      <c r="D290" t="inlineStr"/>
+      <c r="E290" t="inlineStr"/>
+      <c r="F290" t="inlineStr"/>
+      <c r="G290" t="inlineStr"/>
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="n">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B291" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="C291" t="inlineStr"/>
-      <c r="D291" t="inlineStr"/>
-      <c r="E291" t="inlineStr"/>
-      <c r="F291" t="inlineStr"/>
-      <c r="G291" t="inlineStr"/>
-      <c r="H291" t="inlineStr"/>
+        <v>7.1</v>
+      </c>
+      <c r="C291" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D291" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E291" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="F291" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="G291" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H291" t="n">
+        <v>7</v>
+      </c>
       <c r="I291" t="n">
-        <v>6.5</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B292" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="C292" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="D292" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="E292" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="F292" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="G292" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="H292" t="n">
-        <v>7</v>
-      </c>
+        <v>6.6</v>
+      </c>
+      <c r="C292" t="inlineStr"/>
+      <c r="D292" t="inlineStr"/>
+      <c r="E292" t="inlineStr"/>
+      <c r="F292" t="inlineStr"/>
+      <c r="G292" t="inlineStr"/>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="n">
-        <v>6.84</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B293" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="C293" t="inlineStr"/>
-      <c r="D293" t="inlineStr"/>
-      <c r="E293" t="inlineStr"/>
-      <c r="F293" t="inlineStr"/>
-      <c r="G293" t="inlineStr"/>
-      <c r="H293" t="inlineStr"/>
+        <v>7.4</v>
+      </c>
+      <c r="C293" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D293" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E293" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F293" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G293" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H293" t="n">
+        <v>7.3</v>
+      </c>
       <c r="I293" t="n">
-        <v>6.6</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B294" t="n">
-        <v>7.4</v>
+        <v>6.3</v>
       </c>
       <c r="C294" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="D294" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="E294" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="F294" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="G294" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H294" t="n">
-        <v>7.3</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D294" t="inlineStr"/>
+      <c r="E294" t="inlineStr"/>
+      <c r="F294" t="inlineStr"/>
+      <c r="G294" t="inlineStr"/>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="n">
-        <v>7.07</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B295" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C295" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D295" t="n">
+        <v>7</v>
+      </c>
+      <c r="E295" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="F295" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G295" t="n">
         <v>6.3</v>
       </c>
-      <c r="C295" t="n">
-        <v>7</v>
-      </c>
-      <c r="D295" t="inlineStr"/>
-      <c r="E295" t="inlineStr"/>
-      <c r="F295" t="inlineStr"/>
-      <c r="G295" t="inlineStr"/>
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="n">
-        <v>6.65</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B296" t="n">
-        <v>6.1</v>
+        <v>7.5</v>
       </c>
       <c r="C296" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="D296" t="n">
-        <v>7</v>
+        <v>7.9</v>
       </c>
       <c r="E296" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="F296" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="G296" t="n">
-        <v>6.3</v>
-      </c>
+        <v>7.3</v>
+      </c>
+      <c r="F296" t="inlineStr"/>
+      <c r="G296" t="inlineStr"/>
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="n">
-        <v>6.82</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B297" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="C297" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="D297" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="E297" t="inlineStr"/>
-      <c r="F297" t="inlineStr"/>
-      <c r="G297" t="inlineStr"/>
-      <c r="H297" t="inlineStr"/>
+        <v>5.9</v>
+      </c>
+      <c r="E297" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="F297" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G297" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H297" t="n">
+        <v>6.3</v>
+      </c>
       <c r="I297" t="n">
-        <v>7.5</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B298" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="C298" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D298" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="E298" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F298" t="n">
         <v>7.6</v>
       </c>
-      <c r="D298" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="E298" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="F298" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G298" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="H298" t="n">
-        <v>6.3</v>
+        <v>8</v>
       </c>
       <c r="I298" t="n">
-        <v>6.74</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B299" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="C299" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D299" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E299" t="n">
         <v>7.8</v>
       </c>
-      <c r="D299" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="E299" t="n">
-        <v>7.4</v>
-      </c>
       <c r="F299" t="n">
-        <v>7.6</v>
+        <v>6.7</v>
       </c>
       <c r="G299" t="n">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="H299" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="I299" t="n">
-        <v>7.69</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B300" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="C300" t="n">
-        <v>8.699999999999999</v>
+        <v>7.3</v>
       </c>
       <c r="D300" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="E300" t="n">
-        <v>7.8</v>
+        <v>6.9</v>
       </c>
       <c r="F300" t="n">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="G300" t="n">
-        <v>6</v>
+        <v>7.3</v>
       </c>
       <c r="H300" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="I300" t="n">
-        <v>7.23</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B301" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="C301" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="D301" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="E301" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="F301" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="G301" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="H301" t="n">
-        <v>6.7</v>
-      </c>
+        <v>7.1</v>
+      </c>
+      <c r="E301" t="inlineStr"/>
+      <c r="F301" t="inlineStr"/>
+      <c r="G301" t="inlineStr"/>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="n">
-        <v>7.11</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B302" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="C302" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="D302" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="E302" t="inlineStr"/>
-      <c r="F302" t="inlineStr"/>
-      <c r="G302" t="inlineStr"/>
-      <c r="H302" t="inlineStr"/>
+        <v>6.8</v>
+      </c>
+      <c r="E302" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F302" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="G302" t="n">
+        <v>7</v>
+      </c>
+      <c r="H302" t="n">
+        <v>7.9</v>
+      </c>
       <c r="I302" t="n">
-        <v>6.9</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B303" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="C303" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="D303" t="n">
-        <v>6.8</v>
+        <v>9.4</v>
       </c>
       <c r="E303" t="n">
-        <v>6.6</v>
+        <v>7.7</v>
       </c>
       <c r="F303" t="n">
-        <v>7.8</v>
+        <v>6.5</v>
       </c>
       <c r="G303" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="H303" t="n">
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="I303" t="n">
-        <v>7.14</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B304" t="n">
         <v>7.4</v>
       </c>
       <c r="C304" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D304" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E304" t="n">
         <v>7.2</v>
       </c>
-      <c r="D304" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="E304" t="n">
-        <v>7.7</v>
-      </c>
       <c r="F304" t="n">
         <v>6.5</v>
       </c>
       <c r="G304" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="H304" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I304" t="n">
-        <v>7.4</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B305" t="n">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="C305" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="D305" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="E305" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="F305" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="G305" t="n">
         <v>6.7</v>
       </c>
-      <c r="H305" t="n">
-        <v>6.5</v>
-      </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="n">
-        <v>6.7</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B306" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="C306" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="D306" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="E306" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="F306" t="n">
-        <v>7</v>
-      </c>
-      <c r="G306" t="n">
-        <v>6.7</v>
-      </c>
+        <v>7.3</v>
+      </c>
+      <c r="G306" t="inlineStr"/>
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="n">
-        <v>6.63</v>
+        <v>6.78</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B307" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="C307" t="n">
-        <v>6.8</v>
+        <v>5.4</v>
       </c>
       <c r="D307" t="n">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="E307" t="n">
         <v>6.9</v>
       </c>
       <c r="F307" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="G307" t="inlineStr"/>
-      <c r="H307" t="inlineStr"/>
+        <v>6.9</v>
+      </c>
+      <c r="G307" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="H307" t="n">
+        <v>6.6</v>
+      </c>
       <c r="I307" t="n">
-        <v>6.78</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B308" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="C308" t="n">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="D308" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="E308" t="n">
-        <v>6.9</v>
+        <v>6.2</v>
       </c>
       <c r="F308" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="G308" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="H308" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="I308" t="n">
-        <v>6.59</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B309" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="C309" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="D309" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="E309" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="F309" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="G309" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="H309" t="n">
-        <v>6.9</v>
-      </c>
+        <v>7.1</v>
+      </c>
+      <c r="D309" t="inlineStr"/>
+      <c r="E309" t="inlineStr"/>
+      <c r="F309" t="inlineStr"/>
+      <c r="G309" t="inlineStr"/>
+      <c r="H309" t="inlineStr"/>
       <c r="I309" t="n">
-        <v>6.53</v>
+        <v>7</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B310" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="C310" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="D310" t="inlineStr"/>
-      <c r="E310" t="inlineStr"/>
-      <c r="F310" t="inlineStr"/>
-      <c r="G310" t="inlineStr"/>
-      <c r="H310" t="inlineStr"/>
+        <v>6.8</v>
+      </c>
+      <c r="D310" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E310" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F310" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G310" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H310" t="n">
+        <v>6.5</v>
+      </c>
       <c r="I310" t="n">
-        <v>7</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B311" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="C311" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="D311" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="E311" t="n">
-        <v>6.3</v>
+        <v>7.6</v>
       </c>
       <c r="F311" t="n">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="G311" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="H311" t="n">
-        <v>6.5</v>
+        <v>7.6</v>
       </c>
       <c r="I311" t="n">
-        <v>6.81</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B312" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="C312" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="D312" t="n">
         <v>6.6</v>
       </c>
       <c r="E312" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F312" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="G312" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="H312" t="n">
-        <v>7.6</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="G312" t="inlineStr"/>
+      <c r="H312" t="inlineStr"/>
       <c r="I312" t="n">
-        <v>7.07</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B313" t="n">
-        <v>6.8</v>
+        <v>7.9</v>
       </c>
       <c r="C313" t="n">
         <v>6.4</v>
       </c>
       <c r="D313" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="E313" t="n">
-        <v>8.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="F313" t="n">
-        <v>6</v>
-      </c>
-      <c r="G313" t="inlineStr"/>
-      <c r="H313" t="inlineStr"/>
+        <v>7.5</v>
+      </c>
+      <c r="G313" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="H313" t="n">
+        <v>8.1</v>
+      </c>
       <c r="I313" t="n">
-        <v>6.8</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B314" t="n">
-        <v>7.9</v>
+        <v>6.8</v>
       </c>
       <c r="C314" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="D314" t="n">
-        <v>7.6</v>
+        <v>6.7</v>
       </c>
       <c r="E314" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="F314" t="n">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="G314" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="H314" t="n">
         <v>8.1</v>
       </c>
       <c r="I314" t="n">
-        <v>7.34</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B315" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="C315" t="n">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="D315" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="E315" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F315" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="G315" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="H315" t="n">
-        <v>8.1</v>
-      </c>
+        <v>6.6</v>
+      </c>
+      <c r="E315" t="inlineStr"/>
+      <c r="F315" t="inlineStr"/>
+      <c r="G315" t="inlineStr"/>
+      <c r="H315" t="inlineStr"/>
       <c r="I315" t="n">
-        <v>7.04</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B316" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="C316" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="D316" t="n">
-        <v>6.6</v>
-      </c>
+        <v>6.4</v>
+      </c>
+      <c r="D316" t="inlineStr"/>
       <c r="E316" t="inlineStr"/>
       <c r="F316" t="inlineStr"/>
       <c r="G316" t="inlineStr"/>
       <c r="H316" t="inlineStr"/>
       <c r="I316" t="n">
-        <v>6.57</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B317" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="C317" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="D317" t="inlineStr"/>
-      <c r="E317" t="inlineStr"/>
-      <c r="F317" t="inlineStr"/>
+        <v>7.8</v>
+      </c>
+      <c r="D317" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="E317" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F317" t="n">
+        <v>6.7</v>
+      </c>
       <c r="G317" t="inlineStr"/>
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="n">
-        <v>6.45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B318" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="C318" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="D318" t="n">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="E318" t="n">
         <v>6.5</v>
       </c>
       <c r="F318" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="G318" t="inlineStr"/>
-      <c r="H318" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="G318" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H318" t="n">
+        <v>6.6</v>
+      </c>
       <c r="I318" t="n">
-        <v>7</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B319" t="n">
-        <v>6.4</v>
+        <v>7.9</v>
       </c>
       <c r="C319" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="D319" t="n">
         <v>7.3</v>
       </c>
       <c r="E319" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="F319" t="n">
-        <v>6.5</v>
+        <v>7.6</v>
       </c>
       <c r="G319" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="H319" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="I319" t="n">
-        <v>6.73</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B320" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="C320" t="n">
-        <v>7.1</v>
+        <v>6.2</v>
       </c>
       <c r="D320" t="n">
-        <v>7.3</v>
+        <v>6.1</v>
       </c>
       <c r="E320" t="n">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="F320" t="n">
-        <v>7.6</v>
+        <v>5.9</v>
       </c>
       <c r="G320" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="H320" t="n">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="I320" t="n">
-        <v>7.51</v>
+        <v>6.33</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B321" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="C321" t="n">
-        <v>6.2</v>
+        <v>7.3</v>
       </c>
       <c r="D321" t="n">
-        <v>6.1</v>
+        <v>7.3</v>
       </c>
       <c r="E321" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="F321" t="n">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="G321" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="H321" t="n">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="I321" t="n">
-        <v>6.33</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B322" t="n">
-        <v>7.9</v>
+        <v>6.8</v>
       </c>
       <c r="C322" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="D322" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="E322" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="F322" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="G322" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="H322" t="n">
-        <v>7.1</v>
-      </c>
+        <v>6.4</v>
+      </c>
+      <c r="D322" t="inlineStr"/>
+      <c r="E322" t="inlineStr"/>
+      <c r="F322" t="inlineStr"/>
+      <c r="G322" t="inlineStr"/>
+      <c r="H322" t="inlineStr"/>
       <c r="I322" t="n">
-        <v>7.11</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B323" t="n">
-        <v>6.8</v>
+        <v>8.6</v>
       </c>
       <c r="C323" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="D323" t="inlineStr"/>
-      <c r="E323" t="inlineStr"/>
-      <c r="F323" t="inlineStr"/>
-      <c r="G323" t="inlineStr"/>
-      <c r="H323" t="inlineStr"/>
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D323" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="E323" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F323" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G323" t="n">
+        <v>8</v>
+      </c>
+      <c r="H323" t="n">
+        <v>7</v>
+      </c>
       <c r="I323" t="n">
-        <v>6.6</v>
+        <v>7.67</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B324" t="n">
-        <v>8.6</v>
+        <v>7</v>
       </c>
       <c r="C324" t="n">
-        <v>8.699999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="D324" t="n">
-        <v>7.7</v>
+        <v>6.5</v>
       </c>
       <c r="E324" t="n">
         <v>6.8</v>
       </c>
       <c r="F324" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="G324" t="n">
-        <v>8</v>
+        <v>6.1</v>
       </c>
       <c r="H324" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="I324" t="n">
-        <v>7.67</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B325" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="C325" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="D325" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="E325" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="F325" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="G325" t="n">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="H325" t="n">
         <v>6.9</v>
       </c>
       <c r="I325" t="n">
-        <v>6.74</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
-        <v>389</v>
-      </c>
-      <c r="B326" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="C326" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="D326" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="E326" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="F326" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="G326" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="H326" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="I326" t="n">
-        <v>6.77</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="B326" t="inlineStr"/>
+      <c r="C326" t="inlineStr"/>
+      <c r="D326" t="inlineStr"/>
+      <c r="E326" t="inlineStr"/>
+      <c r="F326" t="inlineStr"/>
+      <c r="G326" t="inlineStr"/>
+      <c r="H326" t="inlineStr"/>
+      <c r="I326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
-        <v>390</v>
-      </c>
-      <c r="B327" t="inlineStr"/>
-      <c r="C327" t="inlineStr"/>
+        <v>391</v>
+      </c>
+      <c r="B327" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C327" t="n">
+        <v>6.6</v>
+      </c>
       <c r="D327" t="inlineStr"/>
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr"/>
       <c r="G327" t="inlineStr"/>
       <c r="H327" t="inlineStr"/>
-      <c r="I327" t="inlineStr"/>
+      <c r="I327" t="n">
+        <v>6.55</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
-        <v>391</v>
-      </c>
-      <c r="B328" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="C328" t="n">
-        <v>6.6</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="B328" t="inlineStr"/>
+      <c r="C328" t="inlineStr"/>
       <c r="D328" t="inlineStr"/>
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr"/>
       <c r="G328" t="inlineStr"/>
       <c r="H328" t="inlineStr"/>
-      <c r="I328" t="n">
-        <v>6.55</v>
-      </c>
+      <c r="I328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
-        <v>392</v>
-      </c>
-      <c r="B329" t="inlineStr"/>
-      <c r="C329" t="inlineStr"/>
-      <c r="D329" t="inlineStr"/>
-      <c r="E329" t="inlineStr"/>
-      <c r="F329" t="inlineStr"/>
-      <c r="G329" t="inlineStr"/>
-      <c r="H329" t="inlineStr"/>
-      <c r="I329" t="inlineStr"/>
+        <v>393</v>
+      </c>
+      <c r="B329" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C329" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="D329" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E329" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="F329" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="G329" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H329" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="I329" t="n">
+        <v>7.29</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B330" t="n">
-        <v>6.5</v>
+        <v>8.1</v>
       </c>
       <c r="C330" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="D330" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="E330" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="F330" t="n">
-        <v>8.6</v>
+        <v>7.7</v>
       </c>
       <c r="G330" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H330" t="n">
         <v>7.5</v>
-      </c>
-      <c r="H330" t="n">
-        <v>7.7</v>
       </c>
       <c r="I330" t="n">
         <v>7.29</v>
@@ -8245,461 +8287,758 @@
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B331" t="n">
-        <v>8.1</v>
+        <v>7.2</v>
       </c>
       <c r="C331" t="n">
+        <v>7</v>
+      </c>
+      <c r="D331" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="E331" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F331" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G331" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H331" t="n">
         <v>7.6</v>
       </c>
-      <c r="D331" t="n">
-        <v>7</v>
-      </c>
-      <c r="E331" t="n">
-        <v>7</v>
-      </c>
-      <c r="F331" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="G331" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="H331" t="n">
-        <v>7.5</v>
-      </c>
       <c r="I331" t="n">
-        <v>7.29</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
-        <v>395</v>
-      </c>
-      <c r="B332" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="C332" t="n">
-        <v>7</v>
-      </c>
-      <c r="D332" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="E332" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="F332" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="G332" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="H332" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="I332" t="n">
-        <v>6.86</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="B332" t="inlineStr"/>
+      <c r="C332" t="inlineStr"/>
+      <c r="D332" t="inlineStr"/>
+      <c r="E332" t="inlineStr"/>
+      <c r="F332" t="inlineStr"/>
+      <c r="G332" t="inlineStr"/>
+      <c r="H332" t="inlineStr"/>
+      <c r="I332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
-        <v>396</v>
-      </c>
-      <c r="B333" t="inlineStr"/>
-      <c r="C333" t="inlineStr"/>
-      <c r="D333" t="inlineStr"/>
-      <c r="E333" t="inlineStr"/>
-      <c r="F333" t="inlineStr"/>
-      <c r="G333" t="inlineStr"/>
-      <c r="H333" t="inlineStr"/>
-      <c r="I333" t="inlineStr"/>
+        <v>397</v>
+      </c>
+      <c r="B333" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C333" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D333" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E333" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F333" t="n">
+        <v>7</v>
+      </c>
+      <c r="G333" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H333" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I333" t="n">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B334" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="C334" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="D334" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="E334" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="F334" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="G334" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="H334" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="I334" t="n">
-        <v>6.83</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B335" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="C335" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="D335" t="n">
         <v>7.1</v>
       </c>
       <c r="E335" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="F335" t="n">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="G335" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="H335" t="n">
-        <v>6.4</v>
-      </c>
+        <v>6.7</v>
+      </c>
+      <c r="H335" t="inlineStr"/>
       <c r="I335" t="n">
-        <v>6.7</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
-        <v>399</v>
-      </c>
-      <c r="B336" t="n">
-        <v>7</v>
-      </c>
-      <c r="C336" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="D336" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="E336" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="F336" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="G336" t="n">
-        <v>6.7</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="B336" t="inlineStr"/>
+      <c r="C336" t="inlineStr"/>
+      <c r="D336" t="inlineStr"/>
+      <c r="E336" t="inlineStr"/>
+      <c r="F336" t="inlineStr"/>
+      <c r="G336" t="inlineStr"/>
       <c r="H336" t="inlineStr"/>
-      <c r="I336" t="n">
-        <v>6.97</v>
-      </c>
+      <c r="I336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="B337" t="inlineStr"/>
-      <c r="C337" t="inlineStr"/>
-      <c r="D337" t="inlineStr"/>
-      <c r="E337" t="inlineStr"/>
-      <c r="F337" t="inlineStr"/>
+        <v>401</v>
+      </c>
+      <c r="B337" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C337" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D337" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E337" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F337" t="n">
+        <v>5.7</v>
+      </c>
       <c r="G337" t="inlineStr"/>
       <c r="H337" t="inlineStr"/>
-      <c r="I337" t="inlineStr"/>
+      <c r="I337" t="n">
+        <v>6.66</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B338" t="n">
-        <v>7.7</v>
+        <v>6.4</v>
       </c>
       <c r="C338" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="D338" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="E338" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="F338" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="G338" t="inlineStr"/>
-      <c r="H338" t="inlineStr"/>
+        <v>7.3</v>
+      </c>
+      <c r="G338" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="H338" t="n">
+        <v>6.7</v>
+      </c>
       <c r="I338" t="n">
-        <v>6.66</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B339" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="C339" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="D339" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="E339" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="F339" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="G339" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="H339" t="n">
-        <v>6.8</v>
-      </c>
+        <v>6.6</v>
+      </c>
+      <c r="C339" t="inlineStr"/>
+      <c r="D339" t="inlineStr"/>
+      <c r="E339" t="inlineStr"/>
+      <c r="F339" t="inlineStr"/>
+      <c r="G339" t="inlineStr"/>
+      <c r="H339" t="inlineStr"/>
       <c r="I339" t="n">
-        <v>7.03</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B340" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="C340" t="inlineStr"/>
-      <c r="D340" t="inlineStr"/>
-      <c r="E340" t="inlineStr"/>
-      <c r="F340" t="inlineStr"/>
-      <c r="G340" t="inlineStr"/>
-      <c r="H340" t="inlineStr"/>
+        <v>7.1</v>
+      </c>
+      <c r="C340" t="n">
+        <v>7</v>
+      </c>
+      <c r="D340" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E340" t="n">
+        <v>7</v>
+      </c>
+      <c r="F340" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="G340" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H340" t="n">
+        <v>6.9</v>
+      </c>
       <c r="I340" t="n">
-        <v>6.6</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B341" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="C341" t="n">
-        <v>7</v>
-      </c>
-      <c r="D341" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="E341" t="n">
-        <v>7</v>
-      </c>
-      <c r="F341" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="G341" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="H341" t="n">
-        <v>6.9</v>
-      </c>
+        <v>7.5</v>
+      </c>
+      <c r="D341" t="inlineStr"/>
+      <c r="E341" t="inlineStr"/>
+      <c r="F341" t="inlineStr"/>
+      <c r="G341" t="inlineStr"/>
+      <c r="H341" t="inlineStr"/>
       <c r="I341" t="n">
-        <v>6.89</v>
+        <v>7.05</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B342" t="n">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="C342" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D342" t="n">
         <v>7.5</v>
       </c>
-      <c r="D342" t="inlineStr"/>
-      <c r="E342" t="inlineStr"/>
-      <c r="F342" t="inlineStr"/>
-      <c r="G342" t="inlineStr"/>
-      <c r="H342" t="inlineStr"/>
+      <c r="E342" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F342" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G342" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H342" t="n">
+        <v>8.699999999999999</v>
+      </c>
       <c r="I342" t="n">
-        <v>7.05</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B343" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="C343" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D343" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="E343" t="n">
-        <v>6.6</v>
+        <v>7.7</v>
       </c>
       <c r="F343" t="n">
-        <v>6.8</v>
+        <v>5.7</v>
       </c>
       <c r="G343" t="n">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="H343" t="n">
-        <v>8.699999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="I343" t="n">
-        <v>7.23</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B344" t="n">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="C344" t="n">
-        <v>7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D344" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="E344" t="n">
-        <v>7.7</v>
+        <v>7.1</v>
       </c>
       <c r="F344" t="n">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="G344" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="H344" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="I344" t="n">
-        <v>6.91</v>
+        <v>7.29</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B345" t="n">
-        <v>7.3</v>
+        <v>9</v>
       </c>
       <c r="C345" t="n">
-        <v>8.699999999999999</v>
+        <v>6</v>
       </c>
       <c r="D345" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E345" t="n">
         <v>7.7</v>
       </c>
-      <c r="E345" t="n">
-        <v>7.1</v>
-      </c>
       <c r="F345" t="n">
-        <v>6.5</v>
+        <v>9.1</v>
       </c>
       <c r="G345" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="H345" t="n">
-        <v>7</v>
-      </c>
+        <v>6.6</v>
+      </c>
+      <c r="H345" t="inlineStr"/>
       <c r="I345" t="n">
-        <v>7.29</v>
+        <v>7.52</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B346" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="C346" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="D346" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="E346" t="n">
-        <v>7.7</v>
+        <v>6.8</v>
       </c>
       <c r="F346" t="n">
-        <v>9.1</v>
+        <v>7.1</v>
       </c>
       <c r="G346" t="n">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="H346" t="inlineStr"/>
       <c r="I346" t="n">
-        <v>7.52</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B347" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="C347" t="n">
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="D347" t="n">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="E347" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="F347" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="G347" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="H347" t="inlineStr"/>
+        <v>6.7</v>
+      </c>
+      <c r="H347" t="n">
+        <v>6.3</v>
+      </c>
       <c r="I347" t="n">
-        <v>6.75</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B348" t="n">
-        <v>6.9</v>
+        <v>7.6</v>
       </c>
       <c r="C348" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D348" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="E348" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F348" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="G348" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H348" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I348" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B349" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C349" t="inlineStr"/>
+      <c r="D349" t="inlineStr"/>
+      <c r="E349" t="inlineStr"/>
+      <c r="F349" t="inlineStr"/>
+      <c r="G349" t="inlineStr"/>
+      <c r="H349" t="inlineStr"/>
+      <c r="I349" t="n">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B350" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C350" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D350" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="E350" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F350" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="G350" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H350" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="I350" t="n">
+        <v>7.29</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B351" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C351" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D351" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="E351" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F351" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G351" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H351" t="n">
+        <v>4</v>
+      </c>
+      <c r="I351" t="n">
+        <v>6.87</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B352" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C352" t="n">
         <v>7.3</v>
       </c>
-      <c r="E348" t="n">
-        <v>7</v>
-      </c>
-      <c r="F348" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="G348" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="H348" t="n">
+      <c r="D352" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E352" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F352" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G352" t="inlineStr"/>
+      <c r="H352" t="inlineStr"/>
+      <c r="I352" t="n">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B353" t="n">
+        <v>8</v>
+      </c>
+      <c r="C353" t="n">
         <v>6.3</v>
       </c>
-      <c r="I348" t="n">
-        <v>6.84</v>
-      </c>
+      <c r="D353" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="E353" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F353" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="G353" t="n">
+        <v>7</v>
+      </c>
+      <c r="H353" t="inlineStr"/>
+      <c r="I353" t="n">
+        <v>7.52</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B354" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C354" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D354" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="E354" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="F354" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="G354" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="H354" t="inlineStr"/>
+      <c r="I354" t="n">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B355" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C355" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D355" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E355" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F355" t="inlineStr"/>
+      <c r="G355" t="inlineStr"/>
+      <c r="H355" t="inlineStr"/>
+      <c r="I355" t="n">
+        <v>6.78</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B356" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C356" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D356" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="E356" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F356" t="inlineStr"/>
+      <c r="G356" t="inlineStr"/>
+      <c r="H356" t="inlineStr"/>
+      <c r="I356" t="n">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B357" t="n">
+        <v>7</v>
+      </c>
+      <c r="C357" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="D357" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="E357" t="inlineStr"/>
+      <c r="F357" t="inlineStr"/>
+      <c r="G357" t="inlineStr"/>
+      <c r="H357" t="inlineStr"/>
+      <c r="I357" t="n">
+        <v>7.63</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B358" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C358" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D358" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E358" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F358" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G358" t="inlineStr"/>
+      <c r="H358" t="inlineStr"/>
+      <c r="I358" t="n">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B359" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C359" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D359" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E359" t="inlineStr"/>
+      <c r="F359" t="inlineStr"/>
+      <c r="G359" t="inlineStr"/>
+      <c r="H359" t="inlineStr"/>
+      <c r="I359" t="n">
+        <v>7.03</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B360" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C360" t="inlineStr"/>
+      <c r="D360" t="inlineStr"/>
+      <c r="E360" t="inlineStr"/>
+      <c r="F360" t="inlineStr"/>
+      <c r="G360" t="inlineStr"/>
+      <c r="H360" t="inlineStr"/>
+      <c r="I360" t="n">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B361" t="inlineStr"/>
+      <c r="C361" t="inlineStr"/>
+      <c r="D361" t="inlineStr"/>
+      <c r="E361" t="inlineStr"/>
+      <c r="F361" t="inlineStr"/>
+      <c r="G361" t="inlineStr"/>
+      <c r="H361" t="inlineStr"/>
+      <c r="I361" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/players_ratings.xlsx
+++ b/players_ratings.xlsx
@@ -599,22 +599,24 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C8" t="n">
         <v>7.5</v>
       </c>
-      <c r="C8" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D8" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E8" t="n">
         <v>7.7</v>
       </c>
-      <c r="E8" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>6.7</v>
+      </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>7.08</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="9">
@@ -920,20 +922,22 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="n">
         <v>7.4</v>
       </c>
-      <c r="C21" t="n">
-        <v>7</v>
-      </c>
       <c r="D21" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6.7</v>
+      </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>7.03</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="22">
@@ -1298,18 +1302,20 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C37" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="C37" t="n">
-        <v>7</v>
-      </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="n">
+        <v>7</v>
+      </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="38">
@@ -3408,20 +3414,24 @@
         <v>170</v>
       </c>
       <c r="B131" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C131" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="D131" t="n">
         <v>7.2</v>
       </c>
-      <c r="C131" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="D131" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
+      <c r="E131" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F131" t="n">
+        <v>6.5</v>
+      </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="n">
-        <v>6.77</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="132">
@@ -3650,20 +3660,22 @@
         <v>180</v>
       </c>
       <c r="B141" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C141" t="n">
         <v>7.3</v>
       </c>
-      <c r="C141" t="n">
-        <v>7</v>
-      </c>
       <c r="D141" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="E141" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="E141" t="n">
+        <v>6.9</v>
+      </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="n">
-        <v>7.07</v>
+        <v>7.57</v>
       </c>
     </row>
     <row r="142">
@@ -3759,22 +3771,24 @@
         <v>185</v>
       </c>
       <c r="B146" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C146" t="n">
         <v>7.2</v>
       </c>
-      <c r="C146" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D146" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E146" t="n">
         <v>8.1</v>
       </c>
-      <c r="E146" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F146" t="inlineStr"/>
+      <c r="F146" t="n">
+        <v>6.5</v>
+      </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="n">
-        <v>7.12</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="147">
@@ -3851,22 +3865,26 @@
         <v>190</v>
       </c>
       <c r="B150" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C150" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D150" t="n">
         <v>7.3</v>
       </c>
-      <c r="C150" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="D150" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E150" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F150" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G150" t="n">
         <v>5.9</v>
       </c>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="n">
-        <v>6.7</v>
+        <v>6.62</v>
       </c>
     </row>
     <row r="151">
@@ -5798,22 +5816,24 @@
         <v>291</v>
       </c>
       <c r="B233" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="C233" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D233" t="n">
         <v>7.2</v>
       </c>
-      <c r="D233" t="n">
+      <c r="E233" t="n">
         <v>7.6</v>
       </c>
-      <c r="E233" t="n">
+      <c r="F233" t="n">
         <v>7.3</v>
       </c>
-      <c r="F233" t="inlineStr"/>
       <c r="G233" t="inlineStr"/>
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="n">
-        <v>7.15</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="234">
@@ -7383,22 +7403,24 @@
         <v>359</v>
       </c>
       <c r="B296" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C296" t="n">
         <v>7.5</v>
       </c>
-      <c r="C296" t="n">
+      <c r="D296" t="n">
         <v>7.3</v>
       </c>
-      <c r="D296" t="n">
+      <c r="E296" t="n">
         <v>7.9</v>
       </c>
-      <c r="E296" t="n">
+      <c r="F296" t="n">
         <v>7.3</v>
       </c>
-      <c r="F296" t="inlineStr"/>
       <c r="G296" t="inlineStr"/>
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="n">
-        <v>7.5</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="297">
@@ -8100,28 +8122,28 @@
         <v>387</v>
       </c>
       <c r="B323" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="C323" t="n">
         <v>8.6</v>
       </c>
-      <c r="C323" t="n">
+      <c r="D323" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="D323" t="n">
+      <c r="E323" t="n">
         <v>7.7</v>
       </c>
-      <c r="E323" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F323" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="G323" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H323" t="n">
         <v>8</v>
       </c>
-      <c r="H323" t="n">
-        <v>7</v>
-      </c>
       <c r="I323" t="n">
-        <v>7.67</v>
+        <v>7.83</v>
       </c>
     </row>
     <row r="324">
@@ -8332,7 +8354,7 @@
         <v>397</v>
       </c>
       <c r="B333" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="C333" t="n">
         <v>8.800000000000001</v>
@@ -8353,7 +8375,7 @@
         <v>6.4</v>
       </c>
       <c r="I333" t="n">
-        <v>7.2</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="334">
@@ -8719,7 +8741,7 @@
         <v>412</v>
       </c>
       <c r="B348" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="C348" t="n">
         <v>8.199999999999999</v>
@@ -8740,7 +8762,7 @@
         <v>6.8</v>
       </c>
       <c r="I348" t="n">
-        <v>7.5</v>
+        <v>7.49</v>
       </c>
     </row>
     <row r="349">

--- a/players_ratings.xlsx
+++ b/players_ratings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I361"/>
+  <dimension ref="A1:I365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -624,26 +624,28 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
         <v>6.1</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>5.8</v>
       </c>
-      <c r="F9" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G9" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
+        <v>6.8</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6.4</v>
+      </c>
       <c r="I9" t="n">
-        <v>6.42</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="10">
@@ -864,28 +866,28 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C19" t="n">
         <v>6.3</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>7.7</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>8.1</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>6.2</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>7.2</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>7.7</v>
       </c>
-      <c r="H19" t="n">
-        <v>7.1</v>
-      </c>
       <c r="I19" t="n">
-        <v>7.19</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="20">
@@ -948,12 +950,14 @@
         <v>6.7</v>
       </c>
       <c r="C22" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="D22" t="n">
-        <v>7</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
+        <v>6.4</v>
+      </c>
+      <c r="E22" t="n">
+        <v>7</v>
+      </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
@@ -1073,26 +1077,28 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="C28" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="D28" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="E28" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="F28" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G28" t="n">
         <v>7.1</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>7.5</v>
       </c>
-      <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>6.87</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="29">
@@ -1129,26 +1135,28 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C30" t="n">
         <v>5.5</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>7.1</v>
       </c>
-      <c r="D30" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E30" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="F30" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G30" t="n">
         <v>3.3</v>
       </c>
-      <c r="G30" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="H30" t="inlineStr"/>
+      <c r="H30" t="n">
+        <v>6.9</v>
+      </c>
       <c r="I30" t="n">
-        <v>6.05</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="31">
@@ -1173,28 +1181,28 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C32" t="n">
         <v>8.1</v>
       </c>
-      <c r="C32" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D32" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E32" t="n">
         <v>6</v>
       </c>
-      <c r="E32" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F32" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G32" t="n">
         <v>7.2</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>6</v>
       </c>
-      <c r="H32" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I32" t="n">
-        <v>6.76</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="33">
@@ -1227,28 +1235,28 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C34" t="n">
         <v>6.2</v>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>7.2</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>6.1</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>7.7</v>
       </c>
-      <c r="F34" t="n">
-        <v>6.4</v>
-      </c>
       <c r="G34" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H34" t="n">
         <v>6.2</v>
       </c>
-      <c r="H34" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I34" t="n">
-        <v>6.63</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="35">
@@ -1302,20 +1310,22 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
+        <v>7</v>
+      </c>
+      <c r="C37" t="n">
         <v>7.9</v>
       </c>
-      <c r="C37" t="n">
+      <c r="D37" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="D37" t="n">
-        <v>7</v>
-      </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>7</v>
+      </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>7.7</v>
+        <v>7.52</v>
       </c>
     </row>
     <row r="38">
@@ -1362,24 +1372,26 @@
         <v>51</v>
       </c>
       <c r="B41" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="C41" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="D41" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="E41" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F41" t="n">
         <v>7.3</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
-        <v>7.2</v>
+        <v>7.05</v>
       </c>
     </row>
     <row r="42">
@@ -1480,7 +1492,7 @@
         <v>57</v>
       </c>
       <c r="B47" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="C47" t="n">
         <v>6.5</v>
@@ -1489,15 +1501,17 @@
         <v>6.5</v>
       </c>
       <c r="E47" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="F47" t="n">
         <v>6.7</v>
       </c>
-      <c r="G47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>6.7</v>
+      </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="n">
-        <v>6.58</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="48">
@@ -1772,14 +1786,16 @@
         <v>7.4</v>
       </c>
       <c r="D59" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E59" t="n">
         <v>7.6</v>
       </c>
-      <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="n">
-        <v>7.47</v>
+        <v>7.45</v>
       </c>
     </row>
     <row r="60">
@@ -1787,28 +1803,28 @@
         <v>81</v>
       </c>
       <c r="B60" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="C60" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="D60" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E60" t="n">
         <v>7.5</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>7.1</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>7.2</v>
       </c>
-      <c r="G60" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H60" t="n">
-        <v>8.1</v>
+        <v>6.5</v>
       </c>
       <c r="I60" t="n">
-        <v>7.16</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="61">
@@ -1976,28 +1992,28 @@
         <v>94</v>
       </c>
       <c r="B69" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C69" t="n">
         <v>7.8</v>
       </c>
-      <c r="C69" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D69" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E69" t="n">
         <v>7.7</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>5.9</v>
       </c>
-      <c r="F69" t="n">
-        <v>6.4</v>
-      </c>
       <c r="G69" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="H69" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="I69" t="n">
-        <v>6.84</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="70">
@@ -2005,28 +2021,28 @@
         <v>95</v>
       </c>
       <c r="B70" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="C70" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="D70" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="E70" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="F70" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="G70" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="H70" t="n">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
       <c r="I70" t="n">
-        <v>6.77</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="71">
@@ -2128,28 +2144,28 @@
         <v>101</v>
       </c>
       <c r="B75" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="C75" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="D75" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E75" t="n">
         <v>6.3</v>
       </c>
-      <c r="E75" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F75" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="G75" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="H75" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="I75" t="n">
-        <v>6.6</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="76">
@@ -2241,28 +2257,28 @@
         <v>106</v>
       </c>
       <c r="B80" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C80" t="n">
         <v>7.5</v>
       </c>
-      <c r="C80" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D80" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E80" t="n">
         <v>7.4</v>
       </c>
-      <c r="E80" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F80" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G80" t="n">
         <v>7.2</v>
       </c>
-      <c r="G80" t="n">
-        <v>7</v>
-      </c>
       <c r="H80" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="I80" t="n">
-        <v>6.97</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="81">
@@ -2337,28 +2353,28 @@
         <v>111</v>
       </c>
       <c r="B84" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C84" t="n">
         <v>7.3</v>
       </c>
-      <c r="C84" t="n">
+      <c r="D84" t="n">
         <v>7.1</v>
       </c>
-      <c r="D84" t="n">
+      <c r="E84" t="n">
         <v>6.1</v>
       </c>
-      <c r="E84" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F84" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G84" t="n">
         <v>7.6</v>
       </c>
-      <c r="G84" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H84" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="I84" t="n">
-        <v>6.91</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="85">
@@ -2379,28 +2395,28 @@
         <v>113</v>
       </c>
       <c r="B86" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="C86" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D86" t="n">
         <v>6.3</v>
       </c>
-      <c r="D86" t="n">
+      <c r="E86" t="n">
         <v>7.1</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>7.3</v>
       </c>
-      <c r="F86" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G86" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H86" t="n">
         <v>6.3</v>
       </c>
-      <c r="H86" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I86" t="n">
-        <v>6.7</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="87">
@@ -2424,25 +2440,25 @@
         <v>6</v>
       </c>
       <c r="C88" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="E88" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="F88" t="n">
         <v>6.8</v>
       </c>
       <c r="G88" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="H88" t="n">
         <v>6.6</v>
       </c>
       <c r="I88" t="n">
-        <v>6.56</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="89">
@@ -2463,28 +2479,28 @@
         <v>117</v>
       </c>
       <c r="B90" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="C90" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="D90" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="E90" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="F90" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="G90" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="H90" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="I90" t="n">
-        <v>6.66</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="91">
@@ -2736,28 +2752,28 @@
         <v>132</v>
       </c>
       <c r="B103" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C103" t="n">
         <v>7.4</v>
       </c>
-      <c r="C103" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D103" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E103" t="n">
         <v>6.2</v>
       </c>
-      <c r="E103" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F103" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="G103" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H103" t="n">
         <v>7.8</v>
       </c>
-      <c r="H103" t="n">
-        <v>7.6</v>
-      </c>
       <c r="I103" t="n">
-        <v>6.99</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="104">
@@ -2826,25 +2842,25 @@
         <v>6.6</v>
       </c>
       <c r="C106" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D106" t="n">
         <v>7.2</v>
       </c>
-      <c r="D106" t="n">
+      <c r="E106" t="n">
         <v>7.5</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
         <v>7.3</v>
       </c>
-      <c r="F106" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G106" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H106" t="n">
         <v>7.3</v>
       </c>
-      <c r="H106" t="n">
-        <v>7.1</v>
-      </c>
       <c r="I106" t="n">
-        <v>7.07</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107">
@@ -2852,22 +2868,24 @@
         <v>136</v>
       </c>
       <c r="B107" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C107" t="n">
         <v>7.1</v>
       </c>
-      <c r="C107" t="n">
+      <c r="D107" t="n">
         <v>6.3</v>
       </c>
-      <c r="D107" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E107" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="F107" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="F107" t="n">
+        <v>6.6</v>
+      </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="n">
-        <v>6.62</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="108">
@@ -2951,25 +2969,25 @@
         <v>143</v>
       </c>
       <c r="B112" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C112" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="D112" t="n">
         <v>6.2</v>
       </c>
       <c r="E112" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="F112" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="G112" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="H112" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="I112" t="n">
         <v>6.51</v>
@@ -3032,28 +3050,28 @@
         <v>146</v>
       </c>
       <c r="B115" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="C115" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D115" t="n">
         <v>7.1</v>
       </c>
-      <c r="D115" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E115" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="F115" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G115" t="n">
         <v>7.9</v>
       </c>
-      <c r="G115" t="n">
-        <v>7</v>
-      </c>
       <c r="H115" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="I115" t="n">
-        <v>6.91</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="116">
@@ -3061,28 +3079,28 @@
         <v>147</v>
       </c>
       <c r="B116" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="C116" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="D116" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="E116" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="F116" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G116" t="n">
         <v>7.4</v>
       </c>
-      <c r="G116" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H116" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="I116" t="n">
-        <v>6.77</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="117">
@@ -3103,24 +3121,26 @@
         <v>149</v>
       </c>
       <c r="B118" t="n">
-        <v>6.4</v>
+        <v>7.3</v>
       </c>
       <c r="C118" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D118" t="n">
         <v>7.3</v>
       </c>
-      <c r="D118" t="n">
-        <v>6.4</v>
-      </c>
       <c r="E118" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F118" t="n">
         <v>7.8</v>
       </c>
-      <c r="F118" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="G118" t="inlineStr"/>
+      <c r="G118" t="n">
+        <v>6.4</v>
+      </c>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="n">
-        <v>6.86</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="119">
@@ -3128,28 +3148,28 @@
         <v>150</v>
       </c>
       <c r="B119" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="C119" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="D119" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E119" t="n">
         <v>6.3</v>
       </c>
-      <c r="E119" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F119" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="G119" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="H119" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="I119" t="n">
-        <v>6.77</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="120">
@@ -3796,26 +3816,28 @@
         <v>186</v>
       </c>
       <c r="B147" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="C147" t="n">
         <v>7.4</v>
       </c>
-      <c r="C147" t="n">
+      <c r="D147" t="n">
         <v>8</v>
       </c>
-      <c r="D147" t="n">
+      <c r="E147" t="n">
         <v>5.1</v>
       </c>
-      <c r="E147" t="n">
+      <c r="F147" t="n">
         <v>7.4</v>
       </c>
-      <c r="F147" t="n">
+      <c r="G147" t="n">
         <v>10</v>
       </c>
-      <c r="G147" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H147" t="inlineStr"/>
+      <c r="H147" t="n">
+        <v>6.4</v>
+      </c>
       <c r="I147" t="n">
-        <v>7.38</v>
+        <v>7.53</v>
       </c>
     </row>
     <row r="148">
@@ -3922,23 +3944,25 @@
         <v>6.9</v>
       </c>
       <c r="C152" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D152" t="n">
         <v>7.4</v>
       </c>
-      <c r="D152" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E152" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F152" t="n">
         <v>6.1</v>
       </c>
-      <c r="F152" t="n">
-        <v>6.4</v>
-      </c>
       <c r="G152" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H152" t="n">
         <v>7.2</v>
       </c>
-      <c r="H152" t="inlineStr"/>
       <c r="I152" t="n">
-        <v>6.82</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="153">
@@ -3992,26 +4016,28 @@
         <v>195</v>
       </c>
       <c r="B155" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C155" t="n">
         <v>6.3</v>
       </c>
-      <c r="C155" t="n">
+      <c r="D155" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="D155" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E155" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="F155" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G155" t="n">
         <v>7.2</v>
       </c>
-      <c r="G155" t="n">
+      <c r="H155" t="n">
         <v>7.1</v>
       </c>
-      <c r="H155" t="inlineStr"/>
       <c r="I155" t="n">
-        <v>7.1</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="156">
@@ -4090,24 +4116,26 @@
         <v>199</v>
       </c>
       <c r="B159" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C159" t="n">
         <v>6.1</v>
       </c>
-      <c r="C159" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D159" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E159" t="n">
         <v>7.5</v>
       </c>
-      <c r="E159" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F159" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="G159" t="inlineStr"/>
+        <v>6.6</v>
+      </c>
+      <c r="G159" t="n">
+        <v>6.8</v>
+      </c>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="n">
-        <v>6.7</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="160">
@@ -4211,28 +4239,28 @@
         <v>206</v>
       </c>
       <c r="B164" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C164" t="n">
         <v>7.3</v>
       </c>
-      <c r="C164" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D164" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="E164" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="F164" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G164" t="n">
         <v>6.2</v>
       </c>
-      <c r="G164" t="n">
-        <v>7</v>
-      </c>
       <c r="H164" t="n">
         <v>7</v>
       </c>
       <c r="I164" t="n">
-        <v>6.76</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="165">
@@ -4286,26 +4314,28 @@
         <v>209</v>
       </c>
       <c r="B167" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C167" t="n">
         <v>7.4</v>
       </c>
-      <c r="C167" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D167" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="E167" t="n">
         <v>7.3</v>
       </c>
       <c r="F167" t="n">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="G167" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="H167" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="H167" t="n">
+        <v>6.7</v>
+      </c>
       <c r="I167" t="n">
-        <v>7.02</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="168">
@@ -4326,28 +4356,28 @@
         <v>211</v>
       </c>
       <c r="B169" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C169" t="n">
         <v>7.3</v>
       </c>
-      <c r="C169" t="n">
+      <c r="D169" t="n">
         <v>7.2</v>
       </c>
-      <c r="D169" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E169" t="n">
         <v>6.6</v>
       </c>
       <c r="F169" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="G169" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="H169" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="I169" t="n">
-        <v>6.79</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="170">
@@ -4401,28 +4431,28 @@
         <v>214</v>
       </c>
       <c r="B172" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="C172" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="D172" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="E172" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="F172" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G172" t="n">
         <v>6.3</v>
       </c>
-      <c r="G172" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H172" t="n">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="I172" t="n">
-        <v>6.59</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="173">
@@ -4443,16 +4473,16 @@
         <v>216</v>
       </c>
       <c r="B174" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C174" t="n">
         <v>7.4</v>
       </c>
-      <c r="C174" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D174" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="E174" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="F174" t="n">
         <v>6.4</v>
@@ -4461,10 +4491,10 @@
         <v>6.4</v>
       </c>
       <c r="H174" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="I174" t="n">
-        <v>6.67</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="175">
@@ -4472,28 +4502,28 @@
         <v>217</v>
       </c>
       <c r="B175" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="C175" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="D175" t="n">
+        <v>7</v>
+      </c>
+      <c r="E175" t="n">
         <v>7.5</v>
       </c>
-      <c r="E175" t="n">
+      <c r="F175" t="n">
         <v>7.1</v>
       </c>
-      <c r="F175" t="n">
-        <v>7</v>
-      </c>
       <c r="G175" t="n">
+        <v>7</v>
+      </c>
+      <c r="H175" t="n">
         <v>7.3</v>
       </c>
-      <c r="H175" t="n">
-        <v>7</v>
-      </c>
       <c r="I175" t="n">
-        <v>7.06</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="176">
@@ -4533,25 +4563,25 @@
         <v>6.9</v>
       </c>
       <c r="C177" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D177" t="n">
         <v>7.3</v>
       </c>
-      <c r="D177" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E177" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="F177" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="G177" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H177" t="n">
         <v>7.3</v>
       </c>
-      <c r="H177" t="n">
-        <v>6</v>
-      </c>
       <c r="I177" t="n">
-        <v>6.81</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="178">
@@ -4576,18 +4606,20 @@
         <v>221</v>
       </c>
       <c r="B179" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C179" t="n">
         <v>7.6</v>
       </c>
-      <c r="C179" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="D179" t="inlineStr"/>
+      <c r="D179" t="n">
+        <v>6.8</v>
+      </c>
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="n">
-        <v>7.2</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="180">
@@ -4653,28 +4685,28 @@
         <v>224</v>
       </c>
       <c r="B182" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C182" t="n">
         <v>7.3</v>
       </c>
-      <c r="C182" t="n">
-        <v>6.8</v>
-      </c>
       <c r="D182" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="E182" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="F182" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="G182" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H182" t="n">
         <v>7.2</v>
       </c>
-      <c r="H182" t="n">
-        <v>7.3</v>
-      </c>
       <c r="I182" t="n">
-        <v>6.97</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="183">
@@ -4682,28 +4714,28 @@
         <v>225</v>
       </c>
       <c r="B183" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="C183" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D183" t="n">
         <v>6.1</v>
       </c>
-      <c r="D183" t="n">
+      <c r="E183" t="n">
         <v>7.4</v>
       </c>
-      <c r="E183" t="n">
+      <c r="F183" t="n">
         <v>7.3</v>
       </c>
-      <c r="F183" t="n">
+      <c r="G183" t="n">
         <v>7.5</v>
       </c>
-      <c r="G183" t="n">
-        <v>6.8</v>
-      </c>
       <c r="H183" t="n">
-        <v>7.7</v>
+        <v>6.8</v>
       </c>
       <c r="I183" t="n">
-        <v>7.04</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="184">
@@ -4740,28 +4772,28 @@
         <v>227</v>
       </c>
       <c r="B185" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="C185" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="D185" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="E185" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F185" t="n">
         <v>6.2</v>
       </c>
-      <c r="F185" t="n">
-        <v>6.4</v>
-      </c>
       <c r="G185" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="H185" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="I185" t="n">
-        <v>6.47</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="186">
@@ -4769,28 +4801,28 @@
         <v>228</v>
       </c>
       <c r="B186" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="C186" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D186" t="n">
         <v>7.2</v>
       </c>
-      <c r="D186" t="n">
+      <c r="E186" t="n">
         <v>8.4</v>
       </c>
-      <c r="E186" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F186" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="G186" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H186" t="n">
         <v>8</v>
       </c>
-      <c r="H186" t="n">
-        <v>7.1</v>
-      </c>
       <c r="I186" t="n">
-        <v>7.3</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="187">
@@ -4870,28 +4902,28 @@
         <v>236</v>
       </c>
       <c r="B191" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C191" t="n">
         <v>7.6</v>
       </c>
-      <c r="C191" t="n">
+      <c r="D191" t="n">
         <v>7.8</v>
       </c>
-      <c r="D191" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E191" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="F191" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G191" t="n">
         <v>7.9</v>
       </c>
-      <c r="G191" t="n">
+      <c r="H191" t="n">
         <v>7.1</v>
       </c>
-      <c r="H191" t="n">
-        <v>7.6</v>
-      </c>
       <c r="I191" t="n">
-        <v>7.37</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="192">
@@ -4899,28 +4931,28 @@
         <v>237</v>
       </c>
       <c r="B192" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C192" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="C192" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D192" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E192" t="n">
         <v>7.2</v>
       </c>
-      <c r="E192" t="n">
+      <c r="F192" t="n">
         <v>7.3</v>
       </c>
-      <c r="F192" t="n">
+      <c r="G192" t="n">
         <v>7.7</v>
       </c>
-      <c r="G192" t="n">
-        <v>6.8</v>
-      </c>
       <c r="H192" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="I192" t="n">
-        <v>7.23</v>
+        <v>7.19</v>
       </c>
     </row>
     <row r="193">
@@ -5082,26 +5114,28 @@
         <v>247</v>
       </c>
       <c r="B201" t="n">
-        <v>6.9</v>
+        <v>7.7</v>
       </c>
       <c r="C201" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D201" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="D201" t="n">
+      <c r="E201" t="n">
         <v>6.2</v>
       </c>
-      <c r="E201" t="n">
+      <c r="F201" t="n">
         <v>7.7</v>
       </c>
-      <c r="F201" t="n">
+      <c r="G201" t="n">
         <v>7.5</v>
       </c>
-      <c r="G201" t="n">
+      <c r="H201" t="n">
         <v>7.2</v>
       </c>
-      <c r="H201" t="inlineStr"/>
       <c r="I201" t="n">
-        <v>7.28</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="202">
@@ -5141,20 +5175,22 @@
         <v>252</v>
       </c>
       <c r="B204" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="C204" t="n">
         <v>7.2</v>
       </c>
-      <c r="C204" t="n">
+      <c r="D204" t="n">
         <v>7.6</v>
       </c>
-      <c r="D204" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="E204" t="inlineStr"/>
+      <c r="E204" t="n">
+        <v>6.7</v>
+      </c>
       <c r="F204" t="inlineStr"/>
       <c r="G204" t="inlineStr"/>
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="n">
-        <v>7.17</v>
+        <v>7.48</v>
       </c>
     </row>
     <row r="205">
@@ -5253,18 +5289,20 @@
         <v>259</v>
       </c>
       <c r="B210" t="n">
+        <v>7</v>
+      </c>
+      <c r="C210" t="n">
         <v>7.3</v>
       </c>
-      <c r="C210" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="D210" t="inlineStr"/>
+      <c r="D210" t="n">
+        <v>6.6</v>
+      </c>
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="n">
-        <v>6.95</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="211">
@@ -5272,22 +5310,24 @@
         <v>260</v>
       </c>
       <c r="B211" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C211" t="n">
         <v>7.2</v>
       </c>
-      <c r="C211" t="n">
+      <c r="D211" t="n">
         <v>7.4</v>
       </c>
-      <c r="D211" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E211" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F211" t="n">
         <v>6.2</v>
       </c>
-      <c r="F211" t="inlineStr"/>
       <c r="G211" t="inlineStr"/>
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="n">
-        <v>6.92</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="212">
@@ -5344,26 +5384,28 @@
         <v>267</v>
       </c>
       <c r="B215" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C215" t="n">
         <v>6.2</v>
       </c>
-      <c r="C215" t="n">
+      <c r="D215" t="n">
         <v>7.8</v>
       </c>
-      <c r="D215" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E215" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F215" t="n">
         <v>7.1</v>
       </c>
-      <c r="F215" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G215" t="n">
         <v>6.9</v>
       </c>
-      <c r="H215" t="inlineStr"/>
+      <c r="H215" t="n">
+        <v>6.9</v>
+      </c>
       <c r="I215" t="n">
-        <v>6.95</v>
+        <v>7</v>
       </c>
     </row>
     <row r="216">
@@ -5371,22 +5413,24 @@
         <v>273</v>
       </c>
       <c r="B216" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="C216" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="D216" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="E216" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="F216" t="inlineStr"/>
+        <v>6.6</v>
+      </c>
+      <c r="F216" t="n">
+        <v>6.4</v>
+      </c>
       <c r="G216" t="inlineStr"/>
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="n">
-        <v>6.5</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="217">
@@ -5394,24 +5438,26 @@
         <v>274</v>
       </c>
       <c r="B217" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C217" t="n">
         <v>5.7</v>
       </c>
-      <c r="C217" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D217" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="E217" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="F217" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="G217" t="inlineStr"/>
+        <v>6.4</v>
+      </c>
+      <c r="G217" t="n">
+        <v>6.7</v>
+      </c>
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="n">
-        <v>6.44</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="218">
@@ -5448,25 +5494,25 @@
         <v>276</v>
       </c>
       <c r="B219" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="C219" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D219" t="n">
         <v>7.9</v>
       </c>
-      <c r="D219" t="n">
+      <c r="E219" t="n">
         <v>6.2</v>
-      </c>
-      <c r="E219" t="n">
-        <v>7.1</v>
       </c>
       <c r="F219" t="n">
         <v>7.1</v>
       </c>
       <c r="G219" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="H219" t="n">
         <v>6.3</v>
-      </c>
-      <c r="H219" t="n">
-        <v>7.5</v>
       </c>
       <c r="I219" t="n">
         <v>6.96</v>
@@ -5477,16 +5523,18 @@
         <v>277</v>
       </c>
       <c r="B220" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="C220" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="C220" t="n">
+        <v>6.4</v>
+      </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="n">
-        <v>6.4</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="221">
@@ -5494,28 +5542,28 @@
         <v>278</v>
       </c>
       <c r="B221" t="n">
+        <v>7</v>
+      </c>
+      <c r="C221" t="n">
         <v>7.3</v>
       </c>
-      <c r="C221" t="n">
+      <c r="D221" t="n">
         <v>7.2</v>
       </c>
-      <c r="D221" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E221" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="F221" t="n">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="G221" t="n">
         <v>7.2</v>
       </c>
       <c r="H221" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="I221" t="n">
-        <v>7.1</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="222">
@@ -5581,24 +5629,16 @@
         <v>281</v>
       </c>
       <c r="B224" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="C224" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="D224" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="E224" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="F224" t="n">
-        <v>8</v>
-      </c>
+        <v>6.8</v>
+      </c>
+      <c r="C224" t="inlineStr"/>
+      <c r="D224" t="inlineStr"/>
+      <c r="E224" t="inlineStr"/>
+      <c r="F224" t="inlineStr"/>
       <c r="G224" t="inlineStr"/>
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="n">
-        <v>6.86</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="225">
@@ -5654,28 +5694,28 @@
         <v>285</v>
       </c>
       <c r="B227" t="n">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="C227" t="n">
         <v>7.4</v>
       </c>
       <c r="D227" t="n">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="E227" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="F227" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G227" t="n">
         <v>8</v>
       </c>
-      <c r="G227" t="n">
+      <c r="H227" t="n">
         <v>7.5</v>
       </c>
-      <c r="H227" t="n">
-        <v>7.3</v>
-      </c>
       <c r="I227" t="n">
-        <v>7.24</v>
+        <v>7.19</v>
       </c>
     </row>
     <row r="228">
@@ -5683,28 +5723,28 @@
         <v>286</v>
       </c>
       <c r="B228" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C228" t="n">
         <v>7.2</v>
       </c>
-      <c r="C228" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D228" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E228" t="n">
         <v>6.2</v>
       </c>
-      <c r="E228" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F228" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G228" t="n">
         <v>7.8</v>
       </c>
-      <c r="G228" t="n">
+      <c r="H228" t="n">
         <v>8.4</v>
       </c>
-      <c r="H228" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I228" t="n">
-        <v>7.1</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="229">
@@ -5747,20 +5787,22 @@
         <v>6.7</v>
       </c>
       <c r="D230" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E230" t="n">
         <v>6.1</v>
       </c>
-      <c r="E230" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F230" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G230" t="n">
         <v>6.3</v>
       </c>
-      <c r="G230" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H230" t="inlineStr"/>
+      <c r="H230" t="n">
+        <v>6.5</v>
+      </c>
       <c r="I230" t="n">
-        <v>6.52</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="231">
@@ -5768,26 +5810,28 @@
         <v>289</v>
       </c>
       <c r="B231" t="n">
-        <v>6.5</v>
+        <v>8.1</v>
       </c>
       <c r="C231" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D231" t="n">
         <v>7.6</v>
       </c>
-      <c r="D231" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E231" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="F231" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G231" t="n">
         <v>7.6</v>
       </c>
-      <c r="G231" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H231" t="inlineStr"/>
+      <c r="H231" t="n">
+        <v>6.5</v>
+      </c>
       <c r="I231" t="n">
-        <v>6.98</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="232">
@@ -5795,20 +5839,22 @@
         <v>290</v>
       </c>
       <c r="B232" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C232" t="n">
         <v>7.5</v>
       </c>
-      <c r="C232" t="n">
+      <c r="D232" t="n">
         <v>6.2</v>
       </c>
-      <c r="D232" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="E232" t="inlineStr"/>
+      <c r="E232" t="n">
+        <v>6.9</v>
+      </c>
       <c r="F232" t="inlineStr"/>
       <c r="G232" t="inlineStr"/>
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="n">
-        <v>6.87</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="233">
@@ -5841,20 +5887,22 @@
         <v>292</v>
       </c>
       <c r="B234" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="C234" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="D234" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="E234" t="inlineStr"/>
+        <v>6.6</v>
+      </c>
+      <c r="E234" t="n">
+        <v>6.7</v>
+      </c>
       <c r="F234" t="inlineStr"/>
       <c r="G234" t="inlineStr"/>
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="n">
-        <v>6.57</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="235">
@@ -5862,28 +5910,28 @@
         <v>293</v>
       </c>
       <c r="B235" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="C235" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D235" t="n">
         <v>7.1</v>
       </c>
-      <c r="D235" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E235" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F235" t="n">
         <v>7.3</v>
       </c>
-      <c r="F235" t="n">
+      <c r="G235" t="n">
         <v>7.2</v>
       </c>
-      <c r="G235" t="n">
+      <c r="H235" t="n">
         <v>7.4</v>
       </c>
-      <c r="H235" t="n">
-        <v>7.5</v>
-      </c>
       <c r="I235" t="n">
-        <v>7.17</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="236">
@@ -5912,26 +5960,28 @@
         <v>295</v>
       </c>
       <c r="B237" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C237" t="n">
         <v>6.3</v>
       </c>
-      <c r="C237" t="n">
-        <v>7</v>
-      </c>
       <c r="D237" t="n">
+        <v>7</v>
+      </c>
+      <c r="E237" t="n">
         <v>7.4</v>
       </c>
-      <c r="E237" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F237" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="G237" t="n">
+        <v>7</v>
+      </c>
+      <c r="H237" t="n">
         <v>7.4</v>
       </c>
-      <c r="H237" t="inlineStr"/>
       <c r="I237" t="n">
-        <v>7</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="238">
@@ -5941,7 +5991,9 @@
       <c r="B238" t="n">
         <v>6.4</v>
       </c>
-      <c r="C238" t="inlineStr"/>
+      <c r="C238" t="n">
+        <v>6.4</v>
+      </c>
       <c r="D238" t="inlineStr"/>
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="inlineStr"/>
@@ -5956,24 +6008,26 @@
         <v>298</v>
       </c>
       <c r="B239" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C239" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="D239" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="E239" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="F239" t="n">
         <v>7.1</v>
       </c>
-      <c r="G239" t="inlineStr"/>
+      <c r="G239" t="n">
+        <v>7.1</v>
+      </c>
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="n">
-        <v>6.76</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="240">
@@ -5981,28 +6035,28 @@
         <v>299</v>
       </c>
       <c r="B240" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C240" t="n">
         <v>7.9</v>
       </c>
-      <c r="C240" t="n">
-        <v>7</v>
-      </c>
       <c r="D240" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="E240" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F240" t="n">
         <v>7.7</v>
       </c>
-      <c r="F240" t="n">
-        <v>6.4</v>
-      </c>
       <c r="G240" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H240" t="n">
         <v>6.3</v>
       </c>
-      <c r="H240" t="n">
-        <v>5.8</v>
-      </c>
       <c r="I240" t="n">
-        <v>6.84</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="241">
@@ -6010,28 +6064,28 @@
         <v>300</v>
       </c>
       <c r="B241" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="C241" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D241" t="n">
         <v>7.2</v>
       </c>
-      <c r="D241" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E241" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F241" t="n">
         <v>7.1</v>
       </c>
-      <c r="F241" t="n">
+      <c r="G241" t="n">
         <v>7.6</v>
       </c>
-      <c r="G241" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H241" t="n">
-        <v>8.4</v>
+        <v>6.7</v>
       </c>
       <c r="I241" t="n">
-        <v>7.23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="242">
@@ -6068,28 +6122,28 @@
         <v>302</v>
       </c>
       <c r="B243" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="C243" t="n">
         <v>5.8</v>
       </c>
-      <c r="C243" t="n">
+      <c r="D243" t="n">
         <v>7.9</v>
       </c>
-      <c r="D243" t="n">
+      <c r="E243" t="n">
         <v>7.5</v>
       </c>
-      <c r="E243" t="n">
+      <c r="F243" t="n">
         <v>4.8</v>
       </c>
-      <c r="F243" t="n">
+      <c r="G243" t="n">
         <v>7.3</v>
       </c>
-      <c r="G243" t="n">
+      <c r="H243" t="n">
         <v>7.2</v>
       </c>
-      <c r="H243" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="I243" t="n">
-        <v>6.96</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="244">
@@ -6116,26 +6170,28 @@
         <v>305</v>
       </c>
       <c r="B245" t="n">
-        <v>6.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C245" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D245" t="n">
         <v>6.3</v>
       </c>
-      <c r="D245" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E245" t="n">
         <v>6.8</v>
       </c>
       <c r="F245" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G245" t="n">
         <v>7.4</v>
       </c>
-      <c r="G245" t="n">
+      <c r="H245" t="n">
         <v>6.3</v>
       </c>
-      <c r="H245" t="inlineStr"/>
       <c r="I245" t="n">
-        <v>6.7</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="246">
@@ -6143,28 +6199,28 @@
         <v>306</v>
       </c>
       <c r="B246" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="C246" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="D246" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E246" t="n">
         <v>7.9</v>
       </c>
-      <c r="E246" t="n">
+      <c r="F246" t="n">
         <v>8</v>
       </c>
-      <c r="F246" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G246" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H246" t="n">
         <v>6.3</v>
       </c>
-      <c r="H246" t="n">
-        <v>7.6</v>
-      </c>
       <c r="I246" t="n">
-        <v>7.06</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="247">
@@ -6172,28 +6228,28 @@
         <v>307</v>
       </c>
       <c r="B247" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C247" t="n">
         <v>7.2</v>
       </c>
-      <c r="C247" t="n">
-        <v>6.8</v>
-      </c>
       <c r="D247" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="E247" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="F247" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="G247" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H247" t="n">
         <v>6.3</v>
       </c>
-      <c r="H247" t="n">
-        <v>8.1</v>
-      </c>
       <c r="I247" t="n">
-        <v>6.9</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="248">
@@ -6201,28 +6257,28 @@
         <v>308</v>
       </c>
       <c r="B248" t="n">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="C248" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="D248" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="E248" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="F248" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G248" t="n">
         <v>7.3</v>
       </c>
-      <c r="G248" t="n">
+      <c r="H248" t="n">
         <v>7.9</v>
       </c>
-      <c r="H248" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I248" t="n">
-        <v>6.93</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="249">
@@ -6230,16 +6286,18 @@
         <v>309</v>
       </c>
       <c r="B249" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="C249" t="inlineStr"/>
+        <v>7.7</v>
+      </c>
+      <c r="C249" t="n">
+        <v>6.8</v>
+      </c>
       <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="inlineStr"/>
       <c r="G249" t="inlineStr"/>
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="n">
-        <v>6.8</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="250">
@@ -6247,28 +6305,28 @@
         <v>310</v>
       </c>
       <c r="B250" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C250" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="C250" t="n">
+      <c r="D250" t="n">
         <v>7.4</v>
       </c>
-      <c r="D250" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E250" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F250" t="n">
         <v>5.4</v>
       </c>
-      <c r="F250" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G250" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H250" t="n">
         <v>7.7</v>
       </c>
-      <c r="H250" t="n">
-        <v>7.8</v>
-      </c>
       <c r="I250" t="n">
-        <v>7.13</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="251">
@@ -6305,22 +6363,24 @@
         <v>312</v>
       </c>
       <c r="B252" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="C252" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="D252" t="n">
         <v>6.8</v>
       </c>
       <c r="E252" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="F252" t="inlineStr"/>
+        <v>6.8</v>
+      </c>
+      <c r="F252" t="n">
+        <v>6.4</v>
+      </c>
       <c r="G252" t="inlineStr"/>
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="n">
-        <v>6.65</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="253">
@@ -6328,28 +6388,28 @@
         <v>313</v>
       </c>
       <c r="B253" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="C253" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D253" t="n">
         <v>7.6</v>
       </c>
-      <c r="D253" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E253" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F253" t="n">
         <v>6.2</v>
       </c>
-      <c r="F253" t="n">
-        <v>7</v>
-      </c>
       <c r="G253" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H253" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="I253" t="n">
-        <v>6.7</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="254">
@@ -6357,22 +6417,24 @@
         <v>314</v>
       </c>
       <c r="B254" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="C254" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D254" t="n">
         <v>7.4</v>
       </c>
-      <c r="D254" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E254" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="F254" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="F254" t="n">
+        <v>6.7</v>
+      </c>
       <c r="G254" t="inlineStr"/>
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="n">
-        <v>6.88</v>
+        <v>6.78</v>
       </c>
     </row>
     <row r="255">
@@ -6380,12 +6442,14 @@
         <v>315</v>
       </c>
       <c r="B255" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C255" t="n">
         <v>7.3</v>
       </c>
-      <c r="C255" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="D255" t="inlineStr"/>
+      <c r="D255" t="n">
+        <v>6.5</v>
+      </c>
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="inlineStr"/>
       <c r="G255" t="inlineStr"/>
@@ -6399,28 +6463,28 @@
         <v>316</v>
       </c>
       <c r="B256" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="C256" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="D256" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="E256" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F256" t="n">
         <v>6</v>
       </c>
-      <c r="F256" t="n">
+      <c r="G256" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="G256" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H256" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="I256" t="n">
-        <v>6.9</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="257">
@@ -6453,28 +6517,28 @@
         <v>318</v>
       </c>
       <c r="B258" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="C258" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="D258" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="E258" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="F258" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="G258" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H258" t="n">
         <v>6.1</v>
       </c>
-      <c r="H258" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I258" t="n">
-        <v>6.54</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="259">
@@ -6528,28 +6592,28 @@
         <v>321</v>
       </c>
       <c r="B261" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="C261" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D261" t="n">
         <v>7.6</v>
       </c>
-      <c r="D261" t="n">
+      <c r="E261" t="n">
         <v>7.7</v>
       </c>
-      <c r="E261" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F261" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="G261" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="H261" t="n">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="I261" t="n">
-        <v>7.11</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="262">
@@ -6761,28 +6825,28 @@
         <v>332</v>
       </c>
       <c r="B270" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="C270" t="n">
+        <v>7</v>
+      </c>
+      <c r="D270" t="n">
         <v>6.3</v>
       </c>
-      <c r="D270" t="n">
+      <c r="E270" t="n">
         <v>7.7</v>
       </c>
-      <c r="E270" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F270" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G270" t="n">
         <v>7.1</v>
       </c>
-      <c r="G270" t="n">
-        <v>7</v>
-      </c>
       <c r="H270" t="n">
         <v>7</v>
       </c>
       <c r="I270" t="n">
-        <v>7</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="271">
@@ -6815,26 +6879,16 @@
         <v>335</v>
       </c>
       <c r="B272" t="n">
-        <v>7</v>
-      </c>
-      <c r="C272" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="D272" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="E272" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F272" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="G272" t="n">
-        <v>6.7</v>
-      </c>
+        <v>6.7</v>
+      </c>
+      <c r="C272" t="inlineStr"/>
+      <c r="D272" t="inlineStr"/>
+      <c r="E272" t="inlineStr"/>
+      <c r="F272" t="inlineStr"/>
+      <c r="G272" t="inlineStr"/>
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="n">
-        <v>7.13</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="273">
@@ -6842,22 +6896,24 @@
         <v>336</v>
       </c>
       <c r="B273" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C273" t="n">
         <v>7.3</v>
       </c>
-      <c r="C273" t="n">
+      <c r="D273" t="n">
         <v>6</v>
       </c>
-      <c r="D273" t="n">
+      <c r="E273" t="n">
         <v>7.6</v>
       </c>
-      <c r="E273" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="F273" t="inlineStr"/>
+      <c r="F273" t="n">
+        <v>6.4</v>
+      </c>
       <c r="G273" t="inlineStr"/>
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="n">
-        <v>6.82</v>
+        <v>6.78</v>
       </c>
     </row>
     <row r="274">
@@ -6865,26 +6921,28 @@
         <v>337</v>
       </c>
       <c r="B274" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C274" t="n">
         <v>7.2</v>
       </c>
-      <c r="C274" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D274" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E274" t="n">
         <v>8.6</v>
       </c>
-      <c r="E274" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F274" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="G274" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H274" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="H274" t="n">
+        <v>6.4</v>
+      </c>
       <c r="I274" t="n">
-        <v>6.98</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="275">
@@ -6945,18 +7003,20 @@
         <v>341</v>
       </c>
       <c r="B278" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="C278" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="D278" t="inlineStr"/>
+        <v>6.9</v>
+      </c>
+      <c r="D278" t="n">
+        <v>6.5</v>
+      </c>
       <c r="E278" t="inlineStr"/>
       <c r="F278" t="inlineStr"/>
       <c r="G278" t="inlineStr"/>
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="n">
-        <v>6.7</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="279">
@@ -6964,28 +7024,28 @@
         <v>342</v>
       </c>
       <c r="B279" t="n">
-        <v>6.4</v>
+        <v>7.8</v>
       </c>
       <c r="C279" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D279" t="n">
         <v>7.1</v>
       </c>
-      <c r="D279" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E279" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="F279" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="G279" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="H279" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="I279" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="280">
@@ -7014,28 +7074,28 @@
         <v>344</v>
       </c>
       <c r="B281" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C281" t="n">
         <v>7.3</v>
       </c>
-      <c r="C281" t="n">
+      <c r="D281" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="D281" t="n">
+      <c r="E281" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="E281" t="n">
+      <c r="F281" t="n">
         <v>7.3</v>
       </c>
-      <c r="F281" t="n">
+      <c r="G281" t="n">
         <v>7.6</v>
       </c>
-      <c r="G281" t="n">
+      <c r="H281" t="n">
         <v>7.8</v>
       </c>
-      <c r="H281" t="n">
-        <v>6.1</v>
-      </c>
       <c r="I281" t="n">
-        <v>7.51</v>
+        <v>7.73</v>
       </c>
     </row>
     <row r="282">
@@ -7072,28 +7132,28 @@
         <v>346</v>
       </c>
       <c r="B283" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C283" t="n">
         <v>7.4</v>
-      </c>
-      <c r="C283" t="n">
-        <v>7.5</v>
       </c>
       <c r="D283" t="n">
         <v>7.5</v>
       </c>
       <c r="E283" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F283" t="n">
         <v>7.1</v>
       </c>
-      <c r="F283" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G283" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H283" t="n">
         <v>7.7</v>
       </c>
-      <c r="H283" t="n">
-        <v>7.3</v>
-      </c>
       <c r="I283" t="n">
-        <v>7.34</v>
+        <v>7.19</v>
       </c>
     </row>
     <row r="284">
@@ -7130,28 +7190,28 @@
         <v>348</v>
       </c>
       <c r="B285" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="C285" t="n">
         <v>7.2</v>
       </c>
-      <c r="C285" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D285" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E285" t="n">
         <v>7.9</v>
       </c>
-      <c r="E285" t="n">
+      <c r="F285" t="n">
         <v>7.2</v>
       </c>
-      <c r="F285" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G285" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="H285" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="I285" t="n">
-        <v>7</v>
+        <v>7.19</v>
       </c>
     </row>
     <row r="286">
@@ -7265,16 +7325,18 @@
         <v>353</v>
       </c>
       <c r="B290" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="C290" t="inlineStr"/>
+        <v>6.8</v>
+      </c>
+      <c r="C290" t="n">
+        <v>6.5</v>
+      </c>
       <c r="D290" t="inlineStr"/>
       <c r="E290" t="inlineStr"/>
       <c r="F290" t="inlineStr"/>
       <c r="G290" t="inlineStr"/>
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="n">
-        <v>6.5</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="291">
@@ -7565,28 +7627,28 @@
         <v>366</v>
       </c>
       <c r="B302" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C302" t="n">
         <v>7.1</v>
       </c>
-      <c r="C302" t="n">
-        <v>6.8</v>
-      </c>
       <c r="D302" t="n">
         <v>6.8</v>
       </c>
       <c r="E302" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="F302" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G302" t="n">
         <v>7.8</v>
       </c>
-      <c r="G302" t="n">
-        <v>7</v>
-      </c>
       <c r="H302" t="n">
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="I302" t="n">
-        <v>7.14</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="303">
@@ -7594,28 +7656,28 @@
         <v>367</v>
       </c>
       <c r="B303" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C303" t="n">
         <v>7.4</v>
       </c>
-      <c r="C303" t="n">
+      <c r="D303" t="n">
         <v>7.2</v>
       </c>
-      <c r="D303" t="n">
+      <c r="E303" t="n">
         <v>9.4</v>
       </c>
-      <c r="E303" t="n">
+      <c r="F303" t="n">
         <v>7.7</v>
       </c>
-      <c r="F303" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G303" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="H303" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="I303" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="304">
@@ -7623,28 +7685,28 @@
         <v>368</v>
       </c>
       <c r="B304" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C304" t="n">
         <v>7.4</v>
       </c>
-      <c r="C304" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D304" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E304" t="n">
         <v>5.9</v>
       </c>
-      <c r="E304" t="n">
+      <c r="F304" t="n">
         <v>7.2</v>
       </c>
-      <c r="F304" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G304" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="H304" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="I304" t="n">
-        <v>6.7</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="305">
@@ -7704,28 +7766,28 @@
         <v>371</v>
       </c>
       <c r="B307" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="C307" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D307" t="n">
         <v>5.4</v>
       </c>
-      <c r="D307" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E307" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="F307" t="n">
         <v>6.9</v>
       </c>
       <c r="G307" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H307" t="n">
         <v>7.1</v>
       </c>
-      <c r="H307" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I307" t="n">
-        <v>6.59</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="308">
@@ -7781,28 +7843,28 @@
         <v>374</v>
       </c>
       <c r="B310" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="C310" t="n">
         <v>6.8</v>
       </c>
       <c r="D310" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="E310" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F310" t="n">
         <v>6.3</v>
       </c>
-      <c r="F310" t="n">
+      <c r="G310" t="n">
         <v>7.5</v>
       </c>
-      <c r="G310" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H310" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="I310" t="n">
-        <v>6.81</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="311">
@@ -7810,28 +7872,28 @@
         <v>375</v>
       </c>
       <c r="B311" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C311" t="n">
         <v>7.5</v>
       </c>
-      <c r="C311" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D311" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="E311" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F311" t="n">
         <v>7.6</v>
       </c>
-      <c r="F311" t="n">
-        <v>6.4</v>
-      </c>
       <c r="G311" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H311" t="n">
         <v>7.1</v>
       </c>
-      <c r="H311" t="n">
-        <v>7.6</v>
-      </c>
       <c r="I311" t="n">
-        <v>7.07</v>
+        <v>7</v>
       </c>
     </row>
     <row r="312">
@@ -7839,24 +7901,26 @@
         <v>376</v>
       </c>
       <c r="B312" t="n">
-        <v>6.8</v>
+        <v>6.1</v>
       </c>
       <c r="C312" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="D312" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="E312" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F312" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="F312" t="n">
+      <c r="G312" t="n">
         <v>6</v>
       </c>
-      <c r="G312" t="inlineStr"/>
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="n">
-        <v>6.8</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="313">
@@ -7893,28 +7957,28 @@
         <v>378</v>
       </c>
       <c r="B314" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="C314" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D314" t="n">
         <v>7.4</v>
       </c>
-      <c r="D314" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E314" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="F314" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="G314" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H314" t="n">
         <v>7.2</v>
       </c>
-      <c r="H314" t="n">
-        <v>8.1</v>
-      </c>
       <c r="I314" t="n">
-        <v>7.04</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="315">
@@ -7965,21 +8029,23 @@
         <v>6.1</v>
       </c>
       <c r="C317" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="D317" t="n">
         <v>7.8</v>
       </c>
-      <c r="D317" t="n">
+      <c r="E317" t="n">
         <v>7.9</v>
       </c>
-      <c r="E317" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F317" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="G317" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="G317" t="n">
+        <v>6.7</v>
+      </c>
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="n">
-        <v>7</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="318">
@@ -8016,19 +8082,19 @@
         <v>383</v>
       </c>
       <c r="B319" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="C319" t="n">
         <v>7.9</v>
       </c>
-      <c r="C319" t="n">
+      <c r="D319" t="n">
         <v>7.1</v>
       </c>
-      <c r="D319" t="n">
+      <c r="E319" t="n">
         <v>7.3</v>
       </c>
-      <c r="E319" t="n">
+      <c r="F319" t="n">
         <v>7.5</v>
-      </c>
-      <c r="F319" t="n">
-        <v>7.6</v>
       </c>
       <c r="G319" t="n">
         <v>7.6</v>
@@ -8037,7 +8103,7 @@
         <v>7.6</v>
       </c>
       <c r="I319" t="n">
-        <v>7.51</v>
+        <v>7.63</v>
       </c>
     </row>
     <row r="320">
@@ -8074,28 +8140,28 @@
         <v>385</v>
       </c>
       <c r="B321" t="n">
+        <v>7</v>
+      </c>
+      <c r="C321" t="n">
         <v>7.9</v>
-      </c>
-      <c r="C321" t="n">
-        <v>7.3</v>
       </c>
       <c r="D321" t="n">
         <v>7.3</v>
       </c>
       <c r="E321" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="F321" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="G321" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="H321" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="I321" t="n">
         <v>7.1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>7.11</v>
       </c>
     </row>
     <row r="322">
@@ -8151,28 +8217,28 @@
         <v>388</v>
       </c>
       <c r="B324" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="C324" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="D324" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="E324" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="F324" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G324" t="n">
         <v>7.1</v>
       </c>
-      <c r="G324" t="n">
+      <c r="H324" t="n">
         <v>6.1</v>
       </c>
-      <c r="H324" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I324" t="n">
-        <v>6.74</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="325">
@@ -8354,28 +8420,28 @@
         <v>397</v>
       </c>
       <c r="B333" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C333" t="n">
         <v>7.6</v>
       </c>
-      <c r="C333" t="n">
+      <c r="D333" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="D333" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E333" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="F333" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="G333" t="n">
+        <v>7</v>
+      </c>
+      <c r="H333" t="n">
         <v>7.4</v>
       </c>
-      <c r="H333" t="n">
-        <v>6.4</v>
-      </c>
       <c r="I333" t="n">
-        <v>7.23</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="334">
@@ -8383,28 +8449,28 @@
         <v>398</v>
       </c>
       <c r="B334" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="C334" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="D334" t="n">
+        <v>7</v>
+      </c>
+      <c r="E334" t="n">
         <v>7.1</v>
       </c>
-      <c r="E334" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F334" t="n">
         <v>6.6</v>
       </c>
       <c r="G334" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="H334" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="I334" t="n">
-        <v>6.7</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="335">
@@ -8523,28 +8589,28 @@
         <v>404</v>
       </c>
       <c r="B340" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C340" t="n">
         <v>7.1</v>
       </c>
-      <c r="C340" t="n">
-        <v>7</v>
-      </c>
       <c r="D340" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="E340" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="F340" t="n">
+        <v>7</v>
+      </c>
+      <c r="G340" t="n">
         <v>6.3</v>
       </c>
-      <c r="G340" t="n">
+      <c r="H340" t="n">
         <v>7.4</v>
       </c>
-      <c r="H340" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I340" t="n">
-        <v>6.89</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="341">
@@ -8552,18 +8618,20 @@
         <v>405</v>
       </c>
       <c r="B341" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C341" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D341" t="n">
         <v>7.5</v>
       </c>
-      <c r="D341" t="inlineStr"/>
       <c r="E341" t="inlineStr"/>
       <c r="F341" t="inlineStr"/>
       <c r="G341" t="inlineStr"/>
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="n">
-        <v>7.05</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="342">
@@ -8629,28 +8697,28 @@
         <v>408</v>
       </c>
       <c r="B344" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C344" t="n">
         <v>7.3</v>
       </c>
-      <c r="C344" t="n">
+      <c r="D344" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="D344" t="n">
+      <c r="E344" t="n">
         <v>7.7</v>
       </c>
-      <c r="E344" t="n">
+      <c r="F344" t="n">
         <v>7.1</v>
       </c>
-      <c r="F344" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G344" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="H344" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="I344" t="n">
-        <v>7.29</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="345">
@@ -8712,28 +8780,28 @@
         <v>411</v>
       </c>
       <c r="B347" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="C347" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="D347" t="n">
+        <v>7</v>
+      </c>
+      <c r="E347" t="n">
         <v>7.3</v>
       </c>
-      <c r="E347" t="n">
-        <v>7</v>
-      </c>
       <c r="F347" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="G347" t="n">
         <v>6.7</v>
       </c>
       <c r="H347" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="I347" t="n">
-        <v>6.84</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="348">
@@ -8741,28 +8809,28 @@
         <v>412</v>
       </c>
       <c r="B348" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C348" t="n">
         <v>7.5</v>
       </c>
-      <c r="C348" t="n">
+      <c r="D348" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="D348" t="n">
+      <c r="E348" t="n">
         <v>7.6</v>
       </c>
-      <c r="E348" t="n">
+      <c r="F348" t="n">
         <v>7.5</v>
       </c>
-      <c r="F348" t="n">
+      <c r="G348" t="n">
         <v>7.6</v>
       </c>
-      <c r="G348" t="n">
+      <c r="H348" t="n">
         <v>7.2</v>
       </c>
-      <c r="H348" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I348" t="n">
-        <v>7.49</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="349">
@@ -8787,28 +8855,28 @@
         <v>414</v>
       </c>
       <c r="B350" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="C350" t="n">
         <v>7.8</v>
       </c>
-      <c r="C350" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D350" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E350" t="n">
         <v>7.2</v>
       </c>
-      <c r="E350" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F350" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G350" t="n">
         <v>7.8</v>
       </c>
-      <c r="G350" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H350" t="n">
-        <v>8.199999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="I350" t="n">
-        <v>7.29</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="351">
@@ -8816,28 +8884,28 @@
         <v>415</v>
       </c>
       <c r="B351" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C351" t="n">
         <v>7.1</v>
       </c>
-      <c r="C351" t="n">
+      <c r="D351" t="n">
         <v>8.6</v>
       </c>
-      <c r="D351" t="n">
+      <c r="E351" t="n">
         <v>7.6</v>
       </c>
-      <c r="E351" t="n">
+      <c r="F351" t="n">
         <v>7.5</v>
       </c>
-      <c r="F351" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G351" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="H351" t="n">
-        <v>4</v>
+        <v>6.4</v>
       </c>
       <c r="I351" t="n">
-        <v>6.87</v>
+        <v>7.21</v>
       </c>
     </row>
     <row r="352">
@@ -8845,24 +8913,26 @@
         <v>416</v>
       </c>
       <c r="B352" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="C352" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D352" t="n">
         <v>7.3</v>
       </c>
-      <c r="D352" t="n">
+      <c r="E352" t="n">
         <v>5.9</v>
       </c>
-      <c r="E352" t="n">
+      <c r="F352" t="n">
         <v>7.3</v>
       </c>
-      <c r="F352" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="G352" t="inlineStr"/>
+      <c r="G352" t="n">
+        <v>6.4</v>
+      </c>
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="n">
-        <v>6.74</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="353">
@@ -8870,26 +8940,28 @@
         <v>417</v>
       </c>
       <c r="B353" t="n">
+        <v>6</v>
+      </c>
+      <c r="C353" t="n">
         <v>8</v>
       </c>
-      <c r="C353" t="n">
+      <c r="D353" t="n">
         <v>6.3</v>
       </c>
-      <c r="D353" t="n">
+      <c r="E353" t="n">
         <v>9.9</v>
       </c>
-      <c r="E353" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F353" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G353" t="n">
         <v>7.3</v>
       </c>
-      <c r="G353" t="n">
-        <v>7</v>
-      </c>
-      <c r="H353" t="inlineStr"/>
+      <c r="H353" t="n">
+        <v>7</v>
+      </c>
       <c r="I353" t="n">
-        <v>7.52</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="354">
@@ -8897,26 +8969,28 @@
         <v>418</v>
       </c>
       <c r="B354" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="C354" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="D354" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E354" t="n">
         <v>7.9</v>
       </c>
-      <c r="E354" t="n">
+      <c r="F354" t="n">
         <v>7.2</v>
       </c>
-      <c r="F354" t="n">
+      <c r="G354" t="n">
         <v>8.5</v>
       </c>
-      <c r="G354" t="n">
+      <c r="H354" t="n">
         <v>7.3</v>
       </c>
-      <c r="H354" t="inlineStr"/>
       <c r="I354" t="n">
-        <v>7.4</v>
+        <v>7.31</v>
       </c>
     </row>
     <row r="355">
@@ -8924,7 +8998,7 @@
         <v>419</v>
       </c>
       <c r="B355" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="C355" t="n">
         <v>6.8</v>
@@ -8933,13 +9007,15 @@
         <v>6.8</v>
       </c>
       <c r="E355" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="F355" t="inlineStr"/>
+        <v>6.8</v>
+      </c>
+      <c r="F355" t="n">
+        <v>6.7</v>
+      </c>
       <c r="G355" t="inlineStr"/>
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="n">
-        <v>6.78</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="356">
@@ -8947,22 +9023,24 @@
         <v>420</v>
       </c>
       <c r="B356" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="C356" t="n">
         <v>7.4</v>
       </c>
       <c r="D356" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E356" t="n">
         <v>7.1</v>
       </c>
-      <c r="E356" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="F356" t="inlineStr"/>
+      <c r="F356" t="n">
+        <v>6.7</v>
+      </c>
       <c r="G356" t="inlineStr"/>
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="n">
-        <v>7.15</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="357">
@@ -8970,20 +9048,22 @@
         <v>421</v>
       </c>
       <c r="B357" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C357" t="n">
+        <v>7</v>
+      </c>
+      <c r="D357" t="n">
         <v>7.6</v>
       </c>
-      <c r="D357" t="n">
+      <c r="E357" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="E357" t="inlineStr"/>
       <c r="F357" t="inlineStr"/>
       <c r="G357" t="inlineStr"/>
       <c r="H357" t="inlineStr"/>
       <c r="I357" t="n">
-        <v>7.63</v>
+        <v>7.78</v>
       </c>
     </row>
     <row r="358">
@@ -9022,14 +9102,16 @@
         <v>7.3</v>
       </c>
       <c r="D359" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="E359" t="inlineStr"/>
+        <v>7.3</v>
+      </c>
+      <c r="E359" t="n">
+        <v>6.5</v>
+      </c>
       <c r="F359" t="inlineStr"/>
       <c r="G359" t="inlineStr"/>
       <c r="H359" t="inlineStr"/>
       <c r="I359" t="n">
-        <v>7.03</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="360">
@@ -9062,6 +9144,122 @@
       <c r="H361" t="inlineStr"/>
       <c r="I361" t="inlineStr"/>
     </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B362" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C362" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D362" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="E362" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F362" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="G362" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H362" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I362" t="n">
+        <v>6.93</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B363" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C363" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D363" t="n">
+        <v>7</v>
+      </c>
+      <c r="E363" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="F363" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G363" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H363" t="n">
+        <v>7</v>
+      </c>
+      <c r="I363" t="n">
+        <v>6.84</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B364" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="C364" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D364" t="n">
+        <v>6</v>
+      </c>
+      <c r="E364" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F364" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G364" t="n">
+        <v>7</v>
+      </c>
+      <c r="H364" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I364" t="n">
+        <v>6.94</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B365" t="n">
+        <v>8</v>
+      </c>
+      <c r="C365" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D365" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E365" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="F365" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="G365" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H365" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I365" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/players_ratings.xlsx
+++ b/players_ratings.xlsx
@@ -599,24 +599,26 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="C8" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D8" t="n">
         <v>7.5</v>
       </c>
-      <c r="D8" t="n">
-        <v>6.4</v>
-      </c>
       <c r="E8" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F8" t="n">
         <v>7.7</v>
       </c>
-      <c r="F8" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>6.7</v>
+      </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>6.98</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="9">
@@ -699,28 +701,28 @@
         <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="C12" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="D12" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E12" t="n">
         <v>7.1</v>
       </c>
-      <c r="E12" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F12" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G12" t="n">
         <v>9.1</v>
       </c>
-      <c r="G12" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H12" t="n">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="I12" t="n">
-        <v>6.99</v>
+        <v>7.19</v>
       </c>
     </row>
     <row r="13">
@@ -753,26 +755,28 @@
         <v>17</v>
       </c>
       <c r="B14" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C14" t="n">
         <v>7.3</v>
       </c>
-      <c r="C14" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D14" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="E14" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="F14" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="G14" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H14" t="inlineStr"/>
+        <v>6.7</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6.4</v>
+      </c>
       <c r="I14" t="n">
-        <v>6.83</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="15">
@@ -866,28 +870,28 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C19" t="n">
         <v>6.1</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>6.3</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>7.7</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>8.1</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>6.2</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>7.2</v>
       </c>
-      <c r="H19" t="n">
-        <v>7.7</v>
-      </c>
       <c r="I19" t="n">
-        <v>7.04</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="20">
@@ -924,22 +928,24 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="C21" t="n">
+        <v>7</v>
+      </c>
+      <c r="D21" t="n">
         <v>7.4</v>
       </c>
-      <c r="D21" t="n">
-        <v>7</v>
-      </c>
       <c r="E21" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="F21" t="n">
+        <v>6.7</v>
+      </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>7.02</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="22">
@@ -947,22 +953,24 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="C22" t="n">
         <v>6.7</v>
       </c>
       <c r="D22" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="E22" t="n">
-        <v>7</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
+        <v>6.4</v>
+      </c>
+      <c r="F22" t="n">
+        <v>7</v>
+      </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>6.7</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="23">
@@ -1021,28 +1029,28 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="C26" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E26" t="n">
         <v>6.2</v>
       </c>
-      <c r="D26" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="E26" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F26" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G26" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H26" t="n">
         <v>7.4</v>
       </c>
-      <c r="G26" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="H26" t="n">
-        <v>7</v>
-      </c>
       <c r="I26" t="n">
-        <v>6.7</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="27">
@@ -1135,28 +1143,28 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>6.8</v>
+        <v>7.9</v>
       </c>
       <c r="C30" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D30" t="n">
         <v>5.5</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>7.1</v>
       </c>
-      <c r="E30" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F30" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="G30" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H30" t="n">
         <v>3.3</v>
       </c>
-      <c r="H30" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I30" t="n">
-        <v>6.16</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="31">
@@ -1181,28 +1189,28 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C32" t="n">
         <v>7.1</v>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>8.1</v>
       </c>
-      <c r="D32" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E32" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F32" t="n">
         <v>6</v>
       </c>
-      <c r="F32" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G32" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H32" t="n">
         <v>7.2</v>
       </c>
-      <c r="H32" t="n">
-        <v>6</v>
-      </c>
       <c r="I32" t="n">
-        <v>6.81</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="33">
@@ -1210,24 +1218,28 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C33" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D33" t="n">
         <v>6.1</v>
       </c>
-      <c r="C33" t="n">
+      <c r="E33" t="n">
         <v>7.1</v>
       </c>
-      <c r="D33" t="n">
-        <v>7</v>
-      </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
+        <v>7</v>
+      </c>
+      <c r="G33" t="n">
         <v>6.3</v>
       </c>
-      <c r="F33" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
+      <c r="H33" t="n">
+        <v>6.6</v>
+      </c>
       <c r="I33" t="n">
-        <v>6.62</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="34">
@@ -1235,28 +1247,28 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C34" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D34" t="n">
         <v>6.2</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>7.2</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>6.1</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>7.7</v>
       </c>
-      <c r="G34" t="n">
-        <v>6.4</v>
-      </c>
       <c r="H34" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I34" t="n">
-        <v>6.61</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="35">
@@ -1264,16 +1276,20 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
+        <v>6.7</v>
+      </c>
+      <c r="C35" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D35" t="n">
+        <v>6.8</v>
+      </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>6.8</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="36">
@@ -1310,22 +1326,26 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="C37" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D37" t="n">
+        <v>7</v>
+      </c>
+      <c r="E37" t="n">
         <v>7.9</v>
       </c>
-      <c r="D37" t="n">
+      <c r="F37" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="E37" t="n">
-        <v>7</v>
-      </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>7</v>
+      </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>7.52</v>
+        <v>7.35</v>
       </c>
     </row>
     <row r="38">
@@ -1372,26 +1392,28 @@
         <v>51</v>
       </c>
       <c r="B41" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C41" t="n">
         <v>6.3</v>
       </c>
-      <c r="C41" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D41" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="E41" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="F41" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G41" t="n">
         <v>7.3</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
-        <v>7.05</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="42">
@@ -1454,18 +1476,20 @@
         <v>55</v>
       </c>
       <c r="B45" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C45" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="D45" t="inlineStr"/>
+        <v>6.6</v>
+      </c>
+      <c r="D45" t="n">
+        <v>6.5</v>
+      </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
-        <v>6.55</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="46">
@@ -1643,25 +1667,25 @@
         <v>6.7</v>
       </c>
       <c r="C53" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="D53" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E53" t="n">
         <v>7.5</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>6.3</v>
       </c>
-      <c r="F53" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G53" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="H53" t="n">
         <v>6.8</v>
       </c>
       <c r="I53" t="n">
-        <v>6.8</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="54">
@@ -1719,28 +1743,28 @@
         <v>69</v>
       </c>
       <c r="B56" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C56" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D56" t="n">
         <v>7.8</v>
       </c>
-      <c r="C56" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F56" t="n">
         <v>7.7</v>
       </c>
-      <c r="E56" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H56" t="n">
         <v>7.4</v>
       </c>
-      <c r="G56" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="H56" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I56" t="n">
-        <v>7.13</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="57">
@@ -1780,22 +1804,26 @@
         <v>80</v>
       </c>
       <c r="B59" t="n">
-        <v>7.4</v>
+        <v>6.7</v>
       </c>
       <c r="C59" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="D59" t="n">
         <v>7.4</v>
       </c>
       <c r="E59" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F59" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G59" t="n">
         <v>7.6</v>
       </c>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="n">
-        <v>7.45</v>
+        <v>7.22</v>
       </c>
     </row>
     <row r="60">
@@ -1803,28 +1831,28 @@
         <v>81</v>
       </c>
       <c r="B60" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="C60" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="D60" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="E60" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F60" t="n">
         <v>7.5</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>7.1</v>
       </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
         <v>7.2</v>
       </c>
-      <c r="H60" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I60" t="n">
-        <v>6.91</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="61">
@@ -1923,22 +1951,24 @@
         <v>91</v>
       </c>
       <c r="B66" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="C66" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="D66" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="E66" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F66" t="n">
         <v>6.3</v>
       </c>
-      <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="n">
-        <v>6.65</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="67">
@@ -1992,28 +2022,28 @@
         <v>94</v>
       </c>
       <c r="B69" t="n">
+        <v>8</v>
+      </c>
+      <c r="C69" t="n">
         <v>6.3</v>
       </c>
-      <c r="C69" t="n">
+      <c r="D69" t="n">
         <v>7.8</v>
       </c>
-      <c r="D69" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E69" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F69" t="n">
         <v>7.7</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>5.9</v>
       </c>
-      <c r="G69" t="n">
-        <v>6.4</v>
-      </c>
       <c r="H69" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="I69" t="n">
-        <v>6.79</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="70">
@@ -2021,28 +2051,28 @@
         <v>95</v>
       </c>
       <c r="B70" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="C70" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="D70" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="E70" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="F70" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="G70" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="H70" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="I70" t="n">
-        <v>6.8</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="71">
@@ -2144,28 +2174,28 @@
         <v>101</v>
       </c>
       <c r="B75" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="C75" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="D75" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="E75" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F75" t="n">
         <v>6.3</v>
       </c>
-      <c r="F75" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G75" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="H75" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="I75" t="n">
-        <v>6.64</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="76">
@@ -2257,28 +2287,28 @@
         <v>106</v>
       </c>
       <c r="B80" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C80" t="n">
         <v>7.7</v>
       </c>
-      <c r="C80" t="n">
+      <c r="D80" t="n">
         <v>7.5</v>
       </c>
-      <c r="D80" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E80" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F80" t="n">
         <v>7.4</v>
       </c>
-      <c r="F80" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G80" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H80" t="n">
         <v>7.2</v>
       </c>
-      <c r="H80" t="n">
-        <v>7</v>
-      </c>
       <c r="I80" t="n">
-        <v>7.23</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="81">
@@ -2353,28 +2383,28 @@
         <v>111</v>
       </c>
       <c r="B84" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C84" t="n">
         <v>7.8</v>
       </c>
-      <c r="C84" t="n">
+      <c r="D84" t="n">
         <v>7.3</v>
       </c>
-      <c r="D84" t="n">
+      <c r="E84" t="n">
         <v>7.1</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>6.1</v>
       </c>
-      <c r="F84" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G84" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H84" t="n">
         <v>7.6</v>
       </c>
-      <c r="H84" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I84" t="n">
-        <v>7.03</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="85">
@@ -2395,28 +2425,28 @@
         <v>113</v>
       </c>
       <c r="B86" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="C86" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="D86" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E86" t="n">
         <v>6.3</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>7.1</v>
       </c>
-      <c r="F86" t="n">
+      <c r="G86" t="n">
         <v>7.3</v>
       </c>
-      <c r="G86" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H86" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="I86" t="n">
-        <v>6.71</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="87">
@@ -2437,28 +2467,28 @@
         <v>115</v>
       </c>
       <c r="B88" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="C88" t="n">
         <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="E88" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="F88" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="G88" t="n">
         <v>6.8</v>
       </c>
       <c r="H88" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I88" t="n">
-        <v>6.47</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="89">
@@ -2479,28 +2509,28 @@
         <v>117</v>
       </c>
       <c r="B90" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="C90" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="D90" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="E90" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="F90" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="G90" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="H90" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="I90" t="n">
-        <v>6.6</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="91">
@@ -2527,26 +2557,28 @@
         <v>119</v>
       </c>
       <c r="B92" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C92" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D92" t="n">
         <v>7.3</v>
       </c>
-      <c r="C92" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="D92" t="n">
+      <c r="E92" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F92" t="n">
         <v>7.2</v>
       </c>
-      <c r="E92" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="F92" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G92" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="H92" t="inlineStr"/>
+        <v>6.8</v>
+      </c>
+      <c r="H92" t="n">
+        <v>6.5</v>
+      </c>
       <c r="I92" t="n">
-        <v>6.87</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="93">
@@ -2601,28 +2633,28 @@
         <v>124</v>
       </c>
       <c r="B96" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="C96" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D96" t="n">
         <v>7.5</v>
       </c>
-      <c r="D96" t="n">
+      <c r="E96" t="n">
         <v>6.3</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
         <v>6</v>
       </c>
-      <c r="F96" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G96" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H96" t="n">
         <v>7.3</v>
       </c>
-      <c r="H96" t="n">
-        <v>6.4</v>
-      </c>
       <c r="I96" t="n">
-        <v>6.69</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="97">
@@ -2689,26 +2721,28 @@
         <v>129</v>
       </c>
       <c r="B100" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C100" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="D100" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E100" t="n">
         <v>7.6</v>
       </c>
-      <c r="D100" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="E100" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F100" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G100" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H100" t="n">
         <v>7.6</v>
       </c>
-      <c r="G100" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="H100" t="inlineStr"/>
       <c r="I100" t="n">
-        <v>6.97</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="101">
@@ -2752,28 +2786,28 @@
         <v>132</v>
       </c>
       <c r="B103" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="C103" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D103" t="n">
         <v>7.4</v>
       </c>
-      <c r="D103" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E103" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F103" t="n">
         <v>6.2</v>
       </c>
-      <c r="F103" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G103" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="H103" t="n">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="I103" t="n">
-        <v>6.84</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="104">
@@ -2781,28 +2815,28 @@
         <v>133</v>
       </c>
       <c r="B104" t="n">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="C104" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="D104" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="E104" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F104" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G104" t="n">
         <v>7.1</v>
       </c>
-      <c r="F104" t="n">
+      <c r="H104" t="n">
         <v>7.3</v>
       </c>
-      <c r="G104" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="H104" t="n">
-        <v>7.8</v>
-      </c>
       <c r="I104" t="n">
-        <v>7.09</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="105">
@@ -2845,22 +2879,22 @@
         <v>6.6</v>
       </c>
       <c r="D106" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E106" t="n">
         <v>7.2</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
         <v>7.5</v>
       </c>
-      <c r="F106" t="n">
+      <c r="G106" t="n">
         <v>7.3</v>
       </c>
-      <c r="G106" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H106" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="I106" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="107">
@@ -2868,24 +2902,28 @@
         <v>136</v>
       </c>
       <c r="B107" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C107" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D107" t="n">
         <v>7.3</v>
       </c>
-      <c r="C107" t="n">
+      <c r="E107" t="n">
         <v>7.1</v>
       </c>
-      <c r="D107" t="n">
+      <c r="F107" t="n">
         <v>6.3</v>
       </c>
-      <c r="E107" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F107" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
+      <c r="G107" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H107" t="n">
+        <v>6.6</v>
+      </c>
       <c r="I107" t="n">
-        <v>6.76</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="108">
@@ -2969,28 +3007,28 @@
         <v>143</v>
       </c>
       <c r="B112" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C112" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="D112" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="E112" t="n">
         <v>6.2</v>
       </c>
       <c r="F112" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="G112" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="H112" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="I112" t="n">
-        <v>6.51</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="113">
@@ -2998,24 +3036,26 @@
         <v>144</v>
       </c>
       <c r="B113" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="C113" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D113" t="n">
         <v>7.3</v>
       </c>
-      <c r="D113" t="n">
+      <c r="E113" t="n">
         <v>7.6</v>
       </c>
-      <c r="E113" t="n">
+      <c r="F113" t="n">
         <v>7.2</v>
       </c>
-      <c r="F113" t="n">
-        <v>7</v>
-      </c>
-      <c r="G113" t="inlineStr"/>
+      <c r="G113" t="n">
+        <v>7</v>
+      </c>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="n">
-        <v>7.18</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="114">
@@ -3050,28 +3090,28 @@
         <v>146</v>
       </c>
       <c r="B115" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C115" t="n">
         <v>6.1</v>
       </c>
-      <c r="C115" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D115" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E115" t="n">
         <v>7.1</v>
       </c>
-      <c r="E115" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F115" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="G115" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H115" t="n">
         <v>7.9</v>
       </c>
-      <c r="H115" t="n">
-        <v>7</v>
-      </c>
       <c r="I115" t="n">
-        <v>6.84</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="116">
@@ -3082,25 +3122,25 @@
         <v>6.3</v>
       </c>
       <c r="C116" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="D116" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="E116" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="F116" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="G116" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H116" t="n">
         <v>7.4</v>
       </c>
-      <c r="H116" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I116" t="n">
-        <v>6.74</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="117">
@@ -3121,26 +3161,28 @@
         <v>149</v>
       </c>
       <c r="B118" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C118" t="n">
         <v>7.3</v>
       </c>
-      <c r="C118" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D118" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E118" t="n">
         <v>7.3</v>
       </c>
-      <c r="E118" t="n">
-        <v>6.4</v>
-      </c>
       <c r="F118" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G118" t="n">
         <v>7.8</v>
       </c>
-      <c r="G118" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H118" t="inlineStr"/>
+      <c r="H118" t="n">
+        <v>6.4</v>
+      </c>
       <c r="I118" t="n">
-        <v>6.93</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="119">
@@ -3148,28 +3190,28 @@
         <v>150</v>
       </c>
       <c r="B119" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C119" t="n">
         <v>7.1</v>
       </c>
-      <c r="C119" t="n">
-        <v>7</v>
-      </c>
       <c r="D119" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="E119" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F119" t="n">
         <v>6.3</v>
       </c>
-      <c r="F119" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G119" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="H119" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="I119" t="n">
-        <v>6.76</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="120">
@@ -3284,24 +3326,26 @@
         <v>164</v>
       </c>
       <c r="B125" t="n">
-        <v>6.8</v>
+        <v>8.1</v>
       </c>
       <c r="C125" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D125" t="n">
         <v>7.4</v>
       </c>
-      <c r="D125" t="n">
+      <c r="E125" t="n">
         <v>7.1</v>
       </c>
-      <c r="E125" t="n">
+      <c r="F125" t="n">
         <v>7.5</v>
       </c>
-      <c r="F125" t="n">
+      <c r="G125" t="n">
         <v>7.1</v>
       </c>
-      <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="n">
-        <v>7.18</v>
+        <v>7.33</v>
       </c>
     </row>
     <row r="126">
@@ -3309,20 +3353,22 @@
         <v>165</v>
       </c>
       <c r="B126" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="C126" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="D126" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="E126" t="inlineStr"/>
+        <v>6.8</v>
+      </c>
+      <c r="E126" t="n">
+        <v>6.6</v>
+      </c>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="n">
-        <v>6.67</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="127">
@@ -3330,24 +3376,26 @@
         <v>166</v>
       </c>
       <c r="B127" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C127" t="n">
         <v>6</v>
       </c>
-      <c r="C127" t="n">
+      <c r="D127" t="n">
         <v>7.4</v>
       </c>
-      <c r="D127" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E127" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="F127" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="G127" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H127" t="inlineStr"/>
+        <v>6.7</v>
+      </c>
+      <c r="H127" t="n">
+        <v>6.6</v>
+      </c>
       <c r="I127" t="n">
         <v>6.63</v>
       </c>
@@ -3407,26 +3455,28 @@
         <v>169</v>
       </c>
       <c r="B130" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C130" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D130" t="n">
         <v>6.2</v>
       </c>
-      <c r="C130" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="D130" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E130" t="n">
         <v>6.7</v>
       </c>
       <c r="F130" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G130" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H130" t="n">
         <v>7.2</v>
       </c>
-      <c r="G130" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H130" t="inlineStr"/>
       <c r="I130" t="n">
-        <v>6.68</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="131">
@@ -3434,24 +3484,26 @@
         <v>170</v>
       </c>
       <c r="B131" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C131" t="n">
         <v>7.1</v>
       </c>
-      <c r="C131" t="n">
+      <c r="D131" t="n">
         <v>6.1</v>
       </c>
-      <c r="D131" t="n">
+      <c r="E131" t="n">
         <v>7.2</v>
       </c>
-      <c r="E131" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F131" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="G131" t="inlineStr"/>
+        <v>6.6</v>
+      </c>
+      <c r="G131" t="n">
+        <v>6.5</v>
+      </c>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="132">
@@ -3459,7 +3511,7 @@
         <v>171</v>
       </c>
       <c r="B132" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="C132" t="n">
         <v>6.6</v>
@@ -3468,15 +3520,19 @@
         <v>6.5</v>
       </c>
       <c r="E132" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F132" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G132" t="n">
         <v>7.7</v>
       </c>
-      <c r="F132" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="G132" t="inlineStr"/>
-      <c r="H132" t="inlineStr"/>
+      <c r="H132" t="n">
+        <v>6.9</v>
+      </c>
       <c r="I132" t="n">
-        <v>6.84</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="133">
@@ -3680,22 +3736,24 @@
         <v>180</v>
       </c>
       <c r="B141" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C141" t="n">
         <v>9.1</v>
       </c>
-      <c r="C141" t="n">
+      <c r="D141" t="n">
         <v>7.3</v>
       </c>
-      <c r="D141" t="n">
-        <v>7</v>
-      </c>
       <c r="E141" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="F141" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="F141" t="n">
+        <v>6.9</v>
+      </c>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="n">
-        <v>7.57</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="142">
@@ -3703,16 +3761,18 @@
         <v>181</v>
       </c>
       <c r="B142" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="C142" t="inlineStr"/>
+        <v>6.4</v>
+      </c>
+      <c r="C142" t="n">
+        <v>6.6</v>
+      </c>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="143">
@@ -3720,22 +3780,24 @@
         <v>182</v>
       </c>
       <c r="B143" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C143" t="n">
         <v>7.2</v>
       </c>
-      <c r="C143" t="n">
+      <c r="D143" t="n">
         <v>7.4</v>
       </c>
-      <c r="D143" t="n">
+      <c r="E143" t="n">
         <v>7.7</v>
       </c>
-      <c r="E143" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="F143" t="inlineStr"/>
+      <c r="F143" t="n">
+        <v>6.9</v>
+      </c>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="n">
-        <v>7.3</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="144">
@@ -3762,28 +3824,28 @@
         <v>184</v>
       </c>
       <c r="B145" t="n">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="C145" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="D145" t="n">
         <v>6.7</v>
       </c>
       <c r="E145" t="n">
-        <v>7.3</v>
+        <v>6.4</v>
       </c>
       <c r="F145" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="G145" t="n">
         <v>7.3</v>
       </c>
       <c r="H145" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I145" t="n">
-        <v>6.84</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="146">
@@ -3791,24 +3853,26 @@
         <v>185</v>
       </c>
       <c r="B146" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C146" t="n">
         <v>7.5</v>
       </c>
-      <c r="C146" t="n">
+      <c r="D146" t="n">
         <v>7.2</v>
       </c>
-      <c r="D146" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E146" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F146" t="n">
         <v>8.1</v>
       </c>
-      <c r="F146" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="G146" t="inlineStr"/>
+      <c r="G146" t="n">
+        <v>6.5</v>
+      </c>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="147">
@@ -3887,26 +3951,28 @@
         <v>190</v>
       </c>
       <c r="B150" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="C150" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="D150" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E150" t="n">
         <v>7.3</v>
       </c>
-      <c r="E150" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F150" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="G150" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H150" t="n">
         <v>5.9</v>
       </c>
-      <c r="H150" t="inlineStr"/>
       <c r="I150" t="n">
-        <v>6.62</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="151">
@@ -3914,26 +3980,28 @@
         <v>191</v>
       </c>
       <c r="B151" t="n">
-        <v>6.9</v>
+        <v>6.2</v>
       </c>
       <c r="C151" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D151" t="n">
         <v>6.1</v>
       </c>
-      <c r="D151" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E151" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="F151" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="G151" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H151" t="n">
         <v>6.3</v>
       </c>
-      <c r="H151" t="inlineStr"/>
       <c r="I151" t="n">
-        <v>6.53</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="152">
@@ -3941,28 +4009,28 @@
         <v>192</v>
       </c>
       <c r="B152" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="C152" t="n">
         <v>6.9</v>
       </c>
       <c r="D152" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E152" t="n">
         <v>7.4</v>
       </c>
-      <c r="E152" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F152" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G152" t="n">
         <v>6.1</v>
       </c>
-      <c r="G152" t="n">
-        <v>6.4</v>
-      </c>
       <c r="H152" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="I152" t="n">
-        <v>6.83</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="153">
@@ -4016,28 +4084,28 @@
         <v>195</v>
       </c>
       <c r="B155" t="n">
+        <v>7</v>
+      </c>
+      <c r="C155" t="n">
         <v>5.9</v>
       </c>
-      <c r="C155" t="n">
+      <c r="D155" t="n">
         <v>6.3</v>
       </c>
-      <c r="D155" t="n">
+      <c r="E155" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="E155" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F155" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="G155" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H155" t="n">
         <v>7.2</v>
       </c>
-      <c r="H155" t="n">
-        <v>7.1</v>
-      </c>
       <c r="I155" t="n">
-        <v>6.93</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="156">
@@ -4045,28 +4113,28 @@
         <v>196</v>
       </c>
       <c r="B156" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C156" t="n">
         <v>6.2</v>
       </c>
-      <c r="C156" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D156" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E156" t="n">
         <v>7.7</v>
-      </c>
-      <c r="E156" t="n">
-        <v>6.3</v>
       </c>
       <c r="F156" t="n">
         <v>6.3</v>
       </c>
       <c r="G156" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="H156" t="n">
-        <v>7.7</v>
+        <v>6.9</v>
       </c>
       <c r="I156" t="n">
-        <v>6.83</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="157">
@@ -4116,26 +4184,28 @@
         <v>199</v>
       </c>
       <c r="B159" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C159" t="n">
         <v>5.9</v>
       </c>
-      <c r="C159" t="n">
+      <c r="D159" t="n">
         <v>6.1</v>
       </c>
-      <c r="D159" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E159" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F159" t="n">
         <v>7.5</v>
       </c>
-      <c r="F159" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G159" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="H159" t="inlineStr"/>
+        <v>6.6</v>
+      </c>
+      <c r="H159" t="n">
+        <v>6.8</v>
+      </c>
       <c r="I159" t="n">
-        <v>6.57</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="160">
@@ -4160,22 +4230,24 @@
         <v>201</v>
       </c>
       <c r="B161" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C161" t="n">
         <v>5.5</v>
       </c>
-      <c r="C161" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D161" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E161" t="n">
         <v>6.3</v>
       </c>
-      <c r="E161" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="F161" t="inlineStr"/>
+      <c r="F161" t="n">
+        <v>6.6</v>
+      </c>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="n">
-        <v>6.22</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="162">
@@ -4239,28 +4311,28 @@
         <v>206</v>
       </c>
       <c r="B164" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="C164" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D164" t="n">
         <v>7.3</v>
       </c>
-      <c r="D164" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E164" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="F164" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="G164" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H164" t="n">
         <v>6.2</v>
       </c>
-      <c r="H164" t="n">
-        <v>7</v>
-      </c>
       <c r="I164" t="n">
-        <v>6.73</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="165">
@@ -4314,28 +4386,28 @@
         <v>209</v>
       </c>
       <c r="B167" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="C167" t="n">
         <v>7.7</v>
       </c>
-      <c r="C167" t="n">
+      <c r="D167" t="n">
         <v>7.4</v>
       </c>
-      <c r="D167" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E167" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="F167" t="n">
         <v>7.3</v>
       </c>
       <c r="G167" t="n">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="H167" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="I167" t="n">
-        <v>7.11</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="168">
@@ -4356,28 +4428,28 @@
         <v>211</v>
       </c>
       <c r="B169" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C169" t="n">
         <v>7.1</v>
       </c>
-      <c r="C169" t="n">
+      <c r="D169" t="n">
         <v>7.3</v>
       </c>
-      <c r="D169" t="n">
+      <c r="E169" t="n">
         <v>7.2</v>
       </c>
-      <c r="E169" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F169" t="n">
         <v>6.6</v>
       </c>
       <c r="G169" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="H169" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="I169" t="n">
-        <v>6.86</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="170">
@@ -4385,28 +4457,28 @@
         <v>212</v>
       </c>
       <c r="B170" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="C170" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D170" t="n">
         <v>7.2</v>
       </c>
-      <c r="D170" t="n">
-        <v>6.4</v>
-      </c>
       <c r="E170" t="n">
         <v>6.4</v>
       </c>
       <c r="F170" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G170" t="n">
         <v>7.1</v>
       </c>
-      <c r="G170" t="n">
-        <v>6.8</v>
-      </c>
       <c r="H170" t="n">
-        <v>8.800000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="I170" t="n">
-        <v>7.06</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="171">
@@ -4431,28 +4503,28 @@
         <v>214</v>
       </c>
       <c r="B172" t="n">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="C172" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="D172" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="E172" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="F172" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="G172" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H172" t="n">
         <v>6.3</v>
       </c>
-      <c r="H172" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I172" t="n">
-        <v>6.64</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="173">
@@ -4473,19 +4545,19 @@
         <v>216</v>
       </c>
       <c r="B174" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="C174" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="D174" t="n">
         <v>7.4</v>
       </c>
-      <c r="D174" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E174" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="F174" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="G174" t="n">
         <v>6.4</v>
@@ -4494,7 +4566,7 @@
         <v>6.4</v>
       </c>
       <c r="I174" t="n">
-        <v>6.61</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="175">
@@ -4502,28 +4574,28 @@
         <v>217</v>
       </c>
       <c r="B175" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C175" t="n">
         <v>7.2</v>
       </c>
-      <c r="C175" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D175" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="E175" t="n">
+        <v>7</v>
+      </c>
+      <c r="F175" t="n">
         <v>7.5</v>
       </c>
-      <c r="F175" t="n">
+      <c r="G175" t="n">
         <v>7.1</v>
       </c>
-      <c r="G175" t="n">
-        <v>7</v>
-      </c>
       <c r="H175" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="I175" t="n">
-        <v>7.09</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="176">
@@ -4560,25 +4632,25 @@
         <v>219</v>
       </c>
       <c r="B177" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="C177" t="n">
         <v>6.9</v>
       </c>
       <c r="D177" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E177" t="n">
         <v>7.3</v>
       </c>
-      <c r="E177" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F177" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="G177" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="H177" t="n">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="I177" t="n">
         <v>6.94</v>
@@ -4685,28 +4757,28 @@
         <v>224</v>
       </c>
       <c r="B182" t="n">
-        <v>6.5</v>
+        <v>7.7</v>
       </c>
       <c r="C182" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D182" t="n">
         <v>7.3</v>
       </c>
-      <c r="D182" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E182" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="F182" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="G182" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="H182" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="I182" t="n">
-        <v>6.86</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="183">
@@ -4743,28 +4815,28 @@
         <v>226</v>
       </c>
       <c r="B184" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C184" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D184" t="n">
         <v>7.5</v>
       </c>
-      <c r="C184" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="D184" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E184" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F184" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G184" t="n">
         <v>7.3</v>
       </c>
-      <c r="F184" t="n">
+      <c r="H184" t="n">
         <v>7.8</v>
       </c>
-      <c r="G184" t="n">
-        <v>7</v>
-      </c>
-      <c r="H184" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I184" t="n">
-        <v>7.13</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="185">
@@ -4856,22 +4928,22 @@
         <v>232</v>
       </c>
       <c r="B189" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="C189" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="D189" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="E189" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="F189" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="G189" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H189" t="n">
         <v>6.5</v>
@@ -4902,28 +4974,28 @@
         <v>236</v>
       </c>
       <c r="B191" t="n">
-        <v>6.9</v>
+        <v>7.8</v>
       </c>
       <c r="C191" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D191" t="n">
         <v>7.6</v>
       </c>
-      <c r="D191" t="n">
+      <c r="E191" t="n">
         <v>7.8</v>
       </c>
-      <c r="E191" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F191" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="G191" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H191" t="n">
         <v>7.9</v>
       </c>
-      <c r="H191" t="n">
-        <v>7.1</v>
-      </c>
       <c r="I191" t="n">
-        <v>7.27</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="192">
@@ -5074,18 +5146,20 @@
         <v>244</v>
       </c>
       <c r="B199" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C199" t="n">
         <v>7.1</v>
       </c>
-      <c r="C199" t="n">
-        <v>7</v>
-      </c>
-      <c r="D199" t="inlineStr"/>
+      <c r="D199" t="n">
+        <v>7</v>
+      </c>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="n">
-        <v>7.05</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="200">
@@ -5175,22 +5249,24 @@
         <v>252</v>
       </c>
       <c r="B204" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C204" t="n">
         <v>8.4</v>
       </c>
-      <c r="C204" t="n">
+      <c r="D204" t="n">
         <v>7.2</v>
       </c>
-      <c r="D204" t="n">
+      <c r="E204" t="n">
         <v>7.6</v>
       </c>
-      <c r="E204" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="F204" t="inlineStr"/>
+      <c r="F204" t="n">
+        <v>6.7</v>
+      </c>
       <c r="G204" t="inlineStr"/>
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="n">
-        <v>7.48</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="205">
@@ -5232,16 +5308,18 @@
         <v>255</v>
       </c>
       <c r="B207" t="n">
+        <v>6</v>
+      </c>
+      <c r="C207" t="n">
         <v>7.7</v>
       </c>
-      <c r="C207" t="inlineStr"/>
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr"/>
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="n">
-        <v>7.7</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="208">
@@ -5289,20 +5367,22 @@
         <v>259</v>
       </c>
       <c r="B210" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="C210" t="n">
+        <v>7</v>
+      </c>
+      <c r="D210" t="n">
         <v>7.3</v>
       </c>
-      <c r="D210" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="E210" t="inlineStr"/>
+      <c r="E210" t="n">
+        <v>6.6</v>
+      </c>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="n">
-        <v>6.97</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="211">
@@ -5310,24 +5390,26 @@
         <v>260</v>
       </c>
       <c r="B211" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C211" t="n">
         <v>6.1</v>
       </c>
-      <c r="C211" t="n">
+      <c r="D211" t="n">
         <v>7.2</v>
       </c>
-      <c r="D211" t="n">
+      <c r="E211" t="n">
         <v>7.4</v>
       </c>
-      <c r="E211" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F211" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G211" t="n">
         <v>6.2</v>
       </c>
-      <c r="G211" t="inlineStr"/>
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="n">
-        <v>6.76</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="212">
@@ -5335,16 +5417,20 @@
         <v>261</v>
       </c>
       <c r="B212" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="C212" t="inlineStr"/>
-      <c r="D212" t="inlineStr"/>
+        <v>6.8</v>
+      </c>
+      <c r="C212" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D212" t="n">
+        <v>6.6</v>
+      </c>
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="inlineStr"/>
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="n">
-        <v>6.6</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="213">
@@ -5352,18 +5438,20 @@
         <v>263</v>
       </c>
       <c r="B213" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C213" t="n">
         <v>7.3</v>
       </c>
-      <c r="C213" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="D213" t="inlineStr"/>
+      <c r="D213" t="n">
+        <v>6.8</v>
+      </c>
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="inlineStr"/>
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="n">
-        <v>7.05</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="214">
@@ -5384,28 +5472,28 @@
         <v>267</v>
       </c>
       <c r="B215" t="n">
-        <v>7.3</v>
+        <v>6.3</v>
       </c>
       <c r="C215" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D215" t="n">
         <v>6.2</v>
       </c>
-      <c r="D215" t="n">
+      <c r="E215" t="n">
         <v>7.8</v>
       </c>
-      <c r="E215" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F215" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G215" t="n">
         <v>7.1</v>
       </c>
-      <c r="G215" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H215" t="n">
         <v>6.9</v>
       </c>
       <c r="I215" t="n">
-        <v>7</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="216">
@@ -5413,24 +5501,26 @@
         <v>273</v>
       </c>
       <c r="B216" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="C216" t="n">
         <v>6.3</v>
       </c>
-      <c r="C216" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D216" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="E216" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="F216" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="G216" t="inlineStr"/>
+        <v>6.6</v>
+      </c>
+      <c r="G216" t="n">
+        <v>6.4</v>
+      </c>
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="n">
-        <v>6.46</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="217">
@@ -5494,28 +5584,28 @@
         <v>276</v>
       </c>
       <c r="B219" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="C219" t="n">
         <v>7.5</v>
       </c>
-      <c r="C219" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D219" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E219" t="n">
         <v>7.9</v>
       </c>
-      <c r="E219" t="n">
+      <c r="F219" t="n">
         <v>6.2</v>
-      </c>
-      <c r="F219" t="n">
-        <v>7.1</v>
       </c>
       <c r="G219" t="n">
         <v>7.1</v>
       </c>
       <c r="H219" t="n">
-        <v>6.3</v>
+        <v>7.1</v>
       </c>
       <c r="I219" t="n">
-        <v>6.96</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="220">
@@ -5542,28 +5632,28 @@
         <v>278</v>
       </c>
       <c r="B221" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="C221" t="n">
+        <v>7</v>
+      </c>
+      <c r="D221" t="n">
         <v>7.3</v>
       </c>
-      <c r="D221" t="n">
+      <c r="E221" t="n">
         <v>7.2</v>
       </c>
-      <c r="E221" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F221" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="G221" t="n">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="H221" t="n">
         <v>7.2</v>
       </c>
       <c r="I221" t="n">
-        <v>7.04</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="222">
@@ -5571,28 +5661,28 @@
         <v>279</v>
       </c>
       <c r="B222" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C222" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D222" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="C222" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="D222" t="n">
+      <c r="E222" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F222" t="n">
         <v>7.1</v>
       </c>
-      <c r="E222" t="n">
+      <c r="G222" t="n">
         <v>6.1</v>
       </c>
-      <c r="F222" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="G222" t="n">
-        <v>6.4</v>
-      </c>
       <c r="H222" t="n">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="I222" t="n">
-        <v>6.77</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="223">
@@ -5629,16 +5719,18 @@
         <v>281</v>
       </c>
       <c r="B224" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="C224" t="inlineStr"/>
+        <v>7.7</v>
+      </c>
+      <c r="C224" t="n">
+        <v>6.8</v>
+      </c>
       <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="inlineStr"/>
       <c r="G224" t="inlineStr"/>
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="n">
-        <v>6.8</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="225">
@@ -5646,22 +5738,24 @@
         <v>282</v>
       </c>
       <c r="B225" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C225" t="n">
         <v>7.6</v>
       </c>
-      <c r="C225" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D225" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="E225" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F225" t="n">
         <v>5.1</v>
       </c>
-      <c r="F225" t="inlineStr"/>
       <c r="G225" t="inlineStr"/>
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="n">
-        <v>6.5</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="226">
@@ -5694,28 +5788,28 @@
         <v>285</v>
       </c>
       <c r="B227" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="C227" t="n">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="D227" t="n">
         <v>7.4</v>
       </c>
       <c r="E227" t="n">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="F227" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="G227" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H227" t="n">
         <v>8</v>
       </c>
-      <c r="H227" t="n">
-        <v>7.5</v>
-      </c>
       <c r="I227" t="n">
-        <v>7.19</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="228">
@@ -5723,28 +5817,28 @@
         <v>286</v>
       </c>
       <c r="B228" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C228" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="C228" t="n">
+      <c r="D228" t="n">
         <v>7.2</v>
       </c>
-      <c r="D228" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E228" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F228" t="n">
         <v>6.2</v>
       </c>
-      <c r="F228" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G228" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H228" t="n">
         <v>7.8</v>
       </c>
-      <c r="H228" t="n">
-        <v>8.4</v>
-      </c>
       <c r="I228" t="n">
-        <v>7.43</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="229">
@@ -5781,7 +5875,7 @@
         <v>288</v>
       </c>
       <c r="B230" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="C230" t="n">
         <v>6.7</v>
@@ -5790,16 +5884,16 @@
         <v>6.7</v>
       </c>
       <c r="E230" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F230" t="n">
         <v>6.1</v>
       </c>
-      <c r="F230" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G230" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H230" t="n">
         <v>6.3</v>
-      </c>
-      <c r="H230" t="n">
-        <v>6.5</v>
       </c>
       <c r="I230" t="n">
         <v>6.54</v>
@@ -5810,28 +5904,28 @@
         <v>289</v>
       </c>
       <c r="B231" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C231" t="n">
         <v>8.1</v>
       </c>
-      <c r="C231" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D231" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E231" t="n">
         <v>7.6</v>
       </c>
-      <c r="E231" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F231" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="G231" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H231" t="n">
         <v>7.6</v>
       </c>
-      <c r="H231" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I231" t="n">
-        <v>7.14</v>
+        <v>7.19</v>
       </c>
     </row>
     <row r="232">
@@ -5839,22 +5933,24 @@
         <v>290</v>
       </c>
       <c r="B232" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C232" t="n">
         <v>7.2</v>
       </c>
-      <c r="C232" t="n">
+      <c r="D232" t="n">
         <v>7.5</v>
       </c>
-      <c r="D232" t="n">
+      <c r="E232" t="n">
         <v>6.2</v>
       </c>
-      <c r="E232" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="F232" t="inlineStr"/>
+      <c r="F232" t="n">
+        <v>6.9</v>
+      </c>
       <c r="G232" t="inlineStr"/>
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="n">
-        <v>6.95</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="233">
@@ -5862,24 +5958,26 @@
         <v>291</v>
       </c>
       <c r="B233" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C233" t="n">
         <v>8</v>
       </c>
-      <c r="C233" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D233" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E233" t="n">
         <v>7.2</v>
       </c>
-      <c r="E233" t="n">
+      <c r="F233" t="n">
         <v>7.6</v>
       </c>
-      <c r="F233" t="n">
+      <c r="G233" t="n">
         <v>7.3</v>
       </c>
-      <c r="G233" t="inlineStr"/>
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="n">
-        <v>7.32</v>
+        <v>7.22</v>
       </c>
     </row>
     <row r="234">
@@ -5887,22 +5985,24 @@
         <v>292</v>
       </c>
       <c r="B234" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="C234" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="D234" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="E234" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="F234" t="inlineStr"/>
+        <v>6.6</v>
+      </c>
+      <c r="F234" t="n">
+        <v>6.7</v>
+      </c>
       <c r="G234" t="inlineStr"/>
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="n">
-        <v>6.6</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="235">
@@ -5989,18 +6089,22 @@
         <v>296</v>
       </c>
       <c r="B238" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="C238" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="D238" t="inlineStr"/>
-      <c r="E238" t="inlineStr"/>
+        <v>7.6</v>
+      </c>
+      <c r="D238" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E238" t="n">
+        <v>6.4</v>
+      </c>
       <c r="F238" t="inlineStr"/>
       <c r="G238" t="inlineStr"/>
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="n">
-        <v>6.4</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="239">
@@ -6008,26 +6112,28 @@
         <v>298</v>
       </c>
       <c r="B239" t="n">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="C239" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="D239" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="E239" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="F239" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="G239" t="n">
         <v>7.1</v>
       </c>
-      <c r="H239" t="inlineStr"/>
+      <c r="H239" t="n">
+        <v>7.1</v>
+      </c>
       <c r="I239" t="n">
-        <v>6.75</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="240">
@@ -6035,28 +6141,28 @@
         <v>299</v>
       </c>
       <c r="B240" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C240" t="n">
         <v>7.2</v>
       </c>
-      <c r="C240" t="n">
+      <c r="D240" t="n">
         <v>7.9</v>
       </c>
-      <c r="D240" t="n">
-        <v>7</v>
-      </c>
       <c r="E240" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="F240" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G240" t="n">
         <v>7.7</v>
       </c>
-      <c r="G240" t="n">
-        <v>6.4</v>
-      </c>
       <c r="H240" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="I240" t="n">
-        <v>7.04</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="241">
@@ -6064,28 +6170,28 @@
         <v>300</v>
       </c>
       <c r="B241" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="C241" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="D241" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E241" t="n">
         <v>7.2</v>
       </c>
-      <c r="E241" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F241" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G241" t="n">
         <v>7.1</v>
       </c>
-      <c r="G241" t="n">
+      <c r="H241" t="n">
         <v>7.6</v>
       </c>
-      <c r="H241" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I241" t="n">
-        <v>7</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="242">
@@ -6125,25 +6231,25 @@
         <v>5.4</v>
       </c>
       <c r="C243" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="D243" t="n">
         <v>5.8</v>
       </c>
-      <c r="D243" t="n">
+      <c r="E243" t="n">
         <v>7.9</v>
       </c>
-      <c r="E243" t="n">
+      <c r="F243" t="n">
         <v>7.5</v>
       </c>
-      <c r="F243" t="n">
+      <c r="G243" t="n">
         <v>4.8</v>
       </c>
-      <c r="G243" t="n">
+      <c r="H243" t="n">
         <v>7.3</v>
       </c>
-      <c r="H243" t="n">
-        <v>7.2</v>
-      </c>
       <c r="I243" t="n">
-        <v>6.56</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="244">
@@ -6170,28 +6276,28 @@
         <v>305</v>
       </c>
       <c r="B245" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C245" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="C245" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D245" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E245" t="n">
         <v>6.3</v>
       </c>
-      <c r="E245" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F245" t="n">
         <v>6.8</v>
       </c>
       <c r="G245" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H245" t="n">
         <v>7.4</v>
       </c>
-      <c r="H245" t="n">
-        <v>6.3</v>
-      </c>
       <c r="I245" t="n">
-        <v>6.93</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="246">
@@ -6199,28 +6305,28 @@
         <v>306</v>
       </c>
       <c r="B246" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="C246" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="D246" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="E246" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F246" t="n">
         <v>7.9</v>
       </c>
-      <c r="F246" t="n">
+      <c r="G246" t="n">
         <v>8</v>
       </c>
-      <c r="G246" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H246" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="I246" t="n">
-        <v>6.9</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="247">
@@ -6257,28 +6363,28 @@
         <v>308</v>
       </c>
       <c r="B248" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C248" t="n">
         <v>7.4</v>
       </c>
-      <c r="C248" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D248" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="E248" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="F248" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="G248" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H248" t="n">
         <v>7.3</v>
       </c>
-      <c r="H248" t="n">
-        <v>7.9</v>
-      </c>
       <c r="I248" t="n">
-        <v>7.03</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="249">
@@ -6286,18 +6392,20 @@
         <v>309</v>
       </c>
       <c r="B249" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C249" t="n">
         <v>7.7</v>
       </c>
-      <c r="C249" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="D249" t="inlineStr"/>
+      <c r="D249" t="n">
+        <v>6.8</v>
+      </c>
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="inlineStr"/>
       <c r="G249" t="inlineStr"/>
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="n">
-        <v>7.25</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="250">
@@ -6305,28 +6413,28 @@
         <v>310</v>
       </c>
       <c r="B250" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C250" t="n">
         <v>7.5</v>
       </c>
-      <c r="C250" t="n">
+      <c r="D250" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="D250" t="n">
+      <c r="E250" t="n">
         <v>7.4</v>
       </c>
-      <c r="E250" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F250" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G250" t="n">
         <v>5.4</v>
       </c>
-      <c r="G250" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H250" t="n">
-        <v>7.7</v>
+        <v>6.6</v>
       </c>
       <c r="I250" t="n">
-        <v>7.09</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="251">
@@ -6363,24 +6471,26 @@
         <v>312</v>
       </c>
       <c r="B252" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="C252" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="D252" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="E252" t="n">
         <v>6.8</v>
       </c>
       <c r="F252" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="G252" t="inlineStr"/>
+        <v>6.8</v>
+      </c>
+      <c r="G252" t="n">
+        <v>6.4</v>
+      </c>
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="n">
-        <v>6.68</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="253">
@@ -6388,28 +6498,28 @@
         <v>313</v>
       </c>
       <c r="B253" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="C253" t="n">
         <v>6.3</v>
       </c>
-      <c r="C253" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D253" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E253" t="n">
         <v>7.6</v>
       </c>
-      <c r="E253" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F253" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G253" t="n">
         <v>6.2</v>
       </c>
-      <c r="G253" t="n">
-        <v>7</v>
-      </c>
       <c r="H253" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I253" t="n">
-        <v>6.64</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="254">
@@ -6442,20 +6552,22 @@
         <v>315</v>
       </c>
       <c r="B255" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="C255" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D255" t="n">
         <v>7.3</v>
       </c>
-      <c r="D255" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="E255" t="inlineStr"/>
+      <c r="E255" t="n">
+        <v>6.5</v>
+      </c>
       <c r="F255" t="inlineStr"/>
       <c r="G255" t="inlineStr"/>
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="n">
-        <v>6.9</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="256">
@@ -6463,28 +6575,28 @@
         <v>316</v>
       </c>
       <c r="B256" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="C256" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="D256" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="E256" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="F256" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G256" t="n">
         <v>6</v>
       </c>
-      <c r="G256" t="n">
+      <c r="H256" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="H256" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I256" t="n">
-        <v>6.89</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="257">
@@ -6517,28 +6629,28 @@
         <v>318</v>
       </c>
       <c r="B258" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C258" t="n">
         <v>7.1</v>
       </c>
-      <c r="C258" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D258" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="E258" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="F258" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="G258" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="H258" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="I258" t="n">
-        <v>6.6</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="259">
@@ -6592,28 +6704,28 @@
         <v>321</v>
       </c>
       <c r="B261" t="n">
+        <v>7</v>
+      </c>
+      <c r="C261" t="n">
         <v>7.4</v>
       </c>
-      <c r="C261" t="n">
-        <v>6.8</v>
-      </c>
       <c r="D261" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E261" t="n">
         <v>7.6</v>
       </c>
-      <c r="E261" t="n">
+      <c r="F261" t="n">
         <v>7.7</v>
       </c>
-      <c r="F261" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G261" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="H261" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="I261" t="n">
-        <v>7.06</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="262">
@@ -6796,28 +6908,28 @@
         <v>330</v>
       </c>
       <c r="B269" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C269" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D269" t="n">
         <v>7.2</v>
       </c>
-      <c r="C269" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="D269" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E269" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F269" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G269" t="n">
         <v>7.3</v>
       </c>
-      <c r="F269" t="n">
+      <c r="H269" t="n">
         <v>6.1</v>
       </c>
-      <c r="G269" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H269" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I269" t="n">
-        <v>6.73</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="270">
@@ -6879,16 +6991,18 @@
         <v>335</v>
       </c>
       <c r="B272" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="C272" t="inlineStr"/>
+        <v>6.3</v>
+      </c>
+      <c r="C272" t="n">
+        <v>6.7</v>
+      </c>
       <c r="D272" t="inlineStr"/>
       <c r="E272" t="inlineStr"/>
       <c r="F272" t="inlineStr"/>
       <c r="G272" t="inlineStr"/>
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="273">
@@ -6896,24 +7010,26 @@
         <v>336</v>
       </c>
       <c r="B273" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="C273" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D273" t="n">
         <v>7.3</v>
       </c>
-      <c r="D273" t="n">
+      <c r="E273" t="n">
         <v>6</v>
       </c>
-      <c r="E273" t="n">
+      <c r="F273" t="n">
         <v>7.6</v>
       </c>
-      <c r="F273" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="G273" t="inlineStr"/>
+      <c r="G273" t="n">
+        <v>6.4</v>
+      </c>
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="n">
-        <v>6.78</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="274">
@@ -6921,28 +7037,28 @@
         <v>337</v>
       </c>
       <c r="B274" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C274" t="n">
         <v>6.3</v>
       </c>
-      <c r="C274" t="n">
+      <c r="D274" t="n">
         <v>7.2</v>
       </c>
-      <c r="D274" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E274" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F274" t="n">
         <v>8.6</v>
       </c>
-      <c r="F274" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G274" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="H274" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="I274" t="n">
-        <v>6.89</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="275">
@@ -6950,16 +7066,18 @@
         <v>338</v>
       </c>
       <c r="B275" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="C275" t="inlineStr"/>
+        <v>6.4</v>
+      </c>
+      <c r="C275" t="n">
+        <v>6.9</v>
+      </c>
       <c r="D275" t="inlineStr"/>
       <c r="E275" t="inlineStr"/>
       <c r="F275" t="inlineStr"/>
       <c r="G275" t="inlineStr"/>
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="n">
-        <v>6.9</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="276">
@@ -6984,18 +7102,20 @@
         <v>340</v>
       </c>
       <c r="B277" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="C277" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D277" t="n">
         <v>7.3</v>
       </c>
-      <c r="D277" t="inlineStr"/>
       <c r="E277" t="inlineStr"/>
       <c r="F277" t="inlineStr"/>
       <c r="G277" t="inlineStr"/>
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="n">
-        <v>7</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="278">
@@ -7003,20 +7123,22 @@
         <v>341</v>
       </c>
       <c r="B278" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="C278" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="D278" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="E278" t="inlineStr"/>
+        <v>6.9</v>
+      </c>
+      <c r="E278" t="n">
+        <v>6.5</v>
+      </c>
       <c r="F278" t="inlineStr"/>
       <c r="G278" t="inlineStr"/>
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="n">
-        <v>6.67</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="279">
@@ -7024,28 +7146,28 @@
         <v>342</v>
       </c>
       <c r="B279" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C279" t="n">
         <v>7.8</v>
       </c>
-      <c r="C279" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D279" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E279" t="n">
         <v>7.1</v>
       </c>
-      <c r="E279" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F279" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="G279" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="H279" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="I279" t="n">
-        <v>6.9</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="280">
@@ -7053,20 +7175,24 @@
         <v>343</v>
       </c>
       <c r="B280" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="C280" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="D280" t="n">
         <v>6.5</v>
       </c>
-      <c r="E280" t="inlineStr"/>
-      <c r="F280" t="inlineStr"/>
+      <c r="E280" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F280" t="n">
+        <v>6.5</v>
+      </c>
       <c r="G280" t="inlineStr"/>
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="n">
-        <v>6.5</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="281">
@@ -7074,28 +7200,28 @@
         <v>344</v>
       </c>
       <c r="B281" t="n">
+        <v>8</v>
+      </c>
+      <c r="C281" t="n">
+        <v>10</v>
+      </c>
+      <c r="D281" t="n">
         <v>7.6</v>
       </c>
-      <c r="C281" t="n">
+      <c r="E281" t="n">
         <v>7.3</v>
       </c>
-      <c r="D281" t="n">
+      <c r="F281" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="E281" t="n">
+      <c r="G281" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="F281" t="n">
+      <c r="H281" t="n">
         <v>7.3</v>
       </c>
-      <c r="G281" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="H281" t="n">
-        <v>7.8</v>
-      </c>
       <c r="I281" t="n">
-        <v>7.73</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="282">
@@ -7103,28 +7229,28 @@
         <v>345</v>
       </c>
       <c r="B282" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="C282" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D282" t="n">
         <v>7.4</v>
       </c>
-      <c r="D282" t="n">
+      <c r="E282" t="n">
         <v>7.3</v>
       </c>
-      <c r="E282" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F282" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="G282" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H282" t="n">
         <v>6.3</v>
       </c>
-      <c r="H282" t="n">
-        <v>7.6</v>
-      </c>
       <c r="I282" t="n">
-        <v>6.91</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="283">
@@ -7161,28 +7287,28 @@
         <v>347</v>
       </c>
       <c r="B284" t="n">
+        <v>7</v>
+      </c>
+      <c r="C284" t="n">
+        <v>8</v>
+      </c>
+      <c r="D284" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="C284" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="D284" t="n">
+      <c r="E284" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F284" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="E284" t="n">
-        <v>7</v>
-      </c>
-      <c r="F284" t="n">
+      <c r="G284" t="n">
+        <v>7</v>
+      </c>
+      <c r="H284" t="n">
         <v>7.8</v>
       </c>
-      <c r="G284" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="H284" t="n">
-        <v>9.699999999999999</v>
-      </c>
       <c r="I284" t="n">
-        <v>7.67</v>
+        <v>7.53</v>
       </c>
     </row>
     <row r="285">
@@ -7190,28 +7316,28 @@
         <v>348</v>
       </c>
       <c r="B285" t="n">
+        <v>7</v>
+      </c>
+      <c r="C285" t="n">
         <v>8.1</v>
       </c>
-      <c r="C285" t="n">
+      <c r="D285" t="n">
         <v>7.2</v>
       </c>
-      <c r="D285" t="n">
-        <v>6.4</v>
-      </c>
       <c r="E285" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F285" t="n">
         <v>7.9</v>
       </c>
-      <c r="F285" t="n">
+      <c r="G285" t="n">
         <v>7.2</v>
       </c>
-      <c r="G285" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H285" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="I285" t="n">
-        <v>7.19</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="286">
@@ -7219,28 +7345,28 @@
         <v>349</v>
       </c>
       <c r="B286" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="C286" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="D286" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E286" t="n">
         <v>5.9</v>
       </c>
-      <c r="E286" t="n">
-        <v>6.4</v>
-      </c>
       <c r="F286" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="G286" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H286" t="n">
         <v>7.9</v>
       </c>
-      <c r="H286" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I286" t="n">
-        <v>6.76</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="287">
@@ -7325,18 +7451,20 @@
         <v>353</v>
       </c>
       <c r="B290" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="C290" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="D290" t="inlineStr"/>
+        <v>6.8</v>
+      </c>
+      <c r="D290" t="n">
+        <v>6.5</v>
+      </c>
       <c r="E290" t="inlineStr"/>
       <c r="F290" t="inlineStr"/>
       <c r="G290" t="inlineStr"/>
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="n">
-        <v>6.65</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="291">
@@ -7465,24 +7593,26 @@
         <v>359</v>
       </c>
       <c r="B296" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C296" t="n">
         <v>7.3</v>
       </c>
-      <c r="C296" t="n">
+      <c r="D296" t="n">
         <v>7.5</v>
       </c>
-      <c r="D296" t="n">
+      <c r="E296" t="n">
         <v>7.3</v>
       </c>
-      <c r="E296" t="n">
+      <c r="F296" t="n">
         <v>7.9</v>
       </c>
-      <c r="F296" t="n">
+      <c r="G296" t="n">
         <v>7.3</v>
       </c>
-      <c r="G296" t="inlineStr"/>
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="n">
-        <v>7.46</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="297">
@@ -7490,28 +7620,28 @@
         <v>360</v>
       </c>
       <c r="B297" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="C297" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D297" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E297" t="n">
         <v>7.6</v>
       </c>
-      <c r="D297" t="n">
+      <c r="F297" t="n">
         <v>5.9</v>
       </c>
-      <c r="E297" t="n">
+      <c r="G297" t="n">
         <v>7.2</v>
       </c>
-      <c r="F297" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="G297" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H297" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="I297" t="n">
-        <v>6.74</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="298">
@@ -7548,28 +7678,28 @@
         <v>362</v>
       </c>
       <c r="B299" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="C299" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D299" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="D299" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E299" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F299" t="n">
         <v>7.8</v>
       </c>
-      <c r="F299" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G299" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H299" t="n">
         <v>6</v>
       </c>
-      <c r="H299" t="n">
-        <v>7.9</v>
-      </c>
       <c r="I299" t="n">
-        <v>7.23</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="300">
@@ -7577,28 +7707,28 @@
         <v>364</v>
       </c>
       <c r="B300" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="C300" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D300" t="n">
+        <v>7</v>
+      </c>
+      <c r="E300" t="n">
         <v>7.3</v>
       </c>
-      <c r="D300" t="n">
+      <c r="F300" t="n">
         <v>7.2</v>
       </c>
-      <c r="E300" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="F300" t="n">
+      <c r="G300" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H300" t="n">
         <v>7.4</v>
       </c>
-      <c r="G300" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="H300" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I300" t="n">
-        <v>7.11</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="301">
@@ -7627,28 +7757,28 @@
         <v>366</v>
       </c>
       <c r="B302" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C302" t="n">
         <v>6.3</v>
       </c>
-      <c r="C302" t="n">
+      <c r="D302" t="n">
         <v>7.1</v>
       </c>
-      <c r="D302" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E302" t="n">
         <v>6.8</v>
       </c>
       <c r="F302" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="G302" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H302" t="n">
         <v>7.8</v>
       </c>
-      <c r="H302" t="n">
-        <v>7</v>
-      </c>
       <c r="I302" t="n">
-        <v>6.91</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="303">
@@ -7688,22 +7818,22 @@
         <v>6.7</v>
       </c>
       <c r="C304" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D304" t="n">
         <v>7.4</v>
       </c>
-      <c r="D304" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E304" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F304" t="n">
         <v>5.9</v>
       </c>
-      <c r="F304" t="n">
+      <c r="G304" t="n">
         <v>7.2</v>
       </c>
-      <c r="G304" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H304" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="I304" t="n">
         <v>6.73</v>
@@ -7714,26 +7844,28 @@
         <v>369</v>
       </c>
       <c r="B305" t="n">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="C305" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="D305" t="n">
+        <v>7</v>
+      </c>
+      <c r="E305" t="n">
         <v>6</v>
       </c>
-      <c r="E305" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F305" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="G305" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="H305" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="H305" t="n">
+        <v>6.7</v>
+      </c>
       <c r="I305" t="n">
-        <v>6.63</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="306">
@@ -7766,28 +7898,28 @@
         <v>371</v>
       </c>
       <c r="B307" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="C307" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="D307" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E307" t="n">
         <v>5.4</v>
       </c>
-      <c r="E307" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F307" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="G307" t="n">
         <v>6.9</v>
       </c>
       <c r="H307" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="I307" t="n">
-        <v>6.57</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="308">
@@ -7824,18 +7956,22 @@
         <v>373</v>
       </c>
       <c r="B309" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="C309" t="n">
+        <v>7</v>
+      </c>
+      <c r="D309" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E309" t="n">
         <v>7.1</v>
       </c>
-      <c r="D309" t="inlineStr"/>
-      <c r="E309" t="inlineStr"/>
       <c r="F309" t="inlineStr"/>
       <c r="G309" t="inlineStr"/>
       <c r="H309" t="inlineStr"/>
       <c r="I309" t="n">
-        <v>7</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="310">
@@ -7843,28 +7979,28 @@
         <v>374</v>
       </c>
       <c r="B310" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C310" t="n">
         <v>5.9</v>
       </c>
-      <c r="C310" t="n">
-        <v>6.8</v>
-      </c>
       <c r="D310" t="n">
         <v>6.8</v>
       </c>
       <c r="E310" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="F310" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G310" t="n">
         <v>6.3</v>
       </c>
-      <c r="G310" t="n">
+      <c r="H310" t="n">
         <v>7.5</v>
       </c>
-      <c r="H310" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I310" t="n">
-        <v>6.73</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="311">
@@ -7872,28 +8008,28 @@
         <v>375</v>
       </c>
       <c r="B311" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C311" t="n">
         <v>7.1</v>
       </c>
-      <c r="C311" t="n">
+      <c r="D311" t="n">
         <v>7.5</v>
       </c>
-      <c r="D311" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E311" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="F311" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G311" t="n">
         <v>7.6</v>
       </c>
-      <c r="G311" t="n">
-        <v>6.4</v>
-      </c>
       <c r="H311" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="I311" t="n">
-        <v>7</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="312">
@@ -7928,28 +8064,28 @@
         <v>377</v>
       </c>
       <c r="B313" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C313" t="n">
         <v>7.9</v>
       </c>
-      <c r="C313" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D313" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E313" t="n">
         <v>7.6</v>
       </c>
-      <c r="E313" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F313" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G313" t="n">
         <v>7.5</v>
       </c>
-      <c r="G313" t="n">
+      <c r="H313" t="n">
         <v>7.1</v>
       </c>
-      <c r="H313" t="n">
-        <v>8.1</v>
-      </c>
       <c r="I313" t="n">
-        <v>7.34</v>
+        <v>7.21</v>
       </c>
     </row>
     <row r="314">
@@ -8007,18 +8143,20 @@
         <v>380</v>
       </c>
       <c r="B316" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="C316" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="D316" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="D316" t="n">
+        <v>6.4</v>
+      </c>
       <c r="E316" t="inlineStr"/>
       <c r="F316" t="inlineStr"/>
       <c r="G316" t="inlineStr"/>
       <c r="H316" t="inlineStr"/>
       <c r="I316" t="n">
-        <v>6.45</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="317">
@@ -8082,28 +8220,28 @@
         <v>383</v>
       </c>
       <c r="B319" t="n">
+        <v>7</v>
+      </c>
+      <c r="C319" t="n">
         <v>8.4</v>
       </c>
-      <c r="C319" t="n">
+      <c r="D319" t="n">
         <v>7.9</v>
       </c>
-      <c r="D319" t="n">
+      <c r="E319" t="n">
         <v>7.1</v>
       </c>
-      <c r="E319" t="n">
+      <c r="F319" t="n">
         <v>7.3</v>
       </c>
-      <c r="F319" t="n">
+      <c r="G319" t="n">
         <v>7.5</v>
-      </c>
-      <c r="G319" t="n">
-        <v>7.6</v>
       </c>
       <c r="H319" t="n">
         <v>7.6</v>
       </c>
       <c r="I319" t="n">
-        <v>7.63</v>
+        <v>7.54</v>
       </c>
     </row>
     <row r="320">
@@ -8140,28 +8278,28 @@
         <v>385</v>
       </c>
       <c r="B321" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="C321" t="n">
+        <v>7</v>
+      </c>
+      <c r="D321" t="n">
         <v>7.9</v>
-      </c>
-      <c r="D321" t="n">
-        <v>7.3</v>
       </c>
       <c r="E321" t="n">
         <v>7.3</v>
       </c>
       <c r="F321" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="G321" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="H321" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="I321" t="n">
-        <v>7.1</v>
+        <v>7.26</v>
       </c>
     </row>
     <row r="322">
@@ -8188,28 +8326,28 @@
         <v>387</v>
       </c>
       <c r="B323" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C323" t="n">
         <v>8.1</v>
       </c>
-      <c r="C323" t="n">
+      <c r="D323" t="n">
         <v>8.6</v>
       </c>
-      <c r="D323" t="n">
+      <c r="E323" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="E323" t="n">
+      <c r="F323" t="n">
         <v>7.7</v>
       </c>
-      <c r="F323" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G323" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="H323" t="n">
-        <v>8</v>
+        <v>6.9</v>
       </c>
       <c r="I323" t="n">
-        <v>7.83</v>
+        <v>7.73</v>
       </c>
     </row>
     <row r="324">
@@ -8217,28 +8355,28 @@
         <v>388</v>
       </c>
       <c r="B324" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="C324" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="D324" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="E324" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="F324" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="G324" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H324" t="n">
         <v>7.1</v>
       </c>
-      <c r="H324" t="n">
-        <v>6.1</v>
-      </c>
       <c r="I324" t="n">
-        <v>6.71</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="325">
@@ -8320,28 +8458,28 @@
         <v>393</v>
       </c>
       <c r="B329" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="C329" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D329" t="n">
         <v>7.1</v>
       </c>
-      <c r="D329" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E329" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F329" t="n">
         <v>7.1</v>
       </c>
-      <c r="F329" t="n">
+      <c r="G329" t="n">
         <v>8.6</v>
       </c>
-      <c r="G329" t="n">
+      <c r="H329" t="n">
         <v>7.5</v>
       </c>
-      <c r="H329" t="n">
-        <v>7.7</v>
-      </c>
       <c r="I329" t="n">
-        <v>7.29</v>
+        <v>7.21</v>
       </c>
     </row>
     <row r="330">
@@ -8349,28 +8487,28 @@
         <v>394</v>
       </c>
       <c r="B330" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C330" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="D330" t="n">
         <v>8.1</v>
       </c>
-      <c r="C330" t="n">
+      <c r="E330" t="n">
         <v>7.6</v>
       </c>
-      <c r="D330" t="n">
-        <v>7</v>
-      </c>
-      <c r="E330" t="n">
-        <v>7</v>
-      </c>
       <c r="F330" t="n">
+        <v>7</v>
+      </c>
+      <c r="G330" t="n">
+        <v>7</v>
+      </c>
+      <c r="H330" t="n">
         <v>7.7</v>
       </c>
-      <c r="G330" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="H330" t="n">
+      <c r="I330" t="n">
         <v>7.5</v>
-      </c>
-      <c r="I330" t="n">
-        <v>7.29</v>
       </c>
     </row>
     <row r="331">
@@ -8518,24 +8656,26 @@
         <v>401</v>
       </c>
       <c r="B337" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C337" t="n">
         <v>7.7</v>
       </c>
-      <c r="C337" t="n">
-        <v>6.8</v>
-      </c>
       <c r="D337" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="E337" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="F337" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G337" t="n">
         <v>5.7</v>
       </c>
-      <c r="G337" t="inlineStr"/>
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="n">
-        <v>6.66</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="338">
@@ -8543,28 +8683,28 @@
         <v>402</v>
       </c>
       <c r="B338" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="C338" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="D338" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="E338" t="n">
         <v>7.2</v>
       </c>
       <c r="F338" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G338" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H338" t="n">
         <v>7.3</v>
       </c>
-      <c r="G338" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="H338" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I338" t="n">
-        <v>6.97</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="339">
@@ -8589,28 +8729,28 @@
         <v>404</v>
       </c>
       <c r="B340" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="C340" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D340" t="n">
         <v>7.1</v>
       </c>
-      <c r="D340" t="n">
-        <v>7</v>
-      </c>
       <c r="E340" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="F340" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="G340" t="n">
+        <v>7</v>
+      </c>
+      <c r="H340" t="n">
         <v>6.3</v>
       </c>
-      <c r="H340" t="n">
-        <v>7.4</v>
-      </c>
       <c r="I340" t="n">
-        <v>6.86</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="341">
@@ -8618,20 +8758,22 @@
         <v>405</v>
       </c>
       <c r="B341" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="C341" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="D341" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E341" t="n">
         <v>7.5</v>
       </c>
-      <c r="E341" t="inlineStr"/>
       <c r="F341" t="inlineStr"/>
       <c r="G341" t="inlineStr"/>
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="n">
-        <v>6.93</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="342">
@@ -8639,28 +8781,28 @@
         <v>406</v>
       </c>
       <c r="B342" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C342" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D342" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E342" t="n">
         <v>7.3</v>
       </c>
-      <c r="C342" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="D342" t="n">
+      <c r="F342" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G342" t="n">
         <v>7.5</v>
       </c>
-      <c r="E342" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="F342" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="G342" t="n">
-        <v>7.2</v>
-      </c>
       <c r="H342" t="n">
-        <v>8.699999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="I342" t="n">
-        <v>7.23</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="343">
@@ -8668,28 +8810,28 @@
         <v>407</v>
       </c>
       <c r="B343" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="C343" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="D343" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="E343" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F343" t="n">
+        <v>7</v>
+      </c>
+      <c r="G343" t="n">
         <v>7.4</v>
       </c>
-      <c r="E343" t="n">
+      <c r="H343" t="n">
         <v>7.7</v>
       </c>
-      <c r="F343" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="G343" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H343" t="n">
-        <v>7.6</v>
-      </c>
       <c r="I343" t="n">
-        <v>6.91</v>
+        <v>7.26</v>
       </c>
     </row>
     <row r="344">
@@ -8697,28 +8839,28 @@
         <v>408</v>
       </c>
       <c r="B344" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="C344" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D344" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E344" t="n">
         <v>7.3</v>
       </c>
-      <c r="D344" t="n">
+      <c r="F344" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="E344" t="n">
+      <c r="G344" t="n">
         <v>7.7</v>
       </c>
-      <c r="F344" t="n">
+      <c r="H344" t="n">
         <v>7.1</v>
       </c>
-      <c r="G344" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H344" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I344" t="n">
-        <v>7.23</v>
+        <v>7.67</v>
       </c>
     </row>
     <row r="345">
@@ -8726,26 +8868,28 @@
         <v>409</v>
       </c>
       <c r="B345" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C345" t="n">
         <v>9</v>
       </c>
-      <c r="C345" t="n">
+      <c r="D345" t="n">
         <v>6</v>
       </c>
-      <c r="D345" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E345" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F345" t="n">
         <v>7.7</v>
       </c>
-      <c r="F345" t="n">
+      <c r="G345" t="n">
         <v>9.1</v>
       </c>
-      <c r="G345" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H345" t="inlineStr"/>
+      <c r="H345" t="n">
+        <v>6.6</v>
+      </c>
       <c r="I345" t="n">
-        <v>7.52</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="346">
@@ -8753,26 +8897,28 @@
         <v>410</v>
       </c>
       <c r="B346" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="C346" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D346" t="n">
         <v>5.7</v>
       </c>
-      <c r="D346" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E346" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="F346" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G346" t="n">
         <v>7.1</v>
       </c>
-      <c r="G346" t="n">
+      <c r="H346" t="n">
         <v>7.8</v>
       </c>
-      <c r="H346" t="inlineStr"/>
       <c r="I346" t="n">
-        <v>6.75</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="347">
@@ -8780,22 +8926,22 @@
         <v>411</v>
       </c>
       <c r="B347" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C347" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="D347" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="E347" t="n">
+        <v>7</v>
+      </c>
+      <c r="F347" t="n">
         <v>7.3</v>
       </c>
-      <c r="F347" t="n">
-        <v>7</v>
-      </c>
       <c r="G347" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="H347" t="n">
         <v>6.7</v>
@@ -8809,28 +8955,28 @@
         <v>412</v>
       </c>
       <c r="B348" t="n">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="C348" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D348" t="n">
         <v>7.5</v>
       </c>
-      <c r="D348" t="n">
+      <c r="E348" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="E348" t="n">
+      <c r="F348" t="n">
         <v>7.6</v>
       </c>
-      <c r="F348" t="n">
+      <c r="G348" t="n">
         <v>7.5</v>
       </c>
-      <c r="G348" t="n">
+      <c r="H348" t="n">
         <v>7.6</v>
       </c>
-      <c r="H348" t="n">
-        <v>7.2</v>
-      </c>
       <c r="I348" t="n">
-        <v>7.43</v>
+        <v>7.49</v>
       </c>
     </row>
     <row r="349">
@@ -8838,16 +8984,18 @@
         <v>413</v>
       </c>
       <c r="B349" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C349" t="n">
         <v>7.1</v>
       </c>
-      <c r="C349" t="inlineStr"/>
       <c r="D349" t="inlineStr"/>
       <c r="E349" t="inlineStr"/>
       <c r="F349" t="inlineStr"/>
       <c r="G349" t="inlineStr"/>
       <c r="H349" t="inlineStr"/>
       <c r="I349" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="350">
@@ -8855,28 +9003,28 @@
         <v>414</v>
       </c>
       <c r="B350" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C350" t="n">
         <v>9.4</v>
       </c>
-      <c r="C350" t="n">
+      <c r="D350" t="n">
         <v>7.8</v>
       </c>
-      <c r="D350" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E350" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F350" t="n">
         <v>7.2</v>
       </c>
-      <c r="F350" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G350" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H350" t="n">
         <v>7.8</v>
       </c>
-      <c r="H350" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I350" t="n">
-        <v>7.46</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="351">
@@ -8884,28 +9032,28 @@
         <v>415</v>
       </c>
       <c r="B351" t="n">
-        <v>6.4</v>
+        <v>8.5</v>
       </c>
       <c r="C351" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D351" t="n">
         <v>7.1</v>
       </c>
-      <c r="D351" t="n">
+      <c r="E351" t="n">
         <v>8.6</v>
       </c>
-      <c r="E351" t="n">
+      <c r="F351" t="n">
         <v>7.6</v>
       </c>
-      <c r="F351" t="n">
+      <c r="G351" t="n">
         <v>7.5</v>
       </c>
-      <c r="G351" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H351" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="I351" t="n">
-        <v>7.21</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="352">
@@ -8913,26 +9061,28 @@
         <v>416</v>
       </c>
       <c r="B352" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C352" t="n">
         <v>7.2</v>
       </c>
-      <c r="C352" t="n">
-        <v>6.8</v>
-      </c>
       <c r="D352" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E352" t="n">
         <v>7.3</v>
       </c>
-      <c r="E352" t="n">
+      <c r="F352" t="n">
         <v>5.9</v>
       </c>
-      <c r="F352" t="n">
+      <c r="G352" t="n">
         <v>7.3</v>
       </c>
-      <c r="G352" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H352" t="inlineStr"/>
+      <c r="H352" t="n">
+        <v>6.4</v>
+      </c>
       <c r="I352" t="n">
-        <v>6.82</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="353">
@@ -8998,10 +9148,10 @@
         <v>419</v>
       </c>
       <c r="B355" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="C355" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="D355" t="n">
         <v>6.8</v>
@@ -9010,12 +9160,14 @@
         <v>6.8</v>
       </c>
       <c r="F355" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="G355" t="inlineStr"/>
+        <v>6.8</v>
+      </c>
+      <c r="G355" t="n">
+        <v>6.7</v>
+      </c>
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="n">
-        <v>6.76</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="356">
@@ -9023,24 +9175,26 @@
         <v>420</v>
       </c>
       <c r="B356" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="C356" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="D356" t="n">
         <v>7.4</v>
       </c>
       <c r="E356" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F356" t="n">
         <v>7.1</v>
       </c>
-      <c r="F356" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="G356" t="inlineStr"/>
+      <c r="G356" t="n">
+        <v>6.7</v>
+      </c>
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="n">
-        <v>7.04</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="357">
@@ -9048,22 +9202,24 @@
         <v>421</v>
       </c>
       <c r="B357" t="n">
+        <v>7</v>
+      </c>
+      <c r="C357" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="C357" t="n">
-        <v>7</v>
-      </c>
       <c r="D357" t="n">
+        <v>7</v>
+      </c>
+      <c r="E357" t="n">
         <v>7.6</v>
       </c>
-      <c r="E357" t="n">
+      <c r="F357" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="F357" t="inlineStr"/>
       <c r="G357" t="inlineStr"/>
       <c r="H357" t="inlineStr"/>
       <c r="I357" t="n">
-        <v>7.78</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="358">
@@ -9096,7 +9252,7 @@
         <v>423</v>
       </c>
       <c r="B359" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="C359" t="n">
         <v>7.3</v>
@@ -9105,13 +9261,15 @@
         <v>7.3</v>
       </c>
       <c r="E359" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F359" t="inlineStr"/>
+        <v>7.3</v>
+      </c>
+      <c r="F359" t="n">
+        <v>6.5</v>
+      </c>
       <c r="G359" t="inlineStr"/>
       <c r="H359" t="inlineStr"/>
       <c r="I359" t="n">
-        <v>7.1</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="360">
@@ -9149,25 +9307,25 @@
         <v>426</v>
       </c>
       <c r="B362" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C362" t="n">
         <v>6.2</v>
       </c>
-      <c r="C362" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D362" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E362" t="n">
         <v>7.2</v>
       </c>
-      <c r="E362" t="n">
+      <c r="F362" t="n">
         <v>7.8</v>
       </c>
-      <c r="F362" t="n">
+      <c r="G362" t="n">
         <v>7.6</v>
       </c>
-      <c r="G362" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H362" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="I362" t="n">
         <v>6.93</v>
@@ -9207,28 +9365,28 @@
         <v>428</v>
       </c>
       <c r="B364" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C364" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="C364" t="n">
+      <c r="D364" t="n">
         <v>7.2</v>
       </c>
-      <c r="D364" t="n">
+      <c r="E364" t="n">
         <v>6</v>
       </c>
-      <c r="E364" t="n">
+      <c r="F364" t="n">
         <v>7.3</v>
       </c>
-      <c r="F364" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G364" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H364" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="I364" t="n">
-        <v>6.94</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="365">
@@ -9236,28 +9394,28 @@
         <v>429</v>
       </c>
       <c r="B365" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C365" t="n">
         <v>8</v>
       </c>
-      <c r="C365" t="n">
+      <c r="D365" t="n">
         <v>7.2</v>
       </c>
-      <c r="D365" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E365" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F365" t="n">
         <v>6.2</v>
       </c>
-      <c r="F365" t="n">
+      <c r="G365" t="n">
         <v>7.3</v>
       </c>
-      <c r="G365" t="n">
-        <v>6.8</v>
-      </c>
       <c r="H365" t="n">
         <v>6.8</v>
       </c>
       <c r="I365" t="n">
-        <v>6.99</v>
+        <v>7.14</v>
       </c>
     </row>
   </sheetData>

--- a/players_ratings.xlsx
+++ b/players_ratings.xlsx
@@ -599,26 +599,28 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="C8" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="D8" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E8" t="n">
         <v>7.5</v>
       </c>
-      <c r="E8" t="n">
-        <v>6.4</v>
-      </c>
       <c r="F8" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G8" t="n">
         <v>7.7</v>
       </c>
-      <c r="G8" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>6.7</v>
+      </c>
       <c r="I8" t="n">
-        <v>6.88</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="9">
@@ -629,25 +631,25 @@
         <v>7.5</v>
       </c>
       <c r="C9" t="n">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="E9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" t="n">
         <v>6.1</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>5.8</v>
       </c>
-      <c r="G9" t="n">
-        <v>6.8</v>
-      </c>
       <c r="H9" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="I9" t="n">
-        <v>6.57</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="10">
@@ -701,28 +703,28 @@
         <v>15</v>
       </c>
       <c r="B12" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="D12" t="n">
         <v>7.2</v>
       </c>
-      <c r="C12" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="D12" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E12" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G12" t="n">
         <v>7.1</v>
       </c>
-      <c r="F12" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="G12" t="n">
-        <v>9.1</v>
-      </c>
       <c r="H12" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="I12" t="n">
-        <v>7.19</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="13">
@@ -755,28 +757,28 @@
         <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="C14" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E14" t="n">
         <v>7.3</v>
       </c>
-      <c r="D14" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="E14" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F14" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="G14" t="n">
         <v>6.7</v>
       </c>
       <c r="H14" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="I14" t="n">
-        <v>6.81</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="15">
@@ -870,28 +872,28 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="C19" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D19" t="n">
         <v>6.1</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>6.3</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>7.7</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>8.1</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>6.2</v>
       </c>
-      <c r="H19" t="n">
-        <v>7.2</v>
-      </c>
       <c r="I19" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -928,24 +930,26 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="D21" t="n">
+        <v>7</v>
+      </c>
+      <c r="E21" t="n">
         <v>7.4</v>
       </c>
-      <c r="E21" t="n">
-        <v>7</v>
-      </c>
       <c r="F21" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="G21" t="n">
+        <v>6.7</v>
+      </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>6.94</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="22">
@@ -953,24 +957,26 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="C22" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="D22" t="n">
         <v>6.7</v>
       </c>
       <c r="E22" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="F22" t="n">
-        <v>7</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
+        <v>6.4</v>
+      </c>
+      <c r="G22" t="n">
+        <v>7</v>
+      </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>6.76</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="23">
@@ -1032,25 +1038,25 @@
         <v>7</v>
       </c>
       <c r="C26" t="n">
+        <v>7</v>
+      </c>
+      <c r="D26" t="n">
         <v>7.1</v>
       </c>
-      <c r="D26" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E26" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F26" t="n">
         <v>6.2</v>
       </c>
-      <c r="F26" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G26" t="n">
         <v>6.7</v>
       </c>
       <c r="H26" t="n">
-        <v>7.4</v>
+        <v>6.7</v>
       </c>
       <c r="I26" t="n">
-        <v>6.84</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="27">
@@ -1114,28 +1120,28 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C29" t="n">
         <v>7.3</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>7.2</v>
       </c>
-      <c r="D29" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E29" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F29" t="n">
         <v>7.1</v>
       </c>
-      <c r="F29" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G29" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="H29" t="n">
         <v>6.8</v>
       </c>
       <c r="I29" t="n">
-        <v>6.96</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="30">
@@ -1143,28 +1149,28 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C30" t="n">
         <v>7.9</v>
       </c>
-      <c r="C30" t="n">
-        <v>6.8</v>
-      </c>
       <c r="D30" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E30" t="n">
         <v>5.5</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>7.1</v>
       </c>
-      <c r="F30" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G30" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="H30" t="n">
-        <v>3.3</v>
+        <v>6.7</v>
       </c>
       <c r="I30" t="n">
-        <v>6.3</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="31">
@@ -1189,28 +1195,28 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="C32" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D32" t="n">
         <v>7.1</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>8.1</v>
       </c>
-      <c r="E32" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F32" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G32" t="n">
         <v>6</v>
       </c>
-      <c r="G32" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H32" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="I32" t="n">
-        <v>6.89</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="33">
@@ -1247,28 +1253,28 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C34" t="n">
         <v>6</v>
       </c>
-      <c r="C34" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D34" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E34" t="n">
         <v>6.2</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>7.2</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>6.1</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>7.7</v>
       </c>
-      <c r="H34" t="n">
-        <v>6.4</v>
-      </c>
       <c r="I34" t="n">
-        <v>6.59</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="35">
@@ -1276,20 +1282,22 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="C35" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="D35" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="E35" t="inlineStr"/>
+        <v>6.4</v>
+      </c>
+      <c r="E35" t="n">
+        <v>6.8</v>
+      </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>6.63</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="36">
@@ -1326,26 +1334,28 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="C37" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D37" t="n">
         <v>7.3</v>
       </c>
-      <c r="D37" t="n">
-        <v>7</v>
-      </c>
       <c r="E37" t="n">
+        <v>7</v>
+      </c>
+      <c r="F37" t="n">
         <v>7.9</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="G37" t="n">
-        <v>7</v>
-      </c>
-      <c r="H37" t="inlineStr"/>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
       <c r="I37" t="n">
-        <v>7.35</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="38">
@@ -1392,28 +1402,28 @@
         <v>51</v>
       </c>
       <c r="B41" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C41" t="n">
         <v>7.5</v>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
         <v>6.3</v>
       </c>
-      <c r="D41" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E41" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="F41" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="G41" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H41" t="n">
         <v>7.3</v>
       </c>
-      <c r="H41" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="I41" t="n">
-        <v>7.11</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="42">
@@ -1476,20 +1486,22 @@
         <v>55</v>
       </c>
       <c r="B45" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="C45" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="D45" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="E45" t="inlineStr"/>
+        <v>6.6</v>
+      </c>
+      <c r="E45" t="n">
+        <v>6.5</v>
+      </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
-        <v>6.6</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="46">
@@ -1664,28 +1676,28 @@
         <v>65</v>
       </c>
       <c r="B53" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="C53" t="n">
         <v>6.7</v>
       </c>
       <c r="D53" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="E53" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F53" t="n">
         <v>7.5</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>6.3</v>
       </c>
-      <c r="G53" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H53" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="I53" t="n">
-        <v>6.79</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="54">
@@ -1743,28 +1755,28 @@
         <v>69</v>
       </c>
       <c r="B56" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="C56" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="D56" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E56" t="n">
         <v>7.8</v>
       </c>
-      <c r="E56" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F56" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G56" t="n">
         <v>7.7</v>
       </c>
-      <c r="G56" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H56" t="n">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="I56" t="n">
-        <v>7.07</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="57">
@@ -1785,18 +1797,22 @@
         <v>75</v>
       </c>
       <c r="B58" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="C58" t="n">
         <v>6.6</v>
       </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
+      <c r="D58" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E58" t="n">
+        <v>6.6</v>
+      </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="n">
-        <v>6.7</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="59">
@@ -1807,10 +1823,10 @@
         <v>6.7</v>
       </c>
       <c r="C59" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="D59" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="E59" t="n">
         <v>7.4</v>
@@ -1819,11 +1835,13 @@
         <v>7.4</v>
       </c>
       <c r="G59" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H59" t="n">
         <v>7.6</v>
       </c>
-      <c r="H59" t="inlineStr"/>
       <c r="I59" t="n">
-        <v>7.22</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="60">
@@ -1834,25 +1852,25 @@
         <v>6.3</v>
       </c>
       <c r="C60" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="D60" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="E60" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="F60" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G60" t="n">
         <v>7.5</v>
       </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
         <v>7.1</v>
       </c>
-      <c r="H60" t="n">
-        <v>7.2</v>
-      </c>
       <c r="I60" t="n">
-        <v>6.89</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="61">
@@ -1951,24 +1969,26 @@
         <v>91</v>
       </c>
       <c r="B66" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="C66" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="D66" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="E66" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="F66" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G66" t="n">
         <v>6.3</v>
       </c>
-      <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="n">
-        <v>6.72</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="67">
@@ -2051,28 +2071,28 @@
         <v>95</v>
       </c>
       <c r="B70" t="n">
-        <v>7</v>
+        <v>8.1</v>
       </c>
       <c r="C70" t="n">
+        <v>9</v>
+      </c>
+      <c r="D70" t="n">
+        <v>7</v>
+      </c>
+      <c r="E70" t="n">
         <v>7.6</v>
       </c>
-      <c r="D70" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="E70" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F70" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="G70" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="H70" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="I70" t="n">
-        <v>6.87</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="71">
@@ -2383,28 +2403,28 @@
         <v>111</v>
       </c>
       <c r="B84" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="C84" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D84" t="n">
         <v>7.8</v>
       </c>
-      <c r="D84" t="n">
+      <c r="E84" t="n">
         <v>7.3</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>7.1</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>6.1</v>
       </c>
-      <c r="G84" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H84" t="n">
-        <v>7.6</v>
+        <v>6.7</v>
       </c>
       <c r="I84" t="n">
-        <v>7.06</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="85">
@@ -2425,28 +2445,28 @@
         <v>113</v>
       </c>
       <c r="B86" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="C86" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="D86" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="E86" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F86" t="n">
         <v>6.3</v>
       </c>
-      <c r="F86" t="n">
+      <c r="G86" t="n">
         <v>7.1</v>
       </c>
-      <c r="G86" t="n">
+      <c r="H86" t="n">
         <v>7.3</v>
       </c>
-      <c r="H86" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I86" t="n">
-        <v>6.79</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="87">
@@ -2538,18 +2558,20 @@
         <v>118</v>
       </c>
       <c r="B91" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="C91" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="D91" t="inlineStr"/>
+        <v>6.4</v>
+      </c>
+      <c r="D91" t="n">
+        <v>6.6</v>
+      </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="n">
-        <v>6.5</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="92">
@@ -2557,28 +2579,28 @@
         <v>119</v>
       </c>
       <c r="B92" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="C92" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="D92" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E92" t="n">
         <v>7.3</v>
       </c>
-      <c r="E92" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F92" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G92" t="n">
         <v>7.2</v>
       </c>
-      <c r="G92" t="n">
-        <v>6.8</v>
-      </c>
       <c r="H92" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="I92" t="n">
-        <v>6.81</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="93">
@@ -2633,28 +2655,28 @@
         <v>124</v>
       </c>
       <c r="B96" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C96" t="n">
         <v>7.1</v>
       </c>
-      <c r="C96" t="n">
-        <v>6.8</v>
-      </c>
       <c r="D96" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E96" t="n">
         <v>7.5</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
         <v>6.3</v>
       </c>
-      <c r="F96" t="n">
+      <c r="G96" t="n">
         <v>6</v>
       </c>
-      <c r="G96" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H96" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="I96" t="n">
-        <v>6.79</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="97">
@@ -2721,28 +2743,28 @@
         <v>129</v>
       </c>
       <c r="B100" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="C100" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D100" t="n">
         <v>5.8</v>
       </c>
-      <c r="D100" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E100" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F100" t="n">
         <v>7.6</v>
       </c>
-      <c r="F100" t="n">
-        <v>6.4</v>
-      </c>
       <c r="G100" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="H100" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="I100" t="n">
-        <v>6.76</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="101">
@@ -2786,28 +2808,28 @@
         <v>132</v>
       </c>
       <c r="B103" t="n">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="C103" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="D103" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E103" t="n">
         <v>7.4</v>
       </c>
-      <c r="E103" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F103" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G103" t="n">
         <v>6.2</v>
       </c>
-      <c r="G103" t="n">
-        <v>6.8</v>
-      </c>
       <c r="H103" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I103" t="n">
-        <v>6.64</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="104">
@@ -3007,28 +3029,28 @@
         <v>143</v>
       </c>
       <c r="B112" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="C112" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="D112" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="E112" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="F112" t="n">
         <v>6.2</v>
       </c>
       <c r="G112" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="H112" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="I112" t="n">
-        <v>6.49</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="113">
@@ -3036,26 +3058,28 @@
         <v>144</v>
       </c>
       <c r="B113" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="C113" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="D113" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E113" t="n">
         <v>7.3</v>
       </c>
-      <c r="E113" t="n">
+      <c r="F113" t="n">
         <v>7.6</v>
       </c>
-      <c r="F113" t="n">
+      <c r="G113" t="n">
         <v>7.2</v>
       </c>
-      <c r="G113" t="n">
-        <v>7</v>
-      </c>
-      <c r="H113" t="inlineStr"/>
+      <c r="H113" t="n">
+        <v>7</v>
+      </c>
       <c r="I113" t="n">
-        <v>7.13</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="114">
@@ -3090,28 +3114,28 @@
         <v>146</v>
       </c>
       <c r="B115" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C115" t="n">
         <v>7.7</v>
       </c>
-      <c r="C115" t="n">
+      <c r="D115" t="n">
         <v>6.1</v>
       </c>
-      <c r="D115" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E115" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F115" t="n">
         <v>7.1</v>
       </c>
-      <c r="F115" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G115" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="H115" t="n">
-        <v>7.9</v>
+        <v>6.5</v>
       </c>
       <c r="I115" t="n">
-        <v>6.94</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="116">
@@ -3119,28 +3143,28 @@
         <v>147</v>
       </c>
       <c r="B116" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="C116" t="n">
         <v>6.3</v>
       </c>
       <c r="D116" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="E116" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="F116" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="G116" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="H116" t="n">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="I116" t="n">
-        <v>6.69</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="117">
@@ -3161,28 +3185,28 @@
         <v>149</v>
       </c>
       <c r="B118" t="n">
-        <v>6.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C118" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D118" t="n">
         <v>7.3</v>
       </c>
-      <c r="D118" t="n">
-        <v>6.4</v>
-      </c>
       <c r="E118" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F118" t="n">
         <v>7.3</v>
       </c>
-      <c r="F118" t="n">
-        <v>6.4</v>
-      </c>
       <c r="G118" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H118" t="n">
         <v>7.8</v>
       </c>
-      <c r="H118" t="n">
-        <v>6.4</v>
-      </c>
       <c r="I118" t="n">
-        <v>6.91</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="119">
@@ -3193,25 +3217,25 @@
         <v>6.7</v>
       </c>
       <c r="C119" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D119" t="n">
         <v>7.1</v>
       </c>
-      <c r="D119" t="n">
-        <v>7</v>
-      </c>
       <c r="E119" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="F119" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G119" t="n">
         <v>6.3</v>
       </c>
-      <c r="G119" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H119" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="I119" t="n">
-        <v>6.73</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="120">
@@ -3484,26 +3508,28 @@
         <v>170</v>
       </c>
       <c r="B131" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C131" t="n">
         <v>7.9</v>
       </c>
-      <c r="C131" t="n">
+      <c r="D131" t="n">
         <v>7.1</v>
       </c>
-      <c r="D131" t="n">
+      <c r="E131" t="n">
         <v>6.1</v>
       </c>
-      <c r="E131" t="n">
+      <c r="F131" t="n">
         <v>7.2</v>
       </c>
-      <c r="F131" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G131" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H131" t="inlineStr"/>
+        <v>6.6</v>
+      </c>
+      <c r="H131" t="n">
+        <v>6.5</v>
+      </c>
       <c r="I131" t="n">
-        <v>6.9</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="132">
@@ -3736,24 +3762,26 @@
         <v>180</v>
       </c>
       <c r="B141" t="n">
-        <v>6.9</v>
+        <v>7.6</v>
       </c>
       <c r="C141" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D141" t="n">
         <v>9.1</v>
       </c>
-      <c r="D141" t="n">
+      <c r="E141" t="n">
         <v>7.3</v>
       </c>
-      <c r="E141" t="n">
-        <v>7</v>
-      </c>
       <c r="F141" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="G141" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="G141" t="n">
+        <v>6.9</v>
+      </c>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="n">
-        <v>7.44</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="142">
@@ -3853,26 +3881,28 @@
         <v>185</v>
       </c>
       <c r="B146" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C146" t="n">
         <v>7.8</v>
       </c>
-      <c r="C146" t="n">
+      <c r="D146" t="n">
         <v>7.5</v>
       </c>
-      <c r="D146" t="n">
+      <c r="E146" t="n">
         <v>7.2</v>
       </c>
-      <c r="E146" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F146" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G146" t="n">
         <v>8.1</v>
       </c>
-      <c r="G146" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H146" t="inlineStr"/>
+      <c r="H146" t="n">
+        <v>6.5</v>
+      </c>
       <c r="I146" t="n">
-        <v>7.3</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="147">
@@ -4009,28 +4039,28 @@
         <v>192</v>
       </c>
       <c r="B152" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="C152" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="D152" t="n">
         <v>6.9</v>
       </c>
       <c r="E152" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F152" t="n">
         <v>7.4</v>
       </c>
-      <c r="F152" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G152" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H152" t="n">
         <v>6.1</v>
       </c>
-      <c r="H152" t="n">
-        <v>6.4</v>
-      </c>
       <c r="I152" t="n">
-        <v>6.77</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="153">
@@ -4084,28 +4114,28 @@
         <v>195</v>
       </c>
       <c r="B155" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="C155" t="n">
+        <v>7</v>
+      </c>
+      <c r="D155" t="n">
         <v>5.9</v>
       </c>
-      <c r="D155" t="n">
+      <c r="E155" t="n">
         <v>6.3</v>
       </c>
-      <c r="E155" t="n">
+      <c r="F155" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="F155" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G155" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="H155" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="I155" t="n">
-        <v>6.91</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="156">
@@ -4113,28 +4143,28 @@
         <v>196</v>
       </c>
       <c r="B156" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="C156" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D156" t="n">
         <v>6.2</v>
       </c>
-      <c r="D156" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E156" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F156" t="n">
         <v>7.7</v>
-      </c>
-      <c r="F156" t="n">
-        <v>6.3</v>
       </c>
       <c r="G156" t="n">
         <v>6.3</v>
       </c>
       <c r="H156" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="I156" t="n">
-        <v>6.69</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="157">
@@ -4230,24 +4260,26 @@
         <v>201</v>
       </c>
       <c r="B161" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="C161" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D161" t="n">
         <v>5.5</v>
       </c>
-      <c r="D161" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E161" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F161" t="n">
         <v>6.3</v>
       </c>
-      <c r="F161" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="G161" t="inlineStr"/>
+      <c r="G161" t="n">
+        <v>6.6</v>
+      </c>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="n">
-        <v>6.32</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="162">
@@ -4311,28 +4343,28 @@
         <v>206</v>
       </c>
       <c r="B164" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C164" t="n">
         <v>7.1</v>
       </c>
-      <c r="C164" t="n">
-        <v>6.8</v>
-      </c>
       <c r="D164" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E164" t="n">
         <v>7.3</v>
       </c>
-      <c r="E164" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F164" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="G164" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="H164" t="n">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="I164" t="n">
-        <v>6.74</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="165">
@@ -4428,28 +4460,28 @@
         <v>211</v>
       </c>
       <c r="B169" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="C169" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="D169" t="n">
         <v>7.3</v>
       </c>
       <c r="E169" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="F169" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="G169" t="n">
         <v>7.2</v>
       </c>
-      <c r="F169" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="G169" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H169" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="I169" t="n">
-        <v>6.97</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="170">
@@ -4457,28 +4489,28 @@
         <v>212</v>
       </c>
       <c r="B170" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="C170" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="D170" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E170" t="n">
         <v>7.2</v>
       </c>
-      <c r="E170" t="n">
-        <v>6.4</v>
-      </c>
       <c r="F170" t="n">
         <v>6.4</v>
       </c>
       <c r="G170" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H170" t="n">
         <v>7.1</v>
       </c>
-      <c r="H170" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I170" t="n">
-        <v>6.73</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="171">
@@ -4503,28 +4535,28 @@
         <v>214</v>
       </c>
       <c r="B172" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C172" t="n">
         <v>7.8</v>
       </c>
-      <c r="C172" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D172" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="E172" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="F172" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="G172" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="H172" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="I172" t="n">
-        <v>6.8</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="173">
@@ -4545,28 +4577,28 @@
         <v>216</v>
       </c>
       <c r="B174" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="C174" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D174" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E174" t="n">
         <v>6.1</v>
       </c>
-      <c r="D174" t="n">
+      <c r="F174" t="n">
         <v>7.4</v>
       </c>
-      <c r="E174" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="F174" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G174" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="H174" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I174" t="n">
-        <v>6.66</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="175">
@@ -4632,28 +4664,28 @@
         <v>219</v>
       </c>
       <c r="B177" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C177" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="D177" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E177" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F177" t="n">
         <v>7.3</v>
       </c>
-      <c r="C177" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="D177" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="E177" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="F177" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G177" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H177" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="I177" t="n">
-        <v>6.94</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="178">
@@ -4728,28 +4760,28 @@
         <v>223</v>
       </c>
       <c r="B181" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="C181" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="D181" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="E181" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="F181" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="G181" t="n">
         <v>6.3</v>
       </c>
       <c r="H181" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="I181" t="n">
-        <v>6.53</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="182">
@@ -4757,25 +4789,25 @@
         <v>224</v>
       </c>
       <c r="B182" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C182" t="n">
         <v>7.7</v>
       </c>
-      <c r="C182" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D182" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E182" t="n">
         <v>7.3</v>
       </c>
-      <c r="E182" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F182" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="G182" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H182" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="I182" t="n">
         <v>6.93</v>
@@ -4786,28 +4818,28 @@
         <v>225</v>
       </c>
       <c r="B183" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C183" t="n">
         <v>7.1</v>
       </c>
-      <c r="C183" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D183" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E183" t="n">
         <v>6.1</v>
       </c>
-      <c r="E183" t="n">
+      <c r="F183" t="n">
         <v>7.4</v>
       </c>
-      <c r="F183" t="n">
+      <c r="G183" t="n">
         <v>7.3</v>
       </c>
-      <c r="G183" t="n">
+      <c r="H183" t="n">
         <v>7.5</v>
       </c>
-      <c r="H183" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I183" t="n">
-        <v>6.96</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="184">
@@ -4873,28 +4905,28 @@
         <v>228</v>
       </c>
       <c r="B186" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="C186" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="D186" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E186" t="n">
         <v>7.2</v>
       </c>
-      <c r="E186" t="n">
+      <c r="F186" t="n">
         <v>8.4</v>
       </c>
-      <c r="F186" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G186" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="H186" t="n">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="I186" t="n">
-        <v>7.23</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="187">
@@ -4974,28 +5006,28 @@
         <v>236</v>
       </c>
       <c r="B191" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C191" t="n">
         <v>7.8</v>
       </c>
-      <c r="C191" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D191" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E191" t="n">
         <v>7.6</v>
       </c>
-      <c r="E191" t="n">
+      <c r="F191" t="n">
         <v>7.8</v>
       </c>
-      <c r="F191" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G191" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="H191" t="n">
-        <v>7.9</v>
+        <v>6.9</v>
       </c>
       <c r="I191" t="n">
-        <v>7.37</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="192">
@@ -5146,20 +5178,22 @@
         <v>244</v>
       </c>
       <c r="B199" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C199" t="n">
         <v>7.4</v>
       </c>
-      <c r="C199" t="n">
+      <c r="D199" t="n">
         <v>7.1</v>
       </c>
-      <c r="D199" t="n">
-        <v>7</v>
-      </c>
-      <c r="E199" t="inlineStr"/>
+      <c r="E199" t="n">
+        <v>7</v>
+      </c>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="n">
-        <v>7.17</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="200">
@@ -5188,28 +5222,28 @@
         <v>247</v>
       </c>
       <c r="B201" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C201" t="n">
         <v>7.7</v>
       </c>
-      <c r="C201" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D201" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E201" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="E201" t="n">
+      <c r="F201" t="n">
         <v>6.2</v>
       </c>
-      <c r="F201" t="n">
+      <c r="G201" t="n">
         <v>7.7</v>
       </c>
-      <c r="G201" t="n">
+      <c r="H201" t="n">
         <v>7.5</v>
       </c>
-      <c r="H201" t="n">
-        <v>7.2</v>
-      </c>
       <c r="I201" t="n">
-        <v>7.34</v>
+        <v>7.26</v>
       </c>
     </row>
     <row r="202">
@@ -5249,24 +5283,26 @@
         <v>252</v>
       </c>
       <c r="B204" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="C204" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D204" t="n">
         <v>8.4</v>
       </c>
-      <c r="D204" t="n">
+      <c r="E204" t="n">
         <v>7.2</v>
       </c>
-      <c r="E204" t="n">
+      <c r="F204" t="n">
         <v>7.6</v>
       </c>
-      <c r="F204" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="G204" t="inlineStr"/>
+      <c r="G204" t="n">
+        <v>6.7</v>
+      </c>
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="n">
-        <v>7.32</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="205">
@@ -5367,22 +5403,24 @@
         <v>259</v>
       </c>
       <c r="B210" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C210" t="n">
         <v>7.6</v>
       </c>
-      <c r="C210" t="n">
-        <v>7</v>
-      </c>
       <c r="D210" t="n">
+        <v>7</v>
+      </c>
+      <c r="E210" t="n">
         <v>7.3</v>
       </c>
-      <c r="E210" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="F210" t="inlineStr"/>
+      <c r="F210" t="n">
+        <v>6.6</v>
+      </c>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="n">
-        <v>7.12</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="211">
@@ -5390,26 +5428,28 @@
         <v>260</v>
       </c>
       <c r="B211" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C211" t="n">
         <v>7.6</v>
       </c>
-      <c r="C211" t="n">
+      <c r="D211" t="n">
         <v>6.1</v>
       </c>
-      <c r="D211" t="n">
+      <c r="E211" t="n">
         <v>7.2</v>
       </c>
-      <c r="E211" t="n">
+      <c r="F211" t="n">
         <v>7.4</v>
       </c>
-      <c r="F211" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G211" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H211" t="n">
         <v>6.2</v>
       </c>
-      <c r="H211" t="inlineStr"/>
       <c r="I211" t="n">
-        <v>6.9</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="212">
@@ -5417,20 +5457,22 @@
         <v>261</v>
       </c>
       <c r="B212" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="C212" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D212" t="n">
         <v>7.2</v>
       </c>
-      <c r="D212" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="E212" t="inlineStr"/>
+      <c r="E212" t="n">
+        <v>6.6</v>
+      </c>
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="inlineStr"/>
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="n">
-        <v>6.87</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="213">
@@ -5438,20 +5480,22 @@
         <v>263</v>
       </c>
       <c r="B213" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="C213" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D213" t="n">
         <v>7.3</v>
       </c>
-      <c r="D213" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="E213" t="inlineStr"/>
+      <c r="E213" t="n">
+        <v>6.8</v>
+      </c>
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="inlineStr"/>
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="n">
-        <v>6.87</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="214">
@@ -5472,25 +5516,25 @@
         <v>267</v>
       </c>
       <c r="B215" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C215" t="n">
         <v>6.3</v>
       </c>
-      <c r="C215" t="n">
+      <c r="D215" t="n">
         <v>7.8</v>
       </c>
-      <c r="D215" t="n">
+      <c r="E215" t="n">
         <v>6.2</v>
       </c>
-      <c r="E215" t="n">
+      <c r="F215" t="n">
         <v>7.8</v>
       </c>
-      <c r="F215" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G215" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H215" t="n">
         <v>7.1</v>
-      </c>
-      <c r="H215" t="n">
-        <v>6.9</v>
       </c>
       <c r="I215" t="n">
         <v>6.99</v>
@@ -5501,26 +5545,28 @@
         <v>273</v>
       </c>
       <c r="B216" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C216" t="n">
         <v>8.1</v>
       </c>
-      <c r="C216" t="n">
+      <c r="D216" t="n">
         <v>6.3</v>
       </c>
-      <c r="D216" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E216" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="F216" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="G216" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H216" t="inlineStr"/>
+        <v>6.6</v>
+      </c>
+      <c r="H216" t="n">
+        <v>6.4</v>
+      </c>
       <c r="I216" t="n">
-        <v>6.73</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="217">
@@ -5661,28 +5707,28 @@
         <v>279</v>
       </c>
       <c r="B222" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="C222" t="n">
         <v>6.9</v>
       </c>
       <c r="D222" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E222" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="E222" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F222" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G222" t="n">
         <v>7.1</v>
       </c>
-      <c r="G222" t="n">
+      <c r="H222" t="n">
         <v>6.1</v>
       </c>
-      <c r="H222" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I222" t="n">
-        <v>6.97</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="223">
@@ -5690,28 +5736,28 @@
         <v>280</v>
       </c>
       <c r="B223" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C223" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D223" t="n">
         <v>4.9</v>
       </c>
-      <c r="C223" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="D223" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E223" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F223" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G223" t="n">
         <v>7.2</v>
       </c>
-      <c r="F223" t="n">
+      <c r="H223" t="n">
         <v>7.3</v>
       </c>
-      <c r="G223" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H223" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I223" t="n">
-        <v>6.57</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="224">
@@ -5719,18 +5765,22 @@
         <v>281</v>
       </c>
       <c r="B224" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C224" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D224" t="n">
         <v>7.7</v>
       </c>
-      <c r="C224" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="D224" t="inlineStr"/>
-      <c r="E224" t="inlineStr"/>
+      <c r="E224" t="n">
+        <v>6.8</v>
+      </c>
       <c r="F224" t="inlineStr"/>
       <c r="G224" t="inlineStr"/>
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="n">
-        <v>7.25</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="225">
@@ -5738,24 +5788,26 @@
         <v>282</v>
       </c>
       <c r="B225" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="C225" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D225" t="n">
         <v>7.6</v>
       </c>
-      <c r="D225" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E225" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="F225" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G225" t="n">
         <v>5.1</v>
       </c>
-      <c r="G225" t="inlineStr"/>
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="n">
-        <v>6.56</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="226">
@@ -5791,25 +5843,25 @@
         <v>7.2</v>
       </c>
       <c r="C227" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="D227" t="n">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="E227" t="n">
         <v>7.4</v>
       </c>
       <c r="F227" t="n">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="G227" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="H227" t="n">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="I227" t="n">
-        <v>7.14</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="228">
@@ -5904,28 +5956,28 @@
         <v>289</v>
       </c>
       <c r="B231" t="n">
-        <v>6.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C231" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D231" t="n">
         <v>8.1</v>
       </c>
-      <c r="D231" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E231" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F231" t="n">
         <v>7.6</v>
       </c>
-      <c r="F231" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G231" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="H231" t="n">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="I231" t="n">
-        <v>7.19</v>
+        <v>7.29</v>
       </c>
     </row>
     <row r="232">
@@ -5933,24 +5985,26 @@
         <v>290</v>
       </c>
       <c r="B232" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="C232" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D232" t="n">
         <v>7.2</v>
       </c>
-      <c r="D232" t="n">
+      <c r="E232" t="n">
         <v>7.5</v>
       </c>
-      <c r="E232" t="n">
+      <c r="F232" t="n">
         <v>6.2</v>
       </c>
-      <c r="F232" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="G232" t="inlineStr"/>
+      <c r="G232" t="n">
+        <v>6.9</v>
+      </c>
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="n">
-        <v>6.88</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="233">
@@ -5958,26 +6012,28 @@
         <v>291</v>
       </c>
       <c r="B233" t="n">
-        <v>6.7</v>
+        <v>8.4</v>
       </c>
       <c r="C233" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D233" t="n">
         <v>8</v>
       </c>
-      <c r="D233" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E233" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F233" t="n">
         <v>7.2</v>
       </c>
-      <c r="F233" t="n">
+      <c r="G233" t="n">
         <v>7.6</v>
       </c>
-      <c r="G233" t="n">
+      <c r="H233" t="n">
         <v>7.3</v>
       </c>
-      <c r="H233" t="inlineStr"/>
       <c r="I233" t="n">
-        <v>7.22</v>
+        <v>7.39</v>
       </c>
     </row>
     <row r="234">
@@ -5985,24 +6041,26 @@
         <v>292</v>
       </c>
       <c r="B234" t="n">
-        <v>6.9</v>
+        <v>7.6</v>
       </c>
       <c r="C234" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="D234" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="E234" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="F234" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="G234" t="inlineStr"/>
+        <v>6.6</v>
+      </c>
+      <c r="G234" t="n">
+        <v>6.7</v>
+      </c>
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="n">
-        <v>6.66</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="235">
@@ -6060,28 +6118,28 @@
         <v>295</v>
       </c>
       <c r="B237" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C237" t="n">
         <v>7.2</v>
       </c>
-      <c r="C237" t="n">
+      <c r="D237" t="n">
         <v>6.3</v>
       </c>
-      <c r="D237" t="n">
-        <v>7</v>
-      </c>
       <c r="E237" t="n">
+        <v>7</v>
+      </c>
+      <c r="F237" t="n">
         <v>7.4</v>
       </c>
-      <c r="F237" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G237" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="H237" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="I237" t="n">
-        <v>7.03</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="238">
@@ -6089,22 +6147,24 @@
         <v>296</v>
       </c>
       <c r="B238" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C238" t="n">
         <v>6.2</v>
       </c>
-      <c r="C238" t="n">
+      <c r="D238" t="n">
         <v>7.6</v>
       </c>
-      <c r="D238" t="n">
-        <v>6.4</v>
-      </c>
       <c r="E238" t="n">
         <v>6.4</v>
       </c>
-      <c r="F238" t="inlineStr"/>
+      <c r="F238" t="n">
+        <v>6.4</v>
+      </c>
       <c r="G238" t="inlineStr"/>
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="n">
-        <v>6.65</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="239">
@@ -6112,28 +6172,28 @@
         <v>298</v>
       </c>
       <c r="B239" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C239" t="n">
         <v>7.5</v>
       </c>
-      <c r="C239" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D239" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="E239" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="F239" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="G239" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="H239" t="n">
         <v>7.1</v>
       </c>
       <c r="I239" t="n">
-        <v>6.86</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="240">
@@ -6141,28 +6201,28 @@
         <v>299</v>
       </c>
       <c r="B240" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="C240" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D240" t="n">
         <v>7.2</v>
       </c>
-      <c r="D240" t="n">
+      <c r="E240" t="n">
         <v>7.9</v>
       </c>
-      <c r="E240" t="n">
-        <v>7</v>
-      </c>
       <c r="F240" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="G240" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H240" t="n">
         <v>7.7</v>
       </c>
-      <c r="H240" t="n">
-        <v>6.4</v>
-      </c>
       <c r="I240" t="n">
-        <v>7.1</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="241">
@@ -6199,28 +6259,16 @@
         <v>301</v>
       </c>
       <c r="B242" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="C242" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="D242" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="E242" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="F242" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="G242" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="H242" t="n">
-        <v>7.1</v>
-      </c>
+        <v>6.4</v>
+      </c>
+      <c r="C242" t="inlineStr"/>
+      <c r="D242" t="inlineStr"/>
+      <c r="E242" t="inlineStr"/>
+      <c r="F242" t="inlineStr"/>
+      <c r="G242" t="inlineStr"/>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="n">
-        <v>7.67</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="243">
@@ -6228,28 +6276,28 @@
         <v>302</v>
       </c>
       <c r="B243" t="n">
-        <v>5.4</v>
+        <v>6.3</v>
       </c>
       <c r="C243" t="n">
         <v>5.4</v>
       </c>
       <c r="D243" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E243" t="n">
         <v>5.8</v>
       </c>
-      <c r="E243" t="n">
+      <c r="F243" t="n">
         <v>7.9</v>
       </c>
-      <c r="F243" t="n">
+      <c r="G243" t="n">
         <v>7.5</v>
       </c>
-      <c r="G243" t="n">
+      <c r="H243" t="n">
         <v>4.8</v>
       </c>
-      <c r="H243" t="n">
-        <v>7.3</v>
-      </c>
       <c r="I243" t="n">
-        <v>6.3</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="244">
@@ -6257,18 +6305,20 @@
         <v>303</v>
       </c>
       <c r="B244" t="n">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="C244" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="D244" t="inlineStr"/>
+        <v>6.7</v>
+      </c>
+      <c r="D244" t="n">
+        <v>6.5</v>
+      </c>
       <c r="E244" t="inlineStr"/>
       <c r="F244" t="inlineStr"/>
       <c r="G244" t="inlineStr"/>
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="n">
-        <v>6.6</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="245">
@@ -6276,28 +6326,28 @@
         <v>305</v>
       </c>
       <c r="B245" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C245" t="n">
         <v>7.1</v>
       </c>
-      <c r="C245" t="n">
+      <c r="D245" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="D245" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E245" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F245" t="n">
         <v>6.3</v>
       </c>
-      <c r="F245" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G245" t="n">
         <v>6.8</v>
       </c>
       <c r="H245" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="I245" t="n">
-        <v>7.04</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="246">
@@ -6308,25 +6358,25 @@
         <v>6.9</v>
       </c>
       <c r="C246" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="D246" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="E246" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="F246" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G246" t="n">
         <v>7.9</v>
       </c>
-      <c r="G246" t="n">
+      <c r="H246" t="n">
         <v>8</v>
       </c>
-      <c r="H246" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I246" t="n">
-        <v>6.99</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="247">
@@ -6334,28 +6384,28 @@
         <v>307</v>
       </c>
       <c r="B247" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="C247" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D247" t="n">
         <v>7.2</v>
       </c>
-      <c r="D247" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E247" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="F247" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="G247" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="H247" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="I247" t="n">
-        <v>6.73</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="248">
@@ -6366,25 +6416,25 @@
         <v>6.5</v>
       </c>
       <c r="C248" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D248" t="n">
         <v>7.4</v>
       </c>
-      <c r="D248" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E248" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="F248" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="G248" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="H248" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="I248" t="n">
-        <v>6.83</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="249">
@@ -6392,20 +6442,22 @@
         <v>309</v>
       </c>
       <c r="B249" t="n">
+        <v>7</v>
+      </c>
+      <c r="C249" t="n">
         <v>7.3</v>
       </c>
-      <c r="C249" t="n">
+      <c r="D249" t="n">
         <v>7.7</v>
       </c>
-      <c r="D249" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="E249" t="inlineStr"/>
+      <c r="E249" t="n">
+        <v>6.8</v>
+      </c>
       <c r="F249" t="inlineStr"/>
       <c r="G249" t="inlineStr"/>
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="n">
-        <v>7.27</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="250">
@@ -6413,28 +6465,28 @@
         <v>310</v>
       </c>
       <c r="B250" t="n">
+        <v>7</v>
+      </c>
+      <c r="C250" t="n">
         <v>7.4</v>
       </c>
-      <c r="C250" t="n">
+      <c r="D250" t="n">
         <v>7.5</v>
       </c>
-      <c r="D250" t="n">
+      <c r="E250" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="E250" t="n">
+      <c r="F250" t="n">
         <v>7.4</v>
       </c>
-      <c r="F250" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G250" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H250" t="n">
         <v>5.4</v>
       </c>
-      <c r="H250" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I250" t="n">
-        <v>7.04</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="251">
@@ -6442,28 +6494,18 @@
         <v>311</v>
       </c>
       <c r="B251" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="C251" t="n">
         <v>7</v>
       </c>
-      <c r="D251" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="E251" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="F251" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="G251" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H251" t="n">
-        <v>7</v>
-      </c>
+      <c r="D251" t="inlineStr"/>
+      <c r="E251" t="inlineStr"/>
+      <c r="F251" t="inlineStr"/>
+      <c r="G251" t="inlineStr"/>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="n">
-        <v>7.11</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="252">
@@ -6471,26 +6513,28 @@
         <v>312</v>
       </c>
       <c r="B252" t="n">
-        <v>6.5</v>
+        <v>7.9</v>
       </c>
       <c r="C252" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="D252" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="E252" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="F252" t="n">
         <v>6.8</v>
       </c>
       <c r="G252" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H252" t="inlineStr"/>
+        <v>6.8</v>
+      </c>
+      <c r="H252" t="n">
+        <v>6.4</v>
+      </c>
       <c r="I252" t="n">
-        <v>6.65</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="253">
@@ -6498,28 +6542,28 @@
         <v>313</v>
       </c>
       <c r="B253" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C253" t="n">
         <v>9.6</v>
       </c>
-      <c r="C253" t="n">
+      <c r="D253" t="n">
         <v>6.3</v>
       </c>
-      <c r="D253" t="n">
-        <v>6.4</v>
-      </c>
       <c r="E253" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F253" t="n">
         <v>7.6</v>
       </c>
-      <c r="F253" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G253" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H253" t="n">
         <v>6.2</v>
       </c>
-      <c r="H253" t="n">
-        <v>7</v>
-      </c>
       <c r="I253" t="n">
-        <v>7.09</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="254">
@@ -6527,24 +6571,28 @@
         <v>314</v>
       </c>
       <c r="B254" t="n">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="C254" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="D254" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E254" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F254" t="n">
         <v>7.4</v>
       </c>
-      <c r="E254" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F254" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="G254" t="inlineStr"/>
-      <c r="H254" t="inlineStr"/>
+      <c r="G254" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H254" t="n">
+        <v>6.7</v>
+      </c>
       <c r="I254" t="n">
-        <v>6.78</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="255">
@@ -6552,22 +6600,24 @@
         <v>315</v>
       </c>
       <c r="B255" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C255" t="n">
         <v>7.2</v>
       </c>
-      <c r="C255" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D255" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E255" t="n">
         <v>7.3</v>
       </c>
-      <c r="E255" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F255" t="inlineStr"/>
+      <c r="F255" t="n">
+        <v>6.5</v>
+      </c>
       <c r="G255" t="inlineStr"/>
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="n">
-        <v>6.98</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="256">
@@ -6575,28 +6625,28 @@
         <v>316</v>
       </c>
       <c r="B256" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="C256" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="D256" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="E256" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="F256" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="G256" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H256" t="n">
         <v>6</v>
       </c>
-      <c r="H256" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="I256" t="n">
-        <v>6.81</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="257">
@@ -6629,28 +6679,28 @@
         <v>318</v>
       </c>
       <c r="B258" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C258" t="n">
         <v>6.3</v>
       </c>
-      <c r="C258" t="n">
+      <c r="D258" t="n">
         <v>7.1</v>
       </c>
-      <c r="D258" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E258" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="F258" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="G258" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="H258" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I258" t="n">
-        <v>6.63</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="259">
@@ -6704,25 +6754,25 @@
         <v>321</v>
       </c>
       <c r="B261" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="C261" t="n">
+        <v>7</v>
+      </c>
+      <c r="D261" t="n">
         <v>7.4</v>
       </c>
-      <c r="D261" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E261" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F261" t="n">
         <v>7.6</v>
       </c>
-      <c r="F261" t="n">
+      <c r="G261" t="n">
         <v>7.7</v>
       </c>
-      <c r="G261" t="n">
-        <v>6.8</v>
-      </c>
       <c r="H261" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="I261" t="n">
         <v>7.14</v>
@@ -6811,30 +6861,14 @@
       <c r="A265" s="1" t="n">
         <v>325</v>
       </c>
-      <c r="B265" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="C265" t="n">
-        <v>8</v>
-      </c>
-      <c r="D265" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="E265" t="n">
-        <v>7</v>
-      </c>
-      <c r="F265" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="G265" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H265" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="I265" t="n">
-        <v>7.47</v>
-      </c>
+      <c r="B265" t="inlineStr"/>
+      <c r="C265" t="inlineStr"/>
+      <c r="D265" t="inlineStr"/>
+      <c r="E265" t="inlineStr"/>
+      <c r="F265" t="inlineStr"/>
+      <c r="G265" t="inlineStr"/>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -7010,26 +7044,28 @@
         <v>336</v>
       </c>
       <c r="B273" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C273" t="n">
         <v>6</v>
       </c>
-      <c r="C273" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D273" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E273" t="n">
         <v>7.3</v>
       </c>
-      <c r="E273" t="n">
+      <c r="F273" t="n">
         <v>6</v>
       </c>
-      <c r="F273" t="n">
+      <c r="G273" t="n">
         <v>7.6</v>
       </c>
-      <c r="G273" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H273" t="inlineStr"/>
+      <c r="H273" t="n">
+        <v>6.4</v>
+      </c>
       <c r="I273" t="n">
-        <v>6.65</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="274">
@@ -7037,28 +7073,28 @@
         <v>337</v>
       </c>
       <c r="B274" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="C274" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D274" t="n">
         <v>6.3</v>
       </c>
-      <c r="D274" t="n">
+      <c r="E274" t="n">
         <v>7.2</v>
       </c>
-      <c r="E274" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F274" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G274" t="n">
         <v>8.6</v>
       </c>
-      <c r="G274" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H274" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="I274" t="n">
-        <v>6.91</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="275">
@@ -7102,20 +7138,22 @@
         <v>340</v>
       </c>
       <c r="B277" t="n">
-        <v>6.9</v>
+        <v>7.8</v>
       </c>
       <c r="C277" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="D277" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E277" t="n">
         <v>7.3</v>
       </c>
-      <c r="E277" t="inlineStr"/>
       <c r="F277" t="inlineStr"/>
       <c r="G277" t="inlineStr"/>
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="n">
-        <v>6.97</v>
+        <v>7.18</v>
       </c>
     </row>
     <row r="278">
@@ -7126,19 +7164,21 @@
         <v>7.5</v>
       </c>
       <c r="C278" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="D278" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="E278" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F278" t="inlineStr"/>
+        <v>6.9</v>
+      </c>
+      <c r="F278" t="n">
+        <v>6.5</v>
+      </c>
       <c r="G278" t="inlineStr"/>
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="n">
-        <v>6.88</v>
+        <v>7</v>
       </c>
     </row>
     <row r="279">
@@ -7146,28 +7186,28 @@
         <v>342</v>
       </c>
       <c r="B279" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C279" t="n">
         <v>7.7</v>
       </c>
-      <c r="C279" t="n">
+      <c r="D279" t="n">
         <v>7.8</v>
       </c>
-      <c r="D279" t="n">
-        <v>6.4</v>
-      </c>
       <c r="E279" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F279" t="n">
         <v>7.1</v>
       </c>
-      <c r="F279" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G279" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="H279" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="I279" t="n">
-        <v>7.04</v>
+        <v>7</v>
       </c>
     </row>
     <row r="280">
@@ -7200,28 +7240,28 @@
         <v>344</v>
       </c>
       <c r="B281" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C281" t="n">
         <v>8</v>
       </c>
-      <c r="C281" t="n">
+      <c r="D281" t="n">
         <v>10</v>
       </c>
-      <c r="D281" t="n">
+      <c r="E281" t="n">
         <v>7.6</v>
       </c>
-      <c r="E281" t="n">
+      <c r="F281" t="n">
         <v>7.3</v>
       </c>
-      <c r="F281" t="n">
+      <c r="G281" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="G281" t="n">
+      <c r="H281" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="H281" t="n">
-        <v>7.3</v>
-      </c>
       <c r="I281" t="n">
-        <v>8.1</v>
+        <v>8.09</v>
       </c>
     </row>
     <row r="282">
@@ -7229,28 +7269,28 @@
         <v>345</v>
       </c>
       <c r="B282" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C282" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D282" t="n">
         <v>7.2</v>
       </c>
-      <c r="C282" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="D282" t="n">
+      <c r="E282" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F282" t="n">
         <v>7.4</v>
       </c>
-      <c r="E282" t="n">
+      <c r="G282" t="n">
         <v>7.3</v>
       </c>
-      <c r="F282" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="G282" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H282" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="I282" t="n">
-        <v>6.86</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="283">
@@ -7258,28 +7298,28 @@
         <v>346</v>
       </c>
       <c r="B283" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C283" t="n">
         <v>6.2</v>
       </c>
-      <c r="C283" t="n">
+      <c r="D283" t="n">
         <v>7.4</v>
-      </c>
-      <c r="D283" t="n">
-        <v>7.5</v>
       </c>
       <c r="E283" t="n">
         <v>7.5</v>
       </c>
       <c r="F283" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G283" t="n">
         <v>7.1</v>
       </c>
-      <c r="G283" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H283" t="n">
-        <v>7.7</v>
+        <v>6.9</v>
       </c>
       <c r="I283" t="n">
-        <v>7.19</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="284">
@@ -7316,28 +7356,28 @@
         <v>348</v>
       </c>
       <c r="B285" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="C285" t="n">
+        <v>7</v>
+      </c>
+      <c r="D285" t="n">
         <v>8.1</v>
       </c>
-      <c r="D285" t="n">
+      <c r="E285" t="n">
         <v>7.2</v>
       </c>
-      <c r="E285" t="n">
-        <v>6.4</v>
-      </c>
       <c r="F285" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G285" t="n">
         <v>7.9</v>
       </c>
-      <c r="G285" t="n">
+      <c r="H285" t="n">
         <v>7.2</v>
       </c>
-      <c r="H285" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I285" t="n">
-        <v>7.2</v>
+        <v>7.21</v>
       </c>
     </row>
     <row r="286">
@@ -7345,28 +7385,28 @@
         <v>349</v>
       </c>
       <c r="B286" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C286" t="n">
         <v>7.2</v>
       </c>
-      <c r="C286" t="n">
-        <v>6.8</v>
-      </c>
       <c r="D286" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="E286" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F286" t="n">
         <v>5.9</v>
       </c>
-      <c r="F286" t="n">
-        <v>6.4</v>
-      </c>
       <c r="G286" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="H286" t="n">
-        <v>7.9</v>
+        <v>6.9</v>
       </c>
       <c r="I286" t="n">
-        <v>6.83</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="287">
@@ -7403,20 +7443,22 @@
         <v>351</v>
       </c>
       <c r="B288" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="C288" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D288" t="n">
         <v>6.2</v>
       </c>
-      <c r="D288" t="n">
+      <c r="E288" t="n">
         <v>5.7</v>
       </c>
-      <c r="E288" t="inlineStr"/>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr"/>
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="n">
-        <v>6.1</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="289">
@@ -7566,26 +7608,28 @@
         <v>358</v>
       </c>
       <c r="B295" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C295" t="n">
         <v>6.1</v>
       </c>
-      <c r="C295" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D295" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="E295" t="n">
+        <v>7</v>
+      </c>
+      <c r="F295" t="n">
         <v>7.9</v>
       </c>
-      <c r="F295" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G295" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H295" t="n">
         <v>6.3</v>
       </c>
-      <c r="H295" t="inlineStr"/>
       <c r="I295" t="n">
-        <v>6.82</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="296">
@@ -7593,26 +7637,28 @@
         <v>359</v>
       </c>
       <c r="B296" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C296" t="n">
         <v>7.1</v>
       </c>
-      <c r="C296" t="n">
+      <c r="D296" t="n">
         <v>7.3</v>
       </c>
-      <c r="D296" t="n">
+      <c r="E296" t="n">
         <v>7.5</v>
       </c>
-      <c r="E296" t="n">
+      <c r="F296" t="n">
         <v>7.3</v>
       </c>
-      <c r="F296" t="n">
+      <c r="G296" t="n">
         <v>7.9</v>
       </c>
-      <c r="G296" t="n">
+      <c r="H296" t="n">
         <v>7.3</v>
       </c>
-      <c r="H296" t="inlineStr"/>
       <c r="I296" t="n">
-        <v>7.4</v>
+        <v>7.33</v>
       </c>
     </row>
     <row r="297">
@@ -7620,1186 +7666,1196 @@
         <v>360</v>
       </c>
       <c r="B297" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="C297" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="D297" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="E297" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F297" t="n">
         <v>7.6</v>
       </c>
-      <c r="F297" t="n">
+      <c r="G297" t="n">
         <v>5.9</v>
       </c>
-      <c r="G297" t="n">
+      <c r="H297" t="n">
         <v>7.2</v>
       </c>
-      <c r="H297" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I297" t="n">
-        <v>6.84</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B298" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="C298" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D298" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E298" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="F298" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G298" t="n">
         <v>7.8</v>
       </c>
-      <c r="D298" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="E298" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F298" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="G298" t="n">
-        <v>7.4</v>
-      </c>
       <c r="H298" t="n">
-        <v>8</v>
+        <v>6.7</v>
       </c>
       <c r="I298" t="n">
-        <v>7.69</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B299" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="C299" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="D299" t="n">
-        <v>8.699999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="E299" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="F299" t="n">
-        <v>7.8</v>
+        <v>7.3</v>
       </c>
       <c r="G299" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="H299" t="n">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="I299" t="n">
-        <v>7.04</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B300" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="C300" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D300" t="n">
-        <v>7</v>
-      </c>
-      <c r="E300" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="F300" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="G300" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="H300" t="n">
-        <v>7.4</v>
-      </c>
+        <v>7.1</v>
+      </c>
+      <c r="E300" t="inlineStr"/>
+      <c r="F300" t="inlineStr"/>
+      <c r="G300" t="inlineStr"/>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B301" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="C301" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="D301" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E301" t="n">
         <v>7.1</v>
       </c>
-      <c r="E301" t="inlineStr"/>
-      <c r="F301" t="inlineStr"/>
-      <c r="G301" t="inlineStr"/>
-      <c r="H301" t="inlineStr"/>
+      <c r="F301" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G301" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H301" t="n">
+        <v>6.6</v>
+      </c>
       <c r="I301" t="n">
-        <v>6.9</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B302" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="C302" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D302" t="n">
         <v>6.3</v>
       </c>
-      <c r="D302" t="n">
-        <v>7.1</v>
-      </c>
       <c r="E302" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="F302" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="G302" t="n">
-        <v>6.6</v>
+        <v>9.4</v>
       </c>
       <c r="H302" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="I302" t="n">
-        <v>6.86</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B303" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="C303" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D303" t="n">
         <v>7.4</v>
       </c>
-      <c r="D303" t="n">
+      <c r="E303" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F303" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="G303" t="n">
         <v>7.2</v>
       </c>
-      <c r="E303" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="F303" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="G303" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H303" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="I303" t="n">
-        <v>7.3</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B304" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="C304" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="D304" t="n">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="E304" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="F304" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="G304" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="H304" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I304" t="n">
-        <v>6.73</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B305" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C305" t="n">
+        <v>7</v>
+      </c>
+      <c r="D305" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E305" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="F305" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G305" t="n">
         <v>7.3</v>
       </c>
-      <c r="C305" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="D305" t="n">
-        <v>7</v>
-      </c>
-      <c r="E305" t="n">
-        <v>6</v>
-      </c>
-      <c r="F305" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="G305" t="n">
-        <v>7</v>
-      </c>
-      <c r="H305" t="n">
-        <v>6.7</v>
-      </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="n">
-        <v>6.73</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B306" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="C306" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="D306" t="n">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="E306" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="F306" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="G306" t="inlineStr"/>
-      <c r="H306" t="inlineStr"/>
+        <v>5.4</v>
+      </c>
+      <c r="G306" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H306" t="n">
+        <v>6.9</v>
+      </c>
       <c r="I306" t="n">
-        <v>6.78</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B307" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="C307" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="D307" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="E307" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="F307" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="G307" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="H307" t="n">
         <v>6.9</v>
       </c>
       <c r="I307" t="n">
-        <v>6.46</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B308" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="C308" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="D308" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="E308" t="n">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
       <c r="F308" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="G308" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="H308" t="n">
-        <v>6.9</v>
-      </c>
+        <v>7.1</v>
+      </c>
+      <c r="G308" t="inlineStr"/>
+      <c r="H308" t="inlineStr"/>
       <c r="I308" t="n">
-        <v>6.53</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B309" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="C309" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="D309" t="n">
-        <v>6.9</v>
+        <v>5.9</v>
       </c>
       <c r="E309" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="F309" t="inlineStr"/>
-      <c r="G309" t="inlineStr"/>
-      <c r="H309" t="inlineStr"/>
+        <v>6.8</v>
+      </c>
+      <c r="F309" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G309" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H309" t="n">
+        <v>6.3</v>
+      </c>
       <c r="I309" t="n">
-        <v>6.93</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B310" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C310" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="D310" t="n">
         <v>7.1</v>
       </c>
-      <c r="C310" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="D310" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E310" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="F310" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="G310" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="H310" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="I310" t="n">
-        <v>6.76</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B311" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="C311" t="n">
-        <v>7.1</v>
+        <v>6.1</v>
       </c>
       <c r="D311" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="E311" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="F311" t="n">
         <v>6.6</v>
       </c>
       <c r="G311" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H311" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="I311" t="n">
-        <v>7.07</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B312" t="n">
-        <v>6.1</v>
+        <v>7.4</v>
       </c>
       <c r="C312" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="D312" t="n">
-        <v>6.4</v>
+        <v>7.9</v>
       </c>
       <c r="E312" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="F312" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="G312" t="n">
-        <v>6</v>
-      </c>
-      <c r="H312" t="inlineStr"/>
+        <v>6.8</v>
+      </c>
+      <c r="H312" t="n">
+        <v>7.5</v>
+      </c>
       <c r="I312" t="n">
-        <v>6.68</v>
+        <v>7.26</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B313" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C313" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D313" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E313" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F313" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G313" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H313" t="n">
         <v>7.2</v>
       </c>
-      <c r="C313" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="D313" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="E313" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="F313" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="G313" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="H313" t="n">
-        <v>7.1</v>
-      </c>
       <c r="I313" t="n">
-        <v>7.21</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B314" t="n">
         <v>6.6</v>
       </c>
       <c r="C314" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="D314" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="E314" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="F314" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="G314" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H314" t="n">
-        <v>7.2</v>
-      </c>
+        <v>6.6</v>
+      </c>
+      <c r="E314" t="inlineStr"/>
+      <c r="F314" t="inlineStr"/>
+      <c r="G314" t="inlineStr"/>
+      <c r="H314" t="inlineStr"/>
       <c r="I314" t="n">
-        <v>6.83</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B315" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C315" t="n">
         <v>6.5</v>
       </c>
       <c r="D315" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="E315" t="inlineStr"/>
       <c r="F315" t="inlineStr"/>
       <c r="G315" t="inlineStr"/>
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="n">
-        <v>6.57</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B316" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="C316" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="D316" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="E316" t="inlineStr"/>
-      <c r="F316" t="inlineStr"/>
-      <c r="G316" t="inlineStr"/>
-      <c r="H316" t="inlineStr"/>
+        <v>6.1</v>
+      </c>
+      <c r="E316" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F316" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="G316" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H316" t="n">
+        <v>6.7</v>
+      </c>
       <c r="I316" t="n">
-        <v>6.53</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B317" t="n">
-        <v>6.1</v>
+        <v>6.9</v>
       </c>
       <c r="C317" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="D317" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="E317" t="n">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="F317" t="n">
         <v>6.5</v>
       </c>
       <c r="G317" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="H317" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="H317" t="n">
+        <v>6.6</v>
+      </c>
       <c r="I317" t="n">
-        <v>6.85</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B318" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="C318" t="n">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="D318" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="E318" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="F318" t="n">
         <v>7.3</v>
       </c>
-      <c r="E318" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F318" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G318" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="H318" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="I318" t="n">
-        <v>6.73</v>
+        <v>7.54</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B319" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="C319" t="n">
-        <v>8.4</v>
+        <v>6.2</v>
       </c>
       <c r="D319" t="n">
-        <v>7.9</v>
+        <v>6.1</v>
       </c>
       <c r="E319" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="F319" t="n">
-        <v>7.3</v>
+        <v>5.9</v>
       </c>
       <c r="G319" t="n">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="H319" t="n">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="I319" t="n">
-        <v>7.54</v>
+        <v>6.33</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B320" t="n">
-        <v>6.7</v>
+        <v>7.8</v>
       </c>
       <c r="C320" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="D320" t="n">
-        <v>6.1</v>
+        <v>7.9</v>
       </c>
       <c r="E320" t="n">
-        <v>6.4</v>
+        <v>7.3</v>
       </c>
       <c r="F320" t="n">
-        <v>5.9</v>
+        <v>7.3</v>
       </c>
       <c r="G320" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="H320" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="I320" t="n">
-        <v>6.33</v>
+        <v>7.26</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B321" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="C321" t="n">
-        <v>7</v>
-      </c>
-      <c r="D321" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="E321" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="F321" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="G321" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="H321" t="n">
-        <v>6.8</v>
-      </c>
+        <v>6.4</v>
+      </c>
+      <c r="D321" t="inlineStr"/>
+      <c r="E321" t="inlineStr"/>
+      <c r="F321" t="inlineStr"/>
+      <c r="G321" t="inlineStr"/>
+      <c r="H321" t="inlineStr"/>
       <c r="I321" t="n">
-        <v>7.26</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B322" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="C322" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="D322" t="inlineStr"/>
-      <c r="E322" t="inlineStr"/>
-      <c r="F322" t="inlineStr"/>
-      <c r="G322" t="inlineStr"/>
-      <c r="H322" t="inlineStr"/>
+        <v>7.3</v>
+      </c>
+      <c r="D322" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="E322" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="F322" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="G322" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="H322" t="n">
+        <v>6.8</v>
+      </c>
       <c r="I322" t="n">
-        <v>6.6</v>
+        <v>7.77</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B323" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="C323" t="n">
-        <v>8.1</v>
+        <v>7.1</v>
       </c>
       <c r="D323" t="n">
-        <v>8.6</v>
+        <v>6.7</v>
       </c>
       <c r="E323" t="n">
-        <v>8.699999999999999</v>
+        <v>7</v>
       </c>
       <c r="F323" t="n">
-        <v>7.7</v>
+        <v>6.8</v>
       </c>
       <c r="G323" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="H323" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="I323" t="n">
-        <v>7.73</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B324" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C324" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D324" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E324" t="n">
         <v>7.1</v>
       </c>
-      <c r="C324" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="D324" t="n">
-        <v>7</v>
-      </c>
-      <c r="E324" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F324" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="G324" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="H324" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="I324" t="n">
-        <v>6.86</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
-        <v>389</v>
-      </c>
-      <c r="B325" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="C325" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="D325" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="E325" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="F325" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="G325" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="H325" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="I325" t="n">
-        <v>6.77</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="B325" t="inlineStr"/>
+      <c r="C325" t="inlineStr"/>
+      <c r="D325" t="inlineStr"/>
+      <c r="E325" t="inlineStr"/>
+      <c r="F325" t="inlineStr"/>
+      <c r="G325" t="inlineStr"/>
+      <c r="H325" t="inlineStr"/>
+      <c r="I325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
-        <v>390</v>
-      </c>
-      <c r="B326" t="inlineStr"/>
-      <c r="C326" t="inlineStr"/>
+        <v>391</v>
+      </c>
+      <c r="B326" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C326" t="n">
+        <v>6.6</v>
+      </c>
       <c r="D326" t="inlineStr"/>
       <c r="E326" t="inlineStr"/>
       <c r="F326" t="inlineStr"/>
       <c r="G326" t="inlineStr"/>
       <c r="H326" t="inlineStr"/>
-      <c r="I326" t="inlineStr"/>
+      <c r="I326" t="n">
+        <v>6.55</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
-        <v>391</v>
-      </c>
-      <c r="B327" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="C327" t="n">
-        <v>6.6</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="B327" t="inlineStr"/>
+      <c r="C327" t="inlineStr"/>
       <c r="D327" t="inlineStr"/>
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr"/>
       <c r="G327" t="inlineStr"/>
       <c r="H327" t="inlineStr"/>
-      <c r="I327" t="n">
-        <v>6.55</v>
-      </c>
+      <c r="I327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
-        <v>392</v>
-      </c>
-      <c r="B328" t="inlineStr"/>
-      <c r="C328" t="inlineStr"/>
-      <c r="D328" t="inlineStr"/>
-      <c r="E328" t="inlineStr"/>
-      <c r="F328" t="inlineStr"/>
-      <c r="G328" t="inlineStr"/>
-      <c r="H328" t="inlineStr"/>
-      <c r="I328" t="inlineStr"/>
+        <v>393</v>
+      </c>
+      <c r="B328" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="C328" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="D328" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="E328" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F328" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G328" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H328" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>7.34</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B329" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="C329" t="n">
-        <v>6.5</v>
+        <v>7.7</v>
       </c>
       <c r="D329" t="n">
-        <v>7.1</v>
+        <v>8.1</v>
       </c>
       <c r="E329" t="n">
-        <v>6.5</v>
+        <v>7.6</v>
       </c>
       <c r="F329" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="G329" t="n">
-        <v>8.6</v>
+        <v>7</v>
       </c>
       <c r="H329" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="I329" t="n">
         <v>7.5</v>
-      </c>
-      <c r="I329" t="n">
-        <v>7.21</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B330" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="C330" t="n">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="D330" t="n">
-        <v>8.1</v>
+        <v>6.2</v>
       </c>
       <c r="E330" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F330" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G330" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H330" t="n">
         <v>7.6</v>
       </c>
-      <c r="F330" t="n">
-        <v>7</v>
-      </c>
-      <c r="G330" t="n">
-        <v>7</v>
-      </c>
-      <c r="H330" t="n">
-        <v>7.7</v>
-      </c>
       <c r="I330" t="n">
-        <v>7.5</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
-        <v>395</v>
-      </c>
-      <c r="B331" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="C331" t="n">
-        <v>7</v>
-      </c>
-      <c r="D331" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="E331" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="F331" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="G331" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="H331" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="I331" t="n">
-        <v>6.86</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="B331" t="inlineStr"/>
+      <c r="C331" t="inlineStr"/>
+      <c r="D331" t="inlineStr"/>
+      <c r="E331" t="inlineStr"/>
+      <c r="F331" t="inlineStr"/>
+      <c r="G331" t="inlineStr"/>
+      <c r="H331" t="inlineStr"/>
+      <c r="I331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
-        <v>396</v>
-      </c>
-      <c r="B332" t="inlineStr"/>
-      <c r="C332" t="inlineStr"/>
-      <c r="D332" t="inlineStr"/>
-      <c r="E332" t="inlineStr"/>
-      <c r="F332" t="inlineStr"/>
-      <c r="G332" t="inlineStr"/>
-      <c r="H332" t="inlineStr"/>
-      <c r="I332" t="inlineStr"/>
+        <v>397</v>
+      </c>
+      <c r="B332" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C332" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D332" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E332" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="F332" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="G332" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H332" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I332" t="n">
+        <v>7.14</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B333" t="n">
         <v>6.5</v>
       </c>
       <c r="C333" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="D333" t="n">
-        <v>8.800000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="E333" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="F333" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="G333" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="H333" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="I333" t="n">
-        <v>7.24</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B334" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="C334" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="D334" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="E334" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="F334" t="n">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="G334" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H334" t="n">
-        <v>6.8</v>
-      </c>
+        <v>6.7</v>
+      </c>
+      <c r="H334" t="inlineStr"/>
       <c r="I334" t="n">
-        <v>6.73</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
-        <v>399</v>
-      </c>
-      <c r="B335" t="n">
-        <v>7</v>
-      </c>
-      <c r="C335" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="D335" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="E335" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="F335" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="G335" t="n">
-        <v>6.7</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="B335" t="inlineStr"/>
+      <c r="C335" t="inlineStr"/>
+      <c r="D335" t="inlineStr"/>
+      <c r="E335" t="inlineStr"/>
+      <c r="F335" t="inlineStr"/>
+      <c r="G335" t="inlineStr"/>
       <c r="H335" t="inlineStr"/>
-      <c r="I335" t="n">
-        <v>6.97</v>
-      </c>
+      <c r="I335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="B336" t="inlineStr"/>
-      <c r="C336" t="inlineStr"/>
-      <c r="D336" t="inlineStr"/>
-      <c r="E336" t="inlineStr"/>
-      <c r="F336" t="inlineStr"/>
-      <c r="G336" t="inlineStr"/>
+        <v>401</v>
+      </c>
+      <c r="B336" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C336" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="D336" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E336" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F336" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G336" t="n">
+        <v>5.7</v>
+      </c>
       <c r="H336" t="inlineStr"/>
-      <c r="I336" t="inlineStr"/>
+      <c r="I336" t="n">
+        <v>6.67</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B337" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="C337" t="n">
-        <v>7.7</v>
+        <v>6.8</v>
       </c>
       <c r="D337" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="E337" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="F337" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="G337" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="H337" t="inlineStr"/>
+        <v>6.7</v>
+      </c>
+      <c r="H337" t="n">
+        <v>7.2</v>
+      </c>
       <c r="I337" t="n">
-        <v>6.67</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B338" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="C338" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="D338" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="E338" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="F338" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="G338" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="H338" t="n">
-        <v>7.3</v>
-      </c>
+        <v>6.6</v>
+      </c>
+      <c r="C338" t="inlineStr"/>
+      <c r="D338" t="inlineStr"/>
+      <c r="E338" t="inlineStr"/>
+      <c r="F338" t="inlineStr"/>
+      <c r="G338" t="inlineStr"/>
+      <c r="H338" t="inlineStr"/>
       <c r="I338" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B339" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="C339" t="inlineStr"/>
-      <c r="D339" t="inlineStr"/>
-      <c r="E339" t="inlineStr"/>
-      <c r="F339" t="inlineStr"/>
-      <c r="G339" t="inlineStr"/>
-      <c r="H339" t="inlineStr"/>
+        <v>6.4</v>
+      </c>
+      <c r="C339" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D339" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E339" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F339" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G339" t="n">
+        <v>7</v>
+      </c>
+      <c r="H339" t="n">
+        <v>6.5</v>
+      </c>
       <c r="I339" t="n">
-        <v>6.6</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B340" t="n">
-        <v>6.3</v>
+        <v>7.7</v>
       </c>
       <c r="C340" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="D340" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="E340" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="F340" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="G340" t="n">
-        <v>7</v>
-      </c>
-      <c r="H340" t="n">
-        <v>6.3</v>
-      </c>
+        <v>7.5</v>
+      </c>
+      <c r="G340" t="inlineStr"/>
+      <c r="H340" t="inlineStr"/>
       <c r="I340" t="n">
-        <v>6.7</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B341" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="C341" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="D341" t="n">
-        <v>6.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E341" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F341" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G341" t="n">
         <v>7.5</v>
       </c>
-      <c r="F341" t="inlineStr"/>
-      <c r="G341" t="inlineStr"/>
-      <c r="H341" t="inlineStr"/>
+      <c r="H341" t="n">
+        <v>6.6</v>
+      </c>
       <c r="I341" t="n">
-        <v>6.9</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B342" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="C342" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D342" t="n">
-        <v>8.199999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="E342" t="n">
-        <v>7.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F342" t="n">
         <v>6.5</v>
       </c>
       <c r="G342" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="H342" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="I342" t="n">
         <v>7.07</v>
@@ -8807,615 +8863,617 @@
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B343" t="n">
-        <v>7</v>
+        <v>8.6</v>
       </c>
       <c r="C343" t="n">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="D343" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E343" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="F343" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="G343" t="n">
-        <v>7.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H343" t="n">
         <v>7.7</v>
       </c>
       <c r="I343" t="n">
-        <v>7.26</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B344" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="C344" t="n">
-        <v>9.199999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="D344" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
       <c r="E344" t="n">
-        <v>7.3</v>
+        <v>6</v>
       </c>
       <c r="F344" t="n">
-        <v>8.699999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="G344" t="n">
         <v>7.7</v>
       </c>
       <c r="H344" t="n">
-        <v>7.1</v>
+        <v>9.1</v>
       </c>
       <c r="I344" t="n">
-        <v>7.67</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B345" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="C345" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="D345" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="E345" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="F345" t="n">
-        <v>7.7</v>
+        <v>6.8</v>
       </c>
       <c r="G345" t="n">
-        <v>9.1</v>
+        <v>7.1</v>
       </c>
       <c r="H345" t="n">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="I345" t="n">
-        <v>7.37</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B346" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="C346" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="D346" t="n">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="E346" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="F346" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="G346" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="H346" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="I346" t="n">
-        <v>6.77</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B347" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="C347" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="D347" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="E347" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="F347" t="n">
-        <v>7.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G347" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="H347" t="n">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="I347" t="n">
-        <v>6.89</v>
+        <v>7.33</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B348" t="n">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="C348" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="D348" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="E348" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="F348" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="G348" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="H348" t="n">
-        <v>7.6</v>
-      </c>
+        <v>7.1</v>
+      </c>
+      <c r="E348" t="inlineStr"/>
+      <c r="F348" t="inlineStr"/>
+      <c r="G348" t="inlineStr"/>
+      <c r="H348" t="inlineStr"/>
       <c r="I348" t="n">
-        <v>7.49</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B349" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C349" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="D349" t="inlineStr"/>
-      <c r="E349" t="inlineStr"/>
-      <c r="F349" t="inlineStr"/>
-      <c r="G349" t="inlineStr"/>
-      <c r="H349" t="inlineStr"/>
+        <v>9.4</v>
+      </c>
+      <c r="D349" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E349" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F349" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G349" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H349" t="n">
+        <v>7.8</v>
+      </c>
       <c r="I349" t="n">
-        <v>6.8</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B350" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="C350" t="n">
-        <v>9.4</v>
+        <v>8.5</v>
       </c>
       <c r="D350" t="n">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="E350" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="F350" t="n">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="G350" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="H350" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="I350" t="n">
-        <v>7.47</v>
+        <v>7.53</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B351" t="n">
-        <v>8.5</v>
+        <v>6.3</v>
       </c>
       <c r="C351" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="D351" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="E351" t="n">
-        <v>8.6</v>
+        <v>7.3</v>
       </c>
       <c r="F351" t="n">
-        <v>7.6</v>
+        <v>5.9</v>
       </c>
       <c r="G351" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="H351" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="I351" t="n">
-        <v>7.51</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B352" t="n">
+        <v>6</v>
+      </c>
+      <c r="C352" t="n">
+        <v>8</v>
+      </c>
+      <c r="D352" t="n">
         <v>6.3</v>
       </c>
-      <c r="C352" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="D352" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E352" t="n">
-        <v>7.3</v>
+        <v>9.9</v>
       </c>
       <c r="F352" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="G352" t="n">
         <v>7.3</v>
       </c>
       <c r="H352" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="I352" t="n">
-        <v>6.74</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B353" t="n">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="C353" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="D353" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="E353" t="n">
-        <v>9.9</v>
+        <v>6.6</v>
       </c>
       <c r="F353" t="n">
-        <v>6.6</v>
+        <v>7.9</v>
       </c>
       <c r="G353" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="H353" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="I353" t="n">
-        <v>7.3</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B354" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="C354" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="D354" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="E354" t="n">
-        <v>7.9</v>
+        <v>6.8</v>
       </c>
       <c r="F354" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="G354" t="n">
-        <v>8.5</v>
+        <v>6.8</v>
       </c>
       <c r="H354" t="n">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="I354" t="n">
-        <v>7.31</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B355" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C355" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="D355" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E355" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F355" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G355" t="n">
         <v>7.1</v>
       </c>
-      <c r="C355" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="D355" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="E355" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="F355" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="G355" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="H355" t="inlineStr"/>
+      <c r="H355" t="n">
+        <v>6.7</v>
+      </c>
       <c r="I355" t="n">
-        <v>6.82</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B356" t="n">
+        <v>7</v>
+      </c>
+      <c r="C356" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D356" t="n">
+        <v>7</v>
+      </c>
+      <c r="E356" t="n">
         <v>7.6</v>
       </c>
-      <c r="C356" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="D356" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="E356" t="n">
-        <v>7.4</v>
-      </c>
       <c r="F356" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="G356" t="n">
-        <v>6.7</v>
-      </c>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="G356" t="inlineStr"/>
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="n">
-        <v>7.13</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B357" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="C357" t="n">
-        <v>8.199999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="D357" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="E357" t="n">
-        <v>7.6</v>
+        <v>6.5</v>
       </c>
       <c r="F357" t="n">
-        <v>8.300000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="G357" t="inlineStr"/>
       <c r="H357" t="inlineStr"/>
       <c r="I357" t="n">
-        <v>7.62</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B358" t="n">
-        <v>6.9</v>
+        <v>7.7</v>
       </c>
       <c r="C358" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="D358" t="n">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="E358" t="n">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="F358" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="G358" t="inlineStr"/>
+        <v>7.3</v>
+      </c>
+      <c r="G358" t="n">
+        <v>6.5</v>
+      </c>
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="n">
-        <v>6.58</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B359" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="C359" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="D359" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="E359" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="F359" t="n">
-        <v>6.5</v>
-      </c>
+        <v>6.4</v>
+      </c>
+      <c r="C359" t="inlineStr"/>
+      <c r="D359" t="inlineStr"/>
+      <c r="E359" t="inlineStr"/>
+      <c r="F359" t="inlineStr"/>
       <c r="G359" t="inlineStr"/>
       <c r="H359" t="inlineStr"/>
       <c r="I359" t="n">
-        <v>6.98</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
-        <v>424</v>
-      </c>
-      <c r="B360" t="n">
-        <v>6.4</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="B360" t="inlineStr"/>
       <c r="C360" t="inlineStr"/>
       <c r="D360" t="inlineStr"/>
       <c r="E360" t="inlineStr"/>
       <c r="F360" t="inlineStr"/>
       <c r="G360" t="inlineStr"/>
       <c r="H360" t="inlineStr"/>
-      <c r="I360" t="n">
-        <v>6.4</v>
-      </c>
+      <c r="I360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
-        <v>425</v>
-      </c>
-      <c r="B361" t="inlineStr"/>
-      <c r="C361" t="inlineStr"/>
-      <c r="D361" t="inlineStr"/>
-      <c r="E361" t="inlineStr"/>
-      <c r="F361" t="inlineStr"/>
-      <c r="G361" t="inlineStr"/>
-      <c r="H361" t="inlineStr"/>
-      <c r="I361" t="inlineStr"/>
+        <v>426</v>
+      </c>
+      <c r="B361" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C361" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D361" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="E361" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F361" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G361" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H361" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I361" t="n">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B362" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="C362" t="n">
-        <v>6.2</v>
+        <v>7.4</v>
       </c>
       <c r="D362" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="E362" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="F362" t="n">
-        <v>7.8</v>
+        <v>6.1</v>
       </c>
       <c r="G362" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="H362" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I362" t="n">
-        <v>6.93</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B363" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="C363" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="D363" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E363" t="n">
-        <v>6.1</v>
+        <v>7.2</v>
       </c>
       <c r="F363" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="G363" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="H363" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I363" t="n">
-        <v>6.84</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B364" t="n">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="C364" t="n">
-        <v>8.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="D364" t="n">
+        <v>8</v>
+      </c>
+      <c r="E364" t="n">
         <v>7.2</v>
       </c>
-      <c r="E364" t="n">
-        <v>6</v>
-      </c>
       <c r="F364" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G364" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H364" t="n">
         <v>7.3</v>
       </c>
-      <c r="G364" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H364" t="n">
-        <v>7</v>
-      </c>
       <c r="I364" t="n">
-        <v>6.96</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B365" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="C365" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D365" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="E365" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="F365" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="G365" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="H365" t="n">
-        <v>6.8</v>
-      </c>
+        <v>6.7</v>
+      </c>
+      <c r="F365" t="inlineStr"/>
+      <c r="G365" t="inlineStr"/>
+      <c r="H365" t="inlineStr"/>
       <c r="I365" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
     </row>
   </sheetData>

--- a/players_ratings.xlsx
+++ b/players_ratings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I365"/>
+  <dimension ref="A1:I386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,28 +628,28 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="C9" t="n">
         <v>7.5</v>
       </c>
       <c r="D9" t="n">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="F9" t="n">
+        <v>7</v>
+      </c>
+      <c r="G9" t="n">
         <v>6.1</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>5.8</v>
       </c>
-      <c r="H9" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I9" t="n">
-        <v>6.73</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="10">
@@ -936,20 +936,22 @@
         <v>6.6</v>
       </c>
       <c r="D21" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="E21" t="n">
+        <v>7</v>
+      </c>
+      <c r="F21" t="n">
         <v>7.4</v>
       </c>
-      <c r="F21" t="n">
-        <v>7</v>
-      </c>
       <c r="G21" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="H21" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="H21" t="n">
+        <v>6.7</v>
+      </c>
       <c r="I21" t="n">
-        <v>7.12</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="22">
@@ -1091,28 +1093,28 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C28" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="D28" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="E28" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="F28" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="G28" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H28" t="n">
         <v>7.1</v>
       </c>
-      <c r="H28" t="n">
-        <v>7.5</v>
-      </c>
       <c r="I28" t="n">
-        <v>6.81</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="29">
@@ -1123,25 +1125,25 @@
         <v>6.5</v>
       </c>
       <c r="C29" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D29" t="n">
         <v>7.3</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>7.2</v>
       </c>
-      <c r="E29" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F29" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G29" t="n">
         <v>7.1</v>
       </c>
-      <c r="G29" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H29" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="I29" t="n">
-        <v>6.91</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="30">
@@ -1149,28 +1151,28 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C30" t="n">
         <v>6.3</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>7.9</v>
       </c>
-      <c r="D30" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E30" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F30" t="n">
         <v>5.5</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>7.1</v>
       </c>
-      <c r="G30" t="n">
-        <v>6.8</v>
-      </c>
       <c r="H30" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="I30" t="n">
-        <v>6.73</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="31">
@@ -1195,28 +1197,28 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C32" t="n">
         <v>6.3</v>
       </c>
-      <c r="C32" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D32" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E32" t="n">
         <v>7.1</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>8.1</v>
       </c>
-      <c r="F32" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G32" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H32" t="n">
         <v>6</v>
       </c>
-      <c r="H32" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I32" t="n">
-        <v>6.76</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="33">
@@ -1253,28 +1255,28 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C34" t="n">
         <v>7.2</v>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>6</v>
       </c>
-      <c r="D34" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E34" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F34" t="n">
         <v>6.2</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>7.2</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>6.1</v>
       </c>
-      <c r="H34" t="n">
-        <v>7.7</v>
-      </c>
       <c r="I34" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="35">
@@ -1489,19 +1491,21 @@
         <v>6.9</v>
       </c>
       <c r="C45" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="D45" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="E45" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F45" t="inlineStr"/>
+        <v>6.6</v>
+      </c>
+      <c r="F45" t="n">
+        <v>6.5</v>
+      </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
-        <v>6.68</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="46">
@@ -1734,20 +1738,22 @@
         <v>67</v>
       </c>
       <c r="B55" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="C55" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="D55" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E55" t="n">
         <v>7.4</v>
       </c>
-      <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="n">
-        <v>6.9</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="56">
@@ -1797,22 +1803,26 @@
         <v>75</v>
       </c>
       <c r="B58" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="C58" t="n">
         <v>6.6</v>
       </c>
       <c r="D58" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="E58" t="n">
         <v>6.6</v>
       </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
+      <c r="F58" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G58" t="n">
+        <v>6.6</v>
+      </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="n">
-        <v>6.65</v>
+        <v>6.62</v>
       </c>
     </row>
     <row r="59">
@@ -1820,16 +1830,16 @@
         <v>80</v>
       </c>
       <c r="B59" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="C59" t="n">
         <v>6.7</v>
       </c>
       <c r="D59" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="E59" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="F59" t="n">
         <v>7.4</v>
@@ -1838,10 +1848,10 @@
         <v>7.4</v>
       </c>
       <c r="H59" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="I59" t="n">
-        <v>7.14</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="60">
@@ -1849,28 +1859,28 @@
         <v>81</v>
       </c>
       <c r="B60" t="n">
-        <v>6.3</v>
+        <v>7.4</v>
       </c>
       <c r="C60" t="n">
         <v>6.3</v>
       </c>
       <c r="D60" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="E60" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="F60" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="G60" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H60" t="n">
         <v>7.5</v>
       </c>
-      <c r="H60" t="n">
-        <v>7.1</v>
-      </c>
       <c r="I60" t="n">
-        <v>6.76</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="61">
@@ -2042,28 +2052,28 @@
         <v>94</v>
       </c>
       <c r="B69" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C69" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D69" t="n">
         <v>8</v>
       </c>
-      <c r="C69" t="n">
+      <c r="E69" t="n">
         <v>6.3</v>
       </c>
-      <c r="D69" t="n">
+      <c r="F69" t="n">
         <v>7.8</v>
       </c>
-      <c r="E69" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H69" t="n">
         <v>7.7</v>
       </c>
-      <c r="G69" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="H69" t="n">
-        <v>6.4</v>
-      </c>
       <c r="I69" t="n">
-        <v>6.96</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="70">
@@ -2445,28 +2455,28 @@
         <v>113</v>
       </c>
       <c r="B86" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C86" t="n">
         <v>8</v>
       </c>
-      <c r="C86" t="n">
-        <v>6.8</v>
-      </c>
       <c r="D86" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="E86" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="F86" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G86" t="n">
         <v>6.3</v>
       </c>
-      <c r="G86" t="n">
+      <c r="H86" t="n">
         <v>7.1</v>
       </c>
-      <c r="H86" t="n">
-        <v>7.3</v>
-      </c>
       <c r="I86" t="n">
-        <v>6.97</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="87">
@@ -2558,20 +2568,22 @@
         <v>118</v>
       </c>
       <c r="B91" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="C91" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="D91" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="E91" t="inlineStr"/>
+        <v>6.4</v>
+      </c>
+      <c r="E91" t="n">
+        <v>6.6</v>
+      </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="n">
-        <v>6.53</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="92">
@@ -2655,28 +2667,28 @@
         <v>124</v>
       </c>
       <c r="B96" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="C96" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D96" t="n">
         <v>7.1</v>
       </c>
-      <c r="D96" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E96" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F96" t="n">
         <v>7.5</v>
       </c>
-      <c r="F96" t="n">
+      <c r="G96" t="n">
         <v>6.3</v>
       </c>
-      <c r="G96" t="n">
+      <c r="H96" t="n">
         <v>6</v>
       </c>
-      <c r="H96" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I96" t="n">
-        <v>6.69</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="97">
@@ -2808,25 +2820,25 @@
         <v>132</v>
       </c>
       <c r="B103" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C103" t="n">
         <v>7.5</v>
       </c>
-      <c r="C103" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D103" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="E103" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F103" t="n">
         <v>7.4</v>
       </c>
-      <c r="F103" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G103" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H103" t="n">
         <v>6.2</v>
-      </c>
-      <c r="H103" t="n">
-        <v>6.8</v>
       </c>
       <c r="I103" t="n">
         <v>6.77</v>
@@ -2837,28 +2849,28 @@
         <v>133</v>
       </c>
       <c r="B104" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="C104" t="n">
         <v>7.4</v>
       </c>
-      <c r="C104" t="n">
+      <c r="D104" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E104" t="n">
         <v>7.1</v>
       </c>
-      <c r="D104" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="E104" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F104" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="G104" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="H104" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="I104" t="n">
-        <v>6.99</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="105">
@@ -2895,28 +2907,28 @@
         <v>135</v>
       </c>
       <c r="B106" t="n">
-        <v>6.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="D106" t="n">
         <v>6.6</v>
       </c>
       <c r="E106" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F106" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G106" t="n">
         <v>7.2</v>
       </c>
-      <c r="F106" t="n">
+      <c r="H106" t="n">
         <v>7.5</v>
       </c>
-      <c r="G106" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="H106" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I106" t="n">
-        <v>6.9</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="107">
@@ -2924,28 +2936,28 @@
         <v>136</v>
       </c>
       <c r="B107" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C107" t="n">
         <v>6.3</v>
       </c>
-      <c r="C107" t="n">
+      <c r="D107" t="n">
         <v>7.8</v>
       </c>
-      <c r="D107" t="n">
+      <c r="E107" t="n">
         <v>7.3</v>
       </c>
-      <c r="E107" t="n">
+      <c r="F107" t="n">
         <v>7.1</v>
       </c>
-      <c r="F107" t="n">
+      <c r="G107" t="n">
         <v>6.3</v>
       </c>
-      <c r="G107" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H107" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="I107" t="n">
-        <v>6.84</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="108">
@@ -3087,26 +3099,28 @@
         <v>145</v>
       </c>
       <c r="B114" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="C114" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="D114" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="E114" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="F114" t="n">
         <v>6.7</v>
       </c>
       <c r="G114" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H114" t="inlineStr"/>
+        <v>6.7</v>
+      </c>
+      <c r="H114" t="n">
+        <v>6.4</v>
+      </c>
       <c r="I114" t="n">
-        <v>6.67</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="115">
@@ -3114,28 +3128,28 @@
         <v>146</v>
       </c>
       <c r="B115" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C115" t="n">
         <v>7.3</v>
       </c>
-      <c r="C115" t="n">
+      <c r="D115" t="n">
         <v>7.7</v>
       </c>
-      <c r="D115" t="n">
+      <c r="E115" t="n">
         <v>6.1</v>
       </c>
-      <c r="E115" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F115" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G115" t="n">
         <v>7.1</v>
       </c>
-      <c r="G115" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H115" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="I115" t="n">
-        <v>6.86</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="116">
@@ -3143,28 +3157,28 @@
         <v>147</v>
       </c>
       <c r="B116" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C116" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="D116" t="n">
         <v>6.3</v>
       </c>
       <c r="E116" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="F116" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="G116" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="H116" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="I116" t="n">
-        <v>6.56</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="117">
@@ -3377,22 +3391,24 @@
         <v>165</v>
       </c>
       <c r="B126" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="C126" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="D126" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="E126" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="F126" t="inlineStr"/>
+        <v>6.8</v>
+      </c>
+      <c r="F126" t="n">
+        <v>6.6</v>
+      </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="n">
-        <v>6.6</v>
+        <v>6.62</v>
       </c>
     </row>
     <row r="127">
@@ -3403,22 +3419,22 @@
         <v>6.6</v>
       </c>
       <c r="C127" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D127" t="n">
         <v>6</v>
       </c>
-      <c r="D127" t="n">
+      <c r="E127" t="n">
         <v>7.4</v>
       </c>
-      <c r="E127" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F127" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="G127" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="H127" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="I127" t="n">
         <v>6.63</v>
@@ -3479,28 +3495,28 @@
         <v>169</v>
       </c>
       <c r="B130" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="C130" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D130" t="n">
         <v>7.2</v>
       </c>
-      <c r="D130" t="n">
+      <c r="E130" t="n">
         <v>6.2</v>
       </c>
-      <c r="E130" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F130" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="G130" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="H130" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="I130" t="n">
-        <v>6.8</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="131">
@@ -3508,28 +3524,28 @@
         <v>170</v>
       </c>
       <c r="B131" t="n">
+        <v>7</v>
+      </c>
+      <c r="C131" t="n">
         <v>7.5</v>
       </c>
-      <c r="C131" t="n">
+      <c r="D131" t="n">
         <v>7.9</v>
       </c>
-      <c r="D131" t="n">
+      <c r="E131" t="n">
         <v>7.1</v>
       </c>
-      <c r="E131" t="n">
+      <c r="F131" t="n">
         <v>6.1</v>
       </c>
-      <c r="F131" t="n">
+      <c r="G131" t="n">
         <v>7.2</v>
       </c>
-      <c r="G131" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H131" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="I131" t="n">
-        <v>6.99</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="132">
@@ -3537,28 +3553,28 @@
         <v>171</v>
       </c>
       <c r="B132" t="n">
-        <v>6.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="D132" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="E132" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="F132" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="G132" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H132" t="n">
         <v>7.7</v>
       </c>
-      <c r="H132" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I132" t="n">
-        <v>6.81</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="133">
@@ -3653,18 +3669,20 @@
         <v>175</v>
       </c>
       <c r="B136" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C136" t="n">
         <v>7.2</v>
       </c>
-      <c r="C136" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="D136" t="inlineStr"/>
+      <c r="D136" t="n">
+        <v>6.9</v>
+      </c>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="n">
-        <v>7.05</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="137">
@@ -3762,26 +3780,28 @@
         <v>180</v>
       </c>
       <c r="B141" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C141" t="n">
         <v>7.6</v>
       </c>
-      <c r="C141" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D141" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E141" t="n">
         <v>9.1</v>
       </c>
-      <c r="E141" t="n">
+      <c r="F141" t="n">
         <v>7.3</v>
       </c>
-      <c r="F141" t="n">
-        <v>7</v>
-      </c>
       <c r="G141" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="H141" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="H141" t="n">
+        <v>6.9</v>
+      </c>
       <c r="I141" t="n">
-        <v>7.47</v>
+        <v>7.39</v>
       </c>
     </row>
     <row r="142">
@@ -3792,15 +3812,17 @@
         <v>6.4</v>
       </c>
       <c r="C142" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="D142" t="inlineStr"/>
+        <v>6.4</v>
+      </c>
+      <c r="D142" t="n">
+        <v>6.6</v>
+      </c>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="n">
-        <v>6.5</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="143">
@@ -3852,28 +3874,28 @@
         <v>184</v>
       </c>
       <c r="B145" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C145" t="n">
         <v>7.4</v>
       </c>
-      <c r="C145" t="n">
+      <c r="D145" t="n">
         <v>7.2</v>
       </c>
-      <c r="D145" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E145" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="F145" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="G145" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H145" t="n">
         <v>7.3</v>
       </c>
-      <c r="H145" t="n">
-        <v>7</v>
-      </c>
       <c r="I145" t="n">
-        <v>6.96</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="146">
@@ -3881,28 +3903,28 @@
         <v>185</v>
       </c>
       <c r="B146" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="C146" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D146" t="n">
         <v>7.8</v>
       </c>
-      <c r="D146" t="n">
+      <c r="E146" t="n">
         <v>7.5</v>
       </c>
-      <c r="E146" t="n">
+      <c r="F146" t="n">
         <v>7.2</v>
       </c>
-      <c r="F146" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G146" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H146" t="n">
         <v>8.1</v>
       </c>
-      <c r="H146" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I146" t="n">
-        <v>7.24</v>
+        <v>7.31</v>
       </c>
     </row>
     <row r="147">
@@ -4039,28 +4061,28 @@
         <v>192</v>
       </c>
       <c r="B152" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C152" t="n">
         <v>7.1</v>
       </c>
-      <c r="C152" t="n">
-        <v>6.8</v>
-      </c>
       <c r="D152" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="E152" t="n">
         <v>6.9</v>
       </c>
       <c r="F152" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G152" t="n">
         <v>7.4</v>
       </c>
-      <c r="G152" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H152" t="n">
-        <v>6.1</v>
+        <v>6.9</v>
       </c>
       <c r="I152" t="n">
-        <v>6.87</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="153">
@@ -4143,28 +4165,28 @@
         <v>196</v>
       </c>
       <c r="B156" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="C156" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="D156" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E156" t="n">
         <v>6.2</v>
       </c>
-      <c r="E156" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F156" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G156" t="n">
         <v>7.7</v>
-      </c>
-      <c r="G156" t="n">
-        <v>6.3</v>
       </c>
       <c r="H156" t="n">
         <v>6.3</v>
       </c>
       <c r="I156" t="n">
-        <v>6.67</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="157">
@@ -4243,16 +4265,18 @@
         <v>200</v>
       </c>
       <c r="B160" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="C160" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="C160" t="n">
+        <v>6.6</v>
+      </c>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="n">
-        <v>6.6</v>
+        <v>6.55</v>
       </c>
     </row>
     <row r="161">
@@ -4260,26 +4284,28 @@
         <v>201</v>
       </c>
       <c r="B161" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="C161" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="D161" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E161" t="n">
         <v>5.5</v>
       </c>
-      <c r="E161" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F161" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G161" t="n">
         <v>6.3</v>
       </c>
-      <c r="G161" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H161" t="inlineStr"/>
+      <c r="H161" t="n">
+        <v>6.6</v>
+      </c>
       <c r="I161" t="n">
-        <v>6.37</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="162">
@@ -4343,25 +4369,25 @@
         <v>206</v>
       </c>
       <c r="B164" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C164" t="n">
         <v>7.2</v>
       </c>
-      <c r="C164" t="n">
+      <c r="D164" t="n">
         <v>7.1</v>
       </c>
-      <c r="D164" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E164" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F164" t="n">
         <v>7.3</v>
       </c>
-      <c r="F164" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G164" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="H164" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="I164" t="n">
         <v>6.89</v>
@@ -4418,25 +4444,25 @@
         <v>209</v>
       </c>
       <c r="B167" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C167" t="n">
         <v>5.3</v>
       </c>
-      <c r="C167" t="n">
+      <c r="D167" t="n">
         <v>7.7</v>
       </c>
-      <c r="D167" t="n">
+      <c r="E167" t="n">
         <v>7.4</v>
       </c>
-      <c r="E167" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F167" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="G167" t="n">
         <v>7.3</v>
       </c>
       <c r="H167" t="n">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="I167" t="n">
         <v>6.91</v>
@@ -4535,28 +4561,28 @@
         <v>214</v>
       </c>
       <c r="B172" t="n">
-        <v>6.7</v>
+        <v>8.4</v>
       </c>
       <c r="C172" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D172" t="n">
         <v>7.8</v>
       </c>
-      <c r="D172" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E172" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="F172" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="G172" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="H172" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="I172" t="n">
-        <v>6.86</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="173">
@@ -4577,28 +4603,28 @@
         <v>216</v>
       </c>
       <c r="B174" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C174" t="n">
         <v>6.3</v>
       </c>
-      <c r="C174" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D174" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="E174" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F174" t="n">
         <v>6.1</v>
       </c>
-      <c r="F174" t="n">
+      <c r="G174" t="n">
         <v>7.4</v>
       </c>
-      <c r="G174" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H174" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="I174" t="n">
-        <v>6.67</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="175">
@@ -4606,28 +4632,28 @@
         <v>217</v>
       </c>
       <c r="B175" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="C175" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="D175" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E175" t="n">
         <v>7.2</v>
       </c>
-      <c r="D175" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="E175" t="n">
-        <v>7</v>
-      </c>
       <c r="F175" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G175" t="n">
+        <v>7</v>
+      </c>
+      <c r="H175" t="n">
         <v>7.5</v>
       </c>
-      <c r="G175" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="H175" t="n">
-        <v>7</v>
-      </c>
       <c r="I175" t="n">
-        <v>7.01</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="176">
@@ -4664,28 +4690,28 @@
         <v>219</v>
       </c>
       <c r="B177" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="C177" t="n">
         <v>7.1</v>
       </c>
       <c r="D177" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="E177" t="n">
         <v>6.9</v>
       </c>
       <c r="F177" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G177" t="n">
         <v>7.3</v>
       </c>
-      <c r="G177" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H177" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I177" t="n">
-        <v>6.97</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="178">
@@ -4710,20 +4736,22 @@
         <v>221</v>
       </c>
       <c r="B179" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="C179" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D179" t="n">
         <v>7.6</v>
       </c>
-      <c r="D179" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="E179" t="inlineStr"/>
+      <c r="E179" t="n">
+        <v>6.8</v>
+      </c>
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="n">
-        <v>6.97</v>
+        <v>6.92</v>
       </c>
     </row>
     <row r="180">
@@ -4731,28 +4759,28 @@
         <v>222</v>
       </c>
       <c r="B180" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="C180" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="D180" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="E180" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="F180" t="n">
         <v>6.9</v>
       </c>
       <c r="G180" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="H180" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="I180" t="n">
-        <v>6.77</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="181">
@@ -4789,28 +4817,28 @@
         <v>224</v>
       </c>
       <c r="B182" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="C182" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D182" t="n">
         <v>7.7</v>
       </c>
-      <c r="D182" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E182" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F182" t="n">
         <v>7.3</v>
       </c>
-      <c r="F182" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G182" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="H182" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I182" t="n">
-        <v>6.93</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="183">
@@ -4818,28 +4846,28 @@
         <v>225</v>
       </c>
       <c r="B183" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C183" t="n">
         <v>5.5</v>
       </c>
-      <c r="C183" t="n">
+      <c r="D183" t="n">
         <v>7.1</v>
       </c>
-      <c r="D183" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E183" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F183" t="n">
         <v>6.1</v>
       </c>
-      <c r="F183" t="n">
+      <c r="G183" t="n">
         <v>7.4</v>
       </c>
-      <c r="G183" t="n">
+      <c r="H183" t="n">
         <v>7.3</v>
       </c>
-      <c r="H183" t="n">
-        <v>7.5</v>
-      </c>
       <c r="I183" t="n">
-        <v>6.77</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="184">
@@ -4850,25 +4878,25 @@
         <v>6.8</v>
       </c>
       <c r="C184" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D184" t="n">
         <v>7.3</v>
       </c>
-      <c r="D184" t="n">
+      <c r="E184" t="n">
         <v>7.5</v>
       </c>
-      <c r="E184" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F184" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="G184" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H184" t="n">
         <v>7.3</v>
       </c>
-      <c r="H184" t="n">
-        <v>7.8</v>
-      </c>
       <c r="I184" t="n">
-        <v>7.16</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="185">
@@ -4876,28 +4904,28 @@
         <v>227</v>
       </c>
       <c r="B185" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="C185" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="D185" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="E185" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="F185" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G185" t="n">
         <v>6.2</v>
       </c>
-      <c r="G185" t="n">
-        <v>6.4</v>
-      </c>
       <c r="H185" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="I185" t="n">
-        <v>6.56</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="186">
@@ -5006,28 +5034,28 @@
         <v>236</v>
       </c>
       <c r="B191" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="C191" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D191" t="n">
         <v>7.8</v>
       </c>
-      <c r="D191" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E191" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F191" t="n">
         <v>7.6</v>
       </c>
-      <c r="F191" t="n">
+      <c r="G191" t="n">
         <v>7.8</v>
       </c>
-      <c r="G191" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H191" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="I191" t="n">
-        <v>7.16</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="192">
@@ -5035,28 +5063,28 @@
         <v>237</v>
       </c>
       <c r="B192" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="C192" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="D192" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E192" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="D192" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="E192" t="n">
+      <c r="F192" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G192" t="n">
         <v>7.2</v>
       </c>
-      <c r="F192" t="n">
+      <c r="H192" t="n">
         <v>7.3</v>
       </c>
-      <c r="G192" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="H192" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I192" t="n">
-        <v>7.19</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="193">
@@ -5178,22 +5206,24 @@
         <v>244</v>
       </c>
       <c r="B199" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C199" t="n">
         <v>7.5</v>
       </c>
-      <c r="C199" t="n">
+      <c r="D199" t="n">
         <v>7.4</v>
       </c>
-      <c r="D199" t="n">
+      <c r="E199" t="n">
         <v>7.1</v>
       </c>
-      <c r="E199" t="n">
-        <v>7</v>
-      </c>
-      <c r="F199" t="inlineStr"/>
+      <c r="F199" t="n">
+        <v>7</v>
+      </c>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="n">
-        <v>7.25</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="200">
@@ -5222,28 +5252,28 @@
         <v>247</v>
       </c>
       <c r="B201" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="C201" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D201" t="n">
         <v>7.7</v>
       </c>
-      <c r="D201" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E201" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F201" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="F201" t="n">
+      <c r="G201" t="n">
         <v>6.2</v>
       </c>
-      <c r="G201" t="n">
+      <c r="H201" t="n">
         <v>7.7</v>
       </c>
-      <c r="H201" t="n">
-        <v>7.5</v>
-      </c>
       <c r="I201" t="n">
-        <v>7.26</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="202">
@@ -5384,18 +5414,20 @@
         <v>258</v>
       </c>
       <c r="B209" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="C209" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="D209" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="D209" t="n">
+        <v>6.7</v>
+      </c>
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="n">
-        <v>6.6</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="210">
@@ -5460,19 +5492,21 @@
         <v>6.7</v>
       </c>
       <c r="C212" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="D212" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E212" t="n">
         <v>7.2</v>
       </c>
-      <c r="E212" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="F212" t="inlineStr"/>
+      <c r="F212" t="n">
+        <v>6.6</v>
+      </c>
       <c r="G212" t="inlineStr"/>
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="n">
-        <v>6.82</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="213">
@@ -5480,22 +5514,24 @@
         <v>263</v>
       </c>
       <c r="B213" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="C213" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D213" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E213" t="n">
         <v>7.3</v>
       </c>
-      <c r="E213" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="F213" t="inlineStr"/>
+      <c r="F213" t="n">
+        <v>6.8</v>
+      </c>
       <c r="G213" t="inlineStr"/>
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="n">
-        <v>6.9</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="214">
@@ -5516,28 +5552,28 @@
         <v>267</v>
       </c>
       <c r="B215" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="C215" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D215" t="n">
         <v>6.3</v>
       </c>
-      <c r="D215" t="n">
+      <c r="E215" t="n">
         <v>7.8</v>
       </c>
-      <c r="E215" t="n">
+      <c r="F215" t="n">
         <v>6.2</v>
       </c>
-      <c r="F215" t="n">
+      <c r="G215" t="n">
         <v>7.8</v>
       </c>
-      <c r="G215" t="n">
-        <v>6.8</v>
-      </c>
       <c r="H215" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="I215" t="n">
-        <v>6.99</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="216">
@@ -5678,28 +5714,28 @@
         <v>278</v>
       </c>
       <c r="B221" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C221" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="D221" t="n">
         <v>7.4</v>
       </c>
-      <c r="C221" t="n">
-        <v>7</v>
-      </c>
-      <c r="D221" t="n">
+      <c r="E221" t="n">
+        <v>7</v>
+      </c>
+      <c r="F221" t="n">
         <v>7.3</v>
       </c>
-      <c r="E221" t="n">
+      <c r="G221" t="n">
         <v>7.2</v>
       </c>
-      <c r="F221" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="G221" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H221" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="I221" t="n">
-        <v>7.07</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="222">
@@ -5707,28 +5743,28 @@
         <v>279</v>
       </c>
       <c r="B222" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C222" t="n">
         <v>7.1</v>
       </c>
-      <c r="C222" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D222" t="n">
         <v>6.9</v>
       </c>
       <c r="E222" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F222" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="F222" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G222" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H222" t="n">
         <v>7.1</v>
       </c>
-      <c r="H222" t="n">
-        <v>6.1</v>
-      </c>
       <c r="I222" t="n">
-        <v>7.03</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="223">
@@ -5788,26 +5824,28 @@
         <v>282</v>
       </c>
       <c r="B225" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="C225" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="D225" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E225" t="n">
         <v>7.6</v>
       </c>
-      <c r="E225" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F225" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="G225" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H225" t="n">
         <v>5.1</v>
       </c>
-      <c r="H225" t="inlineStr"/>
       <c r="I225" t="n">
-        <v>6.58</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="226">
@@ -5869,28 +5907,28 @@
         <v>286</v>
       </c>
       <c r="B228" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C228" t="n">
         <v>6.3</v>
       </c>
-      <c r="C228" t="n">
+      <c r="D228" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="D228" t="n">
+      <c r="E228" t="n">
         <v>7.2</v>
       </c>
-      <c r="E228" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F228" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G228" t="n">
         <v>6.2</v>
       </c>
-      <c r="G228" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H228" t="n">
-        <v>7.8</v>
+        <v>6.7</v>
       </c>
       <c r="I228" t="n">
-        <v>7.13</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="229">
@@ -5956,28 +5994,28 @@
         <v>289</v>
       </c>
       <c r="B231" t="n">
+        <v>7</v>
+      </c>
+      <c r="C231" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="C231" t="n">
-        <v>6.8</v>
-      </c>
       <c r="D231" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E231" t="n">
         <v>8.1</v>
       </c>
-      <c r="E231" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F231" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G231" t="n">
         <v>7.6</v>
       </c>
-      <c r="G231" t="n">
-        <v>6.8</v>
-      </c>
       <c r="H231" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="I231" t="n">
-        <v>7.29</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="232">
@@ -6041,26 +6079,28 @@
         <v>292</v>
       </c>
       <c r="B234" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C234" t="n">
         <v>7.6</v>
       </c>
-      <c r="C234" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D234" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="E234" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="F234" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="G234" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="H234" t="inlineStr"/>
+        <v>6.6</v>
+      </c>
+      <c r="H234" t="n">
+        <v>6.7</v>
+      </c>
       <c r="I234" t="n">
-        <v>6.82</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="235">
@@ -6118,28 +6158,28 @@
         <v>295</v>
       </c>
       <c r="B237" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C237" t="n">
         <v>6.1</v>
       </c>
-      <c r="C237" t="n">
+      <c r="D237" t="n">
         <v>7.2</v>
       </c>
-      <c r="D237" t="n">
+      <c r="E237" t="n">
         <v>6.3</v>
       </c>
-      <c r="E237" t="n">
-        <v>7</v>
-      </c>
       <c r="F237" t="n">
+        <v>7</v>
+      </c>
+      <c r="G237" t="n">
         <v>7.4</v>
       </c>
-      <c r="G237" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H237" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="I237" t="n">
-        <v>6.84</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="238">
@@ -6147,24 +6187,28 @@
         <v>296</v>
       </c>
       <c r="B238" t="n">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="C238" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D238" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E238" t="n">
         <v>6.2</v>
       </c>
-      <c r="D238" t="n">
+      <c r="F238" t="n">
         <v>7.6</v>
       </c>
-      <c r="E238" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="F238" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="G238" t="inlineStr"/>
-      <c r="H238" t="inlineStr"/>
+      <c r="G238" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H238" t="n">
+        <v>6.4</v>
+      </c>
       <c r="I238" t="n">
-        <v>6.66</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="239">
@@ -6308,17 +6352,19 @@
         <v>7.4</v>
       </c>
       <c r="C244" t="n">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="D244" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="E244" t="inlineStr"/>
+        <v>6.7</v>
+      </c>
+      <c r="E244" t="n">
+        <v>6.5</v>
+      </c>
       <c r="F244" t="inlineStr"/>
       <c r="G244" t="inlineStr"/>
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="n">
-        <v>6.87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="245">
@@ -6355,28 +6401,28 @@
         <v>306</v>
       </c>
       <c r="B246" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="C246" t="n">
         <v>6.9</v>
       </c>
       <c r="D246" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="E246" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="F246" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="G246" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H246" t="n">
         <v>7.9</v>
       </c>
-      <c r="H246" t="n">
-        <v>8</v>
-      </c>
       <c r="I246" t="n">
-        <v>7.01</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="247">
@@ -6384,28 +6430,28 @@
         <v>307</v>
       </c>
       <c r="B247" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="C247" t="n">
         <v>7.2</v>
       </c>
-      <c r="C247" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D247" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E247" t="n">
         <v>7.2</v>
       </c>
-      <c r="E247" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F247" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="G247" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="H247" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I247" t="n">
-        <v>6.86</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="248">
@@ -6413,28 +6459,28 @@
         <v>308</v>
       </c>
       <c r="B248" t="n">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="C248" t="n">
         <v>6.5</v>
       </c>
       <c r="D248" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E248" t="n">
         <v>7.4</v>
       </c>
-      <c r="E248" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F248" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="G248" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="H248" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="I248" t="n">
-        <v>6.71</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="249">
@@ -6442,22 +6488,24 @@
         <v>309</v>
       </c>
       <c r="B249" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="C249" t="n">
+        <v>7</v>
+      </c>
+      <c r="D249" t="n">
         <v>7.3</v>
       </c>
-      <c r="D249" t="n">
+      <c r="E249" t="n">
         <v>7.7</v>
       </c>
-      <c r="E249" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="F249" t="inlineStr"/>
+      <c r="F249" t="n">
+        <v>6.8</v>
+      </c>
       <c r="G249" t="inlineStr"/>
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="n">
-        <v>7.2</v>
+        <v>7.18</v>
       </c>
     </row>
     <row r="250">
@@ -6542,25 +6590,25 @@
         <v>313</v>
       </c>
       <c r="B253" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="C253" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D253" t="n">
         <v>9.6</v>
       </c>
-      <c r="D253" t="n">
+      <c r="E253" t="n">
         <v>6.3</v>
       </c>
-      <c r="E253" t="n">
-        <v>6.4</v>
-      </c>
       <c r="F253" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G253" t="n">
         <v>7.6</v>
       </c>
-      <c r="G253" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H253" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="I253" t="n">
         <v>7.01</v>
@@ -6600,24 +6648,26 @@
         <v>315</v>
       </c>
       <c r="B255" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="C255" t="n">
         <v>6.1</v>
       </c>
-      <c r="C255" t="n">
+      <c r="D255" t="n">
         <v>7.2</v>
       </c>
-      <c r="D255" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E255" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F255" t="n">
         <v>7.3</v>
       </c>
-      <c r="F255" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="G255" t="inlineStr"/>
+      <c r="G255" t="n">
+        <v>6.5</v>
+      </c>
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="n">
-        <v>6.8</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="256">
@@ -6625,28 +6675,28 @@
         <v>316</v>
       </c>
       <c r="B256" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="C256" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="D256" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="E256" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="F256" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="G256" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="H256" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="I256" t="n">
-        <v>6.51</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="257">
@@ -6654,24 +6704,26 @@
         <v>317</v>
       </c>
       <c r="B257" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="C257" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D257" t="n">
         <v>6.2</v>
       </c>
-      <c r="D257" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E257" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="F257" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G257" t="n">
         <v>6.1</v>
       </c>
-      <c r="G257" t="inlineStr"/>
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="n">
-        <v>6.44</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="258">
@@ -6679,28 +6731,28 @@
         <v>318</v>
       </c>
       <c r="B258" t="n">
+        <v>6</v>
+      </c>
+      <c r="C258" t="n">
         <v>7.3</v>
       </c>
-      <c r="C258" t="n">
+      <c r="D258" t="n">
         <v>6.3</v>
       </c>
-      <c r="D258" t="n">
+      <c r="E258" t="n">
         <v>7.1</v>
       </c>
-      <c r="E258" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F258" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="G258" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="H258" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="I258" t="n">
-        <v>6.76</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="259">
@@ -6754,28 +6806,28 @@
         <v>321</v>
       </c>
       <c r="B261" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="C261" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="D261" t="n">
+        <v>7</v>
+      </c>
+      <c r="E261" t="n">
         <v>7.4</v>
       </c>
-      <c r="E261" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F261" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G261" t="n">
         <v>7.6</v>
       </c>
-      <c r="G261" t="n">
+      <c r="H261" t="n">
         <v>7.7</v>
       </c>
-      <c r="H261" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I261" t="n">
-        <v>7.14</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="262">
@@ -6942,28 +6994,28 @@
         <v>330</v>
       </c>
       <c r="B269" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C269" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D269" t="n">
         <v>7.1</v>
       </c>
-      <c r="C269" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="D269" t="n">
+      <c r="E269" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F269" t="n">
         <v>7.2</v>
       </c>
-      <c r="E269" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F269" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G269" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="H269" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="I269" t="n">
-        <v>6.79</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="270">
@@ -6974,25 +7026,25 @@
         <v>6.6</v>
       </c>
       <c r="C270" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="D270" t="n">
+        <v>7</v>
+      </c>
+      <c r="E270" t="n">
         <v>6.3</v>
       </c>
-      <c r="E270" t="n">
+      <c r="F270" t="n">
         <v>7.7</v>
       </c>
-      <c r="F270" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G270" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H270" t="n">
         <v>7.1</v>
       </c>
-      <c r="H270" t="n">
-        <v>7</v>
-      </c>
       <c r="I270" t="n">
-        <v>6.94</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="271">
@@ -7044,28 +7096,28 @@
         <v>336</v>
       </c>
       <c r="B273" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="C273" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D273" t="n">
         <v>6</v>
       </c>
-      <c r="D273" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E273" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F273" t="n">
         <v>7.3</v>
       </c>
-      <c r="F273" t="n">
+      <c r="G273" t="n">
         <v>6</v>
       </c>
-      <c r="G273" t="n">
+      <c r="H273" t="n">
         <v>7.6</v>
       </c>
-      <c r="H273" t="n">
-        <v>6.4</v>
-      </c>
       <c r="I273" t="n">
-        <v>6.61</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="274">
@@ -7073,28 +7125,28 @@
         <v>337</v>
       </c>
       <c r="B274" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C274" t="n">
         <v>6.3</v>
       </c>
-      <c r="C274" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D274" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E274" t="n">
         <v>6.3</v>
       </c>
-      <c r="E274" t="n">
+      <c r="F274" t="n">
         <v>7.2</v>
       </c>
-      <c r="F274" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G274" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H274" t="n">
         <v>8.6</v>
       </c>
-      <c r="H274" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I274" t="n">
-        <v>6.89</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="275">
@@ -7138,22 +7190,24 @@
         <v>340</v>
       </c>
       <c r="B277" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C277" t="n">
         <v>7.8</v>
       </c>
-      <c r="C277" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D277" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="E277" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F277" t="n">
         <v>7.3</v>
       </c>
-      <c r="F277" t="inlineStr"/>
       <c r="G277" t="inlineStr"/>
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="n">
-        <v>7.18</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="278">
@@ -7189,25 +7243,25 @@
         <v>6.7</v>
       </c>
       <c r="C279" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D279" t="n">
         <v>7.7</v>
       </c>
-      <c r="D279" t="n">
+      <c r="E279" t="n">
         <v>7.8</v>
       </c>
-      <c r="E279" t="n">
-        <v>6.4</v>
-      </c>
       <c r="F279" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G279" t="n">
         <v>7.1</v>
       </c>
-      <c r="G279" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H279" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="I279" t="n">
-        <v>7</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="280">
@@ -7301,25 +7355,25 @@
         <v>6.5</v>
       </c>
       <c r="C283" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D283" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E283" t="n">
         <v>6.2</v>
       </c>
-      <c r="D283" t="n">
+      <c r="F283" t="n">
         <v>7.4</v>
       </c>
-      <c r="E283" t="n">
+      <c r="G283" t="n">
         <v>7.5</v>
       </c>
-      <c r="F283" t="n">
+      <c r="H283" t="n">
         <v>7.5</v>
       </c>
-      <c r="G283" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="H283" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I283" t="n">
-        <v>7.01</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="284">
@@ -7327,28 +7381,28 @@
         <v>347</v>
       </c>
       <c r="B284" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="C284" t="n">
+        <v>7</v>
+      </c>
+      <c r="D284" t="n">
         <v>8</v>
       </c>
-      <c r="D284" t="n">
+      <c r="E284" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="E284" t="n">
-        <v>6.4</v>
-      </c>
       <c r="F284" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G284" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="G284" t="n">
-        <v>7</v>
-      </c>
       <c r="H284" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="I284" t="n">
-        <v>7.53</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="285">
@@ -7443,22 +7497,24 @@
         <v>351</v>
       </c>
       <c r="B288" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C288" t="n">
         <v>6.2</v>
       </c>
-      <c r="C288" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D288" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E288" t="n">
         <v>6.2</v>
       </c>
-      <c r="E288" t="n">
+      <c r="F288" t="n">
         <v>5.7</v>
       </c>
-      <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr"/>
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="n">
-        <v>6.12</v>
+        <v>6.26</v>
       </c>
     </row>
     <row r="289">
@@ -7589,18 +7645,20 @@
         <v>357</v>
       </c>
       <c r="B294" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C294" t="n">
         <v>6.3</v>
       </c>
-      <c r="C294" t="n">
-        <v>7</v>
-      </c>
-      <c r="D294" t="inlineStr"/>
+      <c r="D294" t="n">
+        <v>7</v>
+      </c>
       <c r="E294" t="inlineStr"/>
       <c r="F294" t="inlineStr"/>
       <c r="G294" t="inlineStr"/>
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="n">
-        <v>6.65</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="295">
@@ -7608,28 +7666,28 @@
         <v>358</v>
       </c>
       <c r="B295" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="C295" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D295" t="n">
         <v>6.1</v>
       </c>
-      <c r="D295" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E295" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="F295" t="n">
+        <v>7</v>
+      </c>
+      <c r="G295" t="n">
         <v>7.9</v>
       </c>
-      <c r="G295" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H295" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="I295" t="n">
-        <v>6.83</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="296">
@@ -7637,28 +7695,28 @@
         <v>359</v>
       </c>
       <c r="B296" t="n">
-        <v>6.9</v>
+        <v>7.6</v>
       </c>
       <c r="C296" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D296" t="n">
         <v>7.1</v>
       </c>
-      <c r="D296" t="n">
+      <c r="E296" t="n">
         <v>7.3</v>
       </c>
-      <c r="E296" t="n">
+      <c r="F296" t="n">
         <v>7.5</v>
       </c>
-      <c r="F296" t="n">
+      <c r="G296" t="n">
         <v>7.3</v>
       </c>
-      <c r="G296" t="n">
+      <c r="H296" t="n">
         <v>7.9</v>
       </c>
-      <c r="H296" t="n">
-        <v>7.3</v>
-      </c>
       <c r="I296" t="n">
-        <v>7.33</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="297">
@@ -7666,28 +7724,28 @@
         <v>360</v>
       </c>
       <c r="B297" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="C297" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="D297" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="E297" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="F297" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G297" t="n">
         <v>7.6</v>
       </c>
-      <c r="G297" t="n">
+      <c r="H297" t="n">
         <v>5.9</v>
       </c>
-      <c r="H297" t="n">
-        <v>7.2</v>
-      </c>
       <c r="I297" t="n">
-        <v>6.81</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="298">
@@ -7803,28 +7861,28 @@
         <v>367</v>
       </c>
       <c r="B302" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C302" t="n">
         <v>6.3</v>
       </c>
-      <c r="C302" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D302" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E302" t="n">
         <v>6.3</v>
       </c>
-      <c r="E302" t="n">
+      <c r="F302" t="n">
         <v>7.4</v>
       </c>
-      <c r="F302" t="n">
+      <c r="G302" t="n">
         <v>7.2</v>
       </c>
-      <c r="G302" t="n">
+      <c r="H302" t="n">
         <v>9.4</v>
       </c>
-      <c r="H302" t="n">
-        <v>7.7</v>
-      </c>
       <c r="I302" t="n">
-        <v>7.24</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="303">
@@ -7975,24 +8033,26 @@
         <v>373</v>
       </c>
       <c r="B308" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C308" t="n">
         <v>7.2</v>
       </c>
-      <c r="C308" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D308" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="E308" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="F308" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G308" t="n">
         <v>7.1</v>
       </c>
-      <c r="G308" t="inlineStr"/>
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="n">
-        <v>6.98</v>
+        <v>6.92</v>
       </c>
     </row>
     <row r="309">
@@ -8000,28 +8060,28 @@
         <v>374</v>
       </c>
       <c r="B309" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="C309" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D309" t="n">
         <v>7.1</v>
       </c>
-      <c r="D309" t="n">
+      <c r="E309" t="n">
         <v>5.9</v>
       </c>
-      <c r="E309" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F309" t="n">
         <v>6.8</v>
       </c>
       <c r="G309" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="H309" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="I309" t="n">
-        <v>6.67</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="310">
@@ -8058,28 +8118,28 @@
         <v>376</v>
       </c>
       <c r="B311" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="C311" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D311" t="n">
         <v>6.1</v>
       </c>
-      <c r="D311" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E311" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="F311" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="G311" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H311" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="H311" t="n">
-        <v>6</v>
-      </c>
       <c r="I311" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="312">
@@ -8087,28 +8147,28 @@
         <v>377</v>
       </c>
       <c r="B312" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C312" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D312" t="n">
         <v>7.4</v>
       </c>
-      <c r="C312" t="n">
+      <c r="E312" t="n">
         <v>7.2</v>
       </c>
-      <c r="D312" t="n">
+      <c r="F312" t="n">
         <v>7.9</v>
       </c>
-      <c r="E312" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="F312" t="n">
+      <c r="G312" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H312" t="n">
         <v>7.6</v>
       </c>
-      <c r="G312" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="H312" t="n">
-        <v>7.5</v>
-      </c>
       <c r="I312" t="n">
-        <v>7.26</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="313">
@@ -8116,28 +8176,28 @@
         <v>378</v>
       </c>
       <c r="B313" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="C313" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="D313" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E313" t="n">
         <v>7.4</v>
       </c>
-      <c r="E313" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F313" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="G313" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="H313" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="I313" t="n">
-        <v>6.83</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="314">
@@ -8187,28 +8247,28 @@
         <v>381</v>
       </c>
       <c r="B316" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="C316" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="D316" t="n">
         <v>6.1</v>
       </c>
       <c r="E316" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="F316" t="n">
         <v>7.8</v>
       </c>
-      <c r="F316" t="n">
+      <c r="G316" t="n">
         <v>7.9</v>
       </c>
-      <c r="G316" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H316" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="I316" t="n">
-        <v>6.81</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="317">
@@ -8216,28 +8276,28 @@
         <v>382</v>
       </c>
       <c r="B317" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="C317" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="D317" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E317" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F317" t="n">
         <v>7.2</v>
       </c>
-      <c r="E317" t="n">
+      <c r="G317" t="n">
         <v>7.3</v>
       </c>
-      <c r="F317" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="G317" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H317" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="I317" t="n">
-        <v>6.77</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="318">
@@ -8245,28 +8305,28 @@
         <v>383</v>
       </c>
       <c r="B318" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="C318" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D318" t="n">
+        <v>7</v>
+      </c>
+      <c r="E318" t="n">
         <v>8.4</v>
       </c>
-      <c r="D318" t="n">
+      <c r="F318" t="n">
         <v>7.9</v>
       </c>
-      <c r="E318" t="n">
+      <c r="G318" t="n">
         <v>7.1</v>
       </c>
-      <c r="F318" t="n">
+      <c r="H318" t="n">
         <v>7.3</v>
       </c>
-      <c r="G318" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="H318" t="n">
-        <v>7.6</v>
-      </c>
       <c r="I318" t="n">
-        <v>7.54</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="319">
@@ -8303,28 +8363,28 @@
         <v>385</v>
       </c>
       <c r="B320" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C320" t="n">
         <v>7.8</v>
       </c>
-      <c r="C320" t="n">
-        <v>7</v>
-      </c>
       <c r="D320" t="n">
+        <v>7</v>
+      </c>
+      <c r="E320" t="n">
         <v>7.9</v>
-      </c>
-      <c r="E320" t="n">
-        <v>7.3</v>
       </c>
       <c r="F320" t="n">
         <v>7.3</v>
       </c>
       <c r="G320" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="H320" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="I320" t="n">
-        <v>7.26</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="321">
@@ -8351,25 +8411,25 @@
         <v>387</v>
       </c>
       <c r="B322" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C322" t="n">
         <v>7.2</v>
       </c>
-      <c r="C322" t="n">
+      <c r="D322" t="n">
         <v>7.3</v>
       </c>
-      <c r="D322" t="n">
+      <c r="E322" t="n">
         <v>8.1</v>
       </c>
-      <c r="E322" t="n">
+      <c r="F322" t="n">
         <v>8.6</v>
       </c>
-      <c r="F322" t="n">
+      <c r="G322" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="G322" t="n">
+      <c r="H322" t="n">
         <v>7.7</v>
-      </c>
-      <c r="H322" t="n">
-        <v>6.8</v>
       </c>
       <c r="I322" t="n">
         <v>7.77</v>
@@ -8409,28 +8469,28 @@
         <v>389</v>
       </c>
       <c r="B324" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="C324" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="D324" t="n">
         <v>6.4</v>
       </c>
       <c r="E324" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F324" t="n">
         <v>7.1</v>
       </c>
-      <c r="F324" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G324" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H324" t="n">
         <v>7.2</v>
       </c>
-      <c r="H324" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I324" t="n">
-        <v>6.77</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="325">
@@ -8512,28 +8572,28 @@
         <v>394</v>
       </c>
       <c r="B329" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="C329" t="n">
         <v>7.4</v>
       </c>
-      <c r="C329" t="n">
+      <c r="D329" t="n">
         <v>7.7</v>
       </c>
-      <c r="D329" t="n">
+      <c r="E329" t="n">
         <v>8.1</v>
       </c>
-      <c r="E329" t="n">
+      <c r="F329" t="n">
         <v>7.6</v>
       </c>
-      <c r="F329" t="n">
-        <v>7</v>
-      </c>
       <c r="G329" t="n">
         <v>7</v>
       </c>
       <c r="H329" t="n">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="I329" t="n">
-        <v>7.5</v>
+        <v>7.57</v>
       </c>
     </row>
     <row r="330">
@@ -8612,28 +8672,28 @@
         <v>398</v>
       </c>
       <c r="B333" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="C333" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="D333" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="E333" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="F333" t="n">
+        <v>7</v>
+      </c>
+      <c r="G333" t="n">
         <v>7.1</v>
       </c>
-      <c r="G333" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H333" t="n">
         <v>6.6</v>
       </c>
       <c r="I333" t="n">
-        <v>6.69</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="334">
@@ -8783,7 +8843,7 @@
         <v>405</v>
       </c>
       <c r="B340" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="C340" t="n">
         <v>6.8</v>
@@ -8800,7 +8860,7 @@
       <c r="G340" t="inlineStr"/>
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="n">
-        <v>7.06</v>
+        <v>7</v>
       </c>
     </row>
     <row r="341">
@@ -8924,28 +8984,28 @@
         <v>410</v>
       </c>
       <c r="B345" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="C345" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="D345" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E345" t="n">
         <v>5.7</v>
       </c>
-      <c r="E345" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F345" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="G345" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H345" t="n">
         <v>7.1</v>
       </c>
-      <c r="H345" t="n">
-        <v>7.8</v>
-      </c>
       <c r="I345" t="n">
-        <v>6.77</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="346">
@@ -8953,28 +9013,28 @@
         <v>411</v>
       </c>
       <c r="B346" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="C346" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="D346" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="E346" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="F346" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="G346" t="n">
+        <v>7</v>
+      </c>
+      <c r="H346" t="n">
         <v>7.3</v>
       </c>
-      <c r="H346" t="n">
-        <v>7</v>
-      </c>
       <c r="I346" t="n">
-        <v>6.87</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="347">
@@ -9011,20 +9071,22 @@
         <v>413</v>
       </c>
       <c r="B348" t="n">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="C348" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="D348" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E348" t="n">
         <v>7.1</v>
       </c>
-      <c r="E348" t="inlineStr"/>
       <c r="F348" t="inlineStr"/>
       <c r="G348" t="inlineStr"/>
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="n">
-        <v>6.67</v>
+        <v>6.78</v>
       </c>
     </row>
     <row r="349">
@@ -9032,28 +9094,28 @@
         <v>414</v>
       </c>
       <c r="B349" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="C349" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D349" t="n">
         <v>9.4</v>
       </c>
-      <c r="D349" t="n">
+      <c r="E349" t="n">
         <v>7.8</v>
       </c>
-      <c r="E349" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F349" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G349" t="n">
         <v>7.2</v>
       </c>
-      <c r="G349" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H349" t="n">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="I349" t="n">
-        <v>7.47</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="350">
@@ -9119,28 +9181,28 @@
         <v>417</v>
       </c>
       <c r="B352" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C352" t="n">
         <v>6</v>
       </c>
-      <c r="C352" t="n">
+      <c r="D352" t="n">
         <v>8</v>
       </c>
-      <c r="D352" t="n">
+      <c r="E352" t="n">
         <v>6.3</v>
       </c>
-      <c r="E352" t="n">
+      <c r="F352" t="n">
         <v>9.9</v>
       </c>
-      <c r="F352" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G352" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H352" t="n">
         <v>7.3</v>
       </c>
-      <c r="H352" t="n">
-        <v>7</v>
-      </c>
       <c r="I352" t="n">
-        <v>7.3</v>
+        <v>7.57</v>
       </c>
     </row>
     <row r="353">
@@ -9148,28 +9210,28 @@
         <v>418</v>
       </c>
       <c r="B353" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="C353" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="D353" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="E353" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="F353" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G353" t="n">
         <v>7.9</v>
       </c>
-      <c r="G353" t="n">
+      <c r="H353" t="n">
         <v>7.2</v>
       </c>
-      <c r="H353" t="n">
-        <v>8.5</v>
-      </c>
       <c r="I353" t="n">
-        <v>7.23</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="354">
@@ -9206,25 +9268,25 @@
         <v>420</v>
       </c>
       <c r="B355" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="C355" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D355" t="n">
         <v>7.6</v>
       </c>
-      <c r="D355" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E355" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="F355" t="n">
         <v>7.4</v>
       </c>
       <c r="G355" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H355" t="n">
         <v>7.1</v>
-      </c>
-      <c r="H355" t="n">
-        <v>6.7</v>
       </c>
       <c r="I355" t="n">
         <v>7.03</v>
@@ -9238,21 +9300,25 @@
         <v>7</v>
       </c>
       <c r="C356" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D356" t="n">
+        <v>7</v>
+      </c>
+      <c r="E356" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="D356" t="n">
-        <v>7</v>
-      </c>
-      <c r="E356" t="n">
+      <c r="F356" t="n">
+        <v>7</v>
+      </c>
+      <c r="G356" t="n">
         <v>7.6</v>
       </c>
-      <c r="F356" t="n">
+      <c r="H356" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="G356" t="inlineStr"/>
-      <c r="H356" t="inlineStr"/>
       <c r="I356" t="n">
-        <v>7.62</v>
+        <v>7.66</v>
       </c>
     </row>
     <row r="357">
@@ -9285,13 +9351,13 @@
         <v>423</v>
       </c>
       <c r="B358" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C358" t="n">
         <v>7.7</v>
       </c>
-      <c r="C358" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D358" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="E358" t="n">
         <v>7.3</v>
@@ -9300,11 +9366,13 @@
         <v>7.3</v>
       </c>
       <c r="G358" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H358" t="inlineStr"/>
+        <v>7.3</v>
+      </c>
+      <c r="H358" t="n">
+        <v>6.5</v>
+      </c>
       <c r="I358" t="n">
-        <v>7.1</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="359">
@@ -9342,28 +9410,28 @@
         <v>426</v>
       </c>
       <c r="B361" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="C361" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="D361" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E361" t="n">
         <v>6.2</v>
       </c>
-      <c r="E361" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F361" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G361" t="n">
         <v>7.2</v>
       </c>
-      <c r="G361" t="n">
+      <c r="H361" t="n">
         <v>7.8</v>
       </c>
-      <c r="H361" t="n">
-        <v>7.6</v>
-      </c>
       <c r="I361" t="n">
-        <v>6.9</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="362">
@@ -9429,28 +9497,28 @@
         <v>429</v>
       </c>
       <c r="B364" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C364" t="n">
         <v>7.4</v>
       </c>
-      <c r="C364" t="n">
+      <c r="D364" t="n">
         <v>7.9</v>
       </c>
-      <c r="D364" t="n">
+      <c r="E364" t="n">
         <v>8</v>
       </c>
-      <c r="E364" t="n">
+      <c r="F364" t="n">
         <v>7.2</v>
       </c>
-      <c r="F364" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G364" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H364" t="n">
         <v>6.2</v>
       </c>
-      <c r="H364" t="n">
-        <v>7.3</v>
-      </c>
       <c r="I364" t="n">
-        <v>7.23</v>
+        <v>7.21</v>
       </c>
     </row>
     <row r="365">
@@ -9476,6 +9544,545 @@
         <v>7.22</v>
       </c>
     </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B366" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C366" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D366" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="E366" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F366" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="G366" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H366" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I366" t="n">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B367" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C367" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D367" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E367" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F367" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G367" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H367" t="n">
+        <v>7</v>
+      </c>
+      <c r="I367" t="n">
+        <v>7.01</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B368" t="n">
+        <v>6</v>
+      </c>
+      <c r="C368" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D368" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="E368" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="F368" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="G368" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="H368" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="I368" t="n">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B369" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C369" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="D369" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E369" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F369" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="G369" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H369" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I369" t="n">
+        <v>7.06</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B370" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C370" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D370" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E370" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="F370" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="G370" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H370" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="I370" t="n">
+        <v>7.27</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B371" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C371" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D371" t="inlineStr"/>
+      <c r="E371" t="inlineStr"/>
+      <c r="F371" t="inlineStr"/>
+      <c r="G371" t="inlineStr"/>
+      <c r="H371" t="inlineStr"/>
+      <c r="I371" t="n">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B372" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C372" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D372" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="E372" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F372" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="G372" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H372" t="n">
+        <v>7</v>
+      </c>
+      <c r="I372" t="n">
+        <v>6.91</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B373" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C373" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D373" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="E373" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F373" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G373" t="inlineStr"/>
+      <c r="H373" t="inlineStr"/>
+      <c r="I373" t="n">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>439</v>
+      </c>
+      <c r="B374" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C374" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D374" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E374" t="n">
+        <v>8</v>
+      </c>
+      <c r="F374" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G374" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H374" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="I374" t="n">
+        <v>6.93</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="B375" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C375" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D375" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="E375" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F375" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G375" t="n">
+        <v>7</v>
+      </c>
+      <c r="H375" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>7.24</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="B376" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="C376" t="n">
+        <v>7</v>
+      </c>
+      <c r="D376" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E376" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="F376" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G376" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H376" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="I376" t="n">
+        <v>7.46</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="B377" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="C377" t="n">
+        <v>7</v>
+      </c>
+      <c r="D377" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E377" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F377" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G377" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H377" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="I377" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="B378" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C378" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D378" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E378" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F378" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="G378" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="H378" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I378" t="n">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B379" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C379" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D379" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E379" t="n">
+        <v>7</v>
+      </c>
+      <c r="F379" t="n">
+        <v>8</v>
+      </c>
+      <c r="G379" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H379" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I379" t="n">
+        <v>7.49</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="B380" t="n">
+        <v>7</v>
+      </c>
+      <c r="C380" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D380" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E380" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F380" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G380" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H380" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="I380" t="n">
+        <v>6.93</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="B381" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C381" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D381" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E381" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F381" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G381" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="H381" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I381" t="n">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B382" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C382" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D382" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E382" t="inlineStr"/>
+      <c r="F382" t="inlineStr"/>
+      <c r="G382" t="inlineStr"/>
+      <c r="H382" t="inlineStr"/>
+      <c r="I382" t="n">
+        <v>6.53</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="B383" t="inlineStr"/>
+      <c r="C383" t="inlineStr"/>
+      <c r="D383" t="inlineStr"/>
+      <c r="E383" t="inlineStr"/>
+      <c r="F383" t="inlineStr"/>
+      <c r="G383" t="inlineStr"/>
+      <c r="H383" t="inlineStr"/>
+      <c r="I383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="B384" t="inlineStr"/>
+      <c r="C384" t="inlineStr"/>
+      <c r="D384" t="inlineStr"/>
+      <c r="E384" t="inlineStr"/>
+      <c r="F384" t="inlineStr"/>
+      <c r="G384" t="inlineStr"/>
+      <c r="H384" t="inlineStr"/>
+      <c r="I384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="B385" t="inlineStr"/>
+      <c r="C385" t="inlineStr"/>
+      <c r="D385" t="inlineStr"/>
+      <c r="E385" t="inlineStr"/>
+      <c r="F385" t="inlineStr"/>
+      <c r="G385" t="inlineStr"/>
+      <c r="H385" t="inlineStr"/>
+      <c r="I385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="B386" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C386" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="D386" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E386" t="n">
+        <v>8</v>
+      </c>
+      <c r="F386" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G386" t="n">
+        <v>7</v>
+      </c>
+      <c r="H386" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I386" t="n">
+        <v>7.36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/players_ratings.xlsx
+++ b/players_ratings.xlsx
@@ -628,28 +628,28 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="C9" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="D9" t="n">
         <v>7.5</v>
       </c>
       <c r="E9" t="n">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="F9" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="G9" t="n">
+        <v>7</v>
+      </c>
+      <c r="H9" t="n">
         <v>6.1</v>
       </c>
-      <c r="H9" t="n">
-        <v>5.8</v>
-      </c>
       <c r="I9" t="n">
-        <v>6.69</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="10">
@@ -703,25 +703,25 @@
         <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="C12" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D12" t="n">
         <v>7.6</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>7.2</v>
       </c>
-      <c r="E12" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F12" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="G12" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H12" t="n">
         <v>7.1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>6.9</v>
       </c>
       <c r="I12" t="n">
         <v>6.99</v>
@@ -732,24 +732,26 @@
         <v>16</v>
       </c>
       <c r="B13" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C13" t="n">
         <v>7.1</v>
       </c>
-      <c r="C13" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D13" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="E13" t="n">
         <v>6.8</v>
       </c>
       <c r="F13" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
+        <v>6.8</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6.6</v>
+      </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>6.8</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="14">
@@ -757,28 +759,28 @@
         <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C14" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="D14" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="E14" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F14" t="n">
         <v>7.3</v>
       </c>
-      <c r="F14" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G14" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="I14" t="n">
-        <v>6.8</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="15">
@@ -959,26 +961,28 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="C22" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="D22" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="E22" t="n">
         <v>6.7</v>
       </c>
       <c r="F22" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="G22" t="n">
-        <v>7</v>
-      </c>
-      <c r="H22" t="inlineStr"/>
+        <v>6.4</v>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
       <c r="I22" t="n">
-        <v>6.77</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="23">
@@ -986,24 +990,26 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C23" t="n">
         <v>6.3</v>
       </c>
-      <c r="C23" t="n">
-        <v>7</v>
-      </c>
       <c r="D23" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="E23" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="F23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="G23" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="G23" t="n">
+        <v>6.5</v>
+      </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>6.66</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="24">
@@ -1037,22 +1043,22 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="C26" t="n">
         <v>7</v>
       </c>
       <c r="D26" t="n">
+        <v>7</v>
+      </c>
+      <c r="E26" t="n">
         <v>7.1</v>
       </c>
-      <c r="E26" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F26" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G26" t="n">
         <v>6.2</v>
-      </c>
-      <c r="G26" t="n">
-        <v>6.7</v>
       </c>
       <c r="H26" t="n">
         <v>6.7</v>
@@ -1093,28 +1099,28 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="C28" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="D28" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="E28" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="F28" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="G28" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="H28" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="I28" t="n">
-        <v>6.69</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="29">
@@ -1226,28 +1232,28 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C33" t="n">
         <v>6.3</v>
       </c>
-      <c r="C33" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D33" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E33" t="n">
         <v>6.1</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>7.1</v>
       </c>
-      <c r="F33" t="n">
-        <v>7</v>
-      </c>
       <c r="G33" t="n">
+        <v>7</v>
+      </c>
+      <c r="H33" t="n">
         <v>6.3</v>
       </c>
-      <c r="H33" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I33" t="n">
-        <v>6.54</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="34">
@@ -1284,22 +1290,24 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="C35" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="D35" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="E35" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="F35" t="inlineStr"/>
+        <v>6.4</v>
+      </c>
+      <c r="F35" t="n">
+        <v>6.8</v>
+      </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>6.58</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="36">
@@ -1404,28 +1412,28 @@
         <v>51</v>
       </c>
       <c r="B41" t="n">
-        <v>6.6</v>
+        <v>7.7</v>
       </c>
       <c r="C41" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D41" t="n">
         <v>7.5</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>6.3</v>
       </c>
-      <c r="E41" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F41" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="G41" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="H41" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="I41" t="n">
-        <v>6.8</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="42">
@@ -1709,28 +1717,28 @@
         <v>66</v>
       </c>
       <c r="B54" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="C54" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="D54" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="E54" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="F54" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="G54" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H54" t="n">
         <v>7.1</v>
       </c>
-      <c r="H54" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I54" t="n">
-        <v>6.7</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="55">
@@ -1859,25 +1867,25 @@
         <v>81</v>
       </c>
       <c r="B60" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C60" t="n">
         <v>7.4</v>
-      </c>
-      <c r="C60" t="n">
-        <v>6.3</v>
       </c>
       <c r="D60" t="n">
         <v>6.3</v>
       </c>
       <c r="E60" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="F60" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="G60" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="H60" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="I60" t="n">
         <v>6.8</v>
@@ -2207,25 +2215,25 @@
         <v>6.5</v>
       </c>
       <c r="C75" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="D75" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="E75" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="F75" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G75" t="n">
         <v>6.3</v>
       </c>
-      <c r="G75" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H75" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="I75" t="n">
-        <v>6.61</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="76">
@@ -2317,28 +2325,28 @@
         <v>106</v>
       </c>
       <c r="B80" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C80" t="n">
         <v>7.8</v>
       </c>
-      <c r="C80" t="n">
+      <c r="D80" t="n">
         <v>7.7</v>
       </c>
-      <c r="D80" t="n">
+      <c r="E80" t="n">
         <v>7.5</v>
       </c>
-      <c r="E80" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F80" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G80" t="n">
         <v>7.4</v>
       </c>
-      <c r="G80" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H80" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="I80" t="n">
-        <v>7.34</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="81">
@@ -2413,28 +2421,28 @@
         <v>111</v>
       </c>
       <c r="B84" t="n">
-        <v>6.6</v>
+        <v>7.9</v>
       </c>
       <c r="C84" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="D84" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E84" t="n">
         <v>7.8</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>7.3</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>7.1</v>
       </c>
-      <c r="G84" t="n">
+      <c r="H84" t="n">
         <v>6.1</v>
       </c>
-      <c r="H84" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I84" t="n">
-        <v>6.91</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="85">
@@ -2591,28 +2599,28 @@
         <v>119</v>
       </c>
       <c r="B92" t="n">
-        <v>6.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="D92" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="E92" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F92" t="n">
         <v>7.3</v>
       </c>
-      <c r="F92" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G92" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H92" t="n">
         <v>7.2</v>
       </c>
-      <c r="H92" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I92" t="n">
-        <v>6.84</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="93">
@@ -2755,28 +2763,28 @@
         <v>129</v>
       </c>
       <c r="B100" t="n">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="C100" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="D100" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E100" t="n">
         <v>5.8</v>
       </c>
-      <c r="E100" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F100" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G100" t="n">
         <v>7.6</v>
       </c>
-      <c r="G100" t="n">
-        <v>6.4</v>
-      </c>
       <c r="H100" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="I100" t="n">
-        <v>6.59</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="101">
@@ -2849,28 +2857,28 @@
         <v>133</v>
       </c>
       <c r="B104" t="n">
+        <v>7</v>
+      </c>
+      <c r="C104" t="n">
         <v>8.199999999999999</v>
-      </c>
-      <c r="C104" t="n">
-        <v>7.4</v>
       </c>
       <c r="D104" t="n">
         <v>7.4</v>
       </c>
       <c r="E104" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F104" t="n">
         <v>7.1</v>
       </c>
-      <c r="F104" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G104" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="H104" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="I104" t="n">
-        <v>7.16</v>
+        <v>7.19</v>
       </c>
     </row>
     <row r="105">
@@ -2907,14 +2915,14 @@
         <v>135</v>
       </c>
       <c r="B106" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C106" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="C106" t="n">
+      <c r="D106" t="n">
         <v>7.2</v>
       </c>
-      <c r="D106" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E106" t="n">
         <v>6.6</v>
       </c>
@@ -2922,13 +2930,13 @@
         <v>6.6</v>
       </c>
       <c r="G106" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H106" t="n">
         <v>7.2</v>
       </c>
-      <c r="H106" t="n">
-        <v>7.5</v>
-      </c>
       <c r="I106" t="n">
-        <v>7.13</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="107">
@@ -3199,28 +3207,28 @@
         <v>149</v>
       </c>
       <c r="B118" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C118" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="C118" t="n">
-        <v>6.8</v>
-      </c>
       <c r="D118" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E118" t="n">
         <v>7.3</v>
       </c>
-      <c r="E118" t="n">
-        <v>6.4</v>
-      </c>
       <c r="F118" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G118" t="n">
         <v>7.3</v>
       </c>
-      <c r="G118" t="n">
-        <v>6.4</v>
-      </c>
       <c r="H118" t="n">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="I118" t="n">
-        <v>7.24</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="119">
@@ -3422,22 +3430,22 @@
         <v>6.6</v>
       </c>
       <c r="D127" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E127" t="n">
         <v>6</v>
       </c>
-      <c r="E127" t="n">
+      <c r="F127" t="n">
         <v>7.4</v>
       </c>
-      <c r="F127" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G127" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="H127" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="I127" t="n">
-        <v>6.63</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="128">
@@ -4136,28 +4144,28 @@
         <v>195</v>
       </c>
       <c r="B155" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C155" t="n">
         <v>6.2</v>
       </c>
-      <c r="C155" t="n">
-        <v>7</v>
-      </c>
       <c r="D155" t="n">
+        <v>7</v>
+      </c>
+      <c r="E155" t="n">
         <v>5.9</v>
       </c>
-      <c r="E155" t="n">
+      <c r="F155" t="n">
         <v>6.3</v>
       </c>
-      <c r="F155" t="n">
+      <c r="G155" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="G155" t="n">
-        <v>6.8</v>
-      </c>
       <c r="H155" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="I155" t="n">
-        <v>6.77</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="156">
@@ -4211,24 +4219,26 @@
         <v>198</v>
       </c>
       <c r="B158" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="C158" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="D158" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="E158" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="F158" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="G158" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="G158" t="n">
+        <v>6.7</v>
+      </c>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="n">
-        <v>6.64</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="159">
@@ -4236,28 +4246,28 @@
         <v>199</v>
       </c>
       <c r="B159" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C159" t="n">
         <v>7.1</v>
       </c>
-      <c r="C159" t="n">
+      <c r="D159" t="n">
         <v>5.9</v>
       </c>
-      <c r="D159" t="n">
+      <c r="E159" t="n">
         <v>6.1</v>
       </c>
-      <c r="E159" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F159" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G159" t="n">
         <v>7.5</v>
       </c>
-      <c r="G159" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H159" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="I159" t="n">
-        <v>6.64</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="160">
@@ -4369,28 +4379,28 @@
         <v>206</v>
       </c>
       <c r="B164" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="C164" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D164" t="n">
         <v>7.2</v>
       </c>
-      <c r="D164" t="n">
+      <c r="E164" t="n">
         <v>7.1</v>
       </c>
-      <c r="E164" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F164" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G164" t="n">
         <v>7.3</v>
       </c>
-      <c r="G164" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H164" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="I164" t="n">
-        <v>6.89</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="165">
@@ -4518,25 +4528,25 @@
         <v>7.2</v>
       </c>
       <c r="C170" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="D170" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="E170" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F170" t="n">
         <v>7.2</v>
       </c>
-      <c r="F170" t="n">
-        <v>6.4</v>
-      </c>
       <c r="G170" t="n">
         <v>6.4</v>
       </c>
       <c r="H170" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="I170" t="n">
-        <v>6.79</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="171">
@@ -4881,22 +4891,22 @@
         <v>6.8</v>
       </c>
       <c r="D184" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E184" t="n">
         <v>7.3</v>
       </c>
-      <c r="E184" t="n">
+      <c r="F184" t="n">
         <v>7.5</v>
       </c>
-      <c r="F184" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G184" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="H184" t="n">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
       <c r="I184" t="n">
-        <v>7.01</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="185">
@@ -4933,28 +4943,28 @@
         <v>228</v>
       </c>
       <c r="B186" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C186" t="n">
         <v>7.6</v>
       </c>
-      <c r="C186" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D186" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="E186" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F186" t="n">
         <v>7.2</v>
       </c>
-      <c r="F186" t="n">
+      <c r="G186" t="n">
         <v>8.4</v>
       </c>
-      <c r="G186" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H186" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="I186" t="n">
-        <v>7.17</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="187">
@@ -4988,28 +4998,28 @@
         <v>232</v>
       </c>
       <c r="B189" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C189" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="D189" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="E189" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="F189" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="G189" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="H189" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I189" t="n">
-        <v>6.6</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="190">
@@ -5313,26 +5323,28 @@
         <v>252</v>
       </c>
       <c r="B204" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C204" t="n">
         <v>7.2</v>
       </c>
-      <c r="C204" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D204" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E204" t="n">
         <v>8.4</v>
       </c>
-      <c r="E204" t="n">
+      <c r="F204" t="n">
         <v>7.2</v>
       </c>
-      <c r="F204" t="n">
+      <c r="G204" t="n">
         <v>7.6</v>
       </c>
-      <c r="G204" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="H204" t="inlineStr"/>
+      <c r="H204" t="n">
+        <v>6.7</v>
+      </c>
       <c r="I204" t="n">
-        <v>7.3</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="205">
@@ -5393,20 +5405,28 @@
         <v>256</v>
       </c>
       <c r="B208" t="n">
-        <v>9.699999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="C208" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="D208" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="E208" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="F208" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G208" t="n">
+        <v>7</v>
+      </c>
+      <c r="H208" t="n">
+        <v>7.4</v>
+      </c>
       <c r="I208" t="n">
-        <v>7.67</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="209">
@@ -5438,21 +5458,23 @@
         <v>6.8</v>
       </c>
       <c r="C210" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D210" t="n">
         <v>7.6</v>
       </c>
-      <c r="D210" t="n">
-        <v>7</v>
-      </c>
       <c r="E210" t="n">
+        <v>7</v>
+      </c>
+      <c r="F210" t="n">
         <v>7.3</v>
       </c>
-      <c r="F210" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="G210" t="inlineStr"/>
+      <c r="G210" t="n">
+        <v>6.6</v>
+      </c>
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="n">
-        <v>7.06</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="211">
@@ -5460,28 +5482,28 @@
         <v>260</v>
       </c>
       <c r="B211" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C211" t="n">
         <v>7.3</v>
       </c>
-      <c r="C211" t="n">
+      <c r="D211" t="n">
         <v>7.6</v>
       </c>
-      <c r="D211" t="n">
+      <c r="E211" t="n">
         <v>6.1</v>
       </c>
-      <c r="E211" t="n">
+      <c r="F211" t="n">
         <v>7.2</v>
       </c>
-      <c r="F211" t="n">
+      <c r="G211" t="n">
         <v>7.4</v>
       </c>
-      <c r="G211" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H211" t="n">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
       <c r="I211" t="n">
-        <v>6.96</v>
+        <v>7</v>
       </c>
     </row>
     <row r="212">
@@ -5584,25 +5606,25 @@
         <v>6.5</v>
       </c>
       <c r="C216" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D216" t="n">
         <v>8.1</v>
       </c>
-      <c r="D216" t="n">
+      <c r="E216" t="n">
         <v>6.3</v>
       </c>
-      <c r="E216" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F216" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="G216" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H216" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I216" t="n">
-        <v>6.7</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="217">
@@ -5772,28 +5794,28 @@
         <v>280</v>
       </c>
       <c r="B223" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C223" t="n">
         <v>7.3</v>
       </c>
-      <c r="C223" t="n">
-        <v>6.8</v>
-      </c>
       <c r="D223" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E223" t="n">
         <v>4.9</v>
       </c>
-      <c r="E223" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F223" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="G223" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H223" t="n">
         <v>7.2</v>
       </c>
-      <c r="H223" t="n">
-        <v>7.3</v>
-      </c>
       <c r="I223" t="n">
-        <v>6.73</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="224">
@@ -5801,22 +5823,24 @@
         <v>281</v>
       </c>
       <c r="B224" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="C224" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D224" t="n">
         <v>6.2</v>
       </c>
-      <c r="D224" t="n">
+      <c r="E224" t="n">
         <v>7.7</v>
       </c>
-      <c r="E224" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="F224" t="inlineStr"/>
+      <c r="F224" t="n">
+        <v>6.8</v>
+      </c>
       <c r="G224" t="inlineStr"/>
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="n">
-        <v>6.85</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="225">
@@ -5878,25 +5902,25 @@
         <v>285</v>
       </c>
       <c r="B227" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="C227" t="n">
         <v>7.2</v>
       </c>
       <c r="D227" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="E227" t="n">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="F227" t="n">
         <v>7.4</v>
       </c>
       <c r="G227" t="n">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="H227" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="I227" t="n">
         <v>7.03</v>
@@ -5965,10 +5989,10 @@
         <v>288</v>
       </c>
       <c r="B230" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="C230" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="D230" t="n">
         <v>6.7</v>
@@ -5977,13 +6001,13 @@
         <v>6.7</v>
       </c>
       <c r="F230" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G230" t="n">
         <v>6.1</v>
       </c>
-      <c r="G230" t="n">
-        <v>6.8</v>
-      </c>
       <c r="H230" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="I230" t="n">
         <v>6.54</v>
@@ -6023,26 +6047,28 @@
         <v>290</v>
       </c>
       <c r="B232" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="C232" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="D232" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E232" t="n">
         <v>7.2</v>
       </c>
-      <c r="E232" t="n">
+      <c r="F232" t="n">
         <v>7.5</v>
       </c>
-      <c r="F232" t="n">
+      <c r="G232" t="n">
         <v>6.2</v>
       </c>
-      <c r="G232" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="H232" t="inlineStr"/>
+      <c r="H232" t="n">
+        <v>6.9</v>
+      </c>
       <c r="I232" t="n">
-        <v>6.9</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="233">
@@ -6245,28 +6271,28 @@
         <v>299</v>
       </c>
       <c r="B240" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="C240" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="D240" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E240" t="n">
         <v>7.2</v>
       </c>
-      <c r="E240" t="n">
+      <c r="F240" t="n">
         <v>7.9</v>
       </c>
-      <c r="F240" t="n">
-        <v>7</v>
-      </c>
       <c r="G240" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="H240" t="n">
-        <v>7.7</v>
+        <v>6.8</v>
       </c>
       <c r="I240" t="n">
-        <v>7.11</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="241">
@@ -6274,28 +6300,28 @@
         <v>300</v>
       </c>
       <c r="B241" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C241" t="n">
         <v>7.3</v>
       </c>
-      <c r="C241" t="n">
-        <v>6.8</v>
-      </c>
       <c r="D241" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="E241" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F241" t="n">
         <v>7.2</v>
       </c>
-      <c r="F241" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G241" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H241" t="n">
         <v>7.1</v>
       </c>
-      <c r="H241" t="n">
-        <v>7.6</v>
-      </c>
       <c r="I241" t="n">
-        <v>7.09</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="242">
@@ -6303,16 +6329,18 @@
         <v>301</v>
       </c>
       <c r="B242" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="C242" t="inlineStr"/>
+        <v>6.6</v>
+      </c>
+      <c r="C242" t="n">
+        <v>6.4</v>
+      </c>
       <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr"/>
       <c r="G242" t="inlineStr"/>
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="243">
@@ -6349,22 +6377,24 @@
         <v>303</v>
       </c>
       <c r="B244" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="C244" t="n">
         <v>7.4</v>
       </c>
       <c r="D244" t="n">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="E244" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F244" t="inlineStr"/>
+        <v>6.7</v>
+      </c>
+      <c r="F244" t="n">
+        <v>6.5</v>
+      </c>
       <c r="G244" t="inlineStr"/>
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="245">
@@ -6372,28 +6402,28 @@
         <v>305</v>
       </c>
       <c r="B245" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="C245" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D245" t="n">
         <v>7.1</v>
       </c>
-      <c r="D245" t="n">
+      <c r="E245" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="E245" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F245" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G245" t="n">
         <v>6.3</v>
       </c>
-      <c r="G245" t="n">
-        <v>6.8</v>
-      </c>
       <c r="H245" t="n">
         <v>6.8</v>
       </c>
       <c r="I245" t="n">
-        <v>6.91</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="246">
@@ -6516,25 +6546,25 @@
         <v>7</v>
       </c>
       <c r="C250" t="n">
+        <v>7</v>
+      </c>
+      <c r="D250" t="n">
         <v>7.4</v>
       </c>
-      <c r="D250" t="n">
+      <c r="E250" t="n">
         <v>7.5</v>
       </c>
-      <c r="E250" t="n">
+      <c r="F250" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="F250" t="n">
+      <c r="G250" t="n">
         <v>7.4</v>
       </c>
-      <c r="G250" t="n">
-        <v>6.8</v>
-      </c>
       <c r="H250" t="n">
-        <v>5.4</v>
+        <v>6.8</v>
       </c>
       <c r="I250" t="n">
-        <v>7.1</v>
+        <v>7.33</v>
       </c>
     </row>
     <row r="251">
@@ -6542,18 +6572,20 @@
         <v>311</v>
       </c>
       <c r="B251" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="C251" t="n">
-        <v>7</v>
-      </c>
-      <c r="D251" t="inlineStr"/>
+        <v>6.9</v>
+      </c>
+      <c r="D251" t="n">
+        <v>7</v>
+      </c>
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="inlineStr"/>
       <c r="G251" t="inlineStr"/>
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="n">
-        <v>6.95</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="252">
@@ -6561,28 +6593,28 @@
         <v>312</v>
       </c>
       <c r="B252" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C252" t="n">
         <v>7.9</v>
       </c>
-      <c r="C252" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D252" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="E252" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="F252" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="G252" t="n">
         <v>6.8</v>
       </c>
       <c r="H252" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="I252" t="n">
-        <v>6.83</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="253">
@@ -6619,28 +6651,28 @@
         <v>314</v>
       </c>
       <c r="B254" t="n">
+        <v>7</v>
+      </c>
+      <c r="C254" t="n">
         <v>7.1</v>
       </c>
-      <c r="C254" t="n">
-        <v>7</v>
-      </c>
       <c r="D254" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="E254" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="F254" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G254" t="n">
         <v>7.4</v>
       </c>
-      <c r="G254" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H254" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="I254" t="n">
-        <v>6.86</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="255">
@@ -6835,20 +6867,22 @@
         <v>322</v>
       </c>
       <c r="B262" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C262" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="C262" t="n">
+      <c r="D262" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="D262" t="n">
+      <c r="E262" t="n">
         <v>7.5</v>
       </c>
-      <c r="E262" t="inlineStr"/>
       <c r="F262" t="inlineStr"/>
       <c r="G262" t="inlineStr"/>
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="n">
-        <v>8.300000000000001</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="263">
@@ -7023,28 +7057,28 @@
         <v>332</v>
       </c>
       <c r="B270" t="n">
-        <v>6.6</v>
+        <v>7.9</v>
       </c>
       <c r="C270" t="n">
         <v>6.6</v>
       </c>
       <c r="D270" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="E270" t="n">
+        <v>7</v>
+      </c>
+      <c r="F270" t="n">
         <v>6.3</v>
       </c>
-      <c r="F270" t="n">
+      <c r="G270" t="n">
         <v>7.7</v>
       </c>
-      <c r="G270" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H270" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="I270" t="n">
-        <v>6.89</v>
+        <v>7</v>
       </c>
     </row>
     <row r="271">
@@ -7215,21 +7249,23 @@
         <v>341</v>
       </c>
       <c r="B278" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="C278" t="n">
         <v>7.5</v>
       </c>
       <c r="D278" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="E278" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="F278" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="G278" t="inlineStr"/>
+        <v>6.9</v>
+      </c>
+      <c r="G278" t="n">
+        <v>6.5</v>
+      </c>
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="n">
         <v>7</v>
@@ -7323,28 +7359,28 @@
         <v>345</v>
       </c>
       <c r="B282" t="n">
+        <v>7</v>
+      </c>
+      <c r="C282" t="n">
         <v>7.4</v>
       </c>
-      <c r="C282" t="n">
+      <c r="D282" t="n">
         <v>6.3</v>
       </c>
-      <c r="D282" t="n">
+      <c r="E282" t="n">
         <v>7.2</v>
       </c>
-      <c r="E282" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F282" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G282" t="n">
         <v>7.4</v>
       </c>
-      <c r="G282" t="n">
+      <c r="H282" t="n">
         <v>7.3</v>
       </c>
-      <c r="H282" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I282" t="n">
-        <v>6.99</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="283">
@@ -7381,7 +7417,7 @@
         <v>347</v>
       </c>
       <c r="B284" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="C284" t="n">
         <v>7</v>
@@ -7402,7 +7438,7 @@
         <v>7</v>
       </c>
       <c r="I284" t="n">
-        <v>7.4</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="285">
@@ -7522,26 +7558,28 @@
         <v>352</v>
       </c>
       <c r="B289" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C289" t="n">
         <v>7.9</v>
       </c>
-      <c r="C289" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D289" t="n">
         <v>6.5</v>
       </c>
       <c r="E289" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F289" t="n">
         <v>6.1</v>
       </c>
-      <c r="F289" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G289" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="H289" t="inlineStr"/>
+        <v>6.8</v>
+      </c>
+      <c r="H289" t="n">
+        <v>6.7</v>
+      </c>
       <c r="I289" t="n">
-        <v>6.75</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="290">
@@ -7549,20 +7587,22 @@
         <v>353</v>
       </c>
       <c r="B290" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C290" t="n">
         <v>5.9</v>
       </c>
-      <c r="C290" t="n">
-        <v>6.8</v>
-      </c>
       <c r="D290" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="E290" t="inlineStr"/>
+        <v>6.8</v>
+      </c>
+      <c r="E290" t="n">
+        <v>6.5</v>
+      </c>
       <c r="F290" t="inlineStr"/>
       <c r="G290" t="inlineStr"/>
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="291">
@@ -7753,28 +7793,28 @@
         <v>362</v>
       </c>
       <c r="B298" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C298" t="n">
         <v>7.6</v>
       </c>
-      <c r="C298" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D298" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="E298" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F298" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="F298" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G298" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H298" t="n">
         <v>7.8</v>
       </c>
-      <c r="H298" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I298" t="n">
-        <v>7.27</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="299">
@@ -7975,28 +8015,28 @@
         <v>371</v>
       </c>
       <c r="B306" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="C306" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D306" t="n">
         <v>6.3</v>
       </c>
-      <c r="D306" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E306" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="F306" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G306" t="n">
         <v>5.4</v>
       </c>
-      <c r="G306" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H306" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="I306" t="n">
-        <v>6.39</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="307">
@@ -8363,28 +8403,28 @@
         <v>385</v>
       </c>
       <c r="B320" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="C320" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D320" t="n">
         <v>7.8</v>
       </c>
-      <c r="D320" t="n">
-        <v>7</v>
-      </c>
       <c r="E320" t="n">
+        <v>7</v>
+      </c>
+      <c r="F320" t="n">
         <v>7.9</v>
-      </c>
-      <c r="F320" t="n">
-        <v>7.3</v>
       </c>
       <c r="G320" t="n">
         <v>7.3</v>
       </c>
       <c r="H320" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="I320" t="n">
-        <v>7.24</v>
+        <v>7.29</v>
       </c>
     </row>
     <row r="321">
@@ -8440,28 +8480,28 @@
         <v>388</v>
       </c>
       <c r="B323" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C323" t="n">
         <v>7.6</v>
       </c>
-      <c r="C323" t="n">
+      <c r="D323" t="n">
         <v>7.1</v>
       </c>
-      <c r="D323" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E323" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="F323" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="G323" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="H323" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="I323" t="n">
-        <v>6.93</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="324">
@@ -8543,28 +8583,28 @@
         <v>393</v>
       </c>
       <c r="B328" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C328" t="n">
         <v>8.1</v>
       </c>
-      <c r="C328" t="n">
+      <c r="D328" t="n">
         <v>8.9</v>
       </c>
-      <c r="D328" t="n">
+      <c r="E328" t="n">
         <v>7.2</v>
       </c>
-      <c r="E328" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F328" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G328" t="n">
         <v>7.1</v>
       </c>
-      <c r="G328" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H328" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="I328" t="n">
-        <v>7.34</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="329">
@@ -8768,28 +8808,28 @@
         <v>402</v>
       </c>
       <c r="B337" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="C337" t="n">
         <v>6.8</v>
       </c>
       <c r="D337" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="E337" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="F337" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G337" t="n">
         <v>7.2</v>
       </c>
-      <c r="G337" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H337" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="I337" t="n">
-        <v>6.83</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="338">
@@ -8897,28 +8937,28 @@
         <v>407</v>
       </c>
       <c r="B342" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="C342" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="D342" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="E342" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F342" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="F342" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G342" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H342" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="I342" t="n">
-        <v>7.07</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="343">
@@ -8955,28 +8995,28 @@
         <v>409</v>
       </c>
       <c r="B344" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="C344" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D344" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E344" t="n">
         <v>9</v>
       </c>
-      <c r="E344" t="n">
+      <c r="F344" t="n">
         <v>6</v>
       </c>
-      <c r="F344" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G344" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H344" t="n">
         <v>7.7</v>
       </c>
-      <c r="H344" t="n">
-        <v>9.1</v>
-      </c>
       <c r="I344" t="n">
-        <v>7.43</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="345">
@@ -9123,28 +9163,28 @@
         <v>415</v>
       </c>
       <c r="B350" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="C350" t="n">
+        <v>7</v>
+      </c>
+      <c r="D350" t="n">
         <v>8.5</v>
       </c>
-      <c r="D350" t="n">
-        <v>6.4</v>
-      </c>
       <c r="E350" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F350" t="n">
         <v>7.1</v>
       </c>
-      <c r="F350" t="n">
+      <c r="G350" t="n">
         <v>8.6</v>
       </c>
-      <c r="G350" t="n">
+      <c r="H350" t="n">
         <v>7.6</v>
       </c>
-      <c r="H350" t="n">
-        <v>7.5</v>
-      </c>
       <c r="I350" t="n">
-        <v>7.53</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="351">
@@ -9152,28 +9192,28 @@
         <v>416</v>
       </c>
       <c r="B351" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C351" t="n">
         <v>6.3</v>
       </c>
-      <c r="C351" t="n">
+      <c r="D351" t="n">
         <v>7.2</v>
       </c>
-      <c r="D351" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E351" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F351" t="n">
         <v>7.3</v>
       </c>
-      <c r="F351" t="n">
+      <c r="G351" t="n">
         <v>5.9</v>
       </c>
-      <c r="G351" t="n">
+      <c r="H351" t="n">
         <v>7.3</v>
       </c>
-      <c r="H351" t="n">
-        <v>6.4</v>
-      </c>
       <c r="I351" t="n">
-        <v>6.74</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="352">
@@ -9268,28 +9308,28 @@
         <v>420</v>
       </c>
       <c r="B355" t="n">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="C355" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="D355" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E355" t="n">
         <v>7.6</v>
       </c>
-      <c r="E355" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F355" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="G355" t="n">
         <v>7.4</v>
       </c>
       <c r="H355" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="I355" t="n">
-        <v>7.03</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="356">
@@ -9351,16 +9391,16 @@
         <v>423</v>
       </c>
       <c r="B358" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C358" t="n">
         <v>6.2</v>
       </c>
-      <c r="C358" t="n">
+      <c r="D358" t="n">
         <v>7.7</v>
       </c>
-      <c r="D358" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E358" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="F358" t="n">
         <v>7.3</v>
@@ -9369,7 +9409,7 @@
         <v>7.3</v>
       </c>
       <c r="H358" t="n">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="I358" t="n">
         <v>6.97</v>
@@ -9439,28 +9479,28 @@
         <v>427</v>
       </c>
       <c r="B362" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="C362" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D362" t="n">
         <v>7.4</v>
       </c>
-      <c r="D362" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E362" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="F362" t="n">
+        <v>7</v>
+      </c>
+      <c r="G362" t="n">
         <v>6.1</v>
       </c>
-      <c r="G362" t="n">
-        <v>6.8</v>
-      </c>
       <c r="H362" t="n">
         <v>6.8</v>
       </c>
       <c r="I362" t="n">
-        <v>6.81</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="363">
@@ -9468,28 +9508,28 @@
         <v>428</v>
       </c>
       <c r="B363" t="n">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="C363" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="D363" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E363" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="E363" t="n">
+      <c r="F363" t="n">
         <v>7.2</v>
       </c>
-      <c r="F363" t="n">
+      <c r="G363" t="n">
         <v>6</v>
       </c>
-      <c r="G363" t="n">
+      <c r="H363" t="n">
         <v>7.3</v>
       </c>
-      <c r="H363" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I363" t="n">
-        <v>6.87</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="364">
@@ -9607,28 +9647,28 @@
         <v>433</v>
       </c>
       <c r="B368" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C368" t="n">
         <v>6</v>
       </c>
-      <c r="C368" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D368" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E368" t="n">
         <v>7.7</v>
       </c>
-      <c r="E368" t="n">
+      <c r="F368" t="n">
         <v>7.1</v>
       </c>
-      <c r="F368" t="n">
+      <c r="G368" t="n">
         <v>6.1</v>
       </c>
-      <c r="G368" t="n">
+      <c r="H368" t="n">
         <v>7.1</v>
       </c>
-      <c r="H368" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I368" t="n">
-        <v>6.83</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="369">
@@ -9767,25 +9807,25 @@
         <v>439</v>
       </c>
       <c r="B374" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="C374" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D374" t="n">
         <v>7.3</v>
       </c>
-      <c r="D374" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E374" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F374" t="n">
         <v>8</v>
       </c>
-      <c r="F374" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G374" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="H374" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="I374" t="n">
         <v>6.93</v>

--- a/players_ratings.xlsx
+++ b/players_ratings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I386"/>
+  <dimension ref="A1:I389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,28 +599,28 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="C8" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="D8" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="E8" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F8" t="n">
         <v>7.5</v>
       </c>
-      <c r="F8" t="n">
-        <v>6.4</v>
-      </c>
       <c r="G8" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H8" t="n">
         <v>7.7</v>
       </c>
-      <c r="H8" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I8" t="n">
-        <v>6.86</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="9">
@@ -874,28 +874,28 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C19" t="n">
         <v>7.9</v>
       </c>
-      <c r="C19" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D19" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E19" t="n">
         <v>6.1</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>6.3</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>7.7</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>8.1</v>
       </c>
-      <c r="H19" t="n">
-        <v>6.2</v>
-      </c>
       <c r="I19" t="n">
-        <v>7</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="20">
@@ -932,28 +932,28 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D21" t="n">
         <v>8</v>
       </c>
-      <c r="C21" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F21" t="n">
         <v>6.2</v>
       </c>
-      <c r="E21" t="n">
-        <v>7</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>7</v>
+      </c>
+      <c r="H21" t="n">
         <v>7.4</v>
       </c>
-      <c r="G21" t="n">
-        <v>7</v>
-      </c>
-      <c r="H21" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I21" t="n">
-        <v>6.99</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="22">
@@ -1344,28 +1344,28 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="C37" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="D37" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E37" t="n">
         <v>7.3</v>
       </c>
-      <c r="E37" t="n">
-        <v>7</v>
-      </c>
       <c r="F37" t="n">
+        <v>7</v>
+      </c>
+      <c r="G37" t="n">
         <v>7.9</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="H37" t="n">
-        <v>7</v>
-      </c>
       <c r="I37" t="n">
-        <v>7.24</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="38">
@@ -1717,7 +1717,7 @@
         <v>66</v>
       </c>
       <c r="B54" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="C54" t="n">
         <v>6.6</v>
@@ -1738,7 +1738,7 @@
         <v>7.1</v>
       </c>
       <c r="I54" t="n">
-        <v>6.67</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="55">
@@ -1811,10 +1811,10 @@
         <v>75</v>
       </c>
       <c r="B58" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C58" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="D58" t="n">
         <v>6.6</v>
@@ -1823,14 +1823,16 @@
         <v>6.6</v>
       </c>
       <c r="F58" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="G58" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H58" t="inlineStr"/>
+        <v>6.8</v>
+      </c>
+      <c r="H58" t="n">
+        <v>6.6</v>
+      </c>
       <c r="I58" t="n">
-        <v>6.62</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="59">
@@ -2089,28 +2091,28 @@
         <v>95</v>
       </c>
       <c r="B70" t="n">
+        <v>8</v>
+      </c>
+      <c r="C70" t="n">
         <v>8.1</v>
       </c>
-      <c r="C70" t="n">
+      <c r="D70" t="n">
         <v>9</v>
       </c>
-      <c r="D70" t="n">
-        <v>7</v>
-      </c>
       <c r="E70" t="n">
+        <v>7</v>
+      </c>
+      <c r="F70" t="n">
         <v>7.6</v>
       </c>
-      <c r="F70" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G70" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="H70" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="I70" t="n">
-        <v>7.41</v>
+        <v>7.63</v>
       </c>
     </row>
     <row r="71">
@@ -2944,28 +2946,28 @@
         <v>136</v>
       </c>
       <c r="B107" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C107" t="n">
         <v>7.5</v>
       </c>
-      <c r="C107" t="n">
+      <c r="D107" t="n">
         <v>6.3</v>
       </c>
-      <c r="D107" t="n">
+      <c r="E107" t="n">
         <v>7.8</v>
       </c>
-      <c r="E107" t="n">
+      <c r="F107" t="n">
         <v>7.3</v>
       </c>
-      <c r="F107" t="n">
+      <c r="G107" t="n">
         <v>7.1</v>
       </c>
-      <c r="G107" t="n">
+      <c r="H107" t="n">
         <v>6.3</v>
       </c>
-      <c r="H107" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I107" t="n">
-        <v>6.97</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="108">
@@ -3052,25 +3054,25 @@
         <v>6.6</v>
       </c>
       <c r="C112" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="D112" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="E112" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="F112" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="G112" t="n">
         <v>6.2</v>
       </c>
       <c r="H112" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="I112" t="n">
-        <v>6.51</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="113">
@@ -3236,28 +3238,28 @@
         <v>150</v>
       </c>
       <c r="B119" t="n">
-        <v>6.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C119" t="n">
         <v>6.7</v>
       </c>
       <c r="D119" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E119" t="n">
         <v>7.1</v>
       </c>
-      <c r="E119" t="n">
-        <v>7</v>
-      </c>
       <c r="F119" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="G119" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H119" t="n">
         <v>6.3</v>
       </c>
-      <c r="H119" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I119" t="n">
-        <v>6.76</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120">
@@ -3375,23 +3377,25 @@
         <v>8.1</v>
       </c>
       <c r="C125" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="D125" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="E125" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="F125" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G125" t="n">
         <v>7.4</v>
       </c>
-      <c r="E125" t="n">
+      <c r="H125" t="n">
         <v>7.1</v>
       </c>
-      <c r="F125" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="G125" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="H125" t="inlineStr"/>
       <c r="I125" t="n">
-        <v>7.33</v>
+        <v>7.49</v>
       </c>
     </row>
     <row r="126">
@@ -3399,24 +3403,26 @@
         <v>165</v>
       </c>
       <c r="B126" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="C126" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="D126" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="E126" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="F126" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="G126" t="inlineStr"/>
+        <v>6.8</v>
+      </c>
+      <c r="G126" t="n">
+        <v>6.6</v>
+      </c>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="n">
-        <v>6.62</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="127">
@@ -3532,28 +3538,28 @@
         <v>170</v>
       </c>
       <c r="B131" t="n">
-        <v>7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C131" t="n">
+        <v>7</v>
+      </c>
+      <c r="D131" t="n">
         <v>7.5</v>
       </c>
-      <c r="D131" t="n">
+      <c r="E131" t="n">
         <v>7.9</v>
       </c>
-      <c r="E131" t="n">
+      <c r="F131" t="n">
         <v>7.1</v>
       </c>
-      <c r="F131" t="n">
+      <c r="G131" t="n">
         <v>6.1</v>
       </c>
-      <c r="G131" t="n">
+      <c r="H131" t="n">
         <v>7.2</v>
       </c>
-      <c r="H131" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I131" t="n">
-        <v>7.06</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="132">
@@ -3561,28 +3567,28 @@
         <v>171</v>
       </c>
       <c r="B132" t="n">
+        <v>7</v>
+      </c>
+      <c r="C132" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="C132" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D132" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="E132" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="F132" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="G132" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="H132" t="n">
-        <v>7.7</v>
+        <v>6.5</v>
       </c>
       <c r="I132" t="n">
-        <v>7.01</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="133">
@@ -3677,20 +3683,22 @@
         <v>175</v>
       </c>
       <c r="B136" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C136" t="n">
         <v>7.3</v>
       </c>
-      <c r="C136" t="n">
+      <c r="D136" t="n">
         <v>7.2</v>
       </c>
-      <c r="D136" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="E136" t="inlineStr"/>
+      <c r="E136" t="n">
+        <v>6.9</v>
+      </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="n">
-        <v>7.13</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="137">
@@ -3791,22 +3799,22 @@
         <v>6.9</v>
       </c>
       <c r="C141" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D141" t="n">
         <v>7.6</v>
       </c>
-      <c r="D141" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E141" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F141" t="n">
         <v>9.1</v>
       </c>
-      <c r="F141" t="n">
+      <c r="G141" t="n">
         <v>7.3</v>
       </c>
-      <c r="G141" t="n">
-        <v>7</v>
-      </c>
       <c r="H141" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="I141" t="n">
         <v>7.39</v>
@@ -3817,20 +3825,22 @@
         <v>181</v>
       </c>
       <c r="B142" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="C142" t="n">
         <v>6.4</v>
       </c>
       <c r="D142" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="E142" t="inlineStr"/>
+        <v>6.4</v>
+      </c>
+      <c r="E142" t="n">
+        <v>6.6</v>
+      </c>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="n">
-        <v>6.47</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="143">
@@ -3838,24 +3848,28 @@
         <v>182</v>
       </c>
       <c r="B143" t="n">
+        <v>9</v>
+      </c>
+      <c r="C143" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D143" t="n">
         <v>7.5</v>
       </c>
-      <c r="C143" t="n">
+      <c r="E143" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F143" t="n">
         <v>7.2</v>
       </c>
-      <c r="D143" t="n">
+      <c r="G143" t="n">
         <v>7.4</v>
       </c>
-      <c r="E143" t="n">
+      <c r="H143" t="n">
         <v>7.7</v>
       </c>
-      <c r="F143" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="G143" t="inlineStr"/>
-      <c r="H143" t="inlineStr"/>
       <c r="I143" t="n">
-        <v>7.34</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="144">
@@ -3882,28 +3896,28 @@
         <v>184</v>
       </c>
       <c r="B145" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="C145" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D145" t="n">
         <v>7.4</v>
       </c>
-      <c r="D145" t="n">
+      <c r="E145" t="n">
         <v>7.2</v>
       </c>
-      <c r="E145" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F145" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="G145" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="H145" t="n">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="I145" t="n">
-        <v>6.94</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="146">
@@ -3911,28 +3925,28 @@
         <v>185</v>
       </c>
       <c r="B146" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="C146" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="D146" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E146" t="n">
         <v>7.8</v>
       </c>
-      <c r="E146" t="n">
+      <c r="F146" t="n">
         <v>7.5</v>
       </c>
-      <c r="F146" t="n">
+      <c r="G146" t="n">
         <v>7.2</v>
       </c>
-      <c r="G146" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H146" t="n">
-        <v>8.1</v>
+        <v>6.7</v>
       </c>
       <c r="I146" t="n">
-        <v>7.31</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="147">
@@ -4496,25 +4510,25 @@
         <v>211</v>
       </c>
       <c r="B169" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="C169" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="D169" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E169" t="n">
         <v>7.3</v>
       </c>
-      <c r="E169" t="n">
+      <c r="F169" t="n">
         <v>7.1</v>
       </c>
-      <c r="F169" t="n">
+      <c r="G169" t="n">
         <v>7.3</v>
       </c>
-      <c r="G169" t="n">
+      <c r="H169" t="n">
         <v>7.2</v>
-      </c>
-      <c r="H169" t="n">
-        <v>6.6</v>
       </c>
       <c r="I169" t="n">
         <v>7.01</v>
@@ -4571,28 +4585,28 @@
         <v>214</v>
       </c>
       <c r="B172" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C172" t="n">
         <v>8.4</v>
       </c>
-      <c r="C172" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D172" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E172" t="n">
         <v>7.8</v>
       </c>
-      <c r="E172" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F172" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="G172" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="H172" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="I172" t="n">
-        <v>7.13</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="173">
@@ -4746,22 +4760,26 @@
         <v>221</v>
       </c>
       <c r="B179" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="C179" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="D179" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E179" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F179" t="n">
         <v>7.6</v>
       </c>
-      <c r="E179" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
+      <c r="G179" t="n">
+        <v>6.8</v>
+      </c>
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="n">
-        <v>6.92</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="180">
@@ -4801,25 +4819,25 @@
         <v>6.5</v>
       </c>
       <c r="C181" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="D181" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="E181" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="F181" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="G181" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="H181" t="n">
         <v>6.3</v>
       </c>
       <c r="I181" t="n">
-        <v>6.5</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="182">
@@ -4856,28 +4874,28 @@
         <v>225</v>
       </c>
       <c r="B183" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="C183" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D183" t="n">
         <v>5.5</v>
       </c>
-      <c r="D183" t="n">
+      <c r="E183" t="n">
         <v>7.1</v>
       </c>
-      <c r="E183" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F183" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G183" t="n">
         <v>6.1</v>
       </c>
-      <c r="G183" t="n">
+      <c r="H183" t="n">
         <v>7.4</v>
       </c>
-      <c r="H183" t="n">
-        <v>7.3</v>
-      </c>
       <c r="I183" t="n">
-        <v>6.66</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="184">
@@ -5405,28 +5423,28 @@
         <v>256</v>
       </c>
       <c r="B208" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="C208" t="n">
         <v>7.2</v>
       </c>
-      <c r="C208" t="n">
+      <c r="D208" t="n">
         <v>7.4</v>
       </c>
-      <c r="D208" t="n">
-        <v>7</v>
-      </c>
       <c r="E208" t="n">
+        <v>7</v>
+      </c>
+      <c r="F208" t="n">
         <v>7.1</v>
       </c>
-      <c r="F208" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G208" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="H208" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="I208" t="n">
-        <v>7.14</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="209">
@@ -5472,9 +5490,11 @@
       <c r="G210" t="n">
         <v>6.6</v>
       </c>
-      <c r="H210" t="inlineStr"/>
+      <c r="H210" t="n">
+        <v>6.6</v>
+      </c>
       <c r="I210" t="n">
-        <v>7.02</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="211">
@@ -5536,24 +5556,26 @@
         <v>263</v>
       </c>
       <c r="B213" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="C213" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="D213" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="E213" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F213" t="n">
         <v>7.3</v>
       </c>
-      <c r="F213" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="G213" t="inlineStr"/>
+      <c r="G213" t="n">
+        <v>6.8</v>
+      </c>
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="n">
-        <v>6.82</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="214">
@@ -6076,28 +6098,28 @@
         <v>291</v>
       </c>
       <c r="B233" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C233" t="n">
+        <v>7</v>
+      </c>
+      <c r="D233" t="n">
         <v>8.4</v>
       </c>
-      <c r="C233" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="D233" t="n">
+      <c r="E233" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F233" t="n">
         <v>8</v>
       </c>
-      <c r="E233" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F233" t="n">
+      <c r="G233" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H233" t="n">
         <v>7.2</v>
       </c>
-      <c r="G233" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="H233" t="n">
-        <v>7.3</v>
-      </c>
       <c r="I233" t="n">
-        <v>7.39</v>
+        <v>7.31</v>
       </c>
     </row>
     <row r="234">
@@ -6472,7 +6494,7 @@
         <v>7.2</v>
       </c>
       <c r="F247" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="G247" t="n">
         <v>6.5</v>
@@ -6481,7 +6503,7 @@
         <v>6.8</v>
       </c>
       <c r="I247" t="n">
-        <v>6.71</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="248">
@@ -6504,13 +6526,13 @@
         <v>6.5</v>
       </c>
       <c r="G248" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="H248" t="n">
         <v>6.7</v>
       </c>
       <c r="I248" t="n">
-        <v>6.63</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="249">
@@ -6867,22 +6889,24 @@
         <v>322</v>
       </c>
       <c r="B262" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="C262" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D262" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="D262" t="n">
+      <c r="E262" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="E262" t="n">
+      <c r="F262" t="n">
         <v>7.5</v>
       </c>
-      <c r="F262" t="inlineStr"/>
       <c r="G262" t="inlineStr"/>
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="n">
-        <v>7.9</v>
+        <v>7.74</v>
       </c>
     </row>
     <row r="263">
@@ -6896,7 +6920,7 @@
         <v>7</v>
       </c>
       <c r="D263" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E263" t="n">
         <v>7.9</v>
@@ -6911,7 +6935,7 @@
         <v>7.2</v>
       </c>
       <c r="I263" t="n">
-        <v>7.84</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="264">
@@ -6919,28 +6943,28 @@
         <v>324</v>
       </c>
       <c r="B264" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C264" t="n">
         <v>7.3</v>
       </c>
-      <c r="C264" t="n">
+      <c r="D264" t="n">
         <v>9</v>
       </c>
-      <c r="D264" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E264" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="F264" t="n">
+        <v>7</v>
+      </c>
+      <c r="G264" t="n">
         <v>7.9</v>
       </c>
-      <c r="G264" t="n">
+      <c r="H264" t="n">
         <v>9.5</v>
       </c>
-      <c r="H264" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="I264" t="n">
-        <v>7.93</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="265">
@@ -7224,24 +7248,26 @@
         <v>340</v>
       </c>
       <c r="B277" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="C277" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D277" t="n">
         <v>7.8</v>
       </c>
-      <c r="D277" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E277" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="F277" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G277" t="n">
         <v>7.3</v>
       </c>
-      <c r="G277" t="inlineStr"/>
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="n">
-        <v>7.04</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="278">
@@ -7330,28 +7356,28 @@
         <v>344</v>
       </c>
       <c r="B281" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C281" t="n">
         <v>7.2</v>
       </c>
-      <c r="C281" t="n">
+      <c r="D281" t="n">
         <v>8</v>
       </c>
-      <c r="D281" t="n">
+      <c r="E281" t="n">
         <v>10</v>
       </c>
-      <c r="E281" t="n">
+      <c r="F281" t="n">
         <v>7.6</v>
       </c>
-      <c r="F281" t="n">
+      <c r="G281" t="n">
         <v>7.3</v>
       </c>
-      <c r="G281" t="n">
+      <c r="H281" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="H281" t="n">
-        <v>8.300000000000001</v>
-      </c>
       <c r="I281" t="n">
-        <v>8.09</v>
+        <v>7.86</v>
       </c>
     </row>
     <row r="282">
@@ -7533,24 +7559,26 @@
         <v>351</v>
       </c>
       <c r="B288" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="C288" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D288" t="n">
         <v>6.2</v>
       </c>
-      <c r="D288" t="n">
-        <v>6.4</v>
-      </c>
       <c r="E288" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F288" t="n">
         <v>6.2</v>
       </c>
-      <c r="F288" t="n">
+      <c r="G288" t="n">
         <v>5.7</v>
       </c>
-      <c r="G288" t="inlineStr"/>
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="n">
-        <v>6.26</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="289">
@@ -7706,28 +7734,28 @@
         <v>358</v>
       </c>
       <c r="B295" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C295" t="n">
         <v>7.3</v>
       </c>
-      <c r="C295" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D295" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E295" t="n">
         <v>6.1</v>
       </c>
-      <c r="E295" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F295" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="G295" t="n">
+        <v>7</v>
+      </c>
+      <c r="H295" t="n">
         <v>7.9</v>
       </c>
-      <c r="H295" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I295" t="n">
-        <v>6.97</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="296">
@@ -7735,28 +7763,28 @@
         <v>359</v>
       </c>
       <c r="B296" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C296" t="n">
         <v>7.6</v>
       </c>
-      <c r="C296" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D296" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E296" t="n">
         <v>7.1</v>
       </c>
-      <c r="E296" t="n">
+      <c r="F296" t="n">
         <v>7.3</v>
       </c>
-      <c r="F296" t="n">
+      <c r="G296" t="n">
         <v>7.5</v>
       </c>
-      <c r="G296" t="n">
+      <c r="H296" t="n">
         <v>7.3</v>
       </c>
-      <c r="H296" t="n">
-        <v>7.9</v>
-      </c>
       <c r="I296" t="n">
-        <v>7.37</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="297">
@@ -7822,28 +7850,28 @@
         <v>364</v>
       </c>
       <c r="B299" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C299" t="n">
         <v>7.6</v>
       </c>
-      <c r="C299" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D299" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E299" t="n">
         <v>7.5</v>
       </c>
-      <c r="E299" t="n">
-        <v>7</v>
-      </c>
       <c r="F299" t="n">
+        <v>7</v>
+      </c>
+      <c r="G299" t="n">
         <v>7.3</v>
       </c>
-      <c r="G299" t="n">
+      <c r="H299" t="n">
         <v>7.2</v>
       </c>
-      <c r="H299" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I299" t="n">
-        <v>7.13</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="300">
@@ -8129,28 +8157,28 @@
         <v>375</v>
       </c>
       <c r="B310" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C310" t="n">
         <v>7.5</v>
       </c>
-      <c r="C310" t="n">
+      <c r="D310" t="n">
         <v>7.6</v>
       </c>
-      <c r="D310" t="n">
+      <c r="E310" t="n">
         <v>7.1</v>
       </c>
-      <c r="E310" t="n">
+      <c r="F310" t="n">
         <v>7.5</v>
       </c>
-      <c r="F310" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G310" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="H310" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="I310" t="n">
-        <v>7.23</v>
+        <v>7.19</v>
       </c>
     </row>
     <row r="311">
@@ -8451,28 +8479,28 @@
         <v>387</v>
       </c>
       <c r="B322" t="n">
-        <v>6.8</v>
+        <v>8.9</v>
       </c>
       <c r="C322" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D322" t="n">
         <v>7.2</v>
       </c>
-      <c r="D322" t="n">
+      <c r="E322" t="n">
         <v>7.3</v>
       </c>
-      <c r="E322" t="n">
+      <c r="F322" t="n">
         <v>8.1</v>
       </c>
-      <c r="F322" t="n">
+      <c r="G322" t="n">
         <v>8.6</v>
       </c>
-      <c r="G322" t="n">
+      <c r="H322" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="H322" t="n">
-        <v>7.7</v>
-      </c>
       <c r="I322" t="n">
-        <v>7.77</v>
+        <v>7.94</v>
       </c>
     </row>
     <row r="323">
@@ -8683,28 +8711,28 @@
         <v>397</v>
       </c>
       <c r="B332" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="C332" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D332" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E332" t="n">
         <v>7.2</v>
       </c>
-      <c r="D332" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="E332" t="n">
+      <c r="F332" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G332" t="n">
         <v>7.6</v>
       </c>
-      <c r="F332" t="n">
+      <c r="H332" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="G332" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H332" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I332" t="n">
-        <v>7.14</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="333">
@@ -8966,28 +8994,28 @@
         <v>408</v>
       </c>
       <c r="B343" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C343" t="n">
         <v>8.6</v>
       </c>
-      <c r="C343" t="n">
+      <c r="D343" t="n">
         <v>7.1</v>
       </c>
-      <c r="D343" t="n">
+      <c r="E343" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="E343" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F343" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G343" t="n">
         <v>7.3</v>
       </c>
-      <c r="G343" t="n">
+      <c r="H343" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="H343" t="n">
-        <v>7.7</v>
-      </c>
       <c r="I343" t="n">
-        <v>7.89</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="344">
@@ -9111,18 +9139,20 @@
         <v>413</v>
       </c>
       <c r="B348" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C348" t="n">
         <v>7.1</v>
       </c>
-      <c r="C348" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D348" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="E348" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F348" t="n">
         <v>7.1</v>
       </c>
-      <c r="F348" t="inlineStr"/>
       <c r="G348" t="inlineStr"/>
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="n">
@@ -9923,28 +9953,28 @@
         <v>443</v>
       </c>
       <c r="B378" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C378" t="n">
         <v>7.2</v>
       </c>
-      <c r="C378" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D378" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="E378" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F378" t="n">
         <v>7.3</v>
       </c>
-      <c r="F378" t="n">
+      <c r="G378" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="G378" t="n">
+      <c r="H378" t="n">
         <v>7.1</v>
       </c>
-      <c r="H378" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I378" t="n">
-        <v>7.16</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="379">
@@ -9981,28 +10011,28 @@
         <v>445</v>
       </c>
       <c r="B380" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="C380" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="D380" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="E380" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="F380" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G380" t="n">
         <v>7.5</v>
       </c>
-      <c r="G380" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H380" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="I380" t="n">
-        <v>6.93</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="381">
@@ -10010,28 +10040,28 @@
         <v>446</v>
       </c>
       <c r="B381" t="n">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="C381" t="n">
         <v>7.3</v>
       </c>
       <c r="D381" t="n">
-        <v>6.5</v>
+        <v>7.6</v>
       </c>
       <c r="E381" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F381" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G381" t="n">
         <v>7.4</v>
       </c>
-      <c r="F381" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="G381" t="n">
-        <v>7.3</v>
-      </c>
       <c r="H381" t="n">
         <v>6.6</v>
       </c>
       <c r="I381" t="n">
-        <v>7.04</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="382">
@@ -10099,28 +10129,115 @@
         <v>451</v>
       </c>
       <c r="B386" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C386" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D386" t="n">
         <v>7.9</v>
       </c>
-      <c r="C386" t="n">
+      <c r="E386" t="n">
         <v>7.7</v>
       </c>
-      <c r="D386" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="E386" t="n">
+      <c r="F386" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G386" t="n">
         <v>8</v>
       </c>
-      <c r="F386" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="G386" t="n">
-        <v>7</v>
-      </c>
       <c r="H386" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I386" t="n">
+        <v>7.47</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="B387" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C387" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D387" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="E387" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F387" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G387" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H387" t="n">
+        <v>6</v>
+      </c>
+      <c r="I387" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>453</v>
+      </c>
+      <c r="B388" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C388" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="D388" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="E388" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F388" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="G388" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H388" t="n">
+        <v>6</v>
+      </c>
+      <c r="I388" t="n">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="B389" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C389" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D389" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="E389" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F389" t="n">
+        <v>7</v>
+      </c>
+      <c r="G389" t="n">
         <v>7.2</v>
       </c>
-      <c r="I386" t="n">
-        <v>7.36</v>
+      <c r="H389" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="I389" t="n">
+        <v>7.41</v>
       </c>
     </row>
   </sheetData>

--- a/players_ratings.xlsx
+++ b/players_ratings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I389"/>
+  <dimension ref="A1:I391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9110,28 +9110,28 @@
         <v>412</v>
       </c>
       <c r="B347" t="n">
-        <v>6.5</v>
+        <v>7.7</v>
       </c>
       <c r="C347" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D347" t="n">
         <v>7.6</v>
       </c>
-      <c r="D347" t="n">
-        <v>6.4</v>
-      </c>
       <c r="E347" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F347" t="n">
         <v>7.5</v>
       </c>
-      <c r="F347" t="n">
+      <c r="G347" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="G347" t="n">
+      <c r="H347" t="n">
         <v>7.6</v>
       </c>
-      <c r="H347" t="n">
-        <v>7.5</v>
-      </c>
       <c r="I347" t="n">
-        <v>7.33</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="348">
@@ -10129,7 +10129,7 @@
         <v>451</v>
       </c>
       <c r="B386" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="C386" t="n">
         <v>8.1</v>
@@ -10150,7 +10150,7 @@
         <v>6.8</v>
       </c>
       <c r="I386" t="n">
-        <v>7.47</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="387">
@@ -10238,6 +10238,64 @@
       </c>
       <c r="I389" t="n">
         <v>7.41</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="B390" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="C390" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="D390" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="E390" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="F390" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="G390" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="H390" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I390" t="n">
+        <v>7.84</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="B391" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C391" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="D391" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="E391" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F391" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="G391" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H391" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="I391" t="n">
+        <v>7.53</v>
       </c>
     </row>
   </sheetData>

--- a/players_ratings.xlsx
+++ b/players_ratings.xlsx
@@ -628,28 +628,28 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C9" t="n">
         <v>7.1</v>
       </c>
-      <c r="C9" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D9" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="E9" t="n">
         <v>7.5</v>
       </c>
       <c r="F9" t="n">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="G9" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="H9" t="n">
-        <v>6.1</v>
+        <v>7</v>
       </c>
       <c r="I9" t="n">
-        <v>6.87</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="10">
@@ -703,28 +703,28 @@
         <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="C12" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="D12" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E12" t="n">
         <v>7.6</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>7.2</v>
       </c>
-      <c r="F12" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G12" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="H12" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="I12" t="n">
-        <v>6.99</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="13">
@@ -874,28 +874,28 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="C19" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D19" t="n">
         <v>7.9</v>
       </c>
-      <c r="D19" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E19" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F19" t="n">
         <v>6.1</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>6.3</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>7.7</v>
       </c>
-      <c r="H19" t="n">
-        <v>8.1</v>
-      </c>
       <c r="I19" t="n">
-        <v>7.03</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="20">
@@ -932,25 +932,25 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C21" t="n">
         <v>7.3</v>
       </c>
-      <c r="C21" t="n">
-        <v>6.8</v>
-      </c>
       <c r="D21" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E21" t="n">
         <v>8</v>
       </c>
-      <c r="E21" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F21" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G21" t="n">
         <v>6.2</v>
       </c>
-      <c r="G21" t="n">
-        <v>7</v>
-      </c>
       <c r="H21" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="I21" t="n">
         <v>7.04</v>
@@ -964,25 +964,25 @@
         <v>6.5</v>
       </c>
       <c r="C22" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="D22" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="E22" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="F22" t="n">
         <v>6.7</v>
       </c>
       <c r="G22" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="I22" t="n">
-        <v>6.73</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="23">
@@ -1043,28 +1043,28 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>6.7</v>
+        <v>6.1</v>
       </c>
       <c r="C26" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="D26" t="n">
         <v>7</v>
       </c>
       <c r="E26" t="n">
+        <v>7</v>
+      </c>
+      <c r="F26" t="n">
         <v>7.1</v>
       </c>
-      <c r="F26" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G26" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H26" t="n">
         <v>6.2</v>
       </c>
-      <c r="H26" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I26" t="n">
-        <v>6.79</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="27">
@@ -1099,28 +1099,28 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="C28" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="D28" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="E28" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="F28" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="G28" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H28" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="I28" t="n">
-        <v>6.66</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="29">
@@ -1157,28 +1157,28 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="C30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D30" t="n">
         <v>6.3</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>7.9</v>
       </c>
-      <c r="E30" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F30" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G30" t="n">
         <v>5.5</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>7.1</v>
       </c>
-      <c r="H30" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I30" t="n">
-        <v>6.7</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="31">
@@ -1203,28 +1203,28 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C32" t="n">
         <v>7.6</v>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>6.3</v>
       </c>
-      <c r="D32" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E32" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F32" t="n">
         <v>7.1</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>8.1</v>
       </c>
-      <c r="G32" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H32" t="n">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="I32" t="n">
-        <v>6.9</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="33">
@@ -1261,28 +1261,28 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C34" t="n">
         <v>6.3</v>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>7.2</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>6</v>
       </c>
-      <c r="E34" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F34" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G34" t="n">
         <v>6.2</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>7.2</v>
       </c>
-      <c r="H34" t="n">
-        <v>6.1</v>
-      </c>
       <c r="I34" t="n">
-        <v>6.5</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="35">
@@ -1290,24 +1290,26 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="C35" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="D35" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="E35" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="F35" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="G35" t="inlineStr"/>
+        <v>6.4</v>
+      </c>
+      <c r="G35" t="n">
+        <v>6.8</v>
+      </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>6.6</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="36">
@@ -1344,28 +1346,28 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="C37" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="D37" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="E37" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F37" t="n">
         <v>7.3</v>
       </c>
-      <c r="F37" t="n">
-        <v>7</v>
-      </c>
       <c r="G37" t="n">
+        <v>7</v>
+      </c>
+      <c r="H37" t="n">
         <v>7.9</v>
       </c>
-      <c r="H37" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="I37" t="n">
-        <v>7.17</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="38">
@@ -1412,28 +1414,28 @@
         <v>51</v>
       </c>
       <c r="B41" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C41" t="n">
         <v>7.7</v>
       </c>
-      <c r="C41" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D41" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E41" t="n">
         <v>7.5</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>6.3</v>
       </c>
-      <c r="F41" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G41" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="H41" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="I41" t="n">
-        <v>6.86</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="42">
@@ -1496,24 +1498,26 @@
         <v>55</v>
       </c>
       <c r="B45" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="C45" t="n">
         <v>6.9</v>
       </c>
       <c r="D45" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="E45" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="F45" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="G45" t="inlineStr"/>
+        <v>6.6</v>
+      </c>
+      <c r="G45" t="n">
+        <v>6.5</v>
+      </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
-        <v>6.72</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="46">
@@ -1688,28 +1692,28 @@
         <v>65</v>
       </c>
       <c r="B53" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="C53" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="D53" t="n">
         <v>6.7</v>
       </c>
       <c r="E53" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="F53" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G53" t="n">
         <v>7.5</v>
       </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
         <v>6.3</v>
       </c>
-      <c r="H53" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I53" t="n">
-        <v>6.74</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="54">
@@ -1811,13 +1815,13 @@
         <v>75</v>
       </c>
       <c r="B58" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C58" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="D58" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="E58" t="n">
         <v>6.6</v>
@@ -1826,13 +1830,13 @@
         <v>6.6</v>
       </c>
       <c r="G58" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="H58" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I58" t="n">
-        <v>6.61</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="59">
@@ -1840,19 +1844,19 @@
         <v>80</v>
       </c>
       <c r="B59" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="C59" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="D59" t="n">
         <v>6.7</v>
       </c>
       <c r="E59" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="F59" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="G59" t="n">
         <v>7.4</v>
@@ -1861,7 +1865,7 @@
         <v>7.4</v>
       </c>
       <c r="I59" t="n">
-        <v>7.06</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="60">
@@ -1869,28 +1873,28 @@
         <v>81</v>
       </c>
       <c r="B60" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C60" t="n">
         <v>7.5</v>
       </c>
-      <c r="C60" t="n">
+      <c r="D60" t="n">
         <v>7.4</v>
-      </c>
-      <c r="D60" t="n">
-        <v>6.3</v>
       </c>
       <c r="E60" t="n">
         <v>6.3</v>
       </c>
       <c r="F60" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="G60" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="H60" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="I60" t="n">
-        <v>6.8</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="61">
@@ -2062,28 +2066,28 @@
         <v>94</v>
       </c>
       <c r="B69" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="C69" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="D69" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E69" t="n">
         <v>8</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>6.3</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>7.8</v>
       </c>
-      <c r="G69" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H69" t="n">
-        <v>7.7</v>
+        <v>6.6</v>
       </c>
       <c r="I69" t="n">
-        <v>7.16</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="70">
@@ -2091,28 +2095,28 @@
         <v>95</v>
       </c>
       <c r="B70" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C70" t="n">
         <v>8</v>
       </c>
-      <c r="C70" t="n">
+      <c r="D70" t="n">
         <v>8.1</v>
       </c>
-      <c r="D70" t="n">
+      <c r="E70" t="n">
         <v>9</v>
       </c>
-      <c r="E70" t="n">
-        <v>7</v>
-      </c>
       <c r="F70" t="n">
+        <v>7</v>
+      </c>
+      <c r="G70" t="n">
         <v>7.6</v>
       </c>
-      <c r="G70" t="n">
-        <v>6.8</v>
-      </c>
       <c r="H70" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="I70" t="n">
-        <v>7.63</v>
+        <v>7.66</v>
       </c>
     </row>
     <row r="71">
@@ -2214,28 +2218,28 @@
         <v>101</v>
       </c>
       <c r="B75" t="n">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="C75" t="n">
         <v>6.5</v>
       </c>
       <c r="D75" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="E75" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="F75" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="G75" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H75" t="n">
         <v>6.3</v>
       </c>
-      <c r="H75" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I75" t="n">
-        <v>6.6</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="76">
@@ -2327,28 +2331,28 @@
         <v>106</v>
       </c>
       <c r="B80" t="n">
-        <v>6.9</v>
+        <v>7.8</v>
       </c>
       <c r="C80" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D80" t="n">
         <v>7.8</v>
       </c>
-      <c r="D80" t="n">
+      <c r="E80" t="n">
         <v>7.7</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>7.5</v>
       </c>
-      <c r="F80" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G80" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H80" t="n">
         <v>7.4</v>
       </c>
-      <c r="H80" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I80" t="n">
-        <v>7.3</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="81">
@@ -2423,25 +2427,25 @@
         <v>111</v>
       </c>
       <c r="B84" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C84" t="n">
         <v>7.9</v>
       </c>
-      <c r="C84" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D84" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="E84" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F84" t="n">
         <v>7.8</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>7.3</v>
       </c>
-      <c r="G84" t="n">
+      <c r="H84" t="n">
         <v>7.1</v>
-      </c>
-      <c r="H84" t="n">
-        <v>6.1</v>
       </c>
       <c r="I84" t="n">
         <v>7.09</v>
@@ -2465,25 +2469,25 @@
         <v>113</v>
       </c>
       <c r="B86" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="C86" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D86" t="n">
         <v>8</v>
       </c>
-      <c r="D86" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E86" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="F86" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="G86" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H86" t="n">
         <v>6.3</v>
-      </c>
-      <c r="H86" t="n">
-        <v>7.1</v>
       </c>
       <c r="I86" t="n">
         <v>6.86</v>
@@ -2549,28 +2553,28 @@
         <v>117</v>
       </c>
       <c r="B90" t="n">
+        <v>6</v>
+      </c>
+      <c r="C90" t="n">
         <v>6.3</v>
       </c>
-      <c r="C90" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D90" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="E90" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="F90" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="G90" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="H90" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="I90" t="n">
-        <v>6.54</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="91">
@@ -2601,28 +2605,28 @@
         <v>119</v>
       </c>
       <c r="B92" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C92" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="C92" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D92" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="E92" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="F92" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G92" t="n">
         <v>7.3</v>
       </c>
-      <c r="G92" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H92" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="I92" t="n">
-        <v>7.06</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="93">
@@ -2677,28 +2681,28 @@
         <v>124</v>
       </c>
       <c r="B96" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="C96" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="D96" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E96" t="n">
         <v>7.1</v>
       </c>
-      <c r="E96" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F96" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G96" t="n">
         <v>7.5</v>
       </c>
-      <c r="G96" t="n">
+      <c r="H96" t="n">
         <v>6.3</v>
       </c>
-      <c r="H96" t="n">
-        <v>6</v>
-      </c>
       <c r="I96" t="n">
-        <v>6.73</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="97">
@@ -2830,28 +2834,28 @@
         <v>132</v>
       </c>
       <c r="B103" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="C103" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D103" t="n">
         <v>7.5</v>
       </c>
-      <c r="D103" t="n">
-        <v>6.4</v>
-      </c>
       <c r="E103" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="F103" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G103" t="n">
         <v>7.4</v>
       </c>
-      <c r="G103" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H103" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="I103" t="n">
-        <v>6.77</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="104">
@@ -2859,28 +2863,28 @@
         <v>133</v>
       </c>
       <c r="B104" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="C104" t="n">
+        <v>7</v>
+      </c>
+      <c r="D104" t="n">
         <v>8.199999999999999</v>
-      </c>
-      <c r="D104" t="n">
-        <v>7.4</v>
       </c>
       <c r="E104" t="n">
         <v>7.4</v>
       </c>
       <c r="F104" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G104" t="n">
         <v>7.1</v>
       </c>
-      <c r="G104" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H104" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="I104" t="n">
-        <v>7.19</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="105">
@@ -2946,28 +2950,28 @@
         <v>136</v>
       </c>
       <c r="B107" t="n">
-        <v>6.6</v>
+        <v>7.7</v>
       </c>
       <c r="C107" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D107" t="n">
         <v>7.5</v>
       </c>
-      <c r="D107" t="n">
+      <c r="E107" t="n">
         <v>6.3</v>
       </c>
-      <c r="E107" t="n">
+      <c r="F107" t="n">
         <v>7.8</v>
       </c>
-      <c r="F107" t="n">
+      <c r="G107" t="n">
         <v>7.3</v>
       </c>
-      <c r="G107" t="n">
+      <c r="H107" t="n">
         <v>7.1</v>
       </c>
-      <c r="H107" t="n">
-        <v>6.3</v>
-      </c>
       <c r="I107" t="n">
-        <v>6.99</v>
+        <v>7.19</v>
       </c>
     </row>
     <row r="108">
@@ -3057,22 +3061,22 @@
         <v>6.6</v>
       </c>
       <c r="D112" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="E112" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="F112" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="G112" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="H112" t="n">
         <v>6.2</v>
       </c>
       <c r="I112" t="n">
-        <v>6.49</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="113">
@@ -3080,28 +3084,28 @@
         <v>144</v>
       </c>
       <c r="B113" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="C113" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="D113" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="E113" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F113" t="n">
         <v>7.3</v>
       </c>
-      <c r="F113" t="n">
+      <c r="G113" t="n">
         <v>7.6</v>
       </c>
-      <c r="G113" t="n">
+      <c r="H113" t="n">
         <v>7.2</v>
       </c>
-      <c r="H113" t="n">
-        <v>7</v>
-      </c>
       <c r="I113" t="n">
-        <v>7.03</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="114">
@@ -3141,25 +3145,25 @@
         <v>7.1</v>
       </c>
       <c r="C115" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="D115" t="n">
         <v>7.3</v>
       </c>
-      <c r="D115" t="n">
+      <c r="E115" t="n">
         <v>7.7</v>
       </c>
-      <c r="E115" t="n">
+      <c r="F115" t="n">
         <v>6.1</v>
       </c>
-      <c r="F115" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G115" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H115" t="n">
         <v>7.1</v>
       </c>
-      <c r="H115" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I115" t="n">
-        <v>6.94</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116">
@@ -3167,28 +3171,28 @@
         <v>147</v>
       </c>
       <c r="B116" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="C116" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="D116" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="E116" t="n">
         <v>6.3</v>
       </c>
       <c r="F116" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="G116" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="H116" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="I116" t="n">
-        <v>6.57</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="117">
@@ -3209,28 +3213,28 @@
         <v>149</v>
       </c>
       <c r="B118" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C118" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D118" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="D118" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E118" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F118" t="n">
         <v>7.3</v>
       </c>
-      <c r="F118" t="n">
-        <v>6.4</v>
-      </c>
       <c r="G118" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H118" t="n">
         <v>7.3</v>
       </c>
-      <c r="H118" t="n">
-        <v>6.4</v>
-      </c>
       <c r="I118" t="n">
-        <v>7.06</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="119">
@@ -3374,28 +3378,28 @@
         <v>164</v>
       </c>
       <c r="B125" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C125" t="n">
         <v>8.1</v>
       </c>
-      <c r="C125" t="n">
-        <v>7</v>
-      </c>
       <c r="D125" t="n">
+        <v>7</v>
+      </c>
+      <c r="E125" t="n">
         <v>7.9</v>
       </c>
-      <c r="E125" t="n">
+      <c r="F125" t="n">
         <v>8.1</v>
       </c>
-      <c r="F125" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G125" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H125" t="n">
         <v>7.4</v>
       </c>
-      <c r="H125" t="n">
-        <v>7.1</v>
-      </c>
       <c r="I125" t="n">
-        <v>7.49</v>
+        <v>7.53</v>
       </c>
     </row>
     <row r="126">
@@ -3430,7 +3434,7 @@
         <v>166</v>
       </c>
       <c r="B127" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="C127" t="n">
         <v>6.6</v>
@@ -3439,19 +3443,19 @@
         <v>6.6</v>
       </c>
       <c r="E127" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F127" t="n">
         <v>6</v>
       </c>
-      <c r="F127" t="n">
+      <c r="G127" t="n">
         <v>7.4</v>
       </c>
-      <c r="G127" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H127" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="I127" t="n">
-        <v>6.61</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="128">
@@ -3509,28 +3513,28 @@
         <v>169</v>
       </c>
       <c r="B130" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="C130" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="D130" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E130" t="n">
         <v>7.2</v>
       </c>
-      <c r="E130" t="n">
+      <c r="F130" t="n">
         <v>6.2</v>
       </c>
-      <c r="F130" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G130" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="H130" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="I130" t="n">
-        <v>6.74</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="131">
@@ -3538,28 +3542,28 @@
         <v>170</v>
       </c>
       <c r="B131" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C131" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="C131" t="n">
-        <v>7</v>
-      </c>
       <c r="D131" t="n">
+        <v>7</v>
+      </c>
+      <c r="E131" t="n">
         <v>7.5</v>
       </c>
-      <c r="E131" t="n">
+      <c r="F131" t="n">
         <v>7.9</v>
       </c>
-      <c r="F131" t="n">
+      <c r="G131" t="n">
         <v>7.1</v>
       </c>
-      <c r="G131" t="n">
+      <c r="H131" t="n">
         <v>6.1</v>
       </c>
-      <c r="H131" t="n">
-        <v>7.2</v>
-      </c>
       <c r="I131" t="n">
-        <v>7.3</v>
+        <v>7.33</v>
       </c>
     </row>
     <row r="132">
@@ -3796,28 +3800,28 @@
         <v>180</v>
       </c>
       <c r="B141" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="C141" t="n">
         <v>6.9</v>
       </c>
       <c r="D141" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E141" t="n">
         <v>7.6</v>
       </c>
-      <c r="E141" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F141" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G141" t="n">
         <v>9.1</v>
       </c>
-      <c r="G141" t="n">
+      <c r="H141" t="n">
         <v>7.3</v>
       </c>
-      <c r="H141" t="n">
-        <v>7</v>
-      </c>
       <c r="I141" t="n">
-        <v>7.39</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="142">
@@ -3848,28 +3852,28 @@
         <v>182</v>
       </c>
       <c r="B143" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C143" t="n">
         <v>9</v>
       </c>
-      <c r="C143" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D143" t="n">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="E143" t="n">
         <v>7.5</v>
       </c>
       <c r="F143" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G143" t="n">
         <v>7.2</v>
       </c>
-      <c r="G143" t="n">
+      <c r="H143" t="n">
         <v>7.4</v>
       </c>
-      <c r="H143" t="n">
-        <v>7.7</v>
-      </c>
       <c r="I143" t="n">
-        <v>7.56</v>
+        <v>7.53</v>
       </c>
     </row>
     <row r="144">
@@ -3925,25 +3929,25 @@
         <v>185</v>
       </c>
       <c r="B146" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="C146" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="D146" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="E146" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F146" t="n">
         <v>7.8</v>
       </c>
-      <c r="F146" t="n">
+      <c r="G146" t="n">
         <v>7.5</v>
       </c>
-      <c r="G146" t="n">
+      <c r="H146" t="n">
         <v>7.2</v>
-      </c>
-      <c r="H146" t="n">
-        <v>6.7</v>
       </c>
       <c r="I146" t="n">
         <v>7.14</v>
@@ -4083,28 +4087,28 @@
         <v>192</v>
       </c>
       <c r="B152" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="C152" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D152" t="n">
         <v>7.1</v>
       </c>
-      <c r="D152" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E152" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="F152" t="n">
         <v>6.9</v>
       </c>
       <c r="G152" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H152" t="n">
         <v>7.4</v>
       </c>
-      <c r="H152" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I152" t="n">
-        <v>6.97</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153">
@@ -4158,28 +4162,28 @@
         <v>195</v>
       </c>
       <c r="B155" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C155" t="n">
         <v>6.3</v>
       </c>
-      <c r="C155" t="n">
+      <c r="D155" t="n">
         <v>6.2</v>
       </c>
-      <c r="D155" t="n">
-        <v>7</v>
-      </c>
       <c r="E155" t="n">
+        <v>7</v>
+      </c>
+      <c r="F155" t="n">
         <v>5.9</v>
       </c>
-      <c r="F155" t="n">
+      <c r="G155" t="n">
         <v>6.3</v>
       </c>
-      <c r="G155" t="n">
+      <c r="H155" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="H155" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I155" t="n">
-        <v>6.76</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="156">
@@ -4233,26 +4237,28 @@
         <v>198</v>
       </c>
       <c r="B158" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="C158" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="D158" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="E158" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="F158" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="G158" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="H158" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="H158" t="n">
+        <v>6.7</v>
+      </c>
       <c r="I158" t="n">
-        <v>6.63</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="159">
@@ -4260,28 +4266,28 @@
         <v>199</v>
       </c>
       <c r="B159" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="C159" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D159" t="n">
         <v>7.1</v>
       </c>
-      <c r="D159" t="n">
+      <c r="E159" t="n">
         <v>5.9</v>
       </c>
-      <c r="E159" t="n">
+      <c r="F159" t="n">
         <v>6.1</v>
       </c>
-      <c r="F159" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G159" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H159" t="n">
         <v>7.5</v>
       </c>
-      <c r="H159" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I159" t="n">
-        <v>6.61</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="160">
@@ -4289,18 +4295,20 @@
         <v>200</v>
       </c>
       <c r="B160" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="C160" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="D160" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="D160" t="n">
+        <v>6.6</v>
+      </c>
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="n">
-        <v>6.55</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="161">
@@ -4308,28 +4316,28 @@
         <v>201</v>
       </c>
       <c r="B161" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C161" t="n">
         <v>7.5</v>
       </c>
-      <c r="C161" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D161" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="E161" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F161" t="n">
         <v>5.5</v>
       </c>
-      <c r="F161" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G161" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H161" t="n">
         <v>6.3</v>
       </c>
-      <c r="H161" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I161" t="n">
-        <v>6.53</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="162">
@@ -4393,28 +4401,28 @@
         <v>206</v>
       </c>
       <c r="B164" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="C164" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="D164" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E164" t="n">
         <v>7.2</v>
       </c>
-      <c r="E164" t="n">
+      <c r="F164" t="n">
         <v>7.1</v>
       </c>
-      <c r="F164" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G164" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H164" t="n">
         <v>7.3</v>
       </c>
-      <c r="H164" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I164" t="n">
-        <v>6.94</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="165">
@@ -4468,28 +4476,28 @@
         <v>209</v>
       </c>
       <c r="B167" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="C167" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D167" t="n">
         <v>5.3</v>
       </c>
-      <c r="D167" t="n">
+      <c r="E167" t="n">
         <v>7.7</v>
       </c>
-      <c r="E167" t="n">
+      <c r="F167" t="n">
         <v>7.4</v>
       </c>
-      <c r="F167" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G167" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="H167" t="n">
         <v>7.3</v>
       </c>
       <c r="I167" t="n">
-        <v>6.91</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="168">
@@ -4510,28 +4518,28 @@
         <v>211</v>
       </c>
       <c r="B169" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="C169" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="D169" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="E169" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F169" t="n">
         <v>7.3</v>
       </c>
-      <c r="F169" t="n">
+      <c r="G169" t="n">
         <v>7.1</v>
       </c>
-      <c r="G169" t="n">
+      <c r="H169" t="n">
         <v>7.3</v>
       </c>
-      <c r="H169" t="n">
-        <v>7.2</v>
-      </c>
       <c r="I169" t="n">
-        <v>7.01</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="170">
@@ -4539,28 +4547,28 @@
         <v>212</v>
       </c>
       <c r="B170" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="C170" t="n">
         <v>7.2</v>
       </c>
       <c r="D170" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="E170" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="F170" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G170" t="n">
         <v>7.2</v>
       </c>
-      <c r="G170" t="n">
-        <v>6.4</v>
-      </c>
       <c r="H170" t="n">
         <v>6.4</v>
       </c>
       <c r="I170" t="n">
-        <v>6.8</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="171">
@@ -4585,28 +4593,28 @@
         <v>214</v>
       </c>
       <c r="B172" t="n">
-        <v>6.7</v>
+        <v>7.7</v>
       </c>
       <c r="C172" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D172" t="n">
         <v>8.4</v>
       </c>
-      <c r="D172" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E172" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F172" t="n">
         <v>7.8</v>
       </c>
-      <c r="F172" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G172" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="H172" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="I172" t="n">
-        <v>7.11</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="173">
@@ -4627,28 +4635,28 @@
         <v>216</v>
       </c>
       <c r="B174" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C174" t="n">
         <v>6.1</v>
       </c>
-      <c r="C174" t="n">
+      <c r="D174" t="n">
         <v>6.3</v>
       </c>
-      <c r="D174" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E174" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="F174" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G174" t="n">
         <v>6.1</v>
       </c>
-      <c r="G174" t="n">
+      <c r="H174" t="n">
         <v>7.4</v>
       </c>
-      <c r="H174" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I174" t="n">
-        <v>6.6</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="175">
@@ -4656,28 +4664,28 @@
         <v>217</v>
       </c>
       <c r="B175" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C175" t="n">
         <v>7.4</v>
       </c>
-      <c r="C175" t="n">
+      <c r="D175" t="n">
         <v>7.6</v>
       </c>
-      <c r="D175" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E175" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F175" t="n">
         <v>7.2</v>
       </c>
-      <c r="F175" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G175" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H175" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I175" t="n">
-        <v>7.14</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="176">
@@ -4787,28 +4795,28 @@
         <v>222</v>
       </c>
       <c r="B180" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="C180" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="D180" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="E180" t="n">
         <v>6.4</v>
       </c>
       <c r="F180" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="G180" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="H180" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="I180" t="n">
-        <v>6.79</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="181">
@@ -4932,28 +4940,28 @@
         <v>227</v>
       </c>
       <c r="B185" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="C185" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="D185" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="E185" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="F185" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="G185" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H185" t="n">
         <v>6.2</v>
       </c>
-      <c r="H185" t="n">
-        <v>6.4</v>
-      </c>
       <c r="I185" t="n">
-        <v>6.49</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="186">
@@ -4961,28 +4969,28 @@
         <v>228</v>
       </c>
       <c r="B186" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="C186" t="n">
         <v>6.3</v>
       </c>
-      <c r="C186" t="n">
+      <c r="D186" t="n">
         <v>7.6</v>
       </c>
-      <c r="D186" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E186" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="F186" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G186" t="n">
         <v>7.2</v>
       </c>
-      <c r="G186" t="n">
+      <c r="H186" t="n">
         <v>8.4</v>
       </c>
-      <c r="H186" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I186" t="n">
-        <v>7.13</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="187">
@@ -5280,28 +5288,28 @@
         <v>247</v>
       </c>
       <c r="B201" t="n">
-        <v>6.4</v>
+        <v>9.4</v>
       </c>
       <c r="C201" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="D201" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E201" t="n">
         <v>7.7</v>
       </c>
-      <c r="E201" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F201" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G201" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="G201" t="n">
+      <c r="H201" t="n">
         <v>6.2</v>
       </c>
-      <c r="H201" t="n">
-        <v>7.7</v>
-      </c>
       <c r="I201" t="n">
-        <v>7.1</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="202">
@@ -5341,28 +5349,28 @@
         <v>252</v>
       </c>
       <c r="B204" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C204" t="n">
         <v>7.7</v>
       </c>
-      <c r="C204" t="n">
+      <c r="D204" t="n">
         <v>7.2</v>
       </c>
-      <c r="D204" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E204" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F204" t="n">
         <v>8.4</v>
       </c>
-      <c r="F204" t="n">
+      <c r="G204" t="n">
         <v>7.2</v>
       </c>
-      <c r="G204" t="n">
+      <c r="H204" t="n">
         <v>7.6</v>
       </c>
-      <c r="H204" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I204" t="n">
-        <v>7.36</v>
+        <v>7.49</v>
       </c>
     </row>
     <row r="205">
@@ -5370,16 +5378,18 @@
         <v>253</v>
       </c>
       <c r="B205" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="C205" t="inlineStr"/>
+        <v>6.6</v>
+      </c>
+      <c r="C205" t="n">
+        <v>6.4</v>
+      </c>
       <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="inlineStr"/>
       <c r="G205" t="inlineStr"/>
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="206">
@@ -5423,28 +5433,28 @@
         <v>256</v>
       </c>
       <c r="B208" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C208" t="n">
         <v>9.4</v>
       </c>
-      <c r="C208" t="n">
+      <c r="D208" t="n">
         <v>7.2</v>
       </c>
-      <c r="D208" t="n">
+      <c r="E208" t="n">
         <v>7.4</v>
       </c>
-      <c r="E208" t="n">
-        <v>7</v>
-      </c>
       <c r="F208" t="n">
+        <v>7</v>
+      </c>
+      <c r="G208" t="n">
         <v>7.1</v>
       </c>
-      <c r="G208" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H208" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="I208" t="n">
-        <v>7.43</v>
+        <v>7.74</v>
       </c>
     </row>
     <row r="209">
@@ -5531,24 +5541,26 @@
         <v>261</v>
       </c>
       <c r="B212" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="C212" t="n">
         <v>6.7</v>
       </c>
       <c r="D212" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="E212" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F212" t="n">
         <v>7.2</v>
       </c>
-      <c r="F212" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="G212" t="inlineStr"/>
+      <c r="G212" t="n">
+        <v>6.6</v>
+      </c>
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="n">
-        <v>6.8</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="213">
@@ -5596,28 +5608,28 @@
         <v>267</v>
       </c>
       <c r="B215" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="C215" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="D215" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E215" t="n">
         <v>6.3</v>
       </c>
-      <c r="E215" t="n">
+      <c r="F215" t="n">
         <v>7.8</v>
       </c>
-      <c r="F215" t="n">
+      <c r="G215" t="n">
         <v>6.2</v>
       </c>
-      <c r="G215" t="n">
+      <c r="H215" t="n">
         <v>7.8</v>
       </c>
-      <c r="H215" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I215" t="n">
-        <v>6.93</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="216">
@@ -5625,28 +5637,28 @@
         <v>273</v>
       </c>
       <c r="B216" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="C216" t="n">
         <v>6.5</v>
       </c>
       <c r="D216" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E216" t="n">
         <v>8.1</v>
       </c>
-      <c r="E216" t="n">
+      <c r="F216" t="n">
         <v>6.3</v>
       </c>
-      <c r="F216" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G216" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="H216" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="I216" t="n">
-        <v>6.71</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="217">
@@ -5758,28 +5770,28 @@
         <v>278</v>
       </c>
       <c r="B221" t="n">
-        <v>6.9</v>
+        <v>7.6</v>
       </c>
       <c r="C221" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D221" t="n">
         <v>7.9</v>
       </c>
-      <c r="D221" t="n">
+      <c r="E221" t="n">
         <v>7.4</v>
       </c>
-      <c r="E221" t="n">
-        <v>7</v>
-      </c>
       <c r="F221" t="n">
+        <v>7</v>
+      </c>
+      <c r="G221" t="n">
         <v>7.3</v>
       </c>
-      <c r="G221" t="n">
+      <c r="H221" t="n">
         <v>7.2</v>
       </c>
-      <c r="H221" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I221" t="n">
-        <v>7.23</v>
+        <v>7.33</v>
       </c>
     </row>
     <row r="222">
@@ -5816,28 +5828,28 @@
         <v>280</v>
       </c>
       <c r="B223" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C223" t="n">
         <v>7.7</v>
       </c>
-      <c r="C223" t="n">
+      <c r="D223" t="n">
         <v>7.3</v>
       </c>
-      <c r="D223" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E223" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F223" t="n">
         <v>4.9</v>
       </c>
-      <c r="F223" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G223" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="H223" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="I223" t="n">
-        <v>6.79</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="224">
@@ -5845,24 +5857,26 @@
         <v>281</v>
       </c>
       <c r="B224" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C224" t="n">
         <v>6.3</v>
       </c>
-      <c r="C224" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D224" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E224" t="n">
         <v>6.2</v>
       </c>
-      <c r="E224" t="n">
+      <c r="F224" t="n">
         <v>7.7</v>
       </c>
-      <c r="F224" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="G224" t="inlineStr"/>
+      <c r="G224" t="n">
+        <v>6.8</v>
+      </c>
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="n">
-        <v>6.74</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="225">
@@ -5870,28 +5884,28 @@
         <v>282</v>
       </c>
       <c r="B225" t="n">
+        <v>7</v>
+      </c>
+      <c r="C225" t="n">
         <v>7.3</v>
       </c>
-      <c r="C225" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D225" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="E225" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F225" t="n">
         <v>7.6</v>
       </c>
-      <c r="F225" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G225" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="H225" t="n">
-        <v>5.1</v>
+        <v>6.8</v>
       </c>
       <c r="I225" t="n">
-        <v>6.69</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="226">
@@ -5953,28 +5967,28 @@
         <v>286</v>
       </c>
       <c r="B228" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="C228" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D228" t="n">
         <v>6.3</v>
       </c>
-      <c r="D228" t="n">
+      <c r="E228" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="E228" t="n">
+      <c r="F228" t="n">
         <v>7.2</v>
       </c>
-      <c r="F228" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G228" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H228" t="n">
         <v>6.2</v>
       </c>
-      <c r="H228" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I228" t="n">
-        <v>6.96</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="229">
@@ -6011,13 +6025,13 @@
         <v>288</v>
       </c>
       <c r="B230" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C230" t="n">
         <v>6.3</v>
       </c>
-      <c r="C230" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D230" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="E230" t="n">
         <v>6.7</v>
@@ -6026,13 +6040,13 @@
         <v>6.7</v>
       </c>
       <c r="G230" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H230" t="n">
         <v>6.1</v>
       </c>
-      <c r="H230" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I230" t="n">
-        <v>6.54</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="231">
@@ -6040,28 +6054,28 @@
         <v>289</v>
       </c>
       <c r="B231" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="C231" t="n">
+        <v>7</v>
+      </c>
+      <c r="D231" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="D231" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E231" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F231" t="n">
         <v>8.1</v>
       </c>
-      <c r="F231" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G231" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H231" t="n">
         <v>7.6</v>
       </c>
-      <c r="H231" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I231" t="n">
-        <v>7.3</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="232">
@@ -6069,28 +6083,28 @@
         <v>290</v>
       </c>
       <c r="B232" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="C232" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="D232" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="E232" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F232" t="n">
         <v>7.2</v>
       </c>
-      <c r="F232" t="n">
+      <c r="G232" t="n">
         <v>7.5</v>
       </c>
-      <c r="G232" t="n">
+      <c r="H232" t="n">
         <v>6.2</v>
       </c>
-      <c r="H232" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I232" t="n">
-        <v>6.84</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="233">
@@ -6127,28 +6141,28 @@
         <v>292</v>
       </c>
       <c r="B234" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C234" t="n">
         <v>7.4</v>
       </c>
-      <c r="C234" t="n">
+      <c r="D234" t="n">
         <v>7.6</v>
       </c>
-      <c r="D234" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E234" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="F234" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="G234" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H234" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="I234" t="n">
-        <v>6.9</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="235">
@@ -6206,28 +6220,28 @@
         <v>295</v>
       </c>
       <c r="B237" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C237" t="n">
         <v>6.3</v>
       </c>
-      <c r="C237" t="n">
+      <c r="D237" t="n">
         <v>6.1</v>
       </c>
-      <c r="D237" t="n">
+      <c r="E237" t="n">
         <v>7.2</v>
       </c>
-      <c r="E237" t="n">
+      <c r="F237" t="n">
         <v>6.3</v>
       </c>
-      <c r="F237" t="n">
-        <v>7</v>
-      </c>
       <c r="G237" t="n">
+        <v>7</v>
+      </c>
+      <c r="H237" t="n">
         <v>7.4</v>
       </c>
-      <c r="H237" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I237" t="n">
-        <v>6.74</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="238">
@@ -6296,25 +6310,25 @@
         <v>7</v>
       </c>
       <c r="C240" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D240" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="E240" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F240" t="n">
         <v>7.2</v>
       </c>
-      <c r="F240" t="n">
+      <c r="G240" t="n">
         <v>7.9</v>
       </c>
-      <c r="G240" t="n">
-        <v>7</v>
-      </c>
       <c r="H240" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I240" t="n">
-        <v>7.01</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="241">
@@ -6322,28 +6336,28 @@
         <v>300</v>
       </c>
       <c r="B241" t="n">
+        <v>8</v>
+      </c>
+      <c r="C241" t="n">
         <v>7.4</v>
       </c>
-      <c r="C241" t="n">
+      <c r="D241" t="n">
         <v>7.3</v>
       </c>
-      <c r="D241" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E241" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="F241" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G241" t="n">
         <v>7.2</v>
       </c>
-      <c r="G241" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H241" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="I241" t="n">
-        <v>7.06</v>
+        <v>7.19</v>
       </c>
     </row>
     <row r="242">
@@ -6351,18 +6365,20 @@
         <v>301</v>
       </c>
       <c r="B242" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="C242" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="D242" t="inlineStr"/>
+        <v>6.6</v>
+      </c>
+      <c r="D242" t="n">
+        <v>6.4</v>
+      </c>
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr"/>
       <c r="G242" t="inlineStr"/>
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="243">
@@ -6399,24 +6415,26 @@
         <v>303</v>
       </c>
       <c r="B244" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C244" t="n">
         <v>7.5</v>
-      </c>
-      <c r="C244" t="n">
-        <v>7.4</v>
       </c>
       <c r="D244" t="n">
         <v>7.4</v>
       </c>
       <c r="E244" t="n">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="F244" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="G244" t="inlineStr"/>
+        <v>6.7</v>
+      </c>
+      <c r="G244" t="n">
+        <v>6.5</v>
+      </c>
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="n">
-        <v>7.1</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="245">
@@ -6424,28 +6442,28 @@
         <v>305</v>
       </c>
       <c r="B245" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="C245" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="D245" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E245" t="n">
         <v>7.1</v>
       </c>
-      <c r="E245" t="n">
+      <c r="F245" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="F245" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G245" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H245" t="n">
         <v>6.3</v>
       </c>
-      <c r="H245" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I245" t="n">
-        <v>6.86</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="246">
@@ -6482,28 +6500,28 @@
         <v>307</v>
       </c>
       <c r="B247" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C247" t="n">
         <v>5.6</v>
       </c>
-      <c r="C247" t="n">
+      <c r="D247" t="n">
         <v>7.2</v>
       </c>
-      <c r="D247" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E247" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F247" t="n">
         <v>7.2</v>
       </c>
-      <c r="F247" t="n">
-        <v>7</v>
-      </c>
       <c r="G247" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H247" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="I247" t="n">
-        <v>6.74</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="248">
@@ -6511,28 +6529,28 @@
         <v>308</v>
       </c>
       <c r="B248" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C248" t="n">
         <v>5.9</v>
       </c>
-      <c r="C248" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D248" t="n">
         <v>6.5</v>
       </c>
       <c r="E248" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F248" t="n">
         <v>7.4</v>
       </c>
-      <c r="F248" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G248" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H248" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="I248" t="n">
-        <v>6.64</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="249">
@@ -6543,21 +6561,23 @@
         <v>7.1</v>
       </c>
       <c r="C249" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="D249" t="n">
+        <v>7</v>
+      </c>
+      <c r="E249" t="n">
         <v>7.3</v>
       </c>
-      <c r="E249" t="n">
+      <c r="F249" t="n">
         <v>7.7</v>
       </c>
-      <c r="F249" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="G249" t="inlineStr"/>
+      <c r="G249" t="n">
+        <v>6.8</v>
+      </c>
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="n">
-        <v>7.18</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="250">
@@ -6565,28 +6585,28 @@
         <v>310</v>
       </c>
       <c r="B250" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="C250" t="n">
         <v>7</v>
       </c>
       <c r="D250" t="n">
+        <v>7</v>
+      </c>
+      <c r="E250" t="n">
         <v>7.4</v>
       </c>
-      <c r="E250" t="n">
+      <c r="F250" t="n">
         <v>7.5</v>
       </c>
-      <c r="F250" t="n">
+      <c r="G250" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="G250" t="n">
+      <c r="H250" t="n">
         <v>7.4</v>
       </c>
-      <c r="H250" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I250" t="n">
-        <v>7.33</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="251">
@@ -6594,20 +6614,22 @@
         <v>311</v>
       </c>
       <c r="B251" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="C251" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="D251" t="n">
-        <v>7</v>
-      </c>
-      <c r="E251" t="inlineStr"/>
+        <v>6.9</v>
+      </c>
+      <c r="E251" t="n">
+        <v>7</v>
+      </c>
       <c r="F251" t="inlineStr"/>
       <c r="G251" t="inlineStr"/>
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="n">
-        <v>6.87</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="252">
@@ -6615,28 +6637,28 @@
         <v>312</v>
       </c>
       <c r="B252" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C252" t="n">
         <v>7.2</v>
       </c>
-      <c r="C252" t="n">
+      <c r="D252" t="n">
         <v>7.9</v>
       </c>
-      <c r="D252" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E252" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="F252" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="G252" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="H252" t="n">
         <v>6.8</v>
       </c>
       <c r="I252" t="n">
-        <v>6.94</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="253">
@@ -6644,28 +6666,28 @@
         <v>313</v>
       </c>
       <c r="B253" t="n">
+        <v>7</v>
+      </c>
+      <c r="C253" t="n">
         <v>6.2</v>
       </c>
-      <c r="C253" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D253" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E253" t="n">
         <v>9.6</v>
       </c>
-      <c r="E253" t="n">
+      <c r="F253" t="n">
         <v>6.3</v>
       </c>
-      <c r="F253" t="n">
-        <v>6.4</v>
-      </c>
       <c r="G253" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H253" t="n">
         <v>7.6</v>
       </c>
-      <c r="H253" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I253" t="n">
-        <v>7.01</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="254">
@@ -6673,28 +6695,28 @@
         <v>314</v>
       </c>
       <c r="B254" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="C254" t="n">
+        <v>7</v>
+      </c>
+      <c r="D254" t="n">
         <v>7.1</v>
       </c>
-      <c r="D254" t="n">
-        <v>7</v>
-      </c>
       <c r="E254" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="F254" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="G254" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H254" t="n">
         <v>7.4</v>
       </c>
-      <c r="H254" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I254" t="n">
-        <v>6.9</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="255">
@@ -6702,26 +6724,28 @@
         <v>315</v>
       </c>
       <c r="B255" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C255" t="n">
         <v>8.1</v>
       </c>
-      <c r="C255" t="n">
+      <c r="D255" t="n">
         <v>6.1</v>
       </c>
-      <c r="D255" t="n">
+      <c r="E255" t="n">
         <v>7.2</v>
       </c>
-      <c r="E255" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F255" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G255" t="n">
         <v>7.3</v>
       </c>
-      <c r="G255" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H255" t="inlineStr"/>
+      <c r="H255" t="n">
+        <v>6.5</v>
+      </c>
       <c r="I255" t="n">
-        <v>7.02</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="256">
@@ -6732,25 +6756,25 @@
         <v>6.5</v>
       </c>
       <c r="C256" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="D256" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="E256" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="F256" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="G256" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="H256" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="I256" t="n">
-        <v>6.59</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="257">
@@ -6758,26 +6782,28 @@
         <v>317</v>
       </c>
       <c r="B257" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C257" t="n">
         <v>6.3</v>
       </c>
-      <c r="C257" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D257" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E257" t="n">
         <v>6.2</v>
       </c>
-      <c r="E257" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F257" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="G257" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H257" t="n">
         <v>6.1</v>
       </c>
-      <c r="H257" t="inlineStr"/>
       <c r="I257" t="n">
-        <v>6.42</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="258">
@@ -6860,28 +6886,28 @@
         <v>321</v>
       </c>
       <c r="B261" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="C261" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="D261" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="E261" t="n">
+        <v>7</v>
+      </c>
+      <c r="F261" t="n">
         <v>7.4</v>
       </c>
-      <c r="F261" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G261" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H261" t="n">
         <v>7.6</v>
       </c>
-      <c r="H261" t="n">
-        <v>7.7</v>
-      </c>
       <c r="I261" t="n">
-        <v>7.1</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="262">
@@ -6943,28 +6969,28 @@
         <v>324</v>
       </c>
       <c r="B264" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="C264" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D264" t="n">
         <v>7.3</v>
       </c>
-      <c r="D264" t="n">
+      <c r="E264" t="n">
         <v>9</v>
       </c>
-      <c r="E264" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F264" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="G264" t="n">
+        <v>7</v>
+      </c>
+      <c r="H264" t="n">
         <v>7.9</v>
       </c>
-      <c r="H264" t="n">
-        <v>9.5</v>
-      </c>
       <c r="I264" t="n">
-        <v>7.69</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="265">
@@ -7052,22 +7078,22 @@
         <v>330</v>
       </c>
       <c r="B269" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C269" t="n">
         <v>6.3</v>
       </c>
-      <c r="C269" t="n">
+      <c r="D269" t="n">
         <v>7.5</v>
       </c>
-      <c r="D269" t="n">
+      <c r="E269" t="n">
         <v>7.1</v>
       </c>
-      <c r="E269" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F269" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G269" t="n">
         <v>7.2</v>
-      </c>
-      <c r="G269" t="n">
-        <v>6.5</v>
       </c>
       <c r="H269" t="n">
         <v>6.5</v>
@@ -7081,28 +7107,28 @@
         <v>332</v>
       </c>
       <c r="B270" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C270" t="n">
         <v>7.9</v>
       </c>
-      <c r="C270" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D270" t="n">
         <v>6.6</v>
       </c>
       <c r="E270" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="F270" t="n">
+        <v>7</v>
+      </c>
+      <c r="G270" t="n">
         <v>6.3</v>
       </c>
-      <c r="G270" t="n">
+      <c r="H270" t="n">
         <v>7.7</v>
       </c>
-      <c r="H270" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I270" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="271">
@@ -7110,24 +7136,26 @@
         <v>333</v>
       </c>
       <c r="B271" t="n">
+        <v>8</v>
+      </c>
+      <c r="C271" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="C271" t="n">
+      <c r="D271" t="n">
         <v>6.1</v>
       </c>
-      <c r="D271" t="n">
+      <c r="E271" t="n">
         <v>7.8</v>
       </c>
-      <c r="E271" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F271" t="n">
-        <v>7</v>
-      </c>
-      <c r="G271" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="G271" t="n">
+        <v>7</v>
+      </c>
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="n">
-        <v>7.22</v>
+        <v>7.35</v>
       </c>
     </row>
     <row r="272">
@@ -7154,28 +7182,28 @@
         <v>336</v>
       </c>
       <c r="B273" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C273" t="n">
         <v>6.2</v>
       </c>
-      <c r="C273" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D273" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E273" t="n">
         <v>6</v>
       </c>
-      <c r="E273" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F273" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G273" t="n">
         <v>7.3</v>
       </c>
-      <c r="G273" t="n">
+      <c r="H273" t="n">
         <v>6</v>
       </c>
-      <c r="H273" t="n">
-        <v>7.6</v>
-      </c>
       <c r="I273" t="n">
-        <v>6.59</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="274">
@@ -7275,26 +7303,28 @@
         <v>341</v>
       </c>
       <c r="B278" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="C278" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D278" t="n">
         <v>7.5</v>
       </c>
       <c r="E278" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="F278" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="G278" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H278" t="inlineStr"/>
+        <v>6.9</v>
+      </c>
+      <c r="H278" t="n">
+        <v>6.5</v>
+      </c>
       <c r="I278" t="n">
-        <v>7</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="279">
@@ -7302,28 +7332,28 @@
         <v>342</v>
       </c>
       <c r="B279" t="n">
-        <v>6.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C279" t="n">
         <v>6.7</v>
       </c>
       <c r="D279" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E279" t="n">
         <v>7.7</v>
       </c>
-      <c r="E279" t="n">
+      <c r="F279" t="n">
         <v>7.8</v>
       </c>
-      <c r="F279" t="n">
-        <v>6.4</v>
-      </c>
       <c r="G279" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H279" t="n">
         <v>7.1</v>
       </c>
-      <c r="H279" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I279" t="n">
-        <v>7.04</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="280">
@@ -7385,28 +7415,28 @@
         <v>345</v>
       </c>
       <c r="B282" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="C282" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D282" t="n">
+        <v>7</v>
+      </c>
+      <c r="E282" t="n">
         <v>7.4</v>
       </c>
-      <c r="D282" t="n">
+      <c r="F282" t="n">
         <v>6.3</v>
       </c>
-      <c r="E282" t="n">
+      <c r="G282" t="n">
         <v>7.2</v>
       </c>
-      <c r="F282" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="G282" t="n">
-        <v>7.4</v>
-      </c>
       <c r="H282" t="n">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="I282" t="n">
-        <v>7.04</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="283">
@@ -7414,28 +7444,28 @@
         <v>346</v>
       </c>
       <c r="B283" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="C283" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="D283" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="E283" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F283" t="n">
         <v>6.2</v>
       </c>
-      <c r="F283" t="n">
+      <c r="G283" t="n">
         <v>7.4</v>
-      </c>
-      <c r="G283" t="n">
-        <v>7.5</v>
       </c>
       <c r="H283" t="n">
         <v>7.5</v>
       </c>
       <c r="I283" t="n">
-        <v>6.9</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="284">
@@ -7472,25 +7502,25 @@
         <v>348</v>
       </c>
       <c r="B285" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="C285" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="D285" t="n">
+        <v>7</v>
+      </c>
+      <c r="E285" t="n">
         <v>8.1</v>
       </c>
-      <c r="E285" t="n">
+      <c r="F285" t="n">
         <v>7.2</v>
       </c>
-      <c r="F285" t="n">
-        <v>6.4</v>
-      </c>
       <c r="G285" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H285" t="n">
         <v>7.9</v>
-      </c>
-      <c r="H285" t="n">
-        <v>7.2</v>
       </c>
       <c r="I285" t="n">
         <v>7.21</v>
@@ -7586,28 +7616,28 @@
         <v>352</v>
       </c>
       <c r="B289" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="C289" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D289" t="n">
         <v>7.9</v>
       </c>
-      <c r="D289" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E289" t="n">
         <v>6.5</v>
       </c>
       <c r="F289" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G289" t="n">
         <v>6.1</v>
       </c>
-      <c r="G289" t="n">
-        <v>6.8</v>
-      </c>
       <c r="H289" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="I289" t="n">
-        <v>6.74</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="290">
@@ -7615,18 +7645,20 @@
         <v>353</v>
       </c>
       <c r="B290" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="C290" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D290" t="n">
         <v>5.9</v>
       </c>
-      <c r="D290" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E290" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F290" t="inlineStr"/>
+        <v>6.8</v>
+      </c>
+      <c r="F290" t="n">
+        <v>6.5</v>
+      </c>
       <c r="G290" t="inlineStr"/>
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="n">
@@ -7713,20 +7745,22 @@
         <v>357</v>
       </c>
       <c r="B294" t="n">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="C294" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D294" t="n">
         <v>6.3</v>
       </c>
-      <c r="D294" t="n">
-        <v>7</v>
-      </c>
-      <c r="E294" t="inlineStr"/>
+      <c r="E294" t="n">
+        <v>7</v>
+      </c>
       <c r="F294" t="inlineStr"/>
       <c r="G294" t="inlineStr"/>
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="n">
-        <v>6.57</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="295">
@@ -7821,28 +7855,28 @@
         <v>362</v>
       </c>
       <c r="B298" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C298" t="n">
         <v>7.9</v>
       </c>
-      <c r="C298" t="n">
+      <c r="D298" t="n">
         <v>7.6</v>
       </c>
-      <c r="D298" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E298" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="F298" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G298" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="G298" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H298" t="n">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="I298" t="n">
-        <v>7.44</v>
+        <v>7.39</v>
       </c>
     </row>
     <row r="299">
@@ -7850,28 +7884,28 @@
         <v>364</v>
       </c>
       <c r="B299" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C299" t="n">
         <v>7.1</v>
       </c>
-      <c r="C299" t="n">
+      <c r="D299" t="n">
         <v>7.6</v>
       </c>
-      <c r="D299" t="n">
-        <v>6.4</v>
-      </c>
       <c r="E299" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F299" t="n">
         <v>7.5</v>
       </c>
-      <c r="F299" t="n">
-        <v>7</v>
-      </c>
       <c r="G299" t="n">
+        <v>7</v>
+      </c>
+      <c r="H299" t="n">
         <v>7.3</v>
       </c>
-      <c r="H299" t="n">
-        <v>7.2</v>
-      </c>
       <c r="I299" t="n">
-        <v>7.16</v>
+        <v>7.26</v>
       </c>
     </row>
     <row r="300">
@@ -7929,28 +7963,28 @@
         <v>367</v>
       </c>
       <c r="B302" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="C302" t="n">
         <v>6.2</v>
       </c>
-      <c r="C302" t="n">
+      <c r="D302" t="n">
         <v>6.3</v>
       </c>
-      <c r="D302" t="n">
-        <v>6.4</v>
-      </c>
       <c r="E302" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F302" t="n">
         <v>6.3</v>
       </c>
-      <c r="F302" t="n">
+      <c r="G302" t="n">
         <v>7.4</v>
       </c>
-      <c r="G302" t="n">
+      <c r="H302" t="n">
         <v>7.2</v>
       </c>
-      <c r="H302" t="n">
-        <v>9.4</v>
-      </c>
       <c r="I302" t="n">
-        <v>7.03</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="303">
@@ -7958,25 +7992,25 @@
         <v>368</v>
       </c>
       <c r="B303" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="C303" t="n">
         <v>6.7</v>
       </c>
       <c r="D303" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E303" t="n">
         <v>7.4</v>
       </c>
-      <c r="E303" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F303" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G303" t="n">
         <v>5.9</v>
       </c>
-      <c r="G303" t="n">
+      <c r="H303" t="n">
         <v>7.2</v>
-      </c>
-      <c r="H303" t="n">
-        <v>6.5</v>
       </c>
       <c r="I303" t="n">
         <v>6.73</v>
@@ -8128,28 +8162,28 @@
         <v>374</v>
       </c>
       <c r="B309" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="C309" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="D309" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E309" t="n">
         <v>7.1</v>
       </c>
-      <c r="E309" t="n">
+      <c r="F309" t="n">
         <v>5.9</v>
       </c>
-      <c r="F309" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G309" t="n">
         <v>6.8</v>
       </c>
       <c r="H309" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="I309" t="n">
-        <v>6.7</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="310">
@@ -8157,25 +8191,25 @@
         <v>375</v>
       </c>
       <c r="B310" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C310" t="n">
         <v>7.3</v>
       </c>
-      <c r="C310" t="n">
+      <c r="D310" t="n">
         <v>7.5</v>
       </c>
-      <c r="D310" t="n">
+      <c r="E310" t="n">
         <v>7.6</v>
       </c>
-      <c r="E310" t="n">
+      <c r="F310" t="n">
         <v>7.1</v>
       </c>
-      <c r="F310" t="n">
+      <c r="G310" t="n">
         <v>7.5</v>
       </c>
-      <c r="G310" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H310" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="I310" t="n">
         <v>7.19</v>
@@ -8215,28 +8249,28 @@
         <v>377</v>
       </c>
       <c r="B312" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="C312" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="D312" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E312" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F312" t="n">
         <v>7.4</v>
       </c>
-      <c r="E312" t="n">
+      <c r="G312" t="n">
         <v>7.2</v>
       </c>
-      <c r="F312" t="n">
+      <c r="H312" t="n">
         <v>7.9</v>
       </c>
-      <c r="G312" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H312" t="n">
-        <v>7.6</v>
-      </c>
       <c r="I312" t="n">
-        <v>7.1</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="313">
@@ -8244,28 +8278,28 @@
         <v>378</v>
       </c>
       <c r="B313" t="n">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="C313" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="D313" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="E313" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F313" t="n">
         <v>7.4</v>
       </c>
-      <c r="F313" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G313" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="H313" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="I313" t="n">
-        <v>6.73</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="314">
@@ -8315,28 +8349,28 @@
         <v>381</v>
       </c>
       <c r="B316" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="C316" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="D316" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="E316" t="n">
         <v>6.1</v>
       </c>
       <c r="F316" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="G316" t="n">
         <v>7.8</v>
       </c>
-      <c r="G316" t="n">
+      <c r="H316" t="n">
         <v>7.9</v>
       </c>
-      <c r="H316" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I316" t="n">
-        <v>6.83</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="317">
@@ -8344,28 +8378,28 @@
         <v>382</v>
       </c>
       <c r="B317" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C317" t="n">
         <v>6.3</v>
       </c>
-      <c r="C317" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D317" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="E317" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="F317" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G317" t="n">
         <v>7.2</v>
       </c>
-      <c r="G317" t="n">
+      <c r="H317" t="n">
         <v>7.3</v>
       </c>
-      <c r="H317" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I317" t="n">
-        <v>6.74</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="318">
@@ -8373,28 +8407,28 @@
         <v>383</v>
       </c>
       <c r="B318" t="n">
-        <v>6.5</v>
+        <v>7.9</v>
       </c>
       <c r="C318" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D318" t="n">
         <v>7.3</v>
       </c>
-      <c r="D318" t="n">
-        <v>7</v>
-      </c>
       <c r="E318" t="n">
+        <v>7</v>
+      </c>
+      <c r="F318" t="n">
         <v>8.4</v>
       </c>
-      <c r="F318" t="n">
+      <c r="G318" t="n">
         <v>7.9</v>
       </c>
-      <c r="G318" t="n">
+      <c r="H318" t="n">
         <v>7.1</v>
       </c>
-      <c r="H318" t="n">
-        <v>7.3</v>
-      </c>
       <c r="I318" t="n">
-        <v>7.36</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="319">
@@ -8434,25 +8468,25 @@
         <v>7</v>
       </c>
       <c r="C320" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="D320" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E320" t="n">
         <v>7.8</v>
       </c>
-      <c r="E320" t="n">
-        <v>7</v>
-      </c>
       <c r="F320" t="n">
+        <v>7</v>
+      </c>
+      <c r="G320" t="n">
         <v>7.9</v>
-      </c>
-      <c r="G320" t="n">
-        <v>7.3</v>
       </c>
       <c r="H320" t="n">
         <v>7.3</v>
       </c>
       <c r="I320" t="n">
-        <v>7.29</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="321">
@@ -8479,28 +8513,28 @@
         <v>387</v>
       </c>
       <c r="B322" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C322" t="n">
         <v>8.9</v>
       </c>
-      <c r="C322" t="n">
-        <v>6.8</v>
-      </c>
       <c r="D322" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E322" t="n">
         <v>7.2</v>
       </c>
-      <c r="E322" t="n">
+      <c r="F322" t="n">
         <v>7.3</v>
       </c>
-      <c r="F322" t="n">
+      <c r="G322" t="n">
         <v>8.1</v>
       </c>
-      <c r="G322" t="n">
+      <c r="H322" t="n">
         <v>8.6</v>
       </c>
-      <c r="H322" t="n">
-        <v>8.699999999999999</v>
-      </c>
       <c r="I322" t="n">
-        <v>7.94</v>
+        <v>7.66</v>
       </c>
     </row>
     <row r="323">
@@ -8508,28 +8542,28 @@
         <v>388</v>
       </c>
       <c r="B323" t="n">
+        <v>7</v>
+      </c>
+      <c r="C323" t="n">
         <v>6.3</v>
       </c>
-      <c r="C323" t="n">
+      <c r="D323" t="n">
         <v>7.6</v>
       </c>
-      <c r="D323" t="n">
+      <c r="E323" t="n">
         <v>7.1</v>
       </c>
-      <c r="E323" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F323" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="G323" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="H323" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="I323" t="n">
-        <v>6.86</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="324">
@@ -8611,28 +8645,28 @@
         <v>393</v>
       </c>
       <c r="B328" t="n">
+        <v>7</v>
+      </c>
+      <c r="C328" t="n">
         <v>7.8</v>
       </c>
-      <c r="C328" t="n">
+      <c r="D328" t="n">
         <v>8.1</v>
       </c>
-      <c r="D328" t="n">
+      <c r="E328" t="n">
         <v>8.9</v>
       </c>
-      <c r="E328" t="n">
+      <c r="F328" t="n">
         <v>7.2</v>
       </c>
-      <c r="F328" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G328" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H328" t="n">
         <v>7.1</v>
       </c>
-      <c r="H328" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I328" t="n">
-        <v>7.44</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="329">
@@ -8740,28 +8774,28 @@
         <v>398</v>
       </c>
       <c r="B333" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C333" t="n">
         <v>6.2</v>
       </c>
-      <c r="C333" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D333" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="E333" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="F333" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="G333" t="n">
+        <v>7</v>
+      </c>
+      <c r="H333" t="n">
         <v>7.1</v>
       </c>
-      <c r="H333" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I333" t="n">
-        <v>6.63</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="334">
@@ -8836,28 +8870,28 @@
         <v>402</v>
       </c>
       <c r="B337" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C337" t="n">
         <v>7.5</v>
       </c>
-      <c r="C337" t="n">
-        <v>6.8</v>
-      </c>
       <c r="D337" t="n">
         <v>6.8</v>
       </c>
       <c r="E337" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="F337" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="G337" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H337" t="n">
         <v>7.2</v>
       </c>
-      <c r="H337" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I337" t="n">
-        <v>6.87</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="338">
@@ -8882,28 +8916,28 @@
         <v>404</v>
       </c>
       <c r="B339" t="n">
-        <v>6.4</v>
+        <v>7.3</v>
       </c>
       <c r="C339" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D339" t="n">
         <v>7.2</v>
       </c>
-      <c r="D339" t="n">
+      <c r="E339" t="n">
         <v>6.3</v>
       </c>
-      <c r="E339" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F339" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G339" t="n">
         <v>7.1</v>
       </c>
-      <c r="G339" t="n">
-        <v>7</v>
-      </c>
       <c r="H339" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I339" t="n">
-        <v>6.74</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="340">
@@ -8911,24 +8945,26 @@
         <v>405</v>
       </c>
       <c r="B340" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C340" t="n">
         <v>7.4</v>
       </c>
-      <c r="C340" t="n">
-        <v>6.8</v>
-      </c>
       <c r="D340" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="E340" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="F340" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G340" t="n">
         <v>7.5</v>
       </c>
-      <c r="G340" t="inlineStr"/>
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="n">
-        <v>7</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="341">
@@ -9023,28 +9059,28 @@
         <v>409</v>
       </c>
       <c r="B344" t="n">
-        <v>6.4</v>
+        <v>7.3</v>
       </c>
       <c r="C344" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="D344" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="E344" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F344" t="n">
         <v>9</v>
       </c>
-      <c r="F344" t="n">
+      <c r="G344" t="n">
         <v>6</v>
       </c>
-      <c r="G344" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H344" t="n">
-        <v>7.7</v>
+        <v>6.7</v>
       </c>
       <c r="I344" t="n">
-        <v>7.04</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="345">
@@ -9164,28 +9200,28 @@
         <v>414</v>
       </c>
       <c r="B349" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C349" t="n">
         <v>6.1</v>
       </c>
-      <c r="C349" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D349" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E349" t="n">
         <v>9.4</v>
       </c>
-      <c r="E349" t="n">
+      <c r="F349" t="n">
         <v>7.8</v>
       </c>
-      <c r="F349" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G349" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H349" t="n">
         <v>7.2</v>
       </c>
-      <c r="H349" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I349" t="n">
-        <v>7.23</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="350">
@@ -9193,28 +9229,28 @@
         <v>415</v>
       </c>
       <c r="B350" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C350" t="n">
         <v>7.4</v>
       </c>
-      <c r="C350" t="n">
-        <v>7</v>
-      </c>
       <c r="D350" t="n">
+        <v>7</v>
+      </c>
+      <c r="E350" t="n">
         <v>8.5</v>
       </c>
-      <c r="E350" t="n">
-        <v>6.4</v>
-      </c>
       <c r="F350" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G350" t="n">
         <v>7.1</v>
       </c>
-      <c r="G350" t="n">
+      <c r="H350" t="n">
         <v>8.6</v>
       </c>
-      <c r="H350" t="n">
-        <v>7.6</v>
-      </c>
       <c r="I350" t="n">
-        <v>7.51</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="351">
@@ -9222,28 +9258,28 @@
         <v>416</v>
       </c>
       <c r="B351" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C351" t="n">
         <v>7.5</v>
       </c>
-      <c r="C351" t="n">
+      <c r="D351" t="n">
         <v>6.3</v>
       </c>
-      <c r="D351" t="n">
+      <c r="E351" t="n">
         <v>7.2</v>
       </c>
-      <c r="E351" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F351" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G351" t="n">
         <v>7.3</v>
       </c>
-      <c r="G351" t="n">
+      <c r="H351" t="n">
         <v>5.9</v>
       </c>
-      <c r="H351" t="n">
-        <v>7.3</v>
-      </c>
       <c r="I351" t="n">
-        <v>6.9</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="352">
@@ -9251,28 +9287,28 @@
         <v>417</v>
       </c>
       <c r="B352" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C352" t="n">
         <v>8.9</v>
       </c>
-      <c r="C352" t="n">
+      <c r="D352" t="n">
         <v>6</v>
       </c>
-      <c r="D352" t="n">
+      <c r="E352" t="n">
         <v>8</v>
       </c>
-      <c r="E352" t="n">
+      <c r="F352" t="n">
         <v>6.3</v>
       </c>
-      <c r="F352" t="n">
+      <c r="G352" t="n">
         <v>9.9</v>
       </c>
-      <c r="G352" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H352" t="n">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
       <c r="I352" t="n">
-        <v>7.57</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="353">
@@ -9280,28 +9316,28 @@
         <v>418</v>
       </c>
       <c r="B353" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="C353" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="D353" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="E353" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="F353" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="G353" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H353" t="n">
         <v>7.9</v>
       </c>
-      <c r="H353" t="n">
-        <v>7.2</v>
-      </c>
       <c r="I353" t="n">
-        <v>6.93</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="354">
@@ -9338,28 +9374,28 @@
         <v>420</v>
       </c>
       <c r="B355" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C355" t="n">
         <v>7.4</v>
       </c>
-      <c r="C355" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D355" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="E355" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F355" t="n">
         <v>7.6</v>
       </c>
-      <c r="F355" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G355" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="H355" t="n">
         <v>7.4</v>
       </c>
       <c r="I355" t="n">
-        <v>7.07</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="356">
@@ -9367,28 +9403,28 @@
         <v>421</v>
       </c>
       <c r="B356" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="C356" t="n">
+        <v>7</v>
+      </c>
+      <c r="D356" t="n">
         <v>8.5</v>
       </c>
-      <c r="D356" t="n">
-        <v>7</v>
-      </c>
       <c r="E356" t="n">
+        <v>7</v>
+      </c>
+      <c r="F356" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="F356" t="n">
-        <v>7</v>
-      </c>
       <c r="G356" t="n">
+        <v>7</v>
+      </c>
+      <c r="H356" t="n">
         <v>7.6</v>
       </c>
-      <c r="H356" t="n">
-        <v>8.300000000000001</v>
-      </c>
       <c r="I356" t="n">
-        <v>7.66</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="357">
@@ -9421,19 +9457,19 @@
         <v>423</v>
       </c>
       <c r="B358" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="C358" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D358" t="n">
         <v>6.2</v>
       </c>
-      <c r="D358" t="n">
+      <c r="E358" t="n">
         <v>7.7</v>
       </c>
-      <c r="E358" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F358" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="G358" t="n">
         <v>7.3</v>
@@ -9442,7 +9478,7 @@
         <v>7.3</v>
       </c>
       <c r="I358" t="n">
-        <v>6.97</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="359">
@@ -9480,28 +9516,28 @@
         <v>426</v>
       </c>
       <c r="B361" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="C361" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="D361" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="E361" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F361" t="n">
         <v>6.2</v>
       </c>
-      <c r="F361" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G361" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H361" t="n">
         <v>7.2</v>
       </c>
-      <c r="H361" t="n">
-        <v>7.8</v>
-      </c>
       <c r="I361" t="n">
-        <v>6.76</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="362">
@@ -9509,25 +9545,25 @@
         <v>427</v>
       </c>
       <c r="B362" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="C362" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="D362" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E362" t="n">
         <v>7.4</v>
       </c>
-      <c r="E362" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F362" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="G362" t="n">
+        <v>7</v>
+      </c>
+      <c r="H362" t="n">
         <v>6.1</v>
-      </c>
-      <c r="H362" t="n">
-        <v>6.8</v>
       </c>
       <c r="I362" t="n">
         <v>6.83</v>
@@ -9538,28 +9574,28 @@
         <v>428</v>
       </c>
       <c r="B363" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C363" t="n">
         <v>7.1</v>
       </c>
-      <c r="C363" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D363" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="E363" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F363" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="F363" t="n">
+      <c r="G363" t="n">
         <v>7.2</v>
       </c>
-      <c r="G363" t="n">
+      <c r="H363" t="n">
         <v>6</v>
       </c>
-      <c r="H363" t="n">
-        <v>7.3</v>
-      </c>
       <c r="I363" t="n">
-        <v>6.96</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="364">
@@ -9567,28 +9603,28 @@
         <v>429</v>
       </c>
       <c r="B364" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C364" t="n">
         <v>7.2</v>
       </c>
-      <c r="C364" t="n">
+      <c r="D364" t="n">
         <v>7.4</v>
       </c>
-      <c r="D364" t="n">
+      <c r="E364" t="n">
         <v>7.9</v>
       </c>
-      <c r="E364" t="n">
+      <c r="F364" t="n">
         <v>8</v>
       </c>
-      <c r="F364" t="n">
+      <c r="G364" t="n">
         <v>7.2</v>
       </c>
-      <c r="G364" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H364" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="I364" t="n">
-        <v>7.21</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="365">
@@ -9648,28 +9684,28 @@
         <v>432</v>
       </c>
       <c r="B367" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C367" t="n">
         <v>7.1</v>
       </c>
-      <c r="C367" t="n">
+      <c r="D367" t="n">
         <v>7.2</v>
       </c>
-      <c r="D367" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E367" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="F367" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G367" t="n">
         <v>7.4</v>
       </c>
-      <c r="G367" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H367" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="I367" t="n">
-        <v>7.01</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="368">
@@ -9783,13 +9819,13 @@
         <v>437</v>
       </c>
       <c r="B372" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C372" t="n">
         <v>6.2</v>
       </c>
-      <c r="C372" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D372" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="E372" t="n">
         <v>7.3</v>
@@ -9798,13 +9834,13 @@
         <v>7.3</v>
       </c>
       <c r="G372" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="H372" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="I372" t="n">
-        <v>6.91</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="373">
@@ -9837,28 +9873,28 @@
         <v>439</v>
       </c>
       <c r="B374" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="C374" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="D374" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E374" t="n">
         <v>7.3</v>
       </c>
-      <c r="E374" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F374" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G374" t="n">
         <v>8</v>
       </c>
-      <c r="G374" t="n">
-        <v>6.8</v>
-      </c>
       <c r="H374" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="I374" t="n">
-        <v>6.93</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="375">
@@ -9866,28 +9902,28 @@
         <v>440</v>
       </c>
       <c r="B375" t="n">
-        <v>6.8</v>
+        <v>7.7</v>
       </c>
       <c r="C375" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D375" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="D375" t="n">
+      <c r="E375" t="n">
         <v>7.1</v>
       </c>
-      <c r="E375" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F375" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G375" t="n">
         <v>7.5</v>
       </c>
-      <c r="G375" t="n">
-        <v>7</v>
-      </c>
       <c r="H375" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="I375" t="n">
-        <v>7.24</v>
+        <v>7.33</v>
       </c>
     </row>
     <row r="376">
@@ -9895,28 +9931,28 @@
         <v>441</v>
       </c>
       <c r="B376" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C376" t="n">
         <v>9.6</v>
       </c>
-      <c r="C376" t="n">
-        <v>7</v>
-      </c>
       <c r="D376" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="E376" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F376" t="n">
         <v>8.6</v>
       </c>
-      <c r="F376" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G376" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H376" t="n">
         <v>6.2</v>
       </c>
-      <c r="H376" t="n">
-        <v>7.3</v>
-      </c>
       <c r="I376" t="n">
-        <v>7.46</v>
+        <v>7.29</v>
       </c>
     </row>
     <row r="377">
@@ -9924,28 +9960,28 @@
         <v>442</v>
       </c>
       <c r="B377" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C377" t="n">
         <v>8.1</v>
       </c>
-      <c r="C377" t="n">
-        <v>7</v>
-      </c>
       <c r="D377" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="E377" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="F377" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G377" t="n">
         <v>7.4</v>
       </c>
-      <c r="G377" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H377" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="I377" t="n">
-        <v>7.07</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="378">
@@ -9982,28 +10018,28 @@
         <v>444</v>
       </c>
       <c r="B379" t="n">
-        <v>6.7</v>
+        <v>7.8</v>
       </c>
       <c r="C379" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D379" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="D379" t="n">
+      <c r="E379" t="n">
         <v>7.5</v>
       </c>
-      <c r="E379" t="n">
-        <v>7</v>
-      </c>
       <c r="F379" t="n">
+        <v>7</v>
+      </c>
+      <c r="G379" t="n">
         <v>8</v>
       </c>
-      <c r="G379" t="n">
+      <c r="H379" t="n">
         <v>7.2</v>
       </c>
-      <c r="H379" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I379" t="n">
-        <v>7.49</v>
+        <v>7.63</v>
       </c>
     </row>
     <row r="380">
@@ -10040,28 +10076,28 @@
         <v>446</v>
       </c>
       <c r="B381" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="C381" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D381" t="n">
         <v>7.3</v>
       </c>
-      <c r="D381" t="n">
+      <c r="E381" t="n">
         <v>7.6</v>
       </c>
-      <c r="E381" t="n">
+      <c r="F381" t="n">
         <v>7.3</v>
       </c>
-      <c r="F381" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G381" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H381" t="n">
         <v>7.4</v>
       </c>
-      <c r="H381" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I381" t="n">
-        <v>7.01</v>
+        <v>7</v>
       </c>
     </row>
     <row r="382">
@@ -10129,28 +10165,28 @@
         <v>451</v>
       </c>
       <c r="B386" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C386" t="n">
         <v>7.1</v>
       </c>
-      <c r="C386" t="n">
+      <c r="D386" t="n">
         <v>8.1</v>
       </c>
-      <c r="D386" t="n">
+      <c r="E386" t="n">
         <v>7.9</v>
       </c>
-      <c r="E386" t="n">
+      <c r="F386" t="n">
         <v>7.7</v>
       </c>
-      <c r="F386" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G386" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H386" t="n">
         <v>8</v>
       </c>
-      <c r="H386" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I386" t="n">
-        <v>7.5</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="387">
@@ -10158,28 +10194,28 @@
         <v>452</v>
       </c>
       <c r="B387" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="C387" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="D387" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E387" t="n">
         <v>6.2</v>
       </c>
-      <c r="E387" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F387" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="G387" t="n">
         <v>6.8</v>
       </c>
       <c r="H387" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="I387" t="n">
-        <v>6.5</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="388">
@@ -10187,28 +10223,28 @@
         <v>453</v>
       </c>
       <c r="B388" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C388" t="n">
         <v>7.4</v>
       </c>
-      <c r="C388" t="n">
+      <c r="D388" t="n">
         <v>6.1</v>
       </c>
-      <c r="D388" t="n">
+      <c r="E388" t="n">
         <v>6.2</v>
       </c>
-      <c r="E388" t="n">
+      <c r="F388" t="n">
         <v>6.3</v>
       </c>
-      <c r="F388" t="n">
+      <c r="G388" t="n">
         <v>5.9</v>
       </c>
-      <c r="G388" t="n">
+      <c r="H388" t="n">
         <v>6.2</v>
       </c>
-      <c r="H388" t="n">
-        <v>6</v>
-      </c>
       <c r="I388" t="n">
-        <v>6.3</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="389">
@@ -10216,28 +10252,28 @@
         <v>454</v>
       </c>
       <c r="B389" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="C389" t="n">
         <v>7.3</v>
       </c>
       <c r="D389" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="E389" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="E389" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F389" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="G389" t="n">
+        <v>7</v>
+      </c>
+      <c r="H389" t="n">
         <v>7.2</v>
       </c>
-      <c r="H389" t="n">
-        <v>7.4</v>
-      </c>
       <c r="I389" t="n">
-        <v>7.41</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="390">

--- a/players_ratings.xlsx
+++ b/players_ratings.xlsx
@@ -599,28 +599,28 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="C8" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="D8" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="E8" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="F8" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G8" t="n">
         <v>7.5</v>
       </c>
-      <c r="G8" t="n">
-        <v>6.4</v>
-      </c>
       <c r="H8" t="n">
-        <v>7.7</v>
+        <v>6.4</v>
       </c>
       <c r="I8" t="n">
-        <v>6.83</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="9">
@@ -628,28 +628,28 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C9" t="n">
         <v>7.2</v>
       </c>
-      <c r="C9" t="n">
-        <v>7.1</v>
-      </c>
       <c r="D9" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="E9" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="F9" t="n">
         <v>7.5</v>
       </c>
       <c r="G9" t="n">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="I9" t="n">
-        <v>7.03</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="10">
@@ -759,28 +759,28 @@
         <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="C14" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="D14" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="E14" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="F14" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G14" t="n">
         <v>7.3</v>
       </c>
-      <c r="G14" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H14" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="I14" t="n">
-        <v>6.76</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="15">
@@ -874,28 +874,28 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C19" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="D19" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E19" t="n">
         <v>7.9</v>
       </c>
-      <c r="E19" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F19" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G19" t="n">
         <v>6.1</v>
       </c>
-      <c r="G19" t="n">
-        <v>6.3</v>
-      </c>
       <c r="H19" t="n">
-        <v>7.7</v>
+        <v>6.3</v>
       </c>
       <c r="I19" t="n">
-        <v>6.81</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="20">
@@ -932,28 +932,28 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C21" t="n">
         <v>7.4</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>7.3</v>
       </c>
-      <c r="D21" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E21" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F21" t="n">
         <v>8</v>
       </c>
-      <c r="F21" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G21" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H21" t="n">
         <v>6.2</v>
       </c>
-      <c r="H21" t="n">
-        <v>7</v>
-      </c>
       <c r="I21" t="n">
-        <v>7.04</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="22">
@@ -961,28 +961,28 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="C22" t="n">
         <v>6.5</v>
       </c>
       <c r="D22" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="E22" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="F22" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="G22" t="n">
         <v>6.7</v>
       </c>
       <c r="H22" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="I22" t="n">
-        <v>6.66</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="23">
@@ -990,26 +990,28 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="C23" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="D23" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="E23" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="F23" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="G23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H23" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="H23" t="n">
+        <v>6.5</v>
+      </c>
       <c r="I23" t="n">
-        <v>6.63</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="24">
@@ -1043,28 +1045,28 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C26" t="n">
         <v>6.1</v>
       </c>
-      <c r="C26" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D26" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="E26" t="n">
         <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="G26" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="H26" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="I26" t="n">
-        <v>6.7</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="27">
@@ -1157,28 +1159,28 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
+        <v>6</v>
+      </c>
+      <c r="C30" t="n">
         <v>6.2</v>
       </c>
-      <c r="C30" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D30" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="E30" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F30" t="n">
         <v>7.9</v>
       </c>
-      <c r="F30" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G30" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H30" t="n">
         <v>5.5</v>
       </c>
-      <c r="H30" t="n">
-        <v>7.1</v>
-      </c>
       <c r="I30" t="n">
-        <v>6.61</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="31">
@@ -1203,28 +1205,28 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="C32" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D32" t="n">
         <v>7.6</v>
       </c>
-      <c r="D32" t="n">
-        <v>6.3</v>
-      </c>
       <c r="E32" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="F32" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="G32" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="H32" t="n">
         <v>8.1</v>
       </c>
-      <c r="H32" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I32" t="n">
-        <v>7.03</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="33">
@@ -1232,28 +1234,28 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="C33" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="D33" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="E33" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F33" t="n">
         <v>6.1</v>
       </c>
-      <c r="F33" t="n">
-        <v>7.1</v>
-      </c>
       <c r="G33" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="H33" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="I33" t="n">
-        <v>6.57</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="34">
@@ -1261,28 +1263,28 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C34" t="n">
         <v>7.6</v>
       </c>
-      <c r="C34" t="n">
-        <v>6.3</v>
-      </c>
       <c r="D34" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E34" t="n">
         <v>7.2</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>6</v>
       </c>
-      <c r="F34" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G34" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H34" t="n">
         <v>6.2</v>
       </c>
-      <c r="H34" t="n">
-        <v>7.2</v>
-      </c>
       <c r="I34" t="n">
-        <v>6.71</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="35">
@@ -1414,28 +1416,28 @@
         <v>51</v>
       </c>
       <c r="B41" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C41" t="n">
         <v>7.8</v>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
         <v>7.7</v>
       </c>
-      <c r="D41" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E41" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F41" t="n">
         <v>7.5</v>
       </c>
-      <c r="F41" t="n">
-        <v>6.3</v>
-      </c>
       <c r="G41" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="H41" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="I41" t="n">
-        <v>7.04</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="42">
@@ -1544,10 +1546,10 @@
         <v>57</v>
       </c>
       <c r="B47" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="C47" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="D47" t="n">
         <v>6.5</v>
@@ -1556,14 +1558,16 @@
         <v>6.5</v>
       </c>
       <c r="F47" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="G47" t="n">
         <v>6.7</v>
       </c>
-      <c r="H47" t="inlineStr"/>
+      <c r="H47" t="n">
+        <v>6.7</v>
+      </c>
       <c r="I47" t="n">
-        <v>6.67</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="48">
@@ -1721,28 +1725,28 @@
         <v>66</v>
       </c>
       <c r="B54" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="C54" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="D54" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="E54" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="F54" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="G54" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="H54" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="I54" t="n">
-        <v>6.69</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="55">
@@ -1773,28 +1777,28 @@
         <v>69</v>
       </c>
       <c r="B56" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="C56" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="D56" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="E56" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F56" t="n">
         <v>7.8</v>
       </c>
-      <c r="F56" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G56" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H56" t="n">
         <v>7.7</v>
       </c>
-      <c r="H56" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I56" t="n">
-        <v>7.03</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="57">
@@ -1815,16 +1819,16 @@
         <v>75</v>
       </c>
       <c r="B58" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="C58" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="D58" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="E58" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="F58" t="n">
         <v>6.6</v>
@@ -1833,10 +1837,10 @@
         <v>6.6</v>
       </c>
       <c r="H58" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="I58" t="n">
-        <v>6.63</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="59">
@@ -1844,28 +1848,28 @@
         <v>80</v>
       </c>
       <c r="B59" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="C59" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="D59" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="E59" t="n">
         <v>6.7</v>
       </c>
       <c r="F59" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="G59" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="H59" t="n">
         <v>7.4</v>
       </c>
       <c r="I59" t="n">
-        <v>6.91</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="60">
@@ -1873,28 +1877,28 @@
         <v>81</v>
       </c>
       <c r="B60" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C60" t="n">
         <v>7.8</v>
       </c>
-      <c r="C60" t="n">
+      <c r="D60" t="n">
         <v>7.5</v>
       </c>
-      <c r="D60" t="n">
+      <c r="E60" t="n">
         <v>7.4</v>
       </c>
-      <c r="E60" t="n">
-        <v>6.3</v>
-      </c>
       <c r="F60" t="n">
         <v>6.3</v>
       </c>
       <c r="G60" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="H60" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="I60" t="n">
-        <v>6.94</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="61">
@@ -1993,26 +1997,28 @@
         <v>91</v>
       </c>
       <c r="B66" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="C66" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="D66" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="E66" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="F66" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="G66" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="H66" t="inlineStr"/>
+        <v>6.9</v>
+      </c>
+      <c r="H66" t="n">
+        <v>6.3</v>
+      </c>
       <c r="I66" t="n">
-        <v>6.65</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="67">
@@ -2049,16 +2055,18 @@
         <v>93</v>
       </c>
       <c r="B68" t="n">
-        <v>7</v>
-      </c>
-      <c r="C68" t="inlineStr"/>
+        <v>6.8</v>
+      </c>
+      <c r="C68" t="n">
+        <v>7</v>
+      </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="69">
@@ -2066,28 +2074,28 @@
         <v>94</v>
       </c>
       <c r="B69" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C69" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D69" t="n">
         <v>7.2</v>
       </c>
-      <c r="C69" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="D69" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E69" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F69" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G69" t="n">
         <v>8</v>
       </c>
-      <c r="F69" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="G69" t="n">
-        <v>7.8</v>
-      </c>
       <c r="H69" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="I69" t="n">
-        <v>7.09</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="70">
@@ -2095,28 +2103,28 @@
         <v>95</v>
       </c>
       <c r="B70" t="n">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
       <c r="C70" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="D70" t="n">
         <v>8</v>
       </c>
-      <c r="D70" t="n">
+      <c r="E70" t="n">
         <v>8.1</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>9</v>
       </c>
-      <c r="F70" t="n">
-        <v>7</v>
-      </c>
       <c r="G70" t="n">
+        <v>7</v>
+      </c>
+      <c r="H70" t="n">
         <v>7.6</v>
       </c>
-      <c r="H70" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I70" t="n">
-        <v>7.66</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="71">
@@ -2218,28 +2226,28 @@
         <v>101</v>
       </c>
       <c r="B75" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C75" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D75" t="n">
         <v>7.3</v>
       </c>
-      <c r="C75" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="D75" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E75" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="F75" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="G75" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="H75" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="I75" t="n">
-        <v>6.66</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="76">
@@ -2331,28 +2339,28 @@
         <v>106</v>
       </c>
       <c r="B80" t="n">
-        <v>7.8</v>
+        <v>7.1</v>
       </c>
       <c r="C80" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="D80" t="n">
         <v>7.8</v>
       </c>
       <c r="E80" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F80" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="G80" t="n">
         <v>7.7</v>
       </c>
-      <c r="F80" t="n">
+      <c r="H80" t="n">
         <v>7.5</v>
       </c>
-      <c r="G80" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="H80" t="n">
-        <v>7.4</v>
-      </c>
       <c r="I80" t="n">
-        <v>7.43</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="81">
@@ -2427,28 +2435,28 @@
         <v>111</v>
       </c>
       <c r="B84" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C84" t="n">
         <v>6.1</v>
       </c>
-      <c r="C84" t="n">
+      <c r="D84" t="n">
         <v>7.9</v>
       </c>
-      <c r="D84" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E84" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="F84" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G84" t="n">
         <v>7.8</v>
       </c>
-      <c r="G84" t="n">
+      <c r="H84" t="n">
         <v>7.3</v>
       </c>
-      <c r="H84" t="n">
-        <v>7.1</v>
-      </c>
       <c r="I84" t="n">
-        <v>7.09</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="85">
@@ -2469,28 +2477,28 @@
         <v>113</v>
       </c>
       <c r="B86" t="n">
-        <v>7.1</v>
+        <v>6.2</v>
       </c>
       <c r="C86" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="D86" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E86" t="n">
         <v>8</v>
       </c>
-      <c r="E86" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F86" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="G86" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="H86" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="I86" t="n">
-        <v>6.86</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="87">
@@ -2511,28 +2519,28 @@
         <v>115</v>
       </c>
       <c r="B88" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="C88" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D88" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E88" t="n">
         <v>6</v>
       </c>
-      <c r="D88" t="n">
+      <c r="F88" t="n">
         <v>6</v>
       </c>
-      <c r="E88" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="F88" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G88" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="H88" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="I88" t="n">
-        <v>6.43</v>
+        <v>6.33</v>
       </c>
     </row>
     <row r="89">
@@ -2553,28 +2561,28 @@
         <v>117</v>
       </c>
       <c r="B90" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C90" t="n">
         <v>6</v>
       </c>
-      <c r="C90" t="n">
-        <v>6.3</v>
-      </c>
       <c r="D90" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="E90" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="F90" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="G90" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="H90" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="I90" t="n">
-        <v>6.46</v>
+        <v>6.31</v>
       </c>
     </row>
     <row r="91">
@@ -2605,28 +2613,28 @@
         <v>119</v>
       </c>
       <c r="B92" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="C92" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D92" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="D92" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E92" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="F92" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="G92" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H92" t="n">
         <v>7.3</v>
       </c>
-      <c r="H92" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I92" t="n">
-        <v>6.97</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="93">
@@ -2634,20 +2642,22 @@
         <v>120</v>
       </c>
       <c r="B93" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="C93" t="n">
+        <v>7</v>
+      </c>
+      <c r="D93" t="n">
         <v>8</v>
       </c>
-      <c r="D93" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="E93" t="inlineStr"/>
+      <c r="E93" t="n">
+        <v>6.5</v>
+      </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="n">
-        <v>7.17</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="94">
@@ -2921,17 +2931,17 @@
         <v>135</v>
       </c>
       <c r="B106" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C106" t="n">
         <v>7.2</v>
       </c>
-      <c r="C106" t="n">
+      <c r="D106" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="D106" t="n">
+      <c r="E106" t="n">
         <v>7.2</v>
       </c>
-      <c r="E106" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F106" t="n">
         <v>6.6</v>
       </c>
@@ -2939,10 +2949,10 @@
         <v>6.6</v>
       </c>
       <c r="H106" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="I106" t="n">
-        <v>7.09</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="107">
@@ -2950,28 +2960,28 @@
         <v>136</v>
       </c>
       <c r="B107" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C107" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="D107" t="n">
         <v>7.7</v>
       </c>
-      <c r="C107" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="D107" t="n">
+      <c r="E107" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F107" t="n">
         <v>7.5</v>
       </c>
-      <c r="E107" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="F107" t="n">
+      <c r="G107" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H107" t="n">
         <v>7.8</v>
       </c>
-      <c r="G107" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="H107" t="n">
-        <v>7.1</v>
-      </c>
       <c r="I107" t="n">
-        <v>7.19</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="108">
@@ -3116,25 +3126,25 @@
         <v>6.6</v>
       </c>
       <c r="C114" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="D114" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="E114" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="F114" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="G114" t="n">
         <v>6.7</v>
       </c>
       <c r="H114" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="I114" t="n">
-        <v>6.66</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="115">
@@ -3142,28 +3152,28 @@
         <v>146</v>
       </c>
       <c r="B115" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="C115" t="n">
         <v>7.1</v>
       </c>
       <c r="D115" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="E115" t="n">
         <v>7.3</v>
       </c>
-      <c r="E115" t="n">
+      <c r="F115" t="n">
         <v>7.7</v>
       </c>
-      <c r="F115" t="n">
+      <c r="G115" t="n">
         <v>6.1</v>
       </c>
-      <c r="G115" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H115" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="I115" t="n">
-        <v>7</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="116">
@@ -3171,28 +3181,28 @@
         <v>147</v>
       </c>
       <c r="B116" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="C116" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="D116" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="E116" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="F116" t="n">
         <v>6.3</v>
       </c>
       <c r="G116" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="H116" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="I116" t="n">
-        <v>6.51</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="117">
@@ -3216,25 +3226,25 @@
         <v>6.6</v>
       </c>
       <c r="C118" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="D118" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E118" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="E118" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F118" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G118" t="n">
         <v>7.3</v>
       </c>
-      <c r="G118" t="n">
-        <v>6.4</v>
-      </c>
       <c r="H118" t="n">
-        <v>7.3</v>
+        <v>6.4</v>
       </c>
       <c r="I118" t="n">
-        <v>7.09</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="119">
@@ -3242,28 +3252,28 @@
         <v>150</v>
       </c>
       <c r="B119" t="n">
+        <v>8</v>
+      </c>
+      <c r="C119" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D119" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="C119" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="D119" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E119" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="F119" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="G119" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="H119" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="I119" t="n">
-        <v>7</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="120">
@@ -3313,13 +3323,17 @@
         <v>160</v>
       </c>
       <c r="B122" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="C122" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr"/>
+        <v>6.4</v>
+      </c>
+      <c r="D122" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E122" t="n">
+        <v>6.6</v>
+      </c>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
@@ -3378,28 +3392,28 @@
         <v>164</v>
       </c>
       <c r="B125" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C125" t="n">
         <v>7.4</v>
       </c>
-      <c r="C125" t="n">
+      <c r="D125" t="n">
         <v>8.1</v>
       </c>
-      <c r="D125" t="n">
-        <v>7</v>
-      </c>
       <c r="E125" t="n">
+        <v>7</v>
+      </c>
+      <c r="F125" t="n">
         <v>7.9</v>
       </c>
-      <c r="F125" t="n">
+      <c r="G125" t="n">
         <v>8.1</v>
       </c>
-      <c r="G125" t="n">
-        <v>6.8</v>
-      </c>
       <c r="H125" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="I125" t="n">
-        <v>7.53</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="126">
@@ -3407,26 +3421,28 @@
         <v>165</v>
       </c>
       <c r="B126" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="C126" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="D126" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="E126" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="F126" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="G126" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H126" t="inlineStr"/>
+        <v>6.8</v>
+      </c>
+      <c r="H126" t="n">
+        <v>6.6</v>
+      </c>
       <c r="I126" t="n">
-        <v>6.65</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="127">
@@ -3463,20 +3479,22 @@
         <v>167</v>
       </c>
       <c r="B128" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="C128" t="n">
         <v>6.5</v>
       </c>
       <c r="D128" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="E128" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="E128" t="n">
+        <v>6.7</v>
+      </c>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="n">
-        <v>6.57</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="129">
@@ -3542,28 +3560,28 @@
         <v>170</v>
       </c>
       <c r="B131" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C131" t="n">
         <v>7.4</v>
       </c>
-      <c r="C131" t="n">
+      <c r="D131" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="D131" t="n">
-        <v>7</v>
-      </c>
       <c r="E131" t="n">
+        <v>7</v>
+      </c>
+      <c r="F131" t="n">
         <v>7.5</v>
       </c>
-      <c r="F131" t="n">
+      <c r="G131" t="n">
         <v>7.9</v>
       </c>
-      <c r="G131" t="n">
-        <v>7.1</v>
-      </c>
       <c r="H131" t="n">
-        <v>6.1</v>
+        <v>7.1</v>
       </c>
       <c r="I131" t="n">
-        <v>7.33</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="132">
@@ -3571,19 +3589,19 @@
         <v>171</v>
       </c>
       <c r="B132" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="C132" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D132" t="n">
+        <v>7</v>
+      </c>
+      <c r="E132" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="D132" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="E132" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F132" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="G132" t="n">
         <v>6.6</v>
@@ -3592,7 +3610,7 @@
         <v>6.5</v>
       </c>
       <c r="I132" t="n">
-        <v>6.91</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="133">
@@ -3687,22 +3705,26 @@
         <v>175</v>
       </c>
       <c r="B136" t="n">
-        <v>6.5</v>
+        <v>7.9</v>
       </c>
       <c r="C136" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D136" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E136" t="n">
         <v>7.3</v>
       </c>
-      <c r="D136" t="n">
+      <c r="F136" t="n">
         <v>7.2</v>
       </c>
-      <c r="E136" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
+      <c r="G136" t="n">
+        <v>6.9</v>
+      </c>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="n">
-        <v>6.98</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="137">
@@ -3758,16 +3780,18 @@
         <v>178</v>
       </c>
       <c r="B139" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="C139" t="inlineStr"/>
+        <v>6.9</v>
+      </c>
+      <c r="C139" t="n">
+        <v>6.6</v>
+      </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="n">
-        <v>6.6</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="140">
@@ -3800,28 +3824,28 @@
         <v>180</v>
       </c>
       <c r="B141" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C141" t="n">
         <v>7.2</v>
       </c>
-      <c r="C141" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D141" t="n">
         <v>6.9</v>
       </c>
       <c r="E141" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F141" t="n">
         <v>7.6</v>
       </c>
-      <c r="F141" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G141" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H141" t="n">
         <v>9.1</v>
       </c>
-      <c r="H141" t="n">
-        <v>7.3</v>
-      </c>
       <c r="I141" t="n">
-        <v>7.41</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="142">
@@ -3829,19 +3853,23 @@
         <v>181</v>
       </c>
       <c r="B142" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="C142" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="D142" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="E142" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
+        <v>6.4</v>
+      </c>
+      <c r="F142" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G142" t="n">
+        <v>6.6</v>
+      </c>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="n">
         <v>6.5</v>
@@ -3852,28 +3880,28 @@
         <v>182</v>
       </c>
       <c r="B143" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C143" t="n">
         <v>7.5</v>
       </c>
-      <c r="C143" t="n">
+      <c r="D143" t="n">
         <v>9</v>
       </c>
-      <c r="D143" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E143" t="n">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="F143" t="n">
         <v>7.5</v>
       </c>
       <c r="G143" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H143" t="n">
         <v>7.2</v>
       </c>
-      <c r="H143" t="n">
-        <v>7.4</v>
-      </c>
       <c r="I143" t="n">
-        <v>7.53</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="144">
@@ -3900,28 +3928,28 @@
         <v>184</v>
       </c>
       <c r="B145" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C145" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D145" t="n">
         <v>7.2</v>
       </c>
-      <c r="C145" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="D145" t="n">
+      <c r="E145" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F145" t="n">
         <v>7.4</v>
       </c>
-      <c r="E145" t="n">
+      <c r="G145" t="n">
         <v>7.2</v>
       </c>
-      <c r="F145" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="G145" t="n">
-        <v>6.4</v>
-      </c>
       <c r="H145" t="n">
         <v>6.7</v>
       </c>
       <c r="I145" t="n">
-        <v>6.93</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146">
@@ -4087,28 +4115,28 @@
         <v>192</v>
       </c>
       <c r="B152" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="C152" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="D152" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="E152" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="F152" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="G152" t="n">
         <v>6.9</v>
       </c>
       <c r="H152" t="n">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="I152" t="n">
-        <v>7</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="153">
@@ -4162,28 +4190,28 @@
         <v>195</v>
       </c>
       <c r="B155" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C155" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="D155" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E155" t="n">
         <v>6.2</v>
       </c>
-      <c r="E155" t="n">
-        <v>7</v>
-      </c>
       <c r="F155" t="n">
+        <v>7</v>
+      </c>
+      <c r="G155" t="n">
         <v>5.9</v>
       </c>
-      <c r="G155" t="n">
-        <v>6.3</v>
-      </c>
       <c r="H155" t="n">
-        <v>8.800000000000001</v>
+        <v>6.3</v>
       </c>
       <c r="I155" t="n">
-        <v>6.73</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="156">
@@ -4237,28 +4265,28 @@
         <v>198</v>
       </c>
       <c r="B158" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C158" t="n">
         <v>6.1</v>
       </c>
-      <c r="C158" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D158" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="E158" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="F158" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="G158" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="H158" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="I158" t="n">
-        <v>6.56</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="159">
@@ -4295,20 +4323,22 @@
         <v>200</v>
       </c>
       <c r="B160" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="C160" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="D160" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="E160" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="E160" t="n">
+        <v>6.6</v>
+      </c>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="n">
-        <v>6.63</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="161">
@@ -4401,28 +4431,28 @@
         <v>206</v>
       </c>
       <c r="B164" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C164" t="n">
         <v>6.2</v>
       </c>
-      <c r="C164" t="n">
-        <v>7</v>
-      </c>
       <c r="D164" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="E164" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F164" t="n">
         <v>7.2</v>
       </c>
-      <c r="F164" t="n">
-        <v>7.1</v>
-      </c>
       <c r="G164" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="H164" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="I164" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="165">
@@ -4518,28 +4548,28 @@
         <v>211</v>
       </c>
       <c r="B169" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="C169" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="D169" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="E169" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="F169" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G169" t="n">
         <v>7.3</v>
       </c>
-      <c r="G169" t="n">
-        <v>7.1</v>
-      </c>
       <c r="H169" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="I169" t="n">
-        <v>6.91</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="170">
@@ -4547,28 +4577,28 @@
         <v>212</v>
       </c>
       <c r="B170" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="C170" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="D170" t="n">
         <v>7.2</v>
       </c>
       <c r="E170" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="F170" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="G170" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H170" t="n">
         <v>7.2</v>
       </c>
-      <c r="H170" t="n">
-        <v>6.4</v>
-      </c>
       <c r="I170" t="n">
-        <v>6.83</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="171">
@@ -4593,28 +4623,28 @@
         <v>214</v>
       </c>
       <c r="B172" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C172" t="n">
         <v>7.7</v>
       </c>
-      <c r="C172" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D172" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E172" t="n">
         <v>8.4</v>
       </c>
-      <c r="E172" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F172" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G172" t="n">
         <v>7.8</v>
       </c>
-      <c r="G172" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H172" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="I172" t="n">
-        <v>7.23</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="173">
@@ -4635,28 +4665,28 @@
         <v>216</v>
       </c>
       <c r="B174" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="C174" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="D174" t="n">
         <v>6.1</v>
       </c>
-      <c r="D174" t="n">
-        <v>6.3</v>
-      </c>
       <c r="E174" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="F174" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="G174" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H174" t="n">
         <v>6.1</v>
       </c>
-      <c r="H174" t="n">
-        <v>7.4</v>
-      </c>
       <c r="I174" t="n">
-        <v>6.63</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="175">
@@ -4664,28 +4694,28 @@
         <v>217</v>
       </c>
       <c r="B175" t="n">
-        <v>6.3</v>
+        <v>7.4</v>
       </c>
       <c r="C175" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D175" t="n">
         <v>7.4</v>
       </c>
-      <c r="D175" t="n">
+      <c r="E175" t="n">
         <v>7.6</v>
       </c>
-      <c r="E175" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F175" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G175" t="n">
         <v>7.2</v>
       </c>
-      <c r="G175" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H175" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I175" t="n">
-        <v>6.97</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="176">
@@ -4722,28 +4752,28 @@
         <v>219</v>
       </c>
       <c r="B177" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="C177" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="D177" t="n">
         <v>7.1</v>
       </c>
       <c r="E177" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="F177" t="n">
         <v>6.9</v>
       </c>
       <c r="G177" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H177" t="n">
         <v>7.3</v>
       </c>
-      <c r="H177" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I177" t="n">
-        <v>6.9</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="178">
@@ -4853,28 +4883,28 @@
         <v>224</v>
       </c>
       <c r="B182" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="C182" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="D182" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E182" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F182" t="n">
         <v>7.7</v>
       </c>
-      <c r="E182" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F182" t="n">
+      <c r="G182" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H182" t="n">
         <v>7.3</v>
       </c>
-      <c r="G182" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="H182" t="n">
-        <v>7</v>
-      </c>
       <c r="I182" t="n">
-        <v>6.97</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="183">
@@ -4885,25 +4915,25 @@
         <v>6.3</v>
       </c>
       <c r="C183" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="D183" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E183" t="n">
         <v>5.5</v>
       </c>
-      <c r="E183" t="n">
-        <v>7.1</v>
-      </c>
       <c r="F183" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="G183" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H183" t="n">
         <v>6.1</v>
       </c>
-      <c r="H183" t="n">
-        <v>7.4</v>
-      </c>
       <c r="I183" t="n">
-        <v>6.51</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="184">
@@ -4911,28 +4941,28 @@
         <v>226</v>
       </c>
       <c r="B184" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="C184" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="D184" t="n">
         <v>6.8</v>
       </c>
       <c r="E184" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F184" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G184" t="n">
         <v>7.3</v>
       </c>
-      <c r="F184" t="n">
+      <c r="H184" t="n">
         <v>7.5</v>
       </c>
-      <c r="G184" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="H184" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I184" t="n">
-        <v>6.94</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="185">
@@ -4940,28 +4970,28 @@
         <v>227</v>
       </c>
       <c r="B185" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="C185" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="D185" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="E185" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="F185" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="G185" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H185" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="I185" t="n">
-        <v>6.51</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="186">
@@ -4969,28 +4999,28 @@
         <v>228</v>
       </c>
       <c r="B186" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C186" t="n">
         <v>8.4</v>
       </c>
-      <c r="C186" t="n">
-        <v>6.3</v>
-      </c>
       <c r="D186" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E186" t="n">
         <v>7.6</v>
       </c>
-      <c r="E186" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F186" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="G186" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H186" t="n">
         <v>7.2</v>
       </c>
-      <c r="H186" t="n">
-        <v>8.4</v>
-      </c>
       <c r="I186" t="n">
-        <v>7.34</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="187">
@@ -5024,28 +5054,28 @@
         <v>232</v>
       </c>
       <c r="B189" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="C189" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="D189" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="E189" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="F189" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="G189" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="H189" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="I189" t="n">
-        <v>6.61</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="190">
@@ -5070,28 +5100,28 @@
         <v>236</v>
       </c>
       <c r="B191" t="n">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="C191" t="n">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="D191" t="n">
+        <v>7</v>
+      </c>
+      <c r="E191" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F191" t="n">
         <v>7.8</v>
       </c>
-      <c r="E191" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="F191" t="n">
+      <c r="G191" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H191" t="n">
         <v>7.6</v>
       </c>
-      <c r="G191" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="H191" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I191" t="n">
-        <v>7.17</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="192">
@@ -5099,28 +5129,28 @@
         <v>237</v>
       </c>
       <c r="B192" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C192" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D192" t="n">
         <v>7.5</v>
       </c>
-      <c r="C192" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="D192" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E192" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="F192" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G192" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="F192" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="G192" t="n">
-        <v>7.2</v>
-      </c>
       <c r="H192" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="I192" t="n">
-        <v>7.2</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="193">
@@ -5288,28 +5318,28 @@
         <v>247</v>
       </c>
       <c r="B201" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C201" t="n">
         <v>9.4</v>
       </c>
-      <c r="C201" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D201" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="E201" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F201" t="n">
         <v>7.7</v>
       </c>
-      <c r="F201" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G201" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H201" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="H201" t="n">
-        <v>6.2</v>
-      </c>
       <c r="I201" t="n">
-        <v>7.34</v>
+        <v>7.57</v>
       </c>
     </row>
     <row r="202">
@@ -5349,28 +5379,28 @@
         <v>252</v>
       </c>
       <c r="B204" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C204" t="n">
         <v>7.6</v>
       </c>
-      <c r="C204" t="n">
+      <c r="D204" t="n">
         <v>7.7</v>
       </c>
-      <c r="D204" t="n">
+      <c r="E204" t="n">
         <v>7.2</v>
       </c>
-      <c r="E204" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F204" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G204" t="n">
         <v>8.4</v>
       </c>
-      <c r="G204" t="n">
+      <c r="H204" t="n">
         <v>7.2</v>
       </c>
-      <c r="H204" t="n">
-        <v>7.6</v>
-      </c>
       <c r="I204" t="n">
-        <v>7.49</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="205">
@@ -5433,28 +5463,28 @@
         <v>256</v>
       </c>
       <c r="B208" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C208" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="C208" t="n">
+      <c r="D208" t="n">
         <v>9.4</v>
       </c>
-      <c r="D208" t="n">
+      <c r="E208" t="n">
         <v>7.2</v>
       </c>
-      <c r="E208" t="n">
+      <c r="F208" t="n">
         <v>7.4</v>
       </c>
-      <c r="F208" t="n">
-        <v>7</v>
-      </c>
       <c r="G208" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="H208" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="I208" t="n">
-        <v>7.74</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="209">
@@ -5483,28 +5513,28 @@
         <v>259</v>
       </c>
       <c r="B210" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="C210" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="D210" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E210" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F210" t="n">
         <v>7.6</v>
       </c>
-      <c r="E210" t="n">
-        <v>7</v>
-      </c>
-      <c r="F210" t="n">
+      <c r="G210" t="n">
+        <v>7</v>
+      </c>
+      <c r="H210" t="n">
         <v>7.3</v>
       </c>
-      <c r="G210" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H210" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I210" t="n">
-        <v>6.96</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="211">
@@ -5512,28 +5542,28 @@
         <v>260</v>
       </c>
       <c r="B211" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C211" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="D211" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E211" t="n">
         <v>7.3</v>
       </c>
-      <c r="D211" t="n">
+      <c r="F211" t="n">
         <v>7.6</v>
       </c>
-      <c r="E211" t="n">
+      <c r="G211" t="n">
         <v>6.1</v>
       </c>
-      <c r="F211" t="n">
+      <c r="H211" t="n">
         <v>7.2</v>
       </c>
-      <c r="G211" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="H211" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I211" t="n">
-        <v>7</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="212">
@@ -5608,28 +5638,28 @@
         <v>267</v>
       </c>
       <c r="B215" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="C215" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="D215" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="E215" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="F215" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="G215" t="n">
         <v>7.8</v>
       </c>
-      <c r="G215" t="n">
+      <c r="H215" t="n">
         <v>6.2</v>
       </c>
-      <c r="H215" t="n">
-        <v>7.8</v>
-      </c>
       <c r="I215" t="n">
-        <v>6.97</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="216">
@@ -5637,28 +5667,28 @@
         <v>273</v>
       </c>
       <c r="B216" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="C216" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="D216" t="n">
         <v>6.5</v>
       </c>
       <c r="E216" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F216" t="n">
         <v>8.1</v>
       </c>
-      <c r="F216" t="n">
-        <v>6.3</v>
-      </c>
       <c r="G216" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="H216" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I216" t="n">
-        <v>6.67</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="217">
@@ -5770,28 +5800,28 @@
         <v>278</v>
       </c>
       <c r="B221" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C221" t="n">
         <v>7.6</v>
       </c>
-      <c r="C221" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D221" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E221" t="n">
         <v>7.9</v>
       </c>
-      <c r="E221" t="n">
+      <c r="F221" t="n">
         <v>7.4</v>
       </c>
-      <c r="F221" t="n">
-        <v>7</v>
-      </c>
       <c r="G221" t="n">
+        <v>7</v>
+      </c>
+      <c r="H221" t="n">
         <v>7.3</v>
       </c>
-      <c r="H221" t="n">
-        <v>7.2</v>
-      </c>
       <c r="I221" t="n">
-        <v>7.33</v>
+        <v>7.31</v>
       </c>
     </row>
     <row r="222">
@@ -5884,28 +5914,28 @@
         <v>282</v>
       </c>
       <c r="B225" t="n">
-        <v>7</v>
+        <v>5.8</v>
       </c>
       <c r="C225" t="n">
+        <v>7</v>
+      </c>
+      <c r="D225" t="n">
         <v>7.3</v>
       </c>
-      <c r="D225" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E225" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="F225" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G225" t="n">
         <v>7.6</v>
       </c>
-      <c r="G225" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H225" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="I225" t="n">
-        <v>6.96</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="226">
@@ -5967,28 +5997,28 @@
         <v>286</v>
       </c>
       <c r="B228" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="C228" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="D228" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="E228" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F228" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="F228" t="n">
+      <c r="G228" t="n">
         <v>7.2</v>
       </c>
-      <c r="G228" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H228" t="n">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
       <c r="I228" t="n">
-        <v>6.93</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="229">
@@ -6025,16 +6055,16 @@
         <v>288</v>
       </c>
       <c r="B230" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="C230" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="D230" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="E230" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="F230" t="n">
         <v>6.7</v>
@@ -6043,10 +6073,10 @@
         <v>6.7</v>
       </c>
       <c r="H230" t="n">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="I230" t="n">
-        <v>6.51</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="231">
@@ -6054,28 +6084,28 @@
         <v>289</v>
       </c>
       <c r="B231" t="n">
-        <v>7.1</v>
+        <v>6.3</v>
       </c>
       <c r="C231" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="D231" t="n">
+        <v>7</v>
+      </c>
+      <c r="E231" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="E231" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F231" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G231" t="n">
         <v>8.1</v>
       </c>
-      <c r="G231" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H231" t="n">
-        <v>7.6</v>
+        <v>6.5</v>
       </c>
       <c r="I231" t="n">
-        <v>7.34</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="232">
@@ -6083,28 +6113,28 @@
         <v>290</v>
       </c>
       <c r="B232" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="C232" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="D232" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="E232" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="F232" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G232" t="n">
         <v>7.2</v>
       </c>
-      <c r="G232" t="n">
+      <c r="H232" t="n">
         <v>7.5</v>
       </c>
-      <c r="H232" t="n">
-        <v>6.2</v>
-      </c>
       <c r="I232" t="n">
-        <v>6.81</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="233">
@@ -6112,28 +6142,28 @@
         <v>291</v>
       </c>
       <c r="B233" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C233" t="n">
         <v>7.4</v>
       </c>
-      <c r="C233" t="n">
-        <v>7</v>
-      </c>
       <c r="D233" t="n">
+        <v>7</v>
+      </c>
+      <c r="E233" t="n">
         <v>8.4</v>
       </c>
-      <c r="E233" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F233" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G233" t="n">
         <v>8</v>
       </c>
-      <c r="G233" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H233" t="n">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="I233" t="n">
-        <v>7.31</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="234">
@@ -6141,28 +6171,28 @@
         <v>292</v>
       </c>
       <c r="B234" t="n">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="C234" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D234" t="n">
         <v>7.4</v>
       </c>
-      <c r="D234" t="n">
+      <c r="E234" t="n">
         <v>7.6</v>
       </c>
-      <c r="E234" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F234" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="G234" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="H234" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="I234" t="n">
-        <v>6.87</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="235">
@@ -6220,28 +6250,28 @@
         <v>295</v>
       </c>
       <c r="B237" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="C237" t="n">
-        <v>6.3</v>
+        <v>7.1</v>
       </c>
       <c r="D237" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E237" t="n">
         <v>6.1</v>
       </c>
-      <c r="E237" t="n">
+      <c r="F237" t="n">
         <v>7.2</v>
       </c>
-      <c r="F237" t="n">
-        <v>6.3</v>
-      </c>
       <c r="G237" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="H237" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="I237" t="n">
-        <v>6.77</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="238">
@@ -6307,28 +6337,28 @@
         <v>299</v>
       </c>
       <c r="B240" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="C240" t="n">
         <v>7</v>
       </c>
       <c r="D240" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="E240" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="F240" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G240" t="n">
         <v>7.2</v>
       </c>
-      <c r="G240" t="n">
+      <c r="H240" t="n">
         <v>7.9</v>
       </c>
-      <c r="H240" t="n">
-        <v>7</v>
-      </c>
       <c r="I240" t="n">
-        <v>7.04</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="241">
@@ -6336,28 +6366,28 @@
         <v>300</v>
       </c>
       <c r="B241" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="C241" t="n">
         <v>8</v>
       </c>
-      <c r="C241" t="n">
+      <c r="D241" t="n">
         <v>7.4</v>
       </c>
-      <c r="D241" t="n">
+      <c r="E241" t="n">
         <v>7.3</v>
       </c>
-      <c r="E241" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F241" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="G241" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H241" t="n">
         <v>7.2</v>
       </c>
-      <c r="H241" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I241" t="n">
-        <v>7.19</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="242">
@@ -6365,20 +6395,22 @@
         <v>301</v>
       </c>
       <c r="B242" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="C242" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="D242" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="E242" t="inlineStr"/>
+        <v>6.6</v>
+      </c>
+      <c r="E242" t="n">
+        <v>6.4</v>
+      </c>
       <c r="F242" t="inlineStr"/>
       <c r="G242" t="inlineStr"/>
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="243">
@@ -6386,28 +6418,28 @@
         <v>302</v>
       </c>
       <c r="B243" t="n">
-        <v>6.3</v>
+        <v>5.5</v>
       </c>
       <c r="C243" t="n">
-        <v>5.4</v>
+        <v>6.3</v>
       </c>
       <c r="D243" t="n">
         <v>5.4</v>
       </c>
       <c r="E243" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="F243" t="n">
         <v>5.8</v>
       </c>
-      <c r="F243" t="n">
+      <c r="G243" t="n">
         <v>7.9</v>
       </c>
-      <c r="G243" t="n">
+      <c r="H243" t="n">
         <v>7.5</v>
       </c>
-      <c r="H243" t="n">
-        <v>4.8</v>
-      </c>
       <c r="I243" t="n">
-        <v>6.16</v>
+        <v>6.26</v>
       </c>
     </row>
     <row r="244">
@@ -6442,28 +6474,28 @@
         <v>305</v>
       </c>
       <c r="B245" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="C245" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="D245" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="E245" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="F245" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G245" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="G245" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H245" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="I245" t="n">
-        <v>6.84</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="246">
@@ -6471,28 +6503,28 @@
         <v>306</v>
       </c>
       <c r="B246" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C246" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="D246" t="n">
         <v>6.9</v>
       </c>
       <c r="E246" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="F246" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="G246" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="H246" t="n">
-        <v>7.9</v>
+        <v>6.5</v>
       </c>
       <c r="I246" t="n">
-        <v>6.8</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="247">
@@ -6503,25 +6535,25 @@
         <v>6.7</v>
       </c>
       <c r="C247" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D247" t="n">
         <v>5.6</v>
       </c>
-      <c r="D247" t="n">
+      <c r="E247" t="n">
         <v>7.2</v>
       </c>
-      <c r="E247" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F247" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G247" t="n">
         <v>7.2</v>
       </c>
-      <c r="G247" t="n">
-        <v>7</v>
-      </c>
       <c r="H247" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I247" t="n">
-        <v>6.73</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="248">
@@ -6529,28 +6561,28 @@
         <v>308</v>
       </c>
       <c r="B248" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="C248" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D248" t="n">
         <v>5.9</v>
       </c>
-      <c r="D248" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E248" t="n">
         <v>6.5</v>
       </c>
       <c r="F248" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G248" t="n">
         <v>7.4</v>
       </c>
-      <c r="G248" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H248" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I248" t="n">
-        <v>6.61</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="249">
@@ -6558,26 +6590,28 @@
         <v>309</v>
       </c>
       <c r="B249" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="C249" t="n">
         <v>7.1</v>
       </c>
       <c r="D249" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="E249" t="n">
+        <v>7</v>
+      </c>
+      <c r="F249" t="n">
         <v>7.3</v>
       </c>
-      <c r="F249" t="n">
+      <c r="G249" t="n">
         <v>7.7</v>
       </c>
-      <c r="G249" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="H249" t="inlineStr"/>
+      <c r="H249" t="n">
+        <v>6.8</v>
+      </c>
       <c r="I249" t="n">
-        <v>7.17</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="250">
@@ -6614,22 +6648,24 @@
         <v>311</v>
       </c>
       <c r="B251" t="n">
-        <v>6.9</v>
+        <v>7.9</v>
       </c>
       <c r="C251" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="D251" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="E251" t="n">
-        <v>7</v>
-      </c>
-      <c r="F251" t="inlineStr"/>
+        <v>6.9</v>
+      </c>
+      <c r="F251" t="n">
+        <v>7</v>
+      </c>
       <c r="G251" t="inlineStr"/>
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="n">
-        <v>6.88</v>
+        <v>7.08</v>
       </c>
     </row>
     <row r="252">
@@ -6637,28 +6673,28 @@
         <v>312</v>
       </c>
       <c r="B252" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="C252" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D252" t="n">
         <v>7.2</v>
       </c>
-      <c r="D252" t="n">
+      <c r="E252" t="n">
         <v>7.9</v>
       </c>
-      <c r="E252" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F252" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="G252" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="H252" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="I252" t="n">
-        <v>6.91</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="253">
@@ -6666,28 +6702,28 @@
         <v>313</v>
       </c>
       <c r="B253" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="C253" t="n">
+        <v>7</v>
+      </c>
+      <c r="D253" t="n">
         <v>6.2</v>
       </c>
-      <c r="D253" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E253" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F253" t="n">
         <v>9.6</v>
       </c>
-      <c r="F253" t="n">
-        <v>6.3</v>
-      </c>
       <c r="G253" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="H253" t="n">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="I253" t="n">
-        <v>7.09</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="254">
@@ -6724,28 +6760,28 @@
         <v>315</v>
       </c>
       <c r="B255" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C255" t="n">
         <v>7.7</v>
       </c>
-      <c r="C255" t="n">
+      <c r="D255" t="n">
         <v>8.1</v>
       </c>
-      <c r="D255" t="n">
+      <c r="E255" t="n">
         <v>6.1</v>
       </c>
-      <c r="E255" t="n">
+      <c r="F255" t="n">
         <v>7.2</v>
       </c>
-      <c r="F255" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G255" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H255" t="n">
         <v>7.3</v>
       </c>
-      <c r="H255" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I255" t="n">
-        <v>7.11</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="256">
@@ -6759,22 +6795,22 @@
         <v>6.5</v>
       </c>
       <c r="D256" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="E256" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="F256" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="G256" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="H256" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="I256" t="n">
-        <v>6.6</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="257">
@@ -6785,25 +6821,25 @@
         <v>6.2</v>
       </c>
       <c r="C257" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="D257" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="E257" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F257" t="n">
         <v>6.2</v>
       </c>
-      <c r="F257" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G257" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="H257" t="n">
-        <v>6.1</v>
+        <v>6.9</v>
       </c>
       <c r="I257" t="n">
-        <v>6.39</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="258">
@@ -6811,25 +6847,25 @@
         <v>318</v>
       </c>
       <c r="B258" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C258" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D258" t="n">
         <v>6</v>
       </c>
-      <c r="C258" t="n">
+      <c r="E258" t="n">
         <v>7.3</v>
       </c>
-      <c r="D258" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="E258" t="n">
-        <v>7.1</v>
-      </c>
       <c r="F258" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="G258" t="n">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="H258" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="I258" t="n">
         <v>6.67</v>
@@ -6886,28 +6922,28 @@
         <v>321</v>
       </c>
       <c r="B261" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="C261" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="D261" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="E261" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="F261" t="n">
+        <v>7</v>
+      </c>
+      <c r="G261" t="n">
         <v>7.4</v>
       </c>
-      <c r="G261" t="n">
-        <v>6.8</v>
-      </c>
       <c r="H261" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="I261" t="n">
-        <v>7.01</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="262">
@@ -6915,24 +6951,26 @@
         <v>322</v>
       </c>
       <c r="B262" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="C262" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="D262" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E262" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="E262" t="n">
+      <c r="F262" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="F262" t="n">
+      <c r="G262" t="n">
         <v>7.5</v>
       </c>
-      <c r="G262" t="inlineStr"/>
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="n">
-        <v>7.74</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="263">
@@ -6972,25 +7010,25 @@
         <v>6.3</v>
       </c>
       <c r="C264" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="D264" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E264" t="n">
         <v>7.3</v>
       </c>
-      <c r="E264" t="n">
+      <c r="F264" t="n">
         <v>9</v>
       </c>
-      <c r="F264" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G264" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="H264" t="n">
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="I264" t="n">
-        <v>7.23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="265">
@@ -7136,26 +7174,28 @@
         <v>333</v>
       </c>
       <c r="B271" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C271" t="n">
         <v>8</v>
       </c>
-      <c r="C271" t="n">
+      <c r="D271" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="D271" t="n">
+      <c r="E271" t="n">
         <v>6.1</v>
       </c>
-      <c r="E271" t="n">
+      <c r="F271" t="n">
         <v>7.8</v>
       </c>
-      <c r="F271" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G271" t="n">
-        <v>7</v>
-      </c>
-      <c r="H271" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="H271" t="n">
+        <v>7</v>
+      </c>
       <c r="I271" t="n">
-        <v>7.35</v>
+        <v>7.26</v>
       </c>
     </row>
     <row r="272">
@@ -7303,28 +7343,28 @@
         <v>341</v>
       </c>
       <c r="B278" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="C278" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="D278" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="E278" t="n">
         <v>7.5</v>
       </c>
       <c r="F278" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="G278" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="H278" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="I278" t="n">
-        <v>6.99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="279">
@@ -7332,28 +7372,28 @@
         <v>342</v>
       </c>
       <c r="B279" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C279" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="C279" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D279" t="n">
         <v>6.7</v>
       </c>
       <c r="E279" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F279" t="n">
         <v>7.7</v>
       </c>
-      <c r="F279" t="n">
+      <c r="G279" t="n">
         <v>7.8</v>
       </c>
-      <c r="G279" t="n">
-        <v>6.4</v>
-      </c>
       <c r="H279" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="I279" t="n">
-        <v>7.3</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="280">
@@ -7361,13 +7401,13 @@
         <v>343</v>
       </c>
       <c r="B280" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C280" t="n">
         <v>6.1</v>
       </c>
-      <c r="C280" t="n">
-        <v>6.3</v>
-      </c>
       <c r="D280" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="E280" t="n">
         <v>6.5</v>
@@ -7375,10 +7415,12 @@
       <c r="F280" t="n">
         <v>6.5</v>
       </c>
-      <c r="G280" t="inlineStr"/>
+      <c r="G280" t="n">
+        <v>6.5</v>
+      </c>
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="n">
-        <v>6.38</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="281">
@@ -7386,28 +7428,28 @@
         <v>344</v>
       </c>
       <c r="B281" t="n">
-        <v>6.7</v>
+        <v>8.4</v>
       </c>
       <c r="C281" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D281" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E281" t="n">
         <v>7.2</v>
       </c>
-      <c r="D281" t="n">
+      <c r="F281" t="n">
         <v>8</v>
       </c>
-      <c r="E281" t="n">
+      <c r="G281" t="n">
         <v>10</v>
       </c>
-      <c r="F281" t="n">
+      <c r="H281" t="n">
         <v>7.6</v>
       </c>
-      <c r="G281" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="H281" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="I281" t="n">
-        <v>7.86</v>
+        <v>7.79</v>
       </c>
     </row>
     <row r="282">
@@ -7444,28 +7486,28 @@
         <v>346</v>
       </c>
       <c r="B283" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C283" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D283" t="n">
         <v>7.2</v>
       </c>
-      <c r="C283" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="D283" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E283" t="n">
         <v>6.5</v>
       </c>
       <c r="F283" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G283" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H283" t="n">
         <v>6.2</v>
       </c>
-      <c r="G283" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="H283" t="n">
-        <v>7.5</v>
-      </c>
       <c r="I283" t="n">
-        <v>6.86</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="284">
@@ -7502,28 +7544,28 @@
         <v>348</v>
       </c>
       <c r="B285" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="C285" t="n">
         <v>7.2</v>
       </c>
-      <c r="C285" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D285" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="E285" t="n">
+        <v>7</v>
+      </c>
+      <c r="F285" t="n">
         <v>8.1</v>
       </c>
-      <c r="F285" t="n">
+      <c r="G285" t="n">
         <v>7.2</v>
       </c>
-      <c r="G285" t="n">
-        <v>6.4</v>
-      </c>
       <c r="H285" t="n">
-        <v>7.9</v>
+        <v>6.4</v>
       </c>
       <c r="I285" t="n">
-        <v>7.21</v>
+        <v>7.29</v>
       </c>
     </row>
     <row r="286">
@@ -7560,7 +7602,7 @@
         <v>350</v>
       </c>
       <c r="B287" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="C287" t="n">
         <v>6.8</v>
@@ -7572,16 +7614,16 @@
         <v>6.8</v>
       </c>
       <c r="F287" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="G287" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H287" t="n">
         <v>6.2</v>
       </c>
-      <c r="H287" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I287" t="n">
-        <v>6.67</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="288">
@@ -7589,26 +7631,28 @@
         <v>351</v>
       </c>
       <c r="B288" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="C288" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="D288" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E288" t="n">
         <v>6.2</v>
       </c>
-      <c r="E288" t="n">
-        <v>6.4</v>
-      </c>
       <c r="F288" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G288" t="n">
         <v>6.2</v>
       </c>
-      <c r="G288" t="n">
+      <c r="H288" t="n">
         <v>5.7</v>
       </c>
-      <c r="H288" t="inlineStr"/>
       <c r="I288" t="n">
-        <v>6.32</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="289">
@@ -7648,18 +7692,20 @@
         <v>6.5</v>
       </c>
       <c r="C290" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="D290" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E290" t="n">
         <v>5.9</v>
       </c>
-      <c r="E290" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F290" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="G290" t="inlineStr"/>
+        <v>6.8</v>
+      </c>
+      <c r="G290" t="n">
+        <v>6.5</v>
+      </c>
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="n">
         <v>6.5</v>
@@ -7768,28 +7814,28 @@
         <v>358</v>
       </c>
       <c r="B295" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C295" t="n">
         <v>5.8</v>
       </c>
-      <c r="C295" t="n">
+      <c r="D295" t="n">
         <v>7.3</v>
       </c>
-      <c r="D295" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E295" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F295" t="n">
         <v>6.1</v>
       </c>
-      <c r="F295" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G295" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="H295" t="n">
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="I295" t="n">
-        <v>6.84</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="296">
@@ -7826,28 +7872,28 @@
         <v>360</v>
       </c>
       <c r="B297" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="C297" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="D297" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="E297" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="F297" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="G297" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="H297" t="n">
-        <v>5.9</v>
+        <v>6.9</v>
       </c>
       <c r="I297" t="n">
-        <v>6.76</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="298">
@@ -7884,28 +7930,28 @@
         <v>364</v>
       </c>
       <c r="B299" t="n">
+        <v>7</v>
+      </c>
+      <c r="C299" t="n">
         <v>7.9</v>
       </c>
-      <c r="C299" t="n">
-        <v>7.1</v>
-      </c>
       <c r="D299" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="E299" t="n">
         <v>7.6</v>
       </c>
-      <c r="E299" t="n">
-        <v>6.4</v>
-      </c>
       <c r="F299" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G299" t="n">
         <v>7.5</v>
       </c>
-      <c r="G299" t="n">
-        <v>7</v>
-      </c>
       <c r="H299" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="I299" t="n">
-        <v>7.26</v>
+        <v>7.21</v>
       </c>
     </row>
     <row r="300">
@@ -7963,28 +8009,28 @@
         <v>367</v>
       </c>
       <c r="B302" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C302" t="n">
         <v>8.1</v>
       </c>
-      <c r="C302" t="n">
+      <c r="D302" t="n">
         <v>6.2</v>
       </c>
-      <c r="D302" t="n">
-        <v>6.3</v>
-      </c>
       <c r="E302" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="F302" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="G302" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H302" t="n">
         <v>7.4</v>
       </c>
-      <c r="H302" t="n">
-        <v>7.2</v>
-      </c>
       <c r="I302" t="n">
-        <v>6.84</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="303">
@@ -8021,28 +8067,28 @@
         <v>369</v>
       </c>
       <c r="B304" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="C304" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D304" t="n">
         <v>7.3</v>
       </c>
-      <c r="D304" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E304" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="F304" t="n">
+        <v>7</v>
+      </c>
+      <c r="G304" t="n">
         <v>6</v>
       </c>
-      <c r="G304" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H304" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="I304" t="n">
-        <v>6.71</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="305">
@@ -8050,26 +8096,28 @@
         <v>370</v>
       </c>
       <c r="B305" t="n">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
       <c r="C305" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="D305" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="E305" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F305" t="n">
         <v>5.9</v>
       </c>
-      <c r="F305" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G305" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H305" t="n">
         <v>7.3</v>
       </c>
-      <c r="H305" t="inlineStr"/>
       <c r="I305" t="n">
-        <v>6.83</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="306">
@@ -8191,25 +8239,25 @@
         <v>375</v>
       </c>
       <c r="B310" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C310" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D310" t="n">
         <v>7.3</v>
       </c>
-      <c r="D310" t="n">
+      <c r="E310" t="n">
         <v>7.5</v>
       </c>
-      <c r="E310" t="n">
+      <c r="F310" t="n">
         <v>7.6</v>
       </c>
-      <c r="F310" t="n">
-        <v>7.1</v>
-      </c>
       <c r="G310" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="H310" t="n">
         <v>7.5</v>
-      </c>
-      <c r="H310" t="n">
-        <v>6.7</v>
       </c>
       <c r="I310" t="n">
         <v>7.19</v>
@@ -8220,28 +8268,28 @@
         <v>376</v>
       </c>
       <c r="B311" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="C311" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="D311" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E311" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F311" t="n">
         <v>6.1</v>
       </c>
-      <c r="E311" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="F311" t="n">
-        <v>6.4</v>
-      </c>
       <c r="G311" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="H311" t="n">
-        <v>8.199999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="I311" t="n">
-        <v>6.8</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="312">
@@ -8278,28 +8326,28 @@
         <v>378</v>
       </c>
       <c r="B313" t="n">
+        <v>8</v>
+      </c>
+      <c r="C313" t="n">
         <v>7.4</v>
       </c>
-      <c r="C313" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D313" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="E313" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="F313" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G313" t="n">
         <v>7.4</v>
       </c>
-      <c r="G313" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H313" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="I313" t="n">
-        <v>6.84</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="314">
@@ -8310,12 +8358,14 @@
         <v>6.6</v>
       </c>
       <c r="C314" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="D314" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="E314" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="E314" t="n">
+        <v>6.6</v>
+      </c>
       <c r="F314" t="inlineStr"/>
       <c r="G314" t="inlineStr"/>
       <c r="H314" t="inlineStr"/>
@@ -8349,28 +8399,28 @@
         <v>381</v>
       </c>
       <c r="B316" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="C316" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="D316" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="E316" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="F316" t="n">
         <v>6.1</v>
       </c>
       <c r="G316" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H316" t="n">
         <v>7.8</v>
       </c>
-      <c r="H316" t="n">
-        <v>7.9</v>
-      </c>
       <c r="I316" t="n">
-        <v>6.8</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="317">
@@ -8378,7 +8428,7 @@
         <v>382</v>
       </c>
       <c r="B317" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="C317" t="n">
         <v>6.3</v>
@@ -8387,19 +8437,19 @@
         <v>6.6</v>
       </c>
       <c r="E317" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="F317" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="G317" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="H317" t="n">
-        <v>7.3</v>
+        <v>6.4</v>
       </c>
       <c r="I317" t="n">
-        <v>6.76</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="318">
@@ -8407,28 +8457,28 @@
         <v>383</v>
       </c>
       <c r="B318" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C318" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D318" t="n">
         <v>7.9</v>
       </c>
-      <c r="C318" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="D318" t="n">
+      <c r="E318" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F318" t="n">
         <v>7.3</v>
       </c>
-      <c r="E318" t="n">
-        <v>7</v>
-      </c>
-      <c r="F318" t="n">
+      <c r="G318" t="n">
+        <v>7</v>
+      </c>
+      <c r="H318" t="n">
         <v>8.4</v>
       </c>
-      <c r="G318" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="H318" t="n">
-        <v>7.1</v>
-      </c>
       <c r="I318" t="n">
-        <v>7.44</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="319">
@@ -8465,28 +8515,28 @@
         <v>385</v>
       </c>
       <c r="B320" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="C320" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="D320" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="E320" t="n">
+        <v>7</v>
+      </c>
+      <c r="F320" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G320" t="n">
         <v>7.8</v>
       </c>
-      <c r="F320" t="n">
-        <v>7</v>
-      </c>
-      <c r="G320" t="n">
-        <v>7.9</v>
-      </c>
       <c r="H320" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="I320" t="n">
-        <v>7.24</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="321">
@@ -8513,28 +8563,28 @@
         <v>387</v>
       </c>
       <c r="B322" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="C322" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D322" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E322" t="n">
         <v>8.9</v>
       </c>
-      <c r="D322" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="E322" t="n">
+      <c r="F322" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G322" t="n">
         <v>7.2</v>
       </c>
-      <c r="F322" t="n">
+      <c r="H322" t="n">
         <v>7.3</v>
       </c>
-      <c r="G322" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="H322" t="n">
-        <v>8.6</v>
-      </c>
       <c r="I322" t="n">
-        <v>7.66</v>
+        <v>7.26</v>
       </c>
     </row>
     <row r="323">
@@ -8542,28 +8592,28 @@
         <v>388</v>
       </c>
       <c r="B323" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="C323" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="D323" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E323" t="n">
         <v>7.6</v>
       </c>
-      <c r="E323" t="n">
-        <v>7.1</v>
-      </c>
       <c r="F323" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="G323" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="H323" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I323" t="n">
-        <v>6.93</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="324">
@@ -8613,18 +8663,20 @@
         <v>391</v>
       </c>
       <c r="B326" t="n">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="C326" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="D326" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="D326" t="n">
+        <v>6.6</v>
+      </c>
       <c r="E326" t="inlineStr"/>
       <c r="F326" t="inlineStr"/>
       <c r="G326" t="inlineStr"/>
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="n">
-        <v>6.55</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="327">
@@ -8674,28 +8726,28 @@
         <v>394</v>
       </c>
       <c r="B329" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C329" t="n">
+        <v>7</v>
+      </c>
+      <c r="D329" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="C329" t="n">
+      <c r="E329" t="n">
         <v>7.4</v>
       </c>
-      <c r="D329" t="n">
+      <c r="F329" t="n">
         <v>7.7</v>
       </c>
-      <c r="E329" t="n">
+      <c r="G329" t="n">
         <v>8.1</v>
       </c>
-      <c r="F329" t="n">
+      <c r="H329" t="n">
         <v>7.6</v>
       </c>
-      <c r="G329" t="n">
-        <v>7</v>
-      </c>
-      <c r="H329" t="n">
-        <v>7</v>
-      </c>
       <c r="I329" t="n">
-        <v>7.57</v>
+        <v>7.67</v>
       </c>
     </row>
     <row r="330">
@@ -8745,28 +8797,28 @@
         <v>397</v>
       </c>
       <c r="B332" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="C332" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="D332" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="E332" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F332" t="n">
         <v>7.2</v>
       </c>
-      <c r="F332" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G332" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H332" t="n">
         <v>7.6</v>
       </c>
-      <c r="H332" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="I332" t="n">
-        <v>7.16</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="333">
@@ -8774,28 +8826,28 @@
         <v>398</v>
       </c>
       <c r="B333" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="C333" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D333" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E333" t="n">
         <v>6.2</v>
       </c>
-      <c r="D333" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="E333" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F333" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="G333" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="H333" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="I333" t="n">
-        <v>6.61</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="334">
@@ -8916,28 +8968,28 @@
         <v>404</v>
       </c>
       <c r="B339" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C339" t="n">
         <v>7.3</v>
       </c>
-      <c r="C339" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D339" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E339" t="n">
         <v>7.2</v>
       </c>
-      <c r="E339" t="n">
-        <v>6.3</v>
-      </c>
       <c r="F339" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="G339" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="H339" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="I339" t="n">
-        <v>6.86</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="340">
@@ -8945,7 +8997,7 @@
         <v>405</v>
       </c>
       <c r="B340" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="C340" t="n">
         <v>7.4</v>
@@ -8964,7 +9016,7 @@
       </c>
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="n">
-        <v>7.02</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="341">
@@ -9001,28 +9053,28 @@
         <v>407</v>
       </c>
       <c r="B342" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="C342" t="n">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="D342" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="E342" t="n">
         <v>6.4</v>
       </c>
       <c r="F342" t="n">
+        <v>7</v>
+      </c>
+      <c r="G342" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H342" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="G342" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H342" t="n">
-        <v>7</v>
-      </c>
       <c r="I342" t="n">
-        <v>6.96</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="343">
@@ -9030,28 +9082,28 @@
         <v>408</v>
       </c>
       <c r="B343" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="C343" t="n">
+        <v>7</v>
+      </c>
+      <c r="D343" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E343" t="n">
         <v>8.6</v>
       </c>
-      <c r="D343" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="E343" t="n">
+      <c r="F343" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G343" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="F343" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="G343" t="n">
-        <v>7.3</v>
-      </c>
       <c r="H343" t="n">
-        <v>8.699999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="I343" t="n">
-        <v>7.69</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="344">
@@ -9059,28 +9111,28 @@
         <v>409</v>
       </c>
       <c r="B344" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C344" t="n">
         <v>7.3</v>
       </c>
-      <c r="C344" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D344" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="E344" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="F344" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G344" t="n">
         <v>9</v>
       </c>
-      <c r="G344" t="n">
+      <c r="H344" t="n">
         <v>6</v>
       </c>
-      <c r="H344" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I344" t="n">
-        <v>6.99</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="345">
@@ -9146,28 +9198,28 @@
         <v>412</v>
       </c>
       <c r="B347" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C347" t="n">
         <v>7.7</v>
       </c>
-      <c r="C347" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D347" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E347" t="n">
         <v>7.6</v>
       </c>
-      <c r="E347" t="n">
-        <v>6.4</v>
-      </c>
       <c r="F347" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G347" t="n">
         <v>7.5</v>
       </c>
-      <c r="G347" t="n">
+      <c r="H347" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="H347" t="n">
-        <v>7.6</v>
-      </c>
       <c r="I347" t="n">
-        <v>7.36</v>
+        <v>7.21</v>
       </c>
     </row>
     <row r="348">
@@ -9200,28 +9252,28 @@
         <v>414</v>
       </c>
       <c r="B349" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="C349" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D349" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="E349" t="n">
         <v>6.1</v>
       </c>
-      <c r="D349" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="E349" t="n">
+      <c r="F349" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G349" t="n">
         <v>9.4</v>
       </c>
-      <c r="F349" t="n">
+      <c r="H349" t="n">
         <v>7.8</v>
       </c>
-      <c r="G349" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="H349" t="n">
-        <v>7.2</v>
-      </c>
       <c r="I349" t="n">
-        <v>7.3</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="350">
@@ -9229,28 +9281,28 @@
         <v>415</v>
       </c>
       <c r="B350" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="C350" t="n">
         <v>7.5</v>
       </c>
-      <c r="C350" t="n">
+      <c r="D350" t="n">
         <v>7.4</v>
       </c>
-      <c r="D350" t="n">
-        <v>7</v>
-      </c>
       <c r="E350" t="n">
+        <v>7</v>
+      </c>
+      <c r="F350" t="n">
         <v>8.5</v>
       </c>
-      <c r="F350" t="n">
-        <v>6.4</v>
-      </c>
       <c r="G350" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="H350" t="n">
-        <v>8.6</v>
+        <v>7.1</v>
       </c>
       <c r="I350" t="n">
-        <v>7.5</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="351">
@@ -9258,28 +9310,28 @@
         <v>416</v>
       </c>
       <c r="B351" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C351" t="n">
         <v>7.2</v>
       </c>
-      <c r="C351" t="n">
+      <c r="D351" t="n">
         <v>7.5</v>
       </c>
-      <c r="D351" t="n">
-        <v>6.3</v>
-      </c>
       <c r="E351" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F351" t="n">
         <v>7.2</v>
       </c>
-      <c r="F351" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G351" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H351" t="n">
         <v>7.3</v>
       </c>
-      <c r="H351" t="n">
-        <v>5.9</v>
-      </c>
       <c r="I351" t="n">
-        <v>6.89</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="352">
@@ -9287,25 +9339,25 @@
         <v>417</v>
       </c>
       <c r="B352" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C352" t="n">
         <v>6.2</v>
       </c>
-      <c r="C352" t="n">
+      <c r="D352" t="n">
         <v>8.9</v>
       </c>
-      <c r="D352" t="n">
+      <c r="E352" t="n">
         <v>6</v>
       </c>
-      <c r="E352" t="n">
+      <c r="F352" t="n">
         <v>8</v>
       </c>
-      <c r="F352" t="n">
-        <v>6.3</v>
-      </c>
       <c r="G352" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H352" t="n">
         <v>9.9</v>
-      </c>
-      <c r="H352" t="n">
-        <v>6.6</v>
       </c>
       <c r="I352" t="n">
         <v>7.41</v>
@@ -9316,28 +9368,28 @@
         <v>418</v>
       </c>
       <c r="B353" t="n">
-        <v>6.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C353" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="D353" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="E353" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="F353" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="G353" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="H353" t="n">
-        <v>7.9</v>
+        <v>6.6</v>
       </c>
       <c r="I353" t="n">
-        <v>6.84</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="354">
@@ -9374,28 +9426,28 @@
         <v>420</v>
       </c>
       <c r="B355" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C355" t="n">
         <v>7.2</v>
       </c>
-      <c r="C355" t="n">
+      <c r="D355" t="n">
         <v>7.4</v>
       </c>
-      <c r="D355" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E355" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="F355" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G355" t="n">
         <v>7.6</v>
       </c>
-      <c r="G355" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H355" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="I355" t="n">
-        <v>7.04</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="356">
@@ -9403,28 +9455,28 @@
         <v>421</v>
       </c>
       <c r="B356" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="C356" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="D356" t="n">
+        <v>7</v>
+      </c>
+      <c r="E356" t="n">
         <v>8.5</v>
       </c>
-      <c r="E356" t="n">
-        <v>7</v>
-      </c>
       <c r="F356" t="n">
+        <v>7</v>
+      </c>
+      <c r="G356" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="G356" t="n">
-        <v>7</v>
-      </c>
       <c r="H356" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="I356" t="n">
-        <v>7.43</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="357">
@@ -9457,28 +9509,28 @@
         <v>423</v>
       </c>
       <c r="B358" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C358" t="n">
         <v>6.1</v>
       </c>
-      <c r="C358" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D358" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E358" t="n">
         <v>6.2</v>
       </c>
-      <c r="E358" t="n">
+      <c r="F358" t="n">
         <v>7.7</v>
       </c>
-      <c r="F358" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G358" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="H358" t="n">
         <v>7.3</v>
       </c>
       <c r="I358" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="359">
@@ -9545,28 +9597,28 @@
         <v>427</v>
       </c>
       <c r="B362" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="C362" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="D362" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="E362" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F362" t="n">
         <v>7.4</v>
       </c>
-      <c r="F362" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G362" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="H362" t="n">
-        <v>6.1</v>
+        <v>7</v>
       </c>
       <c r="I362" t="n">
-        <v>6.83</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="363">
@@ -9603,28 +9655,28 @@
         <v>429</v>
       </c>
       <c r="B364" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="C364" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D364" t="n">
         <v>7.2</v>
       </c>
-      <c r="D364" t="n">
+      <c r="E364" t="n">
         <v>7.4</v>
       </c>
-      <c r="E364" t="n">
+      <c r="F364" t="n">
         <v>7.9</v>
       </c>
-      <c r="F364" t="n">
+      <c r="G364" t="n">
         <v>8</v>
       </c>
-      <c r="G364" t="n">
+      <c r="H364" t="n">
         <v>7.2</v>
       </c>
-      <c r="H364" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I364" t="n">
-        <v>7.23</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="365">
@@ -9655,28 +9707,28 @@
         <v>431</v>
       </c>
       <c r="B366" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="C366" t="n">
-        <v>6.5</v>
+        <v>7.8</v>
       </c>
       <c r="D366" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E366" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F366" t="n">
         <v>7.2</v>
       </c>
-      <c r="E366" t="n">
+      <c r="G366" t="n">
         <v>7.8</v>
       </c>
-      <c r="F366" t="n">
+      <c r="H366" t="n">
         <v>7.7</v>
       </c>
-      <c r="G366" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="H366" t="n">
-        <v>7.2</v>
-      </c>
       <c r="I366" t="n">
-        <v>7.26</v>
+        <v>7.21</v>
       </c>
     </row>
     <row r="367">
@@ -9684,28 +9736,28 @@
         <v>432</v>
       </c>
       <c r="B367" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C367" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D367" t="n">
         <v>7.9</v>
       </c>
-      <c r="C367" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="D367" t="n">
+      <c r="E367" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="F367" t="n">
         <v>7.2</v>
       </c>
-      <c r="E367" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="F367" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G367" t="n">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="H367" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="I367" t="n">
-        <v>7.14</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="368">
@@ -9771,28 +9823,28 @@
         <v>435</v>
       </c>
       <c r="B370" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="C370" t="n">
-        <v>6.7</v>
+        <v>9.4</v>
       </c>
       <c r="D370" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E370" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F370" t="n">
         <v>7.4</v>
       </c>
-      <c r="E370" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="F370" t="n">
+      <c r="G370" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="H370" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="G370" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="H370" t="n">
-        <v>7.7</v>
-      </c>
       <c r="I370" t="n">
-        <v>7.27</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="371">
@@ -9819,16 +9871,16 @@
         <v>437</v>
       </c>
       <c r="B372" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C372" t="n">
         <v>7.8</v>
       </c>
-      <c r="C372" t="n">
+      <c r="D372" t="n">
         <v>6.2</v>
       </c>
-      <c r="D372" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E372" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="F372" t="n">
         <v>7.3</v>
@@ -9837,10 +9889,10 @@
         <v>7.3</v>
       </c>
       <c r="H372" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="I372" t="n">
-        <v>7.03</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="373">
@@ -9873,28 +9925,28 @@
         <v>439</v>
       </c>
       <c r="B374" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="C374" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="D374" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="E374" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F374" t="n">
         <v>7.3</v>
       </c>
-      <c r="F374" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G374" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H374" t="n">
         <v>8</v>
       </c>
-      <c r="H374" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I374" t="n">
-        <v>6.97</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="375">
@@ -9960,28 +10012,28 @@
         <v>442</v>
       </c>
       <c r="B377" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C377" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D377" t="n">
         <v>7.5</v>
       </c>
-      <c r="C377" t="n">
+      <c r="E377" t="n">
         <v>8.1</v>
       </c>
-      <c r="D377" t="n">
-        <v>7</v>
-      </c>
-      <c r="E377" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F377" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="G377" t="n">
-        <v>7.4</v>
+        <v>6.7</v>
       </c>
       <c r="H377" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="I377" t="n">
-        <v>7.16</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="378">
@@ -9989,28 +10041,28 @@
         <v>443</v>
       </c>
       <c r="B378" t="n">
+        <v>7</v>
+      </c>
+      <c r="C378" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D378" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E378" t="n">
         <v>7.6</v>
       </c>
-      <c r="C378" t="n">
+      <c r="F378" t="n">
         <v>7.2</v>
       </c>
-      <c r="D378" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="E378" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="F378" t="n">
-        <v>7.3</v>
-      </c>
       <c r="G378" t="n">
-        <v>8.199999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="H378" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="I378" t="n">
-        <v>7.27</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="379">
@@ -10018,28 +10070,28 @@
         <v>444</v>
       </c>
       <c r="B379" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="C379" t="n">
         <v>7.8</v>
       </c>
-      <c r="C379" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D379" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E379" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="E379" t="n">
+      <c r="F379" t="n">
         <v>7.5</v>
       </c>
-      <c r="F379" t="n">
-        <v>7</v>
-      </c>
       <c r="G379" t="n">
+        <v>7</v>
+      </c>
+      <c r="H379" t="n">
         <v>8</v>
       </c>
-      <c r="H379" t="n">
-        <v>7.2</v>
-      </c>
       <c r="I379" t="n">
-        <v>7.63</v>
+        <v>7.76</v>
       </c>
     </row>
     <row r="380">
@@ -10047,28 +10099,28 @@
         <v>445</v>
       </c>
       <c r="B380" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="C380" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="D380" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="E380" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="F380" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="G380" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H380" t="n">
         <v>7.5</v>
       </c>
-      <c r="H380" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I380" t="n">
-        <v>6.89</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="381">
@@ -10194,28 +10246,28 @@
         <v>452</v>
       </c>
       <c r="B387" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="C387" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="D387" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="E387" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F387" t="n">
         <v>6.2</v>
       </c>
-      <c r="F387" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G387" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="H387" t="n">
         <v>6.8</v>
       </c>
       <c r="I387" t="n">
-        <v>6.64</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="388">
@@ -10223,28 +10275,28 @@
         <v>453</v>
       </c>
       <c r="B388" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="C388" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D388" t="n">
         <v>7.4</v>
       </c>
-      <c r="D388" t="n">
+      <c r="E388" t="n">
         <v>6.1</v>
       </c>
-      <c r="E388" t="n">
+      <c r="F388" t="n">
         <v>6.2</v>
       </c>
-      <c r="F388" t="n">
-        <v>6.3</v>
-      </c>
       <c r="G388" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H388" t="n">
         <v>5.9</v>
       </c>
-      <c r="H388" t="n">
-        <v>6.2</v>
-      </c>
       <c r="I388" t="n">
-        <v>6.34</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="389">
@@ -10252,28 +10304,28 @@
         <v>454</v>
       </c>
       <c r="B389" t="n">
+        <v>7</v>
+      </c>
+      <c r="C389" t="n">
         <v>7.5</v>
-      </c>
-      <c r="C389" t="n">
-        <v>7.3</v>
       </c>
       <c r="D389" t="n">
         <v>7.3</v>
       </c>
       <c r="E389" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F389" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="F389" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G389" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="H389" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="I389" t="n">
-        <v>7.43</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="390">
@@ -10281,28 +10333,28 @@
         <v>455</v>
       </c>
       <c r="B390" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C390" t="n">
         <v>8.1</v>
       </c>
-      <c r="C390" t="n">
+      <c r="D390" t="n">
         <v>7.7</v>
       </c>
-      <c r="D390" t="n">
+      <c r="E390" t="n">
         <v>7.9</v>
       </c>
-      <c r="E390" t="n">
+      <c r="F390" t="n">
         <v>8.1</v>
       </c>
-      <c r="F390" t="n">
+      <c r="G390" t="n">
         <v>7.3</v>
       </c>
-      <c r="G390" t="n">
+      <c r="H390" t="n">
         <v>8.6</v>
       </c>
-      <c r="H390" t="n">
-        <v>7.2</v>
-      </c>
       <c r="I390" t="n">
-        <v>7.84</v>
+        <v>7.79</v>
       </c>
     </row>
     <row r="391">
@@ -10310,28 +10362,28 @@
         <v>456</v>
       </c>
       <c r="B391" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C391" t="n">
         <v>7.7</v>
       </c>
-      <c r="C391" t="n">
+      <c r="D391" t="n">
         <v>9.6</v>
       </c>
-      <c r="D391" t="n">
+      <c r="E391" t="n">
         <v>7.3</v>
       </c>
-      <c r="E391" t="n">
+      <c r="F391" t="n">
         <v>7.4</v>
       </c>
-      <c r="F391" t="n">
+      <c r="G391" t="n">
         <v>7.3</v>
       </c>
-      <c r="G391" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H391" t="n">
         <v>6.7</v>
       </c>
       <c r="I391" t="n">
-        <v>7.53</v>
+        <v>7.6</v>
       </c>
     </row>
   </sheetData>

--- a/players_ratings.xlsx
+++ b/players_ratings.xlsx
@@ -759,28 +759,28 @@
         <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="C14" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="D14" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="E14" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="F14" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="G14" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H14" t="n">
         <v>7.3</v>
       </c>
-      <c r="H14" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I14" t="n">
-        <v>6.71</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="15">
@@ -1348,28 +1348,28 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
-        <v>6.7</v>
+        <v>7.8</v>
       </c>
       <c r="C37" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="D37" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="E37" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="F37" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G37" t="n">
         <v>7.3</v>
       </c>
-      <c r="G37" t="n">
-        <v>7</v>
-      </c>
       <c r="H37" t="n">
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="I37" t="n">
-        <v>6.96</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="38">
@@ -1696,28 +1696,28 @@
         <v>65</v>
       </c>
       <c r="B53" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="C53" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="D53" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="E53" t="n">
         <v>6.7</v>
       </c>
       <c r="F53" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="G53" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H53" t="n">
         <v>7.5</v>
       </c>
-      <c r="H53" t="n">
-        <v>6.3</v>
-      </c>
       <c r="I53" t="n">
-        <v>6.7</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="54">
@@ -1777,28 +1777,28 @@
         <v>69</v>
       </c>
       <c r="B56" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="C56" t="n">
+        <v>7</v>
+      </c>
+      <c r="D56" t="n">
         <v>7.1</v>
       </c>
-      <c r="D56" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E56" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="F56" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G56" t="n">
         <v>7.8</v>
       </c>
-      <c r="G56" t="n">
-        <v>6.8</v>
-      </c>
       <c r="H56" t="n">
-        <v>7.7</v>
+        <v>6.8</v>
       </c>
       <c r="I56" t="n">
-        <v>7.1</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="57">
@@ -2561,28 +2561,28 @@
         <v>117</v>
       </c>
       <c r="B90" t="n">
+        <v>7</v>
+      </c>
+      <c r="C90" t="n">
         <v>5.9</v>
       </c>
-      <c r="C90" t="n">
+      <c r="D90" t="n">
         <v>6</v>
       </c>
-      <c r="D90" t="n">
-        <v>6.3</v>
-      </c>
       <c r="E90" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="F90" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="G90" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="H90" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="I90" t="n">
-        <v>6.31</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="91">
@@ -2691,28 +2691,28 @@
         <v>124</v>
       </c>
       <c r="B96" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="C96" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="D96" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="E96" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F96" t="n">
         <v>7.1</v>
       </c>
-      <c r="F96" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G96" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H96" t="n">
         <v>7.5</v>
       </c>
-      <c r="H96" t="n">
-        <v>6.3</v>
-      </c>
       <c r="I96" t="n">
-        <v>6.86</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97">
@@ -2779,28 +2779,28 @@
         <v>129</v>
       </c>
       <c r="B100" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C100" t="n">
         <v>5.4</v>
       </c>
-      <c r="C100" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D100" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="E100" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F100" t="n">
         <v>5.8</v>
       </c>
-      <c r="F100" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G100" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H100" t="n">
         <v>7.6</v>
       </c>
-      <c r="H100" t="n">
-        <v>6.4</v>
-      </c>
       <c r="I100" t="n">
-        <v>6.39</v>
+        <v>6.41</v>
       </c>
     </row>
     <row r="101">
@@ -2844,28 +2844,28 @@
         <v>132</v>
       </c>
       <c r="B103" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="C103" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="D103" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E103" t="n">
         <v>7.5</v>
       </c>
-      <c r="E103" t="n">
-        <v>6.4</v>
-      </c>
       <c r="F103" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="G103" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H103" t="n">
         <v>7.4</v>
       </c>
-      <c r="H103" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I103" t="n">
-        <v>6.81</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="104">
@@ -2873,28 +2873,28 @@
         <v>133</v>
       </c>
       <c r="B104" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="C104" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="D104" t="n">
+        <v>7</v>
+      </c>
+      <c r="E104" t="n">
         <v>8.199999999999999</v>
-      </c>
-      <c r="E104" t="n">
-        <v>7.4</v>
       </c>
       <c r="F104" t="n">
         <v>7.4</v>
       </c>
       <c r="G104" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H104" t="n">
         <v>7.1</v>
       </c>
-      <c r="H104" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I104" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="105">
@@ -2931,20 +2931,20 @@
         <v>135</v>
       </c>
       <c r="B106" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="C106" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D106" t="n">
         <v>7.2</v>
       </c>
-      <c r="D106" t="n">
+      <c r="E106" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
         <v>7.2</v>
       </c>
-      <c r="F106" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G106" t="n">
         <v>6.6</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>6.6</v>
       </c>
       <c r="I106" t="n">
-        <v>6.97</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107">
@@ -3094,28 +3094,28 @@
         <v>144</v>
       </c>
       <c r="B113" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="C113" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="D113" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="E113" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="F113" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G113" t="n">
         <v>7.3</v>
       </c>
-      <c r="G113" t="n">
+      <c r="H113" t="n">
         <v>7.6</v>
       </c>
-      <c r="H113" t="n">
-        <v>7.2</v>
-      </c>
       <c r="I113" t="n">
-        <v>6.96</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="114">
@@ -3252,28 +3252,28 @@
         <v>150</v>
       </c>
       <c r="B119" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C119" t="n">
         <v>8</v>
       </c>
-      <c r="C119" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D119" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E119" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="E119" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F119" t="n">
         <v>6.7</v>
       </c>
       <c r="G119" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H119" t="n">
         <v>7.1</v>
       </c>
-      <c r="H119" t="n">
-        <v>7</v>
-      </c>
       <c r="I119" t="n">
-        <v>7.24</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="120">
@@ -3421,28 +3421,28 @@
         <v>165</v>
       </c>
       <c r="B126" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C126" t="n">
         <v>7.4</v>
       </c>
-      <c r="C126" t="n">
-        <v>6.8</v>
-      </c>
       <c r="D126" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="E126" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="F126" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="G126" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="H126" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I126" t="n">
-        <v>6.76</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="127">
@@ -3450,10 +3450,10 @@
         <v>166</v>
       </c>
       <c r="B127" t="n">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="C127" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="D127" t="n">
         <v>6.6</v>
@@ -3462,16 +3462,16 @@
         <v>6.6</v>
       </c>
       <c r="F127" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G127" t="n">
         <v>6</v>
       </c>
-      <c r="G127" t="n">
+      <c r="H127" t="n">
         <v>7.4</v>
       </c>
-      <c r="H127" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I127" t="n">
-        <v>6.6</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="128">
@@ -3479,22 +3479,24 @@
         <v>167</v>
       </c>
       <c r="B128" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="C128" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="D128" t="n">
         <v>6.5</v>
       </c>
       <c r="E128" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="F128" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="F128" t="n">
+        <v>6.7</v>
+      </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="n">
-        <v>6.52</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="129">
@@ -3531,28 +3533,28 @@
         <v>169</v>
       </c>
       <c r="B130" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="C130" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="D130" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="E130" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F130" t="n">
         <v>7.2</v>
       </c>
-      <c r="F130" t="n">
+      <c r="G130" t="n">
         <v>6.2</v>
       </c>
-      <c r="G130" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H130" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="I130" t="n">
-        <v>6.79</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="131">
@@ -4912,28 +4914,28 @@
         <v>225</v>
       </c>
       <c r="B183" t="n">
-        <v>6.3</v>
+        <v>7.5</v>
       </c>
       <c r="C183" t="n">
         <v>6.3</v>
       </c>
       <c r="D183" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="E183" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F183" t="n">
         <v>5.5</v>
       </c>
-      <c r="F183" t="n">
+      <c r="G183" t="n">
         <v>7.1</v>
       </c>
-      <c r="G183" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H183" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="I183" t="n">
-        <v>6.36</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="184">
@@ -5408,18 +5410,20 @@
         <v>253</v>
       </c>
       <c r="B205" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="C205" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="D205" t="inlineStr"/>
+        <v>6.6</v>
+      </c>
+      <c r="D205" t="n">
+        <v>6.4</v>
+      </c>
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="inlineStr"/>
       <c r="G205" t="inlineStr"/>
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="n">
-        <v>6.5</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="206">
@@ -5444,18 +5448,20 @@
         <v>255</v>
       </c>
       <c r="B207" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C207" t="n">
         <v>6</v>
       </c>
-      <c r="C207" t="n">
+      <c r="D207" t="n">
         <v>7.7</v>
       </c>
-      <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr"/>
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="n">
-        <v>6.85</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="208">
@@ -5463,28 +5469,28 @@
         <v>256</v>
       </c>
       <c r="B208" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C208" t="n">
         <v>7.9</v>
       </c>
-      <c r="C208" t="n">
+      <c r="D208" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="D208" t="n">
+      <c r="E208" t="n">
         <v>9.4</v>
       </c>
-      <c r="E208" t="n">
+      <c r="F208" t="n">
         <v>7.2</v>
       </c>
-      <c r="F208" t="n">
+      <c r="G208" t="n">
         <v>7.4</v>
       </c>
-      <c r="G208" t="n">
-        <v>7</v>
-      </c>
       <c r="H208" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="I208" t="n">
-        <v>7.89</v>
+        <v>7.97</v>
       </c>
     </row>
     <row r="209">
@@ -5598,26 +5604,28 @@
         <v>263</v>
       </c>
       <c r="B213" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="C213" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="D213" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="E213" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="F213" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G213" t="n">
         <v>7.3</v>
       </c>
-      <c r="G213" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="H213" t="inlineStr"/>
+      <c r="H213" t="n">
+        <v>6.8</v>
+      </c>
       <c r="I213" t="n">
-        <v>6.75</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="214">
@@ -6200,28 +6208,28 @@
         <v>293</v>
       </c>
       <c r="B235" t="n">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="C235" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="D235" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E235" t="n">
         <v>7.1</v>
       </c>
-      <c r="E235" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F235" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G235" t="n">
         <v>7.3</v>
       </c>
-      <c r="G235" t="n">
+      <c r="H235" t="n">
         <v>7.2</v>
       </c>
-      <c r="H235" t="n">
-        <v>7.4</v>
-      </c>
       <c r="I235" t="n">
-        <v>7.03</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="236">
@@ -7428,28 +7436,28 @@
         <v>344</v>
       </c>
       <c r="B281" t="n">
+        <v>7</v>
+      </c>
+      <c r="C281" t="n">
         <v>8.4</v>
       </c>
-      <c r="C281" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D281" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="E281" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F281" t="n">
         <v>7.2</v>
       </c>
-      <c r="F281" t="n">
+      <c r="G281" t="n">
         <v>8</v>
       </c>
-      <c r="G281" t="n">
+      <c r="H281" t="n">
         <v>10</v>
       </c>
-      <c r="H281" t="n">
-        <v>7.6</v>
-      </c>
       <c r="I281" t="n">
-        <v>7.79</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="282">
@@ -7457,28 +7465,28 @@
         <v>345</v>
       </c>
       <c r="B282" t="n">
+        <v>7</v>
+      </c>
+      <c r="C282" t="n">
         <v>7.1</v>
       </c>
-      <c r="C282" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D282" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="E282" t="n">
+        <v>7</v>
+      </c>
+      <c r="F282" t="n">
         <v>7.4</v>
       </c>
-      <c r="F282" t="n">
-        <v>6.3</v>
-      </c>
       <c r="G282" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H282" t="n">
         <v>7.2</v>
       </c>
-      <c r="H282" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I282" t="n">
-        <v>6.91</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="283">
@@ -7544,25 +7552,25 @@
         <v>348</v>
       </c>
       <c r="B285" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C285" t="n">
         <v>8.4</v>
       </c>
-      <c r="C285" t="n">
+      <c r="D285" t="n">
         <v>7.2</v>
       </c>
-      <c r="D285" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E285" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="F285" t="n">
+        <v>7</v>
+      </c>
+      <c r="G285" t="n">
         <v>8.1</v>
       </c>
-      <c r="G285" t="n">
+      <c r="H285" t="n">
         <v>7.2</v>
-      </c>
-      <c r="H285" t="n">
-        <v>6.4</v>
       </c>
       <c r="I285" t="n">
         <v>7.29</v>
@@ -8326,25 +8334,25 @@
         <v>378</v>
       </c>
       <c r="B313" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C313" t="n">
         <v>8</v>
       </c>
-      <c r="C313" t="n">
+      <c r="D313" t="n">
         <v>7.4</v>
       </c>
-      <c r="D313" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E313" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="F313" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="G313" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H313" t="n">
         <v>7.4</v>
-      </c>
-      <c r="H313" t="n">
-        <v>6.7</v>
       </c>
       <c r="I313" t="n">
         <v>7.06</v>
@@ -8697,28 +8705,28 @@
         <v>393</v>
       </c>
       <c r="B328" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="C328" t="n">
+        <v>7</v>
+      </c>
+      <c r="D328" t="n">
         <v>7.8</v>
       </c>
-      <c r="D328" t="n">
+      <c r="E328" t="n">
         <v>8.1</v>
       </c>
-      <c r="E328" t="n">
+      <c r="F328" t="n">
         <v>8.9</v>
       </c>
-      <c r="F328" t="n">
+      <c r="G328" t="n">
         <v>7.2</v>
       </c>
-      <c r="G328" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H328" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="I328" t="n">
-        <v>7.51</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="329">
@@ -8971,25 +8979,25 @@
         <v>6.3</v>
       </c>
       <c r="C339" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D339" t="n">
         <v>7.3</v>
       </c>
-      <c r="D339" t="n">
-        <v>6.4</v>
-      </c>
       <c r="E339" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F339" t="n">
         <v>7.2</v>
       </c>
-      <c r="F339" t="n">
-        <v>6.3</v>
-      </c>
       <c r="G339" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="H339" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="I339" t="n">
-        <v>6.76</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="340">
@@ -9082,28 +9090,28 @@
         <v>408</v>
       </c>
       <c r="B343" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="C343" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="D343" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="E343" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F343" t="n">
         <v>8.6</v>
       </c>
-      <c r="F343" t="n">
+      <c r="G343" t="n">
         <v>7.1</v>
       </c>
-      <c r="G343" t="n">
+      <c r="H343" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="H343" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I343" t="n">
-        <v>7.34</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="344">
@@ -10217,28 +10225,28 @@
         <v>451</v>
       </c>
       <c r="B386" t="n">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="C386" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D386" t="n">
         <v>7.1</v>
       </c>
-      <c r="D386" t="n">
+      <c r="E386" t="n">
         <v>8.1</v>
       </c>
-      <c r="E386" t="n">
+      <c r="F386" t="n">
         <v>7.9</v>
       </c>
-      <c r="F386" t="n">
+      <c r="G386" t="n">
         <v>7.7</v>
       </c>
-      <c r="G386" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H386" t="n">
-        <v>8</v>
+        <v>6.9</v>
       </c>
       <c r="I386" t="n">
-        <v>7.47</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="387">

--- a/players_ratings.xlsx
+++ b/players_ratings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I391"/>
+  <dimension ref="A1:I392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -706,22 +706,22 @@
         <v>6.8</v>
       </c>
       <c r="C12" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="D12" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="E12" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F12" t="n">
         <v>7.6</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>7.2</v>
       </c>
-      <c r="G12" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H12" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="I12" t="n">
         <v>6.94</v>
@@ -932,28 +932,28 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="C21" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D21" t="n">
         <v>7.4</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>7.3</v>
       </c>
-      <c r="E21" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F21" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G21" t="n">
         <v>8</v>
       </c>
-      <c r="G21" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H21" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="I21" t="n">
-        <v>7.03</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="22">
@@ -1609,28 +1609,28 @@
         <v>60</v>
       </c>
       <c r="B50" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="C50" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="D50" t="n">
-        <v>6.7</v>
+        <v>7.6</v>
       </c>
       <c r="E50" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="F50" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="G50" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="H50" t="n">
         <v>6.5</v>
       </c>
       <c r="I50" t="n">
-        <v>6.49</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="51">
@@ -1754,22 +1754,24 @@
         <v>67</v>
       </c>
       <c r="B55" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="D55" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="E55" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F55" t="n">
         <v>7.4</v>
       </c>
-      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="n">
-        <v>6.93</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="56">
@@ -1848,28 +1850,28 @@
         <v>80</v>
       </c>
       <c r="B59" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="C59" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="D59" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="E59" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="F59" t="n">
         <v>6.7</v>
       </c>
       <c r="G59" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="H59" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="I59" t="n">
-        <v>6.83</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="60">
@@ -2209,16 +2211,28 @@
         <v>100</v>
       </c>
       <c r="B74" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
+        <v>6.9</v>
+      </c>
+      <c r="C74" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D74" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E74" t="n">
+        <v>7</v>
+      </c>
+      <c r="F74" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="G74" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H74" t="n">
+        <v>7.9</v>
+      </c>
       <c r="I74" t="n">
-        <v>7.2</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="75">
@@ -2339,28 +2353,28 @@
         <v>106</v>
       </c>
       <c r="B80" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C80" t="n">
         <v>7.1</v>
       </c>
-      <c r="C80" t="n">
+      <c r="D80" t="n">
         <v>7.4</v>
       </c>
-      <c r="D80" t="n">
+      <c r="E80" t="n">
         <v>7.8</v>
       </c>
-      <c r="E80" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F80" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G80" t="n">
         <v>7.8</v>
       </c>
-      <c r="G80" t="n">
+      <c r="H80" t="n">
         <v>7.7</v>
       </c>
-      <c r="H80" t="n">
-        <v>7.5</v>
-      </c>
       <c r="I80" t="n">
-        <v>7.46</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="81">
@@ -3010,16 +3024,16 @@
         <v>138</v>
       </c>
       <c r="B109" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C109" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D109" t="n">
         <v>7.3</v>
       </c>
-      <c r="C109" t="n">
-        <v>7</v>
-      </c>
-      <c r="D109" t="n">
-        <v>7.8</v>
-      </c>
       <c r="E109" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="F109" t="n">
         <v>6.6</v>
@@ -3027,11 +3041,9 @@
       <c r="G109" t="n">
         <v>6.4</v>
       </c>
-      <c r="H109" t="n">
-        <v>6.3</v>
-      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="n">
-        <v>6.89</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="110">
@@ -3565,25 +3577,25 @@
         <v>6.4</v>
       </c>
       <c r="C131" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D131" t="n">
         <v>7.4</v>
       </c>
-      <c r="D131" t="n">
+      <c r="E131" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="E131" t="n">
-        <v>7</v>
-      </c>
       <c r="F131" t="n">
+        <v>7</v>
+      </c>
+      <c r="G131" t="n">
         <v>7.5</v>
       </c>
-      <c r="G131" t="n">
+      <c r="H131" t="n">
         <v>7.9</v>
       </c>
-      <c r="H131" t="n">
-        <v>7.1</v>
-      </c>
       <c r="I131" t="n">
-        <v>7.37</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="132">
@@ -3782,18 +3794,20 @@
         <v>178</v>
       </c>
       <c r="B139" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="C139" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="D139" t="inlineStr"/>
+        <v>6.9</v>
+      </c>
+      <c r="D139" t="n">
+        <v>6.6</v>
+      </c>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="n">
-        <v>6.75</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="140">
@@ -3826,28 +3840,28 @@
         <v>180</v>
       </c>
       <c r="B141" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="C141" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D141" t="n">
         <v>7.2</v>
       </c>
-      <c r="D141" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E141" t="n">
         <v>6.9</v>
       </c>
       <c r="F141" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G141" t="n">
         <v>7.6</v>
       </c>
-      <c r="G141" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H141" t="n">
-        <v>9.1</v>
+        <v>6.9</v>
       </c>
       <c r="I141" t="n">
-        <v>7.34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142">
@@ -3988,28 +4002,20 @@
         <v>186</v>
       </c>
       <c r="B147" t="n">
-        <v>8.4</v>
+        <v>6.6</v>
       </c>
       <c r="C147" t="n">
-        <v>7.4</v>
+        <v>5.8</v>
       </c>
       <c r="D147" t="n">
-        <v>8</v>
-      </c>
-      <c r="E147" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="F147" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="G147" t="n">
-        <v>10</v>
-      </c>
-      <c r="H147" t="n">
-        <v>6.4</v>
-      </c>
+        <v>6.7</v>
+      </c>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="n">
-        <v>7.53</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="148">
@@ -4059,28 +4065,28 @@
         <v>190</v>
       </c>
       <c r="B150" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C150" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="D150" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="E150" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F150" t="n">
         <v>7.3</v>
       </c>
-      <c r="F150" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G150" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="H150" t="n">
-        <v>5.9</v>
+        <v>6.9</v>
       </c>
       <c r="I150" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="151">
@@ -4117,22 +4123,22 @@
         <v>192</v>
       </c>
       <c r="B152" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="C152" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D152" t="n">
         <v>7.1</v>
       </c>
-      <c r="D152" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E152" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F152" t="n">
         <v>7.1</v>
       </c>
-      <c r="F152" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G152" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="H152" t="n">
         <v>6.9</v>
@@ -4224,22 +4230,22 @@
         <v>7.1</v>
       </c>
       <c r="C156" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="D156" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="E156" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F156" t="n">
         <v>6.2</v>
       </c>
-      <c r="F156" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G156" t="n">
-        <v>7.7</v>
+        <v>6.7</v>
       </c>
       <c r="H156" t="n">
-        <v>6.3</v>
+        <v>7.5</v>
       </c>
       <c r="I156" t="n">
         <v>6.79</v>
@@ -4508,28 +4514,28 @@
         <v>209</v>
       </c>
       <c r="B167" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="C167" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D167" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E167" t="n">
         <v>5.3</v>
       </c>
-      <c r="E167" t="n">
+      <c r="F167" t="n">
         <v>7.7</v>
       </c>
-      <c r="F167" t="n">
+      <c r="G167" t="n">
         <v>7.4</v>
       </c>
-      <c r="G167" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H167" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="I167" t="n">
-        <v>6.87</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="168">
@@ -4800,26 +4806,28 @@
         <v>221</v>
       </c>
       <c r="B179" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="C179" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D179" t="n">
         <v>6.1</v>
       </c>
-      <c r="D179" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E179" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="F179" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G179" t="n">
         <v>7.6</v>
       </c>
-      <c r="G179" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="H179" t="inlineStr"/>
+      <c r="H179" t="n">
+        <v>6.8</v>
+      </c>
       <c r="I179" t="n">
-        <v>6.72</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="180">
@@ -5001,28 +5009,28 @@
         <v>228</v>
       </c>
       <c r="B186" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C186" t="n">
         <v>7.4</v>
       </c>
-      <c r="C186" t="n">
+      <c r="D186" t="n">
         <v>8.4</v>
       </c>
-      <c r="D186" t="n">
-        <v>6.3</v>
-      </c>
       <c r="E186" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F186" t="n">
         <v>7.6</v>
       </c>
-      <c r="F186" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G186" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="H186" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="I186" t="n">
-        <v>7.2</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="187">
@@ -5131,28 +5139,28 @@
         <v>237</v>
       </c>
       <c r="B192" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="C192" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="D192" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="E192" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="F192" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="G192" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H192" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="I192" t="n">
-        <v>7.11</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="193">
@@ -5675,28 +5683,28 @@
         <v>273</v>
       </c>
       <c r="B216" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="C216" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="D216" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="E216" t="n">
         <v>6.5</v>
       </c>
       <c r="F216" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G216" t="n">
         <v>8.1</v>
       </c>
-      <c r="G216" t="n">
-        <v>6.3</v>
-      </c>
       <c r="H216" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="I216" t="n">
-        <v>6.74</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="217">
@@ -6063,19 +6071,19 @@
         <v>288</v>
       </c>
       <c r="B230" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C230" t="n">
         <v>7.4</v>
       </c>
-      <c r="C230" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D230" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="E230" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="F230" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="G230" t="n">
         <v>6.7</v>
@@ -6084,7 +6092,7 @@
         <v>6.7</v>
       </c>
       <c r="I230" t="n">
-        <v>6.7</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="231">
@@ -6150,28 +6158,28 @@
         <v>291</v>
       </c>
       <c r="B233" t="n">
-        <v>6.9</v>
+        <v>7.6</v>
       </c>
       <c r="C233" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D233" t="n">
         <v>7.4</v>
       </c>
-      <c r="D233" t="n">
-        <v>7</v>
-      </c>
       <c r="E233" t="n">
+        <v>7</v>
+      </c>
+      <c r="F233" t="n">
         <v>8.4</v>
       </c>
-      <c r="F233" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G233" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H233" t="n">
         <v>8</v>
       </c>
-      <c r="H233" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I233" t="n">
-        <v>7.27</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="234">
@@ -6316,28 +6324,28 @@
         <v>298</v>
       </c>
       <c r="B239" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C239" t="n">
         <v>5.8</v>
       </c>
-      <c r="C239" t="n">
+      <c r="D239" t="n">
         <v>7.5</v>
       </c>
-      <c r="D239" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E239" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="F239" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="G239" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H239" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="I239" t="n">
-        <v>6.67</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="240">
@@ -6540,28 +6548,28 @@
         <v>307</v>
       </c>
       <c r="B247" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="C247" t="n">
         <v>6.7</v>
       </c>
       <c r="D247" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E247" t="n">
         <v>5.6</v>
       </c>
-      <c r="E247" t="n">
+      <c r="F247" t="n">
         <v>7.2</v>
       </c>
-      <c r="F247" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G247" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H247" t="n">
         <v>7.2</v>
       </c>
-      <c r="H247" t="n">
-        <v>7</v>
-      </c>
       <c r="I247" t="n">
-        <v>6.76</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="248">
@@ -7043,14 +7051,22 @@
       <c r="A265" s="1" t="n">
         <v>325</v>
       </c>
-      <c r="B265" t="inlineStr"/>
-      <c r="C265" t="inlineStr"/>
-      <c r="D265" t="inlineStr"/>
+      <c r="B265" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C265" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D265" t="n">
+        <v>6.8</v>
+      </c>
       <c r="E265" t="inlineStr"/>
       <c r="F265" t="inlineStr"/>
       <c r="G265" t="inlineStr"/>
       <c r="H265" t="inlineStr"/>
-      <c r="I265" t="inlineStr"/>
+      <c r="I265" t="n">
+        <v>6.67</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -7324,26 +7340,28 @@
         <v>340</v>
       </c>
       <c r="B277" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="C277" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D277" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E277" t="n">
         <v>7.8</v>
       </c>
-      <c r="E277" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F277" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="G277" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H277" t="n">
         <v>7.3</v>
       </c>
-      <c r="H277" t="inlineStr"/>
       <c r="I277" t="n">
-        <v>7.03</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="278">
@@ -7494,25 +7512,25 @@
         <v>346</v>
       </c>
       <c r="B283" t="n">
-        <v>6.9</v>
+        <v>6.2</v>
       </c>
       <c r="C283" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D283" t="n">
         <v>7.5</v>
       </c>
-      <c r="D283" t="n">
+      <c r="E283" t="n">
         <v>7.2</v>
       </c>
-      <c r="E283" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F283" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="G283" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="H283" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="I283" t="n">
         <v>6.79</v>
@@ -7610,10 +7628,10 @@
         <v>350</v>
       </c>
       <c r="B287" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="C287" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="D287" t="n">
         <v>6.8</v>
@@ -7625,13 +7643,13 @@
         <v>6.8</v>
       </c>
       <c r="G287" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="H287" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="I287" t="n">
-        <v>6.63</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="288">
@@ -7639,28 +7657,28 @@
         <v>351</v>
       </c>
       <c r="B288" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="C288" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="D288" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="E288" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F288" t="n">
         <v>6.2</v>
       </c>
-      <c r="F288" t="n">
-        <v>6.4</v>
-      </c>
       <c r="G288" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H288" t="n">
         <v>6.2</v>
       </c>
-      <c r="H288" t="n">
-        <v>5.7</v>
-      </c>
       <c r="I288" t="n">
-        <v>6.34</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="289">
@@ -7770,28 +7788,18 @@
         <v>356</v>
       </c>
       <c r="B293" t="n">
-        <v>7.4</v>
+        <v>6.7</v>
       </c>
       <c r="C293" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="D293" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="E293" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="F293" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="G293" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H293" t="n">
-        <v>7.3</v>
-      </c>
+        <v>7.1</v>
+      </c>
+      <c r="D293" t="inlineStr"/>
+      <c r="E293" t="inlineStr"/>
+      <c r="F293" t="inlineStr"/>
+      <c r="G293" t="inlineStr"/>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="n">
-        <v>7.07</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="294">
@@ -8017,28 +8025,28 @@
         <v>367</v>
       </c>
       <c r="B302" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C302" t="n">
         <v>6.2</v>
       </c>
-      <c r="C302" t="n">
+      <c r="D302" t="n">
         <v>8.1</v>
       </c>
-      <c r="D302" t="n">
+      <c r="E302" t="n">
         <v>6.2</v>
       </c>
-      <c r="E302" t="n">
-        <v>6.3</v>
-      </c>
       <c r="F302" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="G302" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="H302" t="n">
-        <v>7.4</v>
+        <v>6.3</v>
       </c>
       <c r="I302" t="n">
-        <v>6.7</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="303">
@@ -8305,28 +8313,28 @@
         <v>377</v>
       </c>
       <c r="B312" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="C312" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="D312" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="E312" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="F312" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G312" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H312" t="n">
         <v>7.4</v>
       </c>
-      <c r="G312" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="H312" t="n">
-        <v>7.9</v>
-      </c>
       <c r="I312" t="n">
-        <v>7.04</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="313">
@@ -8334,28 +8342,28 @@
         <v>378</v>
       </c>
       <c r="B313" t="n">
-        <v>6.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C313" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D313" t="n">
         <v>8</v>
       </c>
-      <c r="D313" t="n">
+      <c r="E313" t="n">
         <v>7.4</v>
       </c>
-      <c r="E313" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F313" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="G313" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="H313" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="I313" t="n">
-        <v>7.06</v>
+        <v>7.31</v>
       </c>
     </row>
     <row r="314">
@@ -8436,28 +8444,28 @@
         <v>382</v>
       </c>
       <c r="B317" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="C317" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="D317" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="E317" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="F317" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="G317" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="H317" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="I317" t="n">
-        <v>6.51</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="318">
@@ -8606,22 +8614,22 @@
         <v>7</v>
       </c>
       <c r="D323" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="E323" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="F323" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="G323" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="H323" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="I323" t="n">
-        <v>6.94</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="324">
@@ -8763,28 +8771,26 @@
         <v>395</v>
       </c>
       <c r="B330" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="C330" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="D330" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="E330" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="F330" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="G330" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="H330" t="n">
-        <v>7.6</v>
-      </c>
+        <v>6.9</v>
+      </c>
+      <c r="H330" t="inlineStr"/>
       <c r="I330" t="n">
-        <v>6.86</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="331">
@@ -8808,25 +8814,25 @@
         <v>6.7</v>
       </c>
       <c r="C332" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="D332" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="E332" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="F332" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G332" t="n">
         <v>7.2</v>
       </c>
-      <c r="G332" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H332" t="n">
-        <v>7.6</v>
+        <v>6.5</v>
       </c>
       <c r="I332" t="n">
-        <v>6.86</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="333">
@@ -8834,28 +8840,28 @@
         <v>398</v>
       </c>
       <c r="B333" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="C333" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="D333" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="E333" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F333" t="n">
         <v>6.2</v>
       </c>
-      <c r="F333" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G333" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="H333" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I333" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="334">
@@ -9206,28 +9212,28 @@
         <v>412</v>
       </c>
       <c r="B347" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C347" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D347" t="n">
         <v>7.7</v>
       </c>
-      <c r="D347" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E347" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F347" t="n">
         <v>7.6</v>
       </c>
-      <c r="F347" t="n">
-        <v>6.4</v>
-      </c>
       <c r="G347" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H347" t="n">
         <v>7.5</v>
       </c>
-      <c r="H347" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="I347" t="n">
-        <v>7.21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="348">
@@ -9692,22 +9698,28 @@
         <v>430</v>
       </c>
       <c r="B365" t="n">
-        <v>7.8</v>
+        <v>6.7</v>
       </c>
       <c r="C365" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="D365" t="n">
         <v>7.4</v>
       </c>
       <c r="E365" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="F365" t="inlineStr"/>
-      <c r="G365" t="inlineStr"/>
-      <c r="H365" t="inlineStr"/>
+        <v>7.4</v>
+      </c>
+      <c r="F365" t="n">
+        <v>7</v>
+      </c>
+      <c r="G365" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H365" t="n">
+        <v>6.6</v>
+      </c>
       <c r="I365" t="n">
-        <v>7.22</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="366">
@@ -9802,28 +9814,28 @@
         <v>434</v>
       </c>
       <c r="B369" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C369" t="n">
         <v>7.1</v>
       </c>
-      <c r="C369" t="n">
+      <c r="D369" t="n">
         <v>7.7</v>
       </c>
-      <c r="D369" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E369" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="F369" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G369" t="n">
         <v>7.7</v>
       </c>
-      <c r="G369" t="n">
-        <v>6.3</v>
-      </c>
       <c r="H369" t="n">
-        <v>7.6</v>
+        <v>6.3</v>
       </c>
       <c r="I369" t="n">
-        <v>7.06</v>
+        <v>7.33</v>
       </c>
     </row>
     <row r="370">
@@ -9831,28 +9843,28 @@
         <v>435</v>
       </c>
       <c r="B370" t="n">
-        <v>6.7</v>
+        <v>8.6</v>
       </c>
       <c r="C370" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D370" t="n">
         <v>9.4</v>
       </c>
-      <c r="D370" t="n">
-        <v>6.4</v>
-      </c>
       <c r="E370" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="F370" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G370" t="n">
         <v>7.4</v>
       </c>
-      <c r="G370" t="n">
+      <c r="H370" t="n">
         <v>7.1</v>
       </c>
-      <c r="H370" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="I370" t="n">
-        <v>7.41</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="371">
@@ -9879,19 +9891,19 @@
         <v>437</v>
       </c>
       <c r="B372" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C372" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D372" t="n">
         <v>7.8</v>
       </c>
-      <c r="D372" t="n">
+      <c r="E372" t="n">
         <v>6.2</v>
       </c>
-      <c r="E372" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F372" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="G372" t="n">
         <v>7.3</v>
@@ -9900,7 +9912,7 @@
         <v>7.3</v>
       </c>
       <c r="I372" t="n">
-        <v>6.99</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="373">
@@ -9991,28 +10003,28 @@
         <v>441</v>
       </c>
       <c r="B376" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C376" t="n">
         <v>6.1</v>
       </c>
-      <c r="C376" t="n">
+      <c r="D376" t="n">
         <v>9.6</v>
       </c>
-      <c r="D376" t="n">
-        <v>7</v>
-      </c>
       <c r="E376" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="F376" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G376" t="n">
         <v>8.6</v>
       </c>
-      <c r="G376" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H376" t="n">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="I376" t="n">
-        <v>7.29</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="377">
@@ -10107,28 +10119,28 @@
         <v>445</v>
       </c>
       <c r="B380" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="C380" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D380" t="n">
         <v>7.1</v>
       </c>
-      <c r="D380" t="n">
-        <v>7</v>
-      </c>
       <c r="E380" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="F380" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="G380" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="H380" t="n">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="I380" t="n">
-        <v>6.93</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="381">
@@ -10136,28 +10148,28 @@
         <v>446</v>
       </c>
       <c r="B381" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="C381" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="D381" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E381" t="n">
         <v>7.3</v>
       </c>
-      <c r="E381" t="n">
+      <c r="F381" t="n">
         <v>7.6</v>
       </c>
-      <c r="F381" t="n">
+      <c r="G381" t="n">
         <v>7.3</v>
       </c>
-      <c r="G381" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H381" t="n">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="I381" t="n">
-        <v>7</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="382">
@@ -10341,28 +10353,28 @@
         <v>455</v>
       </c>
       <c r="B390" t="n">
-        <v>6.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C390" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D390" t="n">
         <v>8.1</v>
       </c>
-      <c r="D390" t="n">
+      <c r="E390" t="n">
         <v>7.7</v>
       </c>
-      <c r="E390" t="n">
+      <c r="F390" t="n">
         <v>7.9</v>
       </c>
-      <c r="F390" t="n">
+      <c r="G390" t="n">
         <v>8.1</v>
       </c>
-      <c r="G390" t="n">
+      <c r="H390" t="n">
         <v>7.3</v>
       </c>
-      <c r="H390" t="n">
-        <v>8.6</v>
-      </c>
       <c r="I390" t="n">
-        <v>7.79</v>
+        <v>7.96</v>
       </c>
     </row>
     <row r="391">
@@ -10370,28 +10382,57 @@
         <v>456</v>
       </c>
       <c r="B391" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C391" t="n">
         <v>7.2</v>
       </c>
-      <c r="C391" t="n">
+      <c r="D391" t="n">
         <v>7.7</v>
       </c>
-      <c r="D391" t="n">
+      <c r="E391" t="n">
         <v>9.6</v>
       </c>
-      <c r="E391" t="n">
+      <c r="F391" t="n">
         <v>7.3</v>
       </c>
-      <c r="F391" t="n">
+      <c r="G391" t="n">
         <v>7.4</v>
       </c>
-      <c r="G391" t="n">
+      <c r="H391" t="n">
         <v>7.3</v>
-      </c>
-      <c r="H391" t="n">
-        <v>6.7</v>
       </c>
       <c r="I391" t="n">
         <v>7.6</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="B392" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C392" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D392" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="E392" t="n">
+        <v>8</v>
+      </c>
+      <c r="F392" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G392" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H392" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I392" t="n">
+        <v>7.1</v>
       </c>
     </row>
   </sheetData>

--- a/players_ratings.xlsx
+++ b/players_ratings.xlsx
@@ -628,28 +628,28 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
         <v>6.1</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>7.2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>7.1</v>
       </c>
-      <c r="E9" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F9" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="G9" t="n">
         <v>7.5</v>
       </c>
       <c r="H9" t="n">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="I9" t="n">
-        <v>6.9</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="10">
@@ -703,25 +703,25 @@
         <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="C12" t="n">
         <v>6.8</v>
       </c>
       <c r="D12" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="E12" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="F12" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G12" t="n">
         <v>7.6</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>7.2</v>
-      </c>
-      <c r="H12" t="n">
-        <v>6.7</v>
       </c>
       <c r="I12" t="n">
         <v>6.94</v>
@@ -874,28 +874,28 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="C19" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="D19" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="E19" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F19" t="n">
         <v>7.9</v>
       </c>
-      <c r="F19" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G19" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H19" t="n">
         <v>6.1</v>
       </c>
-      <c r="H19" t="n">
-        <v>6.3</v>
-      </c>
       <c r="I19" t="n">
-        <v>6.67</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="20">
@@ -961,28 +961,28 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>7</v>
+        <v>7.9</v>
       </c>
       <c r="C22" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D22" t="n">
         <v>6.5</v>
       </c>
       <c r="E22" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="F22" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="G22" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="H22" t="n">
         <v>6.7</v>
       </c>
       <c r="I22" t="n">
-        <v>6.74</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="23">
@@ -1045,28 +1045,28 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C26" t="n">
         <v>7.5</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>6.1</v>
       </c>
-      <c r="D26" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E26" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="F26" t="n">
         <v>7</v>
       </c>
       <c r="G26" t="n">
+        <v>7</v>
+      </c>
+      <c r="H26" t="n">
         <v>7.1</v>
       </c>
-      <c r="H26" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I26" t="n">
-        <v>6.89</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="27">
@@ -1101,28 +1101,28 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="C28" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="D28" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="E28" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="F28" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="G28" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="H28" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I28" t="n">
-        <v>6.7</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="29">
@@ -1159,28 +1159,28 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C30" t="n">
         <v>6</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>6.2</v>
       </c>
-      <c r="D30" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E30" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="F30" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="G30" t="n">
         <v>7.9</v>
       </c>
-      <c r="G30" t="n">
-        <v>6.8</v>
-      </c>
       <c r="H30" t="n">
-        <v>5.5</v>
+        <v>6.8</v>
       </c>
       <c r="I30" t="n">
-        <v>6.46</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="31">
@@ -1205,28 +1205,28 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="C32" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="D32" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E32" t="n">
         <v>7.6</v>
       </c>
-      <c r="E32" t="n">
-        <v>6.3</v>
-      </c>
       <c r="F32" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="G32" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H32" t="n">
         <v>7.1</v>
       </c>
-      <c r="H32" t="n">
-        <v>8.1</v>
-      </c>
       <c r="I32" t="n">
-        <v>7.01</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="33">
@@ -1234,28 +1234,28 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="C33" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="D33" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="E33" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="F33" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G33" t="n">
         <v>6.1</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>7.1</v>
       </c>
-      <c r="H33" t="n">
-        <v>7</v>
-      </c>
       <c r="I33" t="n">
-        <v>6.61</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="34">
@@ -1263,28 +1263,28 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="C34" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D34" t="n">
         <v>7.6</v>
       </c>
-      <c r="D34" t="n">
-        <v>6.3</v>
-      </c>
       <c r="E34" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F34" t="n">
         <v>7.2</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>6</v>
       </c>
-      <c r="G34" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H34" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="I34" t="n">
-        <v>6.61</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="35">
@@ -1292,26 +1292,28 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C35" t="n">
         <v>7.3</v>
       </c>
-      <c r="C35" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D35" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="E35" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="F35" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="G35" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="H35" t="inlineStr"/>
+        <v>6.4</v>
+      </c>
+      <c r="H35" t="n">
+        <v>6.8</v>
+      </c>
       <c r="I35" t="n">
-        <v>6.72</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="36">
@@ -1348,28 +1350,28 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C37" t="n">
         <v>7.8</v>
       </c>
-      <c r="C37" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D37" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="E37" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="F37" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="G37" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H37" t="n">
         <v>7.3</v>
       </c>
-      <c r="H37" t="n">
-        <v>7</v>
-      </c>
       <c r="I37" t="n">
-        <v>6.94</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -1546,14 +1548,14 @@
         <v>57</v>
       </c>
       <c r="B47" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C47" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D47" t="n">
         <v>7.1</v>
       </c>
-      <c r="D47" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E47" t="n">
         <v>6.5</v>
       </c>
@@ -1561,7 +1563,7 @@
         <v>6.5</v>
       </c>
       <c r="G47" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="H47" t="n">
         <v>6.7</v>
@@ -1725,28 +1727,28 @@
         <v>66</v>
       </c>
       <c r="B54" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="C54" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="D54" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="E54" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="F54" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="G54" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="H54" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="I54" t="n">
-        <v>6.66</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="55">
@@ -1882,25 +1884,25 @@
         <v>7.6</v>
       </c>
       <c r="C60" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="D60" t="n">
         <v>7.8</v>
       </c>
-      <c r="D60" t="n">
+      <c r="E60" t="n">
         <v>7.5</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>7.4</v>
       </c>
-      <c r="F60" t="n">
-        <v>6.3</v>
-      </c>
       <c r="G60" t="n">
         <v>6.3</v>
       </c>
       <c r="H60" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="I60" t="n">
-        <v>7.04</v>
+        <v>7.21</v>
       </c>
     </row>
     <row r="61">
@@ -2076,28 +2078,28 @@
         <v>94</v>
       </c>
       <c r="B69" t="n">
-        <v>6.9</v>
+        <v>7.7</v>
       </c>
       <c r="C69" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D69" t="n">
         <v>8.1</v>
       </c>
-      <c r="D69" t="n">
+      <c r="E69" t="n">
         <v>7.2</v>
       </c>
-      <c r="E69" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F69" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="G69" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H69" t="n">
         <v>8</v>
       </c>
-      <c r="H69" t="n">
-        <v>6.3</v>
-      </c>
       <c r="I69" t="n">
-        <v>7.17</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="70">
@@ -2240,25 +2242,25 @@
         <v>101</v>
       </c>
       <c r="B75" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C75" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="D75" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E75" t="n">
         <v>7.3</v>
       </c>
-      <c r="E75" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F75" t="n">
         <v>6.5</v>
       </c>
       <c r="G75" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="H75" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="I75" t="n">
         <v>6.67</v>
@@ -2353,28 +2355,28 @@
         <v>106</v>
       </c>
       <c r="B80" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="C80" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D80" t="n">
         <v>7.1</v>
       </c>
-      <c r="D80" t="n">
+      <c r="E80" t="n">
         <v>7.4</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>7.8</v>
       </c>
-      <c r="F80" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G80" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H80" t="n">
         <v>7.8</v>
       </c>
-      <c r="H80" t="n">
-        <v>7.7</v>
-      </c>
       <c r="I80" t="n">
-        <v>7.34</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="81">
@@ -2449,28 +2451,28 @@
         <v>111</v>
       </c>
       <c r="B84" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C84" t="n">
         <v>7.6</v>
       </c>
-      <c r="C84" t="n">
+      <c r="D84" t="n">
         <v>6.1</v>
       </c>
-      <c r="D84" t="n">
+      <c r="E84" t="n">
         <v>7.9</v>
       </c>
-      <c r="E84" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F84" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="G84" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H84" t="n">
         <v>7.8</v>
       </c>
-      <c r="H84" t="n">
-        <v>7.3</v>
-      </c>
       <c r="I84" t="n">
-        <v>7.16</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="85">
@@ -2491,28 +2493,28 @@
         <v>113</v>
       </c>
       <c r="B86" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="C86" t="n">
         <v>6.2</v>
       </c>
-      <c r="C86" t="n">
+      <c r="D86" t="n">
         <v>7.1</v>
       </c>
-      <c r="D86" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E86" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F86" t="n">
         <v>8</v>
       </c>
-      <c r="F86" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G86" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="H86" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="I86" t="n">
-        <v>6.84</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="87">
@@ -2533,28 +2535,28 @@
         <v>115</v>
       </c>
       <c r="B88" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="C88" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="D88" t="n">
         <v>6.3</v>
       </c>
       <c r="E88" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="F88" t="n">
         <v>6</v>
       </c>
       <c r="G88" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="H88" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="I88" t="n">
-        <v>6.33</v>
+        <v>6.26</v>
       </c>
     </row>
     <row r="89">
@@ -2575,28 +2577,28 @@
         <v>117</v>
       </c>
       <c r="B90" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C90" t="n">
+        <v>7</v>
+      </c>
+      <c r="D90" t="n">
         <v>5.9</v>
       </c>
-      <c r="D90" t="n">
+      <c r="E90" t="n">
         <v>6</v>
       </c>
-      <c r="E90" t="n">
-        <v>6.3</v>
-      </c>
       <c r="F90" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="G90" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="H90" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="I90" t="n">
-        <v>6.39</v>
+        <v>6.33</v>
       </c>
     </row>
     <row r="91">
@@ -2630,25 +2632,25 @@
         <v>7.2</v>
       </c>
       <c r="C92" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="D92" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E92" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="E92" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F92" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="G92" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="H92" t="n">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="I92" t="n">
-        <v>7.04</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="93">
@@ -2858,28 +2860,28 @@
         <v>132</v>
       </c>
       <c r="B103" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="C103" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="D103" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="E103" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F103" t="n">
         <v>7.5</v>
       </c>
-      <c r="F103" t="n">
-        <v>6.4</v>
-      </c>
       <c r="G103" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H103" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="I103" t="n">
-        <v>6.8</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="104">
@@ -2887,28 +2889,28 @@
         <v>133</v>
       </c>
       <c r="B104" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C104" t="n">
         <v>7.2</v>
       </c>
-      <c r="C104" t="n">
-        <v>6.8</v>
-      </c>
       <c r="D104" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="E104" t="n">
+        <v>7</v>
+      </c>
+      <c r="F104" t="n">
         <v>8.199999999999999</v>
-      </c>
-      <c r="F104" t="n">
-        <v>7.4</v>
       </c>
       <c r="G104" t="n">
         <v>7.4</v>
       </c>
       <c r="H104" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="I104" t="n">
-        <v>7.3</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="105">
@@ -2945,28 +2947,28 @@
         <v>135</v>
       </c>
       <c r="B106" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="C106" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="D106" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E106" t="n">
         <v>7.2</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="F106" t="n">
+      <c r="G106" t="n">
         <v>7.2</v>
       </c>
-      <c r="G106" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H106" t="n">
         <v>6.6</v>
       </c>
       <c r="I106" t="n">
-        <v>7</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="107">
@@ -3106,28 +3108,28 @@
         <v>144</v>
       </c>
       <c r="B113" t="n">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="C113" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="D113" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="E113" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="F113" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="G113" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H113" t="n">
         <v>7.3</v>
       </c>
-      <c r="H113" t="n">
-        <v>7.6</v>
-      </c>
       <c r="I113" t="n">
-        <v>6.84</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="114">
@@ -3164,28 +3166,28 @@
         <v>146</v>
       </c>
       <c r="B115" t="n">
-        <v>6.5</v>
+        <v>7.7</v>
       </c>
       <c r="C115" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="D115" t="n">
         <v>7.1</v>
       </c>
       <c r="E115" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="F115" t="n">
         <v>7.3</v>
       </c>
-      <c r="F115" t="n">
+      <c r="G115" t="n">
         <v>7.7</v>
       </c>
-      <c r="G115" t="n">
+      <c r="H115" t="n">
         <v>6.1</v>
       </c>
-      <c r="H115" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I115" t="n">
-        <v>6.91</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="116">
@@ -3193,28 +3195,28 @@
         <v>147</v>
       </c>
       <c r="B116" t="n">
-        <v>6.7</v>
+        <v>6.1</v>
       </c>
       <c r="C116" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="D116" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="E116" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="F116" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="G116" t="n">
         <v>6.3</v>
       </c>
       <c r="H116" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="I116" t="n">
-        <v>6.49</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="117">
@@ -3264,28 +3266,28 @@
         <v>150</v>
       </c>
       <c r="B119" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C119" t="n">
         <v>7.9</v>
       </c>
-      <c r="C119" t="n">
+      <c r="D119" t="n">
         <v>8</v>
       </c>
-      <c r="D119" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E119" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F119" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="F119" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G119" t="n">
         <v>6.7</v>
       </c>
       <c r="H119" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="I119" t="n">
-        <v>7.37</v>
+        <v>7.29</v>
       </c>
     </row>
     <row r="120">
@@ -3335,22 +3337,24 @@
         <v>160</v>
       </c>
       <c r="B122" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="C122" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="D122" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="E122" t="n">
         <v>6.6</v>
       </c>
-      <c r="F122" t="inlineStr"/>
+      <c r="F122" t="n">
+        <v>6.6</v>
+      </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="n">
-        <v>6.6</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="123">
@@ -3603,28 +3607,28 @@
         <v>171</v>
       </c>
       <c r="B132" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="C132" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D132" t="n">
         <v>7.2</v>
       </c>
-      <c r="D132" t="n">
-        <v>7</v>
-      </c>
       <c r="E132" t="n">
+        <v>7</v>
+      </c>
+      <c r="F132" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="F132" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G132" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="H132" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="I132" t="n">
-        <v>7.01</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="133">
@@ -3719,26 +3723,28 @@
         <v>175</v>
       </c>
       <c r="B136" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C136" t="n">
         <v>7.9</v>
       </c>
-      <c r="C136" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D136" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="E136" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F136" t="n">
         <v>7.3</v>
       </c>
-      <c r="F136" t="n">
+      <c r="G136" t="n">
         <v>7.2</v>
       </c>
-      <c r="G136" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="H136" t="inlineStr"/>
+      <c r="H136" t="n">
+        <v>6.9</v>
+      </c>
       <c r="I136" t="n">
-        <v>7.12</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="137">
@@ -3869,26 +3875,28 @@
         <v>181</v>
       </c>
       <c r="B142" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="C142" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="D142" t="n">
         <v>6.6</v>
       </c>
       <c r="E142" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="F142" t="n">
         <v>6.4</v>
       </c>
       <c r="G142" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H142" t="inlineStr"/>
+        <v>6.4</v>
+      </c>
+      <c r="H142" t="n">
+        <v>6.6</v>
+      </c>
       <c r="I142" t="n">
-        <v>6.5</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="143">
@@ -3944,28 +3952,28 @@
         <v>184</v>
       </c>
       <c r="B145" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="C145" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="D145" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E145" t="n">
         <v>7.2</v>
       </c>
-      <c r="E145" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F145" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G145" t="n">
         <v>7.4</v>
       </c>
-      <c r="G145" t="n">
+      <c r="H145" t="n">
         <v>7.2</v>
       </c>
-      <c r="H145" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I145" t="n">
-        <v>7</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="146">
@@ -4123,28 +4131,28 @@
         <v>192</v>
       </c>
       <c r="B152" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="C152" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="D152" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E152" t="n">
         <v>7.1</v>
       </c>
-      <c r="E152" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F152" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G152" t="n">
         <v>7.1</v>
       </c>
-      <c r="G152" t="n">
-        <v>6.8</v>
-      </c>
       <c r="H152" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="I152" t="n">
-        <v>6.89</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="153">
@@ -4198,28 +4206,28 @@
         <v>195</v>
       </c>
       <c r="B155" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="C155" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="D155" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="E155" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F155" t="n">
         <v>6.2</v>
       </c>
-      <c r="F155" t="n">
-        <v>7</v>
-      </c>
       <c r="G155" t="n">
+        <v>7</v>
+      </c>
+      <c r="H155" t="n">
         <v>5.9</v>
       </c>
-      <c r="H155" t="n">
-        <v>6.3</v>
-      </c>
       <c r="I155" t="n">
-        <v>6.43</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="156">
@@ -4273,25 +4281,25 @@
         <v>198</v>
       </c>
       <c r="B158" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="C158" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D158" t="n">
         <v>6.1</v>
       </c>
-      <c r="D158" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E158" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="F158" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="G158" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="H158" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="I158" t="n">
         <v>6.59</v>
@@ -4302,28 +4310,28 @@
         <v>199</v>
       </c>
       <c r="B159" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="C159" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="D159" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E159" t="n">
         <v>7.1</v>
       </c>
-      <c r="E159" t="n">
+      <c r="F159" t="n">
         <v>5.9</v>
       </c>
-      <c r="F159" t="n">
+      <c r="G159" t="n">
         <v>6.1</v>
       </c>
-      <c r="G159" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H159" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="I159" t="n">
-        <v>6.59</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="160">
@@ -4331,18 +4339,20 @@
         <v>200</v>
       </c>
       <c r="B160" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C160" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="D160" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="E160" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="F160" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="F160" t="n">
+        <v>6.6</v>
+      </c>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="n">
@@ -4383,26 +4393,28 @@
         <v>202</v>
       </c>
       <c r="B162" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="C162" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="D162" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="E162" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="F162" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G162" t="n">
         <v>7.3</v>
       </c>
-      <c r="G162" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="H162" t="inlineStr"/>
+      <c r="H162" t="n">
+        <v>6.9</v>
+      </c>
       <c r="I162" t="n">
-        <v>6.7</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="163">
@@ -4439,28 +4451,28 @@
         <v>206</v>
       </c>
       <c r="B164" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="C164" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D164" t="n">
         <v>6.2</v>
       </c>
-      <c r="D164" t="n">
-        <v>7</v>
-      </c>
       <c r="E164" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="F164" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G164" t="n">
         <v>7.2</v>
       </c>
-      <c r="G164" t="n">
+      <c r="H164" t="n">
         <v>7.1</v>
       </c>
-      <c r="H164" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I164" t="n">
-        <v>6.8</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="165">
@@ -4514,28 +4526,28 @@
         <v>209</v>
       </c>
       <c r="B167" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C167" t="n">
         <v>7.5</v>
       </c>
-      <c r="C167" t="n">
-        <v>7</v>
-      </c>
       <c r="D167" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="E167" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F167" t="n">
         <v>5.3</v>
       </c>
-      <c r="F167" t="n">
+      <c r="G167" t="n">
         <v>7.7</v>
       </c>
-      <c r="G167" t="n">
+      <c r="H167" t="n">
         <v>7.4</v>
       </c>
-      <c r="H167" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I167" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168">
@@ -4556,28 +4568,28 @@
         <v>211</v>
       </c>
       <c r="B169" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C169" t="n">
         <v>6.1</v>
       </c>
-      <c r="C169" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D169" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="E169" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="F169" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="G169" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H169" t="n">
         <v>7.3</v>
       </c>
-      <c r="H169" t="n">
-        <v>7.1</v>
-      </c>
       <c r="I169" t="n">
-        <v>6.74</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="170">
@@ -4585,28 +4597,28 @@
         <v>212</v>
       </c>
       <c r="B170" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C170" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="D170" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="E170" t="n">
         <v>7.2</v>
       </c>
       <c r="F170" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="G170" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="H170" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="I170" t="n">
-        <v>6.84</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="171">
@@ -4631,28 +4643,28 @@
         <v>214</v>
       </c>
       <c r="B172" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C172" t="n">
         <v>7.6</v>
       </c>
-      <c r="C172" t="n">
+      <c r="D172" t="n">
         <v>7.7</v>
       </c>
-      <c r="D172" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E172" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F172" t="n">
         <v>8.4</v>
       </c>
-      <c r="F172" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G172" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H172" t="n">
         <v>7.8</v>
       </c>
-      <c r="H172" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I172" t="n">
-        <v>7.36</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="173">
@@ -4673,28 +4685,28 @@
         <v>216</v>
       </c>
       <c r="B174" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="C174" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D174" t="n">
         <v>7.1</v>
       </c>
-      <c r="D174" t="n">
+      <c r="E174" t="n">
         <v>6.1</v>
       </c>
-      <c r="E174" t="n">
-        <v>6.3</v>
-      </c>
       <c r="F174" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="G174" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="H174" t="n">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="I174" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="175">
@@ -4763,25 +4775,25 @@
         <v>7</v>
       </c>
       <c r="C177" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D177" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="E177" t="n">
         <v>7.1</v>
       </c>
       <c r="F177" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="G177" t="n">
         <v>6.9</v>
       </c>
       <c r="H177" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="I177" t="n">
-        <v>6.97</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="178">
@@ -4835,28 +4847,28 @@
         <v>222</v>
       </c>
       <c r="B180" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="C180" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="D180" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="E180" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="F180" t="n">
         <v>6.4</v>
       </c>
       <c r="G180" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="H180" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="I180" t="n">
-        <v>6.71</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="181">
@@ -4951,13 +4963,13 @@
         <v>226</v>
       </c>
       <c r="B184" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="C184" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="D184" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="E184" t="n">
         <v>6.8</v>
@@ -4966,13 +4978,13 @@
         <v>6.8</v>
       </c>
       <c r="G184" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H184" t="n">
         <v>7.3</v>
       </c>
-      <c r="H184" t="n">
-        <v>7.5</v>
-      </c>
       <c r="I184" t="n">
-        <v>6.89</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="185">
@@ -5009,28 +5021,28 @@
         <v>228</v>
       </c>
       <c r="B186" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="C186" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D186" t="n">
         <v>7.4</v>
       </c>
-      <c r="D186" t="n">
+      <c r="E186" t="n">
         <v>8.4</v>
       </c>
-      <c r="E186" t="n">
-        <v>6.3</v>
-      </c>
       <c r="F186" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="G186" t="n">
         <v>7.6</v>
       </c>
-      <c r="G186" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H186" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="I186" t="n">
-        <v>7.13</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="187">
@@ -5282,24 +5294,26 @@
         <v>244</v>
       </c>
       <c r="B199" t="n">
+        <v>7</v>
+      </c>
+      <c r="C199" t="n">
         <v>7.2</v>
       </c>
-      <c r="C199" t="n">
+      <c r="D199" t="n">
         <v>7.5</v>
       </c>
-      <c r="D199" t="n">
+      <c r="E199" t="n">
         <v>7.4</v>
       </c>
-      <c r="E199" t="n">
+      <c r="F199" t="n">
         <v>7.1</v>
       </c>
-      <c r="F199" t="n">
-        <v>7</v>
-      </c>
-      <c r="G199" t="inlineStr"/>
+      <c r="G199" t="n">
+        <v>7</v>
+      </c>
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="n">
-        <v>7.24</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="200">
@@ -5328,28 +5342,28 @@
         <v>247</v>
       </c>
       <c r="B201" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C201" t="n">
         <v>7.8</v>
       </c>
-      <c r="C201" t="n">
+      <c r="D201" t="n">
         <v>9.4</v>
       </c>
-      <c r="D201" t="n">
-        <v>6.4</v>
-      </c>
       <c r="E201" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="F201" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G201" t="n">
         <v>7.7</v>
       </c>
-      <c r="G201" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H201" t="n">
-        <v>8.199999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="I201" t="n">
-        <v>7.57</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="202">
@@ -5389,28 +5403,28 @@
         <v>252</v>
       </c>
       <c r="B204" t="n">
+        <v>6</v>
+      </c>
+      <c r="C204" t="n">
         <v>7.2</v>
       </c>
-      <c r="C204" t="n">
+      <c r="D204" t="n">
         <v>7.6</v>
       </c>
-      <c r="D204" t="n">
+      <c r="E204" t="n">
         <v>7.7</v>
       </c>
-      <c r="E204" t="n">
+      <c r="F204" t="n">
         <v>7.2</v>
       </c>
-      <c r="F204" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G204" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H204" t="n">
         <v>8.4</v>
       </c>
-      <c r="H204" t="n">
-        <v>7.2</v>
-      </c>
       <c r="I204" t="n">
-        <v>7.43</v>
+        <v>7.26</v>
       </c>
     </row>
     <row r="205">
@@ -5418,20 +5432,22 @@
         <v>253</v>
       </c>
       <c r="B205" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="C205" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="D205" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="E205" t="inlineStr"/>
+        <v>6.6</v>
+      </c>
+      <c r="E205" t="n">
+        <v>6.4</v>
+      </c>
       <c r="F205" t="inlineStr"/>
       <c r="G205" t="inlineStr"/>
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="n">
-        <v>6.47</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="206">
@@ -5456,20 +5472,22 @@
         <v>255</v>
       </c>
       <c r="B207" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="C207" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D207" t="n">
         <v>6</v>
       </c>
-      <c r="D207" t="n">
+      <c r="E207" t="n">
         <v>7.7</v>
       </c>
-      <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr"/>
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="n">
-        <v>6.77</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="208">
@@ -5506,20 +5524,22 @@
         <v>258</v>
       </c>
       <c r="B209" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="C209" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="D209" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="E209" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="E209" t="n">
+        <v>6.7</v>
+      </c>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="n">
-        <v>6.63</v>
+        <v>6.62</v>
       </c>
     </row>
     <row r="210">
@@ -5612,28 +5632,28 @@
         <v>263</v>
       </c>
       <c r="B213" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="C213" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="D213" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="E213" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="F213" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="G213" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H213" t="n">
         <v>7.3</v>
       </c>
-      <c r="H213" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I213" t="n">
-        <v>6.77</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="214">
@@ -5654,28 +5674,28 @@
         <v>267</v>
       </c>
       <c r="B215" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="C215" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D215" t="n">
         <v>7.1</v>
       </c>
-      <c r="D215" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E215" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="F215" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="G215" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H215" t="n">
         <v>7.8</v>
       </c>
-      <c r="H215" t="n">
-        <v>6.2</v>
-      </c>
       <c r="I215" t="n">
-        <v>6.84</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="216">
@@ -5683,28 +5703,28 @@
         <v>273</v>
       </c>
       <c r="B216" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C216" t="n">
         <v>7.4</v>
       </c>
-      <c r="C216" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D216" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="E216" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="F216" t="n">
         <v>6.5</v>
       </c>
       <c r="G216" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H216" t="n">
         <v>8.1</v>
       </c>
-      <c r="H216" t="n">
-        <v>6.3</v>
-      </c>
       <c r="I216" t="n">
-        <v>6.86</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="217">
@@ -5816,28 +5836,28 @@
         <v>278</v>
       </c>
       <c r="B221" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C221" t="n">
         <v>7.1</v>
       </c>
-      <c r="C221" t="n">
+      <c r="D221" t="n">
         <v>7.6</v>
       </c>
-      <c r="D221" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E221" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F221" t="n">
         <v>7.9</v>
       </c>
-      <c r="F221" t="n">
+      <c r="G221" t="n">
         <v>7.4</v>
       </c>
-      <c r="G221" t="n">
-        <v>7</v>
-      </c>
       <c r="H221" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="I221" t="n">
-        <v>7.31</v>
+        <v>7.21</v>
       </c>
     </row>
     <row r="222">
@@ -5930,28 +5950,28 @@
         <v>282</v>
       </c>
       <c r="B225" t="n">
+        <v>7</v>
+      </c>
+      <c r="C225" t="n">
         <v>5.8</v>
       </c>
-      <c r="C225" t="n">
-        <v>7</v>
-      </c>
       <c r="D225" t="n">
+        <v>7</v>
+      </c>
+      <c r="E225" t="n">
         <v>7.3</v>
       </c>
-      <c r="E225" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F225" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="G225" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H225" t="n">
         <v>7.6</v>
       </c>
-      <c r="H225" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I225" t="n">
-        <v>6.81</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="226">
@@ -6100,28 +6120,28 @@
         <v>289</v>
       </c>
       <c r="B231" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="C231" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D231" t="n">
         <v>7.1</v>
       </c>
-      <c r="D231" t="n">
-        <v>7</v>
-      </c>
       <c r="E231" t="n">
+        <v>7</v>
+      </c>
+      <c r="F231" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="F231" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G231" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H231" t="n">
         <v>8.1</v>
       </c>
-      <c r="H231" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I231" t="n">
-        <v>7.16</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="232">
@@ -6187,28 +6207,28 @@
         <v>292</v>
       </c>
       <c r="B234" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C234" t="n">
         <v>7.3</v>
       </c>
-      <c r="C234" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D234" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E234" t="n">
         <v>7.4</v>
       </c>
-      <c r="E234" t="n">
+      <c r="F234" t="n">
         <v>7.6</v>
       </c>
-      <c r="F234" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G234" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="H234" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="I234" t="n">
-        <v>6.97</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="235">
@@ -6266,28 +6286,28 @@
         <v>295</v>
       </c>
       <c r="B237" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="C237" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D237" t="n">
         <v>7.1</v>
       </c>
-      <c r="D237" t="n">
-        <v>6.3</v>
-      </c>
       <c r="E237" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F237" t="n">
         <v>6.1</v>
       </c>
-      <c r="F237" t="n">
+      <c r="G237" t="n">
         <v>7.2</v>
       </c>
-      <c r="G237" t="n">
-        <v>6.3</v>
-      </c>
       <c r="H237" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="I237" t="n">
-        <v>6.69</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="238">
@@ -6324,25 +6344,25 @@
         <v>298</v>
       </c>
       <c r="B239" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="C239" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D239" t="n">
         <v>5.8</v>
       </c>
-      <c r="D239" t="n">
+      <c r="E239" t="n">
         <v>7.5</v>
       </c>
-      <c r="E239" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F239" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="G239" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="H239" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="I239" t="n">
         <v>6.63</v>
@@ -6353,28 +6373,28 @@
         <v>299</v>
       </c>
       <c r="B240" t="n">
+        <v>7</v>
+      </c>
+      <c r="C240" t="n">
         <v>6.2</v>
       </c>
-      <c r="C240" t="n">
-        <v>7</v>
-      </c>
       <c r="D240" t="n">
         <v>7</v>
       </c>
       <c r="E240" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="F240" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="G240" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H240" t="n">
         <v>7.2</v>
       </c>
-      <c r="H240" t="n">
-        <v>7.9</v>
-      </c>
       <c r="I240" t="n">
-        <v>6.93</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="241">
@@ -6382,28 +6402,28 @@
         <v>300</v>
       </c>
       <c r="B241" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C241" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="C241" t="n">
+      <c r="D241" t="n">
         <v>8</v>
       </c>
-      <c r="D241" t="n">
+      <c r="E241" t="n">
         <v>7.4</v>
       </c>
-      <c r="E241" t="n">
+      <c r="F241" t="n">
         <v>7.3</v>
       </c>
-      <c r="F241" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G241" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="H241" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="I241" t="n">
-        <v>7.37</v>
+        <v>7.39</v>
       </c>
     </row>
     <row r="242">
@@ -6463,26 +6483,28 @@
         <v>303</v>
       </c>
       <c r="B244" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="C244" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D244" t="n">
         <v>7.5</v>
-      </c>
-      <c r="D244" t="n">
-        <v>7.4</v>
       </c>
       <c r="E244" t="n">
         <v>7.4</v>
       </c>
       <c r="F244" t="n">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="G244" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H244" t="inlineStr"/>
+        <v>6.7</v>
+      </c>
+      <c r="H244" t="n">
+        <v>6.5</v>
+      </c>
       <c r="I244" t="n">
-        <v>7.02</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="245">
@@ -6490,28 +6512,28 @@
         <v>305</v>
       </c>
       <c r="B245" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="C245" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="D245" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="E245" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="F245" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G245" t="n">
         <v>7.1</v>
       </c>
-      <c r="G245" t="n">
+      <c r="H245" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="H245" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I245" t="n">
-        <v>6.91</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="246">
@@ -6577,25 +6599,25 @@
         <v>308</v>
       </c>
       <c r="B248" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="C248" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="D248" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E248" t="n">
         <v>5.9</v>
       </c>
-      <c r="E248" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F248" t="n">
         <v>6.5</v>
       </c>
       <c r="G248" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H248" t="n">
         <v>7.4</v>
-      </c>
-      <c r="H248" t="n">
-        <v>6.5</v>
       </c>
       <c r="I248" t="n">
         <v>6.51</v>
@@ -6606,28 +6628,28 @@
         <v>309</v>
       </c>
       <c r="B249" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C249" t="n">
         <v>7.6</v>
-      </c>
-      <c r="C249" t="n">
-        <v>7.1</v>
       </c>
       <c r="D249" t="n">
         <v>7.1</v>
       </c>
       <c r="E249" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="F249" t="n">
+        <v>7</v>
+      </c>
+      <c r="G249" t="n">
         <v>7.3</v>
       </c>
-      <c r="G249" t="n">
+      <c r="H249" t="n">
         <v>7.7</v>
       </c>
-      <c r="H249" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I249" t="n">
-        <v>7.23</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="250">
@@ -6635,25 +6657,25 @@
         <v>310</v>
       </c>
       <c r="B250" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C250" t="n">
         <v>7.3</v>
       </c>
-      <c r="C250" t="n">
-        <v>7</v>
-      </c>
       <c r="D250" t="n">
         <v>7</v>
       </c>
       <c r="E250" t="n">
+        <v>7</v>
+      </c>
+      <c r="F250" t="n">
         <v>7.4</v>
       </c>
-      <c r="F250" t="n">
+      <c r="G250" t="n">
         <v>7.5</v>
       </c>
-      <c r="G250" t="n">
+      <c r="H250" t="n">
         <v>8.199999999999999</v>
-      </c>
-      <c r="H250" t="n">
-        <v>7.4</v>
       </c>
       <c r="I250" t="n">
         <v>7.4</v>
@@ -6664,24 +6686,26 @@
         <v>311</v>
       </c>
       <c r="B251" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C251" t="n">
         <v>7.9</v>
       </c>
-      <c r="C251" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D251" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="E251" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="F251" t="n">
-        <v>7</v>
-      </c>
-      <c r="G251" t="inlineStr"/>
+        <v>6.9</v>
+      </c>
+      <c r="G251" t="n">
+        <v>7</v>
+      </c>
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="n">
-        <v>7.08</v>
+        <v>7</v>
       </c>
     </row>
     <row r="252">
@@ -6689,28 +6713,28 @@
         <v>312</v>
       </c>
       <c r="B252" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="C252" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="D252" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E252" t="n">
         <v>7.2</v>
       </c>
-      <c r="E252" t="n">
+      <c r="F252" t="n">
         <v>7.9</v>
       </c>
-      <c r="F252" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G252" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="H252" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I252" t="n">
-        <v>6.86</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="253">
@@ -6718,25 +6742,25 @@
         <v>313</v>
       </c>
       <c r="B253" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C253" t="n">
         <v>7.1</v>
       </c>
-      <c r="C253" t="n">
-        <v>7</v>
-      </c>
       <c r="D253" t="n">
+        <v>7</v>
+      </c>
+      <c r="E253" t="n">
         <v>6.2</v>
       </c>
-      <c r="E253" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F253" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G253" t="n">
         <v>9.6</v>
       </c>
-      <c r="G253" t="n">
-        <v>6.3</v>
-      </c>
       <c r="H253" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="I253" t="n">
         <v>7.01</v>
@@ -6747,28 +6771,28 @@
         <v>314</v>
       </c>
       <c r="B254" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="C254" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="D254" t="n">
+        <v>7</v>
+      </c>
+      <c r="E254" t="n">
         <v>7.1</v>
       </c>
-      <c r="E254" t="n">
-        <v>7</v>
-      </c>
       <c r="F254" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="G254" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="H254" t="n">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="I254" t="n">
-        <v>6.96</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="255">
@@ -6776,28 +6800,28 @@
         <v>315</v>
       </c>
       <c r="B255" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="C255" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D255" t="n">
         <v>7.7</v>
       </c>
-      <c r="D255" t="n">
+      <c r="E255" t="n">
         <v>8.1</v>
       </c>
-      <c r="E255" t="n">
+      <c r="F255" t="n">
         <v>6.1</v>
       </c>
-      <c r="F255" t="n">
+      <c r="G255" t="n">
         <v>7.2</v>
       </c>
-      <c r="G255" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H255" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="I255" t="n">
-        <v>7.1</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="256">
@@ -6805,7 +6829,7 @@
         <v>316</v>
       </c>
       <c r="B256" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="C256" t="n">
         <v>6.5</v>
@@ -6814,19 +6838,19 @@
         <v>6.5</v>
       </c>
       <c r="E256" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="F256" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="G256" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="H256" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="I256" t="n">
-        <v>6.54</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="257">
@@ -6834,28 +6858,28 @@
         <v>317</v>
       </c>
       <c r="B257" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="C257" t="n">
         <v>6.2</v>
       </c>
       <c r="D257" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="E257" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="F257" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G257" t="n">
         <v>6.2</v>
       </c>
-      <c r="G257" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H257" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="I257" t="n">
-        <v>6.4</v>
+        <v>6.31</v>
       </c>
     </row>
     <row r="258">
@@ -6863,25 +6887,25 @@
         <v>318</v>
       </c>
       <c r="B258" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="C258" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="D258" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E258" t="n">
         <v>6</v>
       </c>
-      <c r="E258" t="n">
+      <c r="F258" t="n">
         <v>7.3</v>
       </c>
-      <c r="F258" t="n">
-        <v>6.3</v>
-      </c>
       <c r="G258" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H258" t="n">
         <v>7.1</v>
-      </c>
-      <c r="H258" t="n">
-        <v>6.9</v>
       </c>
       <c r="I258" t="n">
         <v>6.67</v>
@@ -6941,25 +6965,25 @@
         <v>7</v>
       </c>
       <c r="C261" t="n">
+        <v>7</v>
+      </c>
+      <c r="D261" t="n">
         <v>7.1</v>
       </c>
-      <c r="D261" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E261" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="F261" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="G261" t="n">
+        <v>7</v>
+      </c>
+      <c r="H261" t="n">
         <v>7.4</v>
       </c>
-      <c r="H261" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I261" t="n">
-        <v>6.93</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="262">
@@ -6967,26 +6991,28 @@
         <v>322</v>
       </c>
       <c r="B262" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="C262" t="n">
+        <v>7</v>
+      </c>
+      <c r="D262" t="n">
         <v>7.1</v>
       </c>
-      <c r="D262" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E262" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F262" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="F262" t="n">
+      <c r="G262" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="G262" t="n">
+      <c r="H262" t="n">
         <v>7.5</v>
       </c>
-      <c r="H262" t="inlineStr"/>
       <c r="I262" t="n">
-        <v>7.62</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="263">
@@ -7052,20 +7078,22 @@
         <v>325</v>
       </c>
       <c r="B265" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="C265" t="n">
         <v>6.6</v>
       </c>
       <c r="D265" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="E265" t="inlineStr"/>
+        <v>6.6</v>
+      </c>
+      <c r="E265" t="n">
+        <v>6.8</v>
+      </c>
       <c r="F265" t="inlineStr"/>
       <c r="G265" t="inlineStr"/>
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="n">
-        <v>6.67</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="266">
@@ -7227,12 +7255,14 @@
         <v>335</v>
       </c>
       <c r="B272" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="C272" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="D272" t="inlineStr"/>
+        <v>6.3</v>
+      </c>
+      <c r="D272" t="n">
+        <v>6.7</v>
+      </c>
       <c r="E272" t="inlineStr"/>
       <c r="F272" t="inlineStr"/>
       <c r="G272" t="inlineStr"/>
@@ -7246,28 +7276,28 @@
         <v>336</v>
       </c>
       <c r="B273" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="C273" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D273" t="n">
         <v>6.2</v>
       </c>
-      <c r="D273" t="n">
-        <v>6.4</v>
-      </c>
       <c r="E273" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F273" t="n">
         <v>6</v>
       </c>
-      <c r="F273" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G273" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H273" t="n">
         <v>7.3</v>
       </c>
-      <c r="H273" t="n">
-        <v>6</v>
-      </c>
       <c r="I273" t="n">
-        <v>6.46</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="274">
@@ -7340,28 +7370,28 @@
         <v>340</v>
       </c>
       <c r="B277" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C277" t="n">
         <v>7.2</v>
       </c>
-      <c r="C277" t="n">
-        <v>7</v>
-      </c>
       <c r="D277" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="E277" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F277" t="n">
         <v>7.8</v>
       </c>
-      <c r="F277" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G277" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="H277" t="n">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="I277" t="n">
-        <v>7.06</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="278">
@@ -7372,25 +7402,25 @@
         <v>6.6</v>
       </c>
       <c r="C278" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="D278" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="E278" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="F278" t="n">
         <v>7.5</v>
       </c>
       <c r="G278" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="H278" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="I278" t="n">
-        <v>7</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="279">
@@ -7398,28 +7428,28 @@
         <v>342</v>
       </c>
       <c r="B279" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="C279" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D279" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="D279" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E279" t="n">
         <v>6.7</v>
       </c>
       <c r="F279" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G279" t="n">
         <v>7.7</v>
       </c>
-      <c r="G279" t="n">
+      <c r="H279" t="n">
         <v>7.8</v>
       </c>
-      <c r="H279" t="n">
-        <v>6.4</v>
-      </c>
       <c r="I279" t="n">
-        <v>7.27</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="280">
@@ -7454,28 +7484,28 @@
         <v>344</v>
       </c>
       <c r="B281" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="C281" t="n">
+        <v>7</v>
+      </c>
+      <c r="D281" t="n">
         <v>8.4</v>
       </c>
-      <c r="D281" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E281" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="F281" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G281" t="n">
         <v>7.2</v>
       </c>
-      <c r="G281" t="n">
+      <c r="H281" t="n">
         <v>8</v>
       </c>
-      <c r="H281" t="n">
-        <v>10</v>
-      </c>
       <c r="I281" t="n">
-        <v>7.7</v>
+        <v>7.19</v>
       </c>
     </row>
     <row r="282">
@@ -7486,25 +7516,25 @@
         <v>7</v>
       </c>
       <c r="C282" t="n">
+        <v>7</v>
+      </c>
+      <c r="D282" t="n">
         <v>7.1</v>
       </c>
-      <c r="D282" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E282" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="F282" t="n">
+        <v>7</v>
+      </c>
+      <c r="G282" t="n">
         <v>7.4</v>
       </c>
-      <c r="G282" t="n">
-        <v>6.3</v>
-      </c>
       <c r="H282" t="n">
-        <v>7.2</v>
+        <v>6.3</v>
       </c>
       <c r="I282" t="n">
-        <v>6.96</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="283">
@@ -7512,7 +7542,7 @@
         <v>346</v>
       </c>
       <c r="B283" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="C283" t="n">
         <v>6.9</v>
@@ -7533,7 +7563,7 @@
         <v>6.5</v>
       </c>
       <c r="I283" t="n">
-        <v>6.79</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="284">
@@ -7686,28 +7716,28 @@
         <v>352</v>
       </c>
       <c r="B289" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="C289" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="D289" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E289" t="n">
         <v>7.9</v>
       </c>
-      <c r="E289" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F289" t="n">
         <v>6.5</v>
       </c>
       <c r="G289" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H289" t="n">
         <v>6.1</v>
       </c>
-      <c r="H289" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I289" t="n">
-        <v>6.73</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="290">
@@ -7715,26 +7745,28 @@
         <v>353</v>
       </c>
       <c r="B290" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="C290" t="n">
         <v>6.5</v>
       </c>
       <c r="D290" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="E290" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F290" t="n">
         <v>5.9</v>
       </c>
-      <c r="F290" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G290" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H290" t="inlineStr"/>
+        <v>6.8</v>
+      </c>
+      <c r="H290" t="n">
+        <v>6.5</v>
+      </c>
       <c r="I290" t="n">
-        <v>6.5</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="291">
@@ -7917,28 +7949,28 @@
         <v>362</v>
       </c>
       <c r="B298" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C298" t="n">
         <v>7.4</v>
       </c>
-      <c r="C298" t="n">
+      <c r="D298" t="n">
         <v>7.9</v>
       </c>
-      <c r="D298" t="n">
+      <c r="E298" t="n">
         <v>7.6</v>
       </c>
-      <c r="E298" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F298" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="G298" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H298" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="H298" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I298" t="n">
-        <v>7.39</v>
+        <v>7.49</v>
       </c>
     </row>
     <row r="299">
@@ -8086,25 +8118,25 @@
         <v>6.8</v>
       </c>
       <c r="C304" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="D304" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E304" t="n">
         <v>7.3</v>
       </c>
-      <c r="E304" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F304" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="G304" t="n">
+        <v>7</v>
+      </c>
+      <c r="H304" t="n">
         <v>6</v>
       </c>
-      <c r="H304" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I304" t="n">
-        <v>6.69</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="305">
@@ -8199,26 +8231,28 @@
         <v>373</v>
       </c>
       <c r="B308" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C308" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D308" t="n">
         <v>7.2</v>
       </c>
-      <c r="D308" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E308" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="F308" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="G308" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H308" t="n">
         <v>7.1</v>
       </c>
-      <c r="H308" t="inlineStr"/>
       <c r="I308" t="n">
-        <v>6.92</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="309">
@@ -8255,28 +8289,28 @@
         <v>375</v>
       </c>
       <c r="B310" t="n">
-        <v>6.7</v>
+        <v>8</v>
       </c>
       <c r="C310" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="D310" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E310" t="n">
         <v>7.3</v>
       </c>
-      <c r="E310" t="n">
+      <c r="F310" t="n">
         <v>7.5</v>
       </c>
-      <c r="F310" t="n">
+      <c r="G310" t="n">
         <v>7.6</v>
       </c>
-      <c r="G310" t="n">
+      <c r="H310" t="n">
         <v>7.1</v>
       </c>
-      <c r="H310" t="n">
-        <v>7.5</v>
-      </c>
       <c r="I310" t="n">
-        <v>7.19</v>
+        <v>7.26</v>
       </c>
     </row>
     <row r="311">
@@ -8284,28 +8318,28 @@
         <v>376</v>
       </c>
       <c r="B311" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="C311" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D311" t="n">
         <v>6</v>
       </c>
-      <c r="D311" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E311" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="F311" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G311" t="n">
         <v>6.1</v>
       </c>
-      <c r="G311" t="n">
-        <v>6.8</v>
-      </c>
       <c r="H311" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="I311" t="n">
-        <v>6.46</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="312">
@@ -8371,22 +8405,24 @@
         <v>379</v>
       </c>
       <c r="B314" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C314" t="n">
         <v>6.6</v>
       </c>
       <c r="D314" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="E314" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="F314" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="F314" t="n">
+        <v>6.6</v>
+      </c>
       <c r="G314" t="inlineStr"/>
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="n">
-        <v>6.57</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="315">
@@ -8394,20 +8430,22 @@
         <v>380</v>
       </c>
       <c r="B315" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="C315" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="D315" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="E315" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="E315" t="n">
+        <v>6.4</v>
+      </c>
       <c r="F315" t="inlineStr"/>
       <c r="G315" t="inlineStr"/>
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="n">
-        <v>6.53</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="316">
@@ -8444,7 +8482,7 @@
         <v>382</v>
       </c>
       <c r="B317" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="C317" t="n">
         <v>6.5</v>
@@ -8465,7 +8503,7 @@
         <v>6.9</v>
       </c>
       <c r="I317" t="n">
-        <v>6.5</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="318">
@@ -8473,25 +8511,25 @@
         <v>383</v>
       </c>
       <c r="B318" t="n">
-        <v>6.9</v>
+        <v>8.4</v>
       </c>
       <c r="C318" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D318" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="D318" t="n">
+      <c r="E318" t="n">
         <v>7.9</v>
       </c>
-      <c r="E318" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F318" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G318" t="n">
         <v>7.3</v>
       </c>
-      <c r="G318" t="n">
-        <v>7</v>
-      </c>
       <c r="H318" t="n">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="I318" t="n">
         <v>7.47</v>
@@ -8531,25 +8569,25 @@
         <v>385</v>
       </c>
       <c r="B320" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="C320" t="n">
         <v>7.1</v>
       </c>
       <c r="D320" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="E320" t="n">
         <v>7</v>
       </c>
       <c r="F320" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="G320" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H320" t="n">
         <v>7.8</v>
-      </c>
-      <c r="H320" t="n">
-        <v>7</v>
       </c>
       <c r="I320" t="n">
         <v>7.1</v>
@@ -8579,28 +8617,28 @@
         <v>387</v>
       </c>
       <c r="B322" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C322" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="D322" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="E322" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F322" t="n">
         <v>8.9</v>
       </c>
-      <c r="F322" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G322" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H322" t="n">
         <v>7.2</v>
       </c>
-      <c r="H322" t="n">
-        <v>7.3</v>
-      </c>
       <c r="I322" t="n">
-        <v>7.26</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="323">
@@ -8637,25 +8675,25 @@
         <v>389</v>
       </c>
       <c r="B324" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="C324" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="D324" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="E324" t="n">
         <v>6.4</v>
       </c>
       <c r="F324" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G324" t="n">
         <v>7.1</v>
       </c>
-      <c r="G324" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H324" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="I324" t="n">
         <v>6.8</v>
@@ -8679,20 +8717,22 @@
         <v>391</v>
       </c>
       <c r="B326" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C326" t="n">
         <v>7.3</v>
       </c>
-      <c r="C326" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D326" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="E326" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="E326" t="n">
+        <v>6.6</v>
+      </c>
       <c r="F326" t="inlineStr"/>
       <c r="G326" t="inlineStr"/>
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="n">
-        <v>6.8</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="327">
@@ -8713,28 +8753,28 @@
         <v>393</v>
       </c>
       <c r="B328" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="C328" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="D328" t="n">
+        <v>7</v>
+      </c>
+      <c r="E328" t="n">
         <v>7.8</v>
       </c>
-      <c r="E328" t="n">
+      <c r="F328" t="n">
         <v>8.1</v>
       </c>
-      <c r="F328" t="n">
+      <c r="G328" t="n">
         <v>8.9</v>
       </c>
-      <c r="G328" t="n">
+      <c r="H328" t="n">
         <v>7.2</v>
       </c>
-      <c r="H328" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I328" t="n">
-        <v>7.47</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="329">
@@ -8742,28 +8782,28 @@
         <v>394</v>
       </c>
       <c r="B329" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C329" t="n">
         <v>7.7</v>
       </c>
-      <c r="C329" t="n">
-        <v>7</v>
-      </c>
       <c r="D329" t="n">
+        <v>7</v>
+      </c>
+      <c r="E329" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="E329" t="n">
+      <c r="F329" t="n">
         <v>7.4</v>
       </c>
-      <c r="F329" t="n">
+      <c r="G329" t="n">
         <v>7.7</v>
       </c>
-      <c r="G329" t="n">
+      <c r="H329" t="n">
         <v>8.1</v>
       </c>
-      <c r="H329" t="n">
-        <v>7.6</v>
-      </c>
       <c r="I329" t="n">
-        <v>7.67</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="330">
@@ -8771,26 +8811,28 @@
         <v>395</v>
       </c>
       <c r="B330" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="C330" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="D330" t="n">
         <v>6.6</v>
       </c>
       <c r="E330" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="F330" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="G330" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="H330" t="inlineStr"/>
+        <v>6.6</v>
+      </c>
+      <c r="H330" t="n">
+        <v>6.9</v>
+      </c>
       <c r="I330" t="n">
-        <v>6.67</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="331">
@@ -9011,26 +9053,28 @@
         <v>405</v>
       </c>
       <c r="B340" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C340" t="n">
         <v>7.2</v>
       </c>
-      <c r="C340" t="n">
+      <c r="D340" t="n">
         <v>7.4</v>
       </c>
-      <c r="D340" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E340" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="F340" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="G340" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H340" t="n">
         <v>7.5</v>
       </c>
-      <c r="H340" t="inlineStr"/>
       <c r="I340" t="n">
-        <v>7.03</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="341">
@@ -9096,28 +9140,28 @@
         <v>408</v>
       </c>
       <c r="B343" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="C343" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="D343" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="E343" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="F343" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="G343" t="n">
         <v>8.6</v>
       </c>
-      <c r="G343" t="n">
+      <c r="H343" t="n">
         <v>7.1</v>
       </c>
-      <c r="H343" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="I343" t="n">
-        <v>7.37</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="344">
@@ -9128,25 +9172,25 @@
         <v>6.9</v>
       </c>
       <c r="C344" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D344" t="n">
         <v>7.3</v>
       </c>
-      <c r="D344" t="n">
-        <v>6.4</v>
-      </c>
       <c r="E344" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="F344" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="G344" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H344" t="n">
         <v>9</v>
       </c>
-      <c r="H344" t="n">
-        <v>6</v>
-      </c>
       <c r="I344" t="n">
-        <v>7.01</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="345">
@@ -9266,28 +9310,28 @@
         <v>414</v>
       </c>
       <c r="B349" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="C349" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D349" t="n">
         <v>8.6</v>
       </c>
-      <c r="D349" t="n">
+      <c r="E349" t="n">
         <v>7.1</v>
       </c>
-      <c r="E349" t="n">
+      <c r="F349" t="n">
         <v>6.1</v>
       </c>
-      <c r="F349" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G349" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H349" t="n">
         <v>9.4</v>
       </c>
-      <c r="H349" t="n">
-        <v>7.8</v>
-      </c>
       <c r="I349" t="n">
-        <v>7.46</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="350">
@@ -9353,28 +9397,28 @@
         <v>417</v>
       </c>
       <c r="B352" t="n">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="C352" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D352" t="n">
         <v>6.2</v>
       </c>
-      <c r="D352" t="n">
+      <c r="E352" t="n">
         <v>8.9</v>
       </c>
-      <c r="E352" t="n">
+      <c r="F352" t="n">
         <v>6</v>
       </c>
-      <c r="F352" t="n">
+      <c r="G352" t="n">
         <v>8</v>
       </c>
-      <c r="G352" t="n">
-        <v>6.3</v>
-      </c>
       <c r="H352" t="n">
-        <v>9.9</v>
+        <v>6.3</v>
       </c>
       <c r="I352" t="n">
-        <v>7.41</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="353">
@@ -9382,28 +9426,28 @@
         <v>418</v>
       </c>
       <c r="B353" t="n">
+        <v>7</v>
+      </c>
+      <c r="C353" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="C353" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D353" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="E353" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="F353" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="G353" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="H353" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="I353" t="n">
-        <v>6.89</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="354">
@@ -9469,28 +9513,28 @@
         <v>421</v>
       </c>
       <c r="B356" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="C356" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="D356" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="E356" t="n">
+        <v>7</v>
+      </c>
+      <c r="F356" t="n">
         <v>8.5</v>
       </c>
-      <c r="F356" t="n">
-        <v>7</v>
-      </c>
       <c r="G356" t="n">
+        <v>7</v>
+      </c>
+      <c r="H356" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="H356" t="n">
-        <v>7</v>
-      </c>
       <c r="I356" t="n">
-        <v>7.27</v>
+        <v>7.29</v>
       </c>
     </row>
     <row r="357">
@@ -9523,28 +9567,28 @@
         <v>423</v>
       </c>
       <c r="B358" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="C358" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D358" t="n">
         <v>6.1</v>
       </c>
-      <c r="D358" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E358" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F358" t="n">
         <v>6.2</v>
       </c>
-      <c r="F358" t="n">
+      <c r="G358" t="n">
         <v>7.7</v>
       </c>
-      <c r="G358" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H358" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="I358" t="n">
-        <v>6.7</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="359">
@@ -9585,25 +9629,25 @@
         <v>6.4</v>
       </c>
       <c r="C361" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="D361" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="E361" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="F361" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G361" t="n">
         <v>6.2</v>
       </c>
-      <c r="G361" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H361" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="I361" t="n">
-        <v>6.56</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="362">
@@ -9614,25 +9658,25 @@
         <v>6.9</v>
       </c>
       <c r="C362" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="D362" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="E362" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="F362" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G362" t="n">
         <v>7.4</v>
       </c>
-      <c r="G362" t="n">
-        <v>6.8</v>
-      </c>
       <c r="H362" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="I362" t="n">
-        <v>6.94</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="363">
@@ -9640,28 +9684,28 @@
         <v>428</v>
       </c>
       <c r="B363" t="n">
-        <v>6.3</v>
+        <v>8</v>
       </c>
       <c r="C363" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D363" t="n">
         <v>7.1</v>
       </c>
-      <c r="D363" t="n">
-        <v>6.4</v>
-      </c>
       <c r="E363" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="F363" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G363" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="G363" t="n">
+      <c r="H363" t="n">
         <v>7.2</v>
       </c>
-      <c r="H363" t="n">
-        <v>6</v>
-      </c>
       <c r="I363" t="n">
-        <v>6.81</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="364">
@@ -9669,28 +9713,28 @@
         <v>429</v>
       </c>
       <c r="B364" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="C364" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="D364" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E364" t="n">
         <v>7.2</v>
       </c>
-      <c r="E364" t="n">
+      <c r="F364" t="n">
         <v>7.4</v>
       </c>
-      <c r="F364" t="n">
+      <c r="G364" t="n">
         <v>7.9</v>
       </c>
-      <c r="G364" t="n">
+      <c r="H364" t="n">
         <v>8</v>
       </c>
-      <c r="H364" t="n">
-        <v>7.2</v>
-      </c>
       <c r="I364" t="n">
-        <v>7.24</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="365">
@@ -9756,28 +9800,28 @@
         <v>432</v>
       </c>
       <c r="B367" t="n">
+        <v>7</v>
+      </c>
+      <c r="C367" t="n">
         <v>7.2</v>
       </c>
-      <c r="C367" t="n">
-        <v>6.8</v>
-      </c>
       <c r="D367" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E367" t="n">
         <v>7.9</v>
       </c>
-      <c r="E367" t="n">
+      <c r="F367" t="n">
         <v>7.1</v>
       </c>
-      <c r="F367" t="n">
+      <c r="G367" t="n">
         <v>7.2</v>
       </c>
-      <c r="G367" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H367" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="I367" t="n">
-        <v>7.1</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="368">
@@ -9945,28 +9989,28 @@
         <v>439</v>
       </c>
       <c r="B374" t="n">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="C374" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="D374" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="E374" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="F374" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G374" t="n">
         <v>7.3</v>
       </c>
-      <c r="G374" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H374" t="n">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="I374" t="n">
-        <v>6.93</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="375">
@@ -9974,28 +10018,28 @@
         <v>440</v>
       </c>
       <c r="B375" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C375" t="n">
         <v>7.7</v>
       </c>
-      <c r="C375" t="n">
-        <v>6.8</v>
-      </c>
       <c r="D375" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E375" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="E375" t="n">
+      <c r="F375" t="n">
         <v>7.1</v>
       </c>
-      <c r="F375" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G375" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H375" t="n">
         <v>7.5</v>
       </c>
-      <c r="H375" t="n">
-        <v>7</v>
-      </c>
       <c r="I375" t="n">
-        <v>7.33</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="376">
@@ -10032,25 +10076,25 @@
         <v>442</v>
       </c>
       <c r="B377" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="C377" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D377" t="n">
         <v>6.2</v>
       </c>
-      <c r="D377" t="n">
+      <c r="E377" t="n">
         <v>7.5</v>
       </c>
-      <c r="E377" t="n">
+      <c r="F377" t="n">
         <v>8.1</v>
       </c>
-      <c r="F377" t="n">
-        <v>7</v>
-      </c>
       <c r="G377" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="H377" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="I377" t="n">
         <v>6.99</v>
@@ -10090,28 +10134,28 @@
         <v>444</v>
       </c>
       <c r="B379" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C379" t="n">
         <v>8.1</v>
       </c>
-      <c r="C379" t="n">
+      <c r="D379" t="n">
         <v>7.8</v>
       </c>
-      <c r="D379" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E379" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F379" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="F379" t="n">
+      <c r="G379" t="n">
         <v>7.5</v>
       </c>
-      <c r="G379" t="n">
-        <v>7</v>
-      </c>
       <c r="H379" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I379" t="n">
-        <v>7.76</v>
+        <v>7.57</v>
       </c>
     </row>
     <row r="380">
@@ -10295,28 +10339,28 @@
         <v>453</v>
       </c>
       <c r="B388" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="C388" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="D388" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E388" t="n">
         <v>7.4</v>
       </c>
-      <c r="E388" t="n">
+      <c r="F388" t="n">
         <v>6.1</v>
       </c>
-      <c r="F388" t="n">
+      <c r="G388" t="n">
         <v>6.2</v>
       </c>
-      <c r="G388" t="n">
-        <v>6.3</v>
-      </c>
       <c r="H388" t="n">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="I388" t="n">
-        <v>6.37</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="389">
@@ -10324,28 +10368,28 @@
         <v>454</v>
       </c>
       <c r="B389" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="C389" t="n">
+        <v>7</v>
+      </c>
+      <c r="D389" t="n">
         <v>7.5</v>
-      </c>
-      <c r="D389" t="n">
-        <v>7.3</v>
       </c>
       <c r="E389" t="n">
         <v>7.3</v>
       </c>
       <c r="F389" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="G389" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="G389" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H389" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="I389" t="n">
-        <v>7.4</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="390">
@@ -10411,28 +10455,28 @@
         <v>457</v>
       </c>
       <c r="B392" t="n">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="C392" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="D392" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E392" t="n">
         <v>7.2</v>
       </c>
-      <c r="E392" t="n">
+      <c r="F392" t="n">
         <v>8</v>
       </c>
-      <c r="F392" t="n">
+      <c r="G392" t="n">
         <v>7.2</v>
       </c>
-      <c r="G392" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H392" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="I392" t="n">
-        <v>7.1</v>
+        <v>7.14</v>
       </c>
     </row>
   </sheetData>

--- a/players_ratings.xlsx
+++ b/players_ratings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I392"/>
+  <dimension ref="A1:I398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1418,25 +1418,25 @@
         <v>51</v>
       </c>
       <c r="B41" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="C41" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D41" t="n">
         <v>7.8</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>7.7</v>
       </c>
-      <c r="E41" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F41" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G41" t="n">
         <v>7.5</v>
       </c>
-      <c r="G41" t="n">
-        <v>6.3</v>
-      </c>
       <c r="H41" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="I41" t="n">
         <v>7.01</v>
@@ -1756,24 +1756,26 @@
         <v>67</v>
       </c>
       <c r="B55" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C55" t="n">
         <v>8</v>
       </c>
-      <c r="C55" t="n">
-        <v>7</v>
-      </c>
       <c r="D55" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="E55" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="F55" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G55" t="n">
         <v>7.4</v>
       </c>
-      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="n">
-        <v>7.14</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="56">
@@ -2107,28 +2109,28 @@
         <v>95</v>
       </c>
       <c r="B70" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C70" t="n">
         <v>7.8</v>
       </c>
-      <c r="C70" t="n">
+      <c r="D70" t="n">
         <v>7.1</v>
       </c>
-      <c r="D70" t="n">
+      <c r="E70" t="n">
         <v>8</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>8.1</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>9</v>
       </c>
-      <c r="G70" t="n">
-        <v>7</v>
-      </c>
       <c r="H70" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="I70" t="n">
-        <v>7.8</v>
+        <v>7.66</v>
       </c>
     </row>
     <row r="71">
@@ -2165,28 +2167,28 @@
         <v>98</v>
       </c>
       <c r="B72" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="C72" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="D72" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E72" t="n">
         <v>6.2</v>
       </c>
-      <c r="E72" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F72" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="G72" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H72" t="n">
         <v>7.1</v>
       </c>
-      <c r="H72" t="n">
-        <v>7</v>
-      </c>
       <c r="I72" t="n">
-        <v>6.59</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="73">
@@ -2976,28 +2978,28 @@
         <v>136</v>
       </c>
       <c r="B107" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="C107" t="n">
         <v>7.1</v>
       </c>
       <c r="D107" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="E107" t="n">
         <v>7.7</v>
       </c>
-      <c r="E107" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F107" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G107" t="n">
         <v>7.5</v>
       </c>
-      <c r="G107" t="n">
-        <v>6.3</v>
-      </c>
       <c r="H107" t="n">
-        <v>7.8</v>
+        <v>6.3</v>
       </c>
       <c r="I107" t="n">
-        <v>7.16</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="108">
@@ -3237,28 +3239,28 @@
         <v>149</v>
       </c>
       <c r="B118" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="C118" t="n">
         <v>6.6</v>
       </c>
       <c r="D118" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="E118" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F118" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="F118" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G118" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H118" t="n">
         <v>7.3</v>
       </c>
-      <c r="H118" t="n">
-        <v>6.4</v>
-      </c>
       <c r="I118" t="n">
-        <v>6.99</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="119">
@@ -3408,28 +3410,28 @@
         <v>164</v>
       </c>
       <c r="B125" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C125" t="n">
         <v>7.2</v>
       </c>
-      <c r="C125" t="n">
+      <c r="D125" t="n">
         <v>7.4</v>
       </c>
-      <c r="D125" t="n">
+      <c r="E125" t="n">
         <v>8.1</v>
       </c>
-      <c r="E125" t="n">
-        <v>7</v>
-      </c>
       <c r="F125" t="n">
+        <v>7</v>
+      </c>
+      <c r="G125" t="n">
         <v>7.9</v>
       </c>
-      <c r="G125" t="n">
+      <c r="H125" t="n">
         <v>8.1</v>
       </c>
-      <c r="H125" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I125" t="n">
-        <v>7.5</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="126">
@@ -3440,25 +3442,25 @@
         <v>6.7</v>
       </c>
       <c r="C126" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D126" t="n">
         <v>7.4</v>
       </c>
-      <c r="D126" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E126" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="F126" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="G126" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H126" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="I126" t="n">
-        <v>6.77</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="127">
@@ -3466,13 +3468,13 @@
         <v>166</v>
       </c>
       <c r="B127" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C127" t="n">
         <v>7.4</v>
       </c>
-      <c r="C127" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D127" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="E127" t="n">
         <v>6.6</v>
@@ -3481,13 +3483,13 @@
         <v>6.6</v>
       </c>
       <c r="G127" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H127" t="n">
         <v>6</v>
       </c>
-      <c r="H127" t="n">
-        <v>7.4</v>
-      </c>
       <c r="I127" t="n">
-        <v>6.73</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="128">
@@ -3549,28 +3551,28 @@
         <v>169</v>
       </c>
       <c r="B130" t="n">
-        <v>6.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="D130" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="E130" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="F130" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G130" t="n">
         <v>7.2</v>
       </c>
-      <c r="G130" t="n">
+      <c r="H130" t="n">
         <v>6.2</v>
       </c>
-      <c r="H130" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I130" t="n">
-        <v>6.74</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="131">
@@ -3904,28 +3906,28 @@
         <v>182</v>
       </c>
       <c r="B143" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C143" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D143" t="n">
         <v>7.5</v>
       </c>
-      <c r="D143" t="n">
+      <c r="E143" t="n">
         <v>9</v>
       </c>
-      <c r="E143" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F143" t="n">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="G143" t="n">
         <v>7.5</v>
       </c>
       <c r="H143" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="I143" t="n">
-        <v>7.41</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="144">
@@ -4073,28 +4075,28 @@
         <v>190</v>
       </c>
       <c r="B150" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="C150" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="D150" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="E150" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="F150" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G150" t="n">
         <v>7.3</v>
       </c>
-      <c r="G150" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H150" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="I150" t="n">
-        <v>6.7</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="151">
@@ -4818,28 +4820,28 @@
         <v>221</v>
       </c>
       <c r="B179" t="n">
-        <v>6.8</v>
+        <v>6.1</v>
       </c>
       <c r="C179" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="D179" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E179" t="n">
         <v>6.1</v>
       </c>
-      <c r="E179" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F179" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="G179" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H179" t="n">
         <v>7.6</v>
       </c>
-      <c r="H179" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I179" t="n">
-        <v>6.73</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="180">
@@ -4905,28 +4907,28 @@
         <v>224</v>
       </c>
       <c r="B182" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="C182" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="D182" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="E182" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="F182" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G182" t="n">
         <v>7.7</v>
       </c>
-      <c r="G182" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H182" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="I182" t="n">
-        <v>6.96</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="183">
@@ -4934,28 +4936,28 @@
         <v>225</v>
       </c>
       <c r="B183" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C183" t="n">
         <v>7.5</v>
       </c>
-      <c r="C183" t="n">
-        <v>6.3</v>
-      </c>
       <c r="D183" t="n">
         <v>6.3</v>
       </c>
       <c r="E183" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="F183" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G183" t="n">
         <v>5.5</v>
       </c>
-      <c r="G183" t="n">
+      <c r="H183" t="n">
         <v>7.1</v>
       </c>
-      <c r="H183" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I183" t="n">
-        <v>6.56</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="184">
@@ -5495,25 +5497,25 @@
         <v>256</v>
       </c>
       <c r="B208" t="n">
+        <v>7</v>
+      </c>
+      <c r="C208" t="n">
         <v>7.7</v>
       </c>
-      <c r="C208" t="n">
+      <c r="D208" t="n">
         <v>7.9</v>
       </c>
-      <c r="D208" t="n">
+      <c r="E208" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="E208" t="n">
+      <c r="F208" t="n">
         <v>9.4</v>
       </c>
-      <c r="F208" t="n">
+      <c r="G208" t="n">
         <v>7.2</v>
       </c>
-      <c r="G208" t="n">
+      <c r="H208" t="n">
         <v>7.4</v>
-      </c>
-      <c r="H208" t="n">
-        <v>7</v>
       </c>
       <c r="I208" t="n">
         <v>7.97</v>
@@ -5576,28 +5578,28 @@
         <v>260</v>
       </c>
       <c r="B211" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="C211" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D211" t="n">
         <v>7.1</v>
       </c>
-      <c r="D211" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E211" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F211" t="n">
         <v>7.3</v>
       </c>
-      <c r="F211" t="n">
+      <c r="G211" t="n">
         <v>7.6</v>
       </c>
-      <c r="G211" t="n">
+      <c r="H211" t="n">
         <v>6.1</v>
       </c>
-      <c r="H211" t="n">
-        <v>7.2</v>
-      </c>
       <c r="I211" t="n">
-        <v>6.91</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="212">
@@ -5632,28 +5634,28 @@
         <v>263</v>
       </c>
       <c r="B213" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C213" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="D213" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="E213" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="F213" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="G213" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H213" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="I213" t="n">
-        <v>6.74</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="214">
@@ -6033,28 +6035,28 @@
         <v>286</v>
       </c>
       <c r="B228" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="C228" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="D228" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="E228" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="F228" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="G228" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="G228" t="n">
+      <c r="H228" t="n">
         <v>7.2</v>
       </c>
-      <c r="H228" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I228" t="n">
-        <v>7.01</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="229">
@@ -6149,28 +6151,28 @@
         <v>290</v>
       </c>
       <c r="B232" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C232" t="n">
         <v>7.1</v>
       </c>
-      <c r="C232" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D232" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="E232" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="F232" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="G232" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H232" t="n">
         <v>7.2</v>
       </c>
-      <c r="H232" t="n">
-        <v>7.5</v>
-      </c>
       <c r="I232" t="n">
-        <v>6.94</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="233">
@@ -6178,28 +6180,28 @@
         <v>291</v>
       </c>
       <c r="B233" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="C233" t="n">
         <v>7.6</v>
       </c>
-      <c r="C233" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D233" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E233" t="n">
         <v>7.4</v>
       </c>
-      <c r="E233" t="n">
-        <v>7</v>
-      </c>
       <c r="F233" t="n">
+        <v>7</v>
+      </c>
+      <c r="G233" t="n">
         <v>8.4</v>
       </c>
-      <c r="G233" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H233" t="n">
-        <v>8</v>
+        <v>6.7</v>
       </c>
       <c r="I233" t="n">
-        <v>7.43</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="234">
@@ -7370,28 +7372,28 @@
         <v>340</v>
       </c>
       <c r="B277" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="C277" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D277" t="n">
         <v>7.2</v>
       </c>
-      <c r="D277" t="n">
-        <v>7</v>
-      </c>
       <c r="E277" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="F277" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G277" t="n">
         <v>7.8</v>
       </c>
-      <c r="G277" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H277" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="I277" t="n">
-        <v>6.94</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="278">
@@ -7542,28 +7544,28 @@
         <v>346</v>
       </c>
       <c r="B283" t="n">
-        <v>6.3</v>
+        <v>7.7</v>
       </c>
       <c r="C283" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="D283" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E283" t="n">
         <v>7.5</v>
       </c>
-      <c r="E283" t="n">
+      <c r="F283" t="n">
         <v>7.2</v>
       </c>
-      <c r="F283" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G283" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="H283" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="I283" t="n">
-        <v>6.8</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="284">
@@ -7658,13 +7660,13 @@
         <v>350</v>
       </c>
       <c r="B287" t="n">
-        <v>7</v>
+        <v>7.9</v>
       </c>
       <c r="C287" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D287" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="E287" t="n">
         <v>6.8</v>
@@ -7676,10 +7678,10 @@
         <v>6.8</v>
       </c>
       <c r="H287" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="I287" t="n">
-        <v>6.74</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="288">
@@ -7920,28 +7922,28 @@
         <v>360</v>
       </c>
       <c r="B297" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="C297" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D297" t="n">
         <v>7.1</v>
       </c>
-      <c r="D297" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E297" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="F297" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="G297" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="H297" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="I297" t="n">
-        <v>6.74</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="298">
@@ -7978,28 +7980,28 @@
         <v>364</v>
       </c>
       <c r="B299" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="C299" t="n">
+        <v>7</v>
+      </c>
+      <c r="D299" t="n">
         <v>7.9</v>
       </c>
-      <c r="D299" t="n">
+      <c r="E299" t="n">
         <v>7.1</v>
       </c>
-      <c r="E299" t="n">
+      <c r="F299" t="n">
         <v>7.6</v>
       </c>
-      <c r="F299" t="n">
-        <v>6.4</v>
-      </c>
       <c r="G299" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H299" t="n">
         <v>7.5</v>
       </c>
-      <c r="H299" t="n">
-        <v>7</v>
-      </c>
       <c r="I299" t="n">
-        <v>7.21</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="300">
@@ -8347,28 +8349,28 @@
         <v>377</v>
       </c>
       <c r="B312" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C312" t="n">
         <v>7.3</v>
       </c>
-      <c r="C312" t="n">
+      <c r="D312" t="n">
         <v>7.4</v>
       </c>
-      <c r="D312" t="n">
-        <v>7</v>
-      </c>
       <c r="E312" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="F312" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="G312" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="H312" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="I312" t="n">
-        <v>6.99</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="313">
@@ -8376,28 +8378,28 @@
         <v>378</v>
       </c>
       <c r="B313" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C313" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="C313" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D313" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E313" t="n">
         <v>8</v>
       </c>
-      <c r="E313" t="n">
+      <c r="F313" t="n">
         <v>7.4</v>
       </c>
-      <c r="F313" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G313" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="H313" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="I313" t="n">
-        <v>7.31</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="314">
@@ -8482,28 +8484,28 @@
         <v>382</v>
       </c>
       <c r="B317" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C317" t="n">
         <v>6.2</v>
       </c>
-      <c r="C317" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D317" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="E317" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="F317" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="G317" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="H317" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="I317" t="n">
-        <v>6.49</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="318">
@@ -8853,28 +8855,28 @@
         <v>397</v>
       </c>
       <c r="B332" t="n">
-        <v>6.7</v>
+        <v>8.1</v>
       </c>
       <c r="C332" t="n">
         <v>6.7</v>
       </c>
       <c r="D332" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="E332" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="F332" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="G332" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H332" t="n">
         <v>7.2</v>
       </c>
-      <c r="H332" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I332" t="n">
-        <v>6.73</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="333">
@@ -8882,28 +8884,28 @@
         <v>398</v>
       </c>
       <c r="B333" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C333" t="n">
         <v>7.1</v>
       </c>
-      <c r="C333" t="n">
-        <v>7</v>
-      </c>
       <c r="D333" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="E333" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="F333" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G333" t="n">
         <v>6.2</v>
       </c>
-      <c r="G333" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H333" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="I333" t="n">
-        <v>6.6</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="334">
@@ -9111,28 +9113,28 @@
         <v>407</v>
       </c>
       <c r="B342" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="C342" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D342" t="n">
         <v>7.5</v>
       </c>
-      <c r="D342" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E342" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="F342" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="G342" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="H342" t="n">
-        <v>8.800000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="I342" t="n">
-        <v>7.09</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="343">
@@ -9256,28 +9258,28 @@
         <v>412</v>
       </c>
       <c r="B347" t="n">
-        <v>6.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C347" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="D347" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E347" t="n">
         <v>7.7</v>
       </c>
-      <c r="E347" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F347" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G347" t="n">
         <v>7.6</v>
       </c>
-      <c r="G347" t="n">
-        <v>6.4</v>
-      </c>
       <c r="H347" t="n">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="I347" t="n">
-        <v>7</v>
+        <v>7.19</v>
       </c>
     </row>
     <row r="348">
@@ -9285,24 +9287,26 @@
         <v>413</v>
       </c>
       <c r="B348" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="C348" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D348" t="n">
         <v>7.1</v>
       </c>
-      <c r="D348" t="n">
-        <v>6.4</v>
-      </c>
       <c r="E348" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="F348" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G348" t="n">
         <v>7.1</v>
       </c>
-      <c r="G348" t="inlineStr"/>
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="n">
-        <v>6.78</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="349">
@@ -9339,28 +9343,28 @@
         <v>415</v>
       </c>
       <c r="B350" t="n">
+        <v>7</v>
+      </c>
+      <c r="C350" t="n">
         <v>5.3</v>
       </c>
-      <c r="C350" t="n">
+      <c r="D350" t="n">
         <v>7.5</v>
       </c>
-      <c r="D350" t="n">
+      <c r="E350" t="n">
         <v>7.4</v>
       </c>
-      <c r="E350" t="n">
-        <v>7</v>
-      </c>
       <c r="F350" t="n">
+        <v>7</v>
+      </c>
+      <c r="G350" t="n">
         <v>8.5</v>
       </c>
-      <c r="G350" t="n">
-        <v>6.4</v>
-      </c>
       <c r="H350" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="I350" t="n">
-        <v>7.03</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="351">
@@ -9487,25 +9491,25 @@
         <v>7.3</v>
       </c>
       <c r="C355" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D355" t="n">
         <v>7.2</v>
       </c>
-      <c r="D355" t="n">
+      <c r="E355" t="n">
         <v>7.4</v>
       </c>
-      <c r="E355" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F355" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="G355" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H355" t="n">
         <v>7.6</v>
       </c>
-      <c r="H355" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I355" t="n">
-        <v>7.03</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="356">
@@ -9742,28 +9746,28 @@
         <v>430</v>
       </c>
       <c r="B365" t="n">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="C365" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D365" t="n">
         <v>7.2</v>
-      </c>
-      <c r="D365" t="n">
-        <v>7.4</v>
       </c>
       <c r="E365" t="n">
         <v>7.4</v>
       </c>
       <c r="F365" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="G365" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H365" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="I365" t="n">
-        <v>6.97</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="366">
@@ -9771,28 +9775,28 @@
         <v>431</v>
       </c>
       <c r="B366" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="C366" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D366" t="n">
         <v>7.8</v>
       </c>
-      <c r="D366" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E366" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="F366" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G366" t="n">
         <v>7.2</v>
       </c>
-      <c r="G366" t="n">
+      <c r="H366" t="n">
         <v>7.8</v>
       </c>
-      <c r="H366" t="n">
-        <v>7.7</v>
-      </c>
       <c r="I366" t="n">
-        <v>7.21</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="367">
@@ -9832,25 +9836,25 @@
         <v>6.7</v>
       </c>
       <c r="C368" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D368" t="n">
         <v>6</v>
       </c>
-      <c r="D368" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E368" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F368" t="n">
         <v>7.7</v>
       </c>
-      <c r="F368" t="n">
+      <c r="G368" t="n">
         <v>7.1</v>
       </c>
-      <c r="G368" t="n">
+      <c r="H368" t="n">
         <v>6.1</v>
       </c>
-      <c r="H368" t="n">
-        <v>7.1</v>
-      </c>
       <c r="I368" t="n">
-        <v>6.8</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="369">
@@ -9858,28 +9862,28 @@
         <v>434</v>
       </c>
       <c r="B369" t="n">
+        <v>7</v>
+      </c>
+      <c r="C369" t="n">
         <v>9.5</v>
       </c>
-      <c r="C369" t="n">
+      <c r="D369" t="n">
         <v>7.1</v>
       </c>
-      <c r="D369" t="n">
+      <c r="E369" t="n">
         <v>7.7</v>
       </c>
-      <c r="E369" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F369" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="G369" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H369" t="n">
         <v>7.7</v>
       </c>
-      <c r="H369" t="n">
-        <v>6.3</v>
-      </c>
       <c r="I369" t="n">
-        <v>7.33</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="370">
@@ -9887,28 +9891,28 @@
         <v>435</v>
       </c>
       <c r="B370" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C370" t="n">
         <v>8.6</v>
       </c>
-      <c r="C370" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D370" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E370" t="n">
         <v>9.4</v>
       </c>
-      <c r="E370" t="n">
-        <v>6.4</v>
-      </c>
       <c r="F370" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="G370" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H370" t="n">
         <v>7.4</v>
       </c>
-      <c r="H370" t="n">
-        <v>7.1</v>
-      </c>
       <c r="I370" t="n">
-        <v>7.47</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="371">
@@ -10163,28 +10167,28 @@
         <v>445</v>
       </c>
       <c r="B380" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C380" t="n">
         <v>7.2</v>
       </c>
-      <c r="C380" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D380" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E380" t="n">
         <v>7.1</v>
       </c>
-      <c r="E380" t="n">
-        <v>7</v>
-      </c>
       <c r="F380" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="G380" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="H380" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="I380" t="n">
-        <v>6.89</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="381">
@@ -10192,25 +10196,25 @@
         <v>446</v>
       </c>
       <c r="B381" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="C381" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="D381" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="E381" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F381" t="n">
         <v>7.3</v>
       </c>
-      <c r="F381" t="n">
+      <c r="G381" t="n">
         <v>7.6</v>
       </c>
-      <c r="G381" t="n">
+      <c r="H381" t="n">
         <v>7.3</v>
-      </c>
-      <c r="H381" t="n">
-        <v>6.5</v>
       </c>
       <c r="I381" t="n">
         <v>6.86</v>
@@ -10281,28 +10285,28 @@
         <v>451</v>
       </c>
       <c r="B386" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C386" t="n">
         <v>7.3</v>
       </c>
-      <c r="C386" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D386" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E386" t="n">
         <v>7.1</v>
       </c>
-      <c r="E386" t="n">
+      <c r="F386" t="n">
         <v>8.1</v>
       </c>
-      <c r="F386" t="n">
+      <c r="G386" t="n">
         <v>7.9</v>
       </c>
-      <c r="G386" t="n">
+      <c r="H386" t="n">
         <v>7.7</v>
       </c>
-      <c r="H386" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I386" t="n">
-        <v>7.37</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="387">
@@ -10397,28 +10401,28 @@
         <v>455</v>
       </c>
       <c r="B390" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C390" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="C390" t="n">
-        <v>6.8</v>
-      </c>
       <c r="D390" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E390" t="n">
         <v>8.1</v>
       </c>
-      <c r="E390" t="n">
+      <c r="F390" t="n">
         <v>7.7</v>
       </c>
-      <c r="F390" t="n">
+      <c r="G390" t="n">
         <v>7.9</v>
       </c>
-      <c r="G390" t="n">
+      <c r="H390" t="n">
         <v>8.1</v>
       </c>
-      <c r="H390" t="n">
-        <v>7.3</v>
-      </c>
       <c r="I390" t="n">
-        <v>7.96</v>
+        <v>8.16</v>
       </c>
     </row>
     <row r="391">
@@ -10426,28 +10430,28 @@
         <v>456</v>
       </c>
       <c r="B391" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="C391" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D391" t="n">
         <v>7.2</v>
       </c>
-      <c r="D391" t="n">
+      <c r="E391" t="n">
         <v>7.7</v>
       </c>
-      <c r="E391" t="n">
+      <c r="F391" t="n">
         <v>9.6</v>
       </c>
-      <c r="F391" t="n">
+      <c r="G391" t="n">
         <v>7.3</v>
       </c>
-      <c r="G391" t="n">
+      <c r="H391" t="n">
         <v>7.4</v>
       </c>
-      <c r="H391" t="n">
-        <v>7.3</v>
-      </c>
       <c r="I391" t="n">
-        <v>7.6</v>
+        <v>7.57</v>
       </c>
     </row>
     <row r="392">
@@ -10477,6 +10481,162 @@
       </c>
       <c r="I392" t="n">
         <v>7.14</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="B393" t="n">
+        <v>7</v>
+      </c>
+      <c r="C393" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="D393" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E393" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F393" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G393" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H393" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I393" t="n">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>459</v>
+      </c>
+      <c r="B394" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C394" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D394" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E394" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F394" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G394" t="inlineStr"/>
+      <c r="H394" t="inlineStr"/>
+      <c r="I394" t="n">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="B395" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C395" t="inlineStr"/>
+      <c r="D395" t="inlineStr"/>
+      <c r="E395" t="inlineStr"/>
+      <c r="F395" t="inlineStr"/>
+      <c r="G395" t="inlineStr"/>
+      <c r="H395" t="inlineStr"/>
+      <c r="I395" t="n">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="B396" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C396" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D396" t="n">
+        <v>6</v>
+      </c>
+      <c r="E396" t="n">
+        <v>7</v>
+      </c>
+      <c r="F396" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G396" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H396" t="inlineStr"/>
+      <c r="I396" t="n">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>462</v>
+      </c>
+      <c r="B397" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C397" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D397" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E397" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F397" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G397" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H397" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I397" t="n">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>463</v>
+      </c>
+      <c r="B398" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C398" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D398" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E398" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F398" t="n">
+        <v>7</v>
+      </c>
+      <c r="G398" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H398" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I398" t="n">
+        <v>6.53</v>
       </c>
     </row>
   </sheetData>

--- a/players_ratings.xlsx
+++ b/players_ratings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I398"/>
+  <dimension ref="A1:I416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,28 +628,28 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>6.1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>7.2</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>7.1</v>
       </c>
-      <c r="F9" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G9" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="H9" t="n">
         <v>7.5</v>
       </c>
       <c r="I9" t="n">
-        <v>6.84</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="10">
@@ -874,28 +874,28 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="D19" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="E19" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="F19" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G19" t="n">
         <v>7.9</v>
       </c>
-      <c r="G19" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H19" t="n">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="I19" t="n">
-        <v>6.7</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="20">
@@ -961,28 +961,28 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C22" t="n">
         <v>7.9</v>
       </c>
-      <c r="C22" t="n">
-        <v>7</v>
-      </c>
       <c r="D22" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="E22" t="n">
         <v>6.5</v>
       </c>
       <c r="F22" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="G22" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="H22" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="I22" t="n">
-        <v>6.91</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="23">
@@ -1045,28 +1045,28 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="C26" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D26" t="n">
         <v>7.5</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>6.1</v>
       </c>
-      <c r="E26" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F26" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="G26" t="n">
         <v>7</v>
       </c>
       <c r="H26" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="I26" t="n">
-        <v>6.87</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="27">
@@ -1104,25 +1104,25 @@
         <v>6.4</v>
       </c>
       <c r="C28" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="D28" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="E28" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="F28" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="G28" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="H28" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="I28" t="n">
-        <v>6.61</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="29">
@@ -1159,28 +1159,28 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="C30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D30" t="n">
         <v>6</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>6.2</v>
       </c>
-      <c r="E30" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F30" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="G30" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H30" t="n">
         <v>7.9</v>
       </c>
-      <c r="H30" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I30" t="n">
-        <v>6.6</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="31">
@@ -1205,28 +1205,28 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C32" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="D32" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="E32" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F32" t="n">
         <v>7.6</v>
       </c>
-      <c r="F32" t="n">
-        <v>6.3</v>
-      </c>
       <c r="G32" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="H32" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="I32" t="n">
-        <v>6.79</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="33">
@@ -1234,28 +1234,28 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="C33" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="D33" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="E33" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="F33" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="G33" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H33" t="n">
         <v>6.1</v>
       </c>
-      <c r="H33" t="n">
-        <v>7.1</v>
-      </c>
       <c r="I33" t="n">
-        <v>6.59</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="34">
@@ -1263,28 +1263,28 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="C34" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="D34" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E34" t="n">
         <v>7.6</v>
       </c>
-      <c r="E34" t="n">
-        <v>6.3</v>
-      </c>
       <c r="F34" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="G34" t="n">
         <v>7.2</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>6</v>
       </c>
-      <c r="H34" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I34" t="n">
-        <v>6.64</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="35">
@@ -1292,28 +1292,28 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C35" t="n">
         <v>6.2</v>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>7.3</v>
       </c>
-      <c r="D35" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E35" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="F35" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="G35" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="H35" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="I35" t="n">
-        <v>6.64</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="36">
@@ -1350,28 +1350,28 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C37" t="n">
         <v>7.4</v>
       </c>
-      <c r="C37" t="n">
+      <c r="D37" t="n">
         <v>7.8</v>
       </c>
-      <c r="D37" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E37" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="F37" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="G37" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="H37" t="n">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="I37" t="n">
-        <v>7</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="38">
@@ -1548,17 +1548,17 @@
         <v>57</v>
       </c>
       <c r="B47" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="C47" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="D47" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E47" t="n">
         <v>7.1</v>
       </c>
-      <c r="E47" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F47" t="n">
         <v>6.5</v>
       </c>
@@ -1566,10 +1566,10 @@
         <v>6.5</v>
       </c>
       <c r="H47" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="I47" t="n">
-        <v>6.66</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="48">
@@ -1727,28 +1727,28 @@
         <v>66</v>
       </c>
       <c r="B54" t="n">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="C54" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="D54" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="E54" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="F54" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="G54" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="H54" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="I54" t="n">
-        <v>6.67</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="55">
@@ -1786,25 +1786,25 @@
         <v>6.5</v>
       </c>
       <c r="C56" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="D56" t="n">
+        <v>7</v>
+      </c>
+      <c r="E56" t="n">
         <v>7.1</v>
       </c>
-      <c r="E56" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F56" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="G56" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H56" t="n">
         <v>7.8</v>
       </c>
-      <c r="H56" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I56" t="n">
-        <v>6.93</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="57">
@@ -1854,28 +1854,28 @@
         <v>80</v>
       </c>
       <c r="B59" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C59" t="n">
         <v>5.9</v>
       </c>
-      <c r="C59" t="n">
-        <v>6.8</v>
-      </c>
       <c r="D59" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="E59" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="F59" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="G59" t="n">
         <v>6.7</v>
       </c>
       <c r="H59" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="I59" t="n">
-        <v>6.61</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="60">
@@ -1883,28 +1883,28 @@
         <v>81</v>
       </c>
       <c r="B60" t="n">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="C60" t="n">
         <v>7.6</v>
       </c>
       <c r="D60" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="E60" t="n">
         <v>7.8</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>7.5</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>7.4</v>
       </c>
-      <c r="G60" t="n">
-        <v>6.3</v>
-      </c>
       <c r="H60" t="n">
         <v>6.3</v>
       </c>
       <c r="I60" t="n">
-        <v>7.21</v>
+        <v>7.33</v>
       </c>
     </row>
     <row r="61">
@@ -2080,28 +2080,28 @@
         <v>94</v>
       </c>
       <c r="B69" t="n">
-        <v>7.7</v>
+        <v>7.1</v>
       </c>
       <c r="C69" t="n">
-        <v>6.9</v>
+        <v>7.8</v>
       </c>
       <c r="D69" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E69" t="n">
         <v>8.1</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>7.2</v>
       </c>
-      <c r="F69" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G69" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="H69" t="n">
-        <v>8</v>
+        <v>6.9</v>
       </c>
       <c r="I69" t="n">
-        <v>7.37</v>
+        <v>7.26</v>
       </c>
     </row>
     <row r="70">
@@ -2109,28 +2109,28 @@
         <v>95</v>
       </c>
       <c r="B70" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="C70" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D70" t="n">
         <v>7.8</v>
       </c>
-      <c r="D70" t="n">
+      <c r="E70" t="n">
         <v>7.1</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>8</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>8.1</v>
       </c>
-      <c r="G70" t="n">
+      <c r="H70" t="n">
         <v>9</v>
       </c>
-      <c r="H70" t="n">
-        <v>7</v>
-      </c>
       <c r="I70" t="n">
-        <v>7.66</v>
+        <v>7.71</v>
       </c>
     </row>
     <row r="71">
@@ -2244,28 +2244,28 @@
         <v>101</v>
       </c>
       <c r="B75" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="C75" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="D75" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="E75" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F75" t="n">
         <v>7.3</v>
       </c>
-      <c r="F75" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G75" t="n">
         <v>6.5</v>
       </c>
       <c r="H75" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="I75" t="n">
-        <v>6.67</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="76">
@@ -2357,28 +2357,28 @@
         <v>106</v>
       </c>
       <c r="B80" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="C80" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="D80" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E80" t="n">
         <v>7.1</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>7.4</v>
       </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
         <v>7.8</v>
       </c>
-      <c r="G80" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H80" t="n">
-        <v>7.8</v>
+        <v>6.9</v>
       </c>
       <c r="I80" t="n">
-        <v>7.14</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="81">
@@ -2453,28 +2453,28 @@
         <v>111</v>
       </c>
       <c r="B84" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="C84" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D84" t="n">
         <v>7.6</v>
       </c>
-      <c r="D84" t="n">
+      <c r="E84" t="n">
         <v>6.1</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>7.9</v>
       </c>
-      <c r="F84" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G84" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="H84" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="I84" t="n">
-        <v>7.01</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="85">
@@ -2495,28 +2495,28 @@
         <v>113</v>
       </c>
       <c r="B86" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C86" t="n">
         <v>8.1</v>
       </c>
-      <c r="C86" t="n">
+      <c r="D86" t="n">
         <v>6.2</v>
       </c>
-      <c r="D86" t="n">
+      <c r="E86" t="n">
         <v>7.1</v>
       </c>
-      <c r="E86" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F86" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G86" t="n">
         <v>8</v>
       </c>
-      <c r="G86" t="n">
-        <v>6.8</v>
-      </c>
       <c r="H86" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="I86" t="n">
-        <v>7.09</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="87">
@@ -2537,28 +2537,28 @@
         <v>115</v>
       </c>
       <c r="B88" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C88" t="n">
         <v>6</v>
       </c>
-      <c r="C88" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D88" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="E88" t="n">
         <v>6.3</v>
       </c>
       <c r="F88" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="G88" t="n">
         <v>6</v>
       </c>
       <c r="H88" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="I88" t="n">
-        <v>6.26</v>
+        <v>6.27</v>
       </c>
     </row>
     <row r="89">
@@ -2579,28 +2579,28 @@
         <v>117</v>
       </c>
       <c r="B90" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C90" t="n">
         <v>6</v>
       </c>
-      <c r="C90" t="n">
-        <v>7</v>
-      </c>
       <c r="D90" t="n">
+        <v>7</v>
+      </c>
+      <c r="E90" t="n">
         <v>5.9</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
         <v>6</v>
       </c>
-      <c r="F90" t="n">
-        <v>6.3</v>
-      </c>
       <c r="G90" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="H90" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="I90" t="n">
-        <v>6.33</v>
+        <v>6.41</v>
       </c>
     </row>
     <row r="91">
@@ -2631,28 +2631,28 @@
         <v>119</v>
       </c>
       <c r="B92" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="C92" t="n">
         <v>7.2</v>
       </c>
       <c r="D92" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="E92" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F92" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="F92" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G92" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="H92" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="I92" t="n">
-        <v>7.03</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="93">
@@ -2709,28 +2709,28 @@
         <v>124</v>
       </c>
       <c r="B96" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C96" t="n">
         <v>7.3</v>
       </c>
-      <c r="C96" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D96" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="E96" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="F96" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G96" t="n">
         <v>7.1</v>
       </c>
-      <c r="G96" t="n">
-        <v>6.8</v>
-      </c>
       <c r="H96" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="I96" t="n">
-        <v>7</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="97">
@@ -2800,25 +2800,25 @@
         <v>6.6</v>
       </c>
       <c r="C100" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D100" t="n">
         <v>5.4</v>
       </c>
-      <c r="D100" t="n">
-        <v>6.4</v>
-      </c>
       <c r="E100" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="F100" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G100" t="n">
         <v>5.8</v>
       </c>
-      <c r="G100" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H100" t="n">
-        <v>7.6</v>
+        <v>6.5</v>
       </c>
       <c r="I100" t="n">
-        <v>6.41</v>
+        <v>6.27</v>
       </c>
     </row>
     <row r="101">
@@ -2865,25 +2865,25 @@
         <v>7</v>
       </c>
       <c r="C103" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="D103" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="E103" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="F103" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G103" t="n">
         <v>7.5</v>
       </c>
-      <c r="G103" t="n">
-        <v>6.4</v>
-      </c>
       <c r="H103" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="I103" t="n">
-        <v>6.74</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="104">
@@ -2891,22 +2891,22 @@
         <v>133</v>
       </c>
       <c r="B104" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C104" t="n">
         <v>6.2</v>
       </c>
-      <c r="C104" t="n">
+      <c r="D104" t="n">
         <v>7.2</v>
       </c>
-      <c r="D104" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E104" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="F104" t="n">
+        <v>7</v>
+      </c>
+      <c r="G104" t="n">
         <v>8.199999999999999</v>
-      </c>
-      <c r="G104" t="n">
-        <v>7.4</v>
       </c>
       <c r="H104" t="n">
         <v>7.4</v>
@@ -2949,28 +2949,28 @@
         <v>135</v>
       </c>
       <c r="B106" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C106" t="n">
         <v>7.1</v>
       </c>
-      <c r="C106" t="n">
-        <v>6.8</v>
-      </c>
       <c r="D106" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="E106" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F106" t="n">
         <v>7.2</v>
       </c>
-      <c r="F106" t="n">
+      <c r="G106" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="G106" t="n">
+      <c r="H106" t="n">
         <v>7.2</v>
       </c>
-      <c r="H106" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I106" t="n">
-        <v>7.07</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="107">
@@ -2978,28 +2978,28 @@
         <v>136</v>
       </c>
       <c r="B107" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="C107" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="D107" t="n">
         <v>7.1</v>
       </c>
       <c r="E107" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="F107" t="n">
         <v>7.7</v>
       </c>
-      <c r="F107" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G107" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H107" t="n">
         <v>7.5</v>
       </c>
-      <c r="H107" t="n">
-        <v>6.3</v>
-      </c>
       <c r="I107" t="n">
-        <v>7.03</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="108">
@@ -3031,23 +3031,25 @@
         <v>6.8</v>
       </c>
       <c r="C109" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="D109" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E109" t="n">
         <v>7.3</v>
       </c>
-      <c r="E109" t="n">
+      <c r="F109" t="n">
         <v>7.1</v>
       </c>
-      <c r="F109" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G109" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H109" t="inlineStr"/>
+        <v>6.6</v>
+      </c>
+      <c r="H109" t="n">
+        <v>6.4</v>
+      </c>
       <c r="I109" t="n">
-        <v>6.82</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="110">
@@ -3139,22 +3141,22 @@
         <v>145</v>
       </c>
       <c r="B114" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C114" t="n">
         <v>6.6</v>
       </c>
       <c r="D114" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="E114" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="F114" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="G114" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="H114" t="n">
         <v>6.7</v>
@@ -3168,28 +3170,28 @@
         <v>146</v>
       </c>
       <c r="B115" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C115" t="n">
         <v>7.7</v>
       </c>
-      <c r="C115" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D115" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="E115" t="n">
         <v>7.1</v>
       </c>
       <c r="F115" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G115" t="n">
         <v>7.3</v>
       </c>
-      <c r="G115" t="n">
+      <c r="H115" t="n">
         <v>7.7</v>
       </c>
-      <c r="H115" t="n">
-        <v>6.1</v>
-      </c>
       <c r="I115" t="n">
-        <v>7.07</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="116">
@@ -3197,28 +3199,28 @@
         <v>147</v>
       </c>
       <c r="B116" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C116" t="n">
         <v>6.1</v>
       </c>
-      <c r="C116" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D116" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="E116" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="F116" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="G116" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="H116" t="n">
         <v>6.3</v>
       </c>
       <c r="I116" t="n">
-        <v>6.4</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="117">
@@ -3239,28 +3241,28 @@
         <v>149</v>
       </c>
       <c r="B118" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C118" t="n">
         <v>6.2</v>
       </c>
-      <c r="C118" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D118" t="n">
         <v>6.6</v>
       </c>
       <c r="E118" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="F118" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G118" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="G118" t="n">
-        <v>6.8</v>
-      </c>
       <c r="H118" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="I118" t="n">
-        <v>6.96</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="119">
@@ -3268,28 +3270,28 @@
         <v>150</v>
       </c>
       <c r="B119" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="C119" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D119" t="n">
         <v>7.9</v>
       </c>
-      <c r="D119" t="n">
+      <c r="E119" t="n">
         <v>8</v>
       </c>
-      <c r="E119" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F119" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G119" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="G119" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H119" t="n">
         <v>6.7</v>
       </c>
       <c r="I119" t="n">
-        <v>7.29</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="120">
@@ -3410,28 +3412,28 @@
         <v>164</v>
       </c>
       <c r="B125" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="C125" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D125" t="n">
         <v>7.2</v>
       </c>
-      <c r="D125" t="n">
+      <c r="E125" t="n">
         <v>7.4</v>
       </c>
-      <c r="E125" t="n">
+      <c r="F125" t="n">
         <v>8.1</v>
       </c>
-      <c r="F125" t="n">
-        <v>7</v>
-      </c>
       <c r="G125" t="n">
+        <v>7</v>
+      </c>
+      <c r="H125" t="n">
         <v>7.9</v>
       </c>
-      <c r="H125" t="n">
-        <v>8.1</v>
-      </c>
       <c r="I125" t="n">
-        <v>7.44</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="126">
@@ -3439,28 +3441,28 @@
         <v>165</v>
       </c>
       <c r="B126" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="C126" t="n">
         <v>6.7</v>
       </c>
       <c r="D126" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E126" t="n">
         <v>7.4</v>
       </c>
-      <c r="E126" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F126" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="G126" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="H126" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="I126" t="n">
-        <v>6.76</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="127">
@@ -3468,16 +3470,16 @@
         <v>166</v>
       </c>
       <c r="B127" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C127" t="n">
         <v>7.3</v>
       </c>
-      <c r="C127" t="n">
+      <c r="D127" t="n">
         <v>7.4</v>
       </c>
-      <c r="D127" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E127" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="F127" t="n">
         <v>6.6</v>
@@ -3486,10 +3488,10 @@
         <v>6.6</v>
       </c>
       <c r="H127" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="I127" t="n">
-        <v>6.71</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="128">
@@ -3497,24 +3499,26 @@
         <v>167</v>
       </c>
       <c r="B128" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="C128" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="D128" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="E128" t="n">
         <v>6.5</v>
       </c>
       <c r="F128" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="G128" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="G128" t="n">
+        <v>6.7</v>
+      </c>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="n">
-        <v>6.56</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="129">
@@ -3551,28 +3555,28 @@
         <v>169</v>
       </c>
       <c r="B130" t="n">
+        <v>7</v>
+      </c>
+      <c r="C130" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="C130" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D130" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="E130" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="F130" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="G130" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H130" t="n">
         <v>7.2</v>
       </c>
-      <c r="H130" t="n">
-        <v>6.2</v>
-      </c>
       <c r="I130" t="n">
-        <v>6.97</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="131">
@@ -3580,28 +3584,28 @@
         <v>170</v>
       </c>
       <c r="B131" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="C131" t="n">
         <v>6.4</v>
       </c>
       <c r="D131" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E131" t="n">
         <v>7.4</v>
       </c>
-      <c r="E131" t="n">
+      <c r="F131" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="F131" t="n">
-        <v>7</v>
-      </c>
       <c r="G131" t="n">
+        <v>7</v>
+      </c>
+      <c r="H131" t="n">
         <v>7.5</v>
       </c>
-      <c r="H131" t="n">
-        <v>7.9</v>
-      </c>
       <c r="I131" t="n">
-        <v>7.27</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="132">
@@ -3609,25 +3613,25 @@
         <v>171</v>
       </c>
       <c r="B132" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C132" t="n">
         <v>7.2</v>
       </c>
-      <c r="C132" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D132" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E132" t="n">
         <v>7.2</v>
       </c>
-      <c r="E132" t="n">
-        <v>7</v>
-      </c>
       <c r="F132" t="n">
+        <v>7</v>
+      </c>
+      <c r="G132" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="G132" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H132" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="I132" t="n">
         <v>7.11</v>
@@ -3725,28 +3729,28 @@
         <v>175</v>
       </c>
       <c r="B136" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="C136" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D136" t="n">
         <v>7.9</v>
       </c>
-      <c r="D136" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E136" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="F136" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G136" t="n">
         <v>7.3</v>
       </c>
-      <c r="G136" t="n">
+      <c r="H136" t="n">
         <v>7.2</v>
       </c>
-      <c r="H136" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I136" t="n">
-        <v>7.07</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="137">
@@ -3848,28 +3852,28 @@
         <v>180</v>
       </c>
       <c r="B141" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="C141" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="D141" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E141" t="n">
         <v>7.2</v>
       </c>
-      <c r="E141" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F141" t="n">
         <v>6.9</v>
       </c>
       <c r="G141" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H141" t="n">
         <v>7.6</v>
       </c>
-      <c r="H141" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I141" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="142">
@@ -3906,28 +3910,28 @@
         <v>182</v>
       </c>
       <c r="B143" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C143" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="D143" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E143" t="n">
         <v>7.5</v>
       </c>
-      <c r="E143" t="n">
+      <c r="F143" t="n">
         <v>9</v>
       </c>
-      <c r="F143" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G143" t="n">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="H143" t="n">
         <v>7.5</v>
       </c>
       <c r="I143" t="n">
-        <v>7.34</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="144">
@@ -3954,28 +3958,28 @@
         <v>184</v>
       </c>
       <c r="B145" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="C145" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="D145" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="E145" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F145" t="n">
         <v>7.2</v>
       </c>
-      <c r="F145" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G145" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H145" t="n">
         <v>7.4</v>
       </c>
-      <c r="H145" t="n">
-        <v>7.2</v>
-      </c>
       <c r="I145" t="n">
-        <v>6.94</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="146">
@@ -3983,28 +3987,28 @@
         <v>185</v>
       </c>
       <c r="B146" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="C146" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="D146" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="E146" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="F146" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G146" t="n">
         <v>7.8</v>
       </c>
-      <c r="G146" t="n">
+      <c r="H146" t="n">
         <v>7.5</v>
       </c>
-      <c r="H146" t="n">
-        <v>7.2</v>
-      </c>
       <c r="I146" t="n">
-        <v>7.14</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="147">
@@ -4133,28 +4137,28 @@
         <v>192</v>
       </c>
       <c r="B152" t="n">
-        <v>6.3</v>
+        <v>7.4</v>
       </c>
       <c r="C152" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="D152" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="E152" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F152" t="n">
         <v>7.1</v>
       </c>
-      <c r="F152" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G152" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H152" t="n">
         <v>7.1</v>
       </c>
-      <c r="H152" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I152" t="n">
-        <v>6.8</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="153">
@@ -4312,28 +4316,28 @@
         <v>199</v>
       </c>
       <c r="B159" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="C159" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="D159" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="E159" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F159" t="n">
         <v>7.1</v>
       </c>
-      <c r="F159" t="n">
+      <c r="G159" t="n">
         <v>5.9</v>
       </c>
-      <c r="G159" t="n">
+      <c r="H159" t="n">
         <v>6.1</v>
       </c>
-      <c r="H159" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I159" t="n">
-        <v>6.49</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="160">
@@ -4453,28 +4457,28 @@
         <v>206</v>
       </c>
       <c r="B164" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="C164" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="D164" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E164" t="n">
         <v>6.2</v>
       </c>
-      <c r="E164" t="n">
-        <v>7</v>
-      </c>
       <c r="F164" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="G164" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H164" t="n">
         <v>7.2</v>
       </c>
-      <c r="H164" t="n">
-        <v>7.1</v>
-      </c>
       <c r="I164" t="n">
-        <v>6.83</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="165">
@@ -4528,28 +4532,28 @@
         <v>209</v>
       </c>
       <c r="B167" t="n">
+        <v>7</v>
+      </c>
+      <c r="C167" t="n">
         <v>7.6</v>
       </c>
-      <c r="C167" t="n">
+      <c r="D167" t="n">
         <v>7.5</v>
       </c>
-      <c r="D167" t="n">
-        <v>7</v>
-      </c>
       <c r="E167" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="F167" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G167" t="n">
         <v>5.3</v>
       </c>
-      <c r="G167" t="n">
+      <c r="H167" t="n">
         <v>7.7</v>
       </c>
-      <c r="H167" t="n">
-        <v>7.4</v>
-      </c>
       <c r="I167" t="n">
-        <v>7</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="168">
@@ -4687,28 +4691,28 @@
         <v>216</v>
       </c>
       <c r="B174" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="C174" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="D174" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E174" t="n">
         <v>7.1</v>
       </c>
-      <c r="E174" t="n">
+      <c r="F174" t="n">
         <v>6.1</v>
       </c>
-      <c r="F174" t="n">
-        <v>6.3</v>
-      </c>
       <c r="G174" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="H174" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="I174" t="n">
-        <v>6.6</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="175">
@@ -4716,28 +4720,28 @@
         <v>217</v>
       </c>
       <c r="B175" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C175" t="n">
         <v>7.4</v>
       </c>
-      <c r="C175" t="n">
-        <v>6.3</v>
-      </c>
       <c r="D175" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E175" t="n">
         <v>7.4</v>
       </c>
-      <c r="E175" t="n">
+      <c r="F175" t="n">
         <v>7.6</v>
       </c>
-      <c r="F175" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G175" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H175" t="n">
         <v>7.2</v>
       </c>
-      <c r="H175" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I175" t="n">
-        <v>7.03</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="176">
@@ -4774,28 +4778,28 @@
         <v>219</v>
       </c>
       <c r="B177" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="C177" t="n">
         <v>7</v>
       </c>
       <c r="D177" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="E177" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="F177" t="n">
         <v>7.1</v>
       </c>
       <c r="G177" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="H177" t="n">
         <v>6.9</v>
       </c>
       <c r="I177" t="n">
-        <v>6.93</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="178">
@@ -4907,28 +4911,28 @@
         <v>224</v>
       </c>
       <c r="B182" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="C182" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="D182" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="E182" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="F182" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="G182" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H182" t="n">
         <v>7.7</v>
       </c>
-      <c r="H182" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I182" t="n">
-        <v>6.84</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="183">
@@ -4965,16 +4969,16 @@
         <v>226</v>
       </c>
       <c r="B184" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="C184" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="D184" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="E184" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="F184" t="n">
         <v>6.8</v>
@@ -4983,10 +4987,10 @@
         <v>6.8</v>
       </c>
       <c r="H184" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="I184" t="n">
-        <v>6.76</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="185">
@@ -5023,28 +5027,28 @@
         <v>228</v>
       </c>
       <c r="B186" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="C186" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="D186" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E186" t="n">
         <v>7.4</v>
       </c>
-      <c r="E186" t="n">
+      <c r="F186" t="n">
         <v>8.4</v>
       </c>
-      <c r="F186" t="n">
-        <v>6.3</v>
-      </c>
       <c r="G186" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H186" t="n">
         <v>7.6</v>
       </c>
-      <c r="H186" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I186" t="n">
-        <v>7.11</v>
+        <v>7.19</v>
       </c>
     </row>
     <row r="187">
@@ -5124,28 +5128,28 @@
         <v>236</v>
       </c>
       <c r="B191" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C191" t="n">
         <v>7.7</v>
       </c>
-      <c r="C191" t="n">
+      <c r="D191" t="n">
         <v>7.5</v>
       </c>
-      <c r="D191" t="n">
-        <v>7</v>
-      </c>
       <c r="E191" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="F191" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G191" t="n">
         <v>7.8</v>
       </c>
-      <c r="G191" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H191" t="n">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="I191" t="n">
-        <v>7.27</v>
+        <v>7.26</v>
       </c>
     </row>
     <row r="192">
@@ -5195,7 +5199,7 @@
         <v>239</v>
       </c>
       <c r="B194" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="C194" t="n">
         <v>6.6</v>
@@ -5203,12 +5207,14 @@
       <c r="D194" t="n">
         <v>6.6</v>
       </c>
-      <c r="E194" t="inlineStr"/>
+      <c r="E194" t="n">
+        <v>6.6</v>
+      </c>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="n">
-        <v>6.6</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="195">
@@ -5296,26 +5302,28 @@
         <v>244</v>
       </c>
       <c r="B199" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="C199" t="n">
+        <v>7</v>
+      </c>
+      <c r="D199" t="n">
         <v>7.2</v>
       </c>
-      <c r="D199" t="n">
+      <c r="E199" t="n">
         <v>7.5</v>
       </c>
-      <c r="E199" t="n">
+      <c r="F199" t="n">
         <v>7.4</v>
       </c>
-      <c r="F199" t="n">
+      <c r="G199" t="n">
         <v>7.1</v>
       </c>
-      <c r="G199" t="n">
-        <v>7</v>
-      </c>
-      <c r="H199" t="inlineStr"/>
+      <c r="H199" t="n">
+        <v>7</v>
+      </c>
       <c r="I199" t="n">
-        <v>7.2</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="200">
@@ -5344,28 +5352,28 @@
         <v>247</v>
       </c>
       <c r="B201" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="C201" t="n">
         <v>7.4</v>
       </c>
-      <c r="C201" t="n">
+      <c r="D201" t="n">
         <v>7.8</v>
       </c>
-      <c r="D201" t="n">
+      <c r="E201" t="n">
         <v>9.4</v>
       </c>
-      <c r="E201" t="n">
-        <v>6.4</v>
-      </c>
       <c r="F201" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="G201" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H201" t="n">
         <v>7.7</v>
       </c>
-      <c r="H201" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I201" t="n">
-        <v>7.46</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="202">
@@ -5405,28 +5413,28 @@
         <v>252</v>
       </c>
       <c r="B204" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C204" t="n">
         <v>6</v>
       </c>
-      <c r="C204" t="n">
+      <c r="D204" t="n">
         <v>7.2</v>
       </c>
-      <c r="D204" t="n">
+      <c r="E204" t="n">
         <v>7.6</v>
       </c>
-      <c r="E204" t="n">
+      <c r="F204" t="n">
         <v>7.7</v>
       </c>
-      <c r="F204" t="n">
+      <c r="G204" t="n">
         <v>7.2</v>
       </c>
-      <c r="G204" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H204" t="n">
-        <v>8.4</v>
+        <v>6.7</v>
       </c>
       <c r="I204" t="n">
-        <v>7.26</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="205">
@@ -5434,22 +5442,24 @@
         <v>253</v>
       </c>
       <c r="B205" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="C205" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="D205" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="E205" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="F205" t="inlineStr"/>
+        <v>6.6</v>
+      </c>
+      <c r="F205" t="n">
+        <v>6.4</v>
+      </c>
       <c r="G205" t="inlineStr"/>
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="n">
-        <v>6.5</v>
+        <v>6.62</v>
       </c>
     </row>
     <row r="206">
@@ -5497,28 +5507,28 @@
         <v>256</v>
       </c>
       <c r="B208" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="C208" t="n">
+        <v>7</v>
+      </c>
+      <c r="D208" t="n">
         <v>7.7</v>
       </c>
-      <c r="D208" t="n">
+      <c r="E208" t="n">
         <v>7.9</v>
       </c>
-      <c r="E208" t="n">
+      <c r="F208" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="F208" t="n">
+      <c r="G208" t="n">
         <v>9.4</v>
       </c>
-      <c r="G208" t="n">
+      <c r="H208" t="n">
         <v>7.2</v>
       </c>
-      <c r="H208" t="n">
-        <v>7.4</v>
-      </c>
       <c r="I208" t="n">
-        <v>7.97</v>
+        <v>7.86</v>
       </c>
     </row>
     <row r="209">
@@ -5526,22 +5536,24 @@
         <v>258</v>
       </c>
       <c r="B209" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="C209" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="D209" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="E209" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="F209" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="F209" t="n">
+        <v>6.7</v>
+      </c>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="n">
-        <v>6.62</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="210">
@@ -5578,28 +5590,28 @@
         <v>260</v>
       </c>
       <c r="B211" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="C211" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="D211" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E211" t="n">
         <v>7.1</v>
       </c>
-      <c r="E211" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F211" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G211" t="n">
         <v>7.3</v>
       </c>
-      <c r="G211" t="n">
+      <c r="H211" t="n">
         <v>7.6</v>
       </c>
-      <c r="H211" t="n">
-        <v>6.1</v>
-      </c>
       <c r="I211" t="n">
-        <v>6.89</v>
+        <v>7</v>
       </c>
     </row>
     <row r="212">
@@ -5676,28 +5688,28 @@
         <v>267</v>
       </c>
       <c r="B215" t="n">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="C215" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="D215" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E215" t="n">
         <v>7.1</v>
       </c>
-      <c r="E215" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F215" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="G215" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="H215" t="n">
-        <v>7.8</v>
+        <v>6.3</v>
       </c>
       <c r="I215" t="n">
-        <v>6.91</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="216">
@@ -5705,28 +5717,28 @@
         <v>273</v>
       </c>
       <c r="B216" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C216" t="n">
         <v>7.9</v>
       </c>
-      <c r="C216" t="n">
+      <c r="D216" t="n">
         <v>7.4</v>
       </c>
-      <c r="D216" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E216" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="F216" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="G216" t="n">
         <v>6.5</v>
       </c>
       <c r="H216" t="n">
-        <v>8.1</v>
+        <v>6.5</v>
       </c>
       <c r="I216" t="n">
-        <v>7.09</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="217">
@@ -5899,25 +5911,25 @@
         <v>6.7</v>
       </c>
       <c r="C223" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D223" t="n">
         <v>7.7</v>
       </c>
-      <c r="D223" t="n">
+      <c r="E223" t="n">
         <v>7.3</v>
       </c>
-      <c r="E223" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F223" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G223" t="n">
         <v>4.9</v>
       </c>
-      <c r="G223" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H223" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="I223" t="n">
-        <v>6.71</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="224">
@@ -5952,28 +5964,28 @@
         <v>282</v>
       </c>
       <c r="B225" t="n">
-        <v>7</v>
+        <v>7.9</v>
       </c>
       <c r="C225" t="n">
+        <v>7</v>
+      </c>
+      <c r="D225" t="n">
         <v>5.8</v>
       </c>
-      <c r="D225" t="n">
-        <v>7</v>
-      </c>
       <c r="E225" t="n">
+        <v>7</v>
+      </c>
+      <c r="F225" t="n">
         <v>7.3</v>
       </c>
-      <c r="F225" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G225" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="H225" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="I225" t="n">
-        <v>6.89</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="226">
@@ -6035,28 +6047,28 @@
         <v>286</v>
       </c>
       <c r="B228" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="C228" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="D228" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="E228" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="F228" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="G228" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H228" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="H228" t="n">
-        <v>7.2</v>
-      </c>
       <c r="I228" t="n">
-        <v>6.94</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="229">
@@ -6093,28 +6105,28 @@
         <v>288</v>
       </c>
       <c r="B230" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C230" t="n">
         <v>7.6</v>
       </c>
-      <c r="C230" t="n">
+      <c r="D230" t="n">
         <v>7.4</v>
       </c>
-      <c r="D230" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E230" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="F230" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="G230" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="H230" t="n">
         <v>6.7</v>
       </c>
       <c r="I230" t="n">
-        <v>6.83</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="231">
@@ -6125,25 +6137,25 @@
         <v>6.4</v>
       </c>
       <c r="C231" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="D231" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E231" t="n">
         <v>7.1</v>
       </c>
-      <c r="E231" t="n">
-        <v>7</v>
-      </c>
       <c r="F231" t="n">
+        <v>7</v>
+      </c>
+      <c r="G231" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="G231" t="n">
-        <v>6.8</v>
-      </c>
       <c r="H231" t="n">
-        <v>8.1</v>
+        <v>6.8</v>
       </c>
       <c r="I231" t="n">
-        <v>7.14</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="232">
@@ -6151,28 +6163,28 @@
         <v>290</v>
       </c>
       <c r="B232" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="C232" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D232" t="n">
         <v>7.1</v>
       </c>
-      <c r="D232" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E232" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="F232" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="G232" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="H232" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="I232" t="n">
-        <v>6.83</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="233">
@@ -6212,25 +6224,25 @@
         <v>7.5</v>
       </c>
       <c r="C234" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D234" t="n">
         <v>7.3</v>
       </c>
-      <c r="D234" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E234" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F234" t="n">
         <v>7.4</v>
       </c>
-      <c r="F234" t="n">
+      <c r="G234" t="n">
         <v>7.6</v>
       </c>
-      <c r="G234" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H234" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="I234" t="n">
-        <v>7.13</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="235">
@@ -6238,28 +6250,28 @@
         <v>293</v>
       </c>
       <c r="B235" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C235" t="n">
         <v>7.3</v>
       </c>
-      <c r="C235" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D235" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="E235" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F235" t="n">
         <v>7.1</v>
       </c>
-      <c r="F235" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G235" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H235" t="n">
         <v>7.3</v>
       </c>
-      <c r="H235" t="n">
-        <v>7.2</v>
-      </c>
       <c r="I235" t="n">
-        <v>7.01</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="236">
@@ -6288,25 +6300,25 @@
         <v>295</v>
       </c>
       <c r="B237" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="C237" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="D237" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E237" t="n">
         <v>7.1</v>
       </c>
-      <c r="E237" t="n">
-        <v>6.3</v>
-      </c>
       <c r="F237" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="G237" t="n">
         <v>6.1</v>
       </c>
-      <c r="G237" t="n">
+      <c r="H237" t="n">
         <v>7.2</v>
-      </c>
-      <c r="H237" t="n">
-        <v>6.3</v>
       </c>
       <c r="I237" t="n">
         <v>6.64</v>
@@ -6349,25 +6361,25 @@
         <v>6.6</v>
       </c>
       <c r="C239" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="D239" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E239" t="n">
         <v>5.8</v>
       </c>
-      <c r="E239" t="n">
+      <c r="F239" t="n">
         <v>7.5</v>
       </c>
-      <c r="F239" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G239" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="H239" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I239" t="n">
-        <v>6.63</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="240">
@@ -6404,28 +6416,28 @@
         <v>300</v>
       </c>
       <c r="B241" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C241" t="n">
         <v>7.3</v>
       </c>
-      <c r="C241" t="n">
+      <c r="D241" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="D241" t="n">
+      <c r="E241" t="n">
         <v>8</v>
       </c>
-      <c r="E241" t="n">
+      <c r="F241" t="n">
         <v>7.4</v>
       </c>
-      <c r="F241" t="n">
+      <c r="G241" t="n">
         <v>7.3</v>
       </c>
-      <c r="G241" t="n">
-        <v>6.8</v>
-      </c>
       <c r="H241" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="I241" t="n">
-        <v>7.39</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="242">
@@ -6485,28 +6497,28 @@
         <v>303</v>
       </c>
       <c r="B244" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="C244" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="D244" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E244" t="n">
         <v>7.5</v>
-      </c>
-      <c r="E244" t="n">
-        <v>7.4</v>
       </c>
       <c r="F244" t="n">
         <v>7.4</v>
       </c>
       <c r="G244" t="n">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="H244" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="I244" t="n">
-        <v>6.94</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="245">
@@ -6514,28 +6526,28 @@
         <v>305</v>
       </c>
       <c r="B245" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="C245" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="D245" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="E245" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="F245" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="G245" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H245" t="n">
         <v>7.1</v>
       </c>
-      <c r="H245" t="n">
-        <v>8.300000000000001</v>
-      </c>
       <c r="I245" t="n">
-        <v>6.93</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="246">
@@ -6572,28 +6584,28 @@
         <v>307</v>
       </c>
       <c r="B247" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="C247" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="D247" t="n">
         <v>6.7</v>
       </c>
       <c r="E247" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F247" t="n">
         <v>5.6</v>
       </c>
-      <c r="F247" t="n">
+      <c r="G247" t="n">
         <v>7.2</v>
       </c>
-      <c r="G247" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H247" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="I247" t="n">
-        <v>6.7</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="248">
@@ -6604,25 +6616,25 @@
         <v>6.5</v>
       </c>
       <c r="C248" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="D248" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="E248" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F248" t="n">
         <v>5.9</v>
       </c>
-      <c r="F248" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G248" t="n">
         <v>6.5</v>
       </c>
       <c r="H248" t="n">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="I248" t="n">
-        <v>6.51</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="249">
@@ -6630,28 +6642,28 @@
         <v>309</v>
       </c>
       <c r="B249" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="C249" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D249" t="n">
         <v>7.6</v>
-      </c>
-      <c r="D249" t="n">
-        <v>7.1</v>
       </c>
       <c r="E249" t="n">
         <v>7.1</v>
       </c>
       <c r="F249" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="G249" t="n">
+        <v>7</v>
+      </c>
+      <c r="H249" t="n">
         <v>7.3</v>
       </c>
-      <c r="H249" t="n">
-        <v>7.7</v>
-      </c>
       <c r="I249" t="n">
-        <v>7.24</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="250">
@@ -6659,28 +6671,28 @@
         <v>310</v>
       </c>
       <c r="B250" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C250" t="n">
         <v>7.4</v>
       </c>
-      <c r="C250" t="n">
+      <c r="D250" t="n">
         <v>7.3</v>
       </c>
-      <c r="D250" t="n">
-        <v>7</v>
-      </c>
       <c r="E250" t="n">
         <v>7</v>
       </c>
       <c r="F250" t="n">
+        <v>7</v>
+      </c>
+      <c r="G250" t="n">
         <v>7.4</v>
       </c>
-      <c r="G250" t="n">
+      <c r="H250" t="n">
         <v>7.5</v>
       </c>
-      <c r="H250" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="I250" t="n">
-        <v>7.4</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="251">
@@ -6691,23 +6703,25 @@
         <v>6.6</v>
       </c>
       <c r="C251" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D251" t="n">
         <v>7.9</v>
       </c>
-      <c r="D251" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E251" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="F251" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="G251" t="n">
-        <v>7</v>
-      </c>
-      <c r="H251" t="inlineStr"/>
+        <v>6.9</v>
+      </c>
+      <c r="H251" t="n">
+        <v>7</v>
+      </c>
       <c r="I251" t="n">
-        <v>7</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="252">
@@ -6715,28 +6729,28 @@
         <v>312</v>
       </c>
       <c r="B252" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C252" t="n">
         <v>7.2</v>
       </c>
-      <c r="C252" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D252" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="E252" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F252" t="n">
         <v>7.2</v>
       </c>
-      <c r="F252" t="n">
+      <c r="G252" t="n">
         <v>7.9</v>
       </c>
-      <c r="G252" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H252" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="I252" t="n">
-        <v>6.94</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="253">
@@ -6744,28 +6758,28 @@
         <v>313</v>
       </c>
       <c r="B253" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="C253" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D253" t="n">
         <v>7.1</v>
       </c>
-      <c r="D253" t="n">
-        <v>7</v>
-      </c>
       <c r="E253" t="n">
+        <v>7</v>
+      </c>
+      <c r="F253" t="n">
         <v>6.2</v>
       </c>
-      <c r="F253" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G253" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H253" t="n">
         <v>9.6</v>
       </c>
-      <c r="H253" t="n">
-        <v>6.3</v>
-      </c>
       <c r="I253" t="n">
-        <v>7.01</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="254">
@@ -6773,28 +6787,28 @@
         <v>314</v>
       </c>
       <c r="B254" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="C254" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="D254" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="E254" t="n">
+        <v>7</v>
+      </c>
+      <c r="F254" t="n">
         <v>7.1</v>
       </c>
-      <c r="F254" t="n">
-        <v>7</v>
-      </c>
       <c r="G254" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="H254" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="I254" t="n">
-        <v>6.9</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="255">
@@ -6802,28 +6816,28 @@
         <v>315</v>
       </c>
       <c r="B255" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C255" t="n">
         <v>7.4</v>
       </c>
-      <c r="C255" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D255" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E255" t="n">
         <v>7.7</v>
       </c>
-      <c r="E255" t="n">
+      <c r="F255" t="n">
         <v>8.1</v>
       </c>
-      <c r="F255" t="n">
+      <c r="G255" t="n">
         <v>6.1</v>
       </c>
-      <c r="G255" t="n">
+      <c r="H255" t="n">
         <v>7.2</v>
       </c>
-      <c r="H255" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I255" t="n">
-        <v>7.11</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="256">
@@ -6831,11 +6845,11 @@
         <v>316</v>
       </c>
       <c r="B256" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C256" t="n">
         <v>7.2</v>
       </c>
-      <c r="C256" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D256" t="n">
         <v>6.5</v>
       </c>
@@ -6843,16 +6857,16 @@
         <v>6.5</v>
       </c>
       <c r="F256" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="G256" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="H256" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="I256" t="n">
-        <v>6.61</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="257">
@@ -6889,25 +6903,25 @@
         <v>318</v>
       </c>
       <c r="B258" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="C258" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="D258" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="E258" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F258" t="n">
         <v>6</v>
       </c>
-      <c r="F258" t="n">
+      <c r="G258" t="n">
         <v>7.3</v>
       </c>
-      <c r="G258" t="n">
-        <v>6.3</v>
-      </c>
       <c r="H258" t="n">
-        <v>7.1</v>
+        <v>6.3</v>
       </c>
       <c r="I258" t="n">
         <v>6.67</v>
@@ -6964,28 +6978,28 @@
         <v>321</v>
       </c>
       <c r="B261" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="C261" t="n">
         <v>7</v>
       </c>
       <c r="D261" t="n">
+        <v>7</v>
+      </c>
+      <c r="E261" t="n">
         <v>7.1</v>
       </c>
-      <c r="E261" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F261" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="G261" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="H261" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="I261" t="n">
-        <v>6.96</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="262">
@@ -6993,28 +7007,28 @@
         <v>322</v>
       </c>
       <c r="B262" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C262" t="n">
         <v>6.2</v>
       </c>
-      <c r="C262" t="n">
-        <v>7</v>
-      </c>
       <c r="D262" t="n">
+        <v>7</v>
+      </c>
+      <c r="E262" t="n">
         <v>7.1</v>
       </c>
-      <c r="E262" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F262" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G262" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="G262" t="n">
+      <c r="H262" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="H262" t="n">
-        <v>7.5</v>
-      </c>
       <c r="I262" t="n">
-        <v>7.41</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="263">
@@ -7051,28 +7065,28 @@
         <v>324</v>
       </c>
       <c r="B264" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="C264" t="n">
         <v>6.3</v>
       </c>
       <c r="D264" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="E264" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F264" t="n">
         <v>7.3</v>
       </c>
-      <c r="F264" t="n">
+      <c r="G264" t="n">
         <v>9</v>
       </c>
-      <c r="G264" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H264" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="I264" t="n">
-        <v>7</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="265">
@@ -7080,22 +7094,24 @@
         <v>325</v>
       </c>
       <c r="B265" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C265" t="n">
         <v>7.2</v>
       </c>
-      <c r="C265" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D265" t="n">
         <v>6.6</v>
       </c>
       <c r="E265" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="F265" t="inlineStr"/>
+        <v>6.6</v>
+      </c>
+      <c r="F265" t="n">
+        <v>6.8</v>
+      </c>
       <c r="G265" t="inlineStr"/>
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="n">
-        <v>6.8</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="266">
@@ -7228,28 +7244,28 @@
         <v>333</v>
       </c>
       <c r="B271" t="n">
-        <v>6.7</v>
+        <v>7.8</v>
       </c>
       <c r="C271" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D271" t="n">
         <v>8</v>
       </c>
-      <c r="D271" t="n">
+      <c r="E271" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="E271" t="n">
+      <c r="F271" t="n">
         <v>6.1</v>
       </c>
-      <c r="F271" t="n">
+      <c r="G271" t="n">
         <v>7.8</v>
       </c>
-      <c r="G271" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H271" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I271" t="n">
-        <v>7.26</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="272">
@@ -7257,20 +7273,22 @@
         <v>335</v>
       </c>
       <c r="B272" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="C272" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="D272" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="E272" t="inlineStr"/>
+        <v>6.3</v>
+      </c>
+      <c r="E272" t="n">
+        <v>6.7</v>
+      </c>
       <c r="F272" t="inlineStr"/>
       <c r="G272" t="inlineStr"/>
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="n">
-        <v>6.5</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="273">
@@ -7307,28 +7325,28 @@
         <v>337</v>
       </c>
       <c r="B274" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="C274" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="D274" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="E274" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="F274" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="G274" t="n">
         <v>7.2</v>
       </c>
-      <c r="G274" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H274" t="n">
-        <v>8.6</v>
+        <v>6.5</v>
       </c>
       <c r="I274" t="n">
-        <v>6.87</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="275">
@@ -7372,28 +7390,28 @@
         <v>340</v>
       </c>
       <c r="B277" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="C277" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D277" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E277" t="n">
         <v>7.2</v>
       </c>
-      <c r="E277" t="n">
-        <v>7</v>
-      </c>
       <c r="F277" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="G277" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H277" t="n">
         <v>7.8</v>
       </c>
-      <c r="H277" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I277" t="n">
-        <v>6.99</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="278">
@@ -7401,28 +7419,28 @@
         <v>341</v>
       </c>
       <c r="B278" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="C278" t="n">
         <v>6.6</v>
       </c>
       <c r="D278" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="E278" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="F278" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="G278" t="n">
         <v>7.5</v>
       </c>
       <c r="H278" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="I278" t="n">
-        <v>6.96</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="279">
@@ -7430,28 +7448,28 @@
         <v>342</v>
       </c>
       <c r="B279" t="n">
+        <v>7</v>
+      </c>
+      <c r="C279" t="n">
         <v>7.1</v>
       </c>
-      <c r="C279" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D279" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E279" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="E279" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F279" t="n">
         <v>6.7</v>
       </c>
       <c r="G279" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H279" t="n">
         <v>7.7</v>
       </c>
-      <c r="H279" t="n">
-        <v>7.8</v>
-      </c>
       <c r="I279" t="n">
-        <v>7.37</v>
+        <v>7.26</v>
       </c>
     </row>
     <row r="280">
@@ -7486,28 +7504,28 @@
         <v>344</v>
       </c>
       <c r="B281" t="n">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="C281" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="D281" t="n">
+        <v>7</v>
+      </c>
+      <c r="E281" t="n">
         <v>8.4</v>
       </c>
-      <c r="E281" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F281" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="G281" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H281" t="n">
         <v>7.2</v>
       </c>
-      <c r="H281" t="n">
-        <v>8</v>
-      </c>
       <c r="I281" t="n">
-        <v>7.19</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="282">
@@ -7515,28 +7533,28 @@
         <v>345</v>
       </c>
       <c r="B282" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="C282" t="n">
         <v>7</v>
       </c>
       <c r="D282" t="n">
+        <v>7</v>
+      </c>
+      <c r="E282" t="n">
         <v>7.1</v>
       </c>
-      <c r="E282" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F282" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="G282" t="n">
+        <v>7</v>
+      </c>
+      <c r="H282" t="n">
         <v>7.4</v>
       </c>
-      <c r="H282" t="n">
-        <v>6.3</v>
-      </c>
       <c r="I282" t="n">
-        <v>6.93</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="283">
@@ -7660,16 +7678,16 @@
         <v>350</v>
       </c>
       <c r="B287" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C287" t="n">
         <v>7.9</v>
       </c>
-      <c r="C287" t="n">
-        <v>7</v>
-      </c>
       <c r="D287" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="E287" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="F287" t="n">
         <v>6.8</v>
@@ -7681,7 +7699,7 @@
         <v>6.8</v>
       </c>
       <c r="I287" t="n">
-        <v>6.94</v>
+        <v>7</v>
       </c>
     </row>
     <row r="288">
@@ -7747,28 +7765,28 @@
         <v>353</v>
       </c>
       <c r="B290" t="n">
+        <v>8</v>
+      </c>
+      <c r="C290" t="n">
         <v>7.5</v>
       </c>
-      <c r="C290" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D290" t="n">
         <v>6.5</v>
       </c>
       <c r="E290" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="F290" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G290" t="n">
         <v>5.9</v>
       </c>
-      <c r="G290" t="n">
-        <v>6.8</v>
-      </c>
       <c r="H290" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="I290" t="n">
-        <v>6.64</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="291">
@@ -7841,22 +7859,24 @@
         <v>357</v>
       </c>
       <c r="B294" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C294" t="n">
         <v>7.1</v>
       </c>
-      <c r="C294" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D294" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="E294" t="n">
-        <v>7</v>
-      </c>
-      <c r="F294" t="inlineStr"/>
+        <v>6.3</v>
+      </c>
+      <c r="F294" t="n">
+        <v>7</v>
+      </c>
       <c r="G294" t="inlineStr"/>
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="n">
-        <v>6.7</v>
+        <v>7.08</v>
       </c>
     </row>
     <row r="295">
@@ -7922,28 +7942,28 @@
         <v>360</v>
       </c>
       <c r="B297" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="C297" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="D297" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E297" t="n">
         <v>7.1</v>
       </c>
-      <c r="E297" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F297" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="G297" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H297" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="I297" t="n">
-        <v>6.7</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="298">
@@ -7951,28 +7971,28 @@
         <v>362</v>
       </c>
       <c r="B298" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C298" t="n">
         <v>7.3</v>
       </c>
-      <c r="C298" t="n">
+      <c r="D298" t="n">
         <v>7.4</v>
       </c>
-      <c r="D298" t="n">
+      <c r="E298" t="n">
         <v>7.9</v>
       </c>
-      <c r="E298" t="n">
+      <c r="F298" t="n">
         <v>7.6</v>
       </c>
-      <c r="F298" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G298" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="H298" t="n">
-        <v>8.699999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="I298" t="n">
-        <v>7.49</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="299">
@@ -8030,28 +8050,28 @@
         <v>366</v>
       </c>
       <c r="B301" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="C301" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="D301" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="E301" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F301" t="n">
         <v>7.1</v>
       </c>
-      <c r="F301" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G301" t="n">
         <v>6.8</v>
       </c>
       <c r="H301" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I301" t="n">
-        <v>6.67</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="302">
@@ -8059,28 +8079,28 @@
         <v>367</v>
       </c>
       <c r="B302" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="C302" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D302" t="n">
         <v>6.2</v>
       </c>
-      <c r="D302" t="n">
+      <c r="E302" t="n">
         <v>8.1</v>
       </c>
-      <c r="E302" t="n">
+      <c r="F302" t="n">
         <v>6.2</v>
       </c>
-      <c r="F302" t="n">
-        <v>6.3</v>
-      </c>
       <c r="G302" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="H302" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="I302" t="n">
-        <v>6.56</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="303">
@@ -8117,28 +8137,28 @@
         <v>369</v>
       </c>
       <c r="B304" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="C304" t="n">
         <v>6.8</v>
       </c>
       <c r="D304" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="E304" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F304" t="n">
         <v>7.3</v>
       </c>
-      <c r="F304" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G304" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H304" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I304" t="n">
-        <v>6.71</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="305">
@@ -8146,28 +8166,28 @@
         <v>370</v>
       </c>
       <c r="B305" t="n">
+        <v>6</v>
+      </c>
+      <c r="C305" t="n">
         <v>7.8</v>
       </c>
-      <c r="C305" t="n">
+      <c r="D305" t="n">
         <v>7.1</v>
       </c>
-      <c r="D305" t="n">
-        <v>7</v>
-      </c>
       <c r="E305" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="F305" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G305" t="n">
         <v>5.9</v>
       </c>
-      <c r="G305" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H305" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="I305" t="n">
-        <v>6.97</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="306">
@@ -8175,25 +8195,25 @@
         <v>371</v>
       </c>
       <c r="B306" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="C306" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="D306" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="E306" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="F306" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="G306" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H306" t="n">
         <v>5.4</v>
-      </c>
-      <c r="H306" t="n">
-        <v>6.5</v>
       </c>
       <c r="I306" t="n">
         <v>6.3</v>
@@ -8236,25 +8256,25 @@
         <v>6.7</v>
       </c>
       <c r="C308" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="D308" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E308" t="n">
         <v>7.2</v>
       </c>
-      <c r="E308" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F308" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="G308" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="H308" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="I308" t="n">
-        <v>6.89</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="309">
@@ -8291,28 +8311,28 @@
         <v>375</v>
       </c>
       <c r="B310" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C310" t="n">
         <v>8</v>
       </c>
-      <c r="C310" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D310" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="E310" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F310" t="n">
         <v>7.3</v>
       </c>
-      <c r="F310" t="n">
+      <c r="G310" t="n">
         <v>7.5</v>
       </c>
-      <c r="G310" t="n">
+      <c r="H310" t="n">
         <v>7.6</v>
       </c>
-      <c r="H310" t="n">
-        <v>7.1</v>
-      </c>
       <c r="I310" t="n">
-        <v>7.26</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="311">
@@ -8320,28 +8340,28 @@
         <v>376</v>
       </c>
       <c r="B311" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="C311" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="D311" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E311" t="n">
         <v>6</v>
       </c>
-      <c r="E311" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F311" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="G311" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H311" t="n">
         <v>6.1</v>
       </c>
-      <c r="H311" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I311" t="n">
-        <v>6.51</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="312">
@@ -8349,28 +8369,28 @@
         <v>377</v>
       </c>
       <c r="B312" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="C312" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D312" t="n">
         <v>7.3</v>
       </c>
-      <c r="D312" t="n">
+      <c r="E312" t="n">
         <v>7.4</v>
       </c>
-      <c r="E312" t="n">
-        <v>7</v>
-      </c>
       <c r="F312" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="G312" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="H312" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="I312" t="n">
-        <v>6.87</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="313">
@@ -8378,28 +8398,28 @@
         <v>378</v>
       </c>
       <c r="B313" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C313" t="n">
         <v>7.8</v>
       </c>
-      <c r="C313" t="n">
+      <c r="D313" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="D313" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E313" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F313" t="n">
         <v>8</v>
       </c>
-      <c r="F313" t="n">
+      <c r="G313" t="n">
         <v>7.4</v>
       </c>
-      <c r="G313" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H313" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="I313" t="n">
-        <v>7.46</v>
+        <v>7.57</v>
       </c>
     </row>
     <row r="314">
@@ -8410,21 +8430,23 @@
         <v>6.7</v>
       </c>
       <c r="C314" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="D314" t="n">
         <v>6.6</v>
       </c>
       <c r="E314" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="F314" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="G314" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="G314" t="n">
+        <v>6.6</v>
+      </c>
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="n">
-        <v>6.6</v>
+        <v>6.62</v>
       </c>
     </row>
     <row r="315">
@@ -8484,28 +8506,28 @@
         <v>382</v>
       </c>
       <c r="B317" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C317" t="n">
         <v>6.1</v>
       </c>
-      <c r="C317" t="n">
+      <c r="D317" t="n">
         <v>6.2</v>
       </c>
-      <c r="D317" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E317" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="F317" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="G317" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="H317" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="I317" t="n">
-        <v>6.37</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="318">
@@ -8513,28 +8535,28 @@
         <v>383</v>
       </c>
       <c r="B318" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C318" t="n">
         <v>8.4</v>
       </c>
-      <c r="C318" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D318" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E318" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="E318" t="n">
+      <c r="F318" t="n">
         <v>7.9</v>
       </c>
-      <c r="F318" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G318" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H318" t="n">
         <v>7.3</v>
       </c>
-      <c r="H318" t="n">
-        <v>7</v>
-      </c>
       <c r="I318" t="n">
-        <v>7.47</v>
+        <v>7.57</v>
       </c>
     </row>
     <row r="319">
@@ -8571,28 +8593,28 @@
         <v>385</v>
       </c>
       <c r="B320" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C320" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="D320" t="n">
         <v>7.1</v>
       </c>
       <c r="E320" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="F320" t="n">
         <v>7</v>
       </c>
       <c r="G320" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="H320" t="n">
-        <v>7.8</v>
+        <v>6.7</v>
       </c>
       <c r="I320" t="n">
-        <v>7.1</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="321">
@@ -8719,22 +8741,24 @@
         <v>391</v>
       </c>
       <c r="B326" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="C326" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D326" t="n">
         <v>7.3</v>
       </c>
-      <c r="D326" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E326" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="F326" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="F326" t="n">
+        <v>6.6</v>
+      </c>
       <c r="G326" t="inlineStr"/>
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="n">
-        <v>6.68</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="327">
@@ -8755,28 +8779,28 @@
         <v>393</v>
       </c>
       <c r="B328" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="C328" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="D328" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="E328" t="n">
+        <v>7</v>
+      </c>
+      <c r="F328" t="n">
         <v>7.8</v>
       </c>
-      <c r="F328" t="n">
+      <c r="G328" t="n">
         <v>8.1</v>
       </c>
-      <c r="G328" t="n">
+      <c r="H328" t="n">
         <v>8.9</v>
       </c>
-      <c r="H328" t="n">
-        <v>7.2</v>
-      </c>
       <c r="I328" t="n">
-        <v>7.46</v>
+        <v>7.57</v>
       </c>
     </row>
     <row r="329">
@@ -8784,28 +8808,28 @@
         <v>394</v>
       </c>
       <c r="B329" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C329" t="n">
         <v>7.4</v>
       </c>
-      <c r="C329" t="n">
+      <c r="D329" t="n">
         <v>7.7</v>
       </c>
-      <c r="D329" t="n">
-        <v>7</v>
-      </c>
       <c r="E329" t="n">
+        <v>7</v>
+      </c>
+      <c r="F329" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="F329" t="n">
+      <c r="G329" t="n">
         <v>7.4</v>
       </c>
-      <c r="G329" t="n">
+      <c r="H329" t="n">
         <v>7.7</v>
       </c>
-      <c r="H329" t="n">
-        <v>8.1</v>
-      </c>
       <c r="I329" t="n">
-        <v>7.64</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="330">
@@ -8884,28 +8908,28 @@
         <v>398</v>
       </c>
       <c r="B333" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="C333" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D333" t="n">
         <v>7.1</v>
       </c>
-      <c r="D333" t="n">
-        <v>7</v>
-      </c>
       <c r="E333" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="F333" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="G333" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H333" t="n">
         <v>6.2</v>
       </c>
-      <c r="H333" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I333" t="n">
-        <v>6.59</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="334">
@@ -8913,26 +8937,28 @@
         <v>399</v>
       </c>
       <c r="B334" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="C334" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="D334" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E334" t="n">
         <v>7.1</v>
       </c>
-      <c r="E334" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F334" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G334" t="n">
         <v>7.8</v>
       </c>
-      <c r="G334" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="H334" t="inlineStr"/>
+      <c r="H334" t="n">
+        <v>6.7</v>
+      </c>
       <c r="I334" t="n">
-        <v>6.97</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="335">
@@ -9113,28 +9139,28 @@
         <v>407</v>
       </c>
       <c r="B342" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="C342" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="D342" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E342" t="n">
         <v>7.5</v>
       </c>
-      <c r="E342" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F342" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="G342" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="H342" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="I342" t="n">
-        <v>6.83</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="343">
@@ -9142,28 +9168,28 @@
         <v>408</v>
       </c>
       <c r="B343" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="C343" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="D343" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="E343" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="F343" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="G343" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H343" t="n">
         <v>8.6</v>
       </c>
-      <c r="H343" t="n">
-        <v>7.1</v>
-      </c>
       <c r="I343" t="n">
-        <v>6.99</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="344">
@@ -9171,28 +9197,28 @@
         <v>409</v>
       </c>
       <c r="B344" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="C344" t="n">
         <v>6.9</v>
       </c>
       <c r="D344" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E344" t="n">
         <v>7.3</v>
       </c>
-      <c r="E344" t="n">
-        <v>6.4</v>
-      </c>
       <c r="F344" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="G344" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H344" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="I344" t="n">
-        <v>7.14</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="345">
@@ -9232,25 +9258,25 @@
         <v>6.5</v>
       </c>
       <c r="C346" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="D346" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="E346" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="F346" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="G346" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="H346" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="I346" t="n">
-        <v>6.8</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="347">
@@ -9314,28 +9340,28 @@
         <v>414</v>
       </c>
       <c r="B349" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C349" t="n">
         <v>7.2</v>
       </c>
-      <c r="C349" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D349" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E349" t="n">
         <v>8.6</v>
       </c>
-      <c r="E349" t="n">
+      <c r="F349" t="n">
         <v>7.1</v>
       </c>
-      <c r="F349" t="n">
+      <c r="G349" t="n">
         <v>6.1</v>
       </c>
-      <c r="G349" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H349" t="n">
-        <v>9.4</v>
+        <v>6.6</v>
       </c>
       <c r="I349" t="n">
-        <v>7.37</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="350">
@@ -9372,28 +9398,28 @@
         <v>416</v>
       </c>
       <c r="B351" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="C351" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D351" t="n">
         <v>7.2</v>
       </c>
-      <c r="D351" t="n">
+      <c r="E351" t="n">
         <v>7.5</v>
       </c>
-      <c r="E351" t="n">
-        <v>6.3</v>
-      </c>
       <c r="F351" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="G351" t="n">
         <v>7.2</v>
       </c>
-      <c r="G351" t="n">
-        <v>6.8</v>
-      </c>
       <c r="H351" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="I351" t="n">
-        <v>7.01</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="352">
@@ -9401,28 +9427,28 @@
         <v>417</v>
       </c>
       <c r="B352" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C352" t="n">
         <v>7.3</v>
       </c>
-      <c r="C352" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D352" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E352" t="n">
         <v>6.2</v>
       </c>
-      <c r="E352" t="n">
+      <c r="F352" t="n">
         <v>8.9</v>
       </c>
-      <c r="F352" t="n">
+      <c r="G352" t="n">
         <v>6</v>
       </c>
-      <c r="G352" t="n">
+      <c r="H352" t="n">
         <v>8</v>
       </c>
-      <c r="H352" t="n">
-        <v>6.3</v>
-      </c>
       <c r="I352" t="n">
-        <v>7.04</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="353">
@@ -9488,28 +9514,28 @@
         <v>420</v>
       </c>
       <c r="B355" t="n">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="C355" t="n">
         <v>7.3</v>
       </c>
       <c r="D355" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="E355" t="n">
         <v>7.2</v>
       </c>
-      <c r="E355" t="n">
+      <c r="F355" t="n">
         <v>7.4</v>
       </c>
-      <c r="F355" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G355" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="H355" t="n">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="I355" t="n">
-        <v>7.13</v>
+        <v>7.19</v>
       </c>
     </row>
     <row r="356">
@@ -9517,28 +9543,28 @@
         <v>421</v>
       </c>
       <c r="B356" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C356" t="n">
         <v>7.1</v>
       </c>
-      <c r="C356" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D356" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="E356" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="F356" t="n">
+        <v>7</v>
+      </c>
+      <c r="G356" t="n">
         <v>8.5</v>
       </c>
-      <c r="G356" t="n">
-        <v>7</v>
-      </c>
       <c r="H356" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="I356" t="n">
-        <v>7.29</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="357">
@@ -9630,28 +9656,28 @@
         <v>426</v>
       </c>
       <c r="B361" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="C361" t="n">
         <v>6.4</v>
       </c>
       <c r="D361" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="E361" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="F361" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="G361" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H361" t="n">
         <v>6.2</v>
       </c>
-      <c r="H361" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I361" t="n">
-        <v>6.44</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="362">
@@ -9659,28 +9685,28 @@
         <v>427</v>
       </c>
       <c r="B362" t="n">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="C362" t="n">
         <v>6.9</v>
       </c>
       <c r="D362" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="E362" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="F362" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="G362" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H362" t="n">
         <v>7.4</v>
       </c>
-      <c r="H362" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I362" t="n">
-        <v>6.93</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="363">
@@ -9688,28 +9714,28 @@
         <v>428</v>
       </c>
       <c r="B363" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C363" t="n">
         <v>8</v>
       </c>
-      <c r="C363" t="n">
-        <v>6.3</v>
-      </c>
       <c r="D363" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E363" t="n">
         <v>7.1</v>
       </c>
-      <c r="E363" t="n">
-        <v>6.4</v>
-      </c>
       <c r="F363" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="G363" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H363" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="H363" t="n">
-        <v>7.2</v>
-      </c>
       <c r="I363" t="n">
-        <v>7.1</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="364">
@@ -9717,28 +9743,28 @@
         <v>429</v>
       </c>
       <c r="B364" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="C364" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="D364" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="E364" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F364" t="n">
         <v>7.2</v>
       </c>
-      <c r="F364" t="n">
+      <c r="G364" t="n">
         <v>7.4</v>
       </c>
-      <c r="G364" t="n">
+      <c r="H364" t="n">
         <v>7.9</v>
       </c>
-      <c r="H364" t="n">
-        <v>8</v>
-      </c>
       <c r="I364" t="n">
-        <v>7.16</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="365">
@@ -9746,28 +9772,28 @@
         <v>430</v>
       </c>
       <c r="B365" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C365" t="n">
         <v>7.5</v>
       </c>
-      <c r="C365" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D365" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E365" t="n">
         <v>7.2</v>
-      </c>
-      <c r="E365" t="n">
-        <v>7.4</v>
       </c>
       <c r="F365" t="n">
         <v>7.4</v>
       </c>
       <c r="G365" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="H365" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I365" t="n">
-        <v>7.1</v>
+        <v>7.29</v>
       </c>
     </row>
     <row r="366">
@@ -9775,28 +9801,28 @@
         <v>431</v>
       </c>
       <c r="B366" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C366" t="n">
         <v>6.1</v>
       </c>
-      <c r="C366" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D366" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E366" t="n">
         <v>7.8</v>
       </c>
-      <c r="E366" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F366" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="G366" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H366" t="n">
         <v>7.2</v>
       </c>
-      <c r="H366" t="n">
-        <v>7.8</v>
-      </c>
       <c r="I366" t="n">
-        <v>6.99</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="367">
@@ -9804,28 +9830,28 @@
         <v>432</v>
       </c>
       <c r="B367" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="C367" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="D367" t="n">
         <v>7.2</v>
       </c>
-      <c r="D367" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E367" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F367" t="n">
         <v>7.9</v>
       </c>
-      <c r="F367" t="n">
+      <c r="G367" t="n">
         <v>7.1</v>
       </c>
-      <c r="G367" t="n">
+      <c r="H367" t="n">
         <v>7.2</v>
       </c>
-      <c r="H367" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I367" t="n">
-        <v>7.16</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="368">
@@ -9839,22 +9865,22 @@
         <v>6.7</v>
       </c>
       <c r="D368" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E368" t="n">
         <v>6</v>
       </c>
-      <c r="E368" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F368" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G368" t="n">
         <v>7.7</v>
       </c>
-      <c r="G368" t="n">
+      <c r="H368" t="n">
         <v>7.1</v>
       </c>
-      <c r="H368" t="n">
-        <v>6.1</v>
-      </c>
       <c r="I368" t="n">
-        <v>6.74</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="369">
@@ -9862,28 +9888,28 @@
         <v>434</v>
       </c>
       <c r="B369" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C369" t="n">
+        <v>7</v>
+      </c>
+      <c r="D369" t="n">
         <v>9.5</v>
       </c>
-      <c r="D369" t="n">
+      <c r="E369" t="n">
         <v>7.1</v>
       </c>
-      <c r="E369" t="n">
+      <c r="F369" t="n">
         <v>7.7</v>
       </c>
-      <c r="F369" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G369" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="H369" t="n">
-        <v>7.7</v>
+        <v>6.4</v>
       </c>
       <c r="I369" t="n">
-        <v>7.43</v>
+        <v>7.76</v>
       </c>
     </row>
     <row r="370">
@@ -9993,28 +10019,28 @@
         <v>439</v>
       </c>
       <c r="B374" t="n">
+        <v>7</v>
+      </c>
+      <c r="C374" t="n">
         <v>7.3</v>
       </c>
-      <c r="C374" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D374" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="E374" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="F374" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="G374" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H374" t="n">
         <v>7.3</v>
       </c>
-      <c r="H374" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I374" t="n">
-        <v>6.83</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="375">
@@ -10022,28 +10048,28 @@
         <v>440</v>
       </c>
       <c r="B375" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C375" t="n">
         <v>7.5</v>
       </c>
-      <c r="C375" t="n">
+      <c r="D375" t="n">
         <v>7.7</v>
       </c>
-      <c r="D375" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E375" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F375" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="F375" t="n">
+      <c r="G375" t="n">
         <v>7.1</v>
       </c>
-      <c r="G375" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H375" t="n">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="I375" t="n">
-        <v>7.4</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="376">
@@ -10051,28 +10077,28 @@
         <v>441</v>
       </c>
       <c r="B376" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C376" t="n">
         <v>7.5</v>
       </c>
-      <c r="C376" t="n">
+      <c r="D376" t="n">
         <v>6.1</v>
       </c>
-      <c r="D376" t="n">
+      <c r="E376" t="n">
         <v>9.6</v>
       </c>
-      <c r="E376" t="n">
-        <v>7</v>
-      </c>
       <c r="F376" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="G376" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H376" t="n">
         <v>8.6</v>
       </c>
-      <c r="H376" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I376" t="n">
-        <v>7.47</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="377">
@@ -10080,28 +10106,28 @@
         <v>442</v>
       </c>
       <c r="B377" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="C377" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="D377" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E377" t="n">
         <v>6.2</v>
       </c>
-      <c r="E377" t="n">
+      <c r="F377" t="n">
         <v>7.5</v>
       </c>
-      <c r="F377" t="n">
+      <c r="G377" t="n">
         <v>8.1</v>
       </c>
-      <c r="G377" t="n">
-        <v>7</v>
-      </c>
       <c r="H377" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="I377" t="n">
-        <v>6.99</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="378">
@@ -10109,28 +10135,28 @@
         <v>443</v>
       </c>
       <c r="B378" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="C378" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="D378" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="E378" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F378" t="n">
         <v>7.6</v>
       </c>
-      <c r="F378" t="n">
+      <c r="G378" t="n">
         <v>7.2</v>
       </c>
-      <c r="G378" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H378" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="I378" t="n">
-        <v>6.99</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="379">
@@ -10138,28 +10164,28 @@
         <v>444</v>
       </c>
       <c r="B379" t="n">
-        <v>6.7</v>
+        <v>7.7</v>
       </c>
       <c r="C379" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D379" t="n">
         <v>8.1</v>
       </c>
-      <c r="D379" t="n">
+      <c r="E379" t="n">
         <v>7.8</v>
       </c>
-      <c r="E379" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F379" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G379" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="G379" t="n">
+      <c r="H379" t="n">
         <v>7.5</v>
       </c>
-      <c r="H379" t="n">
-        <v>7</v>
-      </c>
       <c r="I379" t="n">
-        <v>7.57</v>
+        <v>7.67</v>
       </c>
     </row>
     <row r="380">
@@ -10225,20 +10251,22 @@
         <v>447</v>
       </c>
       <c r="B382" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="C382" t="n">
         <v>6.5</v>
       </c>
       <c r="D382" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="E382" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="E382" t="n">
+        <v>6.6</v>
+      </c>
       <c r="F382" t="inlineStr"/>
       <c r="G382" t="inlineStr"/>
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="n">
-        <v>6.53</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="383">
@@ -10343,28 +10371,28 @@
         <v>453</v>
       </c>
       <c r="B388" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="C388" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="D388" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="E388" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F388" t="n">
         <v>7.4</v>
       </c>
-      <c r="F388" t="n">
+      <c r="G388" t="n">
         <v>6.1</v>
       </c>
-      <c r="G388" t="n">
+      <c r="H388" t="n">
         <v>6.2</v>
       </c>
-      <c r="H388" t="n">
-        <v>6.3</v>
-      </c>
       <c r="I388" t="n">
-        <v>6.46</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="389">
@@ -10372,28 +10400,28 @@
         <v>454</v>
       </c>
       <c r="B389" t="n">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="C389" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="D389" t="n">
+        <v>7</v>
+      </c>
+      <c r="E389" t="n">
         <v>7.5</v>
-      </c>
-      <c r="E389" t="n">
-        <v>7.3</v>
       </c>
       <c r="F389" t="n">
         <v>7.3</v>
       </c>
       <c r="G389" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="H389" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="H389" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I389" t="n">
-        <v>7.34</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="390">
@@ -10559,26 +10587,28 @@
         <v>461</v>
       </c>
       <c r="B396" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="C396" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="D396" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E396" t="n">
         <v>6</v>
       </c>
-      <c r="E396" t="n">
-        <v>7</v>
-      </c>
       <c r="F396" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="G396" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H396" t="inlineStr"/>
+        <v>6.9</v>
+      </c>
+      <c r="H396" t="n">
+        <v>6.5</v>
+      </c>
       <c r="I396" t="n">
-        <v>6.58</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="397">
@@ -10586,28 +10616,28 @@
         <v>462</v>
       </c>
       <c r="B397" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="C397" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="D397" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="E397" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="F397" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="G397" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="H397" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="I397" t="n">
-        <v>6.6</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="398">
@@ -10618,26 +10648,434 @@
         <v>6.3</v>
       </c>
       <c r="C398" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D398" t="n">
         <v>6.2</v>
       </c>
-      <c r="D398" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E398" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="F398" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="G398" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="H398" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="I398" t="n">
-        <v>6.53</v>
-      </c>
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="B399" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C399" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D399" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E399" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F399" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G399" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H399" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I399" t="n">
+        <v>6.76</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="B400" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C400" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D400" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E400" t="inlineStr"/>
+      <c r="F400" t="inlineStr"/>
+      <c r="G400" t="inlineStr"/>
+      <c r="H400" t="inlineStr"/>
+      <c r="I400" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>466</v>
+      </c>
+      <c r="B401" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C401" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D401" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E401" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F401" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G401" t="inlineStr"/>
+      <c r="H401" t="inlineStr"/>
+      <c r="I401" t="n">
+        <v>6.68</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>467</v>
+      </c>
+      <c r="B402" t="n">
+        <v>7</v>
+      </c>
+      <c r="C402" t="n">
+        <v>7</v>
+      </c>
+      <c r="D402" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="E402" t="n">
+        <v>7</v>
+      </c>
+      <c r="F402" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G402" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H402" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I402" t="n">
+        <v>6.84</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>468</v>
+      </c>
+      <c r="B403" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C403" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D403" t="n">
+        <v>6</v>
+      </c>
+      <c r="E403" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="F403" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G403" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H403" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>6.49</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>469</v>
+      </c>
+      <c r="B404" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C404" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D404" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E404" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F404" t="n">
+        <v>7</v>
+      </c>
+      <c r="G404" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H404" t="n">
+        <v>7</v>
+      </c>
+      <c r="I404" t="n">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="B405" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C405" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D405" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E405" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F405" t="inlineStr"/>
+      <c r="G405" t="inlineStr"/>
+      <c r="H405" t="inlineStr"/>
+      <c r="I405" t="n">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="B406" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C406" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D406" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E406" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F406" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="G406" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H406" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="I406" t="n">
+        <v>6.84</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>472</v>
+      </c>
+      <c r="B407" t="inlineStr"/>
+      <c r="C407" t="inlineStr"/>
+      <c r="D407" t="inlineStr"/>
+      <c r="E407" t="inlineStr"/>
+      <c r="F407" t="inlineStr"/>
+      <c r="G407" t="inlineStr"/>
+      <c r="H407" t="inlineStr"/>
+      <c r="I407" t="inlineStr"/>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>473</v>
+      </c>
+      <c r="B408" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C408" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D408" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="E408" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="F408" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G408" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H408" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I408" t="n">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>474</v>
+      </c>
+      <c r="B409" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C409" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D409" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E409" t="inlineStr"/>
+      <c r="F409" t="inlineStr"/>
+      <c r="G409" t="inlineStr"/>
+      <c r="H409" t="inlineStr"/>
+      <c r="I409" t="n">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>475</v>
+      </c>
+      <c r="B410" t="inlineStr"/>
+      <c r="C410" t="inlineStr"/>
+      <c r="D410" t="inlineStr"/>
+      <c r="E410" t="inlineStr"/>
+      <c r="F410" t="inlineStr"/>
+      <c r="G410" t="inlineStr"/>
+      <c r="H410" t="inlineStr"/>
+      <c r="I410" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="B411" t="inlineStr"/>
+      <c r="C411" t="inlineStr"/>
+      <c r="D411" t="inlineStr"/>
+      <c r="E411" t="inlineStr"/>
+      <c r="F411" t="inlineStr"/>
+      <c r="G411" t="inlineStr"/>
+      <c r="H411" t="inlineStr"/>
+      <c r="I411" t="inlineStr"/>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="B412" t="inlineStr"/>
+      <c r="C412" t="inlineStr"/>
+      <c r="D412" t="inlineStr"/>
+      <c r="E412" t="inlineStr"/>
+      <c r="F412" t="inlineStr"/>
+      <c r="G412" t="inlineStr"/>
+      <c r="H412" t="inlineStr"/>
+      <c r="I412" t="inlineStr"/>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="B413" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C413" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D413" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E413" t="inlineStr"/>
+      <c r="F413" t="inlineStr"/>
+      <c r="G413" t="inlineStr"/>
+      <c r="H413" t="inlineStr"/>
+      <c r="I413" t="n">
+        <v>6.43</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>479</v>
+      </c>
+      <c r="B414" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C414" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D414" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="E414" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F414" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G414" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H414" t="n">
+        <v>7</v>
+      </c>
+      <c r="I414" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="B415" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C415" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D415" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E415" t="n">
+        <v>7</v>
+      </c>
+      <c r="F415" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="G415" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H415" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I415" t="n">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="B416" t="inlineStr"/>
+      <c r="C416" t="inlineStr"/>
+      <c r="D416" t="inlineStr"/>
+      <c r="E416" t="inlineStr"/>
+      <c r="F416" t="inlineStr"/>
+      <c r="G416" t="inlineStr"/>
+      <c r="H416" t="inlineStr"/>
+      <c r="I416" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/players_ratings.xlsx
+++ b/players_ratings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I416"/>
+  <dimension ref="A1:I419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -703,28 +703,28 @@
         <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="D12" t="n">
         <v>6.8</v>
       </c>
       <c r="E12" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="F12" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="G12" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H12" t="n">
         <v>7.6</v>
       </c>
-      <c r="H12" t="n">
-        <v>7.2</v>
-      </c>
       <c r="I12" t="n">
-        <v>6.94</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="13">
@@ -932,28 +932,28 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="D21" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E21" t="n">
         <v>7.2</v>
       </c>
-      <c r="C21" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="F21" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G21" t="n">
         <v>7.4</v>
       </c>
-      <c r="E21" t="n">
+      <c r="H21" t="n">
         <v>7.3</v>
       </c>
-      <c r="F21" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="G21" t="n">
-        <v>8</v>
-      </c>
-      <c r="H21" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I21" t="n">
-        <v>7.17</v>
+        <v>7.19</v>
       </c>
     </row>
     <row r="22">
@@ -1529,18 +1529,20 @@
         <v>56</v>
       </c>
       <c r="B46" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="C46" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="D46" t="inlineStr"/>
+        <v>6.7</v>
+      </c>
+      <c r="D46" t="n">
+        <v>6.6</v>
+      </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="n">
-        <v>6.65</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="47">
@@ -1756,26 +1758,28 @@
         <v>67</v>
       </c>
       <c r="B55" t="n">
-        <v>6.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C55" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D55" t="n">
         <v>8</v>
       </c>
-      <c r="D55" t="n">
-        <v>7</v>
-      </c>
       <c r="E55" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="F55" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="G55" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H55" t="n">
         <v>7.4</v>
       </c>
-      <c r="H55" t="inlineStr"/>
       <c r="I55" t="n">
-        <v>7.02</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="56">
@@ -1825,19 +1829,19 @@
         <v>75</v>
       </c>
       <c r="B58" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C58" t="n">
         <v>7.3</v>
       </c>
-      <c r="C58" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D58" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="E58" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="F58" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="G58" t="n">
         <v>6.6</v>
@@ -1846,7 +1850,7 @@
         <v>6.6</v>
       </c>
       <c r="I58" t="n">
-        <v>6.7</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="59">
@@ -2080,7 +2084,7 @@
         <v>94</v>
       </c>
       <c r="B69" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="C69" t="n">
         <v>7.8</v>
@@ -2101,7 +2105,7 @@
         <v>6.9</v>
       </c>
       <c r="I69" t="n">
-        <v>7.26</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="70">
@@ -2978,28 +2982,28 @@
         <v>136</v>
       </c>
       <c r="B107" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="C107" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="D107" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="E107" t="n">
         <v>7.1</v>
       </c>
       <c r="F107" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G107" t="n">
         <v>7.7</v>
       </c>
-      <c r="G107" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H107" t="n">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="I107" t="n">
-        <v>7.07</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="108">
@@ -3112,28 +3116,28 @@
         <v>144</v>
       </c>
       <c r="B113" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C113" t="n">
         <v>7.1</v>
       </c>
-      <c r="C113" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D113" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="E113" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="F113" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="G113" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="H113" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="I113" t="n">
-        <v>6.77</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="114">
@@ -3415,25 +3419,25 @@
         <v>7.4</v>
       </c>
       <c r="C125" t="n">
-        <v>6.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D125" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E125" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F125" t="n">
         <v>7.2</v>
       </c>
-      <c r="E125" t="n">
+      <c r="G125" t="n">
         <v>7.4</v>
       </c>
-      <c r="F125" t="n">
+      <c r="H125" t="n">
         <v>8.1</v>
       </c>
-      <c r="G125" t="n">
-        <v>7</v>
-      </c>
-      <c r="H125" t="n">
-        <v>7.9</v>
-      </c>
       <c r="I125" t="n">
-        <v>7.34</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="126">
@@ -3584,28 +3588,28 @@
         <v>170</v>
       </c>
       <c r="B131" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C131" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D131" t="n">
         <v>7.4</v>
       </c>
-      <c r="C131" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="D131" t="n">
-        <v>6.4</v>
-      </c>
       <c r="E131" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F131" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G131" t="n">
         <v>7.4</v>
       </c>
-      <c r="F131" t="n">
+      <c r="H131" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="G131" t="n">
-        <v>7</v>
-      </c>
-      <c r="H131" t="n">
-        <v>7.5</v>
-      </c>
       <c r="I131" t="n">
-        <v>7.2</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="132">
@@ -3806,20 +3810,24 @@
         <v>178</v>
       </c>
       <c r="B139" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="C139" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="D139" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
+        <v>6.3</v>
+      </c>
+      <c r="E139" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F139" t="n">
+        <v>6.6</v>
+      </c>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="140">
@@ -3852,28 +3860,28 @@
         <v>180</v>
       </c>
       <c r="B141" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C141" t="n">
         <v>6.2</v>
       </c>
-      <c r="C141" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D141" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="E141" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F141" t="n">
         <v>7.2</v>
       </c>
-      <c r="F141" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G141" t="n">
         <v>6.9</v>
       </c>
       <c r="H141" t="n">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="I141" t="n">
-        <v>6.9</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="142">
@@ -3910,28 +3918,28 @@
         <v>182</v>
       </c>
       <c r="B143" t="n">
+        <v>6</v>
+      </c>
+      <c r="C143" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="C143" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D143" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="E143" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F143" t="n">
         <v>7.5</v>
       </c>
-      <c r="F143" t="n">
+      <c r="G143" t="n">
         <v>9</v>
       </c>
-      <c r="G143" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H143" t="n">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="I143" t="n">
-        <v>7.44</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="144">
@@ -3958,7 +3966,7 @@
         <v>184</v>
       </c>
       <c r="B145" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="C145" t="n">
         <v>6.3</v>
@@ -3979,7 +3987,7 @@
         <v>7.4</v>
       </c>
       <c r="I145" t="n">
-        <v>6.91</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="146">
@@ -3987,28 +3995,28 @@
         <v>185</v>
       </c>
       <c r="B146" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="C146" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="D146" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="E146" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="F146" t="n">
         <v>6.9</v>
       </c>
       <c r="G146" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="H146" t="n">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="I146" t="n">
-        <v>7.04</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="147">
@@ -4079,28 +4087,28 @@
         <v>190</v>
       </c>
       <c r="B150" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C150" t="n">
         <v>7.2</v>
       </c>
-      <c r="C150" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D150" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="E150" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="F150" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="G150" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H150" t="n">
         <v>7.3</v>
       </c>
-      <c r="H150" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I150" t="n">
-        <v>6.74</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="151">
@@ -4882,28 +4890,28 @@
         <v>223</v>
       </c>
       <c r="B181" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C181" t="n">
         <v>6.5</v>
       </c>
       <c r="D181" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="E181" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="F181" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="G181" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="H181" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="I181" t="n">
-        <v>6.53</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="182">
@@ -4940,28 +4948,28 @@
         <v>225</v>
       </c>
       <c r="B183" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C183" t="n">
         <v>7.6</v>
       </c>
-      <c r="C183" t="n">
+      <c r="D183" t="n">
         <v>7.5</v>
       </c>
-      <c r="D183" t="n">
-        <v>6.3</v>
-      </c>
       <c r="E183" t="n">
         <v>6.3</v>
       </c>
       <c r="F183" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="G183" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H183" t="n">
         <v>5.5</v>
       </c>
-      <c r="H183" t="n">
-        <v>7.1</v>
-      </c>
       <c r="I183" t="n">
-        <v>6.71</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="184">
@@ -5908,7 +5916,7 @@
         <v>280</v>
       </c>
       <c r="B223" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="C223" t="n">
         <v>6.7</v>
@@ -5929,7 +5937,7 @@
         <v>6.7</v>
       </c>
       <c r="I223" t="n">
-        <v>6.69</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="224">
@@ -6192,28 +6200,28 @@
         <v>291</v>
       </c>
       <c r="B233" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C233" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="D233" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="C233" t="n">
+      <c r="E233" t="n">
         <v>7.6</v>
       </c>
-      <c r="D233" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="E233" t="n">
+      <c r="F233" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G233" t="n">
         <v>7.4</v>
       </c>
-      <c r="F233" t="n">
-        <v>7</v>
-      </c>
-      <c r="G233" t="n">
-        <v>8.4</v>
-      </c>
       <c r="H233" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="I233" t="n">
-        <v>7.46</v>
+        <v>7.26</v>
       </c>
     </row>
     <row r="234">
@@ -7007,28 +7015,28 @@
         <v>322</v>
       </c>
       <c r="B262" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C262" t="n">
         <v>8.5</v>
       </c>
-      <c r="C262" t="n">
+      <c r="D262" t="n">
         <v>6.2</v>
       </c>
-      <c r="D262" t="n">
-        <v>7</v>
-      </c>
       <c r="E262" t="n">
+        <v>7</v>
+      </c>
+      <c r="F262" t="n">
         <v>7.1</v>
       </c>
-      <c r="F262" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G262" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H262" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="H262" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="I262" t="n">
-        <v>7.56</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="263">
@@ -7533,7 +7541,7 @@
         <v>345</v>
       </c>
       <c r="B282" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C282" t="n">
         <v>7</v>
@@ -7554,7 +7562,7 @@
         <v>7.4</v>
       </c>
       <c r="I282" t="n">
-        <v>6.96</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="283">
@@ -7707,28 +7715,28 @@
         <v>351</v>
       </c>
       <c r="B288" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="C288" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="D288" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="E288" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="F288" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G288" t="n">
         <v>6.2</v>
       </c>
-      <c r="G288" t="n">
-        <v>6.4</v>
-      </c>
       <c r="H288" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I288" t="n">
-        <v>6.5</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="289">
@@ -7942,7 +7950,7 @@
         <v>360</v>
       </c>
       <c r="B297" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="C297" t="n">
         <v>6.6</v>
@@ -7963,7 +7971,7 @@
         <v>7</v>
       </c>
       <c r="I297" t="n">
-        <v>6.66</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="298">
@@ -8641,28 +8649,28 @@
         <v>387</v>
       </c>
       <c r="B322" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C322" t="n">
         <v>8</v>
       </c>
-      <c r="C322" t="n">
-        <v>7</v>
-      </c>
       <c r="D322" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="E322" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="F322" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G322" t="n">
         <v>8.9</v>
       </c>
-      <c r="G322" t="n">
-        <v>6.8</v>
-      </c>
       <c r="H322" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="I322" t="n">
-        <v>7.36</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="323">
@@ -8779,7 +8787,7 @@
         <v>393</v>
       </c>
       <c r="B328" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="C328" t="n">
         <v>6.4</v>
@@ -8800,7 +8808,7 @@
         <v>8.9</v>
       </c>
       <c r="I328" t="n">
-        <v>7.57</v>
+        <v>7.59</v>
       </c>
     </row>
     <row r="329">
@@ -8837,28 +8845,28 @@
         <v>395</v>
       </c>
       <c r="B330" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C330" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="D330" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="E330" t="n">
         <v>6.6</v>
       </c>
       <c r="F330" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="G330" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="H330" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="I330" t="n">
-        <v>6.66</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="331">
@@ -8879,28 +8887,28 @@
         <v>397</v>
       </c>
       <c r="B332" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C332" t="n">
         <v>8.1</v>
       </c>
-      <c r="C332" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D332" t="n">
         <v>6.7</v>
       </c>
       <c r="E332" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="F332" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="G332" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="H332" t="n">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="I332" t="n">
-        <v>6.96</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="333">
@@ -8908,7 +8916,7 @@
         <v>398</v>
       </c>
       <c r="B333" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="C333" t="n">
         <v>6.5</v>
@@ -8929,7 +8937,7 @@
         <v>6.2</v>
       </c>
       <c r="I333" t="n">
-        <v>6.61</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="334">
@@ -9284,28 +9292,28 @@
         <v>412</v>
       </c>
       <c r="B347" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C347" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="C347" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D347" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="E347" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F347" t="n">
         <v>7.7</v>
       </c>
-      <c r="F347" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G347" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H347" t="n">
         <v>7.6</v>
       </c>
-      <c r="H347" t="n">
-        <v>6.4</v>
-      </c>
       <c r="I347" t="n">
-        <v>7.19</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="348">
@@ -9801,28 +9809,28 @@
         <v>431</v>
       </c>
       <c r="B366" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C366" t="n">
         <v>7.3</v>
       </c>
-      <c r="C366" t="n">
+      <c r="D366" t="n">
         <v>6.1</v>
       </c>
-      <c r="D366" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E366" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F366" t="n">
         <v>7.8</v>
       </c>
-      <c r="F366" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G366" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="H366" t="n">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="I366" t="n">
-        <v>6.91</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="367">
@@ -9888,28 +9896,28 @@
         <v>434</v>
       </c>
       <c r="B369" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="C369" t="n">
         <v>10</v>
       </c>
-      <c r="C369" t="n">
-        <v>7</v>
-      </c>
       <c r="D369" t="n">
+        <v>7</v>
+      </c>
+      <c r="E369" t="n">
         <v>9.5</v>
       </c>
-      <c r="E369" t="n">
+      <c r="F369" t="n">
         <v>7.1</v>
       </c>
-      <c r="F369" t="n">
+      <c r="G369" t="n">
         <v>7.7</v>
       </c>
-      <c r="G369" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H369" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I369" t="n">
-        <v>7.76</v>
+        <v>8.210000000000001</v>
       </c>
     </row>
     <row r="370">
@@ -9917,28 +9925,28 @@
         <v>435</v>
       </c>
       <c r="B370" t="n">
-        <v>6.7</v>
+        <v>8.4</v>
       </c>
       <c r="C370" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D370" t="n">
         <v>8.6</v>
       </c>
-      <c r="D370" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E370" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F370" t="n">
         <v>9.4</v>
       </c>
-      <c r="F370" t="n">
-        <v>6.4</v>
-      </c>
       <c r="G370" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="H370" t="n">
-        <v>7.4</v>
+        <v>6.7</v>
       </c>
       <c r="I370" t="n">
-        <v>7.41</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="371">
@@ -10077,28 +10085,28 @@
         <v>441</v>
       </c>
       <c r="B376" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C376" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D376" t="n">
         <v>7.5</v>
       </c>
-      <c r="D376" t="n">
+      <c r="E376" t="n">
         <v>6.1</v>
       </c>
-      <c r="E376" t="n">
+      <c r="F376" t="n">
         <v>9.6</v>
       </c>
-      <c r="F376" t="n">
-        <v>7</v>
-      </c>
       <c r="G376" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="H376" t="n">
-        <v>8.6</v>
+        <v>6.8</v>
       </c>
       <c r="I376" t="n">
-        <v>7.46</v>
+        <v>7.19</v>
       </c>
     </row>
     <row r="377">
@@ -10222,28 +10230,28 @@
         <v>446</v>
       </c>
       <c r="B381" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="C381" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="D381" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="E381" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="F381" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G381" t="n">
         <v>7.3</v>
       </c>
-      <c r="G381" t="n">
+      <c r="H381" t="n">
         <v>7.6</v>
       </c>
-      <c r="H381" t="n">
-        <v>7.3</v>
-      </c>
       <c r="I381" t="n">
-        <v>6.86</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="382">
@@ -10313,28 +10321,28 @@
         <v>451</v>
       </c>
       <c r="B386" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="C386" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D386" t="n">
         <v>7.3</v>
       </c>
-      <c r="D386" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E386" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F386" t="n">
         <v>7.1</v>
       </c>
-      <c r="F386" t="n">
+      <c r="G386" t="n">
         <v>8.1</v>
       </c>
-      <c r="G386" t="n">
+      <c r="H386" t="n">
         <v>7.9</v>
       </c>
-      <c r="H386" t="n">
-        <v>7.7</v>
-      </c>
       <c r="I386" t="n">
-        <v>7.3</v>
+        <v>7.26</v>
       </c>
     </row>
     <row r="387">
@@ -10429,28 +10437,28 @@
         <v>455</v>
       </c>
       <c r="B390" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C390" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="C390" t="n">
+      <c r="D390" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="D390" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E390" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F390" t="n">
         <v>8.1</v>
       </c>
-      <c r="F390" t="n">
+      <c r="G390" t="n">
         <v>7.7</v>
       </c>
-      <c r="G390" t="n">
+      <c r="H390" t="n">
         <v>7.9</v>
       </c>
-      <c r="H390" t="n">
-        <v>8.1</v>
-      </c>
       <c r="I390" t="n">
-        <v>8.16</v>
+        <v>8.09</v>
       </c>
     </row>
     <row r="391">
@@ -10458,28 +10466,28 @@
         <v>456</v>
       </c>
       <c r="B391" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C391" t="n">
         <v>7.1</v>
       </c>
-      <c r="C391" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D391" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E391" t="n">
         <v>7.2</v>
       </c>
-      <c r="E391" t="n">
+      <c r="F391" t="n">
         <v>7.7</v>
       </c>
-      <c r="F391" t="n">
+      <c r="G391" t="n">
         <v>9.6</v>
       </c>
-      <c r="G391" t="n">
+      <c r="H391" t="n">
         <v>7.3</v>
       </c>
-      <c r="H391" t="n">
-        <v>7.4</v>
-      </c>
       <c r="I391" t="n">
-        <v>7.57</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="392">
@@ -10519,25 +10527,25 @@
         <v>7</v>
       </c>
       <c r="C393" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="D393" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="E393" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="F393" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="G393" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="H393" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="I393" t="n">
-        <v>6.69</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="394">
@@ -10545,24 +10553,28 @@
         <v>459</v>
       </c>
       <c r="B394" t="n">
-        <v>6.9</v>
+        <v>6.1</v>
       </c>
       <c r="C394" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="D394" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="E394" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="F394" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="G394" t="inlineStr"/>
-      <c r="H394" t="inlineStr"/>
+        <v>6.2</v>
+      </c>
+      <c r="G394" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H394" t="n">
+        <v>6.6</v>
+      </c>
       <c r="I394" t="n">
-        <v>6.6</v>
+        <v>6.41</v>
       </c>
     </row>
     <row r="395">
@@ -10570,16 +10582,28 @@
         <v>460</v>
       </c>
       <c r="B395" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="C395" t="inlineStr"/>
-      <c r="D395" t="inlineStr"/>
-      <c r="E395" t="inlineStr"/>
-      <c r="F395" t="inlineStr"/>
-      <c r="G395" t="inlineStr"/>
-      <c r="H395" t="inlineStr"/>
+        <v>6.3</v>
+      </c>
+      <c r="C395" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D395" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E395" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F395" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G395" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H395" t="n">
+        <v>6.7</v>
+      </c>
       <c r="I395" t="n">
-        <v>6.4</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="396">
@@ -10587,28 +10611,24 @@
         <v>461</v>
       </c>
       <c r="B396" t="n">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="C396" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="D396" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="E396" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="F396" t="n">
-        <v>7</v>
-      </c>
-      <c r="G396" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="H396" t="n">
-        <v>6.5</v>
-      </c>
+        <v>6.9</v>
+      </c>
+      <c r="G396" t="inlineStr"/>
+      <c r="H396" t="inlineStr"/>
       <c r="I396" t="n">
-        <v>6.53</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="397">
@@ -10616,28 +10636,20 @@
         <v>462</v>
       </c>
       <c r="B397" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="C397" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="D397" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="E397" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="F397" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="G397" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H397" t="n">
-        <v>6.7</v>
-      </c>
+        <v>6.7</v>
+      </c>
+      <c r="E397" t="inlineStr"/>
+      <c r="F397" t="inlineStr"/>
+      <c r="G397" t="inlineStr"/>
+      <c r="H397" t="inlineStr"/>
       <c r="I397" t="n">
-        <v>6.64</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="398">
@@ -10645,28 +10657,28 @@
         <v>463</v>
       </c>
       <c r="B398" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="C398" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="D398" t="n">
-        <v>6.2</v>
+        <v>7.5</v>
       </c>
       <c r="E398" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="F398" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="G398" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="H398" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="I398" t="n">
-        <v>6.51</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="399">
@@ -11040,25 +11052,25 @@
         <v>480</v>
       </c>
       <c r="B415" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="C415" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="D415" t="n">
         <v>6.4</v>
       </c>
       <c r="E415" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="F415" t="n">
+        <v>7</v>
+      </c>
+      <c r="G415" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="G415" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H415" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="I415" t="n">
         <v>6.81</v>
@@ -11077,6 +11089,61 @@
       <c r="H416" t="inlineStr"/>
       <c r="I416" t="inlineStr"/>
     </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="B417" t="inlineStr"/>
+      <c r="C417" t="inlineStr"/>
+      <c r="D417" t="inlineStr"/>
+      <c r="E417" t="inlineStr"/>
+      <c r="F417" t="inlineStr"/>
+      <c r="G417" t="inlineStr"/>
+      <c r="H417" t="inlineStr"/>
+      <c r="I417" t="inlineStr"/>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="B418" t="inlineStr"/>
+      <c r="C418" t="inlineStr"/>
+      <c r="D418" t="inlineStr"/>
+      <c r="E418" t="inlineStr"/>
+      <c r="F418" t="inlineStr"/>
+      <c r="G418" t="inlineStr"/>
+      <c r="H418" t="inlineStr"/>
+      <c r="I418" t="inlineStr"/>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>484</v>
+      </c>
+      <c r="B419" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C419" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D419" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="E419" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F419" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G419" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="H419" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I419" t="n">
+        <v>6.97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/players_ratings.xlsx
+++ b/players_ratings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I419"/>
+  <dimension ref="A1:I425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10527,25 +10527,25 @@
         <v>7</v>
       </c>
       <c r="C393" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="D393" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="E393" t="n">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="F393" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="G393" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="H393" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="I393" t="n">
-        <v>6.66</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="394">
@@ -10553,28 +10553,26 @@
         <v>459</v>
       </c>
       <c r="B394" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="C394" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="D394" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="E394" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="F394" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="G394" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H394" t="n">
-        <v>6.6</v>
-      </c>
+        <v>6.6</v>
+      </c>
+      <c r="H394" t="inlineStr"/>
       <c r="I394" t="n">
-        <v>6.41</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="395">
@@ -10582,28 +10580,16 @@
         <v>460</v>
       </c>
       <c r="B395" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="C395" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="D395" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="E395" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="F395" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="G395" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="H395" t="n">
-        <v>6.7</v>
-      </c>
+        <v>6.4</v>
+      </c>
+      <c r="C395" t="inlineStr"/>
+      <c r="D395" t="inlineStr"/>
+      <c r="E395" t="inlineStr"/>
+      <c r="F395" t="inlineStr"/>
+      <c r="G395" t="inlineStr"/>
+      <c r="H395" t="inlineStr"/>
       <c r="I395" t="n">
-        <v>6.54</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="396">
@@ -10611,24 +10597,28 @@
         <v>461</v>
       </c>
       <c r="B396" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="C396" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="D396" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="E396" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="F396" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="G396" t="inlineStr"/>
-      <c r="H396" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="G396" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H396" t="n">
+        <v>6.5</v>
+      </c>
       <c r="I396" t="n">
-        <v>6.76</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="397">
@@ -10636,20 +10626,28 @@
         <v>462</v>
       </c>
       <c r="B397" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="C397" t="n">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="D397" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="E397" t="inlineStr"/>
-      <c r="F397" t="inlineStr"/>
-      <c r="G397" t="inlineStr"/>
-      <c r="H397" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="E397" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F397" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="G397" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H397" t="n">
+        <v>6.7</v>
+      </c>
       <c r="I397" t="n">
-        <v>6.47</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="398">
@@ -10657,28 +10655,28 @@
         <v>463</v>
       </c>
       <c r="B398" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="C398" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="D398" t="n">
-        <v>7.5</v>
+        <v>6.2</v>
       </c>
       <c r="E398" t="n">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="F398" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="G398" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="H398" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="I398" t="n">
-        <v>6.83</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="399">
@@ -11144,6 +11142,168 @@
         <v>6.97</v>
       </c>
     </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="B420" t="n">
+        <v>7</v>
+      </c>
+      <c r="C420" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D420" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="E420" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="F420" t="n">
+        <v>7</v>
+      </c>
+      <c r="G420" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H420" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I420" t="n">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>486</v>
+      </c>
+      <c r="B421" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C421" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D421" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E421" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F421" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="G421" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H421" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I421" t="n">
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>487</v>
+      </c>
+      <c r="B422" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C422" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D422" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E422" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F422" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G422" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H422" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="I422" t="n">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>488</v>
+      </c>
+      <c r="B423" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C423" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D423" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E423" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F423" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G423" t="inlineStr"/>
+      <c r="H423" t="inlineStr"/>
+      <c r="I423" t="n">
+        <v>6.76</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>489</v>
+      </c>
+      <c r="B424" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C424" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D424" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E424" t="inlineStr"/>
+      <c r="F424" t="inlineStr"/>
+      <c r="G424" t="inlineStr"/>
+      <c r="H424" t="inlineStr"/>
+      <c r="I424" t="n">
+        <v>6.47</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>490</v>
+      </c>
+      <c r="B425" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C425" t="n">
+        <v>6</v>
+      </c>
+      <c r="D425" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E425" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="F425" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G425" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H425" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I425" t="n">
+        <v>6.83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/players_ratings.xlsx
+++ b/players_ratings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I425"/>
+  <dimension ref="A1:I451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11304,6 +11304,648 @@
         <v>6.83</v>
       </c>
     </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>491</v>
+      </c>
+      <c r="B426" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C426" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D426" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="E426" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="F426" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G426" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="H426" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I426" t="n">
+        <v>6.89</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>492</v>
+      </c>
+      <c r="B427" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C427" t="n">
+        <v>7</v>
+      </c>
+      <c r="D427" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E427" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F427" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="G427" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H427" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I427" t="n">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="B428" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C428" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D428" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E428" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F428" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G428" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H428" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="I428" t="n">
+        <v>6.47</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>494</v>
+      </c>
+      <c r="B429" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C429" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D429" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E429" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="F429" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="G429" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H429" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="I429" t="n">
+        <v>6.76</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="B430" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C430" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D430" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E430" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F430" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G430" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H430" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="I430" t="n">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="B431" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C431" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D431" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E431" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F431" t="inlineStr"/>
+      <c r="G431" t="inlineStr"/>
+      <c r="H431" t="inlineStr"/>
+      <c r="I431" t="n">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="B432" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C432" t="n">
+        <v>7</v>
+      </c>
+      <c r="D432" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E432" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="F432" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G432" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H432" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="I432" t="n">
+        <v>6.87</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>498</v>
+      </c>
+      <c r="B433" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C433" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D433" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E433" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F433" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G433" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="H433" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>499</v>
+      </c>
+      <c r="B434" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C434" t="n">
+        <v>7</v>
+      </c>
+      <c r="D434" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E434" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F434" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G434" t="n">
+        <v>6</v>
+      </c>
+      <c r="H434" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="I434" t="n">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="B435" t="inlineStr"/>
+      <c r="C435" t="inlineStr"/>
+      <c r="D435" t="inlineStr"/>
+      <c r="E435" t="inlineStr"/>
+      <c r="F435" t="inlineStr"/>
+      <c r="G435" t="inlineStr"/>
+      <c r="H435" t="inlineStr"/>
+      <c r="I435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>501</v>
+      </c>
+      <c r="B436" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C436" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D436" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="E436" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F436" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="G436" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H436" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I436" t="n">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="B437" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C437" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D437" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="E437" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="F437" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G437" t="n">
+        <v>7</v>
+      </c>
+      <c r="H437" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I437" t="n">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="B438" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C438" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D438" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="E438" t="inlineStr"/>
+      <c r="F438" t="inlineStr"/>
+      <c r="G438" t="inlineStr"/>
+      <c r="H438" t="inlineStr"/>
+      <c r="I438" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>504</v>
+      </c>
+      <c r="B439" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C439" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D439" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="E439" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F439" t="inlineStr"/>
+      <c r="G439" t="inlineStr"/>
+      <c r="H439" t="inlineStr"/>
+      <c r="I439" t="n">
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>505</v>
+      </c>
+      <c r="B440" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C440" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D440" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="E440" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F440" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G440" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H440" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I440" t="n">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>506</v>
+      </c>
+      <c r="B441" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C441" t="inlineStr"/>
+      <c r="D441" t="inlineStr"/>
+      <c r="E441" t="inlineStr"/>
+      <c r="F441" t="inlineStr"/>
+      <c r="G441" t="inlineStr"/>
+      <c r="H441" t="inlineStr"/>
+      <c r="I441" t="n">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>507</v>
+      </c>
+      <c r="B442" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C442" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D442" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E442" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F442" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="G442" t="inlineStr"/>
+      <c r="H442" t="inlineStr"/>
+      <c r="I442" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>508</v>
+      </c>
+      <c r="B443" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C443" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D443" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E443" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F443" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G443" t="inlineStr"/>
+      <c r="H443" t="inlineStr"/>
+      <c r="I443" t="n">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>509</v>
+      </c>
+      <c r="B444" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C444" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D444" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="E444" t="n">
+        <v>6</v>
+      </c>
+      <c r="F444" t="n">
+        <v>7</v>
+      </c>
+      <c r="G444" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H444" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I444" t="n">
+        <v>6.53</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>510</v>
+      </c>
+      <c r="B445" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C445" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D445" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E445" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F445" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G445" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H445" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I445" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>511</v>
+      </c>
+      <c r="B446" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C446" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D446" t="n">
+        <v>6</v>
+      </c>
+      <c r="E446" t="inlineStr"/>
+      <c r="F446" t="inlineStr"/>
+      <c r="G446" t="inlineStr"/>
+      <c r="H446" t="inlineStr"/>
+      <c r="I446" t="n">
+        <v>6.57</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="B447" t="inlineStr"/>
+      <c r="C447" t="inlineStr"/>
+      <c r="D447" t="inlineStr"/>
+      <c r="E447" t="inlineStr"/>
+      <c r="F447" t="inlineStr"/>
+      <c r="G447" t="inlineStr"/>
+      <c r="H447" t="inlineStr"/>
+      <c r="I447" t="inlineStr"/>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n">
+        <v>513</v>
+      </c>
+      <c r="B448" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C448" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D448" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E448" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F448" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G448" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H448" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I448" t="n">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n">
+        <v>514</v>
+      </c>
+      <c r="B449" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C449" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D449" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E449" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F449" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G449" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H449" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I449" t="n">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n">
+        <v>515</v>
+      </c>
+      <c r="B450" t="inlineStr"/>
+      <c r="C450" t="inlineStr"/>
+      <c r="D450" t="inlineStr"/>
+      <c r="E450" t="inlineStr"/>
+      <c r="F450" t="inlineStr"/>
+      <c r="G450" t="inlineStr"/>
+      <c r="H450" t="inlineStr"/>
+      <c r="I450" t="inlineStr"/>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>516</v>
+      </c>
+      <c r="B451" t="inlineStr"/>
+      <c r="C451" t="inlineStr"/>
+      <c r="D451" t="inlineStr"/>
+      <c r="E451" t="inlineStr"/>
+      <c r="F451" t="inlineStr"/>
+      <c r="G451" t="inlineStr"/>
+      <c r="H451" t="inlineStr"/>
+      <c r="I451" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/players_ratings.xlsx
+++ b/players_ratings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I451"/>
+  <dimension ref="A1:I526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,28 +628,28 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="C9" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D9" t="n">
         <v>6</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>6.1</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>7.2</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>7.1</v>
       </c>
-      <c r="G9" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H9" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="I9" t="n">
-        <v>6.69</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="10">
@@ -860,42 +860,46 @@
       <c r="A18" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>6.6</v>
+      </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B19" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C19" t="n">
         <v>8</v>
       </c>
-      <c r="C19" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D19" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="E19" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="F19" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="G19" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H19" t="n">
         <v>7.9</v>
       </c>
-      <c r="H19" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I19" t="n">
-        <v>6.97</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="20">
@@ -1159,28 +1163,28 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>7</v>
+        <v>8.1</v>
       </c>
       <c r="C30" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E30" t="n">
         <v>6</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>6.2</v>
       </c>
-      <c r="F30" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G30" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="H30" t="n">
-        <v>7.9</v>
+        <v>6.3</v>
       </c>
       <c r="I30" t="n">
-        <v>6.63</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="31">
@@ -1205,28 +1209,28 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C32" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="D32" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="E32" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="F32" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G32" t="n">
         <v>7.6</v>
       </c>
-      <c r="G32" t="n">
-        <v>6.3</v>
-      </c>
       <c r="H32" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="I32" t="n">
-        <v>6.71</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="33">
@@ -1263,25 +1267,25 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
+        <v>6</v>
+      </c>
+      <c r="C34" t="n">
         <v>7.4</v>
       </c>
-      <c r="C34" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D34" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="E34" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F34" t="n">
         <v>7.6</v>
       </c>
-      <c r="F34" t="n">
-        <v>6.3</v>
-      </c>
       <c r="G34" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H34" t="n">
         <v>7.2</v>
-      </c>
-      <c r="H34" t="n">
-        <v>6</v>
       </c>
       <c r="I34" t="n">
         <v>6.77</v>
@@ -1350,28 +1354,28 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C37" t="n">
         <v>7.1</v>
       </c>
-      <c r="C37" t="n">
+      <c r="D37" t="n">
         <v>7.4</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>7.8</v>
       </c>
-      <c r="E37" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F37" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="G37" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="H37" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="I37" t="n">
-        <v>6.97</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="38">
@@ -1829,28 +1833,28 @@
         <v>75</v>
       </c>
       <c r="B58" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="C58" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D58" t="n">
         <v>7.3</v>
       </c>
-      <c r="D58" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E58" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="F58" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="G58" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="H58" t="n">
         <v>6.6</v>
       </c>
       <c r="I58" t="n">
-        <v>6.73</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="59">
@@ -2982,28 +2986,28 @@
         <v>136</v>
       </c>
       <c r="B107" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="C107" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="D107" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="E107" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="F107" t="n">
         <v>7.1</v>
       </c>
       <c r="G107" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="H107" t="n">
         <v>7.7</v>
       </c>
-      <c r="H107" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I107" t="n">
-        <v>6.9</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="108">
@@ -3174,28 +3178,28 @@
         <v>146</v>
       </c>
       <c r="B115" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="C115" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D115" t="n">
         <v>7.7</v>
       </c>
-      <c r="D115" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E115" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="F115" t="n">
         <v>7.1</v>
       </c>
       <c r="G115" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="H115" t="n">
         <v>7.3</v>
       </c>
-      <c r="H115" t="n">
-        <v>7.7</v>
-      </c>
       <c r="I115" t="n">
-        <v>7.17</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="116">
@@ -3203,28 +3207,28 @@
         <v>147</v>
       </c>
       <c r="B116" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="C116" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D116" t="n">
         <v>6.1</v>
       </c>
-      <c r="D116" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E116" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="F116" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="G116" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="H116" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="I116" t="n">
-        <v>6.47</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="117">
@@ -3416,28 +3420,28 @@
         <v>164</v>
       </c>
       <c r="B125" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C125" t="n">
         <v>7.4</v>
       </c>
-      <c r="C125" t="n">
+      <c r="D125" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="D125" t="n">
+      <c r="E125" t="n">
         <v>7.4</v>
       </c>
-      <c r="E125" t="n">
-        <v>6.4</v>
-      </c>
       <c r="F125" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G125" t="n">
         <v>7.2</v>
       </c>
-      <c r="G125" t="n">
+      <c r="H125" t="n">
         <v>7.4</v>
       </c>
-      <c r="H125" t="n">
-        <v>8.1</v>
-      </c>
       <c r="I125" t="n">
-        <v>7.44</v>
+        <v>7.21</v>
       </c>
     </row>
     <row r="126">
@@ -3588,28 +3592,28 @@
         <v>170</v>
       </c>
       <c r="B131" t="n">
-        <v>6.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="D131" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E131" t="n">
         <v>7.4</v>
       </c>
-      <c r="E131" t="n">
-        <v>6.4</v>
-      </c>
       <c r="F131" t="n">
         <v>6.4</v>
       </c>
       <c r="G131" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H131" t="n">
         <v>7.4</v>
       </c>
-      <c r="H131" t="n">
-        <v>8.300000000000001</v>
-      </c>
       <c r="I131" t="n">
-        <v>7.04</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="132">
@@ -3810,24 +3814,26 @@
         <v>178</v>
       </c>
       <c r="B139" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C139" t="n">
         <v>6.1</v>
       </c>
-      <c r="C139" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D139" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="E139" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="F139" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="G139" t="inlineStr"/>
+        <v>6.9</v>
+      </c>
+      <c r="G139" t="n">
+        <v>6.6</v>
+      </c>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="140">
@@ -3860,28 +3866,28 @@
         <v>180</v>
       </c>
       <c r="B141" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="C141" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D141" t="n">
         <v>6.2</v>
       </c>
-      <c r="D141" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E141" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="F141" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G141" t="n">
         <v>7.2</v>
       </c>
-      <c r="G141" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H141" t="n">
         <v>6.9</v>
       </c>
       <c r="I141" t="n">
-        <v>6.76</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="142">
@@ -3918,28 +3924,28 @@
         <v>182</v>
       </c>
       <c r="B143" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C143" t="n">
         <v>6</v>
       </c>
-      <c r="C143" t="n">
+      <c r="D143" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="D143" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E143" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="F143" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G143" t="n">
         <v>7.5</v>
       </c>
-      <c r="G143" t="n">
+      <c r="H143" t="n">
         <v>9</v>
       </c>
-      <c r="H143" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I143" t="n">
-        <v>7.23</v>
+        <v>7.31</v>
       </c>
     </row>
     <row r="144">
@@ -3995,28 +4001,28 @@
         <v>185</v>
       </c>
       <c r="B146" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="C146" t="n">
         <v>6.4</v>
       </c>
       <c r="D146" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="E146" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="F146" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="G146" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="H146" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="I146" t="n">
-        <v>6.69</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="147">
@@ -4024,20 +4030,22 @@
         <v>186</v>
       </c>
       <c r="B147" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="C147" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D147" t="n">
         <v>5.8</v>
       </c>
-      <c r="D147" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="E147" t="inlineStr"/>
+      <c r="E147" t="n">
+        <v>6.7</v>
+      </c>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="n">
-        <v>6.37</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="148">
@@ -4116,28 +4124,28 @@
         <v>191</v>
       </c>
       <c r="B151" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C151" t="n">
         <v>6.2</v>
       </c>
-      <c r="C151" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D151" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E151" t="n">
         <v>6.1</v>
       </c>
-      <c r="E151" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F151" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="G151" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="H151" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="I151" t="n">
-        <v>6.49</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="152">
@@ -4145,28 +4153,28 @@
         <v>192</v>
       </c>
       <c r="B152" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C152" t="n">
         <v>7.4</v>
       </c>
-      <c r="C152" t="n">
-        <v>6.3</v>
-      </c>
       <c r="D152" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="E152" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="F152" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G152" t="n">
         <v>7.1</v>
       </c>
-      <c r="G152" t="n">
-        <v>6.8</v>
-      </c>
       <c r="H152" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="I152" t="n">
-        <v>6.89</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="153">
@@ -4220,28 +4228,28 @@
         <v>195</v>
       </c>
       <c r="B155" t="n">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="C155" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="D155" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="E155" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="F155" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="G155" t="n">
         <v>6.2</v>
       </c>
-      <c r="G155" t="n">
-        <v>7</v>
-      </c>
       <c r="H155" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="I155" t="n">
-        <v>6.51</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="156">
@@ -4324,28 +4332,28 @@
         <v>199</v>
       </c>
       <c r="B159" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="C159" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="D159" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="E159" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="F159" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G159" t="n">
         <v>7.1</v>
       </c>
-      <c r="G159" t="n">
+      <c r="H159" t="n">
         <v>5.9</v>
       </c>
-      <c r="H159" t="n">
-        <v>6.1</v>
-      </c>
       <c r="I159" t="n">
-        <v>6.47</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="160">
@@ -4540,28 +4548,28 @@
         <v>209</v>
       </c>
       <c r="B167" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="C167" t="n">
+        <v>7</v>
+      </c>
+      <c r="D167" t="n">
         <v>7.6</v>
       </c>
-      <c r="D167" t="n">
+      <c r="E167" t="n">
         <v>7.5</v>
       </c>
-      <c r="E167" t="n">
-        <v>7</v>
-      </c>
       <c r="F167" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="G167" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H167" t="n">
         <v>5.3</v>
       </c>
-      <c r="H167" t="n">
-        <v>7.7</v>
-      </c>
       <c r="I167" t="n">
-        <v>6.94</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="168">
@@ -4657,28 +4665,28 @@
         <v>214</v>
       </c>
       <c r="B172" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C172" t="n">
         <v>7.2</v>
       </c>
-      <c r="C172" t="n">
+      <c r="D172" t="n">
         <v>7.6</v>
       </c>
-      <c r="D172" t="n">
+      <c r="E172" t="n">
         <v>7.7</v>
       </c>
-      <c r="E172" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F172" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G172" t="n">
         <v>8.4</v>
       </c>
-      <c r="G172" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H172" t="n">
-        <v>7.8</v>
+        <v>6.7</v>
       </c>
       <c r="I172" t="n">
-        <v>7.44</v>
+        <v>7.31</v>
       </c>
     </row>
     <row r="173">
@@ -5035,28 +5043,28 @@
         <v>228</v>
       </c>
       <c r="B186" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C186" t="n">
         <v>7.1</v>
       </c>
-      <c r="C186" t="n">
-        <v>6.8</v>
-      </c>
       <c r="D186" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="E186" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F186" t="n">
         <v>7.4</v>
       </c>
-      <c r="F186" t="n">
+      <c r="G186" t="n">
         <v>8.4</v>
       </c>
-      <c r="G186" t="n">
-        <v>6.3</v>
-      </c>
       <c r="H186" t="n">
-        <v>7.6</v>
+        <v>6.3</v>
       </c>
       <c r="I186" t="n">
-        <v>7.19</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="187">
@@ -5360,28 +5368,28 @@
         <v>247</v>
       </c>
       <c r="B201" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C201" t="n">
         <v>5.4</v>
       </c>
-      <c r="C201" t="n">
+      <c r="D201" t="n">
         <v>7.4</v>
       </c>
-      <c r="D201" t="n">
+      <c r="E201" t="n">
         <v>7.8</v>
       </c>
-      <c r="E201" t="n">
+      <c r="F201" t="n">
         <v>9.4</v>
       </c>
-      <c r="F201" t="n">
-        <v>6.4</v>
-      </c>
       <c r="G201" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H201" t="n">
-        <v>7.7</v>
+        <v>6.6</v>
       </c>
       <c r="I201" t="n">
-        <v>7.24</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="202">
@@ -5421,28 +5429,28 @@
         <v>252</v>
       </c>
       <c r="B204" t="n">
+        <v>7</v>
+      </c>
+      <c r="C204" t="n">
         <v>5.9</v>
       </c>
-      <c r="C204" t="n">
+      <c r="D204" t="n">
         <v>6</v>
       </c>
-      <c r="D204" t="n">
+      <c r="E204" t="n">
         <v>7.2</v>
       </c>
-      <c r="E204" t="n">
+      <c r="F204" t="n">
         <v>7.6</v>
       </c>
-      <c r="F204" t="n">
+      <c r="G204" t="n">
         <v>7.7</v>
       </c>
-      <c r="G204" t="n">
+      <c r="H204" t="n">
         <v>7.2</v>
       </c>
-      <c r="H204" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I204" t="n">
-        <v>6.9</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="205">
@@ -5972,25 +5980,25 @@
         <v>282</v>
       </c>
       <c r="B225" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C225" t="n">
         <v>7.9</v>
       </c>
-      <c r="C225" t="n">
-        <v>7</v>
-      </c>
       <c r="D225" t="n">
+        <v>7</v>
+      </c>
+      <c r="E225" t="n">
         <v>5.8</v>
       </c>
-      <c r="E225" t="n">
-        <v>7</v>
-      </c>
       <c r="F225" t="n">
+        <v>7</v>
+      </c>
+      <c r="G225" t="n">
         <v>7.3</v>
       </c>
-      <c r="G225" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H225" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="I225" t="n">
         <v>6.93</v>
@@ -6171,28 +6179,28 @@
         <v>290</v>
       </c>
       <c r="B232" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C232" t="n">
         <v>6.2</v>
       </c>
-      <c r="C232" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D232" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E232" t="n">
         <v>7.1</v>
       </c>
-      <c r="E232" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F232" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="G232" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H232" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="I232" t="n">
-        <v>6.69</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="233">
@@ -6200,28 +6208,28 @@
         <v>291</v>
       </c>
       <c r="B233" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C233" t="n">
         <v>7.6</v>
       </c>
-      <c r="C233" t="n">
+      <c r="D233" t="n">
         <v>6.1</v>
       </c>
-      <c r="D233" t="n">
+      <c r="E233" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="E233" t="n">
+      <c r="F233" t="n">
         <v>7.6</v>
       </c>
-      <c r="F233" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G233" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H233" t="n">
         <v>7.4</v>
       </c>
-      <c r="H233" t="n">
-        <v>7</v>
-      </c>
       <c r="I233" t="n">
-        <v>7.26</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="234">
@@ -6229,28 +6237,28 @@
         <v>292</v>
       </c>
       <c r="B234" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="C234" t="n">
         <v>7.5</v>
       </c>
       <c r="D234" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E234" t="n">
         <v>7.3</v>
       </c>
-      <c r="E234" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F234" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G234" t="n">
         <v>7.4</v>
       </c>
-      <c r="G234" t="n">
+      <c r="H234" t="n">
         <v>7.6</v>
       </c>
-      <c r="H234" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I234" t="n">
-        <v>7.24</v>
+        <v>7.31</v>
       </c>
     </row>
     <row r="235">
@@ -6366,28 +6374,28 @@
         <v>298</v>
       </c>
       <c r="B239" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="C239" t="n">
         <v>6.6</v>
       </c>
       <c r="D239" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="E239" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F239" t="n">
         <v>5.8</v>
       </c>
-      <c r="F239" t="n">
+      <c r="G239" t="n">
         <v>7.5</v>
       </c>
-      <c r="G239" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H239" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="I239" t="n">
-        <v>6.66</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="240">
@@ -6395,28 +6403,28 @@
         <v>299</v>
       </c>
       <c r="B240" t="n">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="C240" t="n">
+        <v>7</v>
+      </c>
+      <c r="D240" t="n">
         <v>6.2</v>
       </c>
-      <c r="D240" t="n">
-        <v>7</v>
-      </c>
       <c r="E240" t="n">
         <v>7</v>
       </c>
       <c r="F240" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="G240" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="H240" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="I240" t="n">
-        <v>6.8</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="241">
@@ -6650,28 +6658,28 @@
         <v>309</v>
       </c>
       <c r="B249" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C249" t="n">
         <v>7.2</v>
       </c>
-      <c r="C249" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D249" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E249" t="n">
         <v>7.6</v>
-      </c>
-      <c r="E249" t="n">
-        <v>7.1</v>
       </c>
       <c r="F249" t="n">
         <v>7.1</v>
       </c>
       <c r="G249" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="H249" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="I249" t="n">
-        <v>7.17</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="250">
@@ -6708,28 +6716,28 @@
         <v>311</v>
       </c>
       <c r="B251" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="C251" t="n">
         <v>6.6</v>
       </c>
       <c r="D251" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E251" t="n">
         <v>7.9</v>
       </c>
-      <c r="E251" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F251" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="G251" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="H251" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="I251" t="n">
-        <v>6.94</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="252">
@@ -6766,28 +6774,28 @@
         <v>313</v>
       </c>
       <c r="B253" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C253" t="n">
         <v>6.1</v>
       </c>
-      <c r="C253" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D253" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E253" t="n">
         <v>7.1</v>
       </c>
-      <c r="E253" t="n">
-        <v>7</v>
-      </c>
       <c r="F253" t="n">
+        <v>7</v>
+      </c>
+      <c r="G253" t="n">
         <v>6.2</v>
       </c>
-      <c r="G253" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H253" t="n">
-        <v>9.6</v>
+        <v>6.5</v>
       </c>
       <c r="I253" t="n">
-        <v>6.99</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="254">
@@ -6824,25 +6832,25 @@
         <v>315</v>
       </c>
       <c r="B255" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="C255" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D255" t="n">
         <v>7.4</v>
       </c>
-      <c r="D255" t="n">
-        <v>6.4</v>
-      </c>
       <c r="E255" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F255" t="n">
         <v>7.7</v>
       </c>
-      <c r="F255" t="n">
+      <c r="G255" t="n">
         <v>8.1</v>
       </c>
-      <c r="G255" t="n">
+      <c r="H255" t="n">
         <v>6.1</v>
-      </c>
-      <c r="H255" t="n">
-        <v>7.2</v>
       </c>
       <c r="I255" t="n">
         <v>7.04</v>
@@ -7252,28 +7260,28 @@
         <v>333</v>
       </c>
       <c r="B271" t="n">
+        <v>8</v>
+      </c>
+      <c r="C271" t="n">
         <v>7.8</v>
       </c>
-      <c r="C271" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D271" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E271" t="n">
         <v>8</v>
       </c>
-      <c r="E271" t="n">
+      <c r="F271" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="F271" t="n">
+      <c r="G271" t="n">
         <v>6.1</v>
       </c>
-      <c r="G271" t="n">
+      <c r="H271" t="n">
         <v>7.8</v>
       </c>
-      <c r="H271" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I271" t="n">
-        <v>7.37</v>
+        <v>7.59</v>
       </c>
     </row>
     <row r="272">
@@ -7281,22 +7289,24 @@
         <v>335</v>
       </c>
       <c r="B272" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C272" t="n">
         <v>7.1</v>
       </c>
-      <c r="C272" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D272" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="E272" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="F272" t="inlineStr"/>
+        <v>6.3</v>
+      </c>
+      <c r="F272" t="n">
+        <v>6.7</v>
+      </c>
       <c r="G272" t="inlineStr"/>
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="n">
-        <v>6.65</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="273">
@@ -7686,19 +7696,19 @@
         <v>350</v>
       </c>
       <c r="B287" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C287" t="n">
         <v>7.2</v>
       </c>
-      <c r="C287" t="n">
+      <c r="D287" t="n">
         <v>7.9</v>
       </c>
-      <c r="D287" t="n">
-        <v>7</v>
-      </c>
       <c r="E287" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="F287" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="G287" t="n">
         <v>6.8</v>
@@ -7707,7 +7717,7 @@
         <v>6.8</v>
       </c>
       <c r="I287" t="n">
-        <v>7</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="288">
@@ -7773,28 +7783,28 @@
         <v>353</v>
       </c>
       <c r="B290" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="C290" t="n">
         <v>8</v>
       </c>
-      <c r="C290" t="n">
+      <c r="D290" t="n">
         <v>7.5</v>
       </c>
-      <c r="D290" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E290" t="n">
         <v>6.5</v>
       </c>
       <c r="F290" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="G290" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H290" t="n">
         <v>5.9</v>
       </c>
-      <c r="H290" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I290" t="n">
-        <v>6.86</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="291">
@@ -8206,25 +8216,25 @@
         <v>6.5</v>
       </c>
       <c r="C306" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="D306" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="E306" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="F306" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="G306" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="H306" t="n">
-        <v>5.4</v>
+        <v>6.7</v>
       </c>
       <c r="I306" t="n">
-        <v>6.3</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="307">
@@ -8261,28 +8271,28 @@
         <v>373</v>
       </c>
       <c r="B308" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="C308" t="n">
         <v>6.7</v>
       </c>
       <c r="D308" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="E308" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F308" t="n">
         <v>7.2</v>
       </c>
-      <c r="F308" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G308" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="H308" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="I308" t="n">
-        <v>6.83</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="309">
@@ -8319,28 +8329,28 @@
         <v>375</v>
       </c>
       <c r="B310" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C310" t="n">
         <v>7.2</v>
       </c>
-      <c r="C310" t="n">
+      <c r="D310" t="n">
         <v>8</v>
       </c>
-      <c r="D310" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E310" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="F310" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G310" t="n">
         <v>7.3</v>
       </c>
-      <c r="G310" t="n">
+      <c r="H310" t="n">
         <v>7.5</v>
       </c>
-      <c r="H310" t="n">
-        <v>7.6</v>
-      </c>
       <c r="I310" t="n">
-        <v>7.27</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="311">
@@ -8435,26 +8445,28 @@
         <v>379</v>
       </c>
       <c r="B314" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="C314" t="n">
         <v>6.7</v>
       </c>
       <c r="D314" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="E314" t="n">
         <v>6.6</v>
       </c>
       <c r="F314" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="G314" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H314" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="H314" t="n">
+        <v>6.6</v>
+      </c>
       <c r="I314" t="n">
-        <v>6.62</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="315">
@@ -8462,22 +8474,24 @@
         <v>380</v>
       </c>
       <c r="B315" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="C315" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="D315" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="E315" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="F315" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="F315" t="n">
+        <v>6.4</v>
+      </c>
       <c r="G315" t="inlineStr"/>
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="n">
-        <v>6.5</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="316">
@@ -8987,26 +9001,28 @@
         <v>401</v>
       </c>
       <c r="B336" t="n">
-        <v>6.7</v>
+        <v>7.7</v>
       </c>
       <c r="C336" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D336" t="n">
         <v>7.7</v>
       </c>
-      <c r="D336" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E336" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="F336" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="G336" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H336" t="n">
         <v>5.7</v>
       </c>
-      <c r="H336" t="inlineStr"/>
       <c r="I336" t="n">
-        <v>6.67</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="337">
@@ -9435,28 +9451,28 @@
         <v>417</v>
       </c>
       <c r="B352" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="C352" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D352" t="n">
         <v>7.3</v>
       </c>
-      <c r="D352" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E352" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F352" t="n">
         <v>6.2</v>
       </c>
-      <c r="F352" t="n">
+      <c r="G352" t="n">
         <v>8.9</v>
       </c>
-      <c r="G352" t="n">
+      <c r="H352" t="n">
         <v>6</v>
       </c>
-      <c r="H352" t="n">
-        <v>8</v>
-      </c>
       <c r="I352" t="n">
-        <v>7.07</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="353">
@@ -9605,28 +9621,28 @@
         <v>423</v>
       </c>
       <c r="B358" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="C358" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="D358" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E358" t="n">
         <v>6.1</v>
       </c>
-      <c r="E358" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F358" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G358" t="n">
         <v>6.2</v>
       </c>
-      <c r="G358" t="n">
+      <c r="H358" t="n">
         <v>7.7</v>
       </c>
-      <c r="H358" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I358" t="n">
-        <v>6.66</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="359">
@@ -9664,28 +9680,28 @@
         <v>426</v>
       </c>
       <c r="B361" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="C361" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="D361" t="n">
         <v>6.4</v>
       </c>
       <c r="E361" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="F361" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="G361" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="H361" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="I361" t="n">
-        <v>6.46</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="362">
@@ -9693,28 +9709,28 @@
         <v>427</v>
       </c>
       <c r="B362" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C362" t="n">
         <v>7.5</v>
       </c>
-      <c r="C362" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D362" t="n">
         <v>6.9</v>
       </c>
       <c r="E362" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="F362" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="G362" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="H362" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="I362" t="n">
-        <v>7.03</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="363">
@@ -9751,28 +9767,28 @@
         <v>429</v>
       </c>
       <c r="B364" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C364" t="n">
         <v>7.2</v>
       </c>
-      <c r="C364" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D364" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="E364" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="F364" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="G364" t="n">
         <v>7.2</v>
       </c>
-      <c r="G364" t="n">
+      <c r="H364" t="n">
         <v>7.4</v>
       </c>
-      <c r="H364" t="n">
-        <v>7.9</v>
-      </c>
       <c r="I364" t="n">
-        <v>7.04</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="365">
@@ -9867,7 +9883,7 @@
         <v>433</v>
       </c>
       <c r="B368" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="C368" t="n">
         <v>6.7</v>
@@ -9876,19 +9892,19 @@
         <v>6.7</v>
       </c>
       <c r="E368" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F368" t="n">
         <v>6</v>
       </c>
-      <c r="F368" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G368" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H368" t="n">
         <v>7.7</v>
       </c>
-      <c r="H368" t="n">
-        <v>7.1</v>
-      </c>
       <c r="I368" t="n">
-        <v>6.83</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="369">
@@ -10408,28 +10424,28 @@
         <v>454</v>
       </c>
       <c r="B389" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C389" t="n">
         <v>8</v>
       </c>
-      <c r="C389" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D389" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="E389" t="n">
+        <v>7</v>
+      </c>
+      <c r="F389" t="n">
         <v>7.5</v>
-      </c>
-      <c r="F389" t="n">
-        <v>7.3</v>
       </c>
       <c r="G389" t="n">
         <v>7.3</v>
       </c>
       <c r="H389" t="n">
-        <v>8.800000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="I389" t="n">
-        <v>7.5</v>
+        <v>7.19</v>
       </c>
     </row>
     <row r="390">
@@ -10788,28 +10804,28 @@
         <v>468</v>
       </c>
       <c r="B403" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="C403" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="D403" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E403" t="n">
         <v>6</v>
       </c>
-      <c r="E403" t="n">
+      <c r="F403" t="n">
         <v>5.7</v>
       </c>
-      <c r="F403" t="n">
+      <c r="G403" t="n">
         <v>5.5</v>
       </c>
-      <c r="G403" t="n">
+      <c r="H403" t="n">
         <v>7.5</v>
       </c>
-      <c r="H403" t="n">
-        <v>7.1</v>
-      </c>
       <c r="I403" t="n">
-        <v>6.49</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="404">
@@ -11118,28 +11134,28 @@
         <v>484</v>
       </c>
       <c r="B419" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="C419" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D419" t="n">
         <v>7.2</v>
       </c>
-      <c r="D419" t="n">
+      <c r="E419" t="n">
         <v>7.1</v>
       </c>
-      <c r="E419" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F419" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="G419" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H419" t="n">
         <v>7.7</v>
       </c>
-      <c r="H419" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I419" t="n">
-        <v>6.97</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="420">
@@ -11367,28 +11383,28 @@
         <v>493</v>
       </c>
       <c r="B428" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="C428" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="D428" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="E428" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="F428" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="G428" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H428" t="n">
         <v>6.1</v>
       </c>
-      <c r="H428" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I428" t="n">
-        <v>6.47</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="429">
@@ -11477,28 +11493,28 @@
         <v>497</v>
       </c>
       <c r="B432" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="C432" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="D432" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="E432" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F432" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="F432" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G432" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="H432" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="I432" t="n">
-        <v>6.87</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="433">
@@ -11506,28 +11522,28 @@
         <v>498</v>
       </c>
       <c r="B433" t="n">
+        <v>9</v>
+      </c>
+      <c r="C433" t="n">
         <v>7.9</v>
       </c>
-      <c r="C433" t="n">
+      <c r="D433" t="n">
         <v>7.2</v>
       </c>
-      <c r="D433" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E433" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F433" t="n">
         <v>7.3</v>
       </c>
-      <c r="F433" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G433" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H433" t="n">
         <v>7.3</v>
       </c>
-      <c r="H433" t="n">
-        <v>7.1</v>
-      </c>
       <c r="I433" t="n">
-        <v>7.14</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="434">
@@ -11606,28 +11622,28 @@
         <v>502</v>
       </c>
       <c r="B437" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="C437" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="D437" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="E437" t="n">
         <v>6.2</v>
       </c>
       <c r="F437" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="G437" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="H437" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I437" t="n">
-        <v>6.6</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="438">
@@ -11750,21 +11766,23 @@
         <v>508</v>
       </c>
       <c r="B443" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="C443" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="D443" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="E443" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="F443" t="n">
         <v>6.6</v>
       </c>
-      <c r="G443" t="inlineStr"/>
+      <c r="G443" t="n">
+        <v>6.6</v>
+      </c>
       <c r="H443" t="inlineStr"/>
       <c r="I443" t="n">
         <v>6.58</v>
@@ -11946,6 +11964,1987 @@
       <c r="H451" t="inlineStr"/>
       <c r="I451" t="inlineStr"/>
     </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>517</v>
+      </c>
+      <c r="B452" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C452" t="inlineStr"/>
+      <c r="D452" t="inlineStr"/>
+      <c r="E452" t="inlineStr"/>
+      <c r="F452" t="inlineStr"/>
+      <c r="G452" t="inlineStr"/>
+      <c r="H452" t="inlineStr"/>
+      <c r="I452" t="n">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n">
+        <v>518</v>
+      </c>
+      <c r="B453" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C453" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D453" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E453" t="n">
+        <v>8</v>
+      </c>
+      <c r="F453" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G453" t="inlineStr"/>
+      <c r="H453" t="inlineStr"/>
+      <c r="I453" t="n">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n">
+        <v>519</v>
+      </c>
+      <c r="B454" t="inlineStr"/>
+      <c r="C454" t="inlineStr"/>
+      <c r="D454" t="inlineStr"/>
+      <c r="E454" t="inlineStr"/>
+      <c r="F454" t="inlineStr"/>
+      <c r="G454" t="inlineStr"/>
+      <c r="H454" t="inlineStr"/>
+      <c r="I454" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="B455" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C455" t="n">
+        <v>6</v>
+      </c>
+      <c r="D455" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E455" t="n">
+        <v>7</v>
+      </c>
+      <c r="F455" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G455" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="H455" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I455" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n">
+        <v>521</v>
+      </c>
+      <c r="B456" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C456" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D456" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E456" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F456" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G456" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H456" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I456" t="n">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n">
+        <v>522</v>
+      </c>
+      <c r="B457" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C457" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D457" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E457" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="F457" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G457" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="H457" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="I457" t="n">
+        <v>6.93</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n">
+        <v>523</v>
+      </c>
+      <c r="B458" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C458" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="D458" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="E458" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F458" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G458" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H458" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I458" t="n">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n">
+        <v>524</v>
+      </c>
+      <c r="B459" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C459" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="D459" t="n">
+        <v>7</v>
+      </c>
+      <c r="E459" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F459" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G459" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H459" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="I459" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n">
+        <v>525</v>
+      </c>
+      <c r="B460" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C460" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D460" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E460" t="n">
+        <v>7</v>
+      </c>
+      <c r="F460" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G460" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H460" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="I460" t="n">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n">
+        <v>526</v>
+      </c>
+      <c r="B461" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C461" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D461" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E461" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F461" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G461" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H461" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="I461" t="n">
+        <v>7.11</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n">
+        <v>527</v>
+      </c>
+      <c r="B462" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C462" t="inlineStr"/>
+      <c r="D462" t="inlineStr"/>
+      <c r="E462" t="inlineStr"/>
+      <c r="F462" t="inlineStr"/>
+      <c r="G462" t="inlineStr"/>
+      <c r="H462" t="inlineStr"/>
+      <c r="I462" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n">
+        <v>528</v>
+      </c>
+      <c r="B463" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="C463" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D463" t="n">
+        <v>7</v>
+      </c>
+      <c r="E463" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F463" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G463" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H463" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>7.13</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n">
+        <v>529</v>
+      </c>
+      <c r="B464" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C464" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D464" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E464" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F464" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G464" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H464" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="I464" t="n">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="n">
+        <v>530</v>
+      </c>
+      <c r="B465" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C465" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="D465" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E465" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F465" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G465" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="H465" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I465" t="n">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="n">
+        <v>531</v>
+      </c>
+      <c r="B466" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C466" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="D466" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E466" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="F466" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="G466" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H466" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I466" t="n">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="n">
+        <v>532</v>
+      </c>
+      <c r="B467" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C467" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D467" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E467" t="n">
+        <v>8</v>
+      </c>
+      <c r="F467" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="G467" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H467" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="I467" t="n">
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="n">
+        <v>533</v>
+      </c>
+      <c r="B468" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C468" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D468" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E468" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F468" t="n">
+        <v>6</v>
+      </c>
+      <c r="G468" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H468" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="I468" t="n">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="n">
+        <v>534</v>
+      </c>
+      <c r="B469" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C469" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="D469" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E469" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="F469" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G469" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H469" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="I469" t="n">
+        <v>7.11</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="B470" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C470" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D470" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="E470" t="n">
+        <v>7</v>
+      </c>
+      <c r="F470" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="G470" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H470" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I470" t="n">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="n">
+        <v>536</v>
+      </c>
+      <c r="B471" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C471" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D471" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E471" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F471" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G471" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H471" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="I471" t="n">
+        <v>6.64</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="n">
+        <v>537</v>
+      </c>
+      <c r="B472" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C472" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D472" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="E472" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="F472" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G472" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H472" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>7.46</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="B473" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C473" t="n">
+        <v>7</v>
+      </c>
+      <c r="D473" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E473" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F473" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G473" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H473" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="I473" t="n">
+        <v>6.56</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n">
+        <v>539</v>
+      </c>
+      <c r="B474" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C474" t="n">
+        <v>7</v>
+      </c>
+      <c r="D474" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E474" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F474" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G474" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H474" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="I474" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="B475" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C475" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D475" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E475" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="F475" t="n">
+        <v>7</v>
+      </c>
+      <c r="G475" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H475" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I475" t="n">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="B476" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C476" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D476" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E476" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="F476" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="G476" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H476" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>7.41</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n">
+        <v>542</v>
+      </c>
+      <c r="B477" t="inlineStr"/>
+      <c r="C477" t="inlineStr"/>
+      <c r="D477" t="inlineStr"/>
+      <c r="E477" t="inlineStr"/>
+      <c r="F477" t="inlineStr"/>
+      <c r="G477" t="inlineStr"/>
+      <c r="H477" t="inlineStr"/>
+      <c r="I477" t="inlineStr"/>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n">
+        <v>543</v>
+      </c>
+      <c r="B478" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C478" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D478" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E478" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F478" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G478" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H478" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I478" t="n">
+        <v>6.73</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>544</v>
+      </c>
+      <c r="B479" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C479" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D479" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E479" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="F479" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="G479" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="H479" t="n">
+        <v>7</v>
+      </c>
+      <c r="I479" t="n">
+        <v>7.29</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n">
+        <v>545</v>
+      </c>
+      <c r="B480" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C480" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D480" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E480" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="F480" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G480" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="H480" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="I480" t="n">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="n">
+        <v>546</v>
+      </c>
+      <c r="B481" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C481" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D481" t="n">
+        <v>7</v>
+      </c>
+      <c r="E481" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F481" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G481" t="n">
+        <v>3</v>
+      </c>
+      <c r="H481" t="inlineStr"/>
+      <c r="I481" t="n">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n">
+        <v>547</v>
+      </c>
+      <c r="B482" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C482" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D482" t="inlineStr"/>
+      <c r="E482" t="inlineStr"/>
+      <c r="F482" t="inlineStr"/>
+      <c r="G482" t="inlineStr"/>
+      <c r="H482" t="inlineStr"/>
+      <c r="I482" t="n">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n">
+        <v>548</v>
+      </c>
+      <c r="B483" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C483" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D483" t="n">
+        <v>7</v>
+      </c>
+      <c r="E483" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F483" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G483" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H483" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I483" t="n">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n">
+        <v>549</v>
+      </c>
+      <c r="B484" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C484" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D484" t="inlineStr"/>
+      <c r="E484" t="inlineStr"/>
+      <c r="F484" t="inlineStr"/>
+      <c r="G484" t="inlineStr"/>
+      <c r="H484" t="inlineStr"/>
+      <c r="I484" t="n">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n">
+        <v>550</v>
+      </c>
+      <c r="B485" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C485" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D485" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E485" t="inlineStr"/>
+      <c r="F485" t="inlineStr"/>
+      <c r="G485" t="inlineStr"/>
+      <c r="H485" t="inlineStr"/>
+      <c r="I485" t="n">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="B486" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C486" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D486" t="n">
+        <v>7</v>
+      </c>
+      <c r="E486" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="F486" t="inlineStr"/>
+      <c r="G486" t="inlineStr"/>
+      <c r="H486" t="inlineStr"/>
+      <c r="I486" t="n">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="n">
+        <v>552</v>
+      </c>
+      <c r="B487" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C487" t="n">
+        <v>7</v>
+      </c>
+      <c r="D487" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="E487" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F487" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G487" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H487" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="I487" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="n">
+        <v>553</v>
+      </c>
+      <c r="B488" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C488" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D488" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E488" t="inlineStr"/>
+      <c r="F488" t="inlineStr"/>
+      <c r="G488" t="inlineStr"/>
+      <c r="H488" t="inlineStr"/>
+      <c r="I488" t="n">
+        <v>6.47</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="n">
+        <v>554</v>
+      </c>
+      <c r="B489" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C489" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D489" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E489" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F489" t="n">
+        <v>6</v>
+      </c>
+      <c r="G489" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="H489" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="I489" t="n">
+        <v>6.64</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="n">
+        <v>555</v>
+      </c>
+      <c r="B490" t="n">
+        <v>7</v>
+      </c>
+      <c r="C490" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D490" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E490" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="F490" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G490" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="H490" t="n">
+        <v>6</v>
+      </c>
+      <c r="I490" t="n">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="n">
+        <v>556</v>
+      </c>
+      <c r="B491" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C491" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D491" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="E491" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F491" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G491" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H491" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I491" t="n">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="n">
+        <v>557</v>
+      </c>
+      <c r="B492" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C492" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D492" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E492" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F492" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G492" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="H492" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="I492" t="n">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="B493" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C493" t="n">
+        <v>6</v>
+      </c>
+      <c r="D493" t="n">
+        <v>7</v>
+      </c>
+      <c r="E493" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F493" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="G493" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H493" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="I493" t="n">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="n">
+        <v>559</v>
+      </c>
+      <c r="B494" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C494" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D494" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E494" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F494" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G494" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H494" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="I494" t="n">
+        <v>7.06</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="n">
+        <v>560</v>
+      </c>
+      <c r="B495" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C495" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D495" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E495" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F495" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G495" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H495" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I495" t="n">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="n">
+        <v>561</v>
+      </c>
+      <c r="B496" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C496" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D496" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E496" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F496" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G496" t="inlineStr"/>
+      <c r="H496" t="inlineStr"/>
+      <c r="I496" t="n">
+        <v>6.88</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="n">
+        <v>562</v>
+      </c>
+      <c r="B497" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C497" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D497" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="E497" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F497" t="inlineStr"/>
+      <c r="G497" t="inlineStr"/>
+      <c r="H497" t="inlineStr"/>
+      <c r="I497" t="n">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="n">
+        <v>563</v>
+      </c>
+      <c r="B498" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C498" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D498" t="n">
+        <v>7</v>
+      </c>
+      <c r="E498" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F498" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G498" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H498" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I498" t="n">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="n">
+        <v>564</v>
+      </c>
+      <c r="B499" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C499" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D499" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="E499" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="F499" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G499" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H499" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I499" t="n">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="n">
+        <v>565</v>
+      </c>
+      <c r="B500" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C500" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D500" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E500" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F500" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G500" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H500" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I500" t="n">
+        <v>6.73</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="n">
+        <v>566</v>
+      </c>
+      <c r="B501" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C501" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D501" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E501" t="inlineStr"/>
+      <c r="F501" t="inlineStr"/>
+      <c r="G501" t="inlineStr"/>
+      <c r="H501" t="inlineStr"/>
+      <c r="I501" t="n">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="n">
+        <v>567</v>
+      </c>
+      <c r="B502" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C502" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D502" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E502" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F502" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G502" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H502" t="n">
+        <v>7</v>
+      </c>
+      <c r="I502" t="n">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="n">
+        <v>568</v>
+      </c>
+      <c r="B503" t="inlineStr"/>
+      <c r="C503" t="inlineStr"/>
+      <c r="D503" t="inlineStr"/>
+      <c r="E503" t="inlineStr"/>
+      <c r="F503" t="inlineStr"/>
+      <c r="G503" t="inlineStr"/>
+      <c r="H503" t="inlineStr"/>
+      <c r="I503" t="inlineStr"/>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="n">
+        <v>569</v>
+      </c>
+      <c r="B504" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C504" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D504" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="E504" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="F504" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G504" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H504" t="inlineStr"/>
+      <c r="I504" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="n">
+        <v>570</v>
+      </c>
+      <c r="B505" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C505" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D505" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E505" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F505" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G505" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H505" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I505" t="n">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="n">
+        <v>571</v>
+      </c>
+      <c r="B506" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C506" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D506" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E506" t="n">
+        <v>7</v>
+      </c>
+      <c r="F506" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="G506" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H506" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="I506" t="n">
+        <v>6.87</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="n">
+        <v>572</v>
+      </c>
+      <c r="B507" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C507" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D507" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E507" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F507" t="inlineStr"/>
+      <c r="G507" t="inlineStr"/>
+      <c r="H507" t="inlineStr"/>
+      <c r="I507" t="n">
+        <v>6.43</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="n">
+        <v>573</v>
+      </c>
+      <c r="B508" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C508" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D508" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E508" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F508" t="n">
+        <v>7</v>
+      </c>
+      <c r="G508" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H508" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I508" t="n">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="n">
+        <v>574</v>
+      </c>
+      <c r="B509" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C509" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D509" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E509" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F509" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G509" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H509" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I509" t="n">
+        <v>6.61</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="n">
+        <v>575</v>
+      </c>
+      <c r="B510" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C510" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D510" t="inlineStr"/>
+      <c r="E510" t="inlineStr"/>
+      <c r="F510" t="inlineStr"/>
+      <c r="G510" t="inlineStr"/>
+      <c r="H510" t="inlineStr"/>
+      <c r="I510" t="n">
+        <v>6.45</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="n">
+        <v>576</v>
+      </c>
+      <c r="B511" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C511" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D511" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E511" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F511" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G511" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H511" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I511" t="n">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="n">
+        <v>577</v>
+      </c>
+      <c r="B512" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C512" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D512" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E512" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F512" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G512" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H512" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I512" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="B513" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C513" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D513" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E513" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F513" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G513" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H513" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="I513" t="n">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="n">
+        <v>579</v>
+      </c>
+      <c r="B514" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C514" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D514" t="inlineStr"/>
+      <c r="E514" t="inlineStr"/>
+      <c r="F514" t="inlineStr"/>
+      <c r="G514" t="inlineStr"/>
+      <c r="H514" t="inlineStr"/>
+      <c r="I514" t="n">
+        <v>6.45</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="n">
+        <v>580</v>
+      </c>
+      <c r="B515" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C515" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D515" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E515" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="F515" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G515" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H515" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="I515" t="n">
+        <v>6.53</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="n">
+        <v>581</v>
+      </c>
+      <c r="B516" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C516" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D516" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E516" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F516" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="G516" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H516" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="I516" t="n">
+        <v>6.84</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="n">
+        <v>582</v>
+      </c>
+      <c r="B517" t="n">
+        <v>7</v>
+      </c>
+      <c r="C517" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D517" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E517" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F517" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G517" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="H517" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I517" t="n">
+        <v>6.93</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="n">
+        <v>583</v>
+      </c>
+      <c r="B518" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C518" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D518" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E518" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F518" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G518" t="inlineStr"/>
+      <c r="H518" t="inlineStr"/>
+      <c r="I518" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="n">
+        <v>584</v>
+      </c>
+      <c r="B519" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C519" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D519" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E519" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F519" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G519" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H519" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="n">
+        <v>585</v>
+      </c>
+      <c r="B520" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C520" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D520" t="inlineStr"/>
+      <c r="E520" t="inlineStr"/>
+      <c r="F520" t="inlineStr"/>
+      <c r="G520" t="inlineStr"/>
+      <c r="H520" t="inlineStr"/>
+      <c r="I520" t="n">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="B521" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C521" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D521" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E521" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="F521" t="inlineStr"/>
+      <c r="G521" t="inlineStr"/>
+      <c r="H521" t="inlineStr"/>
+      <c r="I521" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="n">
+        <v>587</v>
+      </c>
+      <c r="B522" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C522" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D522" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E522" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F522" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G522" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H522" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="I522" t="n">
+        <v>7.06</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="n">
+        <v>588</v>
+      </c>
+      <c r="B523" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C523" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D523" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="E523" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="F523" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="G523" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H523" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I523" t="n">
+        <v>6.64</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="n">
+        <v>589</v>
+      </c>
+      <c r="B524" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C524" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D524" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="E524" t="inlineStr"/>
+      <c r="F524" t="inlineStr"/>
+      <c r="G524" t="inlineStr"/>
+      <c r="H524" t="inlineStr"/>
+      <c r="I524" t="n">
+        <v>6.73</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="n">
+        <v>590</v>
+      </c>
+      <c r="B525" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C525" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D525" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E525" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="F525" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G525" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H525" t="n">
+        <v>7</v>
+      </c>
+      <c r="I525" t="n">
+        <v>7.06</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="n">
+        <v>591</v>
+      </c>
+      <c r="B526" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C526" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D526" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E526" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F526" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="G526" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H526" t="n">
+        <v>7</v>
+      </c>
+      <c r="I526" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/players_ratings.xlsx
+++ b/players_ratings.xlsx
@@ -703,28 +703,28 @@
         <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="C12" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="D12" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="E12" t="n">
         <v>6.8</v>
       </c>
       <c r="F12" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="G12" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="H12" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="I12" t="n">
-        <v>6.91</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="13">
@@ -759,28 +759,28 @@
         <v>17</v>
       </c>
       <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="n">
         <v>7.2</v>
       </c>
-      <c r="C14" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D14" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="E14" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="F14" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="G14" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="H14" t="n">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="I14" t="n">
-        <v>6.76</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="15">
@@ -965,28 +965,28 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="C22" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D22" t="n">
         <v>7.9</v>
       </c>
-      <c r="D22" t="n">
-        <v>7</v>
-      </c>
       <c r="E22" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="F22" t="n">
         <v>6.5</v>
       </c>
       <c r="G22" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="I22" t="n">
-        <v>6.94</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="23">
@@ -1049,28 +1049,28 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C26" t="n">
         <v>6.2</v>
       </c>
-      <c r="C26" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D26" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E26" t="n">
         <v>7.5</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>6.1</v>
       </c>
-      <c r="F26" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G26" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="H26" t="n">
         <v>7</v>
       </c>
       <c r="I26" t="n">
-        <v>6.74</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="27">
@@ -1238,28 +1238,28 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="C33" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="D33" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="E33" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="F33" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="G33" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="H33" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="I33" t="n">
-        <v>6.5</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="34">
@@ -1422,28 +1422,28 @@
         <v>51</v>
       </c>
       <c r="B41" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C41" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="D41" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E41" t="n">
         <v>7.8</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>7.7</v>
       </c>
-      <c r="F41" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G41" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H41" t="n">
         <v>7.5</v>
       </c>
-      <c r="H41" t="n">
-        <v>6.3</v>
-      </c>
       <c r="I41" t="n">
-        <v>7.01</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="42">
@@ -1791,28 +1791,28 @@
         <v>69</v>
       </c>
       <c r="B56" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="C56" t="n">
         <v>6.5</v>
       </c>
       <c r="D56" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="E56" t="n">
+        <v>7</v>
+      </c>
+      <c r="F56" t="n">
         <v>7.1</v>
       </c>
-      <c r="F56" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G56" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="H56" t="n">
-        <v>7.8</v>
+        <v>6.7</v>
       </c>
       <c r="I56" t="n">
-        <v>6.89</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="57">
@@ -1862,28 +1862,28 @@
         <v>80</v>
       </c>
       <c r="B59" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C59" t="n">
         <v>7.2</v>
       </c>
-      <c r="C59" t="n">
+      <c r="D59" t="n">
         <v>5.9</v>
       </c>
-      <c r="D59" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E59" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="F59" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="G59" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="H59" t="n">
         <v>6.7</v>
       </c>
       <c r="I59" t="n">
-        <v>6.67</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="60">
@@ -1894,25 +1894,25 @@
         <v>7.1</v>
       </c>
       <c r="C60" t="n">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="D60" t="n">
         <v>7.6</v>
       </c>
       <c r="E60" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="F60" t="n">
         <v>7.8</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>7.5</v>
       </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
         <v>7.4</v>
       </c>
-      <c r="H60" t="n">
-        <v>6.3</v>
-      </c>
       <c r="I60" t="n">
-        <v>7.33</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="61">
@@ -2461,28 +2461,28 @@
         <v>111</v>
       </c>
       <c r="B84" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="C84" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="D84" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E84" t="n">
         <v>7.6</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>6.1</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>7.9</v>
       </c>
-      <c r="G84" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H84" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="I84" t="n">
-        <v>6.81</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="85">
@@ -2503,28 +2503,28 @@
         <v>113</v>
       </c>
       <c r="B86" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="C86" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D86" t="n">
         <v>8.1</v>
       </c>
-      <c r="D86" t="n">
+      <c r="E86" t="n">
         <v>6.2</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>7.1</v>
       </c>
-      <c r="F86" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G86" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H86" t="n">
         <v>8</v>
       </c>
-      <c r="H86" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I86" t="n">
-        <v>7.01</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87">
@@ -2720,25 +2720,25 @@
         <v>7.1</v>
       </c>
       <c r="C96" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="D96" t="n">
         <v>7.3</v>
       </c>
-      <c r="D96" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E96" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="F96" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="G96" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H96" t="n">
         <v>7.1</v>
       </c>
-      <c r="H96" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I96" t="n">
-        <v>6.94</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="97">
@@ -2805,28 +2805,28 @@
         <v>129</v>
       </c>
       <c r="B100" t="n">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="C100" t="n">
         <v>6.6</v>
       </c>
       <c r="D100" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E100" t="n">
         <v>5.4</v>
       </c>
-      <c r="E100" t="n">
-        <v>6.4</v>
-      </c>
       <c r="F100" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="G100" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H100" t="n">
         <v>5.8</v>
       </c>
-      <c r="H100" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I100" t="n">
-        <v>6.27</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="101">
@@ -2870,28 +2870,28 @@
         <v>132</v>
       </c>
       <c r="B103" t="n">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="C103" t="n">
         <v>7</v>
       </c>
       <c r="D103" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="E103" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="F103" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="G103" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H103" t="n">
         <v>7.5</v>
       </c>
-      <c r="H103" t="n">
-        <v>6.4</v>
-      </c>
       <c r="I103" t="n">
-        <v>6.8</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="104">
@@ -2899,28 +2899,28 @@
         <v>133</v>
       </c>
       <c r="B104" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C104" t="n">
         <v>7.4</v>
       </c>
-      <c r="C104" t="n">
+      <c r="D104" t="n">
         <v>6.2</v>
       </c>
-      <c r="D104" t="n">
+      <c r="E104" t="n">
         <v>7.2</v>
       </c>
-      <c r="E104" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F104" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="G104" t="n">
+        <v>7</v>
+      </c>
+      <c r="H104" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="H104" t="n">
-        <v>7.4</v>
-      </c>
       <c r="I104" t="n">
-        <v>7.17</v>
+        <v>7.21</v>
       </c>
     </row>
     <row r="105">
@@ -2957,28 +2957,28 @@
         <v>135</v>
       </c>
       <c r="B106" t="n">
-        <v>6.5</v>
+        <v>7.7</v>
       </c>
       <c r="C106" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D106" t="n">
         <v>7.1</v>
       </c>
-      <c r="D106" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E106" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="F106" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G106" t="n">
         <v>7.2</v>
       </c>
-      <c r="G106" t="n">
+      <c r="H106" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="H106" t="n">
-        <v>7.2</v>
-      </c>
       <c r="I106" t="n">
-        <v>7.06</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="107">
@@ -3249,28 +3249,28 @@
         <v>149</v>
       </c>
       <c r="B118" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C118" t="n">
         <v>7.2</v>
       </c>
-      <c r="C118" t="n">
+      <c r="D118" t="n">
         <v>6.2</v>
       </c>
-      <c r="D118" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E118" t="n">
         <v>6.6</v>
       </c>
       <c r="F118" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="G118" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H118" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="H118" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I118" t="n">
-        <v>6.94</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="119">
@@ -3449,28 +3449,28 @@
         <v>165</v>
       </c>
       <c r="B126" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C126" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="D126" t="n">
         <v>6.7</v>
       </c>
       <c r="E126" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F126" t="n">
         <v>7.4</v>
       </c>
-      <c r="F126" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G126" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="H126" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="I126" t="n">
-        <v>6.74</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="127">
@@ -3507,26 +3507,28 @@
         <v>167</v>
       </c>
       <c r="B128" t="n">
-        <v>6.3</v>
+        <v>7.1</v>
       </c>
       <c r="C128" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="D128" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="E128" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="F128" t="n">
         <v>6.5</v>
       </c>
       <c r="G128" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="H128" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="H128" t="n">
+        <v>6.7</v>
+      </c>
       <c r="I128" t="n">
-        <v>6.52</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="129">
@@ -4361,24 +4363,26 @@
         <v>200</v>
       </c>
       <c r="B160" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="C160" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="D160" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="E160" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="F160" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="G160" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="G160" t="n">
+        <v>6.6</v>
+      </c>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="n">
-        <v>6.6</v>
+        <v>6.55</v>
       </c>
     </row>
     <row r="161">
@@ -4665,28 +4669,28 @@
         <v>214</v>
       </c>
       <c r="B172" t="n">
-        <v>6.9</v>
+        <v>6.2</v>
       </c>
       <c r="C172" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D172" t="n">
         <v>7.2</v>
       </c>
-      <c r="D172" t="n">
+      <c r="E172" t="n">
         <v>7.6</v>
       </c>
-      <c r="E172" t="n">
+      <c r="F172" t="n">
         <v>7.7</v>
       </c>
-      <c r="F172" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G172" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H172" t="n">
         <v>8.4</v>
       </c>
-      <c r="H172" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I172" t="n">
-        <v>7.31</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="173">
@@ -5368,7 +5372,7 @@
         <v>247</v>
       </c>
       <c r="B201" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="C201" t="n">
         <v>5.4</v>
@@ -5389,7 +5393,7 @@
         <v>6.6</v>
       </c>
       <c r="I201" t="n">
-        <v>7.13</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="202">
@@ -5458,24 +5462,26 @@
         <v>253</v>
       </c>
       <c r="B205" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C205" t="n">
         <v>7.1</v>
       </c>
-      <c r="C205" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D205" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="E205" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="F205" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="G205" t="inlineStr"/>
+        <v>6.6</v>
+      </c>
+      <c r="G205" t="n">
+        <v>6.4</v>
+      </c>
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="n">
-        <v>6.62</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="206">
@@ -5500,22 +5506,24 @@
         <v>255</v>
       </c>
       <c r="B207" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C207" t="n">
         <v>7.2</v>
       </c>
-      <c r="C207" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D207" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E207" t="n">
         <v>6</v>
       </c>
-      <c r="E207" t="n">
+      <c r="F207" t="n">
         <v>7.7</v>
       </c>
-      <c r="F207" t="inlineStr"/>
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="n">
-        <v>6.88</v>
+        <v>6.92</v>
       </c>
     </row>
     <row r="208">
@@ -5552,24 +5560,26 @@
         <v>258</v>
       </c>
       <c r="B209" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="C209" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="D209" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="E209" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="F209" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="G209" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="G209" t="n">
+        <v>6.7</v>
+      </c>
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="n">
-        <v>6.7</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="210">
@@ -5606,28 +5616,28 @@
         <v>260</v>
       </c>
       <c r="B211" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="C211" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="D211" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="E211" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F211" t="n">
         <v>7.1</v>
       </c>
-      <c r="F211" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G211" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H211" t="n">
         <v>7.3</v>
       </c>
-      <c r="H211" t="n">
-        <v>7.6</v>
-      </c>
       <c r="I211" t="n">
-        <v>7</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="212">
@@ -5635,26 +5645,28 @@
         <v>261</v>
       </c>
       <c r="B212" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="C212" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="D212" t="n">
         <v>6.7</v>
       </c>
       <c r="E212" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="F212" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G212" t="n">
         <v>7.2</v>
       </c>
-      <c r="G212" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H212" t="inlineStr"/>
+      <c r="H212" t="n">
+        <v>6.6</v>
+      </c>
       <c r="I212" t="n">
-        <v>6.75</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="213">
@@ -5704,28 +5716,28 @@
         <v>267</v>
       </c>
       <c r="B215" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C215" t="n">
         <v>6</v>
       </c>
-      <c r="C215" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D215" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="E215" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F215" t="n">
         <v>7.1</v>
       </c>
-      <c r="F215" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G215" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="H215" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="I215" t="n">
-        <v>6.66</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="216">
@@ -5733,22 +5745,22 @@
         <v>273</v>
       </c>
       <c r="B216" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="C216" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D216" t="n">
         <v>7.9</v>
       </c>
-      <c r="D216" t="n">
+      <c r="E216" t="n">
         <v>7.4</v>
       </c>
-      <c r="E216" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F216" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="G216" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="H216" t="n">
         <v>6.5</v>
@@ -5953,26 +5965,28 @@
         <v>281</v>
       </c>
       <c r="B224" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="C224" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="D224" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="E224" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F224" t="n">
         <v>6.2</v>
       </c>
-      <c r="F224" t="n">
+      <c r="G224" t="n">
         <v>7.7</v>
       </c>
-      <c r="G224" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="H224" t="inlineStr"/>
+      <c r="H224" t="n">
+        <v>6.8</v>
+      </c>
       <c r="I224" t="n">
-        <v>6.75</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="225">
@@ -6063,28 +6077,28 @@
         <v>286</v>
       </c>
       <c r="B228" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="C228" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="D228" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="E228" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="F228" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="G228" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="H228" t="n">
-        <v>8.800000000000001</v>
+        <v>6.3</v>
       </c>
       <c r="I228" t="n">
-        <v>6.91</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="229">
@@ -6121,28 +6135,28 @@
         <v>288</v>
       </c>
       <c r="B230" t="n">
-        <v>6.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C230" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D230" t="n">
         <v>7.6</v>
       </c>
-      <c r="D230" t="n">
+      <c r="E230" t="n">
         <v>7.4</v>
       </c>
-      <c r="E230" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F230" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="G230" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="H230" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="I230" t="n">
-        <v>6.81</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="231">
@@ -6150,28 +6164,28 @@
         <v>289</v>
       </c>
       <c r="B231" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="C231" t="n">
         <v>6.4</v>
       </c>
       <c r="D231" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="E231" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F231" t="n">
         <v>7.1</v>
       </c>
-      <c r="F231" t="n">
-        <v>7</v>
-      </c>
       <c r="G231" t="n">
+        <v>7</v>
+      </c>
+      <c r="H231" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="H231" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I231" t="n">
-        <v>6.9</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="232">
@@ -6316,28 +6330,28 @@
         <v>295</v>
       </c>
       <c r="B237" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="C237" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="D237" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="E237" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F237" t="n">
         <v>7.1</v>
       </c>
-      <c r="F237" t="n">
-        <v>6.3</v>
-      </c>
       <c r="G237" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H237" t="n">
         <v>6.1</v>
       </c>
-      <c r="H237" t="n">
-        <v>7.2</v>
-      </c>
       <c r="I237" t="n">
-        <v>6.64</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="238">
@@ -6542,28 +6556,28 @@
         <v>305</v>
       </c>
       <c r="B245" t="n">
-        <v>7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C245" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="D245" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="E245" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="F245" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="G245" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="H245" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="I245" t="n">
-        <v>6.74</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="246">
@@ -6571,28 +6585,28 @@
         <v>306</v>
       </c>
       <c r="B246" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="C246" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="D246" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="E246" t="n">
         <v>6.9</v>
       </c>
       <c r="F246" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="G246" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="H246" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="I246" t="n">
-        <v>6.61</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="247">
@@ -6600,28 +6614,28 @@
         <v>307</v>
       </c>
       <c r="B247" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="C247" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="D247" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="E247" t="n">
         <v>6.7</v>
       </c>
       <c r="F247" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G247" t="n">
         <v>5.6</v>
       </c>
-      <c r="G247" t="n">
+      <c r="H247" t="n">
         <v>7.2</v>
       </c>
-      <c r="H247" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I247" t="n">
-        <v>6.67</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="248">
@@ -6658,7 +6672,7 @@
         <v>309</v>
       </c>
       <c r="B249" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="C249" t="n">
         <v>7.2</v>
@@ -6679,7 +6693,7 @@
         <v>7</v>
       </c>
       <c r="I249" t="n">
-        <v>7.07</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="250">
@@ -6687,28 +6701,28 @@
         <v>310</v>
       </c>
       <c r="B250" t="n">
-        <v>6.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C250" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D250" t="n">
         <v>7.4</v>
       </c>
-      <c r="D250" t="n">
+      <c r="E250" t="n">
         <v>7.3</v>
       </c>
-      <c r="E250" t="n">
-        <v>7</v>
-      </c>
       <c r="F250" t="n">
         <v>7</v>
       </c>
       <c r="G250" t="n">
+        <v>7</v>
+      </c>
+      <c r="H250" t="n">
         <v>7.4</v>
       </c>
-      <c r="H250" t="n">
-        <v>7.5</v>
-      </c>
       <c r="I250" t="n">
-        <v>7.17</v>
+        <v>7.29</v>
       </c>
     </row>
     <row r="251">
@@ -6745,28 +6759,28 @@
         <v>312</v>
       </c>
       <c r="B252" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C252" t="n">
         <v>7.4</v>
       </c>
-      <c r="C252" t="n">
+      <c r="D252" t="n">
         <v>7.2</v>
       </c>
-      <c r="D252" t="n">
-        <v>6.4</v>
-      </c>
       <c r="E252" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="F252" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G252" t="n">
         <v>7.2</v>
       </c>
-      <c r="G252" t="n">
+      <c r="H252" t="n">
         <v>7.9</v>
       </c>
-      <c r="H252" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I252" t="n">
-        <v>7.03</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="253">
@@ -6919,28 +6933,28 @@
         <v>318</v>
       </c>
       <c r="B258" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C258" t="n">
         <v>7.1</v>
       </c>
-      <c r="C258" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D258" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="E258" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="F258" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G258" t="n">
         <v>6</v>
       </c>
-      <c r="G258" t="n">
+      <c r="H258" t="n">
         <v>7.3</v>
       </c>
-      <c r="H258" t="n">
-        <v>6.3</v>
-      </c>
       <c r="I258" t="n">
-        <v>6.67</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="259">
@@ -7202,28 +7216,28 @@
         <v>330</v>
       </c>
       <c r="B269" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="C269" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="D269" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E269" t="n">
         <v>7.5</v>
       </c>
-      <c r="E269" t="n">
+      <c r="F269" t="n">
         <v>7.1</v>
       </c>
-      <c r="F269" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G269" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H269" t="n">
         <v>7.2</v>
       </c>
-      <c r="H269" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I269" t="n">
-        <v>6.84</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="270">
@@ -7466,28 +7480,28 @@
         <v>342</v>
       </c>
       <c r="B279" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="C279" t="n">
+        <v>7</v>
+      </c>
+      <c r="D279" t="n">
         <v>7.1</v>
       </c>
-      <c r="D279" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E279" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F279" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="F279" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G279" t="n">
         <v>6.7</v>
       </c>
       <c r="H279" t="n">
-        <v>7.7</v>
+        <v>6.7</v>
       </c>
       <c r="I279" t="n">
-        <v>7.26</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="280">
@@ -7498,13 +7512,13 @@
         <v>6.6</v>
       </c>
       <c r="C280" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D280" t="n">
         <v>6.1</v>
       </c>
-      <c r="D280" t="n">
-        <v>6.3</v>
-      </c>
       <c r="E280" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="F280" t="n">
         <v>6.5</v>
@@ -7512,9 +7526,11 @@
       <c r="G280" t="n">
         <v>6.5</v>
       </c>
-      <c r="H280" t="inlineStr"/>
+      <c r="H280" t="n">
+        <v>6.5</v>
+      </c>
       <c r="I280" t="n">
-        <v>6.42</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="281">
@@ -7754,28 +7770,28 @@
         <v>352</v>
       </c>
       <c r="B289" t="n">
-        <v>6.3</v>
+        <v>7.6</v>
       </c>
       <c r="C289" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="D289" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="E289" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F289" t="n">
         <v>7.9</v>
       </c>
-      <c r="F289" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G289" t="n">
         <v>6.5</v>
       </c>
       <c r="H289" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="I289" t="n">
-        <v>6.66</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="290">
@@ -8155,28 +8171,28 @@
         <v>369</v>
       </c>
       <c r="B304" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C304" t="n">
         <v>7.5</v>
       </c>
-      <c r="C304" t="n">
-        <v>6.8</v>
-      </c>
       <c r="D304" t="n">
         <v>6.8</v>
       </c>
       <c r="E304" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="F304" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G304" t="n">
         <v>7.3</v>
       </c>
-      <c r="G304" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H304" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I304" t="n">
-        <v>6.93</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="305">
@@ -8358,28 +8374,28 @@
         <v>376</v>
       </c>
       <c r="B311" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C311" t="n">
         <v>7.5</v>
       </c>
-      <c r="C311" t="n">
-        <v>6.8</v>
-      </c>
       <c r="D311" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="E311" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F311" t="n">
         <v>6</v>
       </c>
-      <c r="F311" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G311" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="H311" t="n">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="I311" t="n">
-        <v>6.61</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="312">
@@ -9105,28 +9121,28 @@
         <v>405</v>
       </c>
       <c r="B340" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="C340" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D340" t="n">
         <v>7.2</v>
       </c>
-      <c r="D340" t="n">
+      <c r="E340" t="n">
         <v>7.4</v>
       </c>
-      <c r="E340" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F340" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="G340" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="H340" t="n">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="I340" t="n">
-        <v>6.93</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="341">
@@ -9221,28 +9237,28 @@
         <v>409</v>
       </c>
       <c r="B344" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="C344" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="D344" t="n">
         <v>6.9</v>
       </c>
       <c r="E344" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F344" t="n">
         <v>7.3</v>
       </c>
-      <c r="F344" t="n">
-        <v>6.4</v>
-      </c>
       <c r="G344" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="H344" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I344" t="n">
-        <v>6.76</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="345">
@@ -9422,28 +9438,28 @@
         <v>416</v>
       </c>
       <c r="B351" t="n">
-        <v>6.3</v>
+        <v>9</v>
       </c>
       <c r="C351" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="D351" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E351" t="n">
         <v>7.2</v>
       </c>
-      <c r="E351" t="n">
+      <c r="F351" t="n">
         <v>7.5</v>
       </c>
-      <c r="F351" t="n">
-        <v>6.3</v>
-      </c>
       <c r="G351" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H351" t="n">
         <v>7.2</v>
       </c>
-      <c r="H351" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I351" t="n">
-        <v>6.87</v>
+        <v>7.19</v>
       </c>
     </row>
     <row r="352">
@@ -9538,28 +9554,28 @@
         <v>420</v>
       </c>
       <c r="B355" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C355" t="n">
         <v>8</v>
-      </c>
-      <c r="C355" t="n">
-        <v>7.3</v>
       </c>
       <c r="D355" t="n">
         <v>7.3</v>
       </c>
       <c r="E355" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F355" t="n">
         <v>7.2</v>
       </c>
-      <c r="F355" t="n">
+      <c r="G355" t="n">
         <v>7.4</v>
       </c>
-      <c r="G355" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H355" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="I355" t="n">
-        <v>7.19</v>
+        <v>7.21</v>
       </c>
     </row>
     <row r="356">
@@ -9567,28 +9583,28 @@
         <v>421</v>
       </c>
       <c r="B356" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="C356" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D356" t="n">
         <v>7.1</v>
       </c>
-      <c r="D356" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E356" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="F356" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="G356" t="n">
+        <v>7</v>
+      </c>
+      <c r="H356" t="n">
         <v>8.5</v>
       </c>
-      <c r="H356" t="n">
-        <v>7</v>
-      </c>
       <c r="I356" t="n">
-        <v>7.07</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="357">
@@ -9650,16 +9666,18 @@
         <v>424</v>
       </c>
       <c r="B359" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="C359" t="inlineStr"/>
+        <v>6.1</v>
+      </c>
+      <c r="C359" t="n">
+        <v>6.4</v>
+      </c>
       <c r="D359" t="inlineStr"/>
       <c r="E359" t="inlineStr"/>
       <c r="F359" t="inlineStr"/>
       <c r="G359" t="inlineStr"/>
       <c r="H359" t="inlineStr"/>
       <c r="I359" t="n">
-        <v>6.4</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="360">
@@ -9738,28 +9756,28 @@
         <v>428</v>
       </c>
       <c r="B363" t="n">
-        <v>6.4</v>
+        <v>8.1</v>
       </c>
       <c r="C363" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D363" t="n">
         <v>8</v>
       </c>
-      <c r="D363" t="n">
-        <v>6.3</v>
-      </c>
       <c r="E363" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F363" t="n">
         <v>7.1</v>
       </c>
-      <c r="F363" t="n">
-        <v>6.4</v>
-      </c>
       <c r="G363" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="H363" t="n">
-        <v>8.199999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="I363" t="n">
-        <v>6.99</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="364">
@@ -9989,28 +10007,28 @@
         <v>437</v>
       </c>
       <c r="B372" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C372" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="D372" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E372" t="n">
         <v>7.8</v>
       </c>
-      <c r="E372" t="n">
+      <c r="F372" t="n">
         <v>6.2</v>
       </c>
-      <c r="F372" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G372" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="H372" t="n">
         <v>7.3</v>
       </c>
       <c r="I372" t="n">
-        <v>6.89</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="373">
@@ -10043,28 +10061,28 @@
         <v>439</v>
       </c>
       <c r="B374" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="C374" t="n">
+        <v>7</v>
+      </c>
+      <c r="D374" t="n">
         <v>7.3</v>
       </c>
-      <c r="D374" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E374" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="F374" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="G374" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="H374" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="I374" t="n">
-        <v>6.89</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="375">
@@ -10511,28 +10529,28 @@
         <v>457</v>
       </c>
       <c r="B392" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C392" t="n">
         <v>7.5</v>
       </c>
-      <c r="C392" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D392" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="E392" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F392" t="n">
         <v>7.2</v>
       </c>
-      <c r="F392" t="n">
+      <c r="G392" t="n">
         <v>8</v>
       </c>
-      <c r="G392" t="n">
+      <c r="H392" t="n">
         <v>7.2</v>
       </c>
-      <c r="H392" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I392" t="n">
-        <v>7.14</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="393">
@@ -10671,28 +10689,28 @@
         <v>463</v>
       </c>
       <c r="B398" t="n">
-        <v>6.3</v>
+        <v>7.3</v>
       </c>
       <c r="C398" t="n">
         <v>6.3</v>
       </c>
       <c r="D398" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E398" t="n">
         <v>6.2</v>
       </c>
-      <c r="E398" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F398" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="G398" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="H398" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="I398" t="n">
-        <v>6.51</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="399">
@@ -10700,28 +10718,28 @@
         <v>464</v>
       </c>
       <c r="B399" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C399" t="n">
         <v>6.1</v>
       </c>
-      <c r="C399" t="n">
+      <c r="D399" t="n">
         <v>7.2</v>
       </c>
-      <c r="D399" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E399" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="F399" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="G399" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H399" t="n">
         <v>7.2</v>
       </c>
-      <c r="H399" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I399" t="n">
-        <v>6.76</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="400">
@@ -10775,28 +10793,28 @@
         <v>467</v>
       </c>
       <c r="B402" t="n">
-        <v>7</v>
+        <v>7.9</v>
       </c>
       <c r="C402" t="n">
         <v>7</v>
       </c>
       <c r="D402" t="n">
+        <v>7</v>
+      </c>
+      <c r="E402" t="n">
         <v>7.3</v>
       </c>
-      <c r="E402" t="n">
-        <v>7</v>
-      </c>
       <c r="F402" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="G402" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H402" t="n">
         <v>6.2</v>
       </c>
-      <c r="H402" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I402" t="n">
-        <v>6.84</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="403">
@@ -10833,28 +10851,28 @@
         <v>469</v>
       </c>
       <c r="B404" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="C404" t="n">
         <v>6.7</v>
       </c>
       <c r="D404" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="E404" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="F404" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="G404" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H404" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I404" t="n">
-        <v>6.74</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="405">
@@ -10862,22 +10880,24 @@
         <v>470</v>
       </c>
       <c r="B405" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="C405" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="D405" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="E405" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F405" t="inlineStr"/>
+        <v>6.6</v>
+      </c>
+      <c r="F405" t="n">
+        <v>6.5</v>
+      </c>
       <c r="G405" t="inlineStr"/>
       <c r="H405" t="inlineStr"/>
       <c r="I405" t="n">
-        <v>6.55</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="406">
@@ -11037,28 +11057,28 @@
         <v>479</v>
       </c>
       <c r="B414" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="C414" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="D414" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E414" t="n">
         <v>6.2</v>
       </c>
-      <c r="E414" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F414" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="G414" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H414" t="n">
         <v>7.5</v>
       </c>
-      <c r="H414" t="n">
-        <v>7</v>
-      </c>
       <c r="I414" t="n">
-        <v>6.8</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="415">
@@ -11066,28 +11086,28 @@
         <v>480</v>
       </c>
       <c r="B415" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="C415" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="D415" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="E415" t="n">
         <v>6.4</v>
       </c>
       <c r="F415" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="G415" t="n">
+        <v>7</v>
+      </c>
+      <c r="H415" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="H415" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I415" t="n">
-        <v>6.81</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="416">
@@ -11192,28 +11212,28 @@
         <v>486</v>
       </c>
       <c r="B421" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C421" t="n">
         <v>6.1</v>
       </c>
-      <c r="C421" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D421" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="E421" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="F421" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G421" t="n">
         <v>6.2</v>
       </c>
-      <c r="G421" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H421" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="I421" t="n">
-        <v>6.41</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="422">
@@ -11221,28 +11241,28 @@
         <v>487</v>
       </c>
       <c r="B422" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="C422" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="D422" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="E422" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="F422" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="G422" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="H422" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="I422" t="n">
-        <v>6.54</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="423">
@@ -11250,24 +11270,26 @@
         <v>488</v>
       </c>
       <c r="B423" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="C423" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D423" t="n">
         <v>7.2</v>
       </c>
-      <c r="D423" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E423" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="F423" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="G423" t="inlineStr"/>
+        <v>6.4</v>
+      </c>
+      <c r="G423" t="n">
+        <v>6.9</v>
+      </c>
       <c r="H423" t="inlineStr"/>
       <c r="I423" t="n">
-        <v>6.76</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="424">
@@ -11354,28 +11376,28 @@
         <v>492</v>
       </c>
       <c r="B427" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C427" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="D427" t="n">
+        <v>7</v>
+      </c>
+      <c r="E427" t="n">
         <v>3.3</v>
       </c>
-      <c r="E427" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F427" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G427" t="n">
         <v>7.3</v>
       </c>
-      <c r="G427" t="n">
+      <c r="H427" t="n">
         <v>6.2</v>
       </c>
-      <c r="H427" t="n">
-        <v>7.5</v>
-      </c>
       <c r="I427" t="n">
-        <v>6.34</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="428">
@@ -11415,25 +11437,25 @@
         <v>6.7</v>
       </c>
       <c r="C429" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="D429" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="E429" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F429" t="n">
         <v>7.1</v>
       </c>
-      <c r="F429" t="n">
+      <c r="G429" t="n">
         <v>5.6</v>
-      </c>
-      <c r="G429" t="n">
-        <v>7.4</v>
       </c>
       <c r="H429" t="n">
         <v>7.4</v>
       </c>
       <c r="I429" t="n">
-        <v>6.76</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="430">
@@ -11596,25 +11618,25 @@
         <v>7.1</v>
       </c>
       <c r="C436" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="D436" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E436" t="n">
         <v>7.2</v>
       </c>
-      <c r="E436" t="n">
+      <c r="F436" t="n">
         <v>7.4</v>
       </c>
-      <c r="F436" t="n">
+      <c r="G436" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="G436" t="n">
-        <v>6.3</v>
-      </c>
       <c r="H436" t="n">
-        <v>7.5</v>
+        <v>6.3</v>
       </c>
       <c r="I436" t="n">
-        <v>7.21</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="437">
@@ -11793,28 +11815,28 @@
         <v>509</v>
       </c>
       <c r="B444" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C444" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D444" t="n">
         <v>6.2</v>
       </c>
-      <c r="D444" t="n">
+      <c r="E444" t="n">
         <v>6.1</v>
       </c>
-      <c r="E444" t="n">
+      <c r="F444" t="n">
         <v>6</v>
       </c>
-      <c r="F444" t="n">
-        <v>7</v>
-      </c>
       <c r="G444" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="H444" t="n">
-        <v>7.6</v>
+        <v>6.3</v>
       </c>
       <c r="I444" t="n">
-        <v>6.53</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="445">
@@ -11822,28 +11844,28 @@
         <v>510</v>
       </c>
       <c r="B445" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C445" t="n">
         <v>7.7</v>
       </c>
-      <c r="C445" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D445" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="E445" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="F445" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="G445" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="H445" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="I445" t="n">
-        <v>6.8</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="446">
@@ -11914,28 +11936,28 @@
         <v>514</v>
       </c>
       <c r="B449" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="C449" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="D449" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="E449" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="F449" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="G449" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="H449" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="I449" t="n">
-        <v>6.63</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="450">
@@ -12201,25 +12223,25 @@
         <v>7.4</v>
       </c>
       <c r="C461" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="D461" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="E461" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="F461" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="G461" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H461" t="n">
         <v>7.2</v>
       </c>
-      <c r="H461" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="I461" t="n">
-        <v>7.11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="462">
@@ -12592,28 +12614,28 @@
         <v>540</v>
       </c>
       <c r="B475" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="C475" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="D475" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="E475" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F475" t="n">
         <v>6.2</v>
       </c>
-      <c r="F475" t="n">
-        <v>7</v>
-      </c>
       <c r="G475" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="H475" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="I475" t="n">
-        <v>6.63</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="476">
@@ -12621,28 +12643,28 @@
         <v>541</v>
       </c>
       <c r="B476" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C476" t="n">
         <v>7.8</v>
       </c>
-      <c r="C476" t="n">
+      <c r="D476" t="n">
         <v>7.3</v>
       </c>
-      <c r="D476" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E476" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F476" t="n">
         <v>7.2</v>
       </c>
-      <c r="F476" t="n">
+      <c r="G476" t="n">
         <v>7.8</v>
       </c>
-      <c r="G476" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H476" t="n">
-        <v>8.1</v>
+        <v>6.9</v>
       </c>
       <c r="I476" t="n">
-        <v>7.41</v>
+        <v>7.31</v>
       </c>
     </row>
     <row r="477">
@@ -12663,10 +12685,10 @@
         <v>543</v>
       </c>
       <c r="B478" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="C478" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="D478" t="n">
         <v>6.6</v>
@@ -12675,16 +12697,16 @@
         <v>6.6</v>
       </c>
       <c r="F478" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="G478" t="n">
         <v>6.9</v>
       </c>
       <c r="H478" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="I478" t="n">
-        <v>6.73</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="479">
@@ -12692,28 +12714,28 @@
         <v>544</v>
       </c>
       <c r="B479" t="n">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="C479" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D479" t="n">
         <v>7.4</v>
       </c>
-      <c r="D479" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E479" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F479" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="F479" t="n">
+      <c r="G479" t="n">
         <v>7.9</v>
       </c>
-      <c r="G479" t="n">
+      <c r="H479" t="n">
         <v>7.3</v>
       </c>
-      <c r="H479" t="n">
-        <v>7</v>
-      </c>
       <c r="I479" t="n">
-        <v>7.29</v>
+        <v>7.33</v>
       </c>
     </row>
     <row r="480">
@@ -12828,15 +12850,17 @@
         <v>6.5</v>
       </c>
       <c r="C484" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D484" t="n">
         <v>7.2</v>
       </c>
-      <c r="D484" t="inlineStr"/>
       <c r="E484" t="inlineStr"/>
       <c r="F484" t="inlineStr"/>
       <c r="G484" t="inlineStr"/>
       <c r="H484" t="inlineStr"/>
       <c r="I484" t="n">
-        <v>6.85</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="485">
@@ -12844,20 +12868,22 @@
         <v>550</v>
       </c>
       <c r="B485" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="C485" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="D485" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="E485" t="inlineStr"/>
+        <v>6.3</v>
+      </c>
+      <c r="E485" t="n">
+        <v>6.5</v>
+      </c>
       <c r="F485" t="inlineStr"/>
       <c r="G485" t="inlineStr"/>
       <c r="H485" t="inlineStr"/>
       <c r="I485" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="486">
@@ -12996,28 +13022,28 @@
         <v>556</v>
       </c>
       <c r="B491" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="C491" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="D491" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E491" t="n">
         <v>7.9</v>
       </c>
-      <c r="E491" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F491" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="G491" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="H491" t="n">
         <v>6.5</v>
       </c>
       <c r="I491" t="n">
-        <v>6.66</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="492">
@@ -13112,28 +13138,28 @@
         <v>560</v>
       </c>
       <c r="B495" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="C495" t="n">
         <v>6.6</v>
       </c>
       <c r="D495" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="E495" t="n">
         <v>6.7</v>
       </c>
       <c r="F495" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="G495" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="H495" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="I495" t="n">
-        <v>6.69</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="496">
@@ -13218,25 +13244,25 @@
         <v>564</v>
       </c>
       <c r="B499" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="C499" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D499" t="n">
         <v>7.8</v>
-      </c>
-      <c r="D499" t="n">
-        <v>6.1</v>
       </c>
       <c r="E499" t="n">
         <v>6.1</v>
       </c>
       <c r="F499" t="n">
-        <v>6.9</v>
+        <v>6.1</v>
       </c>
       <c r="G499" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="H499" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="I499" t="n">
         <v>6.67</v>
@@ -13247,28 +13273,28 @@
         <v>565</v>
       </c>
       <c r="B500" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="C500" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="D500" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="E500" t="n">
         <v>6.7</v>
       </c>
       <c r="F500" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G500" t="n">
         <v>7.2</v>
       </c>
-      <c r="G500" t="n">
-        <v>6.4</v>
-      </c>
       <c r="H500" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="I500" t="n">
-        <v>6.73</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="501">
@@ -13300,25 +13326,25 @@
         <v>6.9</v>
       </c>
       <c r="C502" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="D502" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="E502" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="F502" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="G502" t="n">
         <v>6.6</v>
       </c>
       <c r="H502" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="I502" t="n">
-        <v>6.71</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="503">
@@ -13630,28 +13656,28 @@
         <v>580</v>
       </c>
       <c r="B515" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C515" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="D515" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="E515" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F515" t="n">
         <v>6.2</v>
       </c>
-      <c r="F515" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G515" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H515" t="n">
         <v>5.5</v>
       </c>
-      <c r="H515" t="n">
-        <v>7.3</v>
-      </c>
       <c r="I515" t="n">
-        <v>6.53</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="516">
@@ -13892,28 +13918,28 @@
         <v>590</v>
       </c>
       <c r="B525" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C525" t="n">
         <v>7.6</v>
       </c>
-      <c r="C525" t="n">
+      <c r="D525" t="n">
         <v>7.3</v>
       </c>
-      <c r="D525" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E525" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F525" t="n">
         <v>7.2</v>
       </c>
-      <c r="F525" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G525" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="H525" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="I525" t="n">
-        <v>7.06</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="526">
@@ -13921,28 +13947,28 @@
         <v>591</v>
       </c>
       <c r="B526" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="C526" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D526" t="n">
         <v>7.2</v>
       </c>
-      <c r="D526" t="n">
+      <c r="E526" t="n">
         <v>7.4</v>
       </c>
-      <c r="E526" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F526" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G526" t="n">
         <v>7.3</v>
       </c>
-      <c r="G526" t="n">
-        <v>6.4</v>
-      </c>
       <c r="H526" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="I526" t="n">
-        <v>6.99</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/players_ratings.xlsx
+++ b/players_ratings.xlsx
@@ -481,7 +481,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -494,7 +494,7 @@
       <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="n">
@@ -513,7 +513,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="n">
@@ -542,7 +542,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>5</v>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -555,7 +555,7 @@
       <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>7</v>
       </c>
       <c r="B6" t="n">
@@ -572,7 +572,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>8</v>
       </c>
       <c r="B7" t="n">
@@ -595,7 +595,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>9</v>
       </c>
       <c r="B8" t="n">
@@ -624,7 +624,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>11</v>
       </c>
       <c r="B9" t="n">
@@ -653,7 +653,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>12</v>
       </c>
       <c r="B10" t="n">
@@ -682,7 +682,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>14</v>
       </c>
       <c r="B11" t="n">
@@ -699,7 +699,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" t="n">
         <v>15</v>
       </c>
       <c r="B12" t="n">
@@ -728,7 +728,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" t="n">
         <v>16</v>
       </c>
       <c r="B13" t="n">
@@ -755,7 +755,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" t="n">
         <v>17</v>
       </c>
       <c r="B14" t="n">
@@ -784,7 +784,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" t="n">
         <v>19</v>
       </c>
       <c r="B15" t="n">
@@ -811,7 +811,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" t="n">
         <v>23</v>
       </c>
       <c r="B16" t="n">
@@ -840,7 +840,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" t="n">
         <v>24</v>
       </c>
       <c r="B17" t="n">
@@ -857,7 +857,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="A18" t="n">
         <v>25</v>
       </c>
       <c r="B18" t="n">
@@ -874,7 +874,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="A19" t="n">
         <v>27</v>
       </c>
       <c r="B19" t="n">
@@ -903,7 +903,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="A20" t="n">
         <v>28</v>
       </c>
       <c r="B20" t="n">
@@ -932,36 +932,36 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="A21" t="n">
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="C21" t="n">
+        <v>7</v>
+      </c>
+      <c r="D21" t="n">
         <v>7.9</v>
       </c>
-      <c r="D21" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E21" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F21" t="n">
         <v>7.2</v>
       </c>
-      <c r="F21" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G21" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H21" t="n">
         <v>7.4</v>
       </c>
-      <c r="H21" t="n">
-        <v>7.3</v>
-      </c>
       <c r="I21" t="n">
-        <v>7.19</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="A22" t="n">
         <v>30</v>
       </c>
       <c r="B22" t="n">
@@ -990,7 +990,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="A23" t="n">
         <v>31</v>
       </c>
       <c r="B23" t="n">
@@ -1019,7 +1019,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="A24" t="n">
         <v>32</v>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -1032,7 +1032,7 @@
       <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="A25" t="n">
         <v>33</v>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
       <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="A26" t="n">
         <v>34</v>
       </c>
       <c r="B26" t="n">
@@ -1074,7 +1074,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="A27" t="n">
         <v>35</v>
       </c>
       <c r="B27" t="n">
@@ -1101,7 +1101,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="A28" t="n">
         <v>36</v>
       </c>
       <c r="B28" t="n">
@@ -1130,7 +1130,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="A29" t="n">
         <v>37</v>
       </c>
       <c r="B29" t="n">
@@ -1159,7 +1159,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="A30" t="n">
         <v>38</v>
       </c>
       <c r="B30" t="n">
@@ -1188,7 +1188,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="A31" t="n">
         <v>39</v>
       </c>
       <c r="B31" t="n">
@@ -1205,7 +1205,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="A32" t="n">
         <v>41</v>
       </c>
       <c r="B32" t="n">
@@ -1234,7 +1234,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="A33" t="n">
         <v>42</v>
       </c>
       <c r="B33" t="n">
@@ -1263,7 +1263,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="A34" t="n">
         <v>43</v>
       </c>
       <c r="B34" t="n">
@@ -1292,7 +1292,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
+      <c r="A35" t="n">
         <v>44</v>
       </c>
       <c r="B35" t="n">
@@ -1321,7 +1321,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
+      <c r="A36" t="n">
         <v>45</v>
       </c>
       <c r="B36" t="n">
@@ -1350,7 +1350,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
+      <c r="A37" t="n">
         <v>46</v>
       </c>
       <c r="B37" t="n">
@@ -1379,7 +1379,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="A38" t="n">
         <v>47</v>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -1392,7 +1392,7 @@
       <c r="I38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
+      <c r="A39" t="n">
         <v>49</v>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1405,7 +1405,7 @@
       <c r="I39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
+      <c r="A40" t="n">
         <v>50</v>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -1418,7 +1418,7 @@
       <c r="I40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
+      <c r="A41" t="n">
         <v>51</v>
       </c>
       <c r="B41" t="n">
@@ -1447,7 +1447,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="A42" t="n">
         <v>52</v>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -1460,7 +1460,7 @@
       <c r="I42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
+      <c r="A43" t="n">
         <v>53</v>
       </c>
       <c r="B43" t="n">
@@ -1489,7 +1489,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
+      <c r="A44" t="n">
         <v>54</v>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1502,7 +1502,7 @@
       <c r="I44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
+      <c r="A45" t="n">
         <v>55</v>
       </c>
       <c r="B45" t="n">
@@ -1529,7 +1529,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
+      <c r="A46" t="n">
         <v>56</v>
       </c>
       <c r="B46" t="n">
@@ -1550,7 +1550,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
+      <c r="A47" t="n">
         <v>57</v>
       </c>
       <c r="B47" t="n">
@@ -1579,7 +1579,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
+      <c r="A48" t="n">
         <v>58</v>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -1592,7 +1592,7 @@
       <c r="I48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
+      <c r="A49" t="n">
         <v>59</v>
       </c>
       <c r="B49" t="n">
@@ -1613,7 +1613,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
+      <c r="A50" t="n">
         <v>60</v>
       </c>
       <c r="B50" t="n">
@@ -1642,7 +1642,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
+      <c r="A51" t="n">
         <v>62</v>
       </c>
       <c r="B51" t="n">
@@ -1671,7 +1671,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
+      <c r="A52" t="n">
         <v>63</v>
       </c>
       <c r="B52" t="n">
@@ -1700,7 +1700,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
+      <c r="A53" t="n">
         <v>65</v>
       </c>
       <c r="B53" t="n">
@@ -1729,7 +1729,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
+      <c r="A54" t="n">
         <v>66</v>
       </c>
       <c r="B54" t="n">
@@ -1758,36 +1758,36 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
+      <c r="A55" t="n">
         <v>67</v>
       </c>
       <c r="B55" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C55" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="C55" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D55" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E55" t="n">
         <v>8</v>
       </c>
-      <c r="E55" t="n">
-        <v>7</v>
-      </c>
       <c r="F55" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="G55" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="H55" t="n">
-        <v>7.4</v>
+        <v>6.7</v>
       </c>
       <c r="I55" t="n">
-        <v>7.2</v>
+        <v>7.21</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
+      <c r="A56" t="n">
         <v>69</v>
       </c>
       <c r="B56" t="n">
@@ -1816,7 +1816,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
+      <c r="A57" t="n">
         <v>70</v>
       </c>
       <c r="B57" t="inlineStr"/>
@@ -1829,7 +1829,7 @@
       <c r="I57" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
+      <c r="A58" t="n">
         <v>75</v>
       </c>
       <c r="B58" t="n">
@@ -1858,7 +1858,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
+      <c r="A59" t="n">
         <v>80</v>
       </c>
       <c r="B59" t="n">
@@ -1887,7 +1887,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
+      <c r="A60" t="n">
         <v>81</v>
       </c>
       <c r="B60" t="n">
@@ -1916,7 +1916,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
+      <c r="A61" t="n">
         <v>82</v>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -1929,7 +1929,7 @@
       <c r="I61" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
+      <c r="A62" t="n">
         <v>83</v>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -1942,7 +1942,7 @@
       <c r="I62" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
+      <c r="A63" t="n">
         <v>85</v>
       </c>
       <c r="B63" t="n">
@@ -1961,7 +1961,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
+      <c r="A64" t="n">
         <v>86</v>
       </c>
       <c r="B64" t="n">
@@ -1978,7 +1978,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
+      <c r="A65" t="n">
         <v>88</v>
       </c>
       <c r="B65" t="n">
@@ -2007,7 +2007,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
+      <c r="A66" t="n">
         <v>91</v>
       </c>
       <c r="B66" t="n">
@@ -2036,7 +2036,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
+      <c r="A67" t="n">
         <v>92</v>
       </c>
       <c r="B67" t="n">
@@ -2065,7 +2065,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
+      <c r="A68" t="n">
         <v>93</v>
       </c>
       <c r="B68" t="n">
@@ -2084,7 +2084,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
+      <c r="A69" t="n">
         <v>94</v>
       </c>
       <c r="B69" t="n">
@@ -2113,7 +2113,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
+      <c r="A70" t="n">
         <v>95</v>
       </c>
       <c r="B70" t="n">
@@ -2142,7 +2142,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
+      <c r="A71" t="n">
         <v>96</v>
       </c>
       <c r="B71" t="n">
@@ -2171,7 +2171,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
+      <c r="A72" t="n">
         <v>98</v>
       </c>
       <c r="B72" t="n">
@@ -2200,7 +2200,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
+      <c r="A73" t="n">
         <v>99</v>
       </c>
       <c r="B73" t="n">
@@ -2219,7 +2219,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
+      <c r="A74" t="n">
         <v>100</v>
       </c>
       <c r="B74" t="n">
@@ -2248,7 +2248,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
+      <c r="A75" t="n">
         <v>101</v>
       </c>
       <c r="B75" t="n">
@@ -2277,7 +2277,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
+      <c r="A76" t="n">
         <v>102</v>
       </c>
       <c r="B76" t="inlineStr"/>
@@ -2290,7 +2290,7 @@
       <c r="I76" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
+      <c r="A77" t="n">
         <v>103</v>
       </c>
       <c r="B77" t="n">
@@ -2319,7 +2319,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
+      <c r="A78" t="n">
         <v>104</v>
       </c>
       <c r="B78" t="n">
@@ -2348,7 +2348,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
+      <c r="A79" t="n">
         <v>105</v>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -2361,7 +2361,7 @@
       <c r="I79" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
+      <c r="A80" t="n">
         <v>106</v>
       </c>
       <c r="B80" t="n">
@@ -2390,7 +2390,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
+      <c r="A81" t="n">
         <v>107</v>
       </c>
       <c r="B81" t="inlineStr"/>
@@ -2403,7 +2403,7 @@
       <c r="I81" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
+      <c r="A82" t="n">
         <v>108</v>
       </c>
       <c r="B82" t="n">
@@ -2432,7 +2432,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
+      <c r="A83" t="n">
         <v>110</v>
       </c>
       <c r="B83" t="n">
@@ -2457,7 +2457,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
+      <c r="A84" t="n">
         <v>111</v>
       </c>
       <c r="B84" t="n">
@@ -2486,7 +2486,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
+      <c r="A85" t="n">
         <v>112</v>
       </c>
       <c r="B85" t="inlineStr"/>
@@ -2499,7 +2499,7 @@
       <c r="I85" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
+      <c r="A86" t="n">
         <v>113</v>
       </c>
       <c r="B86" t="n">
@@ -2528,7 +2528,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
+      <c r="A87" t="n">
         <v>114</v>
       </c>
       <c r="B87" t="inlineStr"/>
@@ -2541,7 +2541,7 @@
       <c r="I87" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
+      <c r="A88" t="n">
         <v>115</v>
       </c>
       <c r="B88" t="n">
@@ -2570,7 +2570,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
+      <c r="A89" t="n">
         <v>116</v>
       </c>
       <c r="B89" t="inlineStr"/>
@@ -2583,7 +2583,7 @@
       <c r="I89" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
+      <c r="A90" t="n">
         <v>117</v>
       </c>
       <c r="B90" t="n">
@@ -2612,7 +2612,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
+      <c r="A91" t="n">
         <v>118</v>
       </c>
       <c r="B91" t="n">
@@ -2635,7 +2635,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
+      <c r="A92" t="n">
         <v>119</v>
       </c>
       <c r="B92" t="n">
@@ -2664,7 +2664,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
+      <c r="A93" t="n">
         <v>120</v>
       </c>
       <c r="B93" t="n">
@@ -2687,7 +2687,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
+      <c r="A94" t="n">
         <v>121</v>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -2700,7 +2700,7 @@
       <c r="I94" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
+      <c r="A95" t="n">
         <v>122</v>
       </c>
       <c r="B95" t="inlineStr"/>
@@ -2713,7 +2713,7 @@
       <c r="I95" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
+      <c r="A96" t="n">
         <v>124</v>
       </c>
       <c r="B96" t="n">
@@ -2742,7 +2742,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
+      <c r="A97" t="n">
         <v>126</v>
       </c>
       <c r="B97" t="inlineStr"/>
@@ -2755,7 +2755,7 @@
       <c r="I97" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
+      <c r="A98" t="n">
         <v>127</v>
       </c>
       <c r="B98" t="n">
@@ -2784,7 +2784,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
+      <c r="A99" t="n">
         <v>128</v>
       </c>
       <c r="B99" t="n">
@@ -2801,7 +2801,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
+      <c r="A100" t="n">
         <v>129</v>
       </c>
       <c r="B100" t="n">
@@ -2830,7 +2830,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
+      <c r="A101" t="n">
         <v>130</v>
       </c>
       <c r="B101" t="inlineStr"/>
@@ -2843,7 +2843,7 @@
       <c r="I101" t="inlineStr"/>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
+      <c r="A102" t="n">
         <v>131</v>
       </c>
       <c r="B102" t="n">
@@ -2866,7 +2866,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n">
+      <c r="A103" t="n">
         <v>132</v>
       </c>
       <c r="B103" t="n">
@@ -2895,7 +2895,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n">
+      <c r="A104" t="n">
         <v>133</v>
       </c>
       <c r="B104" t="n">
@@ -2924,7 +2924,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n">
+      <c r="A105" t="n">
         <v>134</v>
       </c>
       <c r="B105" t="n">
@@ -2953,7 +2953,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n">
+      <c r="A106" t="n">
         <v>135</v>
       </c>
       <c r="B106" t="n">
@@ -2982,7 +2982,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n">
+      <c r="A107" t="n">
         <v>136</v>
       </c>
       <c r="B107" t="n">
@@ -3011,7 +3011,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n">
+      <c r="A108" t="n">
         <v>137</v>
       </c>
       <c r="B108" t="n">
@@ -3032,7 +3032,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n">
+      <c r="A109" t="n">
         <v>138</v>
       </c>
       <c r="B109" t="n">
@@ -3061,7 +3061,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n">
+      <c r="A110" t="n">
         <v>141</v>
       </c>
       <c r="B110" t="inlineStr"/>
@@ -3074,7 +3074,7 @@
       <c r="I110" t="inlineStr"/>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="n">
+      <c r="A111" t="n">
         <v>142</v>
       </c>
       <c r="B111" t="inlineStr"/>
@@ -3087,7 +3087,7 @@
       <c r="I111" t="inlineStr"/>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="n">
+      <c r="A112" t="n">
         <v>143</v>
       </c>
       <c r="B112" t="n">
@@ -3116,7 +3116,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="n">
+      <c r="A113" t="n">
         <v>144</v>
       </c>
       <c r="B113" t="n">
@@ -3145,7 +3145,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="n">
+      <c r="A114" t="n">
         <v>145</v>
       </c>
       <c r="B114" t="n">
@@ -3174,7 +3174,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="n">
+      <c r="A115" t="n">
         <v>146</v>
       </c>
       <c r="B115" t="n">
@@ -3203,7 +3203,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="n">
+      <c r="A116" t="n">
         <v>147</v>
       </c>
       <c r="B116" t="n">
@@ -3232,7 +3232,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="n">
+      <c r="A117" t="n">
         <v>148</v>
       </c>
       <c r="B117" t="inlineStr"/>
@@ -3245,7 +3245,7 @@
       <c r="I117" t="inlineStr"/>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="n">
+      <c r="A118" t="n">
         <v>149</v>
       </c>
       <c r="B118" t="n">
@@ -3274,7 +3274,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="n">
+      <c r="A119" t="n">
         <v>150</v>
       </c>
       <c r="B119" t="n">
@@ -3303,7 +3303,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="n">
+      <c r="A120" t="n">
         <v>153</v>
       </c>
       <c r="B120" t="inlineStr"/>
@@ -3316,7 +3316,7 @@
       <c r="I120" t="inlineStr"/>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="n">
+      <c r="A121" t="n">
         <v>155</v>
       </c>
       <c r="B121" t="n">
@@ -3345,7 +3345,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="n">
+      <c r="A122" t="n">
         <v>160</v>
       </c>
       <c r="B122" t="n">
@@ -3370,7 +3370,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="n">
+      <c r="A123" t="n">
         <v>161</v>
       </c>
       <c r="B123" t="n">
@@ -3399,7 +3399,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="n">
+      <c r="A124" t="n">
         <v>163</v>
       </c>
       <c r="B124" t="n">
@@ -3416,7 +3416,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="n">
+      <c r="A125" t="n">
         <v>164</v>
       </c>
       <c r="B125" t="n">
@@ -3445,7 +3445,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="n">
+      <c r="A126" t="n">
         <v>165</v>
       </c>
       <c r="B126" t="n">
@@ -3474,23 +3474,23 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="n">
+      <c r="A127" t="n">
         <v>166</v>
       </c>
       <c r="B127" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="C127" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D127" t="n">
         <v>7.3</v>
       </c>
-      <c r="D127" t="n">
+      <c r="E127" t="n">
         <v>7.4</v>
       </c>
-      <c r="E127" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F127" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="G127" t="n">
         <v>6.6</v>
@@ -3499,11 +3499,11 @@
         <v>6.6</v>
       </c>
       <c r="I127" t="n">
-        <v>6.76</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="n">
+      <c r="A128" t="n">
         <v>167</v>
       </c>
       <c r="B128" t="n">
@@ -3532,7 +3532,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="n">
+      <c r="A129" t="n">
         <v>168</v>
       </c>
       <c r="B129" t="n">
@@ -3561,36 +3561,36 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="n">
+      <c r="A130" t="n">
         <v>169</v>
       </c>
       <c r="B130" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="C130" t="n">
+        <v>7</v>
+      </c>
+      <c r="D130" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="D130" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E130" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="F130" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="G130" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="H130" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="I130" t="n">
-        <v>7.09</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="n">
+      <c r="A131" t="n">
         <v>170</v>
       </c>
       <c r="B131" t="n">
@@ -3619,36 +3619,36 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="n">
+      <c r="A132" t="n">
         <v>171</v>
       </c>
       <c r="B132" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="C132" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D132" t="n">
         <v>7.2</v>
       </c>
-      <c r="D132" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E132" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F132" t="n">
         <v>7.2</v>
       </c>
-      <c r="F132" t="n">
-        <v>7</v>
-      </c>
       <c r="G132" t="n">
+        <v>7</v>
+      </c>
+      <c r="H132" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="H132" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I132" t="n">
-        <v>7.11</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="n">
+      <c r="A133" t="n">
         <v>172</v>
       </c>
       <c r="B133" t="n">
@@ -3677,7 +3677,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="n">
+      <c r="A134" t="n">
         <v>173</v>
       </c>
       <c r="B134" t="n">
@@ -3706,7 +3706,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="n">
+      <c r="A135" t="n">
         <v>174</v>
       </c>
       <c r="B135" t="n">
@@ -3735,36 +3735,36 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="n">
+      <c r="A136" t="n">
         <v>175</v>
       </c>
       <c r="B136" t="n">
         <v>6.6</v>
       </c>
       <c r="C136" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="D136" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E136" t="n">
         <v>7.9</v>
       </c>
-      <c r="E136" t="n">
-        <v>6.9</v>
-      </c>
       <c r="F136" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="G136" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H136" t="n">
         <v>7.3</v>
       </c>
-      <c r="H136" t="n">
-        <v>7.2</v>
-      </c>
       <c r="I136" t="n">
-        <v>7.03</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="n">
+      <c r="A137" t="n">
         <v>176</v>
       </c>
       <c r="B137" t="n">
@@ -3785,7 +3785,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="n">
+      <c r="A138" t="n">
         <v>177</v>
       </c>
       <c r="B138" t="n">
@@ -3812,7 +3812,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="n">
+      <c r="A139" t="n">
         <v>178</v>
       </c>
       <c r="B139" t="n">
@@ -3839,7 +3839,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="n">
+      <c r="A140" t="n">
         <v>179</v>
       </c>
       <c r="B140" t="n">
@@ -3864,7 +3864,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="n">
+      <c r="A141" t="n">
         <v>180</v>
       </c>
       <c r="B141" t="n">
@@ -3893,36 +3893,36 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="n">
+      <c r="A142" t="n">
         <v>181</v>
       </c>
       <c r="B142" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C142" t="n">
         <v>7.4</v>
       </c>
-      <c r="C142" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D142" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="E142" t="n">
         <v>6.6</v>
       </c>
       <c r="F142" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="G142" t="n">
         <v>6.4</v>
       </c>
       <c r="H142" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="I142" t="n">
-        <v>6.63</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="n">
+      <c r="A143" t="n">
         <v>182</v>
       </c>
       <c r="B143" t="n">
@@ -3951,7 +3951,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="n">
+      <c r="A144" t="n">
         <v>183</v>
       </c>
       <c r="B144" t="n">
@@ -3970,36 +3970,36 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="n">
+      <c r="A145" t="n">
         <v>184</v>
       </c>
       <c r="B145" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C145" t="n">
         <v>7.2</v>
       </c>
-      <c r="C145" t="n">
-        <v>6.3</v>
-      </c>
       <c r="D145" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="E145" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="F145" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G145" t="n">
         <v>7.2</v>
       </c>
-      <c r="G145" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H145" t="n">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="I145" t="n">
-        <v>6.94</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="n">
+      <c r="A146" t="n">
         <v>185</v>
       </c>
       <c r="B146" t="n">
@@ -4028,7 +4028,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="n">
+      <c r="A147" t="n">
         <v>186</v>
       </c>
       <c r="B147" t="n">
@@ -4051,7 +4051,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="n">
+      <c r="A148" t="n">
         <v>188</v>
       </c>
       <c r="B148" t="inlineStr"/>
@@ -4064,7 +4064,7 @@
       <c r="I148" t="inlineStr"/>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="n">
+      <c r="A149" t="n">
         <v>189</v>
       </c>
       <c r="B149" t="n">
@@ -4093,7 +4093,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="n">
+      <c r="A150" t="n">
         <v>190</v>
       </c>
       <c r="B150" t="n">
@@ -4122,7 +4122,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="n">
+      <c r="A151" t="n">
         <v>191</v>
       </c>
       <c r="B151" t="n">
@@ -4151,7 +4151,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="n">
+      <c r="A152" t="n">
         <v>192</v>
       </c>
       <c r="B152" t="n">
@@ -4180,7 +4180,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="n">
+      <c r="A153" t="n">
         <v>193</v>
       </c>
       <c r="B153" t="n">
@@ -4197,7 +4197,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="n">
+      <c r="A154" t="n">
         <v>194</v>
       </c>
       <c r="B154" t="n">
@@ -4226,7 +4226,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="n">
+      <c r="A155" t="n">
         <v>195</v>
       </c>
       <c r="B155" t="n">
@@ -4255,7 +4255,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="n">
+      <c r="A156" t="n">
         <v>196</v>
       </c>
       <c r="B156" t="n">
@@ -4284,7 +4284,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="n">
+      <c r="A157" t="n">
         <v>197</v>
       </c>
       <c r="B157" t="n">
@@ -4301,7 +4301,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="n">
+      <c r="A158" t="n">
         <v>198</v>
       </c>
       <c r="B158" t="n">
@@ -4330,7 +4330,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="n">
+      <c r="A159" t="n">
         <v>199</v>
       </c>
       <c r="B159" t="n">
@@ -4359,7 +4359,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="n">
+      <c r="A160" t="n">
         <v>200</v>
       </c>
       <c r="B160" t="n">
@@ -4386,7 +4386,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="n">
+      <c r="A161" t="n">
         <v>201</v>
       </c>
       <c r="B161" t="n">
@@ -4415,7 +4415,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="n">
+      <c r="A162" t="n">
         <v>202</v>
       </c>
       <c r="B162" t="n">
@@ -4444,7 +4444,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="n">
+      <c r="A163" t="n">
         <v>203</v>
       </c>
       <c r="B163" t="n">
@@ -4473,7 +4473,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="n">
+      <c r="A164" t="n">
         <v>206</v>
       </c>
       <c r="B164" t="n">
@@ -4502,7 +4502,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="n">
+      <c r="A165" t="n">
         <v>207</v>
       </c>
       <c r="B165" t="n">
@@ -4519,7 +4519,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="n">
+      <c r="A166" t="n">
         <v>208</v>
       </c>
       <c r="B166" t="n">
@@ -4548,7 +4548,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="n">
+      <c r="A167" t="n">
         <v>209</v>
       </c>
       <c r="B167" t="n">
@@ -4577,7 +4577,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="n">
+      <c r="A168" t="n">
         <v>210</v>
       </c>
       <c r="B168" t="inlineStr"/>
@@ -4590,7 +4590,7 @@
       <c r="I168" t="inlineStr"/>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="n">
+      <c r="A169" t="n">
         <v>211</v>
       </c>
       <c r="B169" t="n">
@@ -4619,7 +4619,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="n">
+      <c r="A170" t="n">
         <v>212</v>
       </c>
       <c r="B170" t="n">
@@ -4648,7 +4648,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="n">
+      <c r="A171" t="n">
         <v>213</v>
       </c>
       <c r="B171" t="n">
@@ -4665,7 +4665,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="n">
+      <c r="A172" t="n">
         <v>214</v>
       </c>
       <c r="B172" t="n">
@@ -4694,7 +4694,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="n">
+      <c r="A173" t="n">
         <v>215</v>
       </c>
       <c r="B173" t="inlineStr"/>
@@ -4707,7 +4707,7 @@
       <c r="I173" t="inlineStr"/>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="n">
+      <c r="A174" t="n">
         <v>216</v>
       </c>
       <c r="B174" t="n">
@@ -4736,7 +4736,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="n">
+      <c r="A175" t="n">
         <v>217</v>
       </c>
       <c r="B175" t="n">
@@ -4765,7 +4765,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="n">
+      <c r="A176" t="n">
         <v>218</v>
       </c>
       <c r="B176" t="n">
@@ -4794,7 +4794,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="n">
+      <c r="A177" t="n">
         <v>219</v>
       </c>
       <c r="B177" t="n">
@@ -4823,7 +4823,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="n">
+      <c r="A178" t="n">
         <v>220</v>
       </c>
       <c r="B178" t="n">
@@ -4840,7 +4840,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="n">
+      <c r="A179" t="n">
         <v>221</v>
       </c>
       <c r="B179" t="n">
@@ -4869,7 +4869,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="n">
+      <c r="A180" t="n">
         <v>222</v>
       </c>
       <c r="B180" t="n">
@@ -4898,7 +4898,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="n">
+      <c r="A181" t="n">
         <v>223</v>
       </c>
       <c r="B181" t="n">
@@ -4927,7 +4927,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="n">
+      <c r="A182" t="n">
         <v>224</v>
       </c>
       <c r="B182" t="n">
@@ -4956,7 +4956,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="n">
+      <c r="A183" t="n">
         <v>225</v>
       </c>
       <c r="B183" t="n">
@@ -4985,7 +4985,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="1" t="n">
+      <c r="A184" t="n">
         <v>226</v>
       </c>
       <c r="B184" t="n">
@@ -5014,7 +5014,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="1" t="n">
+      <c r="A185" t="n">
         <v>227</v>
       </c>
       <c r="B185" t="n">
@@ -5043,7 +5043,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="1" t="n">
+      <c r="A186" t="n">
         <v>228</v>
       </c>
       <c r="B186" t="n">
@@ -5072,7 +5072,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="1" t="n">
+      <c r="A187" t="n">
         <v>229</v>
       </c>
       <c r="B187" t="inlineStr"/>
@@ -5085,7 +5085,7 @@
       <c r="I187" t="inlineStr"/>
     </row>
     <row r="188">
-      <c r="A188" s="1" t="n">
+      <c r="A188" t="n">
         <v>230</v>
       </c>
       <c r="B188" t="inlineStr"/>
@@ -5098,7 +5098,7 @@
       <c r="I188" t="inlineStr"/>
     </row>
     <row r="189">
-      <c r="A189" s="1" t="n">
+      <c r="A189" t="n">
         <v>232</v>
       </c>
       <c r="B189" t="n">
@@ -5127,7 +5127,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="1" t="n">
+      <c r="A190" t="n">
         <v>234</v>
       </c>
       <c r="B190" t="n">
@@ -5144,7 +5144,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="1" t="n">
+      <c r="A191" t="n">
         <v>236</v>
       </c>
       <c r="B191" t="n">
@@ -5173,7 +5173,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="1" t="n">
+      <c r="A192" t="n">
         <v>237</v>
       </c>
       <c r="B192" t="n">
@@ -5202,7 +5202,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="1" t="n">
+      <c r="A193" t="n">
         <v>238</v>
       </c>
       <c r="B193" t="inlineStr"/>
@@ -5215,7 +5215,7 @@
       <c r="I193" t="inlineStr"/>
     </row>
     <row r="194">
-      <c r="A194" s="1" t="n">
+      <c r="A194" t="n">
         <v>239</v>
       </c>
       <c r="B194" t="n">
@@ -5238,7 +5238,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="1" t="n">
+      <c r="A195" t="n">
         <v>240</v>
       </c>
       <c r="B195" t="n">
@@ -5267,7 +5267,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="1" t="n">
+      <c r="A196" t="n">
         <v>241</v>
       </c>
       <c r="B196" t="n">
@@ -5288,7 +5288,7 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="1" t="n">
+      <c r="A197" t="n">
         <v>242</v>
       </c>
       <c r="B197" t="inlineStr"/>
@@ -5301,7 +5301,7 @@
       <c r="I197" t="inlineStr"/>
     </row>
     <row r="198">
-      <c r="A198" s="1" t="n">
+      <c r="A198" t="n">
         <v>243</v>
       </c>
       <c r="B198" t="n">
@@ -5318,7 +5318,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="1" t="n">
+      <c r="A199" t="n">
         <v>244</v>
       </c>
       <c r="B199" t="n">
@@ -5347,7 +5347,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="1" t="n">
+      <c r="A200" t="n">
         <v>245</v>
       </c>
       <c r="B200" t="n">
@@ -5368,7 +5368,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="1" t="n">
+      <c r="A201" t="n">
         <v>247</v>
       </c>
       <c r="B201" t="n">
@@ -5397,7 +5397,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="1" t="n">
+      <c r="A202" t="n">
         <v>248</v>
       </c>
       <c r="B202" t="inlineStr"/>
@@ -5410,7 +5410,7 @@
       <c r="I202" t="inlineStr"/>
     </row>
     <row r="203">
-      <c r="A203" s="1" t="n">
+      <c r="A203" t="n">
         <v>250</v>
       </c>
       <c r="B203" t="n">
@@ -5429,7 +5429,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="1" t="n">
+      <c r="A204" t="n">
         <v>252</v>
       </c>
       <c r="B204" t="n">
@@ -5458,7 +5458,7 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="1" t="n">
+      <c r="A205" t="n">
         <v>253</v>
       </c>
       <c r="B205" t="n">
@@ -5485,7 +5485,7 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="1" t="n">
+      <c r="A206" t="n">
         <v>254</v>
       </c>
       <c r="B206" t="n">
@@ -5502,7 +5502,7 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="1" t="n">
+      <c r="A207" t="n">
         <v>255</v>
       </c>
       <c r="B207" t="n">
@@ -5527,7 +5527,7 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="1" t="n">
+      <c r="A208" t="n">
         <v>256</v>
       </c>
       <c r="B208" t="n">
@@ -5556,7 +5556,7 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="1" t="n">
+      <c r="A209" t="n">
         <v>258</v>
       </c>
       <c r="B209" t="n">
@@ -5583,7 +5583,7 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="1" t="n">
+      <c r="A210" t="n">
         <v>259</v>
       </c>
       <c r="B210" t="n">
@@ -5612,7 +5612,7 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="1" t="n">
+      <c r="A211" t="n">
         <v>260</v>
       </c>
       <c r="B211" t="n">
@@ -5641,7 +5641,7 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="1" t="n">
+      <c r="A212" t="n">
         <v>261</v>
       </c>
       <c r="B212" t="n">
@@ -5670,7 +5670,7 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="1" t="n">
+      <c r="A213" t="n">
         <v>263</v>
       </c>
       <c r="B213" t="n">
@@ -5699,7 +5699,7 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="1" t="n">
+      <c r="A214" t="n">
         <v>265</v>
       </c>
       <c r="B214" t="inlineStr"/>
@@ -5712,7 +5712,7 @@
       <c r="I214" t="inlineStr"/>
     </row>
     <row r="215">
-      <c r="A215" s="1" t="n">
+      <c r="A215" t="n">
         <v>267</v>
       </c>
       <c r="B215" t="n">
@@ -5741,7 +5741,7 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="1" t="n">
+      <c r="A216" t="n">
         <v>273</v>
       </c>
       <c r="B216" t="n">
@@ -5770,7 +5770,7 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="1" t="n">
+      <c r="A217" t="n">
         <v>274</v>
       </c>
       <c r="B217" t="n">
@@ -5797,7 +5797,7 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="1" t="n">
+      <c r="A218" t="n">
         <v>275</v>
       </c>
       <c r="B218" t="n">
@@ -5826,7 +5826,7 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="1" t="n">
+      <c r="A219" t="n">
         <v>276</v>
       </c>
       <c r="B219" t="n">
@@ -5855,7 +5855,7 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="1" t="n">
+      <c r="A220" t="n">
         <v>277</v>
       </c>
       <c r="B220" t="n">
@@ -5874,7 +5874,7 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="1" t="n">
+      <c r="A221" t="n">
         <v>278</v>
       </c>
       <c r="B221" t="n">
@@ -5903,7 +5903,7 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="1" t="n">
+      <c r="A222" t="n">
         <v>279</v>
       </c>
       <c r="B222" t="n">
@@ -5932,7 +5932,7 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="1" t="n">
+      <c r="A223" t="n">
         <v>280</v>
       </c>
       <c r="B223" t="n">
@@ -5961,7 +5961,7 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="1" t="n">
+      <c r="A224" t="n">
         <v>281</v>
       </c>
       <c r="B224" t="n">
@@ -5990,7 +5990,7 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="1" t="n">
+      <c r="A225" t="n">
         <v>282</v>
       </c>
       <c r="B225" t="n">
@@ -6019,7 +6019,7 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="1" t="n">
+      <c r="A226" t="n">
         <v>283</v>
       </c>
       <c r="B226" t="n">
@@ -6044,7 +6044,7 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="1" t="n">
+      <c r="A227" t="n">
         <v>285</v>
       </c>
       <c r="B227" t="n">
@@ -6073,7 +6073,7 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="1" t="n">
+      <c r="A228" t="n">
         <v>286</v>
       </c>
       <c r="B228" t="n">
@@ -6102,7 +6102,7 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="1" t="n">
+      <c r="A229" t="n">
         <v>287</v>
       </c>
       <c r="B229" t="n">
@@ -6131,7 +6131,7 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="1" t="n">
+      <c r="A230" t="n">
         <v>288</v>
       </c>
       <c r="B230" t="n">
@@ -6160,7 +6160,7 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="1" t="n">
+      <c r="A231" t="n">
         <v>289</v>
       </c>
       <c r="B231" t="n">
@@ -6189,7 +6189,7 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="1" t="n">
+      <c r="A232" t="n">
         <v>290</v>
       </c>
       <c r="B232" t="n">
@@ -6218,7 +6218,7 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="1" t="n">
+      <c r="A233" t="n">
         <v>291</v>
       </c>
       <c r="B233" t="n">
@@ -6247,7 +6247,7 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="1" t="n">
+      <c r="A234" t="n">
         <v>292</v>
       </c>
       <c r="B234" t="n">
@@ -6276,7 +6276,7 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="1" t="n">
+      <c r="A235" t="n">
         <v>293</v>
       </c>
       <c r="B235" t="n">
@@ -6305,7 +6305,7 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="1" t="n">
+      <c r="A236" t="n">
         <v>294</v>
       </c>
       <c r="B236" t="n">
@@ -6326,7 +6326,7 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="1" t="n">
+      <c r="A237" t="n">
         <v>295</v>
       </c>
       <c r="B237" t="n">
@@ -6355,7 +6355,7 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="1" t="n">
+      <c r="A238" t="n">
         <v>296</v>
       </c>
       <c r="B238" t="n">
@@ -6384,7 +6384,7 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="1" t="n">
+      <c r="A239" t="n">
         <v>298</v>
       </c>
       <c r="B239" t="n">
@@ -6413,7 +6413,7 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="1" t="n">
+      <c r="A240" t="n">
         <v>299</v>
       </c>
       <c r="B240" t="n">
@@ -6442,36 +6442,36 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="1" t="n">
+      <c r="A241" t="n">
         <v>300</v>
       </c>
       <c r="B241" t="n">
         <v>7.2</v>
       </c>
       <c r="C241" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D241" t="n">
         <v>7.3</v>
       </c>
-      <c r="D241" t="n">
+      <c r="E241" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="E241" t="n">
+      <c r="F241" t="n">
         <v>8</v>
       </c>
-      <c r="F241" t="n">
+      <c r="G241" t="n">
         <v>7.4</v>
       </c>
-      <c r="G241" t="n">
+      <c r="H241" t="n">
         <v>7.3</v>
       </c>
-      <c r="H241" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I241" t="n">
-        <v>7.46</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="1" t="n">
+      <c r="A242" t="n">
         <v>301</v>
       </c>
       <c r="B242" t="n">
@@ -6494,7 +6494,7 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="1" t="n">
+      <c r="A243" t="n">
         <v>302</v>
       </c>
       <c r="B243" t="n">
@@ -6523,7 +6523,7 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="1" t="n">
+      <c r="A244" t="n">
         <v>303</v>
       </c>
       <c r="B244" t="n">
@@ -6552,7 +6552,7 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="1" t="n">
+      <c r="A245" t="n">
         <v>305</v>
       </c>
       <c r="B245" t="n">
@@ -6581,7 +6581,7 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="1" t="n">
+      <c r="A246" t="n">
         <v>306</v>
       </c>
       <c r="B246" t="n">
@@ -6610,7 +6610,7 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="1" t="n">
+      <c r="A247" t="n">
         <v>307</v>
       </c>
       <c r="B247" t="n">
@@ -6639,7 +6639,7 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="1" t="n">
+      <c r="A248" t="n">
         <v>308</v>
       </c>
       <c r="B248" t="n">
@@ -6668,7 +6668,7 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="1" t="n">
+      <c r="A249" t="n">
         <v>309</v>
       </c>
       <c r="B249" t="n">
@@ -6697,7 +6697,7 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="1" t="n">
+      <c r="A250" t="n">
         <v>310</v>
       </c>
       <c r="B250" t="n">
@@ -6726,7 +6726,7 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="1" t="n">
+      <c r="A251" t="n">
         <v>311</v>
       </c>
       <c r="B251" t="n">
@@ -6755,7 +6755,7 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="1" t="n">
+      <c r="A252" t="n">
         <v>312</v>
       </c>
       <c r="B252" t="n">
@@ -6784,7 +6784,7 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="1" t="n">
+      <c r="A253" t="n">
         <v>313</v>
       </c>
       <c r="B253" t="n">
@@ -6813,7 +6813,7 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="1" t="n">
+      <c r="A254" t="n">
         <v>314</v>
       </c>
       <c r="B254" t="n">
@@ -6842,7 +6842,7 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="1" t="n">
+      <c r="A255" t="n">
         <v>315</v>
       </c>
       <c r="B255" t="n">
@@ -6871,7 +6871,7 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="1" t="n">
+      <c r="A256" t="n">
         <v>316</v>
       </c>
       <c r="B256" t="n">
@@ -6900,7 +6900,7 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="1" t="n">
+      <c r="A257" t="n">
         <v>317</v>
       </c>
       <c r="B257" t="n">
@@ -6929,7 +6929,7 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="1" t="n">
+      <c r="A258" t="n">
         <v>318</v>
       </c>
       <c r="B258" t="n">
@@ -6958,7 +6958,7 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="1" t="n">
+      <c r="A259" t="n">
         <v>319</v>
       </c>
       <c r="B259" t="n">
@@ -6977,7 +6977,7 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="1" t="n">
+      <c r="A260" t="n">
         <v>320</v>
       </c>
       <c r="B260" t="n">
@@ -7004,7 +7004,7 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="1" t="n">
+      <c r="A261" t="n">
         <v>321</v>
       </c>
       <c r="B261" t="n">
@@ -7033,7 +7033,7 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="1" t="n">
+      <c r="A262" t="n">
         <v>322</v>
       </c>
       <c r="B262" t="n">
@@ -7062,7 +7062,7 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="1" t="n">
+      <c r="A263" t="n">
         <v>323</v>
       </c>
       <c r="B263" t="n">
@@ -7091,7 +7091,7 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="1" t="n">
+      <c r="A264" t="n">
         <v>324</v>
       </c>
       <c r="B264" t="n">
@@ -7120,7 +7120,7 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="1" t="n">
+      <c r="A265" t="n">
         <v>325</v>
       </c>
       <c r="B265" t="n">
@@ -7145,7 +7145,7 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="1" t="n">
+      <c r="A266" t="n">
         <v>326</v>
       </c>
       <c r="B266" t="n">
@@ -7170,7 +7170,7 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="1" t="n">
+      <c r="A267" t="n">
         <v>327</v>
       </c>
       <c r="B267" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
       <c r="I267" t="inlineStr"/>
     </row>
     <row r="268">
-      <c r="A268" s="1" t="n">
+      <c r="A268" t="n">
         <v>328</v>
       </c>
       <c r="B268" t="n">
@@ -7212,7 +7212,7 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="1" t="n">
+      <c r="A269" t="n">
         <v>330</v>
       </c>
       <c r="B269" t="n">
@@ -7241,7 +7241,7 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="1" t="n">
+      <c r="A270" t="n">
         <v>332</v>
       </c>
       <c r="B270" t="n">
@@ -7270,7 +7270,7 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="1" t="n">
+      <c r="A271" t="n">
         <v>333</v>
       </c>
       <c r="B271" t="n">
@@ -7299,7 +7299,7 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="1" t="n">
+      <c r="A272" t="n">
         <v>335</v>
       </c>
       <c r="B272" t="n">
@@ -7324,7 +7324,7 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="1" t="n">
+      <c r="A273" t="n">
         <v>336</v>
       </c>
       <c r="B273" t="n">
@@ -7353,7 +7353,7 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="1" t="n">
+      <c r="A274" t="n">
         <v>337</v>
       </c>
       <c r="B274" t="n">
@@ -7382,7 +7382,7 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="1" t="n">
+      <c r="A275" t="n">
         <v>338</v>
       </c>
       <c r="B275" t="n">
@@ -7401,7 +7401,7 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="1" t="n">
+      <c r="A276" t="n">
         <v>339</v>
       </c>
       <c r="B276" t="n">
@@ -7418,36 +7418,36 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="1" t="n">
+      <c r="A277" t="n">
         <v>340</v>
       </c>
       <c r="B277" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="C277" t="n">
         <v>7.5</v>
       </c>
-      <c r="C277" t="n">
-        <v>7</v>
-      </c>
       <c r="D277" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="E277" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F277" t="n">
         <v>7.2</v>
       </c>
-      <c r="F277" t="n">
-        <v>7</v>
-      </c>
       <c r="G277" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H277" t="n">
-        <v>7.8</v>
+        <v>6.5</v>
       </c>
       <c r="I277" t="n">
-        <v>7.07</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="1" t="n">
+      <c r="A278" t="n">
         <v>341</v>
       </c>
       <c r="B278" t="n">
@@ -7476,7 +7476,7 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="1" t="n">
+      <c r="A279" t="n">
         <v>342</v>
       </c>
       <c r="B279" t="n">
@@ -7505,7 +7505,7 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="1" t="n">
+      <c r="A280" t="n">
         <v>343</v>
       </c>
       <c r="B280" t="n">
@@ -7534,7 +7534,7 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="1" t="n">
+      <c r="A281" t="n">
         <v>344</v>
       </c>
       <c r="B281" t="n">
@@ -7563,7 +7563,7 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="1" t="n">
+      <c r="A282" t="n">
         <v>345</v>
       </c>
       <c r="B282" t="n">
@@ -7592,7 +7592,7 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="1" t="n">
+      <c r="A283" t="n">
         <v>346</v>
       </c>
       <c r="B283" t="n">
@@ -7621,7 +7621,7 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="1" t="n">
+      <c r="A284" t="n">
         <v>347</v>
       </c>
       <c r="B284" t="n">
@@ -7650,7 +7650,7 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="1" t="n">
+      <c r="A285" t="n">
         <v>348</v>
       </c>
       <c r="B285" t="n">
@@ -7679,7 +7679,7 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="1" t="n">
+      <c r="A286" t="n">
         <v>349</v>
       </c>
       <c r="B286" t="n">
@@ -7708,7 +7708,7 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="1" t="n">
+      <c r="A287" t="n">
         <v>350</v>
       </c>
       <c r="B287" t="n">
@@ -7737,36 +7737,36 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="1" t="n">
+      <c r="A288" t="n">
         <v>351</v>
       </c>
       <c r="B288" t="n">
-        <v>6.3</v>
+        <v>7.3</v>
       </c>
       <c r="C288" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="D288" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="E288" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="F288" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="G288" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H288" t="n">
         <v>6.2</v>
       </c>
-      <c r="H288" t="n">
-        <v>6.4</v>
-      </c>
       <c r="I288" t="n">
-        <v>6.51</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="1" t="n">
+      <c r="A289" t="n">
         <v>352</v>
       </c>
       <c r="B289" t="n">
@@ -7795,7 +7795,7 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="1" t="n">
+      <c r="A290" t="n">
         <v>353</v>
       </c>
       <c r="B290" t="n">
@@ -7824,7 +7824,7 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="1" t="n">
+      <c r="A291" t="n">
         <v>354</v>
       </c>
       <c r="B291" t="n">
@@ -7853,7 +7853,7 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="1" t="n">
+      <c r="A292" t="n">
         <v>355</v>
       </c>
       <c r="B292" t="n">
@@ -7870,7 +7870,7 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="1" t="n">
+      <c r="A293" t="n">
         <v>356</v>
       </c>
       <c r="B293" t="n">
@@ -7889,7 +7889,7 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="1" t="n">
+      <c r="A294" t="n">
         <v>357</v>
       </c>
       <c r="B294" t="n">
@@ -7914,7 +7914,7 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="1" t="n">
+      <c r="A295" t="n">
         <v>358</v>
       </c>
       <c r="B295" t="n">
@@ -7943,7 +7943,7 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="1" t="n">
+      <c r="A296" t="n">
         <v>359</v>
       </c>
       <c r="B296" t="n">
@@ -7972,7 +7972,7 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="1" t="n">
+      <c r="A297" t="n">
         <v>360</v>
       </c>
       <c r="B297" t="n">
@@ -8001,7 +8001,7 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="1" t="n">
+      <c r="A298" t="n">
         <v>362</v>
       </c>
       <c r="B298" t="n">
@@ -8030,7 +8030,7 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="1" t="n">
+      <c r="A299" t="n">
         <v>364</v>
       </c>
       <c r="B299" t="n">
@@ -8059,7 +8059,7 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="1" t="n">
+      <c r="A300" t="n">
         <v>365</v>
       </c>
       <c r="B300" t="n">
@@ -8080,7 +8080,7 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="1" t="n">
+      <c r="A301" t="n">
         <v>366</v>
       </c>
       <c r="B301" t="n">
@@ -8109,7 +8109,7 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="1" t="n">
+      <c r="A302" t="n">
         <v>367</v>
       </c>
       <c r="B302" t="n">
@@ -8138,7 +8138,7 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="1" t="n">
+      <c r="A303" t="n">
         <v>368</v>
       </c>
       <c r="B303" t="n">
@@ -8167,7 +8167,7 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="1" t="n">
+      <c r="A304" t="n">
         <v>369</v>
       </c>
       <c r="B304" t="n">
@@ -8196,7 +8196,7 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="1" t="n">
+      <c r="A305" t="n">
         <v>370</v>
       </c>
       <c r="B305" t="n">
@@ -8225,7 +8225,7 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="1" t="n">
+      <c r="A306" t="n">
         <v>371</v>
       </c>
       <c r="B306" t="n">
@@ -8254,7 +8254,7 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="1" t="n">
+      <c r="A307" t="n">
         <v>372</v>
       </c>
       <c r="B307" t="n">
@@ -8283,7 +8283,7 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="1" t="n">
+      <c r="A308" t="n">
         <v>373</v>
       </c>
       <c r="B308" t="n">
@@ -8312,7 +8312,7 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="1" t="n">
+      <c r="A309" t="n">
         <v>374</v>
       </c>
       <c r="B309" t="n">
@@ -8341,7 +8341,7 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="1" t="n">
+      <c r="A310" t="n">
         <v>375</v>
       </c>
       <c r="B310" t="n">
@@ -8370,7 +8370,7 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="1" t="n">
+      <c r="A311" t="n">
         <v>376</v>
       </c>
       <c r="B311" t="n">
@@ -8399,7 +8399,7 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="1" t="n">
+      <c r="A312" t="n">
         <v>377</v>
       </c>
       <c r="B312" t="n">
@@ -8428,7 +8428,7 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="1" t="n">
+      <c r="A313" t="n">
         <v>378</v>
       </c>
       <c r="B313" t="n">
@@ -8457,7 +8457,7 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="1" t="n">
+      <c r="A314" t="n">
         <v>379</v>
       </c>
       <c r="B314" t="n">
@@ -8486,7 +8486,7 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="1" t="n">
+      <c r="A315" t="n">
         <v>380</v>
       </c>
       <c r="B315" t="n">
@@ -8511,7 +8511,7 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="1" t="n">
+      <c r="A316" t="n">
         <v>381</v>
       </c>
       <c r="B316" t="n">
@@ -8540,7 +8540,7 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="1" t="n">
+      <c r="A317" t="n">
         <v>382</v>
       </c>
       <c r="B317" t="n">
@@ -8569,7 +8569,7 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="1" t="n">
+      <c r="A318" t="n">
         <v>383</v>
       </c>
       <c r="B318" t="n">
@@ -8598,7 +8598,7 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="1" t="n">
+      <c r="A319" t="n">
         <v>384</v>
       </c>
       <c r="B319" t="n">
@@ -8627,7 +8627,7 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="1" t="n">
+      <c r="A320" t="n">
         <v>385</v>
       </c>
       <c r="B320" t="n">
@@ -8656,7 +8656,7 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="1" t="n">
+      <c r="A321" t="n">
         <v>386</v>
       </c>
       <c r="B321" t="n">
@@ -8675,7 +8675,7 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="1" t="n">
+      <c r="A322" t="n">
         <v>387</v>
       </c>
       <c r="B322" t="n">
@@ -8704,7 +8704,7 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="1" t="n">
+      <c r="A323" t="n">
         <v>388</v>
       </c>
       <c r="B323" t="n">
@@ -8733,7 +8733,7 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="1" t="n">
+      <c r="A324" t="n">
         <v>389</v>
       </c>
       <c r="B324" t="n">
@@ -8762,7 +8762,7 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="1" t="n">
+      <c r="A325" t="n">
         <v>390</v>
       </c>
       <c r="B325" t="inlineStr"/>
@@ -8775,7 +8775,7 @@
       <c r="I325" t="inlineStr"/>
     </row>
     <row r="326">
-      <c r="A326" s="1" t="n">
+      <c r="A326" t="n">
         <v>391</v>
       </c>
       <c r="B326" t="n">
@@ -8800,7 +8800,7 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="1" t="n">
+      <c r="A327" t="n">
         <v>392</v>
       </c>
       <c r="B327" t="inlineStr"/>
@@ -8813,7 +8813,7 @@
       <c r="I327" t="inlineStr"/>
     </row>
     <row r="328">
-      <c r="A328" s="1" t="n">
+      <c r="A328" t="n">
         <v>393</v>
       </c>
       <c r="B328" t="n">
@@ -8842,7 +8842,7 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="1" t="n">
+      <c r="A329" t="n">
         <v>394</v>
       </c>
       <c r="B329" t="n">
@@ -8871,7 +8871,7 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="1" t="n">
+      <c r="A330" t="n">
         <v>395</v>
       </c>
       <c r="B330" t="n">
@@ -8900,7 +8900,7 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="1" t="n">
+      <c r="A331" t="n">
         <v>396</v>
       </c>
       <c r="B331" t="inlineStr"/>
@@ -8913,7 +8913,7 @@
       <c r="I331" t="inlineStr"/>
     </row>
     <row r="332">
-      <c r="A332" s="1" t="n">
+      <c r="A332" t="n">
         <v>397</v>
       </c>
       <c r="B332" t="n">
@@ -8942,7 +8942,7 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="1" t="n">
+      <c r="A333" t="n">
         <v>398</v>
       </c>
       <c r="B333" t="n">
@@ -8971,7 +8971,7 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" s="1" t="n">
+      <c r="A334" t="n">
         <v>399</v>
       </c>
       <c r="B334" t="n">
@@ -9000,7 +9000,7 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="1" t="n">
+      <c r="A335" t="n">
         <v>400</v>
       </c>
       <c r="B335" t="inlineStr"/>
@@ -9013,7 +9013,7 @@
       <c r="I335" t="inlineStr"/>
     </row>
     <row r="336">
-      <c r="A336" s="1" t="n">
+      <c r="A336" t="n">
         <v>401</v>
       </c>
       <c r="B336" t="n">
@@ -9042,7 +9042,7 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" s="1" t="n">
+      <c r="A337" t="n">
         <v>402</v>
       </c>
       <c r="B337" t="n">
@@ -9071,7 +9071,7 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" s="1" t="n">
+      <c r="A338" t="n">
         <v>403</v>
       </c>
       <c r="B338" t="n">
@@ -9088,7 +9088,7 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="1" t="n">
+      <c r="A339" t="n">
         <v>404</v>
       </c>
       <c r="B339" t="n">
@@ -9117,7 +9117,7 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="1" t="n">
+      <c r="A340" t="n">
         <v>405</v>
       </c>
       <c r="B340" t="n">
@@ -9146,7 +9146,7 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="1" t="n">
+      <c r="A341" t="n">
         <v>406</v>
       </c>
       <c r="B341" t="n">
@@ -9175,7 +9175,7 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="1" t="n">
+      <c r="A342" t="n">
         <v>407</v>
       </c>
       <c r="B342" t="n">
@@ -9204,7 +9204,7 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="1" t="n">
+      <c r="A343" t="n">
         <v>408</v>
       </c>
       <c r="B343" t="n">
@@ -9233,7 +9233,7 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="1" t="n">
+      <c r="A344" t="n">
         <v>409</v>
       </c>
       <c r="B344" t="n">
@@ -9262,7 +9262,7 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="1" t="n">
+      <c r="A345" t="n">
         <v>410</v>
       </c>
       <c r="B345" t="n">
@@ -9291,7 +9291,7 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" s="1" t="n">
+      <c r="A346" t="n">
         <v>411</v>
       </c>
       <c r="B346" t="n">
@@ -9320,7 +9320,7 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" s="1" t="n">
+      <c r="A347" t="n">
         <v>412</v>
       </c>
       <c r="B347" t="n">
@@ -9349,7 +9349,7 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="1" t="n">
+      <c r="A348" t="n">
         <v>413</v>
       </c>
       <c r="B348" t="n">
@@ -9376,7 +9376,7 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="1" t="n">
+      <c r="A349" t="n">
         <v>414</v>
       </c>
       <c r="B349" t="n">
@@ -9405,7 +9405,7 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="1" t="n">
+      <c r="A350" t="n">
         <v>415</v>
       </c>
       <c r="B350" t="n">
@@ -9434,7 +9434,7 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" s="1" t="n">
+      <c r="A351" t="n">
         <v>416</v>
       </c>
       <c r="B351" t="n">
@@ -9463,7 +9463,7 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" s="1" t="n">
+      <c r="A352" t="n">
         <v>417</v>
       </c>
       <c r="B352" t="n">
@@ -9492,7 +9492,7 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" s="1" t="n">
+      <c r="A353" t="n">
         <v>418</v>
       </c>
       <c r="B353" t="n">
@@ -9521,7 +9521,7 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" s="1" t="n">
+      <c r="A354" t="n">
         <v>419</v>
       </c>
       <c r="B354" t="n">
@@ -9550,11 +9550,11 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" s="1" t="n">
+      <c r="A355" t="n">
         <v>420</v>
       </c>
       <c r="B355" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C355" t="n">
         <v>8</v>
@@ -9575,11 +9575,11 @@
         <v>6.7</v>
       </c>
       <c r="I355" t="n">
-        <v>7.21</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="1" t="n">
+      <c r="A356" t="n">
         <v>421</v>
       </c>
       <c r="B356" t="n">
@@ -9608,7 +9608,7 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" s="1" t="n">
+      <c r="A357" t="n">
         <v>422</v>
       </c>
       <c r="B357" t="n">
@@ -9633,36 +9633,36 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" s="1" t="n">
+      <c r="A358" t="n">
         <v>423</v>
       </c>
       <c r="B358" t="n">
         <v>6.7</v>
       </c>
       <c r="C358" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="D358" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="E358" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F358" t="n">
         <v>6.1</v>
       </c>
-      <c r="F358" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G358" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H358" t="n">
         <v>6.2</v>
       </c>
-      <c r="H358" t="n">
-        <v>7.7</v>
-      </c>
       <c r="I358" t="n">
-        <v>6.69</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="359">
-      <c r="A359" s="1" t="n">
+      <c r="A359" t="n">
         <v>424</v>
       </c>
       <c r="B359" t="n">
@@ -9681,7 +9681,7 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" s="1" t="n">
+      <c r="A360" t="n">
         <v>425</v>
       </c>
       <c r="B360" t="inlineStr"/>
@@ -9694,7 +9694,7 @@
       <c r="I360" t="inlineStr"/>
     </row>
     <row r="361">
-      <c r="A361" s="1" t="n">
+      <c r="A361" t="n">
         <v>426</v>
       </c>
       <c r="B361" t="n">
@@ -9723,7 +9723,7 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" s="1" t="n">
+      <c r="A362" t="n">
         <v>427</v>
       </c>
       <c r="B362" t="n">
@@ -9752,7 +9752,7 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" s="1" t="n">
+      <c r="A363" t="n">
         <v>428</v>
       </c>
       <c r="B363" t="n">
@@ -9781,7 +9781,7 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" s="1" t="n">
+      <c r="A364" t="n">
         <v>429</v>
       </c>
       <c r="B364" t="n">
@@ -9810,7 +9810,7 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" s="1" t="n">
+      <c r="A365" t="n">
         <v>430</v>
       </c>
       <c r="B365" t="n">
@@ -9839,7 +9839,7 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" s="1" t="n">
+      <c r="A366" t="n">
         <v>431</v>
       </c>
       <c r="B366" t="n">
@@ -9868,7 +9868,7 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" s="1" t="n">
+      <c r="A367" t="n">
         <v>432</v>
       </c>
       <c r="B367" t="n">
@@ -9897,7 +9897,7 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" s="1" t="n">
+      <c r="A368" t="n">
         <v>433</v>
       </c>
       <c r="B368" t="n">
@@ -9926,7 +9926,7 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" s="1" t="n">
+      <c r="A369" t="n">
         <v>434</v>
       </c>
       <c r="B369" t="n">
@@ -9955,7 +9955,7 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" s="1" t="n">
+      <c r="A370" t="n">
         <v>435</v>
       </c>
       <c r="B370" t="n">
@@ -9984,7 +9984,7 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" s="1" t="n">
+      <c r="A371" t="n">
         <v>436</v>
       </c>
       <c r="B371" t="n">
@@ -10003,7 +10003,7 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" s="1" t="n">
+      <c r="A372" t="n">
         <v>437</v>
       </c>
       <c r="B372" t="n">
@@ -10032,7 +10032,7 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" s="1" t="n">
+      <c r="A373" t="n">
         <v>438</v>
       </c>
       <c r="B373" t="n">
@@ -10057,7 +10057,7 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" s="1" t="n">
+      <c r="A374" t="n">
         <v>439</v>
       </c>
       <c r="B374" t="n">
@@ -10086,7 +10086,7 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" s="1" t="n">
+      <c r="A375" t="n">
         <v>440</v>
       </c>
       <c r="B375" t="n">
@@ -10115,7 +10115,7 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" s="1" t="n">
+      <c r="A376" t="n">
         <v>441</v>
       </c>
       <c r="B376" t="n">
@@ -10144,7 +10144,7 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" s="1" t="n">
+      <c r="A377" t="n">
         <v>442</v>
       </c>
       <c r="B377" t="n">
@@ -10173,7 +10173,7 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" s="1" t="n">
+      <c r="A378" t="n">
         <v>443</v>
       </c>
       <c r="B378" t="n">
@@ -10202,7 +10202,7 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" s="1" t="n">
+      <c r="A379" t="n">
         <v>444</v>
       </c>
       <c r="B379" t="n">
@@ -10231,7 +10231,7 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" s="1" t="n">
+      <c r="A380" t="n">
         <v>445</v>
       </c>
       <c r="B380" t="n">
@@ -10260,7 +10260,7 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" s="1" t="n">
+      <c r="A381" t="n">
         <v>446</v>
       </c>
       <c r="B381" t="n">
@@ -10289,7 +10289,7 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" s="1" t="n">
+      <c r="A382" t="n">
         <v>447</v>
       </c>
       <c r="B382" t="n">
@@ -10312,7 +10312,7 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" s="1" t="n">
+      <c r="A383" t="n">
         <v>448</v>
       </c>
       <c r="B383" t="inlineStr"/>
@@ -10325,7 +10325,7 @@
       <c r="I383" t="inlineStr"/>
     </row>
     <row r="384">
-      <c r="A384" s="1" t="n">
+      <c r="A384" t="n">
         <v>449</v>
       </c>
       <c r="B384" t="inlineStr"/>
@@ -10338,7 +10338,7 @@
       <c r="I384" t="inlineStr"/>
     </row>
     <row r="385">
-      <c r="A385" s="1" t="n">
+      <c r="A385" t="n">
         <v>450</v>
       </c>
       <c r="B385" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
       <c r="I385" t="inlineStr"/>
     </row>
     <row r="386">
-      <c r="A386" s="1" t="n">
+      <c r="A386" t="n">
         <v>451</v>
       </c>
       <c r="B386" t="n">
@@ -10380,7 +10380,7 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="1" t="n">
+      <c r="A387" t="n">
         <v>452</v>
       </c>
       <c r="B387" t="n">
@@ -10409,36 +10409,36 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="1" t="n">
+      <c r="A388" t="n">
         <v>453</v>
       </c>
       <c r="B388" t="n">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="C388" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="D388" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="E388" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="F388" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="G388" t="n">
         <v>7.4</v>
       </c>
-      <c r="G388" t="n">
+      <c r="H388" t="n">
         <v>6.1</v>
       </c>
-      <c r="H388" t="n">
-        <v>6.2</v>
-      </c>
       <c r="I388" t="n">
-        <v>6.47</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="1" t="n">
+      <c r="A389" t="n">
         <v>454</v>
       </c>
       <c r="B389" t="n">
@@ -10467,7 +10467,7 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="1" t="n">
+      <c r="A390" t="n">
         <v>455</v>
       </c>
       <c r="B390" t="n">
@@ -10496,7 +10496,7 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" s="1" t="n">
+      <c r="A391" t="n">
         <v>456</v>
       </c>
       <c r="B391" t="n">
@@ -10525,7 +10525,7 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" s="1" t="n">
+      <c r="A392" t="n">
         <v>457</v>
       </c>
       <c r="B392" t="n">
@@ -10554,7 +10554,7 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" s="1" t="n">
+      <c r="A393" t="n">
         <v>458</v>
       </c>
       <c r="B393" t="n">
@@ -10583,20 +10583,20 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" s="1" t="n">
+      <c r="A394" t="n">
         <v>459</v>
       </c>
       <c r="B394" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C394" t="n">
         <v>6</v>
       </c>
-      <c r="C394" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D394" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="E394" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="F394" t="n">
         <v>6.6</v>
@@ -10604,13 +10604,15 @@
       <c r="G394" t="n">
         <v>6.6</v>
       </c>
-      <c r="H394" t="inlineStr"/>
+      <c r="H394" t="n">
+        <v>6.6</v>
+      </c>
       <c r="I394" t="n">
-        <v>6.5</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="395">
-      <c r="A395" s="1" t="n">
+      <c r="A395" t="n">
         <v>460</v>
       </c>
       <c r="B395" t="n">
@@ -10627,7 +10629,7 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" s="1" t="n">
+      <c r="A396" t="n">
         <v>461</v>
       </c>
       <c r="B396" t="n">
@@ -10656,7 +10658,7 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" s="1" t="n">
+      <c r="A397" t="n">
         <v>462</v>
       </c>
       <c r="B397" t="n">
@@ -10685,7 +10687,7 @@
       </c>
     </row>
     <row r="398">
-      <c r="A398" s="1" t="n">
+      <c r="A398" t="n">
         <v>463</v>
       </c>
       <c r="B398" t="n">
@@ -10714,7 +10716,7 @@
       </c>
     </row>
     <row r="399">
-      <c r="A399" s="1" t="n">
+      <c r="A399" t="n">
         <v>464</v>
       </c>
       <c r="B399" t="n">
@@ -10743,7 +10745,7 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" s="1" t="n">
+      <c r="A400" t="n">
         <v>465</v>
       </c>
       <c r="B400" t="n">
@@ -10764,7 +10766,7 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" s="1" t="n">
+      <c r="A401" t="n">
         <v>466</v>
       </c>
       <c r="B401" t="n">
@@ -10789,7 +10791,7 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" s="1" t="n">
+      <c r="A402" t="n">
         <v>467</v>
       </c>
       <c r="B402" t="n">
@@ -10818,7 +10820,7 @@
       </c>
     </row>
     <row r="403">
-      <c r="A403" s="1" t="n">
+      <c r="A403" t="n">
         <v>468</v>
       </c>
       <c r="B403" t="n">
@@ -10847,7 +10849,7 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" s="1" t="n">
+      <c r="A404" t="n">
         <v>469</v>
       </c>
       <c r="B404" t="n">
@@ -10876,7 +10878,7 @@
       </c>
     </row>
     <row r="405">
-      <c r="A405" s="1" t="n">
+      <c r="A405" t="n">
         <v>470</v>
       </c>
       <c r="B405" t="n">
@@ -10901,36 +10903,36 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" s="1" t="n">
+      <c r="A406" t="n">
         <v>471</v>
       </c>
       <c r="B406" t="n">
-        <v>6.9</v>
+        <v>6.1</v>
       </c>
       <c r="C406" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D406" t="n">
         <v>7.4</v>
       </c>
-      <c r="D406" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E406" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="F406" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G406" t="n">
         <v>6.1</v>
       </c>
-      <c r="G406" t="n">
-        <v>6.9</v>
-      </c>
       <c r="H406" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="I406" t="n">
-        <v>6.84</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="407">
-      <c r="A407" s="1" t="n">
+      <c r="A407" t="n">
         <v>472</v>
       </c>
       <c r="B407" t="inlineStr"/>
@@ -10943,7 +10945,7 @@
       <c r="I407" t="inlineStr"/>
     </row>
     <row r="408">
-      <c r="A408" s="1" t="n">
+      <c r="A408" t="n">
         <v>473</v>
       </c>
       <c r="B408" t="n">
@@ -10972,7 +10974,7 @@
       </c>
     </row>
     <row r="409">
-      <c r="A409" s="1" t="n">
+      <c r="A409" t="n">
         <v>474</v>
       </c>
       <c r="B409" t="n">
@@ -10993,7 +10995,7 @@
       </c>
     </row>
     <row r="410">
-      <c r="A410" s="1" t="n">
+      <c r="A410" t="n">
         <v>475</v>
       </c>
       <c r="B410" t="inlineStr"/>
@@ -11006,7 +11008,7 @@
       <c r="I410" t="inlineStr"/>
     </row>
     <row r="411">
-      <c r="A411" s="1" t="n">
+      <c r="A411" t="n">
         <v>476</v>
       </c>
       <c r="B411" t="inlineStr"/>
@@ -11019,7 +11021,7 @@
       <c r="I411" t="inlineStr"/>
     </row>
     <row r="412">
-      <c r="A412" s="1" t="n">
+      <c r="A412" t="n">
         <v>477</v>
       </c>
       <c r="B412" t="inlineStr"/>
@@ -11032,7 +11034,7 @@
       <c r="I412" t="inlineStr"/>
     </row>
     <row r="413">
-      <c r="A413" s="1" t="n">
+      <c r="A413" t="n">
         <v>478</v>
       </c>
       <c r="B413" t="n">
@@ -11053,7 +11055,7 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" s="1" t="n">
+      <c r="A414" t="n">
         <v>479</v>
       </c>
       <c r="B414" t="n">
@@ -11082,7 +11084,7 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" s="1" t="n">
+      <c r="A415" t="n">
         <v>480</v>
       </c>
       <c r="B415" t="n">
@@ -11111,7 +11113,7 @@
       </c>
     </row>
     <row r="416">
-      <c r="A416" s="1" t="n">
+      <c r="A416" t="n">
         <v>481</v>
       </c>
       <c r="B416" t="inlineStr"/>
@@ -11124,7 +11126,7 @@
       <c r="I416" t="inlineStr"/>
     </row>
     <row r="417">
-      <c r="A417" s="1" t="n">
+      <c r="A417" t="n">
         <v>482</v>
       </c>
       <c r="B417" t="inlineStr"/>
@@ -11137,7 +11139,7 @@
       <c r="I417" t="inlineStr"/>
     </row>
     <row r="418">
-      <c r="A418" s="1" t="n">
+      <c r="A418" t="n">
         <v>483</v>
       </c>
       <c r="B418" t="inlineStr"/>
@@ -11150,7 +11152,7 @@
       <c r="I418" t="inlineStr"/>
     </row>
     <row r="419">
-      <c r="A419" s="1" t="n">
+      <c r="A419" t="n">
         <v>484</v>
       </c>
       <c r="B419" t="n">
@@ -11179,36 +11181,36 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" s="1" t="n">
+      <c r="A420" t="n">
         <v>485</v>
       </c>
       <c r="B420" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="C420" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D420" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E420" t="n">
         <v>7.2</v>
       </c>
-      <c r="E420" t="n">
+      <c r="F420" t="n">
         <v>6.2</v>
       </c>
-      <c r="F420" t="n">
-        <v>7</v>
-      </c>
       <c r="G420" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="H420" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="I420" t="n">
-        <v>6.66</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="421">
-      <c r="A421" s="1" t="n">
+      <c r="A421" t="n">
         <v>486</v>
       </c>
       <c r="B421" t="n">
@@ -11237,7 +11239,7 @@
       </c>
     </row>
     <row r="422">
-      <c r="A422" s="1" t="n">
+      <c r="A422" t="n">
         <v>487</v>
       </c>
       <c r="B422" t="n">
@@ -11266,7 +11268,7 @@
       </c>
     </row>
     <row r="423">
-      <c r="A423" s="1" t="n">
+      <c r="A423" t="n">
         <v>488</v>
       </c>
       <c r="B423" t="n">
@@ -11293,28 +11295,30 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" s="1" t="n">
+      <c r="A424" t="n">
         <v>489</v>
       </c>
       <c r="B424" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="C424" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D424" t="n">
         <v>6.2</v>
       </c>
-      <c r="D424" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="E424" t="inlineStr"/>
+      <c r="E424" t="n">
+        <v>6.7</v>
+      </c>
       <c r="F424" t="inlineStr"/>
       <c r="G424" t="inlineStr"/>
       <c r="H424" t="inlineStr"/>
       <c r="I424" t="n">
-        <v>6.47</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="425">
-      <c r="A425" s="1" t="n">
+      <c r="A425" t="n">
         <v>490</v>
       </c>
       <c r="B425" t="n">
@@ -11343,7 +11347,7 @@
       </c>
     </row>
     <row r="426">
-      <c r="A426" s="1" t="n">
+      <c r="A426" t="n">
         <v>491</v>
       </c>
       <c r="B426" t="n">
@@ -11372,7 +11376,7 @@
       </c>
     </row>
     <row r="427">
-      <c r="A427" s="1" t="n">
+      <c r="A427" t="n">
         <v>492</v>
       </c>
       <c r="B427" t="n">
@@ -11401,7 +11405,7 @@
       </c>
     </row>
     <row r="428">
-      <c r="A428" s="1" t="n">
+      <c r="A428" t="n">
         <v>493</v>
       </c>
       <c r="B428" t="n">
@@ -11430,7 +11434,7 @@
       </c>
     </row>
     <row r="429">
-      <c r="A429" s="1" t="n">
+      <c r="A429" t="n">
         <v>494</v>
       </c>
       <c r="B429" t="n">
@@ -11459,7 +11463,7 @@
       </c>
     </row>
     <row r="430">
-      <c r="A430" s="1" t="n">
+      <c r="A430" t="n">
         <v>495</v>
       </c>
       <c r="B430" t="n">
@@ -11488,7 +11492,7 @@
       </c>
     </row>
     <row r="431">
-      <c r="A431" s="1" t="n">
+      <c r="A431" t="n">
         <v>496</v>
       </c>
       <c r="B431" t="n">
@@ -11511,7 +11515,7 @@
       </c>
     </row>
     <row r="432">
-      <c r="A432" s="1" t="n">
+      <c r="A432" t="n">
         <v>497</v>
       </c>
       <c r="B432" t="n">
@@ -11540,7 +11544,7 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" s="1" t="n">
+      <c r="A433" t="n">
         <v>498</v>
       </c>
       <c r="B433" t="n">
@@ -11569,7 +11573,7 @@
       </c>
     </row>
     <row r="434">
-      <c r="A434" s="1" t="n">
+      <c r="A434" t="n">
         <v>499</v>
       </c>
       <c r="B434" t="n">
@@ -11598,7 +11602,7 @@
       </c>
     </row>
     <row r="435">
-      <c r="A435" s="1" t="n">
+      <c r="A435" t="n">
         <v>500</v>
       </c>
       <c r="B435" t="inlineStr"/>
@@ -11611,7 +11615,7 @@
       <c r="I435" t="inlineStr"/>
     </row>
     <row r="436">
-      <c r="A436" s="1" t="n">
+      <c r="A436" t="n">
         <v>501</v>
       </c>
       <c r="B436" t="n">
@@ -11640,7 +11644,7 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" s="1" t="n">
+      <c r="A437" t="n">
         <v>502</v>
       </c>
       <c r="B437" t="n">
@@ -11669,7 +11673,7 @@
       </c>
     </row>
     <row r="438">
-      <c r="A438" s="1" t="n">
+      <c r="A438" t="n">
         <v>503</v>
       </c>
       <c r="B438" t="n">
@@ -11690,7 +11694,7 @@
       </c>
     </row>
     <row r="439">
-      <c r="A439" s="1" t="n">
+      <c r="A439" t="n">
         <v>504</v>
       </c>
       <c r="B439" t="n">
@@ -11713,7 +11717,7 @@
       </c>
     </row>
     <row r="440">
-      <c r="A440" s="1" t="n">
+      <c r="A440" t="n">
         <v>505</v>
       </c>
       <c r="B440" t="n">
@@ -11742,7 +11746,7 @@
       </c>
     </row>
     <row r="441">
-      <c r="A441" s="1" t="n">
+      <c r="A441" t="n">
         <v>506</v>
       </c>
       <c r="B441" t="n">
@@ -11759,7 +11763,7 @@
       </c>
     </row>
     <row r="442">
-      <c r="A442" s="1" t="n">
+      <c r="A442" t="n">
         <v>507</v>
       </c>
       <c r="B442" t="n">
@@ -11784,7 +11788,7 @@
       </c>
     </row>
     <row r="443">
-      <c r="A443" s="1" t="n">
+      <c r="A443" t="n">
         <v>508</v>
       </c>
       <c r="B443" t="n">
@@ -11811,7 +11815,7 @@
       </c>
     </row>
     <row r="444">
-      <c r="A444" s="1" t="n">
+      <c r="A444" t="n">
         <v>509</v>
       </c>
       <c r="B444" t="n">
@@ -11840,7 +11844,7 @@
       </c>
     </row>
     <row r="445">
-      <c r="A445" s="1" t="n">
+      <c r="A445" t="n">
         <v>510</v>
       </c>
       <c r="B445" t="n">
@@ -11869,7 +11873,7 @@
       </c>
     </row>
     <row r="446">
-      <c r="A446" s="1" t="n">
+      <c r="A446" t="n">
         <v>511</v>
       </c>
       <c r="B446" t="n">
@@ -11890,7 +11894,7 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" s="1" t="n">
+      <c r="A447" t="n">
         <v>512</v>
       </c>
       <c r="B447" t="inlineStr"/>
@@ -11903,7 +11907,7 @@
       <c r="I447" t="inlineStr"/>
     </row>
     <row r="448">
-      <c r="A448" s="1" t="n">
+      <c r="A448" t="n">
         <v>513</v>
       </c>
       <c r="B448" t="n">
@@ -11932,7 +11936,7 @@
       </c>
     </row>
     <row r="449">
-      <c r="A449" s="1" t="n">
+      <c r="A449" t="n">
         <v>514</v>
       </c>
       <c r="B449" t="n">
@@ -11961,7 +11965,7 @@
       </c>
     </row>
     <row r="450">
-      <c r="A450" s="1" t="n">
+      <c r="A450" t="n">
         <v>515</v>
       </c>
       <c r="B450" t="inlineStr"/>
@@ -11974,7 +11978,7 @@
       <c r="I450" t="inlineStr"/>
     </row>
     <row r="451">
-      <c r="A451" s="1" t="n">
+      <c r="A451" t="n">
         <v>516</v>
       </c>
       <c r="B451" t="inlineStr"/>
@@ -11987,7 +11991,7 @@
       <c r="I451" t="inlineStr"/>
     </row>
     <row r="452">
-      <c r="A452" s="1" t="n">
+      <c r="A452" t="n">
         <v>517</v>
       </c>
       <c r="B452" t="n">
@@ -12004,7 +12008,7 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" s="1" t="n">
+      <c r="A453" t="n">
         <v>518</v>
       </c>
       <c r="B453" t="n">
@@ -12029,7 +12033,7 @@
       </c>
     </row>
     <row r="454">
-      <c r="A454" s="1" t="n">
+      <c r="A454" t="n">
         <v>519</v>
       </c>
       <c r="B454" t="inlineStr"/>
@@ -12042,7 +12046,7 @@
       <c r="I454" t="inlineStr"/>
     </row>
     <row r="455">
-      <c r="A455" s="1" t="n">
+      <c r="A455" t="n">
         <v>520</v>
       </c>
       <c r="B455" t="n">
@@ -12071,7 +12075,7 @@
       </c>
     </row>
     <row r="456">
-      <c r="A456" s="1" t="n">
+      <c r="A456" t="n">
         <v>521</v>
       </c>
       <c r="B456" t="n">
@@ -12100,7 +12104,7 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="1" t="n">
+      <c r="A457" t="n">
         <v>522</v>
       </c>
       <c r="B457" t="n">
@@ -12129,7 +12133,7 @@
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="1" t="n">
+      <c r="A458" t="n">
         <v>523</v>
       </c>
       <c r="B458" t="n">
@@ -12158,7 +12162,7 @@
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="1" t="n">
+      <c r="A459" t="n">
         <v>524</v>
       </c>
       <c r="B459" t="n">
@@ -12187,7 +12191,7 @@
       </c>
     </row>
     <row r="460">
-      <c r="A460" s="1" t="n">
+      <c r="A460" t="n">
         <v>525</v>
       </c>
       <c r="B460" t="n">
@@ -12216,7 +12220,7 @@
       </c>
     </row>
     <row r="461">
-      <c r="A461" s="1" t="n">
+      <c r="A461" t="n">
         <v>526</v>
       </c>
       <c r="B461" t="n">
@@ -12245,7 +12249,7 @@
       </c>
     </row>
     <row r="462">
-      <c r="A462" s="1" t="n">
+      <c r="A462" t="n">
         <v>527</v>
       </c>
       <c r="B462" t="n">
@@ -12262,7 +12266,7 @@
       </c>
     </row>
     <row r="463">
-      <c r="A463" s="1" t="n">
+      <c r="A463" t="n">
         <v>528</v>
       </c>
       <c r="B463" t="n">
@@ -12291,7 +12295,7 @@
       </c>
     </row>
     <row r="464">
-      <c r="A464" s="1" t="n">
+      <c r="A464" t="n">
         <v>529</v>
       </c>
       <c r="B464" t="n">
@@ -12320,7 +12324,7 @@
       </c>
     </row>
     <row r="465">
-      <c r="A465" s="1" t="n">
+      <c r="A465" t="n">
         <v>530</v>
       </c>
       <c r="B465" t="n">
@@ -12349,7 +12353,7 @@
       </c>
     </row>
     <row r="466">
-      <c r="A466" s="1" t="n">
+      <c r="A466" t="n">
         <v>531</v>
       </c>
       <c r="B466" t="n">
@@ -12378,7 +12382,7 @@
       </c>
     </row>
     <row r="467">
-      <c r="A467" s="1" t="n">
+      <c r="A467" t="n">
         <v>532</v>
       </c>
       <c r="B467" t="n">
@@ -12407,7 +12411,7 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" s="1" t="n">
+      <c r="A468" t="n">
         <v>533</v>
       </c>
       <c r="B468" t="n">
@@ -12436,7 +12440,7 @@
       </c>
     </row>
     <row r="469">
-      <c r="A469" s="1" t="n">
+      <c r="A469" t="n">
         <v>534</v>
       </c>
       <c r="B469" t="n">
@@ -12465,7 +12469,7 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" s="1" t="n">
+      <c r="A470" t="n">
         <v>535</v>
       </c>
       <c r="B470" t="n">
@@ -12494,7 +12498,7 @@
       </c>
     </row>
     <row r="471">
-      <c r="A471" s="1" t="n">
+      <c r="A471" t="n">
         <v>536</v>
       </c>
       <c r="B471" t="n">
@@ -12523,7 +12527,7 @@
       </c>
     </row>
     <row r="472">
-      <c r="A472" s="1" t="n">
+      <c r="A472" t="n">
         <v>537</v>
       </c>
       <c r="B472" t="n">
@@ -12552,7 +12556,7 @@
       </c>
     </row>
     <row r="473">
-      <c r="A473" s="1" t="n">
+      <c r="A473" t="n">
         <v>538</v>
       </c>
       <c r="B473" t="n">
@@ -12581,7 +12585,7 @@
       </c>
     </row>
     <row r="474">
-      <c r="A474" s="1" t="n">
+      <c r="A474" t="n">
         <v>539</v>
       </c>
       <c r="B474" t="n">
@@ -12610,7 +12614,7 @@
       </c>
     </row>
     <row r="475">
-      <c r="A475" s="1" t="n">
+      <c r="A475" t="n">
         <v>540</v>
       </c>
       <c r="B475" t="n">
@@ -12639,7 +12643,7 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" s="1" t="n">
+      <c r="A476" t="n">
         <v>541</v>
       </c>
       <c r="B476" t="n">
@@ -12668,7 +12672,7 @@
       </c>
     </row>
     <row r="477">
-      <c r="A477" s="1" t="n">
+      <c r="A477" t="n">
         <v>542</v>
       </c>
       <c r="B477" t="inlineStr"/>
@@ -12681,7 +12685,7 @@
       <c r="I477" t="inlineStr"/>
     </row>
     <row r="478">
-      <c r="A478" s="1" t="n">
+      <c r="A478" t="n">
         <v>543</v>
       </c>
       <c r="B478" t="n">
@@ -12710,7 +12714,7 @@
       </c>
     </row>
     <row r="479">
-      <c r="A479" s="1" t="n">
+      <c r="A479" t="n">
         <v>544</v>
       </c>
       <c r="B479" t="n">
@@ -12739,7 +12743,7 @@
       </c>
     </row>
     <row r="480">
-      <c r="A480" s="1" t="n">
+      <c r="A480" t="n">
         <v>545</v>
       </c>
       <c r="B480" t="n">
@@ -12768,7 +12772,7 @@
       </c>
     </row>
     <row r="481">
-      <c r="A481" s="1" t="n">
+      <c r="A481" t="n">
         <v>546</v>
       </c>
       <c r="B481" t="n">
@@ -12795,7 +12799,7 @@
       </c>
     </row>
     <row r="482">
-      <c r="A482" s="1" t="n">
+      <c r="A482" t="n">
         <v>547</v>
       </c>
       <c r="B482" t="n">
@@ -12814,7 +12818,7 @@
       </c>
     </row>
     <row r="483">
-      <c r="A483" s="1" t="n">
+      <c r="A483" t="n">
         <v>548</v>
       </c>
       <c r="B483" t="n">
@@ -12843,7 +12847,7 @@
       </c>
     </row>
     <row r="484">
-      <c r="A484" s="1" t="n">
+      <c r="A484" t="n">
         <v>549</v>
       </c>
       <c r="B484" t="n">
@@ -12864,7 +12868,7 @@
       </c>
     </row>
     <row r="485">
-      <c r="A485" s="1" t="n">
+      <c r="A485" t="n">
         <v>550</v>
       </c>
       <c r="B485" t="n">
@@ -12887,7 +12891,7 @@
       </c>
     </row>
     <row r="486">
-      <c r="A486" s="1" t="n">
+      <c r="A486" t="n">
         <v>551</v>
       </c>
       <c r="B486" t="n">
@@ -12910,36 +12914,36 @@
       </c>
     </row>
     <row r="487">
-      <c r="A487" s="1" t="n">
+      <c r="A487" t="n">
         <v>552</v>
       </c>
       <c r="B487" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C487" t="n">
         <v>7.6</v>
       </c>
-      <c r="C487" t="n">
-        <v>7</v>
-      </c>
       <c r="D487" t="n">
+        <v>7</v>
+      </c>
+      <c r="E487" t="n">
         <v>7.1</v>
       </c>
-      <c r="E487" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F487" t="n">
         <v>6.5</v>
       </c>
       <c r="G487" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="H487" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="I487" t="n">
-        <v>6.9</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="488">
-      <c r="A488" s="1" t="n">
+      <c r="A488" t="n">
         <v>553</v>
       </c>
       <c r="B488" t="n">
@@ -12960,7 +12964,7 @@
       </c>
     </row>
     <row r="489">
-      <c r="A489" s="1" t="n">
+      <c r="A489" t="n">
         <v>554</v>
       </c>
       <c r="B489" t="n">
@@ -12989,7 +12993,7 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" s="1" t="n">
+      <c r="A490" t="n">
         <v>555</v>
       </c>
       <c r="B490" t="n">
@@ -13018,7 +13022,7 @@
       </c>
     </row>
     <row r="491">
-      <c r="A491" s="1" t="n">
+      <c r="A491" t="n">
         <v>556</v>
       </c>
       <c r="B491" t="n">
@@ -13047,7 +13051,7 @@
       </c>
     </row>
     <row r="492">
-      <c r="A492" s="1" t="n">
+      <c r="A492" t="n">
         <v>557</v>
       </c>
       <c r="B492" t="n">
@@ -13076,36 +13080,36 @@
       </c>
     </row>
     <row r="493">
-      <c r="A493" s="1" t="n">
+      <c r="A493" t="n">
         <v>558</v>
       </c>
       <c r="B493" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="C493" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D493" t="n">
         <v>6</v>
       </c>
-      <c r="D493" t="n">
-        <v>7</v>
-      </c>
       <c r="E493" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="F493" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="G493" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H493" t="n">
         <v>7.6</v>
       </c>
-      <c r="H493" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I493" t="n">
-        <v>6.71</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="494">
-      <c r="A494" s="1" t="n">
+      <c r="A494" t="n">
         <v>559</v>
       </c>
       <c r="B494" t="n">
@@ -13134,7 +13138,7 @@
       </c>
     </row>
     <row r="495">
-      <c r="A495" s="1" t="n">
+      <c r="A495" t="n">
         <v>560</v>
       </c>
       <c r="B495" t="n">
@@ -13163,7 +13167,7 @@
       </c>
     </row>
     <row r="496">
-      <c r="A496" s="1" t="n">
+      <c r="A496" t="n">
         <v>561</v>
       </c>
       <c r="B496" t="n">
@@ -13188,7 +13192,7 @@
       </c>
     </row>
     <row r="497">
-      <c r="A497" s="1" t="n">
+      <c r="A497" t="n">
         <v>562</v>
       </c>
       <c r="B497" t="n">
@@ -13211,7 +13215,7 @@
       </c>
     </row>
     <row r="498">
-      <c r="A498" s="1" t="n">
+      <c r="A498" t="n">
         <v>563</v>
       </c>
       <c r="B498" t="n">
@@ -13240,7 +13244,7 @@
       </c>
     </row>
     <row r="499">
-      <c r="A499" s="1" t="n">
+      <c r="A499" t="n">
         <v>564</v>
       </c>
       <c r="B499" t="n">
@@ -13269,7 +13273,7 @@
       </c>
     </row>
     <row r="500">
-      <c r="A500" s="1" t="n">
+      <c r="A500" t="n">
         <v>565</v>
       </c>
       <c r="B500" t="n">
@@ -13298,7 +13302,7 @@
       </c>
     </row>
     <row r="501">
-      <c r="A501" s="1" t="n">
+      <c r="A501" t="n">
         <v>566</v>
       </c>
       <c r="B501" t="n">
@@ -13319,7 +13323,7 @@
       </c>
     </row>
     <row r="502">
-      <c r="A502" s="1" t="n">
+      <c r="A502" t="n">
         <v>567</v>
       </c>
       <c r="B502" t="n">
@@ -13348,7 +13352,7 @@
       </c>
     </row>
     <row r="503">
-      <c r="A503" s="1" t="n">
+      <c r="A503" t="n">
         <v>568</v>
       </c>
       <c r="B503" t="inlineStr"/>
@@ -13361,7 +13365,7 @@
       <c r="I503" t="inlineStr"/>
     </row>
     <row r="504">
-      <c r="A504" s="1" t="n">
+      <c r="A504" t="n">
         <v>569</v>
       </c>
       <c r="B504" t="n">
@@ -13388,7 +13392,7 @@
       </c>
     </row>
     <row r="505">
-      <c r="A505" s="1" t="n">
+      <c r="A505" t="n">
         <v>570</v>
       </c>
       <c r="B505" t="n">
@@ -13417,36 +13421,36 @@
       </c>
     </row>
     <row r="506">
-      <c r="A506" s="1" t="n">
+      <c r="A506" t="n">
         <v>571</v>
       </c>
       <c r="B506" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="C506" t="n">
         <v>6.5</v>
       </c>
       <c r="D506" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E506" t="n">
         <v>7.4</v>
       </c>
-      <c r="E506" t="n">
-        <v>7</v>
-      </c>
       <c r="F506" t="n">
+        <v>7</v>
+      </c>
+      <c r="G506" t="n">
         <v>5.8</v>
       </c>
-      <c r="G506" t="n">
+      <c r="H506" t="n">
         <v>7.6</v>
       </c>
-      <c r="H506" t="n">
-        <v>7.3</v>
-      </c>
       <c r="I506" t="n">
-        <v>6.87</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="507">
-      <c r="A507" s="1" t="n">
+      <c r="A507" t="n">
         <v>572</v>
       </c>
       <c r="B507" t="n">
@@ -13469,7 +13473,7 @@
       </c>
     </row>
     <row r="508">
-      <c r="A508" s="1" t="n">
+      <c r="A508" t="n">
         <v>573</v>
       </c>
       <c r="B508" t="n">
@@ -13498,36 +13502,36 @@
       </c>
     </row>
     <row r="509">
-      <c r="A509" s="1" t="n">
+      <c r="A509" t="n">
         <v>574</v>
       </c>
       <c r="B509" t="n">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="C509" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="D509" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="E509" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="F509" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="G509" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="H509" t="n">
         <v>6.5</v>
       </c>
       <c r="I509" t="n">
-        <v>6.61</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="510">
-      <c r="A510" s="1" t="n">
+      <c r="A510" t="n">
         <v>575</v>
       </c>
       <c r="B510" t="n">
@@ -13546,7 +13550,7 @@
       </c>
     </row>
     <row r="511">
-      <c r="A511" s="1" t="n">
+      <c r="A511" t="n">
         <v>576</v>
       </c>
       <c r="B511" t="n">
@@ -13575,7 +13579,7 @@
       </c>
     </row>
     <row r="512">
-      <c r="A512" s="1" t="n">
+      <c r="A512" t="n">
         <v>577</v>
       </c>
       <c r="B512" t="n">
@@ -13604,7 +13608,7 @@
       </c>
     </row>
     <row r="513">
-      <c r="A513" s="1" t="n">
+      <c r="A513" t="n">
         <v>578</v>
       </c>
       <c r="B513" t="n">
@@ -13633,7 +13637,7 @@
       </c>
     </row>
     <row r="514">
-      <c r="A514" s="1" t="n">
+      <c r="A514" t="n">
         <v>579</v>
       </c>
       <c r="B514" t="n">
@@ -13652,7 +13656,7 @@
       </c>
     </row>
     <row r="515">
-      <c r="A515" s="1" t="n">
+      <c r="A515" t="n">
         <v>580</v>
       </c>
       <c r="B515" t="n">
@@ -13681,7 +13685,7 @@
       </c>
     </row>
     <row r="516">
-      <c r="A516" s="1" t="n">
+      <c r="A516" t="n">
         <v>581</v>
       </c>
       <c r="B516" t="n">
@@ -13710,7 +13714,7 @@
       </c>
     </row>
     <row r="517">
-      <c r="A517" s="1" t="n">
+      <c r="A517" t="n">
         <v>582</v>
       </c>
       <c r="B517" t="n">
@@ -13739,7 +13743,7 @@
       </c>
     </row>
     <row r="518">
-      <c r="A518" s="1" t="n">
+      <c r="A518" t="n">
         <v>583</v>
       </c>
       <c r="B518" t="n">
@@ -13764,7 +13768,7 @@
       </c>
     </row>
     <row r="519">
-      <c r="A519" s="1" t="n">
+      <c r="A519" t="n">
         <v>584</v>
       </c>
       <c r="B519" t="n">
@@ -13793,7 +13797,7 @@
       </c>
     </row>
     <row r="520">
-      <c r="A520" s="1" t="n">
+      <c r="A520" t="n">
         <v>585</v>
       </c>
       <c r="B520" t="n">
@@ -13812,7 +13816,7 @@
       </c>
     </row>
     <row r="521">
-      <c r="A521" s="1" t="n">
+      <c r="A521" t="n">
         <v>586</v>
       </c>
       <c r="B521" t="n">
@@ -13835,7 +13839,7 @@
       </c>
     </row>
     <row r="522">
-      <c r="A522" s="1" t="n">
+      <c r="A522" t="n">
         <v>587</v>
       </c>
       <c r="B522" t="n">
@@ -13864,7 +13868,7 @@
       </c>
     </row>
     <row r="523">
-      <c r="A523" s="1" t="n">
+      <c r="A523" t="n">
         <v>588</v>
       </c>
       <c r="B523" t="n">
@@ -13893,7 +13897,7 @@
       </c>
     </row>
     <row r="524">
-      <c r="A524" s="1" t="n">
+      <c r="A524" t="n">
         <v>589</v>
       </c>
       <c r="B524" t="n">
@@ -13914,7 +13918,7 @@
       </c>
     </row>
     <row r="525">
-      <c r="A525" s="1" t="n">
+      <c r="A525" t="n">
         <v>590</v>
       </c>
       <c r="B525" t="n">
@@ -13943,7 +13947,7 @@
       </c>
     </row>
     <row r="526">
-      <c r="A526" s="1" t="n">
+      <c r="A526" t="n">
         <v>591</v>
       </c>
       <c r="B526" t="n">

--- a/players_ratings.xlsx
+++ b/players_ratings.xlsx
@@ -628,28 +628,28 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="C9" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="D9" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E9" t="n">
         <v>6</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>6.1</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>7.2</v>
       </c>
-      <c r="G9" t="n">
-        <v>7.1</v>
-      </c>
       <c r="H9" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="I9" t="n">
-        <v>6.59</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="10">
@@ -703,28 +703,28 @@
         <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="D12" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="E12" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="F12" t="n">
         <v>6.8</v>
       </c>
       <c r="G12" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="H12" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="I12" t="n">
-        <v>6.8</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="13">
@@ -759,28 +759,28 @@
         <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="C14" t="n">
+        <v>7</v>
+      </c>
+      <c r="D14" t="n">
         <v>7.2</v>
       </c>
-      <c r="D14" t="n">
-        <v>6.4</v>
-      </c>
       <c r="E14" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="F14" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="G14" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="H14" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="I14" t="n">
-        <v>6.71</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="15">
@@ -881,25 +881,25 @@
         <v>6.6</v>
       </c>
       <c r="C19" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D19" t="n">
         <v>8</v>
       </c>
-      <c r="D19" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E19" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="F19" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="G19" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="H19" t="n">
-        <v>7.9</v>
+        <v>6.4</v>
       </c>
       <c r="I19" t="n">
-        <v>6.96</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="20">
@@ -965,28 +965,28 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="C22" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="D22" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E22" t="n">
         <v>7.9</v>
       </c>
-      <c r="E22" t="n">
-        <v>7</v>
-      </c>
       <c r="F22" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="G22" t="n">
         <v>6.5</v>
       </c>
       <c r="H22" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="I22" t="n">
-        <v>6.87</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="23">
@@ -1049,25 +1049,25 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
+        <v>7</v>
+      </c>
+      <c r="C26" t="n">
         <v>7.8</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>6.2</v>
       </c>
-      <c r="D26" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E26" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F26" t="n">
         <v>7.5</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>6.1</v>
       </c>
-      <c r="G26" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H26" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="I26" t="n">
         <v>6.86</v>
@@ -1105,28 +1105,28 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="C28" t="n">
         <v>6.4</v>
       </c>
       <c r="D28" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="E28" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="G28" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="H28" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="I28" t="n">
-        <v>6.6</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="29">
@@ -1163,28 +1163,28 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C30" t="n">
         <v>8.1</v>
       </c>
-      <c r="C30" t="n">
-        <v>7</v>
-      </c>
       <c r="D30" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="E30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F30" t="n">
         <v>6</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>6.2</v>
       </c>
-      <c r="G30" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H30" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="I30" t="n">
-        <v>6.66</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="31">
@@ -1209,28 +1209,28 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="C32" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="D32" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="E32" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="F32" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="G32" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H32" t="n">
         <v>7.6</v>
       </c>
-      <c r="H32" t="n">
-        <v>6.3</v>
-      </c>
       <c r="I32" t="n">
-        <v>6.74</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="33">
@@ -1267,28 +1267,28 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C34" t="n">
         <v>6</v>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>7.4</v>
       </c>
-      <c r="D34" t="n">
-        <v>6.4</v>
-      </c>
       <c r="E34" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="F34" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G34" t="n">
         <v>7.6</v>
       </c>
-      <c r="G34" t="n">
-        <v>6.3</v>
-      </c>
       <c r="H34" t="n">
-        <v>7.2</v>
+        <v>6.3</v>
       </c>
       <c r="I34" t="n">
-        <v>6.77</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="35">
@@ -1354,28 +1354,28 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C37" t="n">
         <v>7.2</v>
       </c>
-      <c r="C37" t="n">
-        <v>7.1</v>
-      </c>
       <c r="D37" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="E37" t="n">
         <v>7.4</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>7.8</v>
       </c>
-      <c r="F37" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G37" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="H37" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="I37" t="n">
-        <v>7.04</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="38">
@@ -1422,28 +1422,28 @@
         <v>51</v>
       </c>
       <c r="B41" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="C41" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="D41" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="E41" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F41" t="n">
         <v>7.8</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>7.7</v>
       </c>
-      <c r="G41" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H41" t="n">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="I41" t="n">
-        <v>7.06</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="42">
@@ -1506,26 +1506,28 @@
         <v>55</v>
       </c>
       <c r="B45" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="C45" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="D45" t="n">
         <v>6.9</v>
       </c>
       <c r="E45" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="F45" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="G45" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H45" t="inlineStr"/>
+        <v>6.6</v>
+      </c>
+      <c r="H45" t="n">
+        <v>6.5</v>
+      </c>
       <c r="I45" t="n">
-        <v>6.67</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="46">
@@ -1533,20 +1535,22 @@
         <v>56</v>
       </c>
       <c r="B46" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="C46" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="D46" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="E46" t="inlineStr"/>
+        <v>6.7</v>
+      </c>
+      <c r="E46" t="n">
+        <v>6.6</v>
+      </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="n">
-        <v>6.73</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="47">
@@ -1554,19 +1558,19 @@
         <v>57</v>
       </c>
       <c r="B47" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="C47" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="D47" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="E47" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="F47" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="G47" t="n">
         <v>6.5</v>
@@ -1575,7 +1579,7 @@
         <v>6.5</v>
       </c>
       <c r="I47" t="n">
-        <v>6.69</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="48">
@@ -1762,28 +1766,28 @@
         <v>67</v>
       </c>
       <c r="B55" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C55" t="n">
         <v>7.5</v>
       </c>
-      <c r="C55" t="n">
+      <c r="D55" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="D55" t="n">
-        <v>6.4</v>
-      </c>
       <c r="E55" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F55" t="n">
         <v>8</v>
       </c>
-      <c r="F55" t="n">
-        <v>7</v>
-      </c>
       <c r="G55" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="H55" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="I55" t="n">
-        <v>7.21</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="56">
@@ -1791,28 +1795,28 @@
         <v>69</v>
       </c>
       <c r="B56" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="C56" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="D56" t="n">
         <v>6.5</v>
       </c>
       <c r="E56" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="F56" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="G56" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="H56" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="I56" t="n">
-        <v>6.69</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="57">
@@ -1862,28 +1866,28 @@
         <v>80</v>
       </c>
       <c r="B59" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C59" t="n">
         <v>6.2</v>
       </c>
-      <c r="C59" t="n">
+      <c r="D59" t="n">
         <v>7.2</v>
       </c>
-      <c r="D59" t="n">
+      <c r="E59" t="n">
         <v>5.9</v>
       </c>
-      <c r="E59" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F59" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="G59" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="H59" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="I59" t="n">
-        <v>6.6</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="60">
@@ -2461,28 +2465,28 @@
         <v>111</v>
       </c>
       <c r="B84" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C84" t="n">
         <v>7.2</v>
       </c>
-      <c r="C84" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D84" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="E84" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F84" t="n">
         <v>7.6</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>6.1</v>
       </c>
-      <c r="G84" t="n">
+      <c r="H84" t="n">
         <v>7.9</v>
       </c>
-      <c r="H84" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I84" t="n">
-        <v>6.87</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="85">
@@ -2503,28 +2507,28 @@
         <v>113</v>
       </c>
       <c r="B86" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="C86" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="D86" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E86" t="n">
         <v>8.1</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>6.2</v>
       </c>
-      <c r="F86" t="n">
-        <v>7.1</v>
-      </c>
       <c r="G86" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="H86" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="I86" t="n">
-        <v>7</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="87">
@@ -2668,22 +2672,24 @@
         <v>120</v>
       </c>
       <c r="B93" t="n">
-        <v>6.3</v>
+        <v>5.1</v>
       </c>
       <c r="C93" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="D93" t="n">
+        <v>7</v>
+      </c>
+      <c r="E93" t="n">
         <v>8</v>
       </c>
-      <c r="E93" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F93" t="inlineStr"/>
+      <c r="F93" t="n">
+        <v>6.5</v>
+      </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="n">
-        <v>6.95</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="94">
@@ -2899,28 +2905,28 @@
         <v>133</v>
       </c>
       <c r="B104" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C104" t="n">
         <v>7.7</v>
       </c>
-      <c r="C104" t="n">
+      <c r="D104" t="n">
         <v>7.4</v>
       </c>
-      <c r="D104" t="n">
+      <c r="E104" t="n">
         <v>6.2</v>
       </c>
-      <c r="E104" t="n">
+      <c r="F104" t="n">
         <v>7.2</v>
       </c>
-      <c r="F104" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G104" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="H104" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="I104" t="n">
-        <v>7.21</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="105">
@@ -2986,7 +2992,7 @@
         <v>136</v>
       </c>
       <c r="B107" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="C107" t="n">
         <v>6.3</v>
@@ -3007,7 +3013,7 @@
         <v>7.7</v>
       </c>
       <c r="I107" t="n">
-        <v>6.81</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="108">
@@ -3178,28 +3184,28 @@
         <v>146</v>
       </c>
       <c r="B115" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C115" t="n">
         <v>7.3</v>
       </c>
-      <c r="C115" t="n">
-        <v>6.8</v>
-      </c>
       <c r="D115" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E115" t="n">
         <v>7.7</v>
       </c>
-      <c r="E115" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F115" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="G115" t="n">
         <v>7.1</v>
       </c>
       <c r="H115" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="I115" t="n">
-        <v>7.11</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="116">
@@ -3207,28 +3213,28 @@
         <v>147</v>
       </c>
       <c r="B116" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="C116" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="D116" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E116" t="n">
         <v>6.1</v>
       </c>
-      <c r="E116" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F116" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="G116" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="H116" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="I116" t="n">
-        <v>6.56</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="117">
@@ -3249,28 +3255,28 @@
         <v>149</v>
       </c>
       <c r="B118" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="C118" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D118" t="n">
         <v>7.2</v>
       </c>
-      <c r="D118" t="n">
+      <c r="E118" t="n">
         <v>6.2</v>
       </c>
-      <c r="E118" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F118" t="n">
         <v>6.6</v>
       </c>
       <c r="G118" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="H118" t="n">
-        <v>8.699999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="I118" t="n">
-        <v>6.9</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="119">
@@ -3349,24 +3355,26 @@
         <v>160</v>
       </c>
       <c r="B122" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="C122" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="D122" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="E122" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="F122" t="n">
         <v>6.6</v>
       </c>
-      <c r="G122" t="inlineStr"/>
+      <c r="G122" t="n">
+        <v>6.6</v>
+      </c>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="n">
-        <v>6.58</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="123">
@@ -3449,28 +3457,28 @@
         <v>165</v>
       </c>
       <c r="B126" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="C126" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="D126" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="E126" t="n">
         <v>6.7</v>
       </c>
       <c r="F126" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G126" t="n">
         <v>7.4</v>
       </c>
-      <c r="G126" t="n">
-        <v>6.8</v>
-      </c>
       <c r="H126" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="I126" t="n">
-        <v>6.77</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="127">
@@ -3478,28 +3486,28 @@
         <v>166</v>
       </c>
       <c r="B127" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="C127" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="D127" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E127" t="n">
         <v>7.3</v>
       </c>
-      <c r="E127" t="n">
+      <c r="F127" t="n">
         <v>7.4</v>
       </c>
-      <c r="F127" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G127" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="H127" t="n">
         <v>6.6</v>
       </c>
       <c r="I127" t="n">
-        <v>6.74</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="128">
@@ -3565,28 +3573,28 @@
         <v>169</v>
       </c>
       <c r="B130" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="C130" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="D130" t="n">
+        <v>7</v>
+      </c>
+      <c r="E130" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="E130" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F130" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="G130" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="H130" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="I130" t="n">
-        <v>7.07</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="131">
@@ -3623,28 +3631,28 @@
         <v>171</v>
       </c>
       <c r="B132" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="C132" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="D132" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E132" t="n">
         <v>7.2</v>
       </c>
-      <c r="E132" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F132" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G132" t="n">
         <v>7.2</v>
       </c>
-      <c r="G132" t="n">
-        <v>7</v>
-      </c>
       <c r="H132" t="n">
-        <v>8.300000000000001</v>
+        <v>7</v>
       </c>
       <c r="I132" t="n">
-        <v>7.03</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="133">
@@ -3739,25 +3747,25 @@
         <v>175</v>
       </c>
       <c r="B136" t="n">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="C136" t="n">
         <v>6.6</v>
       </c>
       <c r="D136" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="E136" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F136" t="n">
         <v>7.9</v>
       </c>
-      <c r="F136" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G136" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="H136" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="I136" t="n">
         <v>6.94</v>
@@ -3897,28 +3905,28 @@
         <v>181</v>
       </c>
       <c r="B142" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="C142" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D142" t="n">
         <v>7.4</v>
       </c>
-      <c r="D142" t="n">
-        <v>6.4</v>
-      </c>
       <c r="E142" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="F142" t="n">
         <v>6.6</v>
       </c>
       <c r="G142" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="H142" t="n">
         <v>6.4</v>
       </c>
       <c r="I142" t="n">
-        <v>6.64</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="143">
@@ -3974,28 +3982,28 @@
         <v>184</v>
       </c>
       <c r="B145" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="C145" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D145" t="n">
         <v>7.2</v>
       </c>
-      <c r="D145" t="n">
-        <v>6.3</v>
-      </c>
       <c r="E145" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="F145" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="G145" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H145" t="n">
         <v>7.2</v>
       </c>
-      <c r="H145" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I145" t="n">
-        <v>6.84</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="146">
@@ -4155,28 +4163,28 @@
         <v>192</v>
       </c>
       <c r="B152" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C152" t="n">
         <v>6.2</v>
       </c>
-      <c r="C152" t="n">
+      <c r="D152" t="n">
         <v>7.4</v>
       </c>
-      <c r="D152" t="n">
-        <v>6.3</v>
-      </c>
       <c r="E152" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="F152" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="G152" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="H152" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="I152" t="n">
-        <v>6.76</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="153">
@@ -4230,28 +4238,28 @@
         <v>195</v>
       </c>
       <c r="B155" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C155" t="n">
         <v>7.5</v>
       </c>
-      <c r="C155" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D155" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="E155" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="F155" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="G155" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H155" t="n">
         <v>6.2</v>
       </c>
-      <c r="H155" t="n">
-        <v>7</v>
-      </c>
       <c r="I155" t="n">
-        <v>6.74</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="156">
@@ -4308,25 +4316,25 @@
         <v>6.5</v>
       </c>
       <c r="C158" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="D158" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E158" t="n">
         <v>6.1</v>
       </c>
-      <c r="E158" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F158" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="G158" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="H158" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="I158" t="n">
-        <v>6.59</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="159">
@@ -4334,28 +4342,28 @@
         <v>199</v>
       </c>
       <c r="B159" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="C159" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="D159" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="E159" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="F159" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="G159" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="H159" t="n">
-        <v>5.9</v>
+        <v>7.1</v>
       </c>
       <c r="I159" t="n">
-        <v>6.56</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="160">
@@ -5372,28 +5380,28 @@
         <v>247</v>
       </c>
       <c r="B201" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="C201" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D201" t="n">
         <v>5.4</v>
       </c>
-      <c r="D201" t="n">
+      <c r="E201" t="n">
         <v>7.4</v>
       </c>
-      <c r="E201" t="n">
+      <c r="F201" t="n">
         <v>7.8</v>
       </c>
-      <c r="F201" t="n">
+      <c r="G201" t="n">
         <v>9.4</v>
       </c>
-      <c r="G201" t="n">
-        <v>6.4</v>
-      </c>
       <c r="H201" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="I201" t="n">
-        <v>7.11</v>
+        <v>7.31</v>
       </c>
     </row>
     <row r="202">
@@ -5462,26 +5470,28 @@
         <v>253</v>
       </c>
       <c r="B205" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="C205" t="n">
-        <v>7.1</v>
+        <v>6.3</v>
       </c>
       <c r="D205" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="E205" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="F205" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="G205" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H205" t="inlineStr"/>
+        <v>6.6</v>
+      </c>
+      <c r="H205" t="n">
+        <v>6.4</v>
+      </c>
       <c r="I205" t="n">
-        <v>6.57</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="206">
@@ -5506,24 +5516,26 @@
         <v>255</v>
       </c>
       <c r="B207" t="n">
-        <v>7.1</v>
+        <v>7.9</v>
       </c>
       <c r="C207" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="D207" t="n">
         <v>7.2</v>
       </c>
-      <c r="D207" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E207" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F207" t="n">
         <v>6</v>
       </c>
-      <c r="F207" t="n">
+      <c r="G207" t="n">
         <v>7.7</v>
       </c>
-      <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="n">
-        <v>6.92</v>
+        <v>7.08</v>
       </c>
     </row>
     <row r="208">
@@ -5560,26 +5572,28 @@
         <v>258</v>
       </c>
       <c r="B209" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C209" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="D209" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="E209" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="F209" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="G209" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="H209" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="H209" t="n">
+        <v>6.7</v>
+      </c>
       <c r="I209" t="n">
-        <v>6.67</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="210">
@@ -5587,28 +5601,28 @@
         <v>259</v>
       </c>
       <c r="B210" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="C210" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D210" t="n">
         <v>7.6</v>
       </c>
-      <c r="D210" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E210" t="n">
         <v>6.8</v>
       </c>
       <c r="F210" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G210" t="n">
         <v>7.6</v>
       </c>
-      <c r="G210" t="n">
-        <v>7</v>
-      </c>
       <c r="H210" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="I210" t="n">
-        <v>7.06</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="211">
@@ -5616,28 +5630,28 @@
         <v>260</v>
       </c>
       <c r="B211" t="n">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="C211" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="D211" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="E211" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="F211" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="G211" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="H211" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="I211" t="n">
-        <v>6.87</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="212">
@@ -5719,25 +5733,25 @@
         <v>6.7</v>
       </c>
       <c r="C215" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D215" t="n">
         <v>6</v>
       </c>
-      <c r="D215" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E215" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="F215" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="G215" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="H215" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="I215" t="n">
-        <v>6.71</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="216">
@@ -5745,28 +5759,28 @@
         <v>273</v>
       </c>
       <c r="B216" t="n">
-        <v>6.5</v>
+        <v>8.6</v>
       </c>
       <c r="C216" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="D216" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E216" t="n">
         <v>7.9</v>
       </c>
-      <c r="E216" t="n">
+      <c r="F216" t="n">
         <v>7.4</v>
       </c>
-      <c r="F216" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G216" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="H216" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="I216" t="n">
-        <v>6.91</v>
+        <v>7.21</v>
       </c>
     </row>
     <row r="217">
@@ -5965,28 +5979,28 @@
         <v>281</v>
       </c>
       <c r="B224" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C224" t="n">
         <v>7.4</v>
       </c>
-      <c r="C224" t="n">
-        <v>6.8</v>
-      </c>
       <c r="D224" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="E224" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="F224" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G224" t="n">
         <v>6.2</v>
       </c>
-      <c r="G224" t="n">
+      <c r="H224" t="n">
         <v>7.7</v>
       </c>
-      <c r="H224" t="n">
-        <v>6.8</v>
-      </c>
       <c r="I224" t="n">
-        <v>6.84</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="225">
@@ -5994,28 +6008,28 @@
         <v>282</v>
       </c>
       <c r="B225" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="C225" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D225" t="n">
         <v>7.9</v>
       </c>
-      <c r="D225" t="n">
-        <v>7</v>
-      </c>
       <c r="E225" t="n">
+        <v>7</v>
+      </c>
+      <c r="F225" t="n">
         <v>5.8</v>
       </c>
-      <c r="F225" t="n">
-        <v>7</v>
-      </c>
       <c r="G225" t="n">
+        <v>7</v>
+      </c>
+      <c r="H225" t="n">
         <v>7.3</v>
       </c>
-      <c r="H225" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I225" t="n">
-        <v>6.93</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="226">
@@ -6077,28 +6091,28 @@
         <v>286</v>
       </c>
       <c r="B228" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C228" t="n">
         <v>7.5</v>
       </c>
-      <c r="C228" t="n">
-        <v>7</v>
-      </c>
       <c r="D228" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="E228" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="F228" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="G228" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="H228" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="I228" t="n">
-        <v>6.73</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="229">
@@ -6135,28 +6149,28 @@
         <v>288</v>
       </c>
       <c r="B230" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C230" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="C230" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D230" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E230" t="n">
         <v>7.6</v>
       </c>
-      <c r="E230" t="n">
+      <c r="F230" t="n">
         <v>7.4</v>
       </c>
-      <c r="F230" t="n">
-        <v>6.6</v>
-      </c>
       <c r="G230" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="H230" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="I230" t="n">
-        <v>7.03</v>
+        <v>7</v>
       </c>
     </row>
     <row r="231">
@@ -6164,28 +6178,28 @@
         <v>289</v>
       </c>
       <c r="B231" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C231" t="n">
         <v>7.2</v>
       </c>
-      <c r="C231" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D231" t="n">
         <v>6.4</v>
       </c>
       <c r="E231" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="F231" t="n">
-        <v>7.1</v>
+        <v>6.3</v>
       </c>
       <c r="G231" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="H231" t="n">
-        <v>8.300000000000001</v>
+        <v>7</v>
       </c>
       <c r="I231" t="n">
-        <v>6.96</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="232">
@@ -6193,28 +6207,28 @@
         <v>290</v>
       </c>
       <c r="B232" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C232" t="n">
         <v>7.3</v>
       </c>
-      <c r="C232" t="n">
+      <c r="D232" t="n">
         <v>6.2</v>
       </c>
-      <c r="D232" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E232" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="F232" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="G232" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="H232" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I232" t="n">
-        <v>6.79</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="233">
@@ -6251,28 +6265,28 @@
         <v>292</v>
       </c>
       <c r="B234" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C234" t="n">
         <v>7.4</v>
-      </c>
-      <c r="C234" t="n">
-        <v>7.5</v>
       </c>
       <c r="D234" t="n">
         <v>7.5</v>
       </c>
       <c r="E234" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F234" t="n">
         <v>7.3</v>
       </c>
-      <c r="F234" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G234" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H234" t="n">
         <v>7.4</v>
       </c>
-      <c r="H234" t="n">
-        <v>7.6</v>
-      </c>
       <c r="I234" t="n">
-        <v>7.31</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="235">
@@ -6309,20 +6323,22 @@
         <v>294</v>
       </c>
       <c r="B236" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C236" t="n">
         <v>5.9</v>
       </c>
-      <c r="C236" t="n">
-        <v>6.8</v>
-      </c>
       <c r="D236" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="E236" t="inlineStr"/>
+        <v>6.8</v>
+      </c>
+      <c r="E236" t="n">
+        <v>6.3</v>
+      </c>
       <c r="F236" t="inlineStr"/>
       <c r="G236" t="inlineStr"/>
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="n">
-        <v>6.33</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="237">
@@ -6330,28 +6346,28 @@
         <v>295</v>
       </c>
       <c r="B237" t="n">
-        <v>6.5</v>
+        <v>7.9</v>
       </c>
       <c r="C237" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="D237" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="E237" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="F237" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="G237" t="n">
-        <v>6.3</v>
+        <v>7.1</v>
       </c>
       <c r="H237" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="I237" t="n">
-        <v>6.54</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="238">
@@ -6388,28 +6404,28 @@
         <v>298</v>
       </c>
       <c r="B239" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="C239" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="D239" t="n">
         <v>6.6</v>
       </c>
       <c r="E239" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="F239" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G239" t="n">
         <v>5.8</v>
       </c>
-      <c r="G239" t="n">
+      <c r="H239" t="n">
         <v>7.5</v>
       </c>
-      <c r="H239" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I239" t="n">
-        <v>6.64</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="240">
@@ -6417,28 +6433,28 @@
         <v>299</v>
       </c>
       <c r="B240" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C240" t="n">
         <v>7.7</v>
       </c>
-      <c r="C240" t="n">
-        <v>7</v>
-      </c>
       <c r="D240" t="n">
+        <v>7</v>
+      </c>
+      <c r="E240" t="n">
         <v>6.2</v>
       </c>
-      <c r="E240" t="n">
-        <v>7</v>
-      </c>
       <c r="F240" t="n">
         <v>7</v>
       </c>
       <c r="G240" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H240" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="I240" t="n">
-        <v>6.87</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="241">
@@ -6446,25 +6462,25 @@
         <v>300</v>
       </c>
       <c r="B241" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="C241" t="n">
         <v>7.2</v>
       </c>
       <c r="D241" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="E241" t="n">
         <v>7.3</v>
       </c>
-      <c r="E241" t="n">
+      <c r="F241" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="F241" t="n">
+      <c r="G241" t="n">
         <v>8</v>
       </c>
-      <c r="G241" t="n">
+      <c r="H241" t="n">
         <v>7.4</v>
-      </c>
-      <c r="H241" t="n">
-        <v>7.3</v>
       </c>
       <c r="I241" t="n">
         <v>7.51</v>
@@ -6527,28 +6543,28 @@
         <v>303</v>
       </c>
       <c r="B244" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="C244" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="D244" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="E244" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F244" t="n">
         <v>7.5</v>
-      </c>
-      <c r="F244" t="n">
-        <v>7.4</v>
       </c>
       <c r="G244" t="n">
         <v>7.4</v>
       </c>
       <c r="H244" t="n">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="I244" t="n">
-        <v>6.97</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="245">
@@ -6556,28 +6572,28 @@
         <v>305</v>
       </c>
       <c r="B245" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C245" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="C245" t="n">
-        <v>7</v>
-      </c>
       <c r="D245" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="E245" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="F245" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="G245" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="H245" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="I245" t="n">
-        <v>7.04</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="246">
@@ -6585,28 +6601,28 @@
         <v>306</v>
       </c>
       <c r="B246" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="C246" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="D246" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="E246" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="F246" t="n">
         <v>6.9</v>
       </c>
       <c r="G246" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="H246" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="I246" t="n">
-        <v>6.59</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="247">
@@ -6643,28 +6659,28 @@
         <v>308</v>
       </c>
       <c r="B248" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C248" t="n">
         <v>6.5</v>
       </c>
       <c r="D248" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="E248" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="F248" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G248" t="n">
         <v>5.9</v>
       </c>
-      <c r="G248" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H248" t="n">
         <v>6.5</v>
       </c>
       <c r="I248" t="n">
-        <v>6.39</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="249">
@@ -6675,25 +6691,25 @@
         <v>6.4</v>
       </c>
       <c r="C249" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D249" t="n">
         <v>7.2</v>
       </c>
-      <c r="D249" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E249" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F249" t="n">
         <v>7.6</v>
       </c>
-      <c r="F249" t="n">
-        <v>7.1</v>
-      </c>
       <c r="G249" t="n">
         <v>7.1</v>
       </c>
       <c r="H249" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="I249" t="n">
-        <v>7.04</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="250">
@@ -6701,28 +6717,28 @@
         <v>310</v>
       </c>
       <c r="B250" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C250" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="C250" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D250" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E250" t="n">
         <v>7.4</v>
       </c>
-      <c r="E250" t="n">
+      <c r="F250" t="n">
         <v>7.3</v>
       </c>
-      <c r="F250" t="n">
-        <v>7</v>
-      </c>
       <c r="G250" t="n">
         <v>7</v>
       </c>
       <c r="H250" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="I250" t="n">
-        <v>7.29</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="251">
@@ -6730,25 +6746,25 @@
         <v>311</v>
       </c>
       <c r="B251" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="C251" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="D251" t="n">
         <v>6.6</v>
       </c>
       <c r="E251" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F251" t="n">
         <v>7.9</v>
       </c>
-      <c r="F251" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G251" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="H251" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="I251" t="n">
         <v>6.96</v>
@@ -6759,28 +6775,28 @@
         <v>312</v>
       </c>
       <c r="B252" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="C252" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D252" t="n">
         <v>7.4</v>
       </c>
-      <c r="D252" t="n">
+      <c r="E252" t="n">
         <v>7.2</v>
       </c>
-      <c r="E252" t="n">
-        <v>6.4</v>
-      </c>
       <c r="F252" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="G252" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H252" t="n">
         <v>7.2</v>
       </c>
-      <c r="H252" t="n">
-        <v>7.9</v>
-      </c>
       <c r="I252" t="n">
-        <v>7.04</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="253">
@@ -6788,28 +6804,28 @@
         <v>313</v>
       </c>
       <c r="B253" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="C253" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D253" t="n">
         <v>6.1</v>
       </c>
-      <c r="D253" t="n">
-        <v>6.4</v>
-      </c>
       <c r="E253" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="F253" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="G253" t="n">
+        <v>7</v>
+      </c>
+      <c r="H253" t="n">
         <v>6.2</v>
       </c>
-      <c r="H253" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I253" t="n">
-        <v>6.59</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="254">
@@ -6846,28 +6862,28 @@
         <v>315</v>
       </c>
       <c r="B255" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C255" t="n">
         <v>7.2</v>
       </c>
-      <c r="C255" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D255" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E255" t="n">
         <v>7.4</v>
       </c>
-      <c r="E255" t="n">
-        <v>6.4</v>
-      </c>
       <c r="F255" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G255" t="n">
         <v>7.7</v>
       </c>
-      <c r="G255" t="n">
+      <c r="H255" t="n">
         <v>8.1</v>
       </c>
-      <c r="H255" t="n">
-        <v>6.1</v>
-      </c>
       <c r="I255" t="n">
-        <v>7.04</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="256">
@@ -7149,24 +7165,26 @@
         <v>326</v>
       </c>
       <c r="B266" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="C266" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="D266" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E266" t="n">
         <v>7.8</v>
       </c>
-      <c r="E266" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F266" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G266" t="n">
         <v>7.3</v>
       </c>
-      <c r="G266" t="inlineStr"/>
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="n">
-        <v>6.96</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="267">
@@ -7216,28 +7234,28 @@
         <v>330</v>
       </c>
       <c r="B269" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="C269" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="D269" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="E269" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F269" t="n">
         <v>7.5</v>
       </c>
-      <c r="F269" t="n">
-        <v>7.1</v>
-      </c>
       <c r="G269" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="H269" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="I269" t="n">
-        <v>6.87</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="270">
@@ -7274,28 +7292,28 @@
         <v>333</v>
       </c>
       <c r="B271" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C271" t="n">
         <v>8</v>
       </c>
-      <c r="C271" t="n">
+      <c r="D271" t="n">
         <v>7.8</v>
       </c>
-      <c r="D271" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E271" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F271" t="n">
         <v>8</v>
       </c>
-      <c r="F271" t="n">
+      <c r="G271" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="G271" t="n">
+      <c r="H271" t="n">
         <v>6.1</v>
       </c>
-      <c r="H271" t="n">
-        <v>7.8</v>
-      </c>
       <c r="I271" t="n">
-        <v>7.59</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="272">
@@ -7303,24 +7321,26 @@
         <v>335</v>
       </c>
       <c r="B272" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="C272" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="D272" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="E272" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="F272" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="G272" t="inlineStr"/>
+        <v>6.3</v>
+      </c>
+      <c r="G272" t="n">
+        <v>6.7</v>
+      </c>
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="n">
-        <v>6.68</v>
+        <v>6.62</v>
       </c>
     </row>
     <row r="273">
@@ -7328,28 +7348,28 @@
         <v>336</v>
       </c>
       <c r="B273" t="n">
-        <v>6.9</v>
+        <v>6.2</v>
       </c>
       <c r="C273" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="D273" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E273" t="n">
         <v>6.2</v>
       </c>
-      <c r="E273" t="n">
-        <v>6.4</v>
-      </c>
       <c r="F273" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G273" t="n">
         <v>6</v>
       </c>
-      <c r="G273" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H273" t="n">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
       <c r="I273" t="n">
-        <v>6.59</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="274">
@@ -7357,28 +7377,28 @@
         <v>337</v>
       </c>
       <c r="B274" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="C274" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="D274" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="E274" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="F274" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="G274" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H274" t="n">
         <v>7.2</v>
       </c>
-      <c r="H274" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I274" t="n">
-        <v>6.66</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="275">
@@ -7422,28 +7442,28 @@
         <v>340</v>
       </c>
       <c r="B277" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C277" t="n">
         <v>5.6</v>
       </c>
-      <c r="C277" t="n">
+      <c r="D277" t="n">
         <v>7.5</v>
       </c>
-      <c r="D277" t="n">
-        <v>7</v>
-      </c>
       <c r="E277" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="F277" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G277" t="n">
         <v>7.2</v>
       </c>
-      <c r="G277" t="n">
-        <v>7</v>
-      </c>
       <c r="H277" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I277" t="n">
-        <v>6.76</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="278">
@@ -7451,28 +7471,28 @@
         <v>341</v>
       </c>
       <c r="B278" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C278" t="n">
         <v>7.2</v>
       </c>
-      <c r="C278" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D278" t="n">
         <v>6.6</v>
       </c>
       <c r="E278" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="F278" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="G278" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="H278" t="n">
         <v>7.5</v>
       </c>
       <c r="I278" t="n">
-        <v>7.04</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="279">
@@ -7480,28 +7500,28 @@
         <v>342</v>
       </c>
       <c r="B279" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="C279" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="D279" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="E279" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="F279" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G279" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="G279" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H279" t="n">
         <v>6.7</v>
       </c>
       <c r="I279" t="n">
-        <v>7.09</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="280">
@@ -7712,25 +7732,25 @@
         <v>350</v>
       </c>
       <c r="B287" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="C287" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D287" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E287" t="n">
         <v>7.2</v>
       </c>
-      <c r="D287" t="n">
+      <c r="F287" t="n">
         <v>7.9</v>
       </c>
-      <c r="E287" t="n">
-        <v>7</v>
-      </c>
-      <c r="F287" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G287" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="H287" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="I287" t="n">
         <v>6.97</v>
@@ -7741,28 +7761,28 @@
         <v>351</v>
       </c>
       <c r="B288" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C288" t="n">
         <v>7.3</v>
       </c>
-      <c r="C288" t="n">
-        <v>6.3</v>
-      </c>
       <c r="D288" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="E288" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="F288" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="G288" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="H288" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="I288" t="n">
-        <v>6.64</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="289">
@@ -7770,28 +7790,28 @@
         <v>352</v>
       </c>
       <c r="B289" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C289" t="n">
         <v>7.6</v>
       </c>
-      <c r="C289" t="n">
-        <v>6.3</v>
-      </c>
       <c r="D289" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="E289" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="F289" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G289" t="n">
         <v>7.9</v>
       </c>
-      <c r="G289" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H289" t="n">
         <v>6.5</v>
       </c>
       <c r="I289" t="n">
-        <v>6.87</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="290">
@@ -7893,24 +7913,26 @@
         <v>357</v>
       </c>
       <c r="B294" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C294" t="n">
         <v>8.6</v>
       </c>
-      <c r="C294" t="n">
-        <v>7.1</v>
-      </c>
       <c r="D294" t="n">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="E294" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="F294" t="n">
-        <v>7</v>
-      </c>
-      <c r="G294" t="inlineStr"/>
+        <v>6.3</v>
+      </c>
+      <c r="G294" t="n">
+        <v>7</v>
+      </c>
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="n">
-        <v>7.08</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="295">
@@ -7976,28 +7998,28 @@
         <v>360</v>
       </c>
       <c r="B297" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C297" t="n">
         <v>6.2</v>
       </c>
-      <c r="C297" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D297" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="E297" t="n">
-        <v>7.1</v>
+        <v>6.3</v>
       </c>
       <c r="F297" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="G297" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="H297" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I297" t="n">
-        <v>6.64</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="298">
@@ -8171,28 +8193,28 @@
         <v>369</v>
       </c>
       <c r="B304" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C304" t="n">
         <v>6.2</v>
       </c>
-      <c r="C304" t="n">
+      <c r="D304" t="n">
         <v>7.5</v>
       </c>
-      <c r="D304" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E304" t="n">
         <v>6.8</v>
       </c>
       <c r="F304" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="G304" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H304" t="n">
         <v>7.3</v>
       </c>
-      <c r="H304" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I304" t="n">
-        <v>6.81</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="305">
@@ -8229,28 +8251,28 @@
         <v>371</v>
       </c>
       <c r="B306" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C306" t="n">
         <v>6.5</v>
       </c>
       <c r="D306" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="E306" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="F306" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="G306" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="H306" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="I306" t="n">
-        <v>6.46</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="307">
@@ -8287,28 +8309,28 @@
         <v>373</v>
       </c>
       <c r="B308" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C308" t="n">
         <v>6.2</v>
       </c>
-      <c r="C308" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D308" t="n">
         <v>6.7</v>
       </c>
       <c r="E308" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="F308" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G308" t="n">
         <v>7.2</v>
       </c>
-      <c r="G308" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H308" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="I308" t="n">
-        <v>6.73</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="309">
@@ -8345,28 +8367,28 @@
         <v>375</v>
       </c>
       <c r="B310" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="C310" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D310" t="n">
         <v>7.2</v>
       </c>
-      <c r="D310" t="n">
+      <c r="E310" t="n">
         <v>8</v>
       </c>
-      <c r="E310" t="n">
-        <v>6.7</v>
-      </c>
       <c r="F310" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="G310" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H310" t="n">
         <v>7.3</v>
       </c>
-      <c r="H310" t="n">
-        <v>7.5</v>
-      </c>
       <c r="I310" t="n">
-        <v>7.11</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="311">
@@ -8374,28 +8396,28 @@
         <v>376</v>
       </c>
       <c r="B311" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="C311" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D311" t="n">
         <v>7.5</v>
       </c>
-      <c r="D311" t="n">
-        <v>6.8</v>
-      </c>
       <c r="E311" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="F311" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G311" t="n">
         <v>6</v>
       </c>
-      <c r="G311" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H311" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="I311" t="n">
-        <v>6.7</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="312">
@@ -8515,28 +8537,28 @@
         <v>381</v>
       </c>
       <c r="B316" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="C316" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="D316" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="E316" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="F316" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="G316" t="n">
         <v>6.1</v>
       </c>
       <c r="H316" t="n">
-        <v>7.8</v>
+        <v>6.1</v>
       </c>
       <c r="I316" t="n">
-        <v>6.59</v>
+        <v>6.41</v>
       </c>
     </row>
     <row r="317">
@@ -8779,24 +8801,26 @@
         <v>391</v>
       </c>
       <c r="B326" t="n">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="C326" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="D326" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E326" t="n">
         <v>7.3</v>
       </c>
-      <c r="E326" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F326" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="G326" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="G326" t="n">
+        <v>6.6</v>
+      </c>
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="n">
-        <v>6.72</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="327">
@@ -8875,28 +8899,28 @@
         <v>395</v>
       </c>
       <c r="B330" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="C330" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="D330" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="E330" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="F330" t="n">
         <v>6.6</v>
       </c>
       <c r="G330" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="H330" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="I330" t="n">
-        <v>6.63</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="331">
@@ -9017,28 +9041,28 @@
         <v>401</v>
       </c>
       <c r="B336" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C336" t="n">
         <v>7.7</v>
       </c>
-      <c r="C336" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D336" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E336" t="n">
         <v>7.7</v>
       </c>
-      <c r="E336" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F336" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="G336" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="H336" t="n">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="I336" t="n">
-        <v>6.81</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="337">
@@ -9240,25 +9264,25 @@
         <v>6.7</v>
       </c>
       <c r="C344" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="D344" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="E344" t="n">
         <v>6.9</v>
       </c>
       <c r="F344" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G344" t="n">
         <v>7.3</v>
       </c>
-      <c r="G344" t="n">
-        <v>6.4</v>
-      </c>
       <c r="H344" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="I344" t="n">
-        <v>6.79</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="345">
@@ -9438,28 +9462,28 @@
         <v>416</v>
       </c>
       <c r="B351" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="C351" t="n">
         <v>9</v>
       </c>
-      <c r="C351" t="n">
-        <v>6.3</v>
-      </c>
       <c r="D351" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="E351" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F351" t="n">
         <v>7.2</v>
       </c>
-      <c r="F351" t="n">
+      <c r="G351" t="n">
         <v>7.5</v>
       </c>
-      <c r="G351" t="n">
-        <v>6.3</v>
-      </c>
       <c r="H351" t="n">
-        <v>7.2</v>
+        <v>6.3</v>
       </c>
       <c r="I351" t="n">
-        <v>7.19</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="352">
@@ -9496,25 +9520,25 @@
         <v>418</v>
       </c>
       <c r="B353" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="C353" t="n">
+        <v>7</v>
+      </c>
+      <c r="D353" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="D353" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E353" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="F353" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="G353" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="H353" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="I353" t="n">
         <v>6.94</v>
@@ -9554,28 +9578,28 @@
         <v>420</v>
       </c>
       <c r="B355" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="C355" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D355" t="n">
         <v>8</v>
-      </c>
-      <c r="D355" t="n">
-        <v>7.3</v>
       </c>
       <c r="E355" t="n">
         <v>7.3</v>
       </c>
       <c r="F355" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="G355" t="n">
         <v>7.2</v>
       </c>
-      <c r="G355" t="n">
+      <c r="H355" t="n">
         <v>7.4</v>
       </c>
-      <c r="H355" t="n">
-        <v>6.7</v>
-      </c>
       <c r="I355" t="n">
-        <v>7.23</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="356">
@@ -9583,28 +9607,28 @@
         <v>421</v>
       </c>
       <c r="B356" t="n">
-        <v>6.9</v>
+        <v>9.6</v>
       </c>
       <c r="C356" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="D356" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="E356" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="F356" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="G356" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="H356" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="I356" t="n">
-        <v>7.06</v>
+        <v>7.21</v>
       </c>
     </row>
     <row r="357">
@@ -9698,25 +9722,25 @@
         <v>426</v>
       </c>
       <c r="B361" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="C361" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="D361" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="E361" t="n">
         <v>6.4</v>
       </c>
       <c r="F361" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="G361" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="H361" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="I361" t="n">
         <v>6.56</v>
@@ -9730,22 +9754,22 @@
         <v>6.8</v>
       </c>
       <c r="C362" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D362" t="n">
         <v>7.5</v>
       </c>
-      <c r="D362" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E362" t="n">
         <v>6.9</v>
       </c>
       <c r="F362" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="G362" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="H362" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="I362" t="n">
         <v>6.94</v>
@@ -9756,28 +9780,28 @@
         <v>428</v>
       </c>
       <c r="B363" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C363" t="n">
         <v>8.1</v>
       </c>
-      <c r="C363" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D363" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E363" t="n">
         <v>8</v>
       </c>
-      <c r="E363" t="n">
-        <v>6.3</v>
-      </c>
       <c r="F363" t="n">
-        <v>7.1</v>
+        <v>6.3</v>
       </c>
       <c r="G363" t="n">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="H363" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="I363" t="n">
-        <v>6.97</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="364">
@@ -9785,25 +9809,25 @@
         <v>429</v>
       </c>
       <c r="B364" t="n">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="C364" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D364" t="n">
         <v>7.2</v>
       </c>
-      <c r="D364" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E364" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="F364" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="G364" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H364" t="n">
         <v>7.2</v>
-      </c>
-      <c r="H364" t="n">
-        <v>7.4</v>
       </c>
       <c r="I364" t="n">
         <v>6.84</v>
@@ -10007,25 +10031,25 @@
         <v>437</v>
       </c>
       <c r="B372" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="C372" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="D372" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="E372" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F372" t="n">
         <v>7.8</v>
       </c>
-      <c r="F372" t="n">
+      <c r="G372" t="n">
         <v>6.2</v>
       </c>
-      <c r="G372" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H372" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="I372" t="n">
         <v>6.8</v>
@@ -10061,28 +10085,28 @@
         <v>439</v>
       </c>
       <c r="B374" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="C374" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="D374" t="n">
+        <v>7</v>
+      </c>
+      <c r="E374" t="n">
         <v>7.3</v>
       </c>
-      <c r="E374" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F374" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="G374" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="H374" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="I374" t="n">
-        <v>6.81</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="375">
@@ -10384,28 +10408,28 @@
         <v>452</v>
       </c>
       <c r="B387" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C387" t="n">
         <v>7.5</v>
       </c>
-      <c r="C387" t="n">
-        <v>7</v>
-      </c>
       <c r="D387" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="E387" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="F387" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G387" t="n">
         <v>6.2</v>
       </c>
-      <c r="G387" t="n">
-        <v>6.6</v>
-      </c>
       <c r="H387" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="I387" t="n">
-        <v>6.74</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="388">
@@ -10413,28 +10437,28 @@
         <v>453</v>
       </c>
       <c r="B388" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="C388" t="n">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="D388" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="E388" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="F388" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="G388" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H388" t="n">
         <v>7.4</v>
       </c>
-      <c r="H388" t="n">
-        <v>6.1</v>
-      </c>
       <c r="I388" t="n">
-        <v>6.6</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="389">
@@ -10445,25 +10469,25 @@
         <v>6.6</v>
       </c>
       <c r="C389" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D389" t="n">
         <v>8</v>
       </c>
-      <c r="D389" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E389" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="F389" t="n">
+        <v>7</v>
+      </c>
+      <c r="G389" t="n">
         <v>7.5</v>
-      </c>
-      <c r="G389" t="n">
-        <v>7.3</v>
       </c>
       <c r="H389" t="n">
         <v>7.3</v>
       </c>
       <c r="I389" t="n">
-        <v>7.19</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="390">
@@ -10587,19 +10611,19 @@
         <v>459</v>
       </c>
       <c r="B394" t="n">
-        <v>6.3</v>
+        <v>7.1</v>
       </c>
       <c r="C394" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D394" t="n">
         <v>6</v>
       </c>
-      <c r="D394" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E394" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="F394" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="G394" t="n">
         <v>6.6</v>
@@ -10608,7 +10632,7 @@
         <v>6.6</v>
       </c>
       <c r="I394" t="n">
-        <v>6.47</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="395">
@@ -10662,28 +10686,28 @@
         <v>462</v>
       </c>
       <c r="B397" t="n">
-        <v>7.1</v>
+        <v>6.3</v>
       </c>
       <c r="C397" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="D397" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="E397" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="F397" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="G397" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="H397" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="I397" t="n">
-        <v>6.64</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="398">
@@ -10691,28 +10715,28 @@
         <v>463</v>
       </c>
       <c r="B398" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C398" t="n">
         <v>7.3</v>
       </c>
-      <c r="C398" t="n">
-        <v>6.3</v>
-      </c>
       <c r="D398" t="n">
         <v>6.3</v>
       </c>
       <c r="E398" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F398" t="n">
         <v>6.2</v>
       </c>
-      <c r="F398" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G398" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="H398" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="I398" t="n">
-        <v>6.6</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="399">
@@ -10795,28 +10819,28 @@
         <v>467</v>
       </c>
       <c r="B402" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C402" t="n">
         <v>7.9</v>
       </c>
-      <c r="C402" t="n">
-        <v>7</v>
-      </c>
       <c r="D402" t="n">
         <v>7</v>
       </c>
       <c r="E402" t="n">
+        <v>7</v>
+      </c>
+      <c r="F402" t="n">
         <v>7.3</v>
       </c>
-      <c r="F402" t="n">
-        <v>7</v>
-      </c>
       <c r="G402" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="H402" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="I402" t="n">
-        <v>7.03</v>
+        <v>7.21</v>
       </c>
     </row>
     <row r="403">
@@ -10853,28 +10877,28 @@
         <v>469</v>
       </c>
       <c r="B404" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C404" t="n">
         <v>7.2</v>
       </c>
-      <c r="C404" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D404" t="n">
         <v>6.7</v>
       </c>
       <c r="E404" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="F404" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="G404" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="H404" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I404" t="n">
-        <v>6.77</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="405">
@@ -10885,21 +10909,23 @@
         <v>6.5</v>
       </c>
       <c r="C405" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="D405" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="E405" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="F405" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="G405" t="inlineStr"/>
+        <v>6.6</v>
+      </c>
+      <c r="G405" t="n">
+        <v>6.5</v>
+      </c>
       <c r="H405" t="inlineStr"/>
       <c r="I405" t="n">
-        <v>6.54</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="406">
@@ -10907,28 +10933,28 @@
         <v>471</v>
       </c>
       <c r="B406" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C406" t="n">
         <v>6.1</v>
       </c>
-      <c r="C406" t="n">
-        <v>6.9</v>
-      </c>
       <c r="D406" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E406" t="n">
         <v>7.4</v>
       </c>
-      <c r="E406" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F406" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="G406" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H406" t="n">
         <v>6.1</v>
       </c>
-      <c r="H406" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I406" t="n">
-        <v>6.67</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="407">
@@ -11059,28 +11085,28 @@
         <v>479</v>
       </c>
       <c r="B414" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C414" t="n">
         <v>6.2</v>
       </c>
-      <c r="C414" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D414" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="E414" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F414" t="n">
         <v>6.2</v>
       </c>
-      <c r="F414" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G414" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="H414" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="I414" t="n">
-        <v>6.69</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="415">
@@ -11156,28 +11182,28 @@
         <v>484</v>
       </c>
       <c r="B419" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C419" t="n">
         <v>7.2</v>
       </c>
-      <c r="C419" t="n">
-        <v>6.8</v>
-      </c>
       <c r="D419" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E419" t="n">
         <v>7.2</v>
       </c>
-      <c r="E419" t="n">
-        <v>7.1</v>
-      </c>
       <c r="F419" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="G419" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="H419" t="n">
-        <v>7.7</v>
+        <v>6.7</v>
       </c>
       <c r="I419" t="n">
-        <v>7.03</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="420">
@@ -11185,28 +11211,28 @@
         <v>485</v>
       </c>
       <c r="B420" t="n">
-        <v>6.8</v>
+        <v>7.9</v>
       </c>
       <c r="C420" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="D420" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="E420" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F420" t="n">
         <v>7.2</v>
       </c>
-      <c r="F420" t="n">
+      <c r="G420" t="n">
         <v>6.2</v>
       </c>
-      <c r="G420" t="n">
-        <v>7</v>
-      </c>
       <c r="H420" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="I420" t="n">
-        <v>6.71</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="421">
@@ -11214,25 +11240,25 @@
         <v>486</v>
       </c>
       <c r="B421" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C421" t="n">
         <v>6.2</v>
       </c>
-      <c r="C421" t="n">
+      <c r="D421" t="n">
         <v>6.1</v>
       </c>
-      <c r="D421" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E421" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="F421" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="G421" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H421" t="n">
         <v>6.2</v>
-      </c>
-      <c r="H421" t="n">
-        <v>6.5</v>
       </c>
       <c r="I421" t="n">
         <v>6.36</v>
@@ -11302,19 +11328,21 @@
         <v>6.7</v>
       </c>
       <c r="C424" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="D424" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E424" t="n">
         <v>6.2</v>
       </c>
-      <c r="E424" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="F424" t="inlineStr"/>
+      <c r="F424" t="n">
+        <v>6.7</v>
+      </c>
       <c r="G424" t="inlineStr"/>
       <c r="H424" t="inlineStr"/>
       <c r="I424" t="n">
-        <v>6.52</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="425">
@@ -11322,28 +11350,28 @@
         <v>490</v>
       </c>
       <c r="B425" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="C425" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D425" t="n">
         <v>6</v>
       </c>
-      <c r="D425" t="n">
+      <c r="E425" t="n">
         <v>7.5</v>
       </c>
-      <c r="E425" t="n">
+      <c r="F425" t="n">
         <v>7.2</v>
       </c>
-      <c r="F425" t="n">
-        <v>7.1</v>
-      </c>
       <c r="G425" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="H425" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="I425" t="n">
-        <v>6.83</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="426">
@@ -11380,28 +11408,28 @@
         <v>492</v>
       </c>
       <c r="B427" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="C427" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="D427" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="E427" t="n">
+        <v>7</v>
+      </c>
+      <c r="F427" t="n">
         <v>3.3</v>
       </c>
-      <c r="F427" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G427" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H427" t="n">
         <v>7.3</v>
       </c>
-      <c r="H427" t="n">
-        <v>6.2</v>
-      </c>
       <c r="I427" t="n">
-        <v>6.23</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="428">
@@ -11412,25 +11440,25 @@
         <v>6.5</v>
       </c>
       <c r="C428" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="D428" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="E428" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="F428" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="G428" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="H428" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="I428" t="n">
-        <v>6.44</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="429">
@@ -11444,22 +11472,22 @@
         <v>6.7</v>
       </c>
       <c r="D429" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="E429" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="F429" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="G429" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="H429" t="n">
         <v>5.6</v>
       </c>
-      <c r="H429" t="n">
-        <v>7.4</v>
-      </c>
       <c r="I429" t="n">
-        <v>6.66</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="430">
@@ -11519,28 +11547,28 @@
         <v>497</v>
       </c>
       <c r="B432" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="C432" t="n">
-        <v>6.3</v>
+        <v>7.2</v>
       </c>
       <c r="D432" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="E432" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="F432" t="n">
+        <v>7</v>
+      </c>
+      <c r="G432" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H432" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="G432" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H432" t="n">
-        <v>6.6</v>
-      </c>
       <c r="I432" t="n">
-        <v>6.8</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="433">
@@ -11548,19 +11576,19 @@
         <v>498</v>
       </c>
       <c r="B433" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C433" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="D433" t="n">
         <v>9</v>
       </c>
-      <c r="C433" t="n">
+      <c r="E433" t="n">
         <v>7.9</v>
       </c>
-      <c r="D433" t="n">
+      <c r="F433" t="n">
         <v>7.2</v>
-      </c>
-      <c r="E433" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="F433" t="n">
-        <v>7.3</v>
       </c>
       <c r="G433" t="n">
         <v>6.6</v>
@@ -11569,7 +11597,7 @@
         <v>7.3</v>
       </c>
       <c r="I433" t="n">
-        <v>7.41</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="434">
@@ -11619,28 +11647,28 @@
         <v>501</v>
       </c>
       <c r="B436" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="C436" t="n">
         <v>7.1</v>
       </c>
       <c r="D436" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="E436" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F436" t="n">
         <v>7.2</v>
       </c>
-      <c r="F436" t="n">
+      <c r="G436" t="n">
         <v>7.4</v>
       </c>
-      <c r="G436" t="n">
+      <c r="H436" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="H436" t="n">
-        <v>6.3</v>
-      </c>
       <c r="I436" t="n">
-        <v>7.16</v>
+        <v>7.33</v>
       </c>
     </row>
     <row r="437">
@@ -11648,28 +11676,28 @@
         <v>502</v>
       </c>
       <c r="B437" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="C437" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="D437" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="E437" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="F437" t="n">
         <v>6.2</v>
       </c>
       <c r="G437" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="H437" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="I437" t="n">
-        <v>6.56</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="438">
@@ -11767,24 +11795,26 @@
         <v>507</v>
       </c>
       <c r="B442" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="C442" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="D442" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="E442" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="F442" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="G442" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="G442" t="inlineStr"/>
       <c r="H442" t="inlineStr"/>
       <c r="I442" t="n">
-        <v>6.8</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="443">
@@ -11819,28 +11849,28 @@
         <v>509</v>
       </c>
       <c r="B444" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C444" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="D444" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E444" t="n">
         <v>6.2</v>
       </c>
-      <c r="E444" t="n">
+      <c r="F444" t="n">
         <v>6.1</v>
       </c>
-      <c r="F444" t="n">
+      <c r="G444" t="n">
         <v>6</v>
       </c>
-      <c r="G444" t="n">
-        <v>7</v>
-      </c>
       <c r="H444" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="I444" t="n">
-        <v>6.39</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="445">
@@ -12050,28 +12080,28 @@
         <v>520</v>
       </c>
       <c r="B455" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C455" t="n">
         <v>7.3</v>
       </c>
-      <c r="C455" t="n">
+      <c r="D455" t="n">
         <v>6</v>
       </c>
-      <c r="D455" t="n">
-        <v>6.9</v>
-      </c>
       <c r="E455" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="F455" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="G455" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="H455" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="I455" t="n">
-        <v>6.8</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="456">
@@ -12079,28 +12109,28 @@
         <v>521</v>
       </c>
       <c r="B456" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="C456" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="D456" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="E456" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="F456" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="G456" t="n">
         <v>6.9</v>
       </c>
       <c r="H456" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="I456" t="n">
-        <v>6.69</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="457">
@@ -12108,28 +12138,28 @@
         <v>522</v>
       </c>
       <c r="B457" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C457" t="n">
         <v>7.4</v>
       </c>
-      <c r="C457" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D457" t="n">
         <v>6.5</v>
       </c>
       <c r="E457" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F457" t="n">
         <v>7.2</v>
       </c>
-      <c r="F457" t="n">
-        <v>6.7</v>
-      </c>
       <c r="G457" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H457" t="n">
         <v>7.3</v>
       </c>
-      <c r="H457" t="n">
-        <v>6.9</v>
-      </c>
       <c r="I457" t="n">
-        <v>6.93</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="458">
@@ -12195,28 +12225,28 @@
         <v>525</v>
       </c>
       <c r="B460" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C460" t="n">
         <v>7.3</v>
       </c>
-      <c r="C460" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D460" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="E460" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="F460" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="G460" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="H460" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="I460" t="n">
-        <v>6.74</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="461">
@@ -12224,28 +12254,28 @@
         <v>526</v>
       </c>
       <c r="B461" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="C461" t="n">
         <v>7.4</v>
       </c>
       <c r="D461" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="E461" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="F461" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="G461" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="H461" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="I461" t="n">
-        <v>7</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="462">
@@ -12270,28 +12300,28 @@
         <v>528</v>
       </c>
       <c r="B463" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C463" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="C463" t="n">
+      <c r="D463" t="n">
         <v>7.3</v>
       </c>
-      <c r="D463" t="n">
-        <v>7</v>
-      </c>
       <c r="E463" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="F463" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="G463" t="n">
         <v>7.2</v>
       </c>
       <c r="H463" t="n">
-        <v>6.1</v>
+        <v>7.2</v>
       </c>
       <c r="I463" t="n">
-        <v>7.13</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="464">
@@ -12618,28 +12648,28 @@
         <v>540</v>
       </c>
       <c r="B475" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C475" t="n">
         <v>7.2</v>
       </c>
-      <c r="C475" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D475" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="E475" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="F475" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G475" t="n">
         <v>6.2</v>
       </c>
-      <c r="G475" t="n">
-        <v>7</v>
-      </c>
       <c r="H475" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="I475" t="n">
-        <v>6.71</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="476">
@@ -12851,20 +12881,22 @@
         <v>549</v>
       </c>
       <c r="B484" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C484" t="n">
         <v>6.5</v>
       </c>
       <c r="D484" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E484" t="n">
         <v>7.2</v>
       </c>
-      <c r="E484" t="inlineStr"/>
       <c r="F484" t="inlineStr"/>
       <c r="G484" t="inlineStr"/>
       <c r="H484" t="inlineStr"/>
       <c r="I484" t="n">
-        <v>6.73</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="485">
@@ -12872,22 +12904,24 @@
         <v>550</v>
       </c>
       <c r="B485" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="C485" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="D485" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="E485" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F485" t="inlineStr"/>
+        <v>6.3</v>
+      </c>
+      <c r="F485" t="n">
+        <v>6.5</v>
+      </c>
       <c r="G485" t="inlineStr"/>
       <c r="H485" t="inlineStr"/>
       <c r="I485" t="n">
-        <v>6.5</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="486">
@@ -12918,28 +12952,28 @@
         <v>552</v>
       </c>
       <c r="B487" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="C487" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D487" t="n">
         <v>7.6</v>
       </c>
-      <c r="D487" t="n">
-        <v>7</v>
-      </c>
       <c r="E487" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="F487" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="G487" t="n">
         <v>6.5</v>
       </c>
       <c r="H487" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="I487" t="n">
-        <v>6.86</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="488">
@@ -13026,28 +13060,28 @@
         <v>556</v>
       </c>
       <c r="B491" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="C491" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="D491" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="E491" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F491" t="n">
         <v>7.9</v>
       </c>
-      <c r="F491" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G491" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="H491" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="I491" t="n">
-        <v>6.7</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="492">
@@ -13055,28 +13089,28 @@
         <v>557</v>
       </c>
       <c r="B492" t="n">
-        <v>6.3</v>
+        <v>7.7</v>
       </c>
       <c r="C492" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D492" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="D492" t="n">
-        <v>6.4</v>
-      </c>
       <c r="E492" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F492" t="n">
         <v>7.8</v>
       </c>
-      <c r="F492" t="n">
+      <c r="G492" t="n">
         <v>7.5</v>
       </c>
-      <c r="G492" t="n">
-        <v>7.1</v>
-      </c>
       <c r="H492" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="I492" t="n">
-        <v>7.17</v>
+        <v>7.29</v>
       </c>
     </row>
     <row r="493">
@@ -13113,28 +13147,28 @@
         <v>559</v>
       </c>
       <c r="B494" t="n">
+        <v>7</v>
+      </c>
+      <c r="C494" t="n">
         <v>7.2</v>
       </c>
-      <c r="C494" t="n">
-        <v>6.4</v>
-      </c>
       <c r="D494" t="n">
-        <v>6.3</v>
+        <v>7.2</v>
       </c>
       <c r="E494" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="F494" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="G494" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H494" t="n">
         <v>7.2</v>
       </c>
-      <c r="G494" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="H494" t="n">
-        <v>8.4</v>
-      </c>
       <c r="I494" t="n">
-        <v>7.06</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="495">
@@ -13142,28 +13176,28 @@
         <v>560</v>
       </c>
       <c r="B495" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="C495" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="D495" t="n">
         <v>6.6</v>
       </c>
       <c r="E495" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="F495" t="n">
         <v>6.7</v>
       </c>
       <c r="G495" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="H495" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="I495" t="n">
-        <v>6.67</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="496">
@@ -13219,28 +13253,28 @@
         <v>563</v>
       </c>
       <c r="B498" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="C498" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D498" t="n">
         <v>7.2</v>
       </c>
-      <c r="D498" t="n">
-        <v>7</v>
-      </c>
       <c r="E498" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="F498" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="G498" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="H498" t="n">
         <v>6.4</v>
       </c>
       <c r="I498" t="n">
-        <v>6.66</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="499">
@@ -13248,28 +13282,28 @@
         <v>564</v>
       </c>
       <c r="B499" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="C499" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="D499" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E499" t="n">
         <v>7.8</v>
-      </c>
-      <c r="E499" t="n">
-        <v>6.1</v>
       </c>
       <c r="F499" t="n">
         <v>6.1</v>
       </c>
       <c r="G499" t="n">
-        <v>6.9</v>
+        <v>6.1</v>
       </c>
       <c r="H499" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="I499" t="n">
-        <v>6.67</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="500">
@@ -13277,25 +13311,25 @@
         <v>565</v>
       </c>
       <c r="B500" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="C500" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="D500" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="E500" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="F500" t="n">
         <v>6.7</v>
       </c>
       <c r="G500" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H500" t="n">
         <v>7.2</v>
-      </c>
-      <c r="H500" t="n">
-        <v>6.4</v>
       </c>
       <c r="I500" t="n">
         <v>6.76</v>
@@ -13306,20 +13340,22 @@
         <v>566</v>
       </c>
       <c r="B501" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C501" t="n">
         <v>7.8</v>
       </c>
-      <c r="C501" t="n">
-        <v>6.8</v>
-      </c>
       <c r="D501" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="E501" t="inlineStr"/>
+        <v>6.8</v>
+      </c>
+      <c r="E501" t="n">
+        <v>6.9</v>
+      </c>
       <c r="F501" t="inlineStr"/>
       <c r="G501" t="inlineStr"/>
       <c r="H501" t="inlineStr"/>
       <c r="I501" t="n">
-        <v>7.17</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="502">
@@ -13327,28 +13363,28 @@
         <v>567</v>
       </c>
       <c r="B502" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="C502" t="n">
         <v>6.9</v>
       </c>
       <c r="D502" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="E502" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="F502" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="G502" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="H502" t="n">
         <v>6.6</v>
       </c>
       <c r="I502" t="n">
-        <v>6.7</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="503">
@@ -13425,28 +13461,28 @@
         <v>571</v>
       </c>
       <c r="B506" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="C506" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="D506" t="n">
         <v>6.5</v>
       </c>
       <c r="E506" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F506" t="n">
         <v>7.4</v>
       </c>
-      <c r="F506" t="n">
-        <v>7</v>
-      </c>
       <c r="G506" t="n">
+        <v>7</v>
+      </c>
+      <c r="H506" t="n">
         <v>5.8</v>
       </c>
-      <c r="H506" t="n">
-        <v>7.6</v>
-      </c>
       <c r="I506" t="n">
-        <v>6.81</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="507">
@@ -13583,28 +13619,28 @@
         <v>577</v>
       </c>
       <c r="B512" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="C512" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D512" t="n">
         <v>7.2</v>
       </c>
-      <c r="D512" t="n">
-        <v>6.7</v>
-      </c>
       <c r="E512" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="F512" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="G512" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H512" t="n">
         <v>6.1</v>
       </c>
-      <c r="H512" t="n">
-        <v>7.5</v>
-      </c>
       <c r="I512" t="n">
-        <v>6.7</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="513">
@@ -13641,18 +13677,20 @@
         <v>579</v>
       </c>
       <c r="B514" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="C514" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="D514" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="D514" t="n">
+        <v>6.4</v>
+      </c>
       <c r="E514" t="inlineStr"/>
       <c r="F514" t="inlineStr"/>
       <c r="G514" t="inlineStr"/>
       <c r="H514" t="inlineStr"/>
       <c r="I514" t="n">
-        <v>6.45</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="515">
@@ -13663,25 +13701,25 @@
         <v>6.6</v>
       </c>
       <c r="C515" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="D515" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="E515" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="F515" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G515" t="n">
         <v>6.2</v>
       </c>
-      <c r="G515" t="n">
-        <v>6.5</v>
-      </c>
       <c r="H515" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="I515" t="n">
-        <v>6.43</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="516">
@@ -13689,25 +13727,25 @@
         <v>581</v>
       </c>
       <c r="B516" t="n">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="C516" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D516" t="n">
         <v>7.2</v>
       </c>
-      <c r="D516" t="n">
-        <v>6.6</v>
-      </c>
       <c r="E516" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="F516" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="G516" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H516" t="n">
         <v>7.2</v>
-      </c>
-      <c r="H516" t="n">
-        <v>7.4</v>
       </c>
       <c r="I516" t="n">
         <v>6.84</v>
@@ -13801,18 +13839,20 @@
         <v>585</v>
       </c>
       <c r="B520" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C520" t="n">
         <v>5.9</v>
       </c>
-      <c r="C520" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="D520" t="inlineStr"/>
+      <c r="D520" t="n">
+        <v>6.6</v>
+      </c>
       <c r="E520" t="inlineStr"/>
       <c r="F520" t="inlineStr"/>
       <c r="G520" t="inlineStr"/>
       <c r="H520" t="inlineStr"/>
       <c r="I520" t="n">
-        <v>6.25</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="521">
@@ -13820,22 +13860,24 @@
         <v>586</v>
       </c>
       <c r="B521" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="C521" t="n">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="D521" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="E521" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F521" t="n">
         <v>6.2</v>
       </c>
-      <c r="F521" t="inlineStr"/>
       <c r="G521" t="inlineStr"/>
       <c r="H521" t="inlineStr"/>
       <c r="I521" t="n">
-        <v>6.5</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="522">
@@ -13843,28 +13885,28 @@
         <v>587</v>
       </c>
       <c r="B522" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="C522" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="D522" t="n">
         <v>6.5</v>
       </c>
       <c r="E522" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F522" t="n">
         <v>7.8</v>
       </c>
-      <c r="F522" t="n">
-        <v>6.5</v>
-      </c>
       <c r="G522" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H522" t="n">
         <v>7.4</v>
       </c>
-      <c r="H522" t="n">
-        <v>7.9</v>
-      </c>
       <c r="I522" t="n">
-        <v>7.06</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="523">
@@ -13872,28 +13914,28 @@
         <v>588</v>
       </c>
       <c r="B523" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C523" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="D523" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E523" t="n">
         <v>6.1</v>
       </c>
-      <c r="E523" t="n">
+      <c r="F523" t="n">
         <v>7.7</v>
       </c>
-      <c r="F523" t="n">
-        <v>6.3</v>
-      </c>
       <c r="G523" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="H523" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="I523" t="n">
-        <v>6.64</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="524">
@@ -13904,17 +13946,19 @@
         <v>6.6</v>
       </c>
       <c r="C524" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="D524" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="E524" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="E524" t="n">
+        <v>7.1</v>
+      </c>
       <c r="F524" t="inlineStr"/>
       <c r="G524" t="inlineStr"/>
       <c r="H524" t="inlineStr"/>
       <c r="I524" t="n">
-        <v>6.73</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="525">
@@ -13922,28 +13966,28 @@
         <v>590</v>
       </c>
       <c r="B525" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C525" t="n">
         <v>6.2</v>
       </c>
-      <c r="C525" t="n">
+      <c r="D525" t="n">
         <v>7.6</v>
       </c>
-      <c r="D525" t="n">
+      <c r="E525" t="n">
         <v>7.3</v>
       </c>
-      <c r="E525" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F525" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G525" t="n">
         <v>7.2</v>
       </c>
-      <c r="G525" t="n">
-        <v>6.7</v>
-      </c>
       <c r="H525" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="I525" t="n">
-        <v>6.94</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="526">
@@ -13951,28 +13995,28 @@
         <v>591</v>
       </c>
       <c r="B526" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="C526" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="D526" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E526" t="n">
         <v>7.2</v>
       </c>
-      <c r="E526" t="n">
+      <c r="F526" t="n">
         <v>7.4</v>
       </c>
-      <c r="F526" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G526" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H526" t="n">
         <v>7.3</v>
       </c>
-      <c r="H526" t="n">
-        <v>6.4</v>
-      </c>
       <c r="I526" t="n">
-        <v>7</v>
+        <v>7.09</v>
       </c>
     </row>
   </sheetData>

--- a/players_ratings.xlsx
+++ b/players_ratings.xlsx
@@ -523,21 +523,51 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>45997</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>45991</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>45928</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="J2" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>45921</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>45914</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="P2" t="n">
+        <v>6.8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -758,49 +788,49 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C9" s="2" t="n">
+        <v>45995</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E9" s="2" t="n">
         <v>45990</v>
       </c>
-      <c r="D9" t="n">
+      <c r="F9" t="n">
         <v>6.8</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="G9" s="2" t="n">
         <v>45982</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>6.4</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="I9" s="2" t="n">
         <v>45968</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>6</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="K9" s="2" t="n">
         <v>45962</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>6.1</v>
       </c>
-      <c r="K9" s="2" t="n">
+      <c r="M9" s="2" t="n">
         <v>45954</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>7.2</v>
       </c>
-      <c r="M9" s="2" t="n">
+      <c r="O9" s="2" t="n">
         <v>45948</v>
       </c>
-      <c r="N9" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="O9" s="2" t="n">
-        <v>45934</v>
-      </c>
       <c r="P9" t="n">
-        <v>6.6</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="10">
@@ -980,49 +1010,49 @@
         <v>17</v>
       </c>
       <c r="B14" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>45998</v>
+      </c>
+      <c r="D14" t="n">
         <v>7.7</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="E14" s="2" t="n">
         <v>45994</v>
       </c>
-      <c r="D14" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="E14" s="2" t="n">
+      <c r="F14" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G14" s="2" t="n">
         <v>45991</v>
       </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
         <v>7</v>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="I14" s="2" t="n">
         <v>45984</v>
       </c>
-      <c r="H14" t="n">
+      <c r="J14" t="n">
         <v>7.2</v>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="K14" s="2" t="n">
         <v>45955</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>6.4</v>
       </c>
-      <c r="K14" s="2" t="n">
+      <c r="M14" s="2" t="n">
         <v>45950</v>
       </c>
-      <c r="L14" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="M14" s="2" t="n">
+      <c r="N14" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="O14" s="2" t="n">
         <v>45933</v>
       </c>
-      <c r="N14" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O14" s="2" t="n">
-        <v>45927</v>
-      </c>
       <c r="P14" t="n">
-        <v>6.89</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="15">
@@ -1328,46 +1358,46 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>45998</v>
+      </c>
+      <c r="D22" t="n">
         <v>7.4</v>
       </c>
-      <c r="C22" s="2" t="n">
+      <c r="E22" s="2" t="n">
         <v>45989</v>
       </c>
-      <c r="D22" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="E22" s="2" t="n">
+      <c r="F22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G22" s="2" t="n">
         <v>45984</v>
       </c>
-      <c r="F22" t="n">
+      <c r="H22" t="n">
         <v>6.9</v>
       </c>
-      <c r="G22" s="2" t="n">
+      <c r="I22" s="2" t="n">
         <v>45970</v>
       </c>
-      <c r="H22" t="n">
+      <c r="J22" t="n">
         <v>7.9</v>
       </c>
-      <c r="I22" s="2" t="n">
+      <c r="K22" s="2" t="n">
         <v>45963</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>7</v>
       </c>
-      <c r="K22" s="2" t="n">
+      <c r="M22" s="2" t="n">
         <v>45956</v>
       </c>
-      <c r="L22" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M22" s="2" t="n">
+      <c r="N22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O22" s="2" t="n">
         <v>45949</v>
-      </c>
-      <c r="N22" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O22" s="2" t="n">
-        <v>45935</v>
       </c>
       <c r="P22" t="n">
         <v>6.96</v>
@@ -1378,49 +1408,49 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>45998</v>
+      </c>
+      <c r="D23" t="n">
         <v>6.8</v>
       </c>
-      <c r="C23" s="2" t="n">
+      <c r="E23" s="2" t="n">
         <v>45956</v>
       </c>
-      <c r="D23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="E23" s="2" t="n">
+      <c r="F23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G23" s="2" t="n">
         <v>45935</v>
       </c>
-      <c r="F23" t="n">
+      <c r="H23" t="n">
         <v>6.3</v>
       </c>
-      <c r="G23" s="2" t="n">
+      <c r="I23" s="2" t="n">
         <v>45893</v>
       </c>
-      <c r="H23" t="n">
+      <c r="J23" t="n">
         <v>7</v>
       </c>
-      <c r="I23" s="2" t="n">
+      <c r="K23" s="2" t="n">
         <v>45886</v>
       </c>
-      <c r="J23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K23" s="2" t="n">
+      <c r="L23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M23" s="2" t="n">
         <v>45872</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>7</v>
       </c>
-      <c r="M23" s="2" t="n">
+      <c r="O23" s="2" t="n">
         <v>45865</v>
       </c>
-      <c r="N23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O23" s="2" t="n">
-        <v>45858</v>
-      </c>
       <c r="P23" t="n">
-        <v>6.66</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="24">
@@ -1790,49 +1820,49 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>45996</v>
+      </c>
+      <c r="D33" t="n">
         <v>7.4</v>
       </c>
-      <c r="C33" s="2" t="n">
+      <c r="E33" s="2" t="n">
         <v>45992</v>
       </c>
-      <c r="D33" t="n">
+      <c r="F33" t="n">
         <v>6.2</v>
       </c>
-      <c r="E33" s="2" t="n">
+      <c r="G33" s="2" t="n">
         <v>45984</v>
       </c>
-      <c r="F33" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="G33" s="2" t="n">
+      <c r="H33" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I33" s="2" t="n">
         <v>45970</v>
       </c>
-      <c r="H33" t="n">
+      <c r="J33" t="n">
         <v>6.8</v>
       </c>
-      <c r="I33" s="2" t="n">
+      <c r="K33" s="2" t="n">
         <v>45962</v>
       </c>
-      <c r="J33" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K33" s="2" t="n">
+      <c r="L33" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="M33" s="2" t="n">
         <v>45956</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>6.8</v>
       </c>
-      <c r="M33" s="2" t="n">
+      <c r="O33" s="2" t="n">
         <v>45935</v>
       </c>
-      <c r="N33" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="O33" s="2" t="n">
-        <v>45919</v>
-      </c>
       <c r="P33" t="n">
-        <v>6.66</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="34">
@@ -1990,46 +2020,46 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>45998</v>
+      </c>
+      <c r="D37" t="n">
         <v>7.9</v>
       </c>
-      <c r="C37" s="2" t="n">
+      <c r="E37" s="2" t="n">
         <v>45994</v>
       </c>
-      <c r="D37" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="E37" s="2" t="n">
+      <c r="F37" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G37" s="2" t="n">
         <v>45991</v>
       </c>
-      <c r="F37" t="n">
+      <c r="H37" t="n">
         <v>7.2</v>
       </c>
-      <c r="G37" s="2" t="n">
+      <c r="I37" s="2" t="n">
         <v>45982</v>
       </c>
-      <c r="H37" t="n">
+      <c r="J37" t="n">
         <v>7.1</v>
       </c>
-      <c r="I37" s="2" t="n">
+      <c r="K37" s="2" t="n">
         <v>45970</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>7.4</v>
       </c>
-      <c r="K37" s="2" t="n">
+      <c r="M37" s="2" t="n">
         <v>45962</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>7.8</v>
       </c>
-      <c r="M37" s="2" t="n">
+      <c r="O37" s="2" t="n">
         <v>45957</v>
-      </c>
-      <c r="N37" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="O37" s="2" t="n">
-        <v>45948</v>
       </c>
       <c r="P37" t="n">
         <v>7.26</v>
@@ -2100,49 +2130,49 @@
         <v>51</v>
       </c>
       <c r="B41" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>45998</v>
+      </c>
+      <c r="D41" t="n">
         <v>6.9</v>
       </c>
-      <c r="C41" s="2" t="n">
+      <c r="E41" s="2" t="n">
         <v>45991</v>
       </c>
-      <c r="D41" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="E41" s="2" t="n">
+      <c r="F41" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G41" s="2" t="n">
         <v>45984</v>
       </c>
-      <c r="F41" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="G41" s="2" t="n">
+      <c r="H41" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I41" s="2" t="n">
         <v>45964</v>
       </c>
-      <c r="H41" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="I41" s="2" t="n">
+      <c r="J41" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="K41" s="2" t="n">
         <v>45955</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>7.8</v>
       </c>
-      <c r="K41" s="2" t="n">
+      <c r="M41" s="2" t="n">
         <v>45947</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>7.7</v>
       </c>
-      <c r="M41" s="2" t="n">
+      <c r="O41" s="2" t="n">
         <v>45935</v>
       </c>
-      <c r="N41" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O41" s="2" t="n">
-        <v>45927</v>
-      </c>
       <c r="P41" t="n">
-        <v>6.97</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="42">
@@ -2219,21 +2249,51 @@
       <c r="A44" t="n">
         <v>54</v>
       </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
+      <c r="B44" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="D44" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45970</v>
+      </c>
+      <c r="F44" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+      <c r="I44" s="2" t="n">
+        <v>45962</v>
+      </c>
+      <c r="J44" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="K44" s="2" t="n">
+        <v>45955</v>
+      </c>
+      <c r="L44" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="M44" s="2" t="n">
+        <v>45948</v>
+      </c>
+      <c r="N44" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O44" s="2" t="n">
+        <v>45944</v>
+      </c>
+      <c r="P44" t="n">
+        <v>7.24</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2802,49 +2862,49 @@
         <v>75</v>
       </c>
       <c r="B58" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>45996</v>
+      </c>
+      <c r="D58" t="n">
         <v>6.3</v>
       </c>
-      <c r="C58" s="2" t="n">
+      <c r="E58" s="2" t="n">
         <v>45982</v>
       </c>
-      <c r="D58" t="n">
+      <c r="F58" t="n">
         <v>6.8</v>
       </c>
-      <c r="E58" s="2" t="n">
+      <c r="G58" s="2" t="n">
         <v>45976</v>
       </c>
-      <c r="F58" t="n">
+      <c r="H58" t="n">
         <v>7.3</v>
       </c>
-      <c r="G58" s="2" t="n">
+      <c r="I58" s="2" t="n">
         <v>45954</v>
       </c>
-      <c r="H58" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="I58" s="2" t="n">
+      <c r="J58" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="K58" s="2" t="n">
         <v>45947</v>
       </c>
-      <c r="J58" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K58" s="2" t="n">
+      <c r="L58" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="M58" s="2" t="n">
         <v>45941</v>
       </c>
-      <c r="L58" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M58" s="2" t="n">
+      <c r="N58" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O58" s="2" t="n">
         <v>45933</v>
       </c>
-      <c r="N58" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O58" s="2" t="n">
-        <v>45929</v>
-      </c>
       <c r="P58" t="n">
-        <v>6.69</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="59">
@@ -2852,49 +2912,49 @@
         <v>80</v>
       </c>
       <c r="B59" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>45997</v>
+      </c>
+      <c r="D59" t="n">
         <v>6.8</v>
       </c>
-      <c r="C59" s="2" t="n">
+      <c r="E59" s="2" t="n">
         <v>45990</v>
       </c>
-      <c r="D59" t="n">
+      <c r="F59" t="n">
         <v>6.2</v>
       </c>
-      <c r="E59" s="2" t="n">
+      <c r="G59" s="2" t="n">
         <v>45983</v>
       </c>
-      <c r="F59" t="n">
+      <c r="H59" t="n">
         <v>7.2</v>
       </c>
-      <c r="G59" s="2" t="n">
+      <c r="I59" s="2" t="n">
         <v>45969</v>
       </c>
-      <c r="H59" t="n">
+      <c r="J59" t="n">
         <v>5.9</v>
       </c>
-      <c r="I59" s="2" t="n">
+      <c r="K59" s="2" t="n">
         <v>45961</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>6.8</v>
       </c>
-      <c r="K59" s="2" t="n">
+      <c r="M59" s="2" t="n">
         <v>45955</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>6.4</v>
       </c>
-      <c r="M59" s="2" t="n">
+      <c r="O59" s="2" t="n">
         <v>45949</v>
       </c>
-      <c r="N59" t="n">
-        <v>7</v>
-      </c>
-      <c r="O59" s="2" t="n">
-        <v>45934</v>
-      </c>
       <c r="P59" t="n">
-        <v>6.61</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="60">
@@ -3747,21 +3807,39 @@
       <c r="A81" t="n">
         <v>107</v>
       </c>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
+      <c r="B81" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>45991</v>
+      </c>
+      <c r="D81" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45983</v>
+      </c>
+      <c r="F81" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="G81" s="2" t="n">
+        <v>45970</v>
+      </c>
+      <c r="H81" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I81" s="2" t="n">
+        <v>45963</v>
+      </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
+      <c r="P81" t="n">
+        <v>6.45</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -4269,21 +4347,51 @@
       <c r="A95" t="n">
         <v>122</v>
       </c>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
+      <c r="B95" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>45955</v>
+      </c>
+      <c r="D95" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45948</v>
+      </c>
+      <c r="F95" t="n">
+        <v>8</v>
+      </c>
+      <c r="G95" s="2" t="n">
+        <v>45942</v>
+      </c>
+      <c r="H95" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I95" s="2" t="n">
+        <v>45934</v>
+      </c>
+      <c r="J95" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="K95" s="2" t="n">
+        <v>45927</v>
+      </c>
+      <c r="L95" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="M95" s="2" t="n">
+        <v>45921</v>
+      </c>
+      <c r="N95" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="O95" s="2" t="n">
+        <v>45913</v>
+      </c>
+      <c r="P95" t="n">
+        <v>7.29</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -4436,49 +4544,49 @@
         <v>129</v>
       </c>
       <c r="B100" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>45998</v>
+      </c>
+      <c r="D100" t="n">
         <v>6.8</v>
       </c>
-      <c r="C100" s="2" t="n">
+      <c r="E100" s="2" t="n">
         <v>45991</v>
       </c>
-      <c r="D100" t="n">
+      <c r="F100" t="n">
         <v>5.8</v>
       </c>
-      <c r="E100" s="2" t="n">
+      <c r="G100" s="2" t="n">
         <v>45983</v>
       </c>
-      <c r="F100" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="G100" s="2" t="n">
+      <c r="H100" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I100" s="2" t="n">
         <v>45969</v>
       </c>
-      <c r="H100" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="I100" s="2" t="n">
+      <c r="J100" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="K100" s="2" t="n">
         <v>45956</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>5.4</v>
       </c>
-      <c r="K100" s="2" t="n">
+      <c r="M100" s="2" t="n">
         <v>45933</v>
       </c>
-      <c r="L100" t="n">
+      <c r="N100" t="n">
         <v>6.4</v>
       </c>
-      <c r="M100" s="2" t="n">
+      <c r="O100" s="2" t="n">
         <v>45927</v>
       </c>
-      <c r="N100" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O100" s="2" t="n">
-        <v>45919</v>
-      </c>
       <c r="P100" t="n">
-        <v>6.31</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="101">
@@ -4544,7 +4652,7 @@
         <v>132</v>
       </c>
       <c r="B103" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="C103" s="2" t="n">
         <v>45992</v>
@@ -4586,7 +4694,7 @@
         <v>45933</v>
       </c>
       <c r="P103" t="n">
-        <v>6.97</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="104">
@@ -4594,49 +4702,49 @@
         <v>133</v>
       </c>
       <c r="B104" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>45997</v>
+      </c>
+      <c r="D104" t="n">
         <v>6.1</v>
       </c>
-      <c r="C104" s="2" t="n">
+      <c r="E104" s="2" t="n">
         <v>45991</v>
       </c>
-      <c r="D104" t="n">
+      <c r="F104" t="n">
         <v>7.7</v>
       </c>
-      <c r="E104" s="2" t="n">
+      <c r="G104" s="2" t="n">
         <v>45983</v>
       </c>
-      <c r="F104" t="n">
+      <c r="H104" t="n">
         <v>7.4</v>
       </c>
-      <c r="G104" s="2" t="n">
+      <c r="I104" s="2" t="n">
         <v>45969</v>
       </c>
-      <c r="H104" t="n">
+      <c r="J104" t="n">
         <v>6.2</v>
       </c>
-      <c r="I104" s="2" t="n">
+      <c r="K104" s="2" t="n">
         <v>45963</v>
       </c>
-      <c r="J104" t="n">
+      <c r="L104" t="n">
         <v>7.2</v>
       </c>
-      <c r="K104" s="2" t="n">
+      <c r="M104" s="2" t="n">
         <v>45957</v>
       </c>
-      <c r="L104" t="n">
+      <c r="N104" t="n">
         <v>6.8</v>
       </c>
-      <c r="M104" s="2" t="n">
+      <c r="O104" s="2" t="n">
         <v>45948</v>
       </c>
-      <c r="N104" t="n">
-        <v>7</v>
-      </c>
-      <c r="O104" s="2" t="n">
-        <v>45935</v>
-      </c>
       <c r="P104" t="n">
-        <v>6.91</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="105">
@@ -4694,49 +4802,49 @@
         <v>135</v>
       </c>
       <c r="B106" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>45998</v>
+      </c>
+      <c r="D106" t="n">
         <v>8.1</v>
       </c>
-      <c r="C106" s="2" t="n">
+      <c r="E106" s="2" t="n">
         <v>45991</v>
       </c>
-      <c r="D106" t="n">
+      <c r="F106" t="n">
         <v>7.7</v>
       </c>
-      <c r="E106" s="2" t="n">
+      <c r="G106" s="2" t="n">
         <v>45984</v>
       </c>
-      <c r="F106" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="G106" s="2" t="n">
+      <c r="H106" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I106" s="2" t="n">
         <v>45969</v>
       </c>
-      <c r="H106" t="n">
+      <c r="J106" t="n">
         <v>7.1</v>
       </c>
-      <c r="I106" s="2" t="n">
+      <c r="K106" s="2" t="n">
         <v>45963</v>
       </c>
-      <c r="J106" t="n">
+      <c r="L106" t="n">
         <v>6.8</v>
       </c>
-      <c r="K106" s="2" t="n">
+      <c r="M106" s="2" t="n">
         <v>45956</v>
       </c>
-      <c r="L106" t="n">
+      <c r="N106" t="n">
         <v>6.4</v>
       </c>
-      <c r="M106" s="2" t="n">
+      <c r="O106" s="2" t="n">
         <v>45950</v>
       </c>
-      <c r="N106" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="O106" s="2" t="n">
-        <v>45935</v>
-      </c>
       <c r="P106" t="n">
-        <v>7.11</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="107">
@@ -4968,49 +5076,49 @@
         <v>144</v>
       </c>
       <c r="B113" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="C113" s="2" t="n">
+        <v>45996</v>
+      </c>
+      <c r="D113" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E113" s="2" t="n">
         <v>45972</v>
       </c>
-      <c r="D113" t="n">
+      <c r="F113" t="n">
         <v>7.1</v>
       </c>
-      <c r="E113" s="2" t="n">
+      <c r="G113" s="2" t="n">
         <v>45962</v>
       </c>
-      <c r="F113" t="n">
+      <c r="H113" t="n">
         <v>6.4</v>
       </c>
-      <c r="G113" s="2" t="n">
+      <c r="I113" s="2" t="n">
         <v>45955</v>
       </c>
-      <c r="H113" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="I113" s="2" t="n">
+      <c r="J113" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K113" s="2" t="n">
         <v>45948</v>
       </c>
-      <c r="J113" t="n">
+      <c r="L113" t="n">
         <v>6.4</v>
       </c>
-      <c r="K113" s="2" t="n">
+      <c r="M113" s="2" t="n">
         <v>45923</v>
       </c>
-      <c r="L113" t="n">
+      <c r="N113" t="n">
         <v>6.9</v>
       </c>
-      <c r="M113" s="2" t="n">
+      <c r="O113" s="2" t="n">
         <v>45913</v>
       </c>
-      <c r="N113" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="O113" s="2" t="n">
-        <v>45902</v>
-      </c>
       <c r="P113" t="n">
-        <v>6.67</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="114">
@@ -5068,49 +5176,49 @@
         <v>146</v>
       </c>
       <c r="B115" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C115" s="2" t="n">
+        <v>45997</v>
+      </c>
+      <c r="D115" t="n">
         <v>6.9</v>
       </c>
-      <c r="C115" s="2" t="n">
+      <c r="E115" s="2" t="n">
         <v>45990</v>
       </c>
-      <c r="D115" t="n">
+      <c r="F115" t="n">
         <v>7.3</v>
       </c>
-      <c r="E115" s="2" t="n">
+      <c r="G115" s="2" t="n">
         <v>45982</v>
       </c>
-      <c r="F115" t="n">
+      <c r="H115" t="n">
         <v>6.8</v>
       </c>
-      <c r="G115" s="2" t="n">
+      <c r="I115" s="2" t="n">
         <v>45969</v>
       </c>
-      <c r="H115" t="n">
+      <c r="J115" t="n">
         <v>7.7</v>
       </c>
-      <c r="I115" s="2" t="n">
+      <c r="K115" s="2" t="n">
         <v>45962</v>
       </c>
-      <c r="J115" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K115" s="2" t="n">
+      <c r="L115" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M115" s="2" t="n">
         <v>45954</v>
-      </c>
-      <c r="L115" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="M115" s="2" t="n">
-        <v>45947</v>
       </c>
       <c r="N115" t="n">
         <v>7.1</v>
       </c>
       <c r="O115" s="2" t="n">
-        <v>45934</v>
+        <v>45947</v>
       </c>
       <c r="P115" t="n">
-        <v>7.06</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="116">
@@ -5118,49 +5226,49 @@
         <v>147</v>
       </c>
       <c r="B116" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="C116" s="2" t="n">
+        <v>45997</v>
+      </c>
+      <c r="D116" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E116" s="2" t="n">
         <v>45990</v>
       </c>
-      <c r="D116" t="n">
+      <c r="F116" t="n">
         <v>6.9</v>
       </c>
-      <c r="E116" s="2" t="n">
+      <c r="G116" s="2" t="n">
         <v>45982</v>
       </c>
-      <c r="F116" t="n">
+      <c r="H116" t="n">
         <v>6.8</v>
       </c>
-      <c r="G116" s="2" t="n">
+      <c r="I116" s="2" t="n">
         <v>45969</v>
       </c>
-      <c r="H116" t="n">
+      <c r="J116" t="n">
         <v>6.1</v>
       </c>
-      <c r="I116" s="2" t="n">
+      <c r="K116" s="2" t="n">
         <v>45962</v>
       </c>
-      <c r="J116" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="K116" s="2" t="n">
+      <c r="L116" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="M116" s="2" t="n">
         <v>45954</v>
       </c>
-      <c r="L116" t="n">
+      <c r="N116" t="n">
         <v>6.3</v>
       </c>
-      <c r="M116" s="2" t="n">
+      <c r="O116" s="2" t="n">
         <v>45947</v>
       </c>
-      <c r="N116" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O116" s="2" t="n">
-        <v>45934</v>
-      </c>
       <c r="P116" t="n">
-        <v>6.57</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="117">
@@ -5188,46 +5296,46 @@
         <v>149</v>
       </c>
       <c r="B118" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C118" s="2" t="n">
+        <v>45998</v>
+      </c>
+      <c r="D118" t="n">
         <v>7.1</v>
       </c>
-      <c r="C118" s="2" t="n">
+      <c r="E118" s="2" t="n">
         <v>45989</v>
       </c>
-      <c r="D118" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="E118" s="2" t="n">
+      <c r="F118" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G118" s="2" t="n">
         <v>45983</v>
       </c>
-      <c r="F118" t="n">
+      <c r="H118" t="n">
         <v>7.2</v>
       </c>
-      <c r="G118" s="2" t="n">
+      <c r="I118" s="2" t="n">
         <v>45969</v>
       </c>
-      <c r="H118" t="n">
+      <c r="J118" t="n">
         <v>6.2</v>
       </c>
-      <c r="I118" s="2" t="n">
+      <c r="K118" s="2" t="n">
         <v>45963</v>
       </c>
-      <c r="J118" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K118" s="2" t="n">
+      <c r="L118" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="M118" s="2" t="n">
         <v>45954</v>
       </c>
-      <c r="L118" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="M118" s="2" t="n">
+      <c r="N118" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O118" s="2" t="n">
         <v>45947</v>
-      </c>
-      <c r="N118" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O118" s="2" t="n">
-        <v>45935</v>
       </c>
       <c r="P118" t="n">
         <v>6.67</v>
@@ -5530,49 +5638,49 @@
         <v>165</v>
       </c>
       <c r="B126" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>45997</v>
+      </c>
+      <c r="D126" t="n">
         <v>6.3</v>
       </c>
-      <c r="C126" s="2" t="n">
+      <c r="E126" s="2" t="n">
         <v>45990</v>
       </c>
-      <c r="D126" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="E126" s="2" t="n">
+      <c r="F126" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G126" s="2" t="n">
         <v>45984</v>
       </c>
-      <c r="F126" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="G126" s="2" t="n">
+      <c r="H126" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I126" s="2" t="n">
         <v>45968</v>
       </c>
-      <c r="H126" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="I126" s="2" t="n">
+      <c r="J126" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="K126" s="2" t="n">
         <v>45964</v>
       </c>
-      <c r="J126" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="K126" s="2" t="n">
+      <c r="L126" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="M126" s="2" t="n">
         <v>45956</v>
       </c>
-      <c r="L126" t="n">
+      <c r="N126" t="n">
         <v>7.4</v>
       </c>
-      <c r="M126" s="2" t="n">
+      <c r="O126" s="2" t="n">
         <v>45947</v>
       </c>
-      <c r="N126" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="O126" s="2" t="n">
-        <v>45934</v>
-      </c>
       <c r="P126" t="n">
-        <v>6.71</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="127">
@@ -5580,49 +5688,49 @@
         <v>166</v>
       </c>
       <c r="B127" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C127" s="2" t="n">
+        <v>45996</v>
+      </c>
+      <c r="D127" t="n">
         <v>7</v>
       </c>
-      <c r="C127" s="2" t="n">
+      <c r="E127" s="2" t="n">
         <v>45991</v>
       </c>
-      <c r="D127" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="E127" s="2" t="n">
+      <c r="F127" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G127" s="2" t="n">
         <v>45983</v>
       </c>
-      <c r="F127" t="n">
+      <c r="H127" t="n">
         <v>6.3</v>
       </c>
-      <c r="G127" s="2" t="n">
+      <c r="I127" s="2" t="n">
         <v>45969</v>
       </c>
-      <c r="H127" t="n">
+      <c r="J127" t="n">
         <v>7.3</v>
       </c>
-      <c r="I127" s="2" t="n">
+      <c r="K127" s="2" t="n">
         <v>45964</v>
       </c>
-      <c r="J127" t="n">
+      <c r="L127" t="n">
         <v>7.4</v>
       </c>
-      <c r="K127" s="2" t="n">
+      <c r="M127" s="2" t="n">
         <v>45956</v>
       </c>
-      <c r="L127" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M127" s="2" t="n">
+      <c r="N127" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O127" s="2" t="n">
         <v>45948</v>
       </c>
-      <c r="N127" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O127" s="2" t="n">
-        <v>45934</v>
-      </c>
       <c r="P127" t="n">
-        <v>6.8</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="128">
@@ -5630,49 +5738,49 @@
         <v>167</v>
       </c>
       <c r="B128" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C128" s="2" t="n">
+        <v>45996</v>
+      </c>
+      <c r="D128" t="n">
         <v>7.1</v>
       </c>
-      <c r="C128" s="2" t="n">
+      <c r="E128" s="2" t="n">
         <v>45983</v>
       </c>
-      <c r="D128" t="n">
+      <c r="F128" t="n">
         <v>6.3</v>
       </c>
-      <c r="E128" s="2" t="n">
+      <c r="G128" s="2" t="n">
         <v>45968</v>
       </c>
-      <c r="F128" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="G128" s="2" t="n">
+      <c r="H128" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="I128" s="2" t="n">
         <v>45955</v>
       </c>
-      <c r="H128" t="n">
+      <c r="J128" t="n">
         <v>6.4</v>
       </c>
-      <c r="I128" s="2" t="n">
+      <c r="K128" s="2" t="n">
         <v>45949</v>
       </c>
-      <c r="J128" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K128" s="2" t="n">
+      <c r="L128" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M128" s="2" t="n">
         <v>45872</v>
       </c>
-      <c r="L128" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M128" s="2" t="n">
+      <c r="N128" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O128" s="2" t="n">
         <v>45866</v>
       </c>
-      <c r="N128" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="O128" s="2" t="n">
-        <v>45858</v>
-      </c>
       <c r="P128" t="n">
-        <v>6.6</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="129">
@@ -5730,49 +5838,49 @@
         <v>169</v>
       </c>
       <c r="B130" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C130" s="2" t="n">
+        <v>45996</v>
+      </c>
+      <c r="D130" t="n">
         <v>7.2</v>
       </c>
-      <c r="C130" s="2" t="n">
+      <c r="E130" s="2" t="n">
         <v>45991</v>
       </c>
-      <c r="D130" t="n">
+      <c r="F130" t="n">
         <v>7.1</v>
       </c>
-      <c r="E130" s="2" t="n">
+      <c r="G130" s="2" t="n">
         <v>45983</v>
       </c>
-      <c r="F130" t="n">
+      <c r="H130" t="n">
         <v>7</v>
       </c>
-      <c r="G130" s="2" t="n">
+      <c r="I130" s="2" t="n">
         <v>45969</v>
       </c>
-      <c r="H130" t="n">
+      <c r="J130" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="I130" s="2" t="n">
+      <c r="K130" s="2" t="n">
         <v>45964</v>
       </c>
-      <c r="J130" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K130" s="2" t="n">
+      <c r="L130" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="M130" s="2" t="n">
         <v>45956</v>
       </c>
-      <c r="L130" t="n">
+      <c r="N130" t="n">
         <v>7</v>
       </c>
-      <c r="M130" s="2" t="n">
+      <c r="O130" s="2" t="n">
         <v>45948</v>
       </c>
-      <c r="N130" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="O130" s="2" t="n">
-        <v>45927</v>
-      </c>
       <c r="P130" t="n">
-        <v>7.14</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="131">
@@ -5830,49 +5938,49 @@
         <v>171</v>
       </c>
       <c r="B132" t="n">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="C132" s="2" t="n">
+        <v>45998</v>
+      </c>
+      <c r="D132" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E132" s="2" t="n">
         <v>45991</v>
       </c>
-      <c r="D132" t="n">
+      <c r="F132" t="n">
         <v>6.3</v>
       </c>
-      <c r="E132" s="2" t="n">
+      <c r="G132" s="2" t="n">
         <v>45985</v>
       </c>
-      <c r="F132" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="G132" s="2" t="n">
+      <c r="H132" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I132" s="2" t="n">
         <v>45970</v>
       </c>
-      <c r="H132" t="n">
+      <c r="J132" t="n">
         <v>7.2</v>
       </c>
-      <c r="I132" s="2" t="n">
+      <c r="K132" s="2" t="n">
         <v>45962</v>
       </c>
-      <c r="J132" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K132" s="2" t="n">
+      <c r="L132" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="M132" s="2" t="n">
         <v>45954</v>
       </c>
-      <c r="L132" t="n">
+      <c r="N132" t="n">
         <v>7.2</v>
       </c>
-      <c r="M132" s="2" t="n">
+      <c r="O132" s="2" t="n">
         <v>45949</v>
       </c>
-      <c r="N132" t="n">
-        <v>7</v>
-      </c>
-      <c r="O132" s="2" t="n">
-        <v>45934</v>
-      </c>
       <c r="P132" t="n">
-        <v>6.8</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="133">
@@ -6301,46 +6409,46 @@
         <v>6.8</v>
       </c>
       <c r="C142" s="2" t="n">
+        <v>45998</v>
+      </c>
+      <c r="D142" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E142" s="2" t="n">
         <v>45991</v>
       </c>
-      <c r="D142" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="E142" s="2" t="n">
+      <c r="F142" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G142" s="2" t="n">
         <v>45985</v>
       </c>
-      <c r="F142" t="n">
+      <c r="H142" t="n">
         <v>7.4</v>
       </c>
-      <c r="G142" s="2" t="n">
+      <c r="I142" s="2" t="n">
         <v>45962</v>
       </c>
-      <c r="H142" t="n">
+      <c r="J142" t="n">
         <v>6.4</v>
       </c>
-      <c r="I142" s="2" t="n">
+      <c r="K142" s="2" t="n">
         <v>45954</v>
       </c>
-      <c r="J142" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K142" s="2" t="n">
+      <c r="L142" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="M142" s="2" t="n">
         <v>45949</v>
       </c>
-      <c r="L142" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="M142" s="2" t="n">
+      <c r="N142" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O142" s="2" t="n">
         <v>45934</v>
       </c>
-      <c r="N142" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O142" s="2" t="n">
-        <v>45928</v>
-      </c>
       <c r="P142" t="n">
-        <v>6.7</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="143">
@@ -6428,49 +6536,49 @@
         <v>184</v>
       </c>
       <c r="B145" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="C145" s="2" t="n">
+        <v>45998</v>
+      </c>
+      <c r="D145" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E145" s="2" t="n">
         <v>45991</v>
       </c>
-      <c r="D145" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="E145" s="2" t="n">
+      <c r="F145" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G145" s="2" t="n">
         <v>45985</v>
       </c>
-      <c r="F145" t="n">
+      <c r="H145" t="n">
         <v>7.2</v>
       </c>
-      <c r="G145" s="2" t="n">
+      <c r="I145" s="2" t="n">
         <v>45970</v>
       </c>
-      <c r="H145" t="n">
+      <c r="J145" t="n">
         <v>6.3</v>
       </c>
-      <c r="I145" s="2" t="n">
+      <c r="K145" s="2" t="n">
         <v>45962</v>
       </c>
-      <c r="J145" t="n">
+      <c r="L145" t="n">
         <v>6.9</v>
       </c>
-      <c r="K145" s="2" t="n">
+      <c r="M145" s="2" t="n">
         <v>45954</v>
       </c>
-      <c r="L145" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="M145" s="2" t="n">
+      <c r="N145" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="O145" s="2" t="n">
         <v>45949</v>
       </c>
-      <c r="N145" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="O145" s="2" t="n">
-        <v>45934</v>
-      </c>
       <c r="P145" t="n">
-        <v>6.8</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="146">
@@ -6736,49 +6844,49 @@
         <v>192</v>
       </c>
       <c r="B152" t="n">
+        <v>7</v>
+      </c>
+      <c r="C152" s="2" t="n">
+        <v>45998</v>
+      </c>
+      <c r="D152" t="n">
         <v>7.1</v>
       </c>
-      <c r="C152" s="2" t="n">
+      <c r="E152" s="2" t="n">
         <v>45990</v>
       </c>
-      <c r="D152" t="n">
+      <c r="F152" t="n">
         <v>6.2</v>
       </c>
-      <c r="E152" s="2" t="n">
+      <c r="G152" s="2" t="n">
         <v>45982</v>
       </c>
-      <c r="F152" t="n">
+      <c r="H152" t="n">
         <v>7.4</v>
       </c>
-      <c r="G152" s="2" t="n">
+      <c r="I152" s="2" t="n">
         <v>45969</v>
       </c>
-      <c r="H152" t="n">
+      <c r="J152" t="n">
         <v>6.3</v>
       </c>
-      <c r="I152" s="2" t="n">
+      <c r="K152" s="2" t="n">
         <v>45963</v>
       </c>
-      <c r="J152" t="n">
+      <c r="L152" t="n">
         <v>6.9</v>
       </c>
-      <c r="K152" s="2" t="n">
+      <c r="M152" s="2" t="n">
         <v>45960</v>
       </c>
-      <c r="L152" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="M152" s="2" t="n">
+      <c r="N152" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O152" s="2" t="n">
         <v>45954</v>
       </c>
-      <c r="N152" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="O152" s="2" t="n">
-        <v>45948</v>
-      </c>
       <c r="P152" t="n">
-        <v>6.8</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="153">
@@ -6862,49 +6970,49 @@
         <v>195</v>
       </c>
       <c r="B155" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="C155" s="2" t="n">
+        <v>45995</v>
+      </c>
+      <c r="D155" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E155" s="2" t="n">
         <v>45989</v>
       </c>
-      <c r="D155" t="n">
+      <c r="F155" t="n">
         <v>7.5</v>
       </c>
-      <c r="E155" s="2" t="n">
+      <c r="G155" s="2" t="n">
         <v>45983</v>
       </c>
-      <c r="F155" t="n">
+      <c r="H155" t="n">
         <v>6.9</v>
       </c>
-      <c r="G155" s="2" t="n">
+      <c r="I155" s="2" t="n">
         <v>45962</v>
       </c>
-      <c r="H155" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="I155" s="2" t="n">
+      <c r="J155" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="K155" s="2" t="n">
         <v>45955</v>
       </c>
-      <c r="J155" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K155" s="2" t="n">
+      <c r="L155" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="M155" s="2" t="n">
         <v>45949</v>
       </c>
-      <c r="L155" t="n">
+      <c r="N155" t="n">
         <v>6.3</v>
       </c>
-      <c r="M155" s="2" t="n">
+      <c r="O155" s="2" t="n">
         <v>45935</v>
       </c>
-      <c r="N155" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O155" s="2" t="n">
-        <v>45928</v>
-      </c>
       <c r="P155" t="n">
-        <v>6.67</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="156">
@@ -7038,49 +7146,49 @@
         <v>199</v>
       </c>
       <c r="B159" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C159" s="2" t="n">
+        <v>45998</v>
+      </c>
+      <c r="D159" t="n">
         <v>6.3</v>
       </c>
-      <c r="C159" s="2" t="n">
+      <c r="E159" s="2" t="n">
         <v>45990</v>
       </c>
-      <c r="D159" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="E159" s="2" t="n">
+      <c r="F159" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G159" s="2" t="n">
         <v>45983</v>
       </c>
-      <c r="F159" t="n">
+      <c r="H159" t="n">
         <v>6.4</v>
       </c>
-      <c r="G159" s="2" t="n">
+      <c r="I159" s="2" t="n">
         <v>45969</v>
       </c>
-      <c r="H159" t="n">
+      <c r="J159" t="n">
         <v>6.8</v>
       </c>
-      <c r="I159" s="2" t="n">
+      <c r="K159" s="2" t="n">
         <v>45963</v>
       </c>
-      <c r="J159" t="n">
+      <c r="L159" t="n">
         <v>6.4</v>
       </c>
-      <c r="K159" s="2" t="n">
+      <c r="M159" s="2" t="n">
         <v>45948</v>
       </c>
-      <c r="L159" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="M159" s="2" t="n">
+      <c r="N159" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O159" s="2" t="n">
         <v>45935</v>
       </c>
-      <c r="N159" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="O159" s="2" t="n">
-        <v>45919</v>
-      </c>
       <c r="P159" t="n">
-        <v>6.61</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="160">
@@ -7410,49 +7518,49 @@
         <v>209</v>
       </c>
       <c r="B167" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C167" s="2" t="n">
+        <v>45998</v>
+      </c>
+      <c r="D167" t="n">
         <v>6.4</v>
       </c>
-      <c r="C167" s="2" t="n">
+      <c r="E167" s="2" t="n">
         <v>45982</v>
       </c>
-      <c r="D167" t="n">
+      <c r="F167" t="n">
         <v>7</v>
       </c>
-      <c r="E167" s="2" t="n">
+      <c r="G167" s="2" t="n">
         <v>45969</v>
       </c>
-      <c r="F167" t="n">
+      <c r="H167" t="n">
         <v>7.6</v>
       </c>
-      <c r="G167" s="2" t="n">
+      <c r="I167" s="2" t="n">
         <v>45963</v>
       </c>
-      <c r="H167" t="n">
+      <c r="J167" t="n">
         <v>7.5</v>
       </c>
-      <c r="I167" s="2" t="n">
+      <c r="K167" s="2" t="n">
         <v>45960</v>
       </c>
-      <c r="J167" t="n">
+      <c r="L167" t="n">
         <v>7</v>
       </c>
-      <c r="K167" s="2" t="n">
+      <c r="M167" s="2" t="n">
         <v>45948</v>
       </c>
-      <c r="L167" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M167" s="2" t="n">
+      <c r="N167" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O167" s="2" t="n">
         <v>45934</v>
       </c>
-      <c r="N167" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O167" s="2" t="n">
-        <v>45920</v>
-      </c>
       <c r="P167" t="n">
-        <v>6.76</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="168">
@@ -8321,21 +8429,51 @@
       <c r="A188" t="n">
         <v>230</v>
       </c>
-      <c r="B188" t="inlineStr"/>
-      <c r="C188" t="inlineStr"/>
-      <c r="D188" t="inlineStr"/>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
-      <c r="H188" t="inlineStr"/>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="inlineStr"/>
-      <c r="N188" t="inlineStr"/>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
+      <c r="B188" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C188" s="2" t="n">
+        <v>45921</v>
+      </c>
+      <c r="D188" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>45913</v>
+      </c>
+      <c r="F188" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G188" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="H188" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I188" s="2" t="n">
+        <v>45900</v>
+      </c>
+      <c r="J188" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K188" s="2" t="n">
+        <v>45893</v>
+      </c>
+      <c r="L188" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M188" s="2" t="n">
+        <v>45885</v>
+      </c>
+      <c r="N188" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="O188" s="2" t="n">
+        <v>45878</v>
+      </c>
+      <c r="P188" t="n">
+        <v>6.8</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -8659,21 +8797,51 @@
       <c r="A197" t="n">
         <v>242</v>
       </c>
-      <c r="B197" t="inlineStr"/>
-      <c r="C197" t="inlineStr"/>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="inlineStr"/>
-      <c r="N197" t="inlineStr"/>
-      <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr"/>
+      <c r="B197" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C197" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="D197" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>45815</v>
+      </c>
+      <c r="F197" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G197" s="2" t="n">
+        <v>45811</v>
+      </c>
+      <c r="H197" t="n">
+        <v>6</v>
+      </c>
+      <c r="I197" s="2" t="n">
+        <v>45802</v>
+      </c>
+      <c r="J197" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="K197" s="2" t="n">
+        <v>45788</v>
+      </c>
+      <c r="L197" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="M197" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="N197" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O197" s="2" t="n">
+        <v>45765</v>
+      </c>
+      <c r="P197" t="n">
+        <v>6.63</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -8790,49 +8958,49 @@
         <v>247</v>
       </c>
       <c r="B201" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C201" s="2" t="n">
+        <v>45998</v>
+      </c>
+      <c r="D201" t="n">
         <v>8</v>
       </c>
-      <c r="C201" s="2" t="n">
+      <c r="E201" s="2" t="n">
         <v>45989</v>
       </c>
-      <c r="D201" t="n">
+      <c r="F201" t="n">
         <v>6.8</v>
       </c>
-      <c r="E201" s="2" t="n">
+      <c r="G201" s="2" t="n">
         <v>45983</v>
       </c>
-      <c r="F201" t="n">
+      <c r="H201" t="n">
         <v>5.4</v>
       </c>
-      <c r="G201" s="2" t="n">
+      <c r="I201" s="2" t="n">
         <v>45969</v>
       </c>
-      <c r="H201" t="n">
+      <c r="J201" t="n">
         <v>7.4</v>
       </c>
-      <c r="I201" s="2" t="n">
+      <c r="K201" s="2" t="n">
         <v>45962</v>
       </c>
-      <c r="J201" t="n">
+      <c r="L201" t="n">
         <v>7.8</v>
       </c>
-      <c r="K201" s="2" t="n">
+      <c r="M201" s="2" t="n">
         <v>45954</v>
       </c>
-      <c r="L201" t="n">
+      <c r="N201" t="n">
         <v>9.4</v>
       </c>
-      <c r="M201" s="2" t="n">
+      <c r="O201" s="2" t="n">
         <v>45947</v>
       </c>
-      <c r="N201" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O201" s="2" t="n">
-        <v>45933</v>
-      </c>
       <c r="P201" t="n">
-        <v>7.31</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="202">
@@ -8890,49 +9058,49 @@
         <v>252</v>
       </c>
       <c r="B204" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C204" s="2" t="n">
+        <v>45998</v>
+      </c>
+      <c r="D204" t="n">
         <v>7</v>
       </c>
-      <c r="C204" s="2" t="n">
+      <c r="E204" s="2" t="n">
         <v>45982</v>
       </c>
-      <c r="D204" t="n">
+      <c r="F204" t="n">
         <v>5.9</v>
       </c>
-      <c r="E204" s="2" t="n">
+      <c r="G204" s="2" t="n">
         <v>45970</v>
       </c>
-      <c r="F204" t="n">
+      <c r="H204" t="n">
         <v>6</v>
       </c>
-      <c r="G204" s="2" t="n">
+      <c r="I204" s="2" t="n">
         <v>45963</v>
       </c>
-      <c r="H204" t="n">
+      <c r="J204" t="n">
         <v>7.2</v>
       </c>
-      <c r="I204" s="2" t="n">
+      <c r="K204" s="2" t="n">
         <v>45956</v>
       </c>
-      <c r="J204" t="n">
+      <c r="L204" t="n">
         <v>7.6</v>
       </c>
-      <c r="K204" s="2" t="n">
+      <c r="M204" s="2" t="n">
         <v>45948</v>
       </c>
-      <c r="L204" t="n">
+      <c r="N204" t="n">
         <v>7.7</v>
       </c>
-      <c r="M204" s="2" t="n">
+      <c r="O204" s="2" t="n">
         <v>45935</v>
       </c>
-      <c r="N204" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="O204" s="2" t="n">
-        <v>45926</v>
-      </c>
       <c r="P204" t="n">
-        <v>6.94</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="205">
@@ -8940,49 +9108,49 @@
         <v>253</v>
       </c>
       <c r="B205" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C205" s="2" t="n">
+        <v>45998</v>
+      </c>
+      <c r="D205" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E205" s="2" t="n">
         <v>45991</v>
       </c>
-      <c r="D205" t="n">
+      <c r="F205" t="n">
         <v>6.3</v>
       </c>
-      <c r="E205" s="2" t="n">
+      <c r="G205" s="2" t="n">
         <v>45984</v>
       </c>
-      <c r="F205" t="n">
+      <c r="H205" t="n">
         <v>7.1</v>
       </c>
-      <c r="G205" s="2" t="n">
+      <c r="I205" s="2" t="n">
         <v>45969</v>
       </c>
-      <c r="H205" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="I205" s="2" t="n">
+      <c r="J205" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="K205" s="2" t="n">
         <v>45963</v>
       </c>
-      <c r="J205" t="n">
+      <c r="L205" t="n">
         <v>6.4</v>
       </c>
-      <c r="K205" s="2" t="n">
+      <c r="M205" s="2" t="n">
         <v>45955</v>
       </c>
-      <c r="L205" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="M205" s="2" t="n">
+      <c r="N205" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O205" s="2" t="n">
         <v>45948</v>
       </c>
-      <c r="N205" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O205" s="2" t="n">
-        <v>45877</v>
-      </c>
       <c r="P205" t="n">
-        <v>6.56</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="206">
@@ -9016,45 +9184,49 @@
         <v>255</v>
       </c>
       <c r="B207" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C207" s="2" t="n">
+        <v>45998</v>
+      </c>
+      <c r="D207" t="n">
         <v>7.9</v>
       </c>
-      <c r="C207" s="2" t="n">
+      <c r="E207" s="2" t="n">
         <v>45991</v>
       </c>
-      <c r="D207" t="n">
+      <c r="F207" t="n">
         <v>7.1</v>
       </c>
-      <c r="E207" s="2" t="n">
+      <c r="G207" s="2" t="n">
         <v>45984</v>
       </c>
-      <c r="F207" t="n">
+      <c r="H207" t="n">
         <v>7.2</v>
       </c>
-      <c r="G207" s="2" t="n">
+      <c r="I207" s="2" t="n">
         <v>45963</v>
       </c>
-      <c r="H207" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="I207" s="2" t="n">
+      <c r="J207" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="K207" s="2" t="n">
         <v>45955</v>
       </c>
-      <c r="J207" t="n">
+      <c r="L207" t="n">
         <v>6</v>
       </c>
-      <c r="K207" s="2" t="n">
+      <c r="M207" s="2" t="n">
         <v>45921</v>
       </c>
-      <c r="L207" t="n">
+      <c r="N207" t="n">
         <v>7.7</v>
       </c>
-      <c r="M207" s="2" t="n">
+      <c r="O207" s="2" t="n">
         <v>45870</v>
       </c>
-      <c r="N207" t="inlineStr"/>
-      <c r="O207" t="inlineStr"/>
       <c r="P207" t="n">
-        <v>7.08</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="208">
@@ -9382,49 +9554,49 @@
         <v>267</v>
       </c>
       <c r="B215" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="C215" s="2" t="n">
+        <v>45996</v>
+      </c>
+      <c r="D215" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E215" s="2" t="n">
         <v>45990</v>
       </c>
-      <c r="D215" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="E215" s="2" t="n">
+      <c r="F215" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G215" s="2" t="n">
         <v>45984</v>
       </c>
-      <c r="F215" t="n">
+      <c r="H215" t="n">
         <v>6</v>
       </c>
-      <c r="G215" s="2" t="n">
+      <c r="I215" s="2" t="n">
         <v>45969</v>
       </c>
-      <c r="H215" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="I215" s="2" t="n">
+      <c r="J215" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="K215" s="2" t="n">
         <v>45963</v>
       </c>
-      <c r="J215" t="n">
+      <c r="L215" t="n">
         <v>6.9</v>
       </c>
-      <c r="K215" s="2" t="n">
+      <c r="M215" s="2" t="n">
         <v>45956</v>
       </c>
-      <c r="L215" t="n">
+      <c r="N215" t="n">
         <v>7.1</v>
       </c>
-      <c r="M215" s="2" t="n">
+      <c r="O215" s="2" t="n">
         <v>45948</v>
       </c>
-      <c r="N215" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="O215" s="2" t="n">
-        <v>45934</v>
-      </c>
       <c r="P215" t="n">
-        <v>6.69</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="216">
@@ -9432,49 +9604,49 @@
         <v>273</v>
       </c>
       <c r="B216" t="n">
+        <v>7</v>
+      </c>
+      <c r="C216" s="2" t="n">
+        <v>45998</v>
+      </c>
+      <c r="D216" t="n">
         <v>8.6</v>
       </c>
-      <c r="C216" s="2" t="n">
+      <c r="E216" s="2" t="n">
         <v>45991</v>
       </c>
-      <c r="D216" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="E216" s="2" t="n">
+      <c r="F216" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G216" s="2" t="n">
         <v>45984</v>
       </c>
-      <c r="F216" t="n">
+      <c r="H216" t="n">
         <v>6.9</v>
       </c>
-      <c r="G216" s="2" t="n">
+      <c r="I216" s="2" t="n">
         <v>45970</v>
       </c>
-      <c r="H216" t="n">
+      <c r="J216" t="n">
         <v>7.9</v>
       </c>
-      <c r="I216" s="2" t="n">
+      <c r="K216" s="2" t="n">
         <v>45962</v>
       </c>
-      <c r="J216" t="n">
+      <c r="L216" t="n">
         <v>7.4</v>
       </c>
-      <c r="K216" s="2" t="n">
+      <c r="M216" s="2" t="n">
         <v>45959</v>
       </c>
-      <c r="L216" t="n">
+      <c r="N216" t="n">
         <v>6.9</v>
       </c>
-      <c r="M216" s="2" t="n">
+      <c r="O216" s="2" t="n">
         <v>45956</v>
       </c>
-      <c r="N216" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="O216" s="2" t="n">
-        <v>45949</v>
-      </c>
       <c r="P216" t="n">
-        <v>7.21</v>
+        <v>7.31</v>
       </c>
     </row>
     <row r="217">
@@ -9808,49 +9980,49 @@
         <v>281</v>
       </c>
       <c r="B224" t="n">
+        <v>7</v>
+      </c>
+      <c r="C224" s="2" t="n">
+        <v>45998</v>
+      </c>
+      <c r="D224" t="n">
         <v>6.3</v>
       </c>
-      <c r="C224" s="2" t="n">
+      <c r="E224" s="2" t="n">
         <v>45990</v>
       </c>
-      <c r="D224" t="n">
+      <c r="F224" t="n">
         <v>7.4</v>
       </c>
-      <c r="E224" s="2" t="n">
+      <c r="G224" s="2" t="n">
         <v>45983</v>
       </c>
-      <c r="F224" t="n">
+      <c r="H224" t="n">
         <v>6.8</v>
       </c>
-      <c r="G224" s="2" t="n">
+      <c r="I224" s="2" t="n">
         <v>45948</v>
       </c>
-      <c r="H224" t="n">
+      <c r="J224" t="n">
         <v>6.3</v>
       </c>
-      <c r="I224" s="2" t="n">
+      <c r="K224" s="2" t="n">
         <v>45935</v>
       </c>
-      <c r="J224" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="K224" s="2" t="n">
+      <c r="L224" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="M224" s="2" t="n">
         <v>45927</v>
       </c>
-      <c r="L224" t="n">
+      <c r="N224" t="n">
         <v>6.2</v>
       </c>
-      <c r="M224" s="2" t="n">
+      <c r="O224" s="2" t="n">
         <v>45924</v>
       </c>
-      <c r="N224" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="O224" s="2" t="n">
-        <v>45921</v>
-      </c>
       <c r="P224" t="n">
-        <v>6.77</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="225">
@@ -9858,49 +10030,49 @@
         <v>282</v>
       </c>
       <c r="B225" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C225" s="2" t="n">
+        <v>45998</v>
+      </c>
+      <c r="D225" t="n">
         <v>7.5</v>
       </c>
-      <c r="C225" s="2" t="n">
+      <c r="E225" s="2" t="n">
         <v>45990</v>
       </c>
-      <c r="D225" t="n">
+      <c r="F225" t="n">
         <v>6.8</v>
       </c>
-      <c r="E225" s="2" t="n">
+      <c r="G225" s="2" t="n">
         <v>45982</v>
       </c>
-      <c r="F225" t="n">
+      <c r="H225" t="n">
         <v>7.9</v>
       </c>
-      <c r="G225" s="2" t="n">
+      <c r="I225" s="2" t="n">
         <v>45969</v>
       </c>
-      <c r="H225" t="n">
+      <c r="J225" t="n">
         <v>7</v>
       </c>
-      <c r="I225" s="2" t="n">
+      <c r="K225" s="2" t="n">
         <v>45962</v>
       </c>
-      <c r="J225" t="n">
+      <c r="L225" t="n">
         <v>5.8</v>
       </c>
-      <c r="K225" s="2" t="n">
+      <c r="M225" s="2" t="n">
         <v>45956</v>
       </c>
-      <c r="L225" t="n">
+      <c r="N225" t="n">
         <v>7</v>
       </c>
-      <c r="M225" s="2" t="n">
+      <c r="O225" s="2" t="n">
         <v>45948</v>
       </c>
-      <c r="N225" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="O225" s="2" t="n">
-        <v>45934</v>
-      </c>
       <c r="P225" t="n">
-        <v>7.04</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="226">
@@ -10150,46 +10322,46 @@
         <v>289</v>
       </c>
       <c r="B231" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="C231" s="2" t="n">
+        <v>45998</v>
+      </c>
+      <c r="D231" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E231" s="2" t="n">
         <v>45990</v>
       </c>
-      <c r="D231" t="n">
+      <c r="F231" t="n">
         <v>7.2</v>
       </c>
-      <c r="E231" s="2" t="n">
+      <c r="G231" s="2" t="n">
         <v>45984</v>
-      </c>
-      <c r="F231" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="G231" s="2" t="n">
-        <v>45970</v>
       </c>
       <c r="H231" t="n">
         <v>6.4</v>
       </c>
       <c r="I231" s="2" t="n">
+        <v>45970</v>
+      </c>
+      <c r="J231" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K231" s="2" t="n">
         <v>45963</v>
       </c>
-      <c r="J231" t="n">
+      <c r="L231" t="n">
         <v>6.3</v>
       </c>
-      <c r="K231" s="2" t="n">
+      <c r="M231" s="2" t="n">
         <v>45955</v>
       </c>
-      <c r="L231" t="n">
+      <c r="N231" t="n">
         <v>7.1</v>
       </c>
-      <c r="M231" s="2" t="n">
+      <c r="O231" s="2" t="n">
         <v>45948</v>
-      </c>
-      <c r="N231" t="n">
-        <v>7</v>
-      </c>
-      <c r="O231" s="2" t="n">
-        <v>45934</v>
       </c>
       <c r="P231" t="n">
         <v>6.73</v>
@@ -10438,49 +10610,49 @@
         <v>295</v>
       </c>
       <c r="B237" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C237" s="2" t="n">
+        <v>45998</v>
+      </c>
+      <c r="D237" t="n">
         <v>7.9</v>
       </c>
-      <c r="C237" s="2" t="n">
+      <c r="E237" s="2" t="n">
         <v>45990</v>
       </c>
-      <c r="D237" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="E237" s="2" t="n">
+      <c r="F237" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G237" s="2" t="n">
         <v>45984</v>
       </c>
-      <c r="F237" t="n">
+      <c r="H237" t="n">
         <v>6.3</v>
       </c>
-      <c r="G237" s="2" t="n">
+      <c r="I237" s="2" t="n">
         <v>45970</v>
       </c>
-      <c r="H237" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="I237" s="2" t="n">
+      <c r="J237" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="K237" s="2" t="n">
         <v>45963</v>
       </c>
-      <c r="J237" t="n">
+      <c r="L237" t="n">
         <v>6.8</v>
       </c>
-      <c r="K237" s="2" t="n">
+      <c r="M237" s="2" t="n">
         <v>45955</v>
       </c>
-      <c r="L237" t="n">
+      <c r="N237" t="n">
         <v>7.1</v>
       </c>
-      <c r="M237" s="2" t="n">
+      <c r="O237" s="2" t="n">
         <v>45948</v>
       </c>
-      <c r="N237" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="O237" s="2" t="n">
-        <v>45934</v>
-      </c>
       <c r="P237" t="n">
-        <v>6.8</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="238">
@@ -10538,49 +10710,49 @@
         <v>298</v>
       </c>
       <c r="B239" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C239" s="2" t="n">
+        <v>45997</v>
+      </c>
+      <c r="D239" t="n">
         <v>6</v>
       </c>
-      <c r="C239" s="2" t="n">
+      <c r="E239" s="2" t="n">
         <v>45994</v>
       </c>
-      <c r="D239" t="n">
+      <c r="F239" t="n">
         <v>6.1</v>
       </c>
-      <c r="E239" s="2" t="n">
+      <c r="G239" s="2" t="n">
         <v>45991</v>
       </c>
-      <c r="F239" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="G239" s="2" t="n">
+      <c r="H239" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I239" s="2" t="n">
         <v>45983</v>
       </c>
-      <c r="H239" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="I239" s="2" t="n">
+      <c r="J239" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="K239" s="2" t="n">
         <v>45970</v>
       </c>
-      <c r="J239" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K239" s="2" t="n">
+      <c r="L239" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="M239" s="2" t="n">
         <v>45962</v>
       </c>
-      <c r="L239" t="n">
+      <c r="N239" t="n">
         <v>6.8</v>
       </c>
-      <c r="M239" s="2" t="n">
+      <c r="O239" s="2" t="n">
         <v>45959</v>
       </c>
-      <c r="N239" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="O239" s="2" t="n">
-        <v>45927</v>
-      </c>
       <c r="P239" t="n">
-        <v>6.34</v>
+        <v>6.41</v>
       </c>
     </row>
     <row r="240">
@@ -10782,7 +10954,7 @@
         <v>45994</v>
       </c>
       <c r="D244" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="E244" s="2" t="n">
         <v>45990</v>
@@ -10818,7 +10990,7 @@
         <v>45927</v>
       </c>
       <c r="P244" t="n">
-        <v>6.99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="245">
@@ -10826,49 +10998,49 @@
         <v>305</v>
       </c>
       <c r="B245" t="n">
+        <v>7</v>
+      </c>
+      <c r="C245" s="2" t="n">
+        <v>45998</v>
+      </c>
+      <c r="D245" t="n">
         <v>6.4</v>
       </c>
-      <c r="C245" s="2" t="n">
+      <c r="E245" s="2" t="n">
         <v>45989</v>
       </c>
-      <c r="D245" t="n">
+      <c r="F245" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="E245" s="2" t="n">
+      <c r="G245" s="2" t="n">
         <v>45984</v>
       </c>
-      <c r="F245" t="n">
+      <c r="H245" t="n">
         <v>7</v>
       </c>
-      <c r="G245" s="2" t="n">
+      <c r="I245" s="2" t="n">
         <v>45970</v>
       </c>
-      <c r="H245" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="I245" s="2" t="n">
+      <c r="J245" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="K245" s="2" t="n">
         <v>45963</v>
       </c>
-      <c r="J245" t="n">
+      <c r="L245" t="n">
         <v>6.8</v>
       </c>
-      <c r="K245" s="2" t="n">
+      <c r="M245" s="2" t="n">
         <v>45956</v>
       </c>
-      <c r="L245" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="M245" s="2" t="n">
+      <c r="N245" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="O245" s="2" t="n">
         <v>45949</v>
       </c>
-      <c r="N245" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O245" s="2" t="n">
-        <v>45935</v>
-      </c>
       <c r="P245" t="n">
-        <v>7.03</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="246">
@@ -11076,49 +11248,49 @@
         <v>310</v>
       </c>
       <c r="B250" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C250" s="2" t="n">
+        <v>45998</v>
+      </c>
+      <c r="D250" t="n">
         <v>6.2</v>
       </c>
-      <c r="C250" s="2" t="n">
+      <c r="E250" s="2" t="n">
         <v>45991</v>
       </c>
-      <c r="D250" t="n">
+      <c r="F250" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="E250" s="2" t="n">
+      <c r="G250" s="2" t="n">
         <v>45984</v>
       </c>
-      <c r="F250" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="G250" s="2" t="n">
+      <c r="H250" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I250" s="2" t="n">
         <v>45970</v>
       </c>
-      <c r="H250" t="n">
+      <c r="J250" t="n">
         <v>7.4</v>
       </c>
-      <c r="I250" s="2" t="n">
+      <c r="K250" s="2" t="n">
         <v>45963</v>
       </c>
-      <c r="J250" t="n">
+      <c r="L250" t="n">
         <v>7.3</v>
       </c>
-      <c r="K250" s="2" t="n">
+      <c r="M250" s="2" t="n">
         <v>45949</v>
-      </c>
-      <c r="L250" t="n">
-        <v>7</v>
-      </c>
-      <c r="M250" s="2" t="n">
-        <v>45935</v>
       </c>
       <c r="N250" t="n">
         <v>7</v>
       </c>
       <c r="O250" s="2" t="n">
-        <v>45928</v>
+        <v>45935</v>
       </c>
       <c r="P250" t="n">
-        <v>7.11</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="251">
@@ -11126,49 +11298,49 @@
         <v>311</v>
       </c>
       <c r="B251" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C251" s="2" t="n">
+        <v>45998